--- a/Assets/Editor/ItemData.xlsx
+++ b/Assets/Editor/ItemData.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12375"/>
+    <workbookView xWindow="-15" yWindow="8940" windowWidth="38460" windowHeight="8985"/>
   </bookViews>
   <sheets>
     <sheet name="道具" sheetId="1" r:id="rId1"/>
     <sheet name="关卡" sheetId="2" r:id="rId2"/>
     <sheet name="补充用" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="124519"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="57">
   <si>
     <t>id</t>
   </si>
@@ -209,18 +209,20 @@
   <si>
     <t>炽金业力·大</t>
   </si>
+  <si>
+    <t>当雷电击杀怪物后，溢出的伤害将会自动弹射到周围的怪物身上，无限循环，直至没有怪物</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>溢出雷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="21">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -229,352 +231,21 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -582,251 +253,9 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -853,57 +282,10 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="百分比" xfId="3" builtinId="5"/>
-    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
-    <cellStyle name="超链接" xfId="6" builtinId="8"/>
-    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
-    <cellStyle name="注释" xfId="8" builtinId="10"/>
-    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
-    <cellStyle name="标题" xfId="10" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
-    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="输入" xfId="16" builtinId="20"/>
-    <cellStyle name="输出" xfId="17" builtinId="21"/>
-    <cellStyle name="计算" xfId="18" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
-    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="好" xfId="22" builtinId="26"/>
-    <cellStyle name="差" xfId="23" builtinId="27"/>
-    <cellStyle name="适中" xfId="24" builtinId="28"/>
-    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
-    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
-    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
-    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1192,19 +574,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:F23"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="23.375" customWidth="1"/>
     <col min="3" max="3" width="38.375" style="6" customWidth="1"/>
@@ -1252,7 +634,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" ht="108" spans="1:6">
+    <row r="3" spans="1:6" ht="108">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -1292,7 +674,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" customFormat="1" spans="1:6">
+    <row r="5" spans="1:6">
       <c r="A5">
         <v>2</v>
       </c>
@@ -1312,7 +694,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" customFormat="1" spans="1:6">
+    <row r="6" spans="1:6">
       <c r="A6">
         <v>3</v>
       </c>
@@ -1332,7 +714,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" customFormat="1" spans="1:6">
+    <row r="7" spans="1:6">
       <c r="A7">
         <v>4</v>
       </c>
@@ -1352,7 +734,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" customFormat="1" spans="1:6">
+    <row r="8" spans="1:6">
       <c r="A8">
         <v>5</v>
       </c>
@@ -1372,7 +754,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" customFormat="1" spans="1:6">
+    <row r="9" spans="1:6">
       <c r="A9">
         <v>6</v>
       </c>
@@ -1392,7 +774,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" customFormat="1" spans="1:6">
+    <row r="10" spans="1:6">
       <c r="A10">
         <v>7</v>
       </c>
@@ -1412,7 +794,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" customFormat="1" spans="1:6">
+    <row r="11" spans="1:6">
       <c r="A11">
         <v>8</v>
       </c>
@@ -1432,7 +814,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" customFormat="1" spans="1:6">
+    <row r="12" spans="1:6">
       <c r="A12">
         <v>9</v>
       </c>
@@ -1452,7 +834,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" customFormat="1" spans="1:6">
+    <row r="13" spans="1:6">
       <c r="A13">
         <v>10</v>
       </c>
@@ -1472,7 +854,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" customFormat="1" spans="1:6">
+    <row r="14" spans="1:6">
       <c r="A14">
         <v>11</v>
       </c>
@@ -1492,7 +874,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" customFormat="1" spans="1:6">
+    <row r="15" spans="1:6">
       <c r="A15">
         <v>12</v>
       </c>
@@ -1512,7 +894,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" customFormat="1" spans="1:6">
+    <row r="16" spans="1:6">
       <c r="A16">
         <v>13</v>
       </c>
@@ -1532,7 +914,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" customFormat="1" spans="1:6">
+    <row r="17" spans="1:6">
       <c r="A17">
         <v>14</v>
       </c>
@@ -1552,7 +934,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" customFormat="1" spans="1:6">
+    <row r="18" spans="1:6">
       <c r="A18">
         <v>15</v>
       </c>
@@ -1572,7 +954,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" ht="27" spans="1:6">
+    <row r="19" spans="1:6" ht="27">
       <c r="A19">
         <v>16</v>
       </c>
@@ -1612,7 +994,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" ht="27" spans="1:6">
+    <row r="21" spans="1:6" ht="27">
       <c r="A21">
         <v>18</v>
       </c>
@@ -1632,7 +1014,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" customFormat="1" spans="1:6">
+    <row r="22" spans="1:6">
       <c r="A22">
         <v>19</v>
       </c>
@@ -1652,7 +1034,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" customFormat="1" spans="1:6">
+    <row r="23" spans="1:6">
       <c r="A23">
         <v>20</v>
       </c>
@@ -1672,34 +1054,53 @@
         <v>2</v>
       </c>
     </row>
+    <row r="24" spans="1:6" ht="27">
+      <c r="A24">
+        <v>21</v>
+      </c>
+      <c r="B24" t="s">
+        <v>56</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="D24" s="5">
+        <v>303</v>
+      </c>
+      <c r="E24">
+        <v>-1</v>
+      </c>
+      <c r="F24">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="4" max="4" width="12.375" customWidth="1"/>
     <col min="5" max="5" width="18.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" ht="73.5" customHeight="1" spans="1:7">
+    <row r="3" spans="1:7" ht="73.5" customHeight="1">
       <c r="A3" t="s">
         <v>44</v>
       </c>
@@ -1745,7 +1146,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" customFormat="1" spans="1:7">
+    <row r="5" spans="1:7">
       <c r="A5" s="5">
         <v>101</v>
       </c>
@@ -1768,7 +1169,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" customFormat="1" spans="1:7">
+    <row r="6" spans="1:7">
       <c r="A6" s="5">
         <v>101</v>
       </c>
@@ -1791,7 +1192,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" customFormat="1" spans="1:7">
+    <row r="7" spans="1:7">
       <c r="A7" s="5">
         <v>101</v>
       </c>
@@ -1814,7 +1215,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" customFormat="1" spans="1:7">
+    <row r="8" spans="1:7">
       <c r="A8" s="5">
         <v>101</v>
       </c>
@@ -1837,50 +1238,49 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:1">
+    <row r="9" spans="1:7">
       <c r="A9" s="5">
         <v>101</v>
       </c>
     </row>
-    <row r="10" spans="1:1">
+    <row r="10" spans="1:7">
       <c r="A10" s="5">
         <v>101</v>
       </c>
     </row>
-    <row r="11" spans="1:1">
+    <row r="11" spans="1:7">
       <c r="A11" s="5">
         <v>101</v>
       </c>
     </row>
-    <row r="12" spans="1:1">
+    <row r="12" spans="1:7">
       <c r="A12" s="5">
         <v>101</v>
       </c>
     </row>
-    <row r="13" spans="1:1">
+    <row r="13" spans="1:7">
       <c r="A13" s="5">
         <v>101</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="$A1:$XFD3"/>
+      <selection sqref="A1:XFD3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="27" spans="2:6">
+    <row r="1" spans="2:6" s="1" customFormat="1" ht="27">
       <c r="B1" s="1" t="s">
         <v>51</v>
       </c>
@@ -1897,7 +1297,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" ht="27" spans="2:6">
+    <row r="2" spans="2:6" s="1" customFormat="1" ht="27">
       <c r="B2" s="1" t="s">
         <v>53</v>
       </c>
@@ -1914,7 +1314,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" ht="27" spans="2:6">
+    <row r="3" spans="2:6" s="1" customFormat="1" ht="27">
       <c r="B3" s="1" t="s">
         <v>54</v>
       </c>
@@ -1932,8 +1332,8 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/Assets/Editor/ItemData.xlsx
+++ b/Assets/Editor/ItemData.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="59">
   <si>
     <t>id</t>
   </si>
@@ -216,6 +216,13 @@
   <si>
     <t>溢出雷</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>磁性雷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>雷电会将周围的怪物吸附牵引</t>
   </si>
 </sst>
 </file>
@@ -580,10 +587,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F24"/>
+  <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1071,6 +1078,26 @@
         <v>-1</v>
       </c>
       <c r="F24">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25">
+        <v>22</v>
+      </c>
+      <c r="B25" t="s">
+        <v>57</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="D25" s="5">
+        <v>304</v>
+      </c>
+      <c r="E25">
+        <v>-1</v>
+      </c>
+      <c r="F25">
         <v>2</v>
       </c>
     </row>

--- a/Assets/Editor/ItemData.xlsx
+++ b/Assets/Editor/ItemData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="8940" windowWidth="38460" windowHeight="8985"/>
+    <workbookView xWindow="-225" yWindow="3660" windowWidth="38460" windowHeight="8985"/>
   </bookViews>
   <sheets>
     <sheet name="道具" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="63">
   <si>
     <t>id</t>
   </si>
@@ -223,6 +223,22 @@
   </si>
   <si>
     <t>雷电会将周围的怪物吸附牵引</t>
+  </si>
+  <si>
+    <t>蛊虫·回血</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蛊虫·环形伤害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需要5道闪电充能，持续2秒回复生命值，每秒给角色回复10%已损失生命值，最小值为1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需要10道闪电充能，在自身周围形成一个环形造成伤害持续10秒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -587,10 +603,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F25"/>
+  <dimension ref="A1:F27"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1098,6 +1114,46 @@
         <v>-1</v>
       </c>
       <c r="F25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="27">
+      <c r="A26">
+        <v>23</v>
+      </c>
+      <c r="B26" t="s">
+        <v>59</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="D26" s="5">
+        <v>601</v>
+      </c>
+      <c r="E26">
+        <v>-1</v>
+      </c>
+      <c r="F26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="27">
+      <c r="A27">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>60</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="D27" s="5">
+        <v>602</v>
+      </c>
+      <c r="E27">
+        <v>-1</v>
+      </c>
+      <c r="F27">
         <v>2</v>
       </c>
     </row>

--- a/Assets/Editor/ItemData.xlsx
+++ b/Assets/Editor/ItemData.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="65">
   <si>
     <t>id</t>
   </si>
@@ -238,6 +238,14 @@
   </si>
   <si>
     <t>需要10道闪电充能，在自身周围形成一个环形造成伤害持续10秒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蛊虫·追击撕咬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>追踪3名血量最高的敌人持续叮咬8秒，敌人死亡时自动切换目标</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -603,10 +611,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F27"/>
+  <dimension ref="A1:F28"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+      <selection activeCell="E28" sqref="E28:F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1154,6 +1162,26 @@
         <v>-1</v>
       </c>
       <c r="F27">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="27">
+      <c r="A28">
+        <v>25</v>
+      </c>
+      <c r="B28" t="s">
+        <v>63</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="D28" s="5">
+        <v>603</v>
+      </c>
+      <c r="E28">
+        <v>-1</v>
+      </c>
+      <c r="F28">
         <v>2</v>
       </c>
     </row>

--- a/Assets/Editor/ItemData.xlsx
+++ b/Assets/Editor/ItemData.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-225" yWindow="3660" windowWidth="38460" windowHeight="8985"/>
+    <workbookView windowHeight="17775"/>
   </bookViews>
   <sheets>
     <sheet name="道具" sheetId="1" r:id="rId1"/>
     <sheet name="关卡" sheetId="2" r:id="rId2"/>
     <sheet name="补充用" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="68">
   <si>
     <t>id</t>
   </si>
@@ -47,6 +47,9 @@
   </si>
   <si>
     <t>specialType</t>
+  </si>
+  <si>
+    <t>story</t>
   </si>
   <si>
     <t>int</t>
@@ -83,12 +86,24 @@
 2:法宝</t>
   </si>
   <si>
+    <t>道具剧情</t>
+  </si>
+  <si>
     <t>翠微业力·小</t>
   </si>
   <si>
     <t>提升生命值</t>
   </si>
   <si>
+    <t>密室对谈·一个中年人和一个年轻人（下）
+“等你再醒来的时候，不知道会是什么时代，但如果不是我叫醒你的话，估计要有苦头等着你吃。”
+“能有多苦？”
+“比你师姐烧得饭菜还苦。”
+“那我有点后悔了……”
+“最后一句话是耍贫嘴？”
+“师父……保重，还有他们也……”</t>
+  </si>
+  <si>
     <t>翠微业力·中</t>
   </si>
   <si>
@@ -171,6 +186,36 @@
   </si>
   <si>
     <t>当雷电攻击怪物后会发生爆炸伤害</t>
+  </si>
+  <si>
+    <t>溢出雷</t>
+  </si>
+  <si>
+    <t>当雷电击杀怪物后，溢出的伤害将会自动弹射到周围的怪物身上，无限循环，直至没有怪物</t>
+  </si>
+  <si>
+    <t>磁性雷</t>
+  </si>
+  <si>
+    <t>雷电会将周围的怪物吸附牵引</t>
+  </si>
+  <si>
+    <t>蛊虫·回血</t>
+  </si>
+  <si>
+    <t>需要5道闪电充能，持续2秒回复生命值，每秒给角色回复10%已损失生命值，最小值为1</t>
+  </si>
+  <si>
+    <t>蛊虫·环形伤害</t>
+  </si>
+  <si>
+    <t>需要10道闪电充能，在自身周围形成一个环形造成伤害持续10秒</t>
+  </si>
+  <si>
+    <t>蛊虫·追击撕咬</t>
+  </si>
+  <si>
+    <t>追踪3名血量最高的敌人持续叮咬8秒，敌人死亡时自动切换目标</t>
   </si>
   <si>
     <t>关卡等级</t>
@@ -209,51 +254,18 @@
   <si>
     <t>炽金业力·大</t>
   </si>
-  <si>
-    <t>当雷电击杀怪物后，溢出的伤害将会自动弹射到周围的怪物身上，无限循环，直至没有怪物</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>溢出雷</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>磁性雷</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>雷电会将周围的怪物吸附牵引</t>
-  </si>
-  <si>
-    <t>蛊虫·回血</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>蛊虫·环形伤害</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>需要5道闪电充能，持续2秒回复生命值，每秒给角色回复10%已损失生命值，最小值为1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>需要10道闪电充能，在自身周围形成一个环形造成伤害持续10秒</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>蛊虫·追击撕咬</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>追踪3名血量最高的敌人持续叮咬8秒，敌人死亡时自动切换目标</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -262,21 +274,345 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -284,9 +620,251 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -313,10 +891,57 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -605,34 +1230,35 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F28"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28:F28"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="J28" sqref="J28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
   <cols>
     <col min="2" max="2" width="23.375" customWidth="1"/>
-    <col min="3" max="3" width="38.375" style="6" customWidth="1"/>
+    <col min="3" max="3" width="38.375" style="4" customWidth="1"/>
     <col min="4" max="4" width="15.875" customWidth="1"/>
     <col min="6" max="6" width="13.125" customWidth="1"/>
+    <col min="7" max="7" width="75.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
       <c r="D1" t="s">
@@ -644,56 +1270,65 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="E2" t="s">
         <v>7</v>
       </c>
-      <c r="D2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" t="s">
-        <v>6</v>
-      </c>
       <c r="F2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="108">
+        <v>7</v>
+      </c>
+      <c r="G2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" ht="108" spans="1:7">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="6" t="s">
         <v>10</v>
       </c>
+      <c r="C3" s="4" t="s">
+        <v>11</v>
+      </c>
       <c r="D3" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>14</v>
+      </c>
+      <c r="G3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" ht="108" spans="1:7">
       <c r="A4">
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>15</v>
+        <v>16</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>17</v>
       </c>
       <c r="D4" s="5">
         <v>1</v>
@@ -704,16 +1339,19 @@
       <c r="F4">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:6">
+      <c r="G4" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" ht="108" spans="1:7">
       <c r="A5">
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>15</v>
+        <v>19</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>17</v>
       </c>
       <c r="D5" s="5">
         <v>1</v>
@@ -724,16 +1362,19 @@
       <c r="F5">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="G5" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" ht="108" spans="1:7">
       <c r="A6">
         <v>3</v>
       </c>
       <c r="B6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>17</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>15</v>
       </c>
       <c r="D6" s="5">
         <v>1</v>
@@ -744,16 +1385,19 @@
       <c r="F6">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:6">
+      <c r="G6" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" ht="108" spans="1:7">
       <c r="A7">
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>19</v>
+        <v>21</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>22</v>
       </c>
       <c r="D7" s="5">
         <v>2</v>
@@ -764,16 +1408,19 @@
       <c r="F7">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:6">
+      <c r="G7" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" ht="108" spans="1:7">
       <c r="A8">
         <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>19</v>
+        <v>23</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>22</v>
       </c>
       <c r="D8" s="5">
         <v>2</v>
@@ -784,16 +1431,19 @@
       <c r="F8">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:6">
+      <c r="G8" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" ht="108" spans="1:7">
       <c r="A9">
         <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>21</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>19</v>
+        <v>24</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>22</v>
       </c>
       <c r="D9" s="5">
         <v>2</v>
@@ -804,16 +1454,19 @@
       <c r="F9">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:6">
+      <c r="G9" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" ht="108" spans="1:7">
       <c r="A10">
         <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>23</v>
+        <v>25</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>26</v>
       </c>
       <c r="D10" s="5">
         <v>3</v>
@@ -824,16 +1477,19 @@
       <c r="F10">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:6">
+      <c r="G10" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" ht="108" spans="1:7">
       <c r="A11">
         <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>23</v>
+        <v>27</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>26</v>
       </c>
       <c r="D11" s="5">
         <v>3</v>
@@ -844,16 +1500,19 @@
       <c r="F11">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:6">
+      <c r="G11" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" ht="108" spans="1:7">
       <c r="A12">
         <v>9</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>23</v>
+        <v>28</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>26</v>
       </c>
       <c r="D12" s="5">
         <v>3</v>
@@ -864,16 +1523,19 @@
       <c r="F12">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:6">
+      <c r="G12" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" ht="108" spans="1:7">
       <c r="A13">
         <v>10</v>
       </c>
       <c r="B13" t="s">
-        <v>26</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>27</v>
+        <v>29</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>30</v>
       </c>
       <c r="D13" s="5">
         <v>5</v>
@@ -884,16 +1546,19 @@
       <c r="F13">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:6">
+      <c r="G13" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" ht="108" spans="1:7">
       <c r="A14">
         <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>28</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>27</v>
+        <v>31</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>30</v>
       </c>
       <c r="D14" s="5">
         <v>5</v>
@@ -904,16 +1569,19 @@
       <c r="F14">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:6">
+      <c r="G14" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" ht="108" spans="1:7">
       <c r="A15">
         <v>12</v>
       </c>
       <c r="B15" t="s">
-        <v>29</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>27</v>
+        <v>32</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>30</v>
       </c>
       <c r="D15" s="5">
         <v>5</v>
@@ -924,16 +1592,19 @@
       <c r="F15">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:6">
+      <c r="G15" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" ht="108" spans="1:7">
       <c r="A16">
         <v>13</v>
       </c>
       <c r="B16" t="s">
-        <v>30</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>31</v>
+        <v>33</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>34</v>
       </c>
       <c r="D16" s="5">
         <v>6</v>
@@ -944,16 +1615,19 @@
       <c r="F16">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:6">
+      <c r="G16" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" ht="108" spans="1:7">
       <c r="A17">
         <v>14</v>
       </c>
       <c r="B17" t="s">
-        <v>32</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>31</v>
+        <v>35</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>34</v>
       </c>
       <c r="D17" s="5">
         <v>6</v>
@@ -964,16 +1638,19 @@
       <c r="F17">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:6">
+      <c r="G17" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" ht="108" spans="1:7">
       <c r="A18">
         <v>15</v>
       </c>
       <c r="B18" t="s">
-        <v>33</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>31</v>
+        <v>36</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>34</v>
       </c>
       <c r="D18" s="5">
         <v>6</v>
@@ -984,16 +1661,19 @@
       <c r="F18">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" ht="27">
+      <c r="G18" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" ht="108" spans="1:7">
       <c r="A19">
         <v>16</v>
       </c>
       <c r="B19" t="s">
-        <v>34</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>35</v>
+        <v>37</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>38</v>
       </c>
       <c r="D19" s="5">
         <v>201</v>
@@ -1004,16 +1684,19 @@
       <c r="F19">
         <v>2</v>
       </c>
-    </row>
-    <row r="20" spans="1:6">
+      <c r="G19" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" ht="108" spans="1:7">
       <c r="A20">
         <v>17</v>
       </c>
       <c r="B20" t="s">
-        <v>36</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>37</v>
+        <v>39</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>40</v>
       </c>
       <c r="D20" s="5">
         <v>202</v>
@@ -1024,16 +1707,19 @@
       <c r="F20">
         <v>2</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" ht="27">
+      <c r="G20" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" ht="108" spans="1:7">
       <c r="A21">
         <v>18</v>
       </c>
       <c r="B21" t="s">
-        <v>38</v>
-      </c>
-      <c r="C21" s="6" t="s">
-        <v>39</v>
+        <v>41</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>42</v>
       </c>
       <c r="D21" s="5">
         <v>203</v>
@@ -1044,16 +1730,19 @@
       <c r="F21">
         <v>2</v>
       </c>
-    </row>
-    <row r="22" spans="1:6">
+      <c r="G21" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22" ht="108" spans="1:7">
       <c r="A22">
         <v>19</v>
       </c>
       <c r="B22" t="s">
-        <v>40</v>
-      </c>
-      <c r="C22" s="6" t="s">
-        <v>41</v>
+        <v>43</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>44</v>
       </c>
       <c r="D22" s="5">
         <v>301</v>
@@ -1064,16 +1753,19 @@
       <c r="F22">
         <v>2</v>
       </c>
-    </row>
-    <row r="23" spans="1:6">
+      <c r="G22" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="23" ht="108" spans="1:7">
       <c r="A23">
         <v>20</v>
       </c>
       <c r="B23" t="s">
-        <v>42</v>
-      </c>
-      <c r="C23" s="6" t="s">
-        <v>43</v>
+        <v>45</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>46</v>
       </c>
       <c r="D23" s="5">
         <v>302</v>
@@ -1084,16 +1776,19 @@
       <c r="F23">
         <v>2</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" ht="27">
+      <c r="G23" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="24" ht="108" spans="1:7">
       <c r="A24">
         <v>21</v>
       </c>
       <c r="B24" t="s">
-        <v>56</v>
-      </c>
-      <c r="C24" s="6" t="s">
-        <v>55</v>
+        <v>47</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>48</v>
       </c>
       <c r="D24" s="5">
         <v>303</v>
@@ -1104,16 +1799,19 @@
       <c r="F24">
         <v>2</v>
       </c>
-    </row>
-    <row r="25" spans="1:6">
+      <c r="G24" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="25" ht="108" spans="1:7">
       <c r="A25">
         <v>22</v>
       </c>
       <c r="B25" t="s">
-        <v>57</v>
-      </c>
-      <c r="C25" s="6" t="s">
-        <v>58</v>
+        <v>49</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>50</v>
       </c>
       <c r="D25" s="5">
         <v>304</v>
@@ -1124,16 +1822,19 @@
       <c r="F25">
         <v>2</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" ht="27">
+      <c r="G25" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="26" ht="108" spans="1:7">
       <c r="A26">
         <v>23</v>
       </c>
       <c r="B26" t="s">
-        <v>59</v>
-      </c>
-      <c r="C26" s="6" t="s">
-        <v>61</v>
+        <v>51</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>52</v>
       </c>
       <c r="D26" s="5">
         <v>601</v>
@@ -1144,16 +1845,19 @@
       <c r="F26">
         <v>2</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" ht="27">
+      <c r="G26" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="27" ht="108" spans="1:7">
       <c r="A27">
         <v>24</v>
       </c>
       <c r="B27" t="s">
-        <v>60</v>
-      </c>
-      <c r="C27" s="6" t="s">
-        <v>62</v>
+        <v>53</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>54</v>
       </c>
       <c r="D27" s="5">
         <v>602</v>
@@ -1164,16 +1868,19 @@
       <c r="F27">
         <v>2</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" ht="27">
+      <c r="G27" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="28" ht="108" spans="1:7">
       <c r="A28">
         <v>25</v>
       </c>
       <c r="B28" t="s">
-        <v>63</v>
-      </c>
-      <c r="C28" s="6" t="s">
-        <v>64</v>
+        <v>55</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>56</v>
       </c>
       <c r="D28" s="5">
         <v>603</v>
@@ -1184,54 +1891,58 @@
       <c r="F28">
         <v>2</v>
       </c>
+      <c r="G28" s="6" t="s">
+        <v>18</v>
+      </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
   <cols>
     <col min="4" max="4" width="12.375" customWidth="1"/>
     <col min="5" max="5" width="18.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="73.5" customHeight="1">
+    <row r="3" ht="73.5" customHeight="1" spans="1:7">
       <c r="A3" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="B3" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="C3" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="D3" t="s">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>48</v>
+        <v>61</v>
       </c>
       <c r="F3" t="s">
-        <v>49</v>
+        <v>62</v>
       </c>
       <c r="G3" t="s">
-        <v>50</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1349,54 +2060,55 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:1">
       <c r="A9" s="5">
         <v>101</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:1">
       <c r="A10" s="5">
         <v>101</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:1">
       <c r="A11" s="5">
         <v>101</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:1">
       <c r="A12" s="5">
         <v>101</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:1">
       <c r="A13" s="5">
         <v>101</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="B1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD3"/>
+      <selection activeCell="A1" sqref="$A1:$XFD3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="5"/>
   <sheetData>
-    <row r="1" spans="2:6" s="1" customFormat="1" ht="27">
+    <row r="1" s="1" customFormat="1" ht="27" spans="2:6">
       <c r="B1" s="1" t="s">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="D1" s="3">
         <v>7</v>
@@ -1408,12 +2120,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="2:6" s="1" customFormat="1" ht="27">
+    <row r="2" s="1" customFormat="1" ht="27" spans="2:6">
       <c r="B2" s="1" t="s">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="D2" s="3">
         <v>7</v>
@@ -1425,12 +2137,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="2:6" s="1" customFormat="1" ht="27">
+    <row r="3" s="1" customFormat="1" ht="27" spans="2:6">
       <c r="B3" s="1" t="s">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="D3" s="3">
         <v>7</v>
@@ -1443,8 +2155,8 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/Assets/Editor/ItemData.xlsx
+++ b/Assets/Editor/ItemData.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17775"/>
+    <workbookView windowHeight="17775" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="道具" sheetId="1" r:id="rId1"/>
-    <sheet name="关卡" sheetId="2" r:id="rId2"/>
+    <sheet name="经验" sheetId="2" r:id="rId2"/>
     <sheet name="补充用" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="66">
   <si>
     <t>id</t>
   </si>
@@ -218,29 +218,19 @@
     <t>追踪3名血量最高的敌人持续叮咬8秒，敌人死亡时自动切换目标</t>
   </si>
   <si>
-    <t>关卡等级</t>
-  </si>
-  <si>
-    <t>持续时长</t>
-  </si>
-  <si>
-    <t>怪物波次</t>
-  </si>
-  <si>
-    <t>波次开始时间</t>
-  </si>
-  <si>
-    <t>怪物id
-怪物类型0怪物等级
-1：随机怪物
-2：跟随怪物
-3：逃跑怪物</t>
-  </si>
-  <si>
-    <t>怪物数量</t>
-  </si>
-  <si>
-    <t>是否奖励</t>
+    <t>level</t>
+  </si>
+  <si>
+    <t>expMax</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>经验等级</t>
+  </si>
+  <si>
+    <t>经验等级上限</t>
   </si>
   <si>
     <t>炽金业力·小</t>
@@ -868,7 +858,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -880,9 +870,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
@@ -1238,14 +1225,14 @@
   <sheetPr/>
   <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="J28" sqref="J28"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
   <cols>
     <col min="2" max="2" width="23.375" customWidth="1"/>
-    <col min="3" max="3" width="38.375" style="4" customWidth="1"/>
+    <col min="3" max="3" width="38.375" style="5" customWidth="1"/>
     <col min="4" max="4" width="15.875" customWidth="1"/>
     <col min="6" max="6" width="13.125" customWidth="1"/>
     <col min="7" max="7" width="75.25" customWidth="1"/>
@@ -1258,7 +1245,7 @@
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
       <c r="D1" t="s">
@@ -1281,7 +1268,7 @@
       <c r="B2" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="5" t="s">
         <v>8</v>
       </c>
       <c r="D2" t="s">
@@ -1304,16 +1291,16 @@
       <c r="B3" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="5" t="s">
         <v>12</v>
       </c>
       <c r="E3" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="5" t="s">
         <v>14</v>
       </c>
       <c r="G3" t="s">
@@ -1327,10 +1314,10 @@
       <c r="B4" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="5">
+      <c r="D4" s="4">
         <v>1</v>
       </c>
       <c r="E4">
@@ -1339,7 +1326,7 @@
       <c r="F4">
         <v>1</v>
       </c>
-      <c r="G4" s="6" t="s">
+      <c r="G4" s="5" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1350,10 +1337,10 @@
       <c r="B5" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D5" s="4">
         <v>1</v>
       </c>
       <c r="E5">
@@ -1362,7 +1349,7 @@
       <c r="F5">
         <v>1</v>
       </c>
-      <c r="G5" s="6" t="s">
+      <c r="G5" s="5" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1373,10 +1360,10 @@
       <c r="B6" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="5">
+      <c r="D6" s="4">
         <v>1</v>
       </c>
       <c r="E6">
@@ -1385,7 +1372,7 @@
       <c r="F6">
         <v>1</v>
       </c>
-      <c r="G6" s="6" t="s">
+      <c r="G6" s="5" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1396,10 +1383,10 @@
       <c r="B7" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D7" s="5">
+      <c r="D7" s="4">
         <v>2</v>
       </c>
       <c r="E7">
@@ -1408,7 +1395,7 @@
       <c r="F7">
         <v>1</v>
       </c>
-      <c r="G7" s="6" t="s">
+      <c r="G7" s="5" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1419,10 +1406,10 @@
       <c r="B8" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="5">
+      <c r="D8" s="4">
         <v>2</v>
       </c>
       <c r="E8">
@@ -1431,7 +1418,7 @@
       <c r="F8">
         <v>1</v>
       </c>
-      <c r="G8" s="6" t="s">
+      <c r="G8" s="5" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1442,10 +1429,10 @@
       <c r="B9" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="5">
+      <c r="D9" s="4">
         <v>2</v>
       </c>
       <c r="E9">
@@ -1454,7 +1441,7 @@
       <c r="F9">
         <v>1</v>
       </c>
-      <c r="G9" s="6" t="s">
+      <c r="G9" s="5" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1465,10 +1452,10 @@
       <c r="B10" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="D10" s="5">
+      <c r="D10" s="4">
         <v>3</v>
       </c>
       <c r="E10">
@@ -1477,7 +1464,7 @@
       <c r="F10">
         <v>1</v>
       </c>
-      <c r="G10" s="6" t="s">
+      <c r="G10" s="5" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1488,10 +1475,10 @@
       <c r="B11" t="s">
         <v>27</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="D11" s="5">
+      <c r="D11" s="4">
         <v>3</v>
       </c>
       <c r="E11">
@@ -1500,7 +1487,7 @@
       <c r="F11">
         <v>1</v>
       </c>
-      <c r="G11" s="6" t="s">
+      <c r="G11" s="5" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1511,10 +1498,10 @@
       <c r="B12" t="s">
         <v>28</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C12" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="D12" s="5">
+      <c r="D12" s="4">
         <v>3</v>
       </c>
       <c r="E12">
@@ -1523,7 +1510,7 @@
       <c r="F12">
         <v>1</v>
       </c>
-      <c r="G12" s="6" t="s">
+      <c r="G12" s="5" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1534,10 +1521,10 @@
       <c r="B13" t="s">
         <v>29</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="D13" s="5">
+      <c r="D13" s="4">
         <v>5</v>
       </c>
       <c r="E13">
@@ -1546,7 +1533,7 @@
       <c r="F13">
         <v>1</v>
       </c>
-      <c r="G13" s="6" t="s">
+      <c r="G13" s="5" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1557,10 +1544,10 @@
       <c r="B14" t="s">
         <v>31</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="C14" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="D14" s="5">
+      <c r="D14" s="4">
         <v>5</v>
       </c>
       <c r="E14">
@@ -1569,7 +1556,7 @@
       <c r="F14">
         <v>1</v>
       </c>
-      <c r="G14" s="6" t="s">
+      <c r="G14" s="5" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1580,10 +1567,10 @@
       <c r="B15" t="s">
         <v>32</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="C15" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="D15" s="5">
+      <c r="D15" s="4">
         <v>5</v>
       </c>
       <c r="E15">
@@ -1592,7 +1579,7 @@
       <c r="F15">
         <v>1</v>
       </c>
-      <c r="G15" s="6" t="s">
+      <c r="G15" s="5" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1603,10 +1590,10 @@
       <c r="B16" t="s">
         <v>33</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C16" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="D16" s="5">
+      <c r="D16" s="4">
         <v>6</v>
       </c>
       <c r="E16">
@@ -1615,7 +1602,7 @@
       <c r="F16">
         <v>1</v>
       </c>
-      <c r="G16" s="6" t="s">
+      <c r="G16" s="5" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1626,10 +1613,10 @@
       <c r="B17" t="s">
         <v>35</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="C17" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="D17" s="5">
+      <c r="D17" s="4">
         <v>6</v>
       </c>
       <c r="E17">
@@ -1638,7 +1625,7 @@
       <c r="F17">
         <v>1</v>
       </c>
-      <c r="G17" s="6" t="s">
+      <c r="G17" s="5" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1649,10 +1636,10 @@
       <c r="B18" t="s">
         <v>36</v>
       </c>
-      <c r="C18" s="4" t="s">
+      <c r="C18" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="D18" s="5">
+      <c r="D18" s="4">
         <v>6</v>
       </c>
       <c r="E18">
@@ -1661,7 +1648,7 @@
       <c r="F18">
         <v>1</v>
       </c>
-      <c r="G18" s="6" t="s">
+      <c r="G18" s="5" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1672,10 +1659,10 @@
       <c r="B19" t="s">
         <v>37</v>
       </c>
-      <c r="C19" s="4" t="s">
+      <c r="C19" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="D19" s="5">
+      <c r="D19" s="4">
         <v>201</v>
       </c>
       <c r="E19">
@@ -1684,7 +1671,7 @@
       <c r="F19">
         <v>2</v>
       </c>
-      <c r="G19" s="6" t="s">
+      <c r="G19" s="5" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1695,10 +1682,10 @@
       <c r="B20" t="s">
         <v>39</v>
       </c>
-      <c r="C20" s="4" t="s">
+      <c r="C20" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="D20" s="5">
+      <c r="D20" s="4">
         <v>202</v>
       </c>
       <c r="E20">
@@ -1707,7 +1694,7 @@
       <c r="F20">
         <v>2</v>
       </c>
-      <c r="G20" s="6" t="s">
+      <c r="G20" s="5" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1718,10 +1705,10 @@
       <c r="B21" t="s">
         <v>41</v>
       </c>
-      <c r="C21" s="4" t="s">
+      <c r="C21" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="D21" s="5">
+      <c r="D21" s="4">
         <v>203</v>
       </c>
       <c r="E21">
@@ -1730,7 +1717,7 @@
       <c r="F21">
         <v>2</v>
       </c>
-      <c r="G21" s="6" t="s">
+      <c r="G21" s="5" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1741,10 +1728,10 @@
       <c r="B22" t="s">
         <v>43</v>
       </c>
-      <c r="C22" s="4" t="s">
+      <c r="C22" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="D22" s="5">
+      <c r="D22" s="4">
         <v>301</v>
       </c>
       <c r="E22">
@@ -1753,7 +1740,7 @@
       <c r="F22">
         <v>2</v>
       </c>
-      <c r="G22" s="6" t="s">
+      <c r="G22" s="5" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1764,10 +1751,10 @@
       <c r="B23" t="s">
         <v>45</v>
       </c>
-      <c r="C23" s="4" t="s">
+      <c r="C23" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="D23" s="5">
+      <c r="D23" s="4">
         <v>302</v>
       </c>
       <c r="E23">
@@ -1776,7 +1763,7 @@
       <c r="F23">
         <v>2</v>
       </c>
-      <c r="G23" s="6" t="s">
+      <c r="G23" s="5" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1787,10 +1774,10 @@
       <c r="B24" t="s">
         <v>47</v>
       </c>
-      <c r="C24" s="4" t="s">
+      <c r="C24" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="D24" s="5">
+      <c r="D24" s="4">
         <v>303</v>
       </c>
       <c r="E24">
@@ -1799,7 +1786,7 @@
       <c r="F24">
         <v>2</v>
       </c>
-      <c r="G24" s="6" t="s">
+      <c r="G24" s="5" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1810,10 +1797,10 @@
       <c r="B25" t="s">
         <v>49</v>
       </c>
-      <c r="C25" s="4" t="s">
+      <c r="C25" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="D25" s="5">
+      <c r="D25" s="4">
         <v>304</v>
       </c>
       <c r="E25">
@@ -1822,7 +1809,7 @@
       <c r="F25">
         <v>2</v>
       </c>
-      <c r="G25" s="6" t="s">
+      <c r="G25" s="5" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1833,10 +1820,10 @@
       <c r="B26" t="s">
         <v>51</v>
       </c>
-      <c r="C26" s="4" t="s">
+      <c r="C26" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="D26" s="5">
+      <c r="D26" s="4">
         <v>601</v>
       </c>
       <c r="E26">
@@ -1845,7 +1832,7 @@
       <c r="F26">
         <v>2</v>
       </c>
-      <c r="G26" s="6" t="s">
+      <c r="G26" s="5" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1856,10 +1843,10 @@
       <c r="B27" t="s">
         <v>53</v>
       </c>
-      <c r="C27" s="4" t="s">
+      <c r="C27" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="D27" s="5">
+      <c r="D27" s="4">
         <v>602</v>
       </c>
       <c r="E27">
@@ -1868,7 +1855,7 @@
       <c r="F27">
         <v>2</v>
       </c>
-      <c r="G27" s="6" t="s">
+      <c r="G27" s="5" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1879,10 +1866,10 @@
       <c r="B28" t="s">
         <v>55</v>
       </c>
-      <c r="C28" s="4" t="s">
+      <c r="C28" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="D28" s="5">
+      <c r="D28" s="4">
         <v>603</v>
       </c>
       <c r="E28">
@@ -1891,7 +1878,7 @@
       <c r="F28">
         <v>2</v>
       </c>
-      <c r="G28" s="6" t="s">
+      <c r="G28" s="5" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1905,184 +1892,322 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:B38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
   <cols>
+    <col min="1" max="1" width="10.375" customWidth="1"/>
+    <col min="2" max="2" width="19.75" customWidth="1"/>
     <col min="4" max="4" width="12.375" customWidth="1"/>
     <col min="5" max="5" width="18.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" ht="73.5" customHeight="1" spans="1:7">
+        <v>57</v>
+      </c>
+      <c r="B1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="3" ht="73.5" customHeight="1" spans="1:2">
       <c r="A3" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B3" t="s">
-        <v>58</v>
-      </c>
-      <c r="C3" t="s">
-        <v>59</v>
-      </c>
-      <c r="D3" t="s">
-        <v>60</v>
-      </c>
-      <c r="E3" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="F3" t="s">
-        <v>62</v>
-      </c>
-      <c r="G3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="5">
-        <v>101</v>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="4">
+        <v>1</v>
       </c>
       <c r="B4">
-        <v>40</v>
-      </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <v>101</v>
-      </c>
-      <c r="F4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="4">
+        <v>2</v>
+      </c>
+      <c r="B5">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="4">
+        <v>3</v>
+      </c>
+      <c r="B6">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="4">
+        <v>4</v>
+      </c>
+      <c r="B7">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="4">
         <v>5</v>
       </c>
-      <c r="G4" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="5">
-        <v>101</v>
-      </c>
-      <c r="B5">
-        <v>40</v>
-      </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <v>201</v>
-      </c>
-      <c r="F5">
-        <v>5</v>
-      </c>
-      <c r="G5" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="5">
-        <v>101</v>
-      </c>
-      <c r="B6">
-        <v>40</v>
-      </c>
-      <c r="C6">
-        <v>2</v>
-      </c>
-      <c r="D6">
+      <c r="B8">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="4">
+        <v>6</v>
+      </c>
+      <c r="B9">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="4">
+        <v>7</v>
+      </c>
+      <c r="B10">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="4">
+        <v>8</v>
+      </c>
+      <c r="B11">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="4">
+        <v>9</v>
+      </c>
+      <c r="B12">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="4">
         <v>10</v>
       </c>
-      <c r="E6">
-        <v>101</v>
-      </c>
-      <c r="F6">
-        <v>10</v>
-      </c>
-      <c r="G6" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="5">
-        <v>101</v>
-      </c>
-      <c r="B7">
-        <v>40</v>
-      </c>
-      <c r="C7">
-        <v>3</v>
-      </c>
-      <c r="D7">
+      <c r="B13">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="4">
+        <v>11</v>
+      </c>
+      <c r="B14">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="4">
+        <v>12</v>
+      </c>
+      <c r="B15">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="4">
+        <v>13</v>
+      </c>
+      <c r="B16">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="4">
+        <v>14</v>
+      </c>
+      <c r="B17">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="4">
+        <v>15</v>
+      </c>
+      <c r="B18">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="4">
+        <v>16</v>
+      </c>
+      <c r="B19">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="4">
+        <v>17</v>
+      </c>
+      <c r="B20">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="4">
+        <v>18</v>
+      </c>
+      <c r="B21">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="4">
+        <v>19</v>
+      </c>
+      <c r="B22">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="4">
         <v>20</v>
       </c>
-      <c r="E7">
-        <v>101</v>
-      </c>
-      <c r="F7">
-        <v>15</v>
-      </c>
-      <c r="G7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="5">
-        <v>101</v>
-      </c>
-      <c r="B8">
-        <v>10</v>
-      </c>
-      <c r="C8">
-        <v>4</v>
-      </c>
-      <c r="D8">
-        <v>40</v>
-      </c>
-      <c r="E8">
-        <v>101</v>
-      </c>
-      <c r="F8">
-        <v>50</v>
-      </c>
-      <c r="G8" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1">
-      <c r="A9" s="5">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1">
-      <c r="A10" s="5">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1">
-      <c r="A11" s="5">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1">
-      <c r="A12" s="5">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1">
-      <c r="A13" s="5">
-        <v>101</v>
+      <c r="B23">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="4">
+        <v>21</v>
+      </c>
+      <c r="B24">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="4">
+        <v>22</v>
+      </c>
+      <c r="B25">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="4">
+        <v>23</v>
+      </c>
+      <c r="B26">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="4">
+        <v>24</v>
+      </c>
+      <c r="B27">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="4">
+        <v>25</v>
+      </c>
+      <c r="B28">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="4">
+        <v>26</v>
+      </c>
+      <c r="B29">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="4">
+        <v>27</v>
+      </c>
+      <c r="B30">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" s="4">
+        <v>28</v>
+      </c>
+      <c r="B31">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" s="4">
+        <v>29</v>
+      </c>
+      <c r="B32">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="4">
+        <v>30</v>
+      </c>
+      <c r="B33">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" s="4">
+        <v>31</v>
+      </c>
+      <c r="B34">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" s="4">
+        <v>32</v>
+      </c>
+      <c r="B35">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" s="4">
+        <v>33</v>
+      </c>
+      <c r="B36">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" s="4">
+        <v>34</v>
+      </c>
+      <c r="B37">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" s="4">
+        <v>35</v>
+      </c>
+      <c r="B38">
+        <v>440</v>
       </c>
     </row>
   </sheetData>
@@ -2098,17 +2223,17 @@
   <dimension ref="B1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="$A1:$XFD3"/>
+      <selection activeCell="N31" sqref="N31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="5"/>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="27" spans="2:6">
       <c r="B1" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D1" s="3">
         <v>7</v>
@@ -2122,10 +2247,10 @@
     </row>
     <row r="2" s="1" customFormat="1" ht="27" spans="2:6">
       <c r="B2" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D2" s="3">
         <v>7</v>
@@ -2139,10 +2264,10 @@
     </row>
     <row r="3" s="1" customFormat="1" ht="27" spans="2:6">
       <c r="B3" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D3" s="3">
         <v>7</v>

--- a/Assets/Editor/ItemData.xlsx
+++ b/Assets/Editor/ItemData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17775" activeTab="1"/>
+    <workbookView windowHeight="17775"/>
   </bookViews>
   <sheets>
     <sheet name="道具" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="121">
   <si>
     <t>id</t>
   </si>
@@ -95,127 +95,296 @@
     <t>提升生命值</t>
   </si>
   <si>
-    <t>密室对谈·一个中年人和一个年轻人（下）
-“等你再醒来的时候，不知道会是什么时代，但如果不是我叫醒你的话，估计要有苦头等着你吃。”
-“能有多苦？”
-“比你师姐烧得饭菜还苦。”
-“那我有点后悔了……”
-“最后一句话是耍贫嘴？”
-“师父……保重，还有他们也……”</t>
+    <t>东部苍州诞生的业力碎片，形状如同绿叶，蕴含着似有似无的生机。
+名为黑眸的灾难，不仅带来无穷无尽的浊气妖魔，同时也带来了名为业力的奇异碎片。</t>
   </si>
   <si>
     <t>翠微业力·中</t>
   </si>
   <si>
+    <t>东部苍州诞生的中型业力碎片，生命之息在碎片中翻涌，但这些生机似乎并不属于这个世界。
+名为黑眸的灾难，最早便是在苍州上方的天空出现。</t>
+  </si>
+  <si>
     <t>翠微业力·大</t>
   </si>
   <si>
+    <t>东部苍州诞生的大型业力碎片，其中蕴含着强烈的生命之息，但这些生机似乎并不属于这个世界。</t>
+  </si>
+  <si>
     <t>青碧业力·小</t>
   </si>
   <si>
     <t>提升移动速度</t>
   </si>
   <si>
+    <t>北方云州之地诞生的业力碎片，维持着奇特的形状，像一滴轻盈的露珠，其中隐隐埋藏着某种不属于这个世界的力量。</t>
+  </si>
+  <si>
     <t>青碧业力·中</t>
   </si>
   <si>
+    <t>北方云州之地诞生的中型业力碎片。</t>
+  </si>
+  <si>
     <t>青碧业力·大</t>
   </si>
   <si>
+    <t>北方云州之地诞生的大型业力碎片。</t>
+  </si>
+  <si>
     <t>玄甲业力·小</t>
   </si>
   <si>
     <t>提升护甲值</t>
   </si>
   <si>
+    <t>西方幽州之地诞生的业力碎片，质状如琉璃，通体黝黑深邃，其中隐隐埋藏着某种不属于这个世界的力量。</t>
+  </si>
+  <si>
     <t>玄甲业力·中</t>
   </si>
   <si>
+    <t>西方幽州之地诞生的中型业力碎片。</t>
+  </si>
+  <si>
     <t>玄甲业力·大</t>
   </si>
   <si>
+    <t>西方幽州之地诞生的大型业力碎片。</t>
+  </si>
+  <si>
     <t>赤霞业力·小</t>
   </si>
   <si>
     <t>提升生命恢复速度</t>
   </si>
   <si>
+    <t>南方孔雀州附近诞生的业力碎片，在孔雀州火焰群山中升腾的灼热气息，色彩如同晚霞一般美丽，但是铺面的灼热感展示着它的危险，碎片中隐隐埋藏着某种不属于这个世界的力量。</t>
+  </si>
+  <si>
     <t>赤霞业力·中</t>
   </si>
   <si>
+    <t>南方孔雀州附近诞生的中型业力碎片。</t>
+  </si>
+  <si>
     <t>赤霞业力·大</t>
   </si>
   <si>
+    <t>南方孔雀州附近诞生的大型业力碎片。</t>
+  </si>
+  <si>
     <t>赭石业力·小</t>
   </si>
   <si>
     <t>提升护甲恢复速度</t>
   </si>
   <si>
+    <t>藏于中部高山中景州的业力碎片，看似与寻常碎石无异，但常人绝对无法将其拿起，无论大小，碎片中隐隐埋藏着某种不属于这个世界的力量。</t>
+  </si>
+  <si>
     <t>赭石业力·中</t>
   </si>
   <si>
+    <t>藏于中部高山中景州的中型业力碎片。</t>
+  </si>
+  <si>
     <t>赭石业力·大</t>
   </si>
   <si>
+    <t>藏于中部高山中景州的大型业力碎片。</t>
+  </si>
+  <si>
     <t>大神通·灵台小我相</t>
   </si>
   <si>
     <t>围绕圆心生成角色分身，角色以及分身同时吸引雷劫</t>
   </si>
   <si>
+    <t>九净法门第九代掌门——百相道人陈修泽使用的大神通，此神通召唤出来的分身几乎与本体无异，能够无所拘束的行动，据说哪怕施术者本人已经死去，分身仍然可以在世间行动……</t>
+  </si>
+  <si>
     <t>小神通·三雷照影踪</t>
   </si>
   <si>
     <t>每被雷击中三次召唤一个一次性分身</t>
   </si>
   <si>
+    <t>“一真三绝”死后，曾经同辈中最被忽视的陈师弟成了三绝一代最后的掌门，没人会想到他却成为了守护山门最久的掌门。</t>
+  </si>
+  <si>
     <t>小神通·三刻换生法</t>
   </si>
   <si>
     <t>每隔一段时间会在自己所在位置召唤一个一次性分身</t>
   </si>
   <si>
+    <t>百相道人陈修泽少年时最早学会的法术，仅能够支撑一段时间的分身，帮助其逃过了许许多多功课。
+因此在少年时时常被师父责骂其好吃懒做。</t>
+  </si>
+  <si>
+    <t>大神通·将身比身</t>
+  </si>
+  <si>
+    <t>可以让分身召唤的雷电带有额外效果</t>
+  </si>
+  <si>
+    <t>在无人知晓的山洞中，男子早已透支的身体开始逐渐破碎，在生命的最后，几个飘忽的分身幻化成了那些已故之人的模样陪在男子身旁。
+“还是怀念从前的日子啊……”
+男子停止了呼吸，身边的分身逐渐消失，只剩下一个分身来到他的面前，轻轻合上其双眼。</t>
+  </si>
+  <si>
     <t>小神通·五蕴照空转厄鉴</t>
   </si>
   <si>
-    <t>角色被雷击后，雷击将随机角度反射</t>
-  </si>
-  <si>
-    <t>小神通·不自渡</t>
+    <t>角色被雷击后，雷电将随机角度反射</t>
+  </si>
+  <si>
+    <t>小神通·不渡经</t>
   </si>
   <si>
     <t>当雷电攻击怪物后会发生爆炸伤害</t>
   </si>
   <si>
-    <t>溢出雷</t>
-  </si>
-  <si>
-    <t>当雷电击杀怪物后，溢出的伤害将会自动弹射到周围的怪物身上，无限循环，直至没有怪物</t>
-  </si>
-  <si>
-    <t>磁性雷</t>
+    <t>大神通·日月同潮引</t>
   </si>
   <si>
     <t>雷电会将周围的怪物吸附牵引</t>
   </si>
   <si>
-    <t>蛊虫·回血</t>
-  </si>
-  <si>
-    <t>需要5道闪电充能，持续2秒回复生命值，每秒给角色回复10%已损失生命值，最小值为1</t>
-  </si>
-  <si>
-    <t>蛊虫·环形伤害</t>
+    <t>九净法门因为其与众不同的修行目的，在其宗门历史上多次发生失传断代。但每当九净法门在历史中消失一段时间后，就会诞生出一位宛若命定之人将九净法门带回到世间。</t>
+  </si>
+  <si>
+    <t>小神通·三阳冲斗诀</t>
+  </si>
+  <si>
+    <t>当雷电击杀怪物后，溢出的伤害将会自动弹射到周围的怪物身上。</t>
+  </si>
+  <si>
+    <t>伴随着雷劫的出现，金色的雷电成为了修炼者们恐惧的存在，绝大多数宗门不得不开始想尽办法去逃避金色的雷劫，但也少部分古老的宗门对于雷劫有着不同的看法……</t>
+  </si>
+  <si>
+    <t>小神通·泰山金咒</t>
+  </si>
+  <si>
+    <t>角色被雷击时，会对周围产生爆炸伤害。</t>
+  </si>
+  <si>
+    <t>九净法门是世上最古老的门派之一，相较于那些逃避雷劫的宗门，他们追求着直面雷劫的那个瞬间，只有如此才能得窥那天地间最本源的道法。</t>
+  </si>
+  <si>
+    <t>小神通·流火飞星印</t>
+  </si>
+  <si>
+    <t>召唤一个火焰符箓，每8轮雷劫再次召唤，对一定范围内敌人每秒喷射一个火球。过载状态：攻速加倍，持续3秒</t>
+  </si>
+  <si>
+    <t>小神通·冰川横剑符</t>
+  </si>
+  <si>
+    <t>召唤一个寒冰剑气符箓，每10轮雷劫再次召唤，剑气围绕符箓旋转，对扫过的敌人造成伤害并减少20%移动速度。过载状态：剑气增长，速度加倍，持续3秒。</t>
+  </si>
+  <si>
+    <t>小神通·清风化煞印</t>
+  </si>
+  <si>
+    <t>召唤一个草木符箓，每8轮雷劫再次召唤，每4秒生成一个治疗法球恢复。过载状态:生出速度翻倍，持续4秒</t>
+  </si>
+  <si>
+    <t>小神通·搬山遁甲符</t>
+  </si>
+  <si>
+    <t>召唤一个盾牌符箓，每8轮雷劫再次召唤，每5秒生成一个护甲恢复法球。过载状态：每秒攻击一个敌人，持续3秒。</t>
+  </si>
+  <si>
+    <t>大神通·幻界囚真世</t>
+  </si>
+  <si>
+    <t>召唤一个虚空符箓，每12轮雷劫再次召唤，形成黑洞不断将敌人吸引上限8个。过载状态：引爆黑洞，造成大量伤害并击退。</t>
+  </si>
+  <si>
+    <t>“一真三绝”之一“符法通绝”陆修兰所使用的大神通。
+她在观摩了某种远古传说中的凶咒后，突破了空间方寸之限后领悟的神通，曾经使用此神通将一个国家顷刻间化为齑粉。</t>
+  </si>
+  <si>
+    <t>大神通·穿念化阴雷</t>
+  </si>
+  <si>
+    <t>每轮雷劫只会生成一道雷击，雷击道数会转化成为雷电伤害，并将自动串联所有符箓。</t>
+  </si>
+  <si>
+    <t>小神通·报春蛊</t>
+  </si>
+  <si>
+    <t>需要5道闪电充能，持续2秒回复生命值，每秒给角色回复10%已损失生命值。</t>
+  </si>
+  <si>
+    <t>每当冬天开始，蛊奴们便开始祈祷春天赶紧到来，虽然冬天里仍能活动的蛊虫数量稀少，但都是极为阴冷痛苦的蛊虫。
+只有在春天才有如同花朵般美好温暖的蛊虫。</t>
+  </si>
+  <si>
+    <t>小神通·环身赤玉蛊</t>
   </si>
   <si>
     <t>需要10道闪电充能，在自身周围形成一个环形造成伤害持续10秒</t>
   </si>
   <si>
-    <t>蛊虫·追击撕咬</t>
-  </si>
-  <si>
-    <t>追踪3名血量最高的敌人持续叮咬8秒，敌人死亡时自动切换目标</t>
+    <t>小神通·金蚕蛊</t>
+  </si>
+  <si>
+    <t>需要6道闪电充能，在身体后方召唤一道墙壁阻挡怪物和子弹，持续5秒</t>
+  </si>
+  <si>
+    <t>大神通·三鬼追魂蛊</t>
+  </si>
+  <si>
+    <t>大神通·脏腑养宫蛊</t>
+  </si>
+  <si>
+    <t>角色同时存在4只以上蛊虫时，每隔2秒会自动为一只处于充能状态的蛊虫完全充能</t>
+  </si>
+  <si>
+    <t>仅存在于远古传说中的蛊咒，将自己的器官化作饲养蛊虫的巢穴，其太过凶险的修炼方法与自杀无异。
+近百年唯一成功的是一位奴隶少年，掌握此法的诀窍究竟是对生的渴望，还是对死的漠视……</t>
+  </si>
+  <si>
+    <t>小神通·小蝇蛊</t>
+  </si>
+  <si>
+    <t>需要3道闪电充能，自动攻击距离最近的怪物一次</t>
+  </si>
+  <si>
+    <t>喜好叮食血肉的微小苍蝇，是最容易被驯服的蛊虫。
+蛊咒是西南边陲无名之林中居民所使用的法术，他们将血肉供奉给蛊虫，来与某种神明建立联系。</t>
+  </si>
+  <si>
+    <t>小神通·倩身凝魄步</t>
+  </si>
+  <si>
+    <t>移动路径上留下一个可以降低怪物速度的减速区域</t>
+  </si>
+  <si>
+    <t>小神通·金雷颤魂法</t>
+  </si>
+  <si>
+    <t>雷击会让怪物有几率麻痹</t>
+  </si>
+  <si>
+    <t>在上古时代，雷电是神圣的图腾。
+随着修行者不断突破自身的极限，就在他们即将触摸到某种极限之时，金色的雷电便会降下雷劫，少有修炼者可以从雷劫中存活下来。</t>
+  </si>
+  <si>
+    <t>小神通·周公游梦身</t>
+  </si>
+  <si>
+    <t>角色定时进入一段无敌状态</t>
+  </si>
+  <si>
+    <t>小神通·身前三尺三寸诀</t>
+  </si>
+  <si>
+    <t>角色每隔一段时间会朝面向方向瞬移一段距离</t>
   </si>
   <si>
     <t>level</t>
@@ -1223,10 +1392,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G28"/>
+  <dimension ref="A1:G43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C33" sqref="A1:G43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -1280,7 +1449,7 @@
       <c r="F2" t="s">
         <v>7</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="5" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1307,7 +1476,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" ht="108" spans="1:7">
+    <row r="4" ht="27" spans="1:7">
       <c r="A4">
         <v>1</v>
       </c>
@@ -1330,7 +1499,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" ht="108" spans="1:7">
+    <row r="5" ht="40.5" spans="1:7">
       <c r="A5">
         <v>2</v>
       </c>
@@ -1350,15 +1519,15 @@
         <v>1</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" ht="108" spans="1:7">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" ht="27" spans="1:7">
       <c r="A6">
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>17</v>
@@ -1373,18 +1542,18 @@
         <v>1</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" ht="108" spans="1:7">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" ht="27" spans="1:7">
       <c r="A7">
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D7" s="4">
         <v>2</v>
@@ -1396,18 +1565,18 @@
         <v>1</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" ht="108" spans="1:7">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8">
         <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D8" s="4">
         <v>2</v>
@@ -1419,18 +1588,18 @@
         <v>1</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="9" ht="108" spans="1:7">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9">
         <v>6</v>
       </c>
       <c r="B9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" s="5" t="s">
         <v>24</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>22</v>
       </c>
       <c r="D9" s="4">
         <v>2</v>
@@ -1442,18 +1611,18 @@
         <v>1</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10" ht="108" spans="1:7">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" ht="27" spans="1:7">
       <c r="A10">
         <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="D10" s="4">
         <v>3</v>
@@ -1465,18 +1634,18 @@
         <v>1</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="11" ht="108" spans="1:7">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11">
         <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="D11" s="4">
         <v>3</v>
@@ -1488,18 +1657,18 @@
         <v>1</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="12" ht="108" spans="1:7">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12">
         <v>9</v>
       </c>
       <c r="B12" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="D12" s="4">
         <v>3</v>
@@ -1511,18 +1680,18 @@
         <v>1</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="13" ht="108" spans="1:7">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" ht="40.5" spans="1:7">
       <c r="A13">
         <v>10</v>
       </c>
       <c r="B13" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="D13" s="4">
         <v>5</v>
@@ -1534,18 +1703,18 @@
         <v>1</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="14" ht="108" spans="1:7">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14">
         <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="D14" s="4">
         <v>5</v>
@@ -1557,18 +1726,18 @@
         <v>1</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="15" ht="108" spans="1:7">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15">
         <v>12</v>
       </c>
       <c r="B15" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="D15" s="4">
         <v>5</v>
@@ -1580,18 +1749,18 @@
         <v>1</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="16" ht="108" spans="1:7">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="16" ht="27" spans="1:7">
       <c r="A16">
         <v>13</v>
       </c>
       <c r="B16" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="D16" s="4">
         <v>6</v>
@@ -1603,18 +1772,18 @@
         <v>1</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="17" ht="108" spans="1:7">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17">
         <v>14</v>
       </c>
       <c r="B17" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="D17" s="4">
         <v>6</v>
@@ -1626,18 +1795,18 @@
         <v>1</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="18" ht="108" spans="1:7">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18">
         <v>15</v>
       </c>
       <c r="B18" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="D18" s="4">
         <v>6</v>
@@ -1649,18 +1818,18 @@
         <v>1</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="19" ht="108" spans="1:7">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="19" ht="40.5" spans="1:7">
       <c r="A19">
         <v>16</v>
       </c>
       <c r="B19" t="s">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="D19" s="4">
         <v>201</v>
@@ -1672,18 +1841,18 @@
         <v>2</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="20" ht="108" spans="1:7">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="20" ht="27" spans="1:7">
       <c r="A20">
         <v>17</v>
       </c>
       <c r="B20" t="s">
-        <v>39</v>
+        <v>54</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="D20" s="4">
         <v>202</v>
@@ -1695,18 +1864,18 @@
         <v>2</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="21" ht="108" spans="1:7">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="21" ht="40.5" spans="1:7">
       <c r="A21">
         <v>18</v>
       </c>
       <c r="B21" t="s">
-        <v>41</v>
+        <v>57</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>42</v>
+        <v>58</v>
       </c>
       <c r="D21" s="4">
         <v>203</v>
@@ -1718,21 +1887,21 @@
         <v>2</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="22" ht="108" spans="1:7">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="22" ht="67.5" spans="1:7">
       <c r="A22">
         <v>19</v>
       </c>
       <c r="B22" t="s">
-        <v>43</v>
+        <v>60</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>44</v>
+        <v>61</v>
       </c>
       <c r="D22" s="4">
-        <v>301</v>
+        <v>204</v>
       </c>
       <c r="E22">
         <v>-1</v>
@@ -1741,21 +1910,21 @@
         <v>2</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="23" ht="108" spans="1:7">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23">
         <v>20</v>
       </c>
       <c r="B23" t="s">
-        <v>45</v>
+        <v>63</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>46</v>
+        <v>64</v>
       </c>
       <c r="D23" s="4">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E23">
         <v>-1</v>
@@ -1763,22 +1932,20 @@
       <c r="F23">
         <v>2</v>
       </c>
-      <c r="G23" s="5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="24" ht="108" spans="1:7">
+      <c r="G23" s="5"/>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24">
         <v>21</v>
       </c>
       <c r="B24" t="s">
-        <v>47</v>
+        <v>65</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>48</v>
+        <v>66</v>
       </c>
       <c r="D24" s="4">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E24">
         <v>-1</v>
@@ -1786,22 +1953,20 @@
       <c r="F24">
         <v>2</v>
       </c>
-      <c r="G24" s="5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="25" ht="108" spans="1:7">
+      <c r="G24" s="5"/>
+    </row>
+    <row r="25" ht="27" spans="1:7">
       <c r="A25">
         <v>22</v>
       </c>
       <c r="B25" t="s">
-        <v>49</v>
+        <v>67</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>50</v>
+        <v>68</v>
       </c>
       <c r="D25" s="4">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="E25">
         <v>-1</v>
@@ -1810,21 +1975,21 @@
         <v>2</v>
       </c>
       <c r="G25" s="5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="26" ht="108" spans="1:7">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="26" ht="27" spans="1:7">
       <c r="A26">
         <v>23</v>
       </c>
       <c r="B26" t="s">
-        <v>51</v>
+        <v>70</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>52</v>
+        <v>71</v>
       </c>
       <c r="D26" s="4">
-        <v>601</v>
+        <v>304</v>
       </c>
       <c r="E26">
         <v>-1</v>
@@ -1833,21 +1998,21 @@
         <v>2</v>
       </c>
       <c r="G26" s="5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="27" ht="108" spans="1:7">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="27" ht="27" spans="1:7">
       <c r="A27">
         <v>24</v>
       </c>
       <c r="B27" t="s">
-        <v>53</v>
+        <v>73</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>54</v>
+        <v>74</v>
       </c>
       <c r="D27" s="4">
-        <v>602</v>
+        <v>305</v>
       </c>
       <c r="E27">
         <v>-1</v>
@@ -1856,21 +2021,21 @@
         <v>2</v>
       </c>
       <c r="G27" s="5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="28" ht="108" spans="1:7">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="28" ht="40.5" spans="1:6">
       <c r="A28">
         <v>25</v>
       </c>
       <c r="B28" t="s">
-        <v>55</v>
+        <v>76</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="D28" s="4">
-        <v>603</v>
+        <v>77</v>
+      </c>
+      <c r="D28">
+        <v>401</v>
       </c>
       <c r="E28">
         <v>-1</v>
@@ -1878,9 +2043,323 @@
       <c r="F28">
         <v>2</v>
       </c>
-      <c r="G28" s="5" t="s">
-        <v>18</v>
-      </c>
+    </row>
+    <row r="29" ht="54" spans="1:6">
+      <c r="A29">
+        <v>26</v>
+      </c>
+      <c r="B29" t="s">
+        <v>78</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="D29">
+        <v>402</v>
+      </c>
+      <c r="E29">
+        <v>-1</v>
+      </c>
+      <c r="F29">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" ht="40.5" spans="1:6">
+      <c r="A30">
+        <v>27</v>
+      </c>
+      <c r="B30" t="s">
+        <v>80</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="D30">
+        <v>403</v>
+      </c>
+      <c r="E30">
+        <v>-1</v>
+      </c>
+      <c r="F30">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" ht="40.5" spans="1:6">
+      <c r="A31">
+        <v>28</v>
+      </c>
+      <c r="B31" t="s">
+        <v>82</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="D31">
+        <v>404</v>
+      </c>
+      <c r="E31">
+        <v>-1</v>
+      </c>
+      <c r="F31">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" ht="40.5" spans="1:7">
+      <c r="A32">
+        <v>29</v>
+      </c>
+      <c r="B32" t="s">
+        <v>84</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D32">
+        <v>405</v>
+      </c>
+      <c r="E32">
+        <v>-1</v>
+      </c>
+      <c r="F32">
+        <v>2</v>
+      </c>
+      <c r="G32" s="5" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="33" ht="27" spans="1:6">
+      <c r="A33">
+        <v>30</v>
+      </c>
+      <c r="B33" t="s">
+        <v>87</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="D33">
+        <v>406</v>
+      </c>
+      <c r="E33">
+        <v>-1</v>
+      </c>
+      <c r="F33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" ht="40.5" spans="1:7">
+      <c r="A34">
+        <v>31</v>
+      </c>
+      <c r="B34" t="s">
+        <v>89</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="D34">
+        <v>501</v>
+      </c>
+      <c r="E34">
+        <v>-1</v>
+      </c>
+      <c r="F34">
+        <v>2</v>
+      </c>
+      <c r="G34" s="5" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="35" ht="27" spans="1:6">
+      <c r="A35">
+        <v>32</v>
+      </c>
+      <c r="B35" t="s">
+        <v>92</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="D35">
+        <v>502</v>
+      </c>
+      <c r="E35">
+        <v>-1</v>
+      </c>
+      <c r="F35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" ht="27" spans="1:6">
+      <c r="A36">
+        <v>33</v>
+      </c>
+      <c r="B36" t="s">
+        <v>94</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D36">
+        <v>503</v>
+      </c>
+      <c r="E36">
+        <v>-1</v>
+      </c>
+      <c r="F36">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" ht="27" spans="1:6">
+      <c r="A37">
+        <v>34</v>
+      </c>
+      <c r="B37" t="s">
+        <v>96</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="D37">
+        <v>504</v>
+      </c>
+      <c r="E37">
+        <v>-1</v>
+      </c>
+      <c r="F37">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" ht="54" spans="1:7">
+      <c r="A38">
+        <v>35</v>
+      </c>
+      <c r="B38" t="s">
+        <v>97</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="D38">
+        <v>505</v>
+      </c>
+      <c r="E38">
+        <v>-1</v>
+      </c>
+      <c r="F38">
+        <v>2</v>
+      </c>
+      <c r="G38" s="5" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="39" ht="40.5" spans="1:7">
+      <c r="A39">
+        <v>36</v>
+      </c>
+      <c r="B39" t="s">
+        <v>100</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="D39">
+        <v>506</v>
+      </c>
+      <c r="E39">
+        <v>-1</v>
+      </c>
+      <c r="F39">
+        <v>2</v>
+      </c>
+      <c r="G39" s="5" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="40" ht="27" spans="1:6">
+      <c r="A40">
+        <v>37</v>
+      </c>
+      <c r="B40" t="s">
+        <v>103</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D40">
+        <v>601</v>
+      </c>
+      <c r="E40">
+        <v>-1</v>
+      </c>
+      <c r="F40">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" ht="40.5" spans="1:7">
+      <c r="A41">
+        <v>38</v>
+      </c>
+      <c r="B41" t="s">
+        <v>105</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="D41">
+        <v>602</v>
+      </c>
+      <c r="E41">
+        <v>-1</v>
+      </c>
+      <c r="F41">
+        <v>2</v>
+      </c>
+      <c r="G41" s="5" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42">
+        <v>39</v>
+      </c>
+      <c r="B42" t="s">
+        <v>108</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="D42">
+        <v>603</v>
+      </c>
+      <c r="E42">
+        <v>-1</v>
+      </c>
+      <c r="F42">
+        <v>2</v>
+      </c>
+      <c r="G42" s="5"/>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43">
+        <v>40</v>
+      </c>
+      <c r="B43" t="s">
+        <v>110</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="D43">
+        <v>604</v>
+      </c>
+      <c r="E43">
+        <v>-1</v>
+      </c>
+      <c r="F43">
+        <v>2</v>
+      </c>
+      <c r="G43" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1894,8 +2373,8 @@
   <sheetPr/>
   <dimension ref="A1:B38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="T13" sqref="T13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
@@ -1908,10 +2387,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>57</v>
+        <v>112</v>
       </c>
       <c r="B1" t="s">
-        <v>58</v>
+        <v>113</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -1919,15 +2398,15 @@
         <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>59</v>
+        <v>114</v>
       </c>
     </row>
     <row r="3" ht="73.5" customHeight="1" spans="1:2">
       <c r="A3" t="s">
-        <v>60</v>
+        <v>115</v>
       </c>
       <c r="B3" t="s">
-        <v>61</v>
+        <v>116</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -2230,10 +2709,10 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="27" spans="2:6">
       <c r="B1" s="1" t="s">
-        <v>62</v>
+        <v>117</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>63</v>
+        <v>118</v>
       </c>
       <c r="D1" s="3">
         <v>7</v>
@@ -2247,10 +2726,10 @@
     </row>
     <row r="2" s="1" customFormat="1" ht="27" spans="2:6">
       <c r="B2" s="1" t="s">
-        <v>64</v>
+        <v>119</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>63</v>
+        <v>118</v>
       </c>
       <c r="D2" s="3">
         <v>7</v>
@@ -2264,10 +2743,10 @@
     </row>
     <row r="3" s="1" customFormat="1" ht="27" spans="2:6">
       <c r="B3" s="1" t="s">
-        <v>65</v>
+        <v>120</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>63</v>
+        <v>118</v>
       </c>
       <c r="D3" s="3">
         <v>7</v>

--- a/Assets/Editor/ItemData.xlsx
+++ b/Assets/Editor/ItemData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17775"/>
+    <workbookView windowWidth="15750" windowHeight="8880"/>
   </bookViews>
   <sheets>
     <sheet name="道具" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="133">
   <si>
     <t>id</t>
   </si>
@@ -385,6 +385,42 @@
   </si>
   <si>
     <t>角色每隔一段时间会朝面向方向瞬移一段距离</t>
+  </si>
+  <si>
+    <t>神行·阴</t>
+  </si>
+  <si>
+    <t>将自身速度按一定比例转化为雷劫频率</t>
+  </si>
+  <si>
+    <t>神行·阳</t>
+  </si>
+  <si>
+    <t>将自身速度按一定比例转化为雷劫道数</t>
+  </si>
+  <si>
+    <t>修命·阴</t>
+  </si>
+  <si>
+    <t>将自身生命值按一定比例转化为雷劫道数</t>
+  </si>
+  <si>
+    <t>修命·阳</t>
+  </si>
+  <si>
+    <t>将自身生命值按一定比例转化为雷劫伤害</t>
+  </si>
+  <si>
+    <t>天罡·阴</t>
+  </si>
+  <si>
+    <t>将自身护甲值按一定比例转化为雷劫伤害</t>
+  </si>
+  <si>
+    <t>天罡·阳</t>
+  </si>
+  <si>
+    <t>将自身护甲值按一定比例转化为雷劫频率</t>
   </si>
   <si>
     <t>level</t>
@@ -1027,7 +1063,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1044,6 +1080,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1392,10 +1431,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G43"/>
+  <dimension ref="A1:G49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C33" sqref="A1:G43"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="F54" sqref="F54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -2360,6 +2399,126 @@
         <v>2</v>
       </c>
       <c r="G43" s="5"/>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44">
+        <v>41</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="C44" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="D44">
+        <v>1001</v>
+      </c>
+      <c r="E44">
+        <v>-1</v>
+      </c>
+      <c r="F44">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45">
+        <v>42</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="C45" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="D45">
+        <v>1002</v>
+      </c>
+      <c r="E45">
+        <v>-1</v>
+      </c>
+      <c r="F45">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46">
+        <v>43</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="C46" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="D46">
+        <v>1003</v>
+      </c>
+      <c r="E46">
+        <v>-1</v>
+      </c>
+      <c r="F46">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47">
+        <v>44</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="C47" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="D47">
+        <v>1004</v>
+      </c>
+      <c r="E47">
+        <v>-1</v>
+      </c>
+      <c r="F47">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="A48">
+        <v>45</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C48" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="D48">
+        <v>1005</v>
+      </c>
+      <c r="E48">
+        <v>-1</v>
+      </c>
+      <c r="F48">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="A49">
+        <v>46</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="C49" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="D49">
+        <v>1006</v>
+      </c>
+      <c r="E49">
+        <v>-1</v>
+      </c>
+      <c r="F49">
+        <v>3</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2387,10 +2546,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>112</v>
+        <v>124</v>
       </c>
       <c r="B1" t="s">
-        <v>113</v>
+        <v>125</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -2398,15 +2557,15 @@
         <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>114</v>
+        <v>126</v>
       </c>
     </row>
     <row r="3" ht="73.5" customHeight="1" spans="1:2">
       <c r="A3" t="s">
-        <v>115</v>
+        <v>127</v>
       </c>
       <c r="B3" t="s">
-        <v>116</v>
+        <v>128</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -2709,10 +2868,10 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="27" spans="2:6">
       <c r="B1" s="1" t="s">
-        <v>117</v>
+        <v>129</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>118</v>
+        <v>130</v>
       </c>
       <c r="D1" s="3">
         <v>7</v>
@@ -2726,10 +2885,10 @@
     </row>
     <row r="2" s="1" customFormat="1" ht="27" spans="2:6">
       <c r="B2" s="1" t="s">
-        <v>119</v>
+        <v>131</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>118</v>
+        <v>130</v>
       </c>
       <c r="D2" s="3">
         <v>7</v>
@@ -2743,10 +2902,10 @@
     </row>
     <row r="3" s="1" customFormat="1" ht="27" spans="2:6">
       <c r="B3" s="1" t="s">
-        <v>120</v>
+        <v>132</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>118</v>
+        <v>130</v>
       </c>
       <c r="D3" s="3">
         <v>7</v>

--- a/Assets/Editor/ItemData.xlsx
+++ b/Assets/Editor/ItemData.xlsx
@@ -4,12 +4,13 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="15750" windowHeight="8880"/>
+    <workbookView windowWidth="15750" windowHeight="8880" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="道具" sheetId="1" r:id="rId1"/>
     <sheet name="经验" sheetId="2" r:id="rId2"/>
-    <sheet name="补充用" sheetId="3" r:id="rId3"/>
+    <sheet name="波次" sheetId="4" r:id="rId3"/>
+    <sheet name="补充用" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="149">
   <si>
     <t>id</t>
   </si>
@@ -436,6 +437,54 @@
   </si>
   <si>
     <t>经验等级上限</t>
+  </si>
+  <si>
+    <t>levelId</t>
+  </si>
+  <si>
+    <t>count2</t>
+  </si>
+  <si>
+    <t>count3</t>
+  </si>
+  <si>
+    <t>count4</t>
+  </si>
+  <si>
+    <t>count5</t>
+  </si>
+  <si>
+    <t>count6</t>
+  </si>
+  <si>
+    <t>count7</t>
+  </si>
+  <si>
+    <t>count8</t>
+  </si>
+  <si>
+    <t>关卡</t>
+  </si>
+  <si>
+    <t>2波频率</t>
+  </si>
+  <si>
+    <t>3波频率</t>
+  </si>
+  <si>
+    <t>4波频率</t>
+  </si>
+  <si>
+    <t>5波频率</t>
+  </si>
+  <si>
+    <t>6波频率</t>
+  </si>
+  <si>
+    <t>7波频率</t>
+  </si>
+  <si>
+    <t>8波频率</t>
   </si>
   <si>
     <t>炽金业力·小</t>
@@ -1433,7 +1482,7 @@
   <sheetPr/>
   <dimension ref="A1:G49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+    <sheetView topLeftCell="A37" workbookViewId="0">
       <selection activeCell="F54" sqref="F54"/>
     </sheetView>
   </sheetViews>
@@ -2533,7 +2582,7 @@
   <dimension ref="A1:B38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="T13" sqref="T13"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
@@ -2858,6 +2907,127 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="7"/>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C1" t="s">
+        <v>131</v>
+      </c>
+      <c r="D1" t="s">
+        <v>132</v>
+      </c>
+      <c r="E1" t="s">
+        <v>133</v>
+      </c>
+      <c r="F1" t="s">
+        <v>134</v>
+      </c>
+      <c r="G1" t="s">
+        <v>135</v>
+      </c>
+      <c r="H1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" t="s">
+        <v>137</v>
+      </c>
+      <c r="B3" t="s">
+        <v>138</v>
+      </c>
+      <c r="C3" t="s">
+        <v>139</v>
+      </c>
+      <c r="D3" t="s">
+        <v>140</v>
+      </c>
+      <c r="E3" t="s">
+        <v>141</v>
+      </c>
+      <c r="F3" t="s">
+        <v>142</v>
+      </c>
+      <c r="G3" t="s">
+        <v>143</v>
+      </c>
+      <c r="H3" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>5</v>
+      </c>
+      <c r="C4">
+        <v>6</v>
+      </c>
+      <c r="D4">
+        <v>7</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="B1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2868,10 +3038,10 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="27" spans="2:6">
       <c r="B1" s="1" t="s">
-        <v>129</v>
+        <v>145</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>130</v>
+        <v>146</v>
       </c>
       <c r="D1" s="3">
         <v>7</v>
@@ -2885,10 +3055,10 @@
     </row>
     <row r="2" s="1" customFormat="1" ht="27" spans="2:6">
       <c r="B2" s="1" t="s">
-        <v>131</v>
+        <v>147</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>130</v>
+        <v>146</v>
       </c>
       <c r="D2" s="3">
         <v>7</v>
@@ -2902,10 +3072,10 @@
     </row>
     <row r="3" s="1" customFormat="1" ht="27" spans="2:6">
       <c r="B3" s="1" t="s">
-        <v>132</v>
+        <v>148</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>130</v>
+        <v>146</v>
       </c>
       <c r="D3" s="3">
         <v>7</v>

--- a/Assets/Editor/ItemData.xlsx
+++ b/Assets/Editor/ItemData.xlsx
@@ -4,13 +4,14 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="15750" windowHeight="8880" activeTab="2"/>
+    <workbookView windowHeight="17775" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="道具" sheetId="1" r:id="rId1"/>
     <sheet name="经验" sheetId="2" r:id="rId2"/>
     <sheet name="波次" sheetId="4" r:id="rId3"/>
-    <sheet name="补充用" sheetId="3" r:id="rId4"/>
+    <sheet name="道具概率" sheetId="5" r:id="rId4"/>
+    <sheet name="补充用" sheetId="3" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="156">
   <si>
     <t>id</t>
   </si>
@@ -485,6 +486,27 @@
   </si>
   <si>
     <t>8波频率</t>
+  </si>
+  <si>
+    <t>item1Rank</t>
+  </si>
+  <si>
+    <t>item2Rank</t>
+  </si>
+  <si>
+    <t>item3Rank</t>
+  </si>
+  <si>
+    <t>关卡id</t>
+  </si>
+  <si>
+    <t>碎片占比</t>
+  </si>
+  <si>
+    <t>法宝占比</t>
+  </si>
+  <si>
+    <t>神通占比</t>
   </si>
   <si>
     <t>炽金业力·小</t>
@@ -1482,8 +1504,8 @@
   <sheetPr/>
   <dimension ref="A1:G49"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="F54" sqref="F54"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -2909,7 +2931,7 @@
   <sheetPr/>
   <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
@@ -3026,6 +3048,112 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="3"/>
+  <cols>
+    <col min="2" max="2" width="12" customWidth="1"/>
+    <col min="3" max="3" width="10.375" customWidth="1"/>
+    <col min="4" max="4" width="12.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C1" t="s">
+        <v>146</v>
+      </c>
+      <c r="D1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C2" t="s">
+        <v>126</v>
+      </c>
+      <c r="D2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>148</v>
+      </c>
+      <c r="B3" t="s">
+        <v>149</v>
+      </c>
+      <c r="C3" t="s">
+        <v>150</v>
+      </c>
+      <c r="D3" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>95</v>
+      </c>
+      <c r="C4">
+        <v>5</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5">
+        <v>95</v>
+      </c>
+      <c r="C5">
+        <v>5</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6">
+        <v>3</v>
+      </c>
+      <c r="B6">
+        <v>80</v>
+      </c>
+      <c r="C6">
+        <v>20</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="B1:F3"/>
@@ -3038,10 +3166,10 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="27" spans="2:6">
       <c r="B1" s="1" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="D1" s="3">
         <v>7</v>
@@ -3055,10 +3183,10 @@
     </row>
     <row r="2" s="1" customFormat="1" ht="27" spans="2:6">
       <c r="B2" s="1" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="D2" s="3">
         <v>7</v>
@@ -3072,10 +3200,10 @@
     </row>
     <row r="3" s="1" customFormat="1" ht="27" spans="2:6">
       <c r="B3" s="1" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="D3" s="3">
         <v>7</v>

--- a/Assets/Editor/ItemData.xlsx
+++ b/Assets/Editor/ItemData.xlsx
@@ -4,13 +4,13 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17775" activeTab="3"/>
+    <workbookView windowHeight="17775" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="道具" sheetId="1" r:id="rId1"/>
-    <sheet name="经验" sheetId="2" r:id="rId2"/>
-    <sheet name="波次" sheetId="4" r:id="rId3"/>
-    <sheet name="道具概率" sheetId="5" r:id="rId4"/>
+    <sheet name="道具概率" sheetId="5" r:id="rId2"/>
+    <sheet name="经验" sheetId="2" r:id="rId3"/>
+    <sheet name="波次" sheetId="4" r:id="rId4"/>
     <sheet name="补充用" sheetId="3" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="168">
   <si>
     <t>id</t>
   </si>
@@ -52,6 +52,9 @@
   </si>
   <si>
     <t>story</t>
+  </si>
+  <si>
+    <t>detailType</t>
   </si>
   <si>
     <t>int</t>
@@ -425,24 +428,75 @@
     <t>将自身护甲值按一定比例转化为雷劫频率</t>
   </si>
   <si>
+    <t>levelId</t>
+  </si>
+  <si>
+    <t>item1Rank</t>
+  </si>
+  <si>
+    <t>item2Rank</t>
+  </si>
+  <si>
+    <t>item3Rank</t>
+  </si>
+  <si>
+    <t>smallRank</t>
+  </si>
+  <si>
+    <t>midRank</t>
+  </si>
+  <si>
+    <t>largeRank</t>
+  </si>
+  <si>
+    <t>littleRank</t>
+  </si>
+  <si>
+    <t>bigRank</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>关卡id</t>
+  </si>
+  <si>
+    <t>碎片占比</t>
+  </si>
+  <si>
+    <t>法宝占比</t>
+  </si>
+  <si>
+    <t>神通占比</t>
+  </si>
+  <si>
+    <t>小碎片占比</t>
+  </si>
+  <si>
+    <t>中碎片占比</t>
+  </si>
+  <si>
+    <t>大碎片占比</t>
+  </si>
+  <si>
+    <t>小神通占比</t>
+  </si>
+  <si>
+    <t>大神通占比</t>
+  </si>
+  <si>
     <t>level</t>
   </si>
   <si>
     <t>expMax</t>
   </si>
   <si>
-    <t>float</t>
-  </si>
-  <si>
     <t>经验等级</t>
   </si>
   <si>
     <t>经验等级上限</t>
   </si>
   <si>
-    <t>levelId</t>
-  </si>
-  <si>
     <t>count2</t>
   </si>
   <si>
@@ -488,27 +542,6 @@
     <t>8波频率</t>
   </si>
   <si>
-    <t>item1Rank</t>
-  </si>
-  <si>
-    <t>item2Rank</t>
-  </si>
-  <si>
-    <t>item3Rank</t>
-  </si>
-  <si>
-    <t>关卡id</t>
-  </si>
-  <si>
-    <t>碎片占比</t>
-  </si>
-  <si>
-    <t>法宝占比</t>
-  </si>
-  <si>
-    <t>神通占比</t>
-  </si>
-  <si>
     <t>炽金业力·小</t>
   </si>
   <si>
@@ -519,6 +552,9 @@
   </si>
   <si>
     <t>炽金业力·大</t>
+  </si>
+  <si>
+    <t>细分分类</t>
   </si>
 </sst>
 </file>
@@ -684,12 +720,30 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -878,10 +932,28 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="11">
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -1010,7 +1082,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1022,119 +1094,119 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1147,11 +1219,35 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1502,29 +1598,30 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G49"/>
+  <dimension ref="A1:H49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+      <selection activeCell="K45" sqref="K45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
     <col min="2" max="2" width="23.375" customWidth="1"/>
-    <col min="3" max="3" width="38.375" style="5" customWidth="1"/>
+    <col min="3" max="3" width="38.375" style="4" customWidth="1"/>
     <col min="4" max="4" width="15.875" customWidth="1"/>
     <col min="6" max="6" width="13.125" customWidth="1"/>
     <col min="7" max="7" width="75.25" customWidth="1"/>
+    <col min="8" max="8" width="15.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
       <c r="D1" t="s">
@@ -1539,64 +1636,73 @@
       <c r="G1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="E2" t="s">
         <v>8</v>
       </c>
-      <c r="D2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" t="s">
-        <v>7</v>
-      </c>
       <c r="F2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G2" s="5" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="3" ht="108" spans="1:7">
+      <c r="G2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" ht="108" spans="1:8">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="C3" s="4" t="s">
         <v>12</v>
       </c>
+      <c r="D3" s="4" t="s">
+        <v>13</v>
+      </c>
       <c r="E3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" s="5" t="s">
         <v>14</v>
       </c>
+      <c r="F3" s="4" t="s">
+        <v>15</v>
+      </c>
       <c r="G3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" ht="27" spans="1:7">
+        <v>16</v>
+      </c>
+      <c r="H3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" ht="27" spans="1:8">
       <c r="A4">
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="4">
+      <c r="C4" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="5">
         <v>1</v>
       </c>
       <c r="E4">
@@ -1605,21 +1711,24 @@
       <c r="F4">
         <v>1</v>
       </c>
-      <c r="G4" s="5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" ht="40.5" spans="1:7">
+      <c r="G4" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" ht="40.5" spans="1:8">
       <c r="A5">
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" s="4">
+        <v>20</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="5">
         <v>1</v>
       </c>
       <c r="E5">
@@ -1628,21 +1737,24 @@
       <c r="F5">
         <v>1</v>
       </c>
-      <c r="G5" s="5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" ht="27" spans="1:7">
+      <c r="G5" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" ht="27" spans="1:8">
       <c r="A6">
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" s="4">
+        <v>22</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="5">
         <v>1</v>
       </c>
       <c r="E6">
@@ -1651,21 +1763,24 @@
       <c r="F6">
         <v>1</v>
       </c>
-      <c r="G6" s="5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" ht="27" spans="1:7">
+      <c r="G6" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" ht="27" spans="1:8">
       <c r="A7">
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="D7" s="4">
+      <c r="C7" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="5">
         <v>2</v>
       </c>
       <c r="E7">
@@ -1674,21 +1789,24 @@
       <c r="F7">
         <v>1</v>
       </c>
-      <c r="G7" s="5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+      <c r="G7" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8">
         <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>26</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" s="4">
+        <v>27</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" s="5">
         <v>2</v>
       </c>
       <c r="E8">
@@ -1697,21 +1815,24 @@
       <c r="F8">
         <v>1</v>
       </c>
-      <c r="G8" s="5" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+      <c r="G8" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="H8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9">
         <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>28</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" s="4">
+        <v>29</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" s="5">
         <v>2</v>
       </c>
       <c r="E9">
@@ -1720,21 +1841,24 @@
       <c r="F9">
         <v>1</v>
       </c>
-      <c r="G9" s="5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="10" ht="27" spans="1:7">
+      <c r="G9" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" ht="27" spans="1:8">
       <c r="A10">
         <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>30</v>
-      </c>
-      <c r="C10" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="D10" s="4">
+      <c r="C10" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D10" s="5">
         <v>3</v>
       </c>
       <c r="E10">
@@ -1743,21 +1867,24 @@
       <c r="F10">
         <v>1</v>
       </c>
-      <c r="G10" s="5" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+      <c r="G10" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="H10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11">
         <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>33</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="D11" s="4">
+        <v>34</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D11" s="5">
         <v>3</v>
       </c>
       <c r="E11">
@@ -1766,21 +1893,24 @@
       <c r="F11">
         <v>1</v>
       </c>
-      <c r="G11" s="5" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+      <c r="G11" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="H11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12">
         <v>9</v>
       </c>
       <c r="B12" t="s">
-        <v>35</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="D12" s="4">
+        <v>36</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D12" s="5">
         <v>3</v>
       </c>
       <c r="E12">
@@ -1789,21 +1919,24 @@
       <c r="F12">
         <v>1</v>
       </c>
-      <c r="G12" s="5" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="13" ht="40.5" spans="1:7">
+      <c r="G12" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="H12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" ht="40.5" spans="1:8">
       <c r="A13">
         <v>10</v>
       </c>
       <c r="B13" t="s">
-        <v>37</v>
-      </c>
-      <c r="C13" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="D13" s="4">
+      <c r="C13" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D13" s="5">
         <v>5</v>
       </c>
       <c r="E13">
@@ -1812,21 +1945,24 @@
       <c r="F13">
         <v>1</v>
       </c>
-      <c r="G13" s="5" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+      <c r="G13" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="H13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14">
         <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>40</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="D14" s="4">
+        <v>41</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D14" s="5">
         <v>5</v>
       </c>
       <c r="E14">
@@ -1835,21 +1971,24 @@
       <c r="F14">
         <v>1</v>
       </c>
-      <c r="G14" s="5" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+      <c r="G14" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="H14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15">
         <v>12</v>
       </c>
       <c r="B15" t="s">
-        <v>42</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="D15" s="4">
+        <v>43</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D15" s="5">
         <v>5</v>
       </c>
       <c r="E15">
@@ -1858,21 +1997,24 @@
       <c r="F15">
         <v>1</v>
       </c>
-      <c r="G15" s="5" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="16" ht="27" spans="1:7">
+      <c r="G15" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="H15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" ht="27" spans="1:8">
       <c r="A16">
         <v>13</v>
       </c>
       <c r="B16" t="s">
-        <v>44</v>
-      </c>
-      <c r="C16" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="D16" s="4">
+      <c r="C16" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D16" s="5">
         <v>6</v>
       </c>
       <c r="E16">
@@ -1881,21 +2023,24 @@
       <c r="F16">
         <v>1</v>
       </c>
-      <c r="G16" s="5" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
+      <c r="G16" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="H16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17">
         <v>14</v>
       </c>
       <c r="B17" t="s">
-        <v>47</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="D17" s="4">
+        <v>48</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D17" s="5">
         <v>6</v>
       </c>
       <c r="E17">
@@ -1904,21 +2049,24 @@
       <c r="F17">
         <v>1</v>
       </c>
-      <c r="G17" s="5" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="G17" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="H17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18">
         <v>15</v>
       </c>
       <c r="B18" t="s">
-        <v>49</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="D18" s="4">
+        <v>50</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D18" s="5">
         <v>6</v>
       </c>
       <c r="E18">
@@ -1927,222 +2075,252 @@
       <c r="F18">
         <v>1</v>
       </c>
-      <c r="G18" s="5" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="19" ht="40.5" spans="1:7">
+      <c r="G18" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="H18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" ht="40.5" spans="1:8">
       <c r="A19">
         <v>16</v>
       </c>
       <c r="B19" t="s">
-        <v>51</v>
-      </c>
-      <c r="C19" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="D19" s="4">
+      <c r="C19" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D19" s="5">
         <v>201</v>
       </c>
       <c r="E19">
         <v>-1</v>
       </c>
       <c r="F19">
+        <v>3</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="H19">
         <v>2</v>
       </c>
-      <c r="G19" s="5" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="20" ht="27" spans="1:7">
+    </row>
+    <row r="20" ht="27" spans="1:8">
       <c r="A20">
         <v>17</v>
       </c>
       <c r="B20" t="s">
-        <v>54</v>
-      </c>
-      <c r="C20" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="D20" s="4">
+      <c r="C20" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D20" s="5">
         <v>202</v>
       </c>
       <c r="E20">
         <v>-1</v>
       </c>
       <c r="F20">
-        <v>2</v>
-      </c>
-      <c r="G20" s="5" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="21" ht="40.5" spans="1:7">
+        <v>3</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="H20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" ht="40.5" spans="1:8">
       <c r="A21">
         <v>18</v>
       </c>
       <c r="B21" t="s">
-        <v>57</v>
-      </c>
-      <c r="C21" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="D21" s="4">
+      <c r="C21" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D21" s="5">
         <v>203</v>
       </c>
       <c r="E21">
         <v>-1</v>
       </c>
       <c r="F21">
-        <v>2</v>
-      </c>
-      <c r="G21" s="5" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="22" ht="67.5" spans="1:7">
+        <v>3</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="H21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" ht="67.5" spans="1:8">
       <c r="A22">
         <v>19</v>
       </c>
       <c r="B22" t="s">
-        <v>60</v>
-      </c>
-      <c r="C22" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="D22" s="4">
+      <c r="C22" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="D22" s="5">
         <v>204</v>
       </c>
       <c r="E22">
         <v>-1</v>
       </c>
       <c r="F22">
+        <v>3</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="H22">
         <v>2</v>
       </c>
-      <c r="G22" s="5" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23">
         <v>20</v>
       </c>
       <c r="B23" t="s">
-        <v>63</v>
-      </c>
-      <c r="C23" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="D23" s="4">
+      <c r="C23" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="D23" s="5">
         <v>301</v>
       </c>
       <c r="E23">
         <v>-1</v>
       </c>
       <c r="F23">
-        <v>2</v>
-      </c>
-      <c r="G23" s="5"/>
-    </row>
-    <row r="24" spans="1:7">
+        <v>3</v>
+      </c>
+      <c r="G23" s="4"/>
+      <c r="H23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24">
         <v>21</v>
       </c>
       <c r="B24" t="s">
-        <v>65</v>
-      </c>
-      <c r="C24" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="D24" s="4">
+      <c r="C24" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="D24" s="5">
         <v>302</v>
       </c>
       <c r="E24">
         <v>-1</v>
       </c>
       <c r="F24">
-        <v>2</v>
-      </c>
-      <c r="G24" s="5"/>
-    </row>
-    <row r="25" ht="27" spans="1:7">
+        <v>3</v>
+      </c>
+      <c r="G24" s="4"/>
+      <c r="H24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" ht="27" spans="1:8">
       <c r="A25">
         <v>22</v>
       </c>
       <c r="B25" t="s">
-        <v>67</v>
-      </c>
-      <c r="C25" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="D25" s="4">
+      <c r="C25" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="D25" s="5">
         <v>303</v>
       </c>
       <c r="E25">
         <v>-1</v>
       </c>
       <c r="F25">
+        <v>3</v>
+      </c>
+      <c r="G25" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="H25">
         <v>2</v>
       </c>
-      <c r="G25" s="5" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="26" ht="27" spans="1:7">
+    </row>
+    <row r="26" ht="27" spans="1:8">
       <c r="A26">
         <v>23</v>
       </c>
       <c r="B26" t="s">
-        <v>70</v>
-      </c>
-      <c r="C26" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="D26" s="4">
+      <c r="C26" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="D26" s="5">
         <v>304</v>
       </c>
       <c r="E26">
         <v>-1</v>
       </c>
       <c r="F26">
-        <v>2</v>
-      </c>
-      <c r="G26" s="5" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="27" ht="27" spans="1:7">
+        <v>3</v>
+      </c>
+      <c r="G26" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="H26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" ht="27" spans="1:8">
       <c r="A27">
         <v>24</v>
       </c>
       <c r="B27" t="s">
-        <v>73</v>
-      </c>
-      <c r="C27" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="D27" s="4">
+      <c r="C27" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D27" s="5">
         <v>305</v>
       </c>
       <c r="E27">
         <v>-1</v>
       </c>
       <c r="F27">
-        <v>2</v>
-      </c>
-      <c r="G27" s="5" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="28" ht="40.5" spans="1:6">
+        <v>3</v>
+      </c>
+      <c r="G27" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="H27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" ht="40.5" spans="1:8">
       <c r="A28">
         <v>25</v>
       </c>
       <c r="B28" t="s">
-        <v>76</v>
-      </c>
-      <c r="C28" s="5" t="s">
         <v>77</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>78</v>
       </c>
       <c r="D28">
         <v>401</v>
@@ -2151,18 +2329,21 @@
         <v>-1</v>
       </c>
       <c r="F28">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="29" ht="54" spans="1:6">
+        <v>3</v>
+      </c>
+      <c r="H28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" ht="54" spans="1:8">
       <c r="A29">
         <v>26</v>
       </c>
       <c r="B29" t="s">
-        <v>78</v>
-      </c>
-      <c r="C29" s="5" t="s">
         <v>79</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>80</v>
       </c>
       <c r="D29">
         <v>402</v>
@@ -2171,18 +2352,21 @@
         <v>-1</v>
       </c>
       <c r="F29">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="30" ht="40.5" spans="1:6">
+        <v>3</v>
+      </c>
+      <c r="H29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" ht="40.5" spans="1:8">
       <c r="A30">
         <v>27</v>
       </c>
       <c r="B30" t="s">
-        <v>80</v>
-      </c>
-      <c r="C30" s="5" t="s">
         <v>81</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>82</v>
       </c>
       <c r="D30">
         <v>403</v>
@@ -2191,18 +2375,21 @@
         <v>-1</v>
       </c>
       <c r="F30">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="31" ht="40.5" spans="1:6">
+        <v>3</v>
+      </c>
+      <c r="H30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" ht="40.5" spans="1:8">
       <c r="A31">
         <v>28</v>
       </c>
       <c r="B31" t="s">
-        <v>82</v>
-      </c>
-      <c r="C31" s="5" t="s">
         <v>83</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>84</v>
       </c>
       <c r="D31">
         <v>404</v>
@@ -2211,18 +2398,21 @@
         <v>-1</v>
       </c>
       <c r="F31">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="32" ht="40.5" spans="1:7">
+        <v>3</v>
+      </c>
+      <c r="H31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" ht="40.5" spans="1:8">
       <c r="A32">
         <v>29</v>
       </c>
       <c r="B32" t="s">
-        <v>84</v>
-      </c>
-      <c r="C32" s="5" t="s">
         <v>85</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>86</v>
       </c>
       <c r="D32">
         <v>405</v>
@@ -2231,21 +2421,24 @@
         <v>-1</v>
       </c>
       <c r="F32">
+        <v>3</v>
+      </c>
+      <c r="G32" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="H32">
         <v>2</v>
       </c>
-      <c r="G32" s="5" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="33" ht="27" spans="1:6">
+    </row>
+    <row r="33" ht="27" spans="1:8">
       <c r="A33">
         <v>30</v>
       </c>
       <c r="B33" t="s">
-        <v>87</v>
-      </c>
-      <c r="C33" s="5" t="s">
         <v>88</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>89</v>
       </c>
       <c r="D33">
         <v>406</v>
@@ -2254,18 +2447,21 @@
         <v>-1</v>
       </c>
       <c r="F33">
+        <v>3</v>
+      </c>
+      <c r="H33">
         <v>2</v>
       </c>
     </row>
-    <row r="34" ht="40.5" spans="1:7">
+    <row r="34" ht="40.5" spans="1:8">
       <c r="A34">
         <v>31</v>
       </c>
       <c r="B34" t="s">
-        <v>89</v>
-      </c>
-      <c r="C34" s="5" t="s">
         <v>90</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>91</v>
       </c>
       <c r="D34">
         <v>501</v>
@@ -2274,21 +2470,24 @@
         <v>-1</v>
       </c>
       <c r="F34">
-        <v>2</v>
-      </c>
-      <c r="G34" s="5" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="35" ht="27" spans="1:6">
+        <v>3</v>
+      </c>
+      <c r="G34" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="H34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" ht="27" spans="1:8">
       <c r="A35">
         <v>32</v>
       </c>
       <c r="B35" t="s">
-        <v>92</v>
-      </c>
-      <c r="C35" s="5" t="s">
         <v>93</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>94</v>
       </c>
       <c r="D35">
         <v>502</v>
@@ -2297,18 +2496,21 @@
         <v>-1</v>
       </c>
       <c r="F35">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="36" ht="27" spans="1:6">
+        <v>3</v>
+      </c>
+      <c r="H35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" ht="27" spans="1:8">
       <c r="A36">
         <v>33</v>
       </c>
       <c r="B36" t="s">
-        <v>94</v>
-      </c>
-      <c r="C36" s="5" t="s">
         <v>95</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>96</v>
       </c>
       <c r="D36">
         <v>503</v>
@@ -2317,18 +2519,21 @@
         <v>-1</v>
       </c>
       <c r="F36">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="37" ht="27" spans="1:6">
+        <v>3</v>
+      </c>
+      <c r="H36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" ht="27" spans="1:8">
       <c r="A37">
         <v>34</v>
       </c>
       <c r="B37" t="s">
-        <v>96</v>
-      </c>
-      <c r="C37" s="5" t="s">
-        <v>93</v>
+        <v>97</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>94</v>
       </c>
       <c r="D37">
         <v>504</v>
@@ -2337,18 +2542,21 @@
         <v>-1</v>
       </c>
       <c r="F37">
+        <v>3</v>
+      </c>
+      <c r="H37">
         <v>2</v>
       </c>
     </row>
-    <row r="38" ht="54" spans="1:7">
+    <row r="38" ht="54" spans="1:8">
       <c r="A38">
         <v>35</v>
       </c>
       <c r="B38" t="s">
-        <v>97</v>
-      </c>
-      <c r="C38" s="5" t="s">
         <v>98</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>99</v>
       </c>
       <c r="D38">
         <v>505</v>
@@ -2357,21 +2565,24 @@
         <v>-1</v>
       </c>
       <c r="F38">
+        <v>3</v>
+      </c>
+      <c r="G38" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="H38">
         <v>2</v>
       </c>
-      <c r="G38" s="5" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="39" ht="40.5" spans="1:7">
+    </row>
+    <row r="39" ht="40.5" spans="1:8">
       <c r="A39">
         <v>36</v>
       </c>
       <c r="B39" t="s">
-        <v>100</v>
-      </c>
-      <c r="C39" s="5" t="s">
         <v>101</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>102</v>
       </c>
       <c r="D39">
         <v>506</v>
@@ -2380,21 +2591,24 @@
         <v>-1</v>
       </c>
       <c r="F39">
-        <v>2</v>
-      </c>
-      <c r="G39" s="5" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="40" ht="27" spans="1:6">
+        <v>3</v>
+      </c>
+      <c r="G39" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="H39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" ht="27" spans="1:8">
       <c r="A40">
         <v>37</v>
       </c>
       <c r="B40" t="s">
-        <v>103</v>
-      </c>
-      <c r="C40" s="5" t="s">
         <v>104</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>105</v>
       </c>
       <c r="D40">
         <v>601</v>
@@ -2403,18 +2617,21 @@
         <v>-1</v>
       </c>
       <c r="F40">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="41" ht="40.5" spans="1:7">
+        <v>3</v>
+      </c>
+      <c r="H40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" ht="40.5" spans="1:8">
       <c r="A41">
         <v>38</v>
       </c>
       <c r="B41" t="s">
-        <v>105</v>
-      </c>
-      <c r="C41" s="5" t="s">
         <v>106</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>107</v>
       </c>
       <c r="D41">
         <v>602</v>
@@ -2423,21 +2640,24 @@
         <v>-1</v>
       </c>
       <c r="F41">
-        <v>2</v>
-      </c>
-      <c r="G41" s="5" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7">
+        <v>3</v>
+      </c>
+      <c r="G41" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="H41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42">
         <v>39</v>
       </c>
       <c r="B42" t="s">
-        <v>108</v>
-      </c>
-      <c r="C42" s="5" t="s">
         <v>109</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>110</v>
       </c>
       <c r="D42">
         <v>603</v>
@@ -2446,19 +2666,22 @@
         <v>-1</v>
       </c>
       <c r="F42">
-        <v>2</v>
-      </c>
-      <c r="G42" s="5"/>
-    </row>
-    <row r="43" spans="1:7">
+        <v>3</v>
+      </c>
+      <c r="G42" s="4"/>
+      <c r="H42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43">
         <v>40</v>
       </c>
       <c r="B43" t="s">
-        <v>110</v>
-      </c>
-      <c r="C43" s="5" t="s">
         <v>111</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>112</v>
       </c>
       <c r="D43">
         <v>604</v>
@@ -2467,19 +2690,22 @@
         <v>-1</v>
       </c>
       <c r="F43">
-        <v>2</v>
-      </c>
-      <c r="G43" s="5"/>
-    </row>
-    <row r="44" spans="1:6">
+        <v>3</v>
+      </c>
+      <c r="G43" s="4"/>
+      <c r="H43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44">
         <v>41</v>
       </c>
-      <c r="B44" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="C44" s="6" t="s">
+      <c r="B44" s="5" t="s">
         <v>113</v>
+      </c>
+      <c r="C44" s="14" t="s">
+        <v>114</v>
       </c>
       <c r="D44">
         <v>1001</v>
@@ -2488,18 +2714,21 @@
         <v>-1</v>
       </c>
       <c r="F44">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6">
+        <v>4</v>
+      </c>
+      <c r="H44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45">
         <v>42</v>
       </c>
-      <c r="B45" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="C45" s="6" t="s">
+      <c r="B45" s="5" t="s">
         <v>115</v>
+      </c>
+      <c r="C45" s="14" t="s">
+        <v>116</v>
       </c>
       <c r="D45">
         <v>1002</v>
@@ -2508,18 +2737,21 @@
         <v>-1</v>
       </c>
       <c r="F45">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6">
+        <v>4</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46">
         <v>43</v>
       </c>
-      <c r="B46" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="C46" s="6" t="s">
+      <c r="B46" s="5" t="s">
         <v>117</v>
+      </c>
+      <c r="C46" s="14" t="s">
+        <v>118</v>
       </c>
       <c r="D46">
         <v>1003</v>
@@ -2528,18 +2760,21 @@
         <v>-1</v>
       </c>
       <c r="F46">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6">
+        <v>4</v>
+      </c>
+      <c r="H46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47">
         <v>44</v>
       </c>
-      <c r="B47" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="C47" s="6" t="s">
+      <c r="B47" s="5" t="s">
         <v>119</v>
+      </c>
+      <c r="C47" s="14" t="s">
+        <v>120</v>
       </c>
       <c r="D47">
         <v>1004</v>
@@ -2548,18 +2783,21 @@
         <v>-1</v>
       </c>
       <c r="F47">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6">
+        <v>4</v>
+      </c>
+      <c r="H47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48">
         <v>45</v>
       </c>
-      <c r="B48" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="C48" s="6" t="s">
+      <c r="B48" s="5" t="s">
         <v>121</v>
+      </c>
+      <c r="C48" s="14" t="s">
+        <v>122</v>
       </c>
       <c r="D48">
         <v>1005</v>
@@ -2568,18 +2806,21 @@
         <v>-1</v>
       </c>
       <c r="F48">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6">
+        <v>4</v>
+      </c>
+      <c r="H48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49">
         <v>46</v>
       </c>
-      <c r="B49" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="C49" s="6" t="s">
+      <c r="B49" s="5" t="s">
         <v>123</v>
+      </c>
+      <c r="C49" s="14" t="s">
+        <v>124</v>
       </c>
       <c r="D49">
         <v>1006</v>
@@ -2588,7 +2829,10 @@
         <v>-1</v>
       </c>
       <c r="F49">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2599,6 +2843,206 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:I6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5"/>
+  <cols>
+    <col min="2" max="2" width="12" style="6" customWidth="1"/>
+    <col min="3" max="3" width="10.375" customWidth="1"/>
+    <col min="4" max="4" width="12.375" style="7" customWidth="1"/>
+    <col min="5" max="6" width="10.375" customWidth="1"/>
+    <col min="7" max="7" width="10.375" style="7" customWidth="1"/>
+    <col min="8" max="8" width="10.875" customWidth="1"/>
+    <col min="9" max="9" width="10" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="A1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>130</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="H1" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="I1" s="13" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="C2" t="s">
+        <v>134</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="E2" t="s">
+        <v>134</v>
+      </c>
+      <c r="F2" t="s">
+        <v>134</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="H2" t="s">
+        <v>134</v>
+      </c>
+      <c r="I2" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" t="s">
+        <v>135</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="C3" t="s">
+        <v>137</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="E3" t="s">
+        <v>139</v>
+      </c>
+      <c r="F3" t="s">
+        <v>140</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="H3" t="s">
+        <v>142</v>
+      </c>
+      <c r="I3" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4" s="6">
+        <v>95</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4" s="7">
+        <v>5</v>
+      </c>
+      <c r="E4">
+        <v>50</v>
+      </c>
+      <c r="F4">
+        <v>30</v>
+      </c>
+      <c r="G4" s="7">
+        <v>20</v>
+      </c>
+      <c r="H4">
+        <v>90</v>
+      </c>
+      <c r="I4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5" s="6">
+        <v>95</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5" s="7">
+        <v>5</v>
+      </c>
+      <c r="E5">
+        <v>40</v>
+      </c>
+      <c r="F5">
+        <v>40</v>
+      </c>
+      <c r="G5" s="7">
+        <v>20</v>
+      </c>
+      <c r="H5">
+        <v>80</v>
+      </c>
+      <c r="I5">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6">
+        <v>3</v>
+      </c>
+      <c r="B6" s="6">
+        <v>80</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6" s="7">
+        <v>20</v>
+      </c>
+      <c r="E6">
+        <v>20</v>
+      </c>
+      <c r="F6">
+        <v>30</v>
+      </c>
+      <c r="G6" s="7">
+        <v>50</v>
+      </c>
+      <c r="H6">
+        <v>70</v>
+      </c>
+      <c r="I6">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:B38"/>
@@ -2617,30 +3061,30 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>124</v>
+        <v>144</v>
       </c>
       <c r="B1" t="s">
-        <v>125</v>
+        <v>145</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
     </row>
     <row r="3" ht="73.5" customHeight="1" spans="1:2">
       <c r="A3" t="s">
-        <v>127</v>
+        <v>146</v>
       </c>
       <c r="B3" t="s">
-        <v>128</v>
+        <v>147</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="4">
+      <c r="A4" s="5">
         <v>1</v>
       </c>
       <c r="B4">
@@ -2648,7 +3092,7 @@
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="4">
+      <c r="A5" s="5">
         <v>2</v>
       </c>
       <c r="B5">
@@ -2656,7 +3100,7 @@
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="4">
+      <c r="A6" s="5">
         <v>3</v>
       </c>
       <c r="B6">
@@ -2664,7 +3108,7 @@
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="4">
+      <c r="A7" s="5">
         <v>4</v>
       </c>
       <c r="B7">
@@ -2672,7 +3116,7 @@
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="4">
+      <c r="A8" s="5">
         <v>5</v>
       </c>
       <c r="B8">
@@ -2680,7 +3124,7 @@
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="4">
+      <c r="A9" s="5">
         <v>6</v>
       </c>
       <c r="B9">
@@ -2688,7 +3132,7 @@
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="4">
+      <c r="A10" s="5">
         <v>7</v>
       </c>
       <c r="B10">
@@ -2696,7 +3140,7 @@
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="4">
+      <c r="A11" s="5">
         <v>8</v>
       </c>
       <c r="B11">
@@ -2704,7 +3148,7 @@
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="4">
+      <c r="A12" s="5">
         <v>9</v>
       </c>
       <c r="B12">
@@ -2712,7 +3156,7 @@
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="4">
+      <c r="A13" s="5">
         <v>10</v>
       </c>
       <c r="B13">
@@ -2720,7 +3164,7 @@
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="4">
+      <c r="A14" s="5">
         <v>11</v>
       </c>
       <c r="B14">
@@ -2728,7 +3172,7 @@
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="4">
+      <c r="A15" s="5">
         <v>12</v>
       </c>
       <c r="B15">
@@ -2736,7 +3180,7 @@
       </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="4">
+      <c r="A16" s="5">
         <v>13</v>
       </c>
       <c r="B16">
@@ -2744,7 +3188,7 @@
       </c>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="4">
+      <c r="A17" s="5">
         <v>14</v>
       </c>
       <c r="B17">
@@ -2752,7 +3196,7 @@
       </c>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" s="4">
+      <c r="A18" s="5">
         <v>15</v>
       </c>
       <c r="B18">
@@ -2760,7 +3204,7 @@
       </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="4">
+      <c r="A19" s="5">
         <v>16</v>
       </c>
       <c r="B19">
@@ -2768,7 +3212,7 @@
       </c>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="4">
+      <c r="A20" s="5">
         <v>17</v>
       </c>
       <c r="B20">
@@ -2776,7 +3220,7 @@
       </c>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" s="4">
+      <c r="A21" s="5">
         <v>18</v>
       </c>
       <c r="B21">
@@ -2784,7 +3228,7 @@
       </c>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" s="4">
+      <c r="A22" s="5">
         <v>19</v>
       </c>
       <c r="B22">
@@ -2792,7 +3236,7 @@
       </c>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="4">
+      <c r="A23" s="5">
         <v>20</v>
       </c>
       <c r="B23">
@@ -2800,7 +3244,7 @@
       </c>
     </row>
     <row r="24" spans="1:2">
-      <c r="A24" s="4">
+      <c r="A24" s="5">
         <v>21</v>
       </c>
       <c r="B24">
@@ -2808,7 +3252,7 @@
       </c>
     </row>
     <row r="25" spans="1:2">
-      <c r="A25" s="4">
+      <c r="A25" s="5">
         <v>22</v>
       </c>
       <c r="B25">
@@ -2816,7 +3260,7 @@
       </c>
     </row>
     <row r="26" spans="1:2">
-      <c r="A26" s="4">
+      <c r="A26" s="5">
         <v>23</v>
       </c>
       <c r="B26">
@@ -2824,7 +3268,7 @@
       </c>
     </row>
     <row r="27" spans="1:2">
-      <c r="A27" s="4">
+      <c r="A27" s="5">
         <v>24</v>
       </c>
       <c r="B27">
@@ -2832,7 +3276,7 @@
       </c>
     </row>
     <row r="28" spans="1:2">
-      <c r="A28" s="4">
+      <c r="A28" s="5">
         <v>25</v>
       </c>
       <c r="B28">
@@ -2840,7 +3284,7 @@
       </c>
     </row>
     <row r="29" spans="1:2">
-      <c r="A29" s="4">
+      <c r="A29" s="5">
         <v>26</v>
       </c>
       <c r="B29">
@@ -2848,7 +3292,7 @@
       </c>
     </row>
     <row r="30" spans="1:2">
-      <c r="A30" s="4">
+      <c r="A30" s="5">
         <v>27</v>
       </c>
       <c r="B30">
@@ -2856,7 +3300,7 @@
       </c>
     </row>
     <row r="31" spans="1:2">
-      <c r="A31" s="4">
+      <c r="A31" s="5">
         <v>28</v>
       </c>
       <c r="B31">
@@ -2864,7 +3308,7 @@
       </c>
     </row>
     <row r="32" spans="1:2">
-      <c r="A32" s="4">
+      <c r="A32" s="5">
         <v>29</v>
       </c>
       <c r="B32">
@@ -2872,7 +3316,7 @@
       </c>
     </row>
     <row r="33" spans="1:2">
-      <c r="A33" s="4">
+      <c r="A33" s="5">
         <v>30</v>
       </c>
       <c r="B33">
@@ -2880,7 +3324,7 @@
       </c>
     </row>
     <row r="34" spans="1:2">
-      <c r="A34" s="4">
+      <c r="A34" s="5">
         <v>31</v>
       </c>
       <c r="B34">
@@ -2888,7 +3332,7 @@
       </c>
     </row>
     <row r="35" spans="1:2">
-      <c r="A35" s="4">
+      <c r="A35" s="5">
         <v>32</v>
       </c>
       <c r="B35">
@@ -2896,7 +3340,7 @@
       </c>
     </row>
     <row r="36" spans="1:2">
-      <c r="A36" s="4">
+      <c r="A36" s="5">
         <v>33</v>
       </c>
       <c r="B36">
@@ -2904,7 +3348,7 @@
       </c>
     </row>
     <row r="37" spans="1:2">
-      <c r="A37" s="4">
+      <c r="A37" s="5">
         <v>34</v>
       </c>
       <c r="B37">
@@ -2912,7 +3356,7 @@
       </c>
     </row>
     <row r="38" spans="1:2">
-      <c r="A38" s="4">
+      <c r="A38" s="5">
         <v>35</v>
       </c>
       <c r="B38">
@@ -2926,7 +3370,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:H4"/>
@@ -2939,80 +3383,80 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="B1" t="s">
-        <v>130</v>
+        <v>148</v>
       </c>
       <c r="C1" t="s">
-        <v>131</v>
+        <v>149</v>
       </c>
       <c r="D1" t="s">
-        <v>132</v>
+        <v>150</v>
       </c>
       <c r="E1" t="s">
-        <v>133</v>
+        <v>151</v>
       </c>
       <c r="F1" t="s">
-        <v>134</v>
+        <v>152</v>
       </c>
       <c r="G1" t="s">
-        <v>135</v>
+        <v>153</v>
       </c>
       <c r="H1" t="s">
-        <v>136</v>
+        <v>154</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>137</v>
+        <v>155</v>
       </c>
       <c r="B3" t="s">
-        <v>138</v>
+        <v>156</v>
       </c>
       <c r="C3" t="s">
-        <v>139</v>
+        <v>157</v>
       </c>
       <c r="D3" t="s">
-        <v>140</v>
+        <v>158</v>
       </c>
       <c r="E3" t="s">
-        <v>141</v>
+        <v>159</v>
       </c>
       <c r="F3" t="s">
-        <v>142</v>
+        <v>160</v>
       </c>
       <c r="G3" t="s">
-        <v>143</v>
+        <v>161</v>
       </c>
       <c r="H3" t="s">
-        <v>144</v>
+        <v>162</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -3038,112 +3482,6 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:D6"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="3"/>
-  <cols>
-    <col min="2" max="2" width="12" customWidth="1"/>
-    <col min="3" max="3" width="10.375" customWidth="1"/>
-    <col min="4" max="4" width="12.375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" t="s">
-        <v>129</v>
-      </c>
-      <c r="B1" t="s">
-        <v>145</v>
-      </c>
-      <c r="C1" t="s">
-        <v>146</v>
-      </c>
-      <c r="D1" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" t="s">
-        <v>126</v>
-      </c>
-      <c r="C2" t="s">
-        <v>126</v>
-      </c>
-      <c r="D2" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" t="s">
-        <v>148</v>
-      </c>
-      <c r="B3" t="s">
-        <v>149</v>
-      </c>
-      <c r="C3" t="s">
-        <v>150</v>
-      </c>
-      <c r="D3" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4">
-        <v>1</v>
-      </c>
-      <c r="B4">
-        <v>95</v>
-      </c>
-      <c r="C4">
-        <v>5</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5">
-        <v>2</v>
-      </c>
-      <c r="B5">
-        <v>95</v>
-      </c>
-      <c r="C5">
-        <v>5</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6">
-        <v>3</v>
-      </c>
-      <c r="B6">
-        <v>80</v>
-      </c>
-      <c r="C6">
-        <v>20</v>
-      </c>
-      <c r="D6">
         <v>0</v>
       </c>
     </row>
@@ -3156,20 +3494,23 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B1:F3"/>
+  <dimension ref="B1:H43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N31" sqref="N31"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4:H43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
+  <cols>
+    <col min="8" max="8" width="13.125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="27" spans="2:6">
+    <row r="1" s="1" customFormat="1" ht="27" spans="2:8">
       <c r="B1" s="1" t="s">
-        <v>152</v>
+        <v>163</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>153</v>
+        <v>164</v>
       </c>
       <c r="D1" s="3">
         <v>7</v>
@@ -3180,13 +3521,16 @@
       <c r="F1" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" s="1" customFormat="1" ht="27" spans="2:6">
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" ht="27" spans="2:8">
       <c r="B2" s="1" t="s">
-        <v>154</v>
+        <v>165</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>153</v>
+        <v>164</v>
       </c>
       <c r="D2" s="3">
         <v>7</v>
@@ -3197,13 +3541,16 @@
       <c r="F2" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" s="1" customFormat="1" ht="27" spans="2:6">
+      <c r="H2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" s="1" customFormat="1" ht="27" spans="2:8">
       <c r="B3" s="1" t="s">
-        <v>155</v>
+        <v>166</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>153</v>
+        <v>164</v>
       </c>
       <c r="D3" s="3">
         <v>7</v>
@@ -3212,6 +3559,209 @@
         <v>3</v>
       </c>
       <c r="F3" s="1">
+        <v>1</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="4" spans="8:8">
+      <c r="H4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="8:8">
+      <c r="H5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="8:8">
+      <c r="H6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="8:8">
+      <c r="H7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="8:8">
+      <c r="H8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="8:8">
+      <c r="H9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="8:8">
+      <c r="H10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="8:8">
+      <c r="H11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="8:8">
+      <c r="H12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="8:8">
+      <c r="H13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="8:8">
+      <c r="H14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="8:8">
+      <c r="H15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="8:8">
+      <c r="H16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="8:8">
+      <c r="H17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="8:8">
+      <c r="H18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="8:8">
+      <c r="H19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="8:8">
+      <c r="H20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="8:8">
+      <c r="H21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="8:8">
+      <c r="H22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="8:8">
+      <c r="H23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="8:8">
+      <c r="H24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="8:8">
+      <c r="H25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="8:8">
+      <c r="H26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="8:8">
+      <c r="H27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="8:8">
+      <c r="H28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="8:8">
+      <c r="H29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="8:8">
+      <c r="H30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="8:8">
+      <c r="H31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="8:8">
+      <c r="H32">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="8:8">
+      <c r="H33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="8:8">
+      <c r="H34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="8:8">
+      <c r="H35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="8:8">
+      <c r="H36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="8:8">
+      <c r="H37">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="8:8">
+      <c r="H38">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="8:8">
+      <c r="H39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="8:8">
+      <c r="H40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="8:8">
+      <c r="H41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="8:8">
+      <c r="H42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="8:8">
+      <c r="H43">
         <v>1</v>
       </c>
     </row>

--- a/Assets/Editor/ItemData.xlsx
+++ b/Assets/Editor/ItemData.xlsx
@@ -2848,7 +2848,7 @@
   <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5"/>
@@ -2954,13 +2954,13 @@
         <v>1</v>
       </c>
       <c r="B4" s="6">
-        <v>95</v>
+        <v>999</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4" s="7">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E4">
         <v>50</v>
@@ -2983,7 +2983,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="6">
-        <v>95</v>
+        <v>995</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -3012,13 +3012,13 @@
         <v>3</v>
       </c>
       <c r="B6" s="6">
-        <v>80</v>
+        <v>990</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6" s="7">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E6">
         <v>20</v>

--- a/Assets/Editor/ItemData.xlsx
+++ b/Assets/Editor/ItemData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17775" activeTab="1"/>
+    <workbookView windowWidth="27945" windowHeight="12375" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="道具" sheetId="1" r:id="rId1"/>
@@ -2848,7 +2848,7 @@
   <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="K25" sqref="K25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5"/>
@@ -3373,13 +3373,13 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="7"/>
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" t="s">
@@ -3482,6 +3482,58 @@
         <v>0</v>
       </c>
       <c r="H4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5">
+        <v>5</v>
+      </c>
+      <c r="D5">
+        <v>6</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6">
+        <v>3</v>
+      </c>
+      <c r="B6">
+        <v>4</v>
+      </c>
+      <c r="C6">
+        <v>5</v>
+      </c>
+      <c r="D6">
+        <v>6</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
         <v>0</v>
       </c>
     </row>
@@ -3496,7 +3548,7 @@
   <sheetPr/>
   <dimension ref="B1:H43"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H4" sqref="H4:H43"/>
     </sheetView>
   </sheetViews>

--- a/Assets/Editor/ItemData.xlsx
+++ b/Assets/Editor/ItemData.xlsx
@@ -4,14 +4,15 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12375" activeTab="1"/>
+    <workbookView windowWidth="18330" windowHeight="11805" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="道具" sheetId="1" r:id="rId1"/>
     <sheet name="道具概率" sheetId="5" r:id="rId2"/>
     <sheet name="经验" sheetId="2" r:id="rId3"/>
     <sheet name="波次" sheetId="4" r:id="rId4"/>
-    <sheet name="补充用" sheetId="3" r:id="rId5"/>
+    <sheet name="英雄" sheetId="6" r:id="rId5"/>
+    <sheet name="补充用" sheetId="3" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="182">
   <si>
     <t>id</t>
   </si>
@@ -540,6 +541,48 @@
   </si>
   <si>
     <t>8波频率</t>
+  </si>
+  <si>
+    <t>heroId</t>
+  </si>
+  <si>
+    <t>heroImg</t>
+  </si>
+  <si>
+    <t>heroName</t>
+  </si>
+  <si>
+    <t>heroDesc</t>
+  </si>
+  <si>
+    <t>英雄id</t>
+  </si>
+  <si>
+    <t>头像图片资源名</t>
+  </si>
+  <si>
+    <t>英雄名字</t>
+  </si>
+  <si>
+    <t>英雄描述</t>
+  </si>
+  <si>
+    <t>hero_img_1</t>
+  </si>
+  <si>
+    <t>姓名1</t>
+  </si>
+  <si>
+    <t>完美闪避：特定时间段进行闪避，可以形成折线雷</t>
+  </si>
+  <si>
+    <t>hero_img_2</t>
+  </si>
+  <si>
+    <t>姓名2</t>
+  </si>
+  <si>
+    <t>无</t>
   </si>
   <si>
     <t>炽金业力·小</t>
@@ -2847,7 +2890,7 @@
   <sheetPr/>
   <dimension ref="A1:I6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K25" sqref="K25"/>
     </sheetView>
   </sheetViews>
@@ -3546,10 +3589,102 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="3"/>
+  <cols>
+    <col min="2" max="2" width="14.875" customWidth="1"/>
+    <col min="3" max="3" width="18.875" customWidth="1"/>
+    <col min="4" max="4" width="25.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B1" t="s">
+        <v>164</v>
+      </c>
+      <c r="C1" t="s">
+        <v>165</v>
+      </c>
+      <c r="D1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>167</v>
+      </c>
+      <c r="B3" t="s">
+        <v>168</v>
+      </c>
+      <c r="C3" t="s">
+        <v>169</v>
+      </c>
+      <c r="D3" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>171</v>
+      </c>
+      <c r="C4" t="s">
+        <v>172</v>
+      </c>
+      <c r="D4" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>174</v>
+      </c>
+      <c r="C5" t="s">
+        <v>175</v>
+      </c>
+      <c r="D5" t="s">
+        <v>176</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="B1:H43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H4" sqref="H4:H43"/>
+      <selection activeCell="L23" sqref="L23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -3559,10 +3694,10 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="27" spans="2:8">
       <c r="B1" s="1" t="s">
-        <v>163</v>
+        <v>177</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>164</v>
+        <v>178</v>
       </c>
       <c r="D1" s="3">
         <v>7</v>
@@ -3579,10 +3714,10 @@
     </row>
     <row r="2" s="1" customFormat="1" ht="27" spans="2:8">
       <c r="B2" s="1" t="s">
-        <v>165</v>
+        <v>179</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>164</v>
+        <v>178</v>
       </c>
       <c r="D2" s="3">
         <v>7</v>
@@ -3599,10 +3734,10 @@
     </row>
     <row r="3" s="1" customFormat="1" ht="27" spans="2:8">
       <c r="B3" s="1" t="s">
-        <v>166</v>
+        <v>180</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>164</v>
+        <v>178</v>
       </c>
       <c r="D3" s="3">
         <v>7</v>
@@ -3614,7 +3749,7 @@
         <v>1</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>167</v>
+        <v>181</v>
       </c>
     </row>
     <row r="4" spans="8:8">

--- a/Assets/Editor/ItemData.xlsx
+++ b/Assets/Editor/ItemData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18330" windowHeight="11805" activeTab="4"/>
+    <workbookView windowWidth="18330" windowHeight="11805" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="道具" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="184">
   <si>
     <t>id</t>
   </si>
@@ -432,6 +432,9 @@
     <t>levelId</t>
   </si>
   <si>
+    <t>levelType</t>
+  </si>
+  <si>
     <t>item1Rank</t>
   </si>
   <si>
@@ -460,6 +463,10 @@
   </si>
   <si>
     <t>关卡id</t>
+  </si>
+  <si>
+    <t>类型
+（1关内，2关底）</t>
   </si>
   <si>
     <t>碎片占比</t>
@@ -1249,7 +1256,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1288,6 +1295,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
@@ -2747,7 +2757,7 @@
       <c r="B44" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="C44" s="14" t="s">
+      <c r="C44" s="15" t="s">
         <v>114</v>
       </c>
       <c r="D44">
@@ -2770,7 +2780,7 @@
       <c r="B45" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="C45" s="14" t="s">
+      <c r="C45" s="15" t="s">
         <v>116</v>
       </c>
       <c r="D45">
@@ -2793,7 +2803,7 @@
       <c r="B46" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="C46" s="14" t="s">
+      <c r="C46" s="15" t="s">
         <v>118</v>
       </c>
       <c r="D46">
@@ -2816,7 +2826,7 @@
       <c r="B47" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="C47" s="14" t="s">
+      <c r="C47" s="15" t="s">
         <v>120</v>
       </c>
       <c r="D47">
@@ -2839,7 +2849,7 @@
       <c r="B48" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="C48" s="14" t="s">
+      <c r="C48" s="15" t="s">
         <v>122</v>
       </c>
       <c r="D48">
@@ -2862,7 +2872,7 @@
       <c r="B49" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="C49" s="14" t="s">
+      <c r="C49" s="15" t="s">
         <v>124</v>
       </c>
       <c r="D49">
@@ -2888,194 +2898,309 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:J9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K25" sqref="K25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="2" max="2" width="12" style="6" customWidth="1"/>
-    <col min="3" max="3" width="10.375" customWidth="1"/>
-    <col min="4" max="4" width="12.375" style="7" customWidth="1"/>
-    <col min="5" max="6" width="10.375" customWidth="1"/>
-    <col min="7" max="7" width="10.375" style="7" customWidth="1"/>
-    <col min="8" max="8" width="10.875" customWidth="1"/>
-    <col min="9" max="9" width="10" customWidth="1"/>
+    <col min="2" max="2" width="16.75" customWidth="1"/>
+    <col min="3" max="3" width="12" style="6" customWidth="1"/>
+    <col min="4" max="4" width="10.375" customWidth="1"/>
+    <col min="5" max="5" width="12.375" style="7" customWidth="1"/>
+    <col min="6" max="7" width="10.375" customWidth="1"/>
+    <col min="8" max="8" width="10.375" style="7" customWidth="1"/>
+    <col min="9" max="9" width="10.875" customWidth="1"/>
+    <col min="10" max="10" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="A1" t="s">
         <v>125</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" t="s">
         <v>126</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="10" t="s">
         <v>129</v>
       </c>
       <c r="F1" s="11" t="s">
         <v>130</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="G1" s="11" t="s">
         <v>131</v>
       </c>
-      <c r="H1" s="13" t="s">
+      <c r="H1" s="12" t="s">
         <v>132</v>
       </c>
-      <c r="I1" s="13" t="s">
+      <c r="I1" s="14" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="J1" s="14" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="C2" t="s">
-        <v>134</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="E2" t="s">
-        <v>134</v>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="D2" t="s">
+        <v>135</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>135</v>
       </c>
       <c r="F2" t="s">
-        <v>134</v>
-      </c>
-      <c r="G2" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="H2" t="s">
-        <v>134</v>
+        <v>135</v>
+      </c>
+      <c r="G2" t="s">
+        <v>135</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>135</v>
       </c>
       <c r="I2" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+        <v>135</v>
+      </c>
+      <c r="J2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="3" ht="40.5" spans="1:10">
       <c r="A3" t="s">
-        <v>135</v>
-      </c>
-      <c r="B3" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="C3" t="s">
+      <c r="B3" s="13" t="s">
         <v>137</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="C3" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="E3" t="s">
+      <c r="D3" t="s">
         <v>139</v>
       </c>
+      <c r="E3" s="7" t="s">
+        <v>140</v>
+      </c>
       <c r="F3" t="s">
-        <v>140</v>
-      </c>
-      <c r="G3" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="H3" t="s">
+      <c r="G3" t="s">
         <v>142</v>
       </c>
+      <c r="H3" s="7" t="s">
+        <v>143</v>
+      </c>
       <c r="I3" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
+        <v>144</v>
+      </c>
+      <c r="J3" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4">
         <v>1</v>
       </c>
-      <c r="B4" s="6">
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4" s="6">
         <v>999</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>0</v>
       </c>
-      <c r="D4" s="7">
-        <v>1</v>
-      </c>
-      <c r="E4">
+      <c r="E4" s="7">
+        <v>1</v>
+      </c>
+      <c r="F4">
         <v>50</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>30</v>
       </c>
-      <c r="G4" s="7">
+      <c r="H4" s="7">
         <v>20</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>90</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:10">
       <c r="A5">
-        <v>2</v>
-      </c>
-      <c r="B5" s="6">
+        <v>1</v>
+      </c>
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5" s="6">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5" s="7">
+        <v>999</v>
+      </c>
+      <c r="F5">
+        <v>50</v>
+      </c>
+      <c r="G5">
+        <v>30</v>
+      </c>
+      <c r="H5" s="7">
+        <v>20</v>
+      </c>
+      <c r="I5">
+        <v>90</v>
+      </c>
+      <c r="J5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6">
+        <v>2</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6" s="6">
         <v>995</v>
       </c>
-      <c r="C5">
+      <c r="D6">
         <v>0</v>
       </c>
-      <c r="D5" s="7">
+      <c r="E6" s="7">
         <v>5</v>
       </c>
-      <c r="E5">
+      <c r="F6">
         <v>40</v>
       </c>
-      <c r="F5">
+      <c r="G6">
         <v>40</v>
       </c>
-      <c r="G5" s="7">
+      <c r="H6" s="7">
         <v>20</v>
       </c>
-      <c r="H5">
+      <c r="I6">
         <v>80</v>
       </c>
-      <c r="I5">
+      <c r="J6">
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
-      <c r="A6">
-        <v>3</v>
-      </c>
-      <c r="B6" s="6">
+    <row r="7" spans="1:10">
+      <c r="A7">
+        <v>2</v>
+      </c>
+      <c r="B7">
+        <v>2</v>
+      </c>
+      <c r="C7" s="6">
+        <v>995</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7" s="7">
+        <v>5</v>
+      </c>
+      <c r="F7">
+        <v>40</v>
+      </c>
+      <c r="G7">
+        <v>40</v>
+      </c>
+      <c r="H7" s="7">
+        <v>20</v>
+      </c>
+      <c r="I7">
+        <v>80</v>
+      </c>
+      <c r="J7">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8">
+        <v>3</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8" s="6">
         <v>990</v>
       </c>
-      <c r="C6">
+      <c r="D8">
         <v>0</v>
       </c>
-      <c r="D6" s="7">
+      <c r="E8" s="7">
         <v>10</v>
       </c>
-      <c r="E6">
+      <c r="F8">
         <v>20</v>
       </c>
-      <c r="F6">
+      <c r="G8">
         <v>30</v>
       </c>
-      <c r="G6" s="7">
+      <c r="H8" s="7">
         <v>50</v>
       </c>
-      <c r="H6">
+      <c r="I8">
         <v>70</v>
       </c>
-      <c r="I6">
+      <c r="J8">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9">
+        <v>3</v>
+      </c>
+      <c r="B9">
+        <v>2</v>
+      </c>
+      <c r="C9" s="6">
+        <v>990</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9" s="7">
+        <v>10</v>
+      </c>
+      <c r="F9">
+        <v>20</v>
+      </c>
+      <c r="G9">
+        <v>30</v>
+      </c>
+      <c r="H9" s="7">
+        <v>50</v>
+      </c>
+      <c r="I9">
+        <v>70</v>
+      </c>
+      <c r="J9">
         <v>30</v>
       </c>
     </row>
@@ -3104,10 +3229,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B1" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -3115,15 +3240,15 @@
         <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="3" ht="73.5" customHeight="1" spans="1:2">
       <c r="A3" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B3" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -3429,25 +3554,25 @@
         <v>125</v>
       </c>
       <c r="B1" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="C1" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="D1" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E1" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="F1" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="G1" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="H1" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -3478,28 +3603,28 @@
     </row>
     <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B3" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="C3" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="D3" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E3" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="F3" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="G3" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="H3" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -3591,7 +3716,7 @@
   <sheetPr/>
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
@@ -3604,16 +3729,16 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B1" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="C1" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="D1" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -3632,16 +3757,16 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B3" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="C3" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="D3" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -3649,13 +3774,13 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="C4" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="D4" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -3663,13 +3788,13 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="C5" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="D5" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
   </sheetData>
@@ -3694,10 +3819,10 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="27" spans="2:8">
       <c r="B1" s="1" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="D1" s="3">
         <v>7</v>
@@ -3714,10 +3839,10 @@
     </row>
     <row r="2" s="1" customFormat="1" ht="27" spans="2:8">
       <c r="B2" s="1" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="D2" s="3">
         <v>7</v>
@@ -3734,10 +3859,10 @@
     </row>
     <row r="3" s="1" customFormat="1" ht="27" spans="2:8">
       <c r="B3" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>180</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>178</v>
       </c>
       <c r="D3" s="3">
         <v>7</v>
@@ -3749,7 +3874,7 @@
         <v>1</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
     </row>
     <row r="4" spans="8:8">

--- a/Assets/Editor/ItemData.xlsx
+++ b/Assets/Editor/ItemData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18330" windowHeight="11805" activeTab="1"/>
+    <workbookView windowWidth="18330" windowHeight="11805" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="道具" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="186">
   <si>
     <t>id</t>
   </si>
@@ -526,6 +526,9 @@
     <t>count8</t>
   </si>
   <si>
+    <t>hardLevel</t>
+  </si>
+  <si>
     <t>关卡</t>
   </si>
   <si>
@@ -548,6 +551,9 @@
   </si>
   <si>
     <t>8波频率</t>
+  </si>
+  <si>
+    <t>关卡难度</t>
   </si>
   <si>
     <t>heroId</t>
@@ -1256,7 +1262,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1295,9 +1301,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
@@ -2757,7 +2760,7 @@
       <c r="B44" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="C44" s="15" t="s">
+      <c r="C44" s="14" t="s">
         <v>114</v>
       </c>
       <c r="D44">
@@ -2780,7 +2783,7 @@
       <c r="B45" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="C45" s="15" t="s">
+      <c r="C45" s="14" t="s">
         <v>116</v>
       </c>
       <c r="D45">
@@ -2803,7 +2806,7 @@
       <c r="B46" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="C46" s="15" t="s">
+      <c r="C46" s="14" t="s">
         <v>118</v>
       </c>
       <c r="D46">
@@ -2826,7 +2829,7 @@
       <c r="B47" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="C47" s="15" t="s">
+      <c r="C47" s="14" t="s">
         <v>120</v>
       </c>
       <c r="D47">
@@ -2849,7 +2852,7 @@
       <c r="B48" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="C48" s="15" t="s">
+      <c r="C48" s="14" t="s">
         <v>122</v>
       </c>
       <c r="D48">
@@ -2872,7 +2875,7 @@
       <c r="B49" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="C49" s="15" t="s">
+      <c r="C49" s="14" t="s">
         <v>124</v>
       </c>
       <c r="D49">
@@ -2900,7 +2903,7 @@
   <sheetPr/>
   <dimension ref="A1:J9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
@@ -2941,10 +2944,10 @@
       <c r="H1" s="12" t="s">
         <v>132</v>
       </c>
-      <c r="I1" s="14" t="s">
+      <c r="I1" s="13" t="s">
         <v>133</v>
       </c>
-      <c r="J1" s="14" t="s">
+      <c r="J1" s="13" t="s">
         <v>134</v>
       </c>
     </row>
@@ -2980,11 +2983,11 @@
         <v>135</v>
       </c>
     </row>
-    <row r="3" ht="40.5" spans="1:10">
+    <row r="3" ht="27" spans="1:10">
       <c r="A3" t="s">
         <v>136</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="4" t="s">
         <v>137</v>
       </c>
       <c r="C3" s="6" t="s">
@@ -3541,15 +3544,18 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5"/>
+  <cols>
+    <col min="9" max="9" width="11" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>125</v>
       </c>
@@ -3574,8 +3580,11 @@
       <c r="H1" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -3600,34 +3609,40 @@
       <c r="H2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="3" spans="1:8">
+      <c r="I2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B3" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C3" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D3" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E3" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="F3" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="G3" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="H3" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>165</v>
+      </c>
+      <c r="I3" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4">
         <v>1</v>
       </c>
@@ -3652,8 +3667,11 @@
       <c r="H4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:8">
+      <c r="I4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5">
         <v>2</v>
       </c>
@@ -3678,8 +3696,11 @@
       <c r="H5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:8">
+      <c r="I5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6">
         <v>3</v>
       </c>
@@ -3703,6 +3724,9 @@
       </c>
       <c r="H6">
         <v>0</v>
+      </c>
+      <c r="I6">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -3729,16 +3753,16 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B1" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="C1" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="D1" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -3757,16 +3781,16 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="B3" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="C3" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="D3" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -3774,13 +3798,13 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="C4" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="D4" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -3788,13 +3812,13 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="C5" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="D5" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
     </row>
   </sheetData>
@@ -3819,10 +3843,10 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="27" spans="2:8">
       <c r="B1" s="1" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="D1" s="3">
         <v>7</v>
@@ -3839,10 +3863,10 @@
     </row>
     <row r="2" s="1" customFormat="1" ht="27" spans="2:8">
       <c r="B2" s="1" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="D2" s="3">
         <v>7</v>
@@ -3859,10 +3883,10 @@
     </row>
     <row r="3" s="1" customFormat="1" ht="27" spans="2:8">
       <c r="B3" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>182</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>180</v>
       </c>
       <c r="D3" s="3">
         <v>7</v>
@@ -3874,7 +3898,7 @@
         <v>1</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
     </row>
     <row r="4" spans="8:8">

--- a/Assets/Editor/ItemData.xlsx
+++ b/Assets/Editor/ItemData.xlsx
@@ -4,15 +4,17 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18330" windowHeight="11805" activeTab="3"/>
+    <workbookView windowHeight="17775" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="道具" sheetId="1" r:id="rId1"/>
     <sheet name="道具概率" sheetId="5" r:id="rId2"/>
     <sheet name="经验" sheetId="2" r:id="rId3"/>
-    <sheet name="波次" sheetId="4" r:id="rId4"/>
-    <sheet name="英雄" sheetId="6" r:id="rId5"/>
-    <sheet name="补充用" sheetId="3" r:id="rId6"/>
+    <sheet name="怪物" sheetId="7" r:id="rId4"/>
+    <sheet name="波次" sheetId="4" state="hidden" r:id="rId5"/>
+    <sheet name="关卡" sheetId="8" r:id="rId6"/>
+    <sheet name="英雄" sheetId="6" r:id="rId7"/>
+    <sheet name="补充用" sheetId="3" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="239">
   <si>
     <t>id</t>
   </si>
@@ -505,6 +507,153 @@
     <t>经验等级上限</t>
   </si>
   <si>
+    <t>enemyId</t>
+  </si>
+  <si>
+    <t>levelGroup</t>
+  </si>
+  <si>
+    <t>rewardLevelGroup</t>
+  </si>
+  <si>
+    <t>firstTime</t>
+  </si>
+  <si>
+    <t>repeatTime</t>
+  </si>
+  <si>
+    <t>count</t>
+  </si>
+  <si>
+    <t>hp</t>
+  </si>
+  <si>
+    <t>hpGrow</t>
+  </si>
+  <si>
+    <t>hurt</t>
+  </si>
+  <si>
+    <t>hurtGrow</t>
+  </si>
+  <si>
+    <t>speed</t>
+  </si>
+  <si>
+    <t>speedGrow</t>
+  </si>
+  <si>
+    <t>isGroup</t>
+  </si>
+  <si>
+    <t>groupArea</t>
+  </si>
+  <si>
+    <t>isCircleSide</t>
+  </si>
+  <si>
+    <t>int[]</t>
+  </si>
+  <si>
+    <t>bool</t>
+  </si>
+  <si>
+    <t>怪物ID</t>
+  </si>
+  <si>
+    <t>出现关卡组</t>
+  </si>
+  <si>
+    <t>出现奖励关卡组</t>
+  </si>
+  <si>
+    <t>第一次出现时间</t>
+  </si>
+  <si>
+    <t>出现频率</t>
+  </si>
+  <si>
+    <t>出现数量</t>
+  </si>
+  <si>
+    <t>基础血量</t>
+  </si>
+  <si>
+    <t>怪物血量成长系数</t>
+  </si>
+  <si>
+    <t>基础攻击力</t>
+  </si>
+  <si>
+    <t>怪物攻击力成长系数</t>
+  </si>
+  <si>
+    <t>基础速度</t>
+  </si>
+  <si>
+    <t>移动速度成长系数</t>
+  </si>
+  <si>
+    <t>是否成团</t>
+  </si>
+  <si>
+    <t>创团范围</t>
+  </si>
+  <si>
+    <t>是否边缘出现</t>
+  </si>
+  <si>
+    <t>EnemyFollowMove</t>
+  </si>
+  <si>
+    <t>1,2,3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>4,6</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>0.6</t>
+  </si>
+  <si>
+    <t>0.2</t>
+  </si>
+  <si>
+    <t>18,22</t>
+  </si>
+  <si>
+    <t>0.1</t>
+  </si>
+  <si>
+    <t>TRUE</t>
+  </si>
+  <si>
+    <t>4,5</t>
+  </si>
+  <si>
+    <t>FALSE</t>
+  </si>
+  <si>
+    <t>EnemyFarMove</t>
+  </si>
+  <si>
+    <t>-1</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>20,20</t>
+  </si>
+  <si>
     <t>count2</t>
   </si>
   <si>
@@ -554,6 +703,22 @@
   </si>
   <si>
     <t>关卡难度</t>
+  </si>
+  <si>
+    <t>time</t>
+  </si>
+  <si>
+    <t>关卡id
+与【怪物】中关卡绑定</t>
+  </si>
+  <si>
+    <t>关卡类型
+0：普通
+1：奖励
+2：boss</t>
+  </si>
+  <si>
+    <t>关卡时间</t>
   </si>
   <si>
     <t>heroId</t>
@@ -623,13 +788,18 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
       <u/>
@@ -1132,137 +1302,137 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1278,6 +1448,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
@@ -1307,6 +1489,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1758,7 +1943,7 @@
       <c r="C4" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="5">
+      <c r="D4" s="9">
         <v>1</v>
       </c>
       <c r="E4">
@@ -1784,7 +1969,7 @@
       <c r="C5" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D5" s="9">
         <v>1</v>
       </c>
       <c r="E5">
@@ -1810,7 +1995,7 @@
       <c r="C6" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="5">
+      <c r="D6" s="9">
         <v>1</v>
       </c>
       <c r="E6">
@@ -1836,7 +2021,7 @@
       <c r="C7" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D7" s="5">
+      <c r="D7" s="9">
         <v>2</v>
       </c>
       <c r="E7">
@@ -1862,7 +2047,7 @@
       <c r="C8" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D8" s="5">
+      <c r="D8" s="9">
         <v>2</v>
       </c>
       <c r="E8">
@@ -1888,7 +2073,7 @@
       <c r="C9" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D9" s="5">
+      <c r="D9" s="9">
         <v>2</v>
       </c>
       <c r="E9">
@@ -1914,7 +2099,7 @@
       <c r="C10" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="D10" s="5">
+      <c r="D10" s="9">
         <v>3</v>
       </c>
       <c r="E10">
@@ -1940,7 +2125,7 @@
       <c r="C11" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="D11" s="5">
+      <c r="D11" s="9">
         <v>3</v>
       </c>
       <c r="E11">
@@ -1966,7 +2151,7 @@
       <c r="C12" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="D12" s="5">
+      <c r="D12" s="9">
         <v>3</v>
       </c>
       <c r="E12">
@@ -1992,7 +2177,7 @@
       <c r="C13" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="D13" s="5">
+      <c r="D13" s="9">
         <v>5</v>
       </c>
       <c r="E13">
@@ -2018,7 +2203,7 @@
       <c r="C14" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="D14" s="5">
+      <c r="D14" s="9">
         <v>5</v>
       </c>
       <c r="E14">
@@ -2044,7 +2229,7 @@
       <c r="C15" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="D15" s="5">
+      <c r="D15" s="9">
         <v>5</v>
       </c>
       <c r="E15">
@@ -2070,7 +2255,7 @@
       <c r="C16" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="D16" s="5">
+      <c r="D16" s="9">
         <v>6</v>
       </c>
       <c r="E16">
@@ -2096,7 +2281,7 @@
       <c r="C17" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="D17" s="5">
+      <c r="D17" s="9">
         <v>6</v>
       </c>
       <c r="E17">
@@ -2122,7 +2307,7 @@
       <c r="C18" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="D18" s="5">
+      <c r="D18" s="9">
         <v>6</v>
       </c>
       <c r="E18">
@@ -2148,7 +2333,7 @@
       <c r="C19" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="D19" s="5">
+      <c r="D19" s="9">
         <v>201</v>
       </c>
       <c r="E19">
@@ -2174,7 +2359,7 @@
       <c r="C20" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="D20" s="5">
+      <c r="D20" s="9">
         <v>202</v>
       </c>
       <c r="E20">
@@ -2200,7 +2385,7 @@
       <c r="C21" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="D21" s="5">
+      <c r="D21" s="9">
         <v>203</v>
       </c>
       <c r="E21">
@@ -2226,7 +2411,7 @@
       <c r="C22" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="D22" s="5">
+      <c r="D22" s="9">
         <v>204</v>
       </c>
       <c r="E22">
@@ -2252,7 +2437,7 @@
       <c r="C23" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="D23" s="5">
+      <c r="D23" s="9">
         <v>301</v>
       </c>
       <c r="E23">
@@ -2276,7 +2461,7 @@
       <c r="C24" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="D24" s="5">
+      <c r="D24" s="9">
         <v>302</v>
       </c>
       <c r="E24">
@@ -2300,7 +2485,7 @@
       <c r="C25" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="D25" s="5">
+      <c r="D25" s="9">
         <v>303</v>
       </c>
       <c r="E25">
@@ -2326,7 +2511,7 @@
       <c r="C26" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="D26" s="5">
+      <c r="D26" s="9">
         <v>304</v>
       </c>
       <c r="E26">
@@ -2352,7 +2537,7 @@
       <c r="C27" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="D27" s="5">
+      <c r="D27" s="9">
         <v>305</v>
       </c>
       <c r="E27">
@@ -2757,10 +2942,10 @@
       <c r="A44">
         <v>41</v>
       </c>
-      <c r="B44" s="5" t="s">
+      <c r="B44" s="9" t="s">
         <v>113</v>
       </c>
-      <c r="C44" s="14" t="s">
+      <c r="C44" s="18" t="s">
         <v>114</v>
       </c>
       <c r="D44">
@@ -2780,10 +2965,10 @@
       <c r="A45">
         <v>42</v>
       </c>
-      <c r="B45" s="5" t="s">
+      <c r="B45" s="9" t="s">
         <v>115</v>
       </c>
-      <c r="C45" s="14" t="s">
+      <c r="C45" s="18" t="s">
         <v>116</v>
       </c>
       <c r="D45">
@@ -2803,10 +2988,10 @@
       <c r="A46">
         <v>43</v>
       </c>
-      <c r="B46" s="5" t="s">
+      <c r="B46" s="9" t="s">
         <v>117</v>
       </c>
-      <c r="C46" s="14" t="s">
+      <c r="C46" s="18" t="s">
         <v>118</v>
       </c>
       <c r="D46">
@@ -2826,10 +3011,10 @@
       <c r="A47">
         <v>44</v>
       </c>
-      <c r="B47" s="5" t="s">
+      <c r="B47" s="9" t="s">
         <v>119</v>
       </c>
-      <c r="C47" s="14" t="s">
+      <c r="C47" s="18" t="s">
         <v>120</v>
       </c>
       <c r="D47">
@@ -2849,10 +3034,10 @@
       <c r="A48">
         <v>45</v>
       </c>
-      <c r="B48" s="5" t="s">
+      <c r="B48" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="C48" s="14" t="s">
+      <c r="C48" s="18" t="s">
         <v>122</v>
       </c>
       <c r="D48">
@@ -2872,10 +3057,10 @@
       <c r="A49">
         <v>46</v>
       </c>
-      <c r="B49" s="5" t="s">
+      <c r="B49" s="9" t="s">
         <v>123</v>
       </c>
-      <c r="C49" s="14" t="s">
+      <c r="C49" s="18" t="s">
         <v>124</v>
       </c>
       <c r="D49">
@@ -2904,17 +3089,17 @@
   <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="16.75" customWidth="1"/>
-    <col min="3" max="3" width="12" style="6" customWidth="1"/>
+    <col min="3" max="3" width="12" style="10" customWidth="1"/>
     <col min="4" max="4" width="10.375" customWidth="1"/>
-    <col min="5" max="5" width="12.375" style="7" customWidth="1"/>
+    <col min="5" max="5" width="12.375" style="11" customWidth="1"/>
     <col min="6" max="7" width="10.375" customWidth="1"/>
-    <col min="8" max="8" width="10.375" style="7" customWidth="1"/>
+    <col min="8" max="8" width="10.375" style="11" customWidth="1"/>
     <col min="9" max="9" width="10.875" customWidth="1"/>
     <col min="10" max="10" width="10" customWidth="1"/>
   </cols>
@@ -2926,28 +3111,28 @@
       <c r="B1" t="s">
         <v>126</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="12" t="s">
         <v>127</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="13" t="s">
         <v>128</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="14" t="s">
         <v>129</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="F1" s="15" t="s">
         <v>130</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="G1" s="15" t="s">
         <v>131</v>
       </c>
-      <c r="H1" s="12" t="s">
+      <c r="H1" s="16" t="s">
         <v>132</v>
       </c>
-      <c r="I1" s="13" t="s">
+      <c r="I1" s="17" t="s">
         <v>133</v>
       </c>
-      <c r="J1" s="13" t="s">
+      <c r="J1" s="17" t="s">
         <v>134</v>
       </c>
     </row>
@@ -2958,13 +3143,13 @@
       <c r="B2" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="10" t="s">
         <v>135</v>
       </c>
       <c r="D2" t="s">
         <v>135</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="11" t="s">
         <v>135</v>
       </c>
       <c r="F2" t="s">
@@ -2973,7 +3158,7 @@
       <c r="G2" t="s">
         <v>135</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="H2" s="11" t="s">
         <v>135</v>
       </c>
       <c r="I2" t="s">
@@ -2990,13 +3175,13 @@
       <c r="B3" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="10" t="s">
         <v>138</v>
       </c>
       <c r="D3" t="s">
         <v>139</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="11" t="s">
         <v>140</v>
       </c>
       <c r="F3" t="s">
@@ -3005,7 +3190,7 @@
       <c r="G3" t="s">
         <v>142</v>
       </c>
-      <c r="H3" s="7" t="s">
+      <c r="H3" s="11" t="s">
         <v>143</v>
       </c>
       <c r="I3" t="s">
@@ -3022,13 +3207,13 @@
       <c r="B4">
         <v>1</v>
       </c>
-      <c r="C4" s="6">
+      <c r="C4" s="10">
         <v>999</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
-      <c r="E4" s="7">
+      <c r="E4" s="11">
         <v>1</v>
       </c>
       <c r="F4">
@@ -3037,7 +3222,7 @@
       <c r="G4">
         <v>30</v>
       </c>
-      <c r="H4" s="7">
+      <c r="H4" s="11">
         <v>20</v>
       </c>
       <c r="I4">
@@ -3054,13 +3239,13 @@
       <c r="B5">
         <v>2</v>
       </c>
-      <c r="C5" s="6">
+      <c r="C5" s="10">
         <v>1</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
-      <c r="E5" s="7">
+      <c r="E5" s="11">
         <v>999</v>
       </c>
       <c r="F5">
@@ -3069,7 +3254,7 @@
       <c r="G5">
         <v>30</v>
       </c>
-      <c r="H5" s="7">
+      <c r="H5" s="11">
         <v>20</v>
       </c>
       <c r="I5">
@@ -3086,13 +3271,13 @@
       <c r="B6">
         <v>1</v>
       </c>
-      <c r="C6" s="6">
+      <c r="C6" s="10">
         <v>995</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
-      <c r="E6" s="7">
+      <c r="E6" s="11">
         <v>5</v>
       </c>
       <c r="F6">
@@ -3101,7 +3286,7 @@
       <c r="G6">
         <v>40</v>
       </c>
-      <c r="H6" s="7">
+      <c r="H6" s="11">
         <v>20</v>
       </c>
       <c r="I6">
@@ -3118,13 +3303,13 @@
       <c r="B7">
         <v>2</v>
       </c>
-      <c r="C7" s="6">
+      <c r="C7" s="10">
         <v>995</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
-      <c r="E7" s="7">
+      <c r="E7" s="11">
         <v>5</v>
       </c>
       <c r="F7">
@@ -3133,7 +3318,7 @@
       <c r="G7">
         <v>40</v>
       </c>
-      <c r="H7" s="7">
+      <c r="H7" s="11">
         <v>20</v>
       </c>
       <c r="I7">
@@ -3150,13 +3335,13 @@
       <c r="B8">
         <v>1</v>
       </c>
-      <c r="C8" s="6">
+      <c r="C8" s="10">
         <v>990</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
-      <c r="E8" s="7">
+      <c r="E8" s="11">
         <v>10</v>
       </c>
       <c r="F8">
@@ -3165,7 +3350,7 @@
       <c r="G8">
         <v>30</v>
       </c>
-      <c r="H8" s="7">
+      <c r="H8" s="11">
         <v>50</v>
       </c>
       <c r="I8">
@@ -3182,13 +3367,13 @@
       <c r="B9">
         <v>2</v>
       </c>
-      <c r="C9" s="6">
+      <c r="C9" s="10">
         <v>990</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
-      <c r="E9" s="7">
+      <c r="E9" s="11">
         <v>10</v>
       </c>
       <c r="F9">
@@ -3197,7 +3382,7 @@
       <c r="G9">
         <v>30</v>
       </c>
-      <c r="H9" s="7">
+      <c r="H9" s="11">
         <v>50</v>
       </c>
       <c r="I9">
@@ -3255,7 +3440,7 @@
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="5">
+      <c r="A4" s="9">
         <v>1</v>
       </c>
       <c r="B4">
@@ -3263,7 +3448,7 @@
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="5">
+      <c r="A5" s="9">
         <v>2</v>
       </c>
       <c r="B5">
@@ -3271,7 +3456,7 @@
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="5">
+      <c r="A6" s="9">
         <v>3</v>
       </c>
       <c r="B6">
@@ -3279,7 +3464,7 @@
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="5">
+      <c r="A7" s="9">
         <v>4</v>
       </c>
       <c r="B7">
@@ -3287,7 +3472,7 @@
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="5">
+      <c r="A8" s="9">
         <v>5</v>
       </c>
       <c r="B8">
@@ -3295,7 +3480,7 @@
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="5">
+      <c r="A9" s="9">
         <v>6</v>
       </c>
       <c r="B9">
@@ -3303,7 +3488,7 @@
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="5">
+      <c r="A10" s="9">
         <v>7</v>
       </c>
       <c r="B10">
@@ -3311,7 +3496,7 @@
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="5">
+      <c r="A11" s="9">
         <v>8</v>
       </c>
       <c r="B11">
@@ -3319,7 +3504,7 @@
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="5">
+      <c r="A12" s="9">
         <v>9</v>
       </c>
       <c r="B12">
@@ -3327,7 +3512,7 @@
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="5">
+      <c r="A13" s="9">
         <v>10</v>
       </c>
       <c r="B13">
@@ -3335,7 +3520,7 @@
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="5">
+      <c r="A14" s="9">
         <v>11</v>
       </c>
       <c r="B14">
@@ -3343,7 +3528,7 @@
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="5">
+      <c r="A15" s="9">
         <v>12</v>
       </c>
       <c r="B15">
@@ -3351,7 +3536,7 @@
       </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="5">
+      <c r="A16" s="9">
         <v>13</v>
       </c>
       <c r="B16">
@@ -3359,7 +3544,7 @@
       </c>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="5">
+      <c r="A17" s="9">
         <v>14</v>
       </c>
       <c r="B17">
@@ -3367,7 +3552,7 @@
       </c>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" s="5">
+      <c r="A18" s="9">
         <v>15</v>
       </c>
       <c r="B18">
@@ -3375,7 +3560,7 @@
       </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="5">
+      <c r="A19" s="9">
         <v>16</v>
       </c>
       <c r="B19">
@@ -3383,7 +3568,7 @@
       </c>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="5">
+      <c r="A20" s="9">
         <v>17</v>
       </c>
       <c r="B20">
@@ -3391,7 +3576,7 @@
       </c>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" s="5">
+      <c r="A21" s="9">
         <v>18</v>
       </c>
       <c r="B21">
@@ -3399,7 +3584,7 @@
       </c>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" s="5">
+      <c r="A22" s="9">
         <v>19</v>
       </c>
       <c r="B22">
@@ -3407,7 +3592,7 @@
       </c>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="5">
+      <c r="A23" s="9">
         <v>20</v>
       </c>
       <c r="B23">
@@ -3415,7 +3600,7 @@
       </c>
     </row>
     <row r="24" spans="1:2">
-      <c r="A24" s="5">
+      <c r="A24" s="9">
         <v>21</v>
       </c>
       <c r="B24">
@@ -3423,7 +3608,7 @@
       </c>
     </row>
     <row r="25" spans="1:2">
-      <c r="A25" s="5">
+      <c r="A25" s="9">
         <v>22</v>
       </c>
       <c r="B25">
@@ -3431,7 +3616,7 @@
       </c>
     </row>
     <row r="26" spans="1:2">
-      <c r="A26" s="5">
+      <c r="A26" s="9">
         <v>23</v>
       </c>
       <c r="B26">
@@ -3439,7 +3624,7 @@
       </c>
     </row>
     <row r="27" spans="1:2">
-      <c r="A27" s="5">
+      <c r="A27" s="9">
         <v>24</v>
       </c>
       <c r="B27">
@@ -3447,7 +3632,7 @@
       </c>
     </row>
     <row r="28" spans="1:2">
-      <c r="A28" s="5">
+      <c r="A28" s="9">
         <v>25</v>
       </c>
       <c r="B28">
@@ -3455,7 +3640,7 @@
       </c>
     </row>
     <row r="29" spans="1:2">
-      <c r="A29" s="5">
+      <c r="A29" s="9">
         <v>26</v>
       </c>
       <c r="B29">
@@ -3463,7 +3648,7 @@
       </c>
     </row>
     <row r="30" spans="1:2">
-      <c r="A30" s="5">
+      <c r="A30" s="9">
         <v>27</v>
       </c>
       <c r="B30">
@@ -3471,7 +3656,7 @@
       </c>
     </row>
     <row r="31" spans="1:2">
-      <c r="A31" s="5">
+      <c r="A31" s="9">
         <v>28</v>
       </c>
       <c r="B31">
@@ -3479,7 +3664,7 @@
       </c>
     </row>
     <row r="32" spans="1:2">
-      <c r="A32" s="5">
+      <c r="A32" s="9">
         <v>29</v>
       </c>
       <c r="B32">
@@ -3487,7 +3672,7 @@
       </c>
     </row>
     <row r="33" spans="1:2">
-      <c r="A33" s="5">
+      <c r="A33" s="9">
         <v>30</v>
       </c>
       <c r="B33">
@@ -3495,7 +3680,7 @@
       </c>
     </row>
     <row r="34" spans="1:2">
-      <c r="A34" s="5">
+      <c r="A34" s="9">
         <v>31</v>
       </c>
       <c r="B34">
@@ -3503,7 +3688,7 @@
       </c>
     </row>
     <row r="35" spans="1:2">
-      <c r="A35" s="5">
+      <c r="A35" s="9">
         <v>32</v>
       </c>
       <c r="B35">
@@ -3511,7 +3696,7 @@
       </c>
     </row>
     <row r="36" spans="1:2">
-      <c r="A36" s="5">
+      <c r="A36" s="9">
         <v>33</v>
       </c>
       <c r="B36">
@@ -3519,7 +3704,7 @@
       </c>
     </row>
     <row r="37" spans="1:2">
-      <c r="A37" s="5">
+      <c r="A37" s="9">
         <v>34</v>
       </c>
       <c r="B37">
@@ -3527,7 +3712,7 @@
       </c>
     </row>
     <row r="38" spans="1:2">
-      <c r="A38" s="5">
+      <c r="A38" s="9">
         <v>35</v>
       </c>
       <c r="B38">
@@ -3544,9 +3729,276 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
+  <dimension ref="A1:O5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M30" sqref="M30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4"/>
+  <cols>
+    <col min="1" max="1" width="17.125" customWidth="1"/>
+    <col min="2" max="2" width="17.25" style="5" customWidth="1"/>
+    <col min="3" max="3" width="18.25" customWidth="1"/>
+    <col min="4" max="4" width="16" customWidth="1"/>
+    <col min="5" max="5" width="11.5" customWidth="1"/>
+    <col min="6" max="7" width="9.375" customWidth="1"/>
+    <col min="8" max="8" width="18.25" customWidth="1"/>
+    <col min="9" max="9" width="11.5" customWidth="1"/>
+    <col min="10" max="10" width="20.375" customWidth="1"/>
+    <col min="11" max="11" width="9.375" customWidth="1"/>
+    <col min="12" max="12" width="18.25" customWidth="1"/>
+    <col min="13" max="14" width="9.375" customWidth="1"/>
+    <col min="15" max="15" width="13.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15">
+      <c r="A1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="C1" t="s">
+        <v>152</v>
+      </c>
+      <c r="D1" t="s">
+        <v>153</v>
+      </c>
+      <c r="E1" t="s">
+        <v>154</v>
+      </c>
+      <c r="F1" t="s">
+        <v>155</v>
+      </c>
+      <c r="G1" t="s">
+        <v>156</v>
+      </c>
+      <c r="H1" t="s">
+        <v>157</v>
+      </c>
+      <c r="I1" t="s">
+        <v>158</v>
+      </c>
+      <c r="J1" t="s">
+        <v>159</v>
+      </c>
+      <c r="K1" t="s">
+        <v>160</v>
+      </c>
+      <c r="L1" t="s">
+        <v>161</v>
+      </c>
+      <c r="M1" t="s">
+        <v>162</v>
+      </c>
+      <c r="N1" t="s">
+        <v>163</v>
+      </c>
+      <c r="O1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="D2" t="s">
+        <v>135</v>
+      </c>
+      <c r="E2" t="s">
+        <v>135</v>
+      </c>
+      <c r="F2" t="s">
+        <v>165</v>
+      </c>
+      <c r="G2" t="s">
+        <v>135</v>
+      </c>
+      <c r="H2" t="s">
+        <v>135</v>
+      </c>
+      <c r="I2" t="s">
+        <v>135</v>
+      </c>
+      <c r="J2" t="s">
+        <v>135</v>
+      </c>
+      <c r="K2" t="s">
+        <v>165</v>
+      </c>
+      <c r="L2" t="s">
+        <v>135</v>
+      </c>
+      <c r="M2" t="s">
+        <v>166</v>
+      </c>
+      <c r="N2" t="s">
+        <v>165</v>
+      </c>
+      <c r="O2" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="3" ht="14.25" spans="1:15">
+      <c r="A3" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="K3" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="L3" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="M3" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="N3" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="O3" s="6" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="4" ht="14.25" spans="1:15">
+      <c r="A4" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="E4" s="19" t="s">
+        <v>185</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="G4" s="19" t="s">
+        <v>187</v>
+      </c>
+      <c r="H4" s="19" t="s">
+        <v>188</v>
+      </c>
+      <c r="I4" s="19" t="s">
+        <v>185</v>
+      </c>
+      <c r="J4" s="19" t="s">
+        <v>189</v>
+      </c>
+      <c r="K4" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="L4" s="19" t="s">
+        <v>191</v>
+      </c>
+      <c r="M4" s="19" t="s">
+        <v>192</v>
+      </c>
+      <c r="N4" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="O4" s="19" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="5" ht="14.25" spans="1:15">
+      <c r="A5" s="6" t="s">
+        <v>195</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="G5" s="19" t="s">
+        <v>187</v>
+      </c>
+      <c r="H5" s="19" t="s">
+        <v>188</v>
+      </c>
+      <c r="I5" s="19" t="s">
+        <v>185</v>
+      </c>
+      <c r="J5" s="19" t="s">
+        <v>189</v>
+      </c>
+      <c r="K5" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="L5" s="19" t="s">
+        <v>191</v>
+      </c>
+      <c r="M5" s="19" t="s">
+        <v>194</v>
+      </c>
+      <c r="N5" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="O5" s="19" t="s">
+        <v>192</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:I6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
@@ -3560,28 +4012,28 @@
         <v>125</v>
       </c>
       <c r="B1" t="s">
-        <v>150</v>
+        <v>199</v>
       </c>
       <c r="C1" t="s">
-        <v>151</v>
+        <v>200</v>
       </c>
       <c r="D1" t="s">
-        <v>152</v>
+        <v>201</v>
       </c>
       <c r="E1" t="s">
-        <v>153</v>
+        <v>202</v>
       </c>
       <c r="F1" t="s">
-        <v>154</v>
+        <v>203</v>
       </c>
       <c r="G1" t="s">
-        <v>155</v>
+        <v>204</v>
       </c>
       <c r="H1" t="s">
-        <v>156</v>
+        <v>205</v>
       </c>
       <c r="I1" t="s">
-        <v>157</v>
+        <v>206</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -3615,31 +4067,31 @@
     </row>
     <row r="3" spans="1:9">
       <c r="A3" t="s">
-        <v>158</v>
+        <v>207</v>
       </c>
       <c r="B3" t="s">
-        <v>159</v>
+        <v>208</v>
       </c>
       <c r="C3" t="s">
-        <v>160</v>
+        <v>209</v>
       </c>
       <c r="D3" t="s">
-        <v>161</v>
+        <v>210</v>
       </c>
       <c r="E3" t="s">
-        <v>162</v>
+        <v>211</v>
       </c>
       <c r="F3" t="s">
-        <v>163</v>
+        <v>212</v>
       </c>
       <c r="G3" t="s">
-        <v>164</v>
+        <v>213</v>
       </c>
       <c r="H3" t="s">
-        <v>165</v>
+        <v>214</v>
       </c>
       <c r="I3" t="s">
-        <v>166</v>
+        <v>215</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -3735,13 +4187,111 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:C7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="S13" sqref="S13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="2"/>
+  <cols>
+    <col min="1" max="1" width="20.5" customWidth="1"/>
+    <col min="2" max="2" width="16" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" ht="54" spans="1:3">
+      <c r="A3" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="C3" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6">
+        <v>2</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7">
+        <v>2</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="D3" sqref="A1:D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="3"/>
@@ -3753,16 +4303,16 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>167</v>
+        <v>220</v>
       </c>
       <c r="B1" t="s">
-        <v>168</v>
+        <v>221</v>
       </c>
       <c r="C1" t="s">
-        <v>169</v>
+        <v>222</v>
       </c>
       <c r="D1" t="s">
-        <v>170</v>
+        <v>223</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -3781,16 +4331,16 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>171</v>
+        <v>224</v>
       </c>
       <c r="B3" t="s">
-        <v>172</v>
+        <v>225</v>
       </c>
       <c r="C3" t="s">
-        <v>173</v>
+        <v>226</v>
       </c>
       <c r="D3" t="s">
-        <v>174</v>
+        <v>227</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -3798,13 +4348,13 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>175</v>
+        <v>228</v>
       </c>
       <c r="C4" t="s">
-        <v>176</v>
+        <v>229</v>
       </c>
       <c r="D4" t="s">
-        <v>177</v>
+        <v>230</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -3812,13 +4362,13 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>178</v>
+        <v>231</v>
       </c>
       <c r="C5" t="s">
-        <v>179</v>
+        <v>232</v>
       </c>
       <c r="D5" t="s">
-        <v>180</v>
+        <v>233</v>
       </c>
     </row>
   </sheetData>
@@ -3827,7 +4377,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="B1:H43"/>
@@ -3843,10 +4393,10 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="27" spans="2:8">
       <c r="B1" s="1" t="s">
-        <v>181</v>
+        <v>234</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>182</v>
+        <v>235</v>
       </c>
       <c r="D1" s="3">
         <v>7</v>
@@ -3863,10 +4413,10 @@
     </row>
     <row r="2" s="1" customFormat="1" ht="27" spans="2:8">
       <c r="B2" s="1" t="s">
-        <v>183</v>
+        <v>236</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>182</v>
+        <v>235</v>
       </c>
       <c r="D2" s="3">
         <v>7</v>
@@ -3883,10 +4433,10 @@
     </row>
     <row r="3" s="1" customFormat="1" ht="27" spans="2:8">
       <c r="B3" s="1" t="s">
-        <v>184</v>
+        <v>237</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>182</v>
+        <v>235</v>
       </c>
       <c r="D3" s="3">
         <v>7</v>
@@ -3898,7 +4448,7 @@
         <v>1</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>185</v>
+        <v>238</v>
       </c>
     </row>
     <row r="4" spans="8:8">

--- a/Assets/Editor/ItemData.xlsx
+++ b/Assets/Editor/ItemData.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="239">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="482" uniqueCount="257">
   <si>
     <t>id</t>
   </si>
@@ -606,7 +606,10 @@
     <t>EnemyFollowMove</t>
   </si>
   <si>
-    <t>1,2,3</t>
+    <t>1,2,3,4,5</t>
+  </si>
+  <si>
+    <t>-1</t>
   </si>
   <si>
     <t>1</t>
@@ -630,28 +633,79 @@
     <t>18,22</t>
   </si>
   <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>TRUE</t>
+  </si>
+  <si>
+    <t>4,5</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>2,2</t>
+  </si>
+  <si>
+    <t>FALSE</t>
+  </si>
+  <si>
+    <t>6,7,8,9</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>5,7</t>
+  </si>
+  <si>
+    <t>3,3</t>
+  </si>
+  <si>
+    <t>10,11,12,13,14</t>
+  </si>
+  <si>
+    <t>7,8</t>
+  </si>
+  <si>
+    <t>4,4</t>
+  </si>
+  <si>
+    <t>EnemyFollowMove_1</t>
+  </si>
+  <si>
+    <t>3,4,5</t>
+  </si>
+  <si>
+    <t>3,4</t>
+  </si>
+  <si>
+    <t>25,25</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>6,7,8,9,10</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>11,12,13,14</t>
+  </si>
+  <si>
+    <t>EnemyFarMove</t>
+  </si>
+  <si>
+    <t>20,20</t>
+  </si>
+  <si>
     <t>0.1</t>
-  </si>
-  <si>
-    <t>TRUE</t>
-  </si>
-  <si>
-    <t>4,5</t>
-  </si>
-  <si>
-    <t>FALSE</t>
-  </si>
-  <si>
-    <t>EnemyFarMove</t>
-  </si>
-  <si>
-    <t>-1</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>20,20</t>
   </si>
   <si>
     <t>count2</t>
@@ -1432,7 +1486,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1444,9 +1498,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1943,7 +1994,7 @@
       <c r="C4" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="9">
+      <c r="D4" s="8">
         <v>1</v>
       </c>
       <c r="E4">
@@ -1969,7 +2020,7 @@
       <c r="C5" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="9">
+      <c r="D5" s="8">
         <v>1</v>
       </c>
       <c r="E5">
@@ -1995,7 +2046,7 @@
       <c r="C6" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="9">
+      <c r="D6" s="8">
         <v>1</v>
       </c>
       <c r="E6">
@@ -2021,7 +2072,7 @@
       <c r="C7" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D7" s="9">
+      <c r="D7" s="8">
         <v>2</v>
       </c>
       <c r="E7">
@@ -2047,7 +2098,7 @@
       <c r="C8" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D8" s="9">
+      <c r="D8" s="8">
         <v>2</v>
       </c>
       <c r="E8">
@@ -2073,7 +2124,7 @@
       <c r="C9" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D9" s="9">
+      <c r="D9" s="8">
         <v>2</v>
       </c>
       <c r="E9">
@@ -2099,7 +2150,7 @@
       <c r="C10" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="D10" s="9">
+      <c r="D10" s="8">
         <v>3</v>
       </c>
       <c r="E10">
@@ -2125,7 +2176,7 @@
       <c r="C11" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="D11" s="9">
+      <c r="D11" s="8">
         <v>3</v>
       </c>
       <c r="E11">
@@ -2151,7 +2202,7 @@
       <c r="C12" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="D12" s="9">
+      <c r="D12" s="8">
         <v>3</v>
       </c>
       <c r="E12">
@@ -2177,7 +2228,7 @@
       <c r="C13" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="D13" s="9">
+      <c r="D13" s="8">
         <v>5</v>
       </c>
       <c r="E13">
@@ -2203,7 +2254,7 @@
       <c r="C14" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="D14" s="9">
+      <c r="D14" s="8">
         <v>5</v>
       </c>
       <c r="E14">
@@ -2229,7 +2280,7 @@
       <c r="C15" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="D15" s="9">
+      <c r="D15" s="8">
         <v>5</v>
       </c>
       <c r="E15">
@@ -2255,7 +2306,7 @@
       <c r="C16" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="D16" s="9">
+      <c r="D16" s="8">
         <v>6</v>
       </c>
       <c r="E16">
@@ -2281,7 +2332,7 @@
       <c r="C17" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="D17" s="9">
+      <c r="D17" s="8">
         <v>6</v>
       </c>
       <c r="E17">
@@ -2307,7 +2358,7 @@
       <c r="C18" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="D18" s="9">
+      <c r="D18" s="8">
         <v>6</v>
       </c>
       <c r="E18">
@@ -2333,7 +2384,7 @@
       <c r="C19" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="D19" s="9">
+      <c r="D19" s="8">
         <v>201</v>
       </c>
       <c r="E19">
@@ -2359,7 +2410,7 @@
       <c r="C20" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="D20" s="9">
+      <c r="D20" s="8">
         <v>202</v>
       </c>
       <c r="E20">
@@ -2385,7 +2436,7 @@
       <c r="C21" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="D21" s="9">
+      <c r="D21" s="8">
         <v>203</v>
       </c>
       <c r="E21">
@@ -2411,7 +2462,7 @@
       <c r="C22" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="D22" s="9">
+      <c r="D22" s="8">
         <v>204</v>
       </c>
       <c r="E22">
@@ -2437,7 +2488,7 @@
       <c r="C23" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="D23" s="9">
+      <c r="D23" s="8">
         <v>301</v>
       </c>
       <c r="E23">
@@ -2461,7 +2512,7 @@
       <c r="C24" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="D24" s="9">
+      <c r="D24" s="8">
         <v>302</v>
       </c>
       <c r="E24">
@@ -2485,7 +2536,7 @@
       <c r="C25" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="D25" s="9">
+      <c r="D25" s="8">
         <v>303</v>
       </c>
       <c r="E25">
@@ -2511,7 +2562,7 @@
       <c r="C26" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="D26" s="9">
+      <c r="D26" s="8">
         <v>304</v>
       </c>
       <c r="E26">
@@ -2537,7 +2588,7 @@
       <c r="C27" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="D27" s="9">
+      <c r="D27" s="8">
         <v>305</v>
       </c>
       <c r="E27">
@@ -2942,10 +2993,10 @@
       <c r="A44">
         <v>41</v>
       </c>
-      <c r="B44" s="9" t="s">
+      <c r="B44" s="8" t="s">
         <v>113</v>
       </c>
-      <c r="C44" s="18" t="s">
+      <c r="C44" s="17" t="s">
         <v>114</v>
       </c>
       <c r="D44">
@@ -2965,10 +3016,10 @@
       <c r="A45">
         <v>42</v>
       </c>
-      <c r="B45" s="9" t="s">
+      <c r="B45" s="8" t="s">
         <v>115</v>
       </c>
-      <c r="C45" s="18" t="s">
+      <c r="C45" s="17" t="s">
         <v>116</v>
       </c>
       <c r="D45">
@@ -2988,10 +3039,10 @@
       <c r="A46">
         <v>43</v>
       </c>
-      <c r="B46" s="9" t="s">
+      <c r="B46" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="C46" s="18" t="s">
+      <c r="C46" s="17" t="s">
         <v>118</v>
       </c>
       <c r="D46">
@@ -3011,10 +3062,10 @@
       <c r="A47">
         <v>44</v>
       </c>
-      <c r="B47" s="9" t="s">
+      <c r="B47" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="C47" s="18" t="s">
+      <c r="C47" s="17" t="s">
         <v>120</v>
       </c>
       <c r="D47">
@@ -3034,10 +3085,10 @@
       <c r="A48">
         <v>45</v>
       </c>
-      <c r="B48" s="9" t="s">
+      <c r="B48" s="8" t="s">
         <v>121</v>
       </c>
-      <c r="C48" s="18" t="s">
+      <c r="C48" s="17" t="s">
         <v>122</v>
       </c>
       <c r="D48">
@@ -3057,10 +3108,10 @@
       <c r="A49">
         <v>46</v>
       </c>
-      <c r="B49" s="9" t="s">
+      <c r="B49" s="8" t="s">
         <v>123</v>
       </c>
-      <c r="C49" s="18" t="s">
+      <c r="C49" s="17" t="s">
         <v>124</v>
       </c>
       <c r="D49">
@@ -3095,11 +3146,11 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="16.75" customWidth="1"/>
-    <col min="3" max="3" width="12" style="10" customWidth="1"/>
+    <col min="3" max="3" width="12" style="9" customWidth="1"/>
     <col min="4" max="4" width="10.375" customWidth="1"/>
-    <col min="5" max="5" width="12.375" style="11" customWidth="1"/>
+    <col min="5" max="5" width="12.375" style="10" customWidth="1"/>
     <col min="6" max="7" width="10.375" customWidth="1"/>
-    <col min="8" max="8" width="10.375" style="11" customWidth="1"/>
+    <col min="8" max="8" width="10.375" style="10" customWidth="1"/>
     <col min="9" max="9" width="10.875" customWidth="1"/>
     <col min="10" max="10" width="10" customWidth="1"/>
   </cols>
@@ -3111,28 +3162,28 @@
       <c r="B1" t="s">
         <v>126</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="11" t="s">
         <v>127</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="D1" s="12" t="s">
         <v>128</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="E1" s="13" t="s">
         <v>129</v>
       </c>
-      <c r="F1" s="15" t="s">
+      <c r="F1" s="14" t="s">
         <v>130</v>
       </c>
-      <c r="G1" s="15" t="s">
+      <c r="G1" s="14" t="s">
         <v>131</v>
       </c>
-      <c r="H1" s="16" t="s">
+      <c r="H1" s="15" t="s">
         <v>132</v>
       </c>
-      <c r="I1" s="17" t="s">
+      <c r="I1" s="16" t="s">
         <v>133</v>
       </c>
-      <c r="J1" s="17" t="s">
+      <c r="J1" s="16" t="s">
         <v>134</v>
       </c>
     </row>
@@ -3143,13 +3194,13 @@
       <c r="B2" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="9" t="s">
         <v>135</v>
       </c>
       <c r="D2" t="s">
         <v>135</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="E2" s="10" t="s">
         <v>135</v>
       </c>
       <c r="F2" t="s">
@@ -3158,7 +3209,7 @@
       <c r="G2" t="s">
         <v>135</v>
       </c>
-      <c r="H2" s="11" t="s">
+      <c r="H2" s="10" t="s">
         <v>135</v>
       </c>
       <c r="I2" t="s">
@@ -3175,13 +3226,13 @@
       <c r="B3" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="9" t="s">
         <v>138</v>
       </c>
       <c r="D3" t="s">
         <v>139</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="E3" s="10" t="s">
         <v>140</v>
       </c>
       <c r="F3" t="s">
@@ -3190,7 +3241,7 @@
       <c r="G3" t="s">
         <v>142</v>
       </c>
-      <c r="H3" s="11" t="s">
+      <c r="H3" s="10" t="s">
         <v>143</v>
       </c>
       <c r="I3" t="s">
@@ -3207,13 +3258,13 @@
       <c r="B4">
         <v>1</v>
       </c>
-      <c r="C4" s="10">
+      <c r="C4" s="9">
         <v>999</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
-      <c r="E4" s="11">
+      <c r="E4" s="10">
         <v>1</v>
       </c>
       <c r="F4">
@@ -3222,7 +3273,7 @@
       <c r="G4">
         <v>30</v>
       </c>
-      <c r="H4" s="11">
+      <c r="H4" s="10">
         <v>20</v>
       </c>
       <c r="I4">
@@ -3239,13 +3290,13 @@
       <c r="B5">
         <v>2</v>
       </c>
-      <c r="C5" s="10">
+      <c r="C5" s="9">
         <v>1</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
-      <c r="E5" s="11">
+      <c r="E5" s="10">
         <v>999</v>
       </c>
       <c r="F5">
@@ -3254,7 +3305,7 @@
       <c r="G5">
         <v>30</v>
       </c>
-      <c r="H5" s="11">
+      <c r="H5" s="10">
         <v>20</v>
       </c>
       <c r="I5">
@@ -3271,13 +3322,13 @@
       <c r="B6">
         <v>1</v>
       </c>
-      <c r="C6" s="10">
+      <c r="C6" s="9">
         <v>995</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
-      <c r="E6" s="11">
+      <c r="E6" s="10">
         <v>5</v>
       </c>
       <c r="F6">
@@ -3286,7 +3337,7 @@
       <c r="G6">
         <v>40</v>
       </c>
-      <c r="H6" s="11">
+      <c r="H6" s="10">
         <v>20</v>
       </c>
       <c r="I6">
@@ -3303,13 +3354,13 @@
       <c r="B7">
         <v>2</v>
       </c>
-      <c r="C7" s="10">
+      <c r="C7" s="9">
         <v>995</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
-      <c r="E7" s="11">
+      <c r="E7" s="10">
         <v>5</v>
       </c>
       <c r="F7">
@@ -3318,7 +3369,7 @@
       <c r="G7">
         <v>40</v>
       </c>
-      <c r="H7" s="11">
+      <c r="H7" s="10">
         <v>20</v>
       </c>
       <c r="I7">
@@ -3335,13 +3386,13 @@
       <c r="B8">
         <v>1</v>
       </c>
-      <c r="C8" s="10">
+      <c r="C8" s="9">
         <v>990</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
-      <c r="E8" s="11">
+      <c r="E8" s="10">
         <v>10</v>
       </c>
       <c r="F8">
@@ -3350,7 +3401,7 @@
       <c r="G8">
         <v>30</v>
       </c>
-      <c r="H8" s="11">
+      <c r="H8" s="10">
         <v>50</v>
       </c>
       <c r="I8">
@@ -3367,13 +3418,13 @@
       <c r="B9">
         <v>2</v>
       </c>
-      <c r="C9" s="10">
+      <c r="C9" s="9">
         <v>990</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
-      <c r="E9" s="11">
+      <c r="E9" s="10">
         <v>10</v>
       </c>
       <c r="F9">
@@ -3382,7 +3433,7 @@
       <c r="G9">
         <v>30</v>
       </c>
-      <c r="H9" s="11">
+      <c r="H9" s="10">
         <v>50</v>
       </c>
       <c r="I9">
@@ -3440,7 +3491,7 @@
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="9">
+      <c r="A4" s="8">
         <v>1</v>
       </c>
       <c r="B4">
@@ -3448,7 +3499,7 @@
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="9">
+      <c r="A5" s="8">
         <v>2</v>
       </c>
       <c r="B5">
@@ -3456,7 +3507,7 @@
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="9">
+      <c r="A6" s="8">
         <v>3</v>
       </c>
       <c r="B6">
@@ -3464,7 +3515,7 @@
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="9">
+      <c r="A7" s="8">
         <v>4</v>
       </c>
       <c r="B7">
@@ -3472,7 +3523,7 @@
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="9">
+      <c r="A8" s="8">
         <v>5</v>
       </c>
       <c r="B8">
@@ -3480,7 +3531,7 @@
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="9">
+      <c r="A9" s="8">
         <v>6</v>
       </c>
       <c r="B9">
@@ -3488,7 +3539,7 @@
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="9">
+      <c r="A10" s="8">
         <v>7</v>
       </c>
       <c r="B10">
@@ -3496,7 +3547,7 @@
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="9">
+      <c r="A11" s="8">
         <v>8</v>
       </c>
       <c r="B11">
@@ -3504,7 +3555,7 @@
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="9">
+      <c r="A12" s="8">
         <v>9</v>
       </c>
       <c r="B12">
@@ -3512,7 +3563,7 @@
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="9">
+      <c r="A13" s="8">
         <v>10</v>
       </c>
       <c r="B13">
@@ -3520,7 +3571,7 @@
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="9">
+      <c r="A14" s="8">
         <v>11</v>
       </c>
       <c r="B14">
@@ -3528,7 +3579,7 @@
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="9">
+      <c r="A15" s="8">
         <v>12</v>
       </c>
       <c r="B15">
@@ -3536,7 +3587,7 @@
       </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="9">
+      <c r="A16" s="8">
         <v>13</v>
       </c>
       <c r="B16">
@@ -3544,7 +3595,7 @@
       </c>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="9">
+      <c r="A17" s="8">
         <v>14</v>
       </c>
       <c r="B17">
@@ -3552,7 +3603,7 @@
       </c>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" s="9">
+      <c r="A18" s="8">
         <v>15</v>
       </c>
       <c r="B18">
@@ -3560,7 +3611,7 @@
       </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="9">
+      <c r="A19" s="8">
         <v>16</v>
       </c>
       <c r="B19">
@@ -3568,7 +3619,7 @@
       </c>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="9">
+      <c r="A20" s="8">
         <v>17</v>
       </c>
       <c r="B20">
@@ -3576,7 +3627,7 @@
       </c>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" s="9">
+      <c r="A21" s="8">
         <v>18</v>
       </c>
       <c r="B21">
@@ -3584,7 +3635,7 @@
       </c>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" s="9">
+      <c r="A22" s="8">
         <v>19</v>
       </c>
       <c r="B22">
@@ -3592,7 +3643,7 @@
       </c>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="9">
+      <c r="A23" s="8">
         <v>20</v>
       </c>
       <c r="B23">
@@ -3600,7 +3651,7 @@
       </c>
     </row>
     <row r="24" spans="1:2">
-      <c r="A24" s="9">
+      <c r="A24" s="8">
         <v>21</v>
       </c>
       <c r="B24">
@@ -3608,7 +3659,7 @@
       </c>
     </row>
     <row r="25" spans="1:2">
-      <c r="A25" s="9">
+      <c r="A25" s="8">
         <v>22</v>
       </c>
       <c r="B25">
@@ -3616,7 +3667,7 @@
       </c>
     </row>
     <row r="26" spans="1:2">
-      <c r="A26" s="9">
+      <c r="A26" s="8">
         <v>23</v>
       </c>
       <c r="B26">
@@ -3624,7 +3675,7 @@
       </c>
     </row>
     <row r="27" spans="1:2">
-      <c r="A27" s="9">
+      <c r="A27" s="8">
         <v>24</v>
       </c>
       <c r="B27">
@@ -3632,7 +3683,7 @@
       </c>
     </row>
     <row r="28" spans="1:2">
-      <c r="A28" s="9">
+      <c r="A28" s="8">
         <v>25</v>
       </c>
       <c r="B28">
@@ -3640,7 +3691,7 @@
       </c>
     </row>
     <row r="29" spans="1:2">
-      <c r="A29" s="9">
+      <c r="A29" s="8">
         <v>26</v>
       </c>
       <c r="B29">
@@ -3648,7 +3699,7 @@
       </c>
     </row>
     <row r="30" spans="1:2">
-      <c r="A30" s="9">
+      <c r="A30" s="8">
         <v>27</v>
       </c>
       <c r="B30">
@@ -3656,7 +3707,7 @@
       </c>
     </row>
     <row r="31" spans="1:2">
-      <c r="A31" s="9">
+      <c r="A31" s="8">
         <v>28</v>
       </c>
       <c r="B31">
@@ -3664,7 +3715,7 @@
       </c>
     </row>
     <row r="32" spans="1:2">
-      <c r="A32" s="9">
+      <c r="A32" s="8">
         <v>29</v>
       </c>
       <c r="B32">
@@ -3672,7 +3723,7 @@
       </c>
     </row>
     <row r="33" spans="1:2">
-      <c r="A33" s="9">
+      <c r="A33" s="8">
         <v>30</v>
       </c>
       <c r="B33">
@@ -3680,7 +3731,7 @@
       </c>
     </row>
     <row r="34" spans="1:2">
-      <c r="A34" s="9">
+      <c r="A34" s="8">
         <v>31</v>
       </c>
       <c r="B34">
@@ -3688,7 +3739,7 @@
       </c>
     </row>
     <row r="35" spans="1:2">
-      <c r="A35" s="9">
+      <c r="A35" s="8">
         <v>32</v>
       </c>
       <c r="B35">
@@ -3696,7 +3747,7 @@
       </c>
     </row>
     <row r="36" spans="1:2">
-      <c r="A36" s="9">
+      <c r="A36" s="8">
         <v>33</v>
       </c>
       <c r="B36">
@@ -3704,7 +3755,7 @@
       </c>
     </row>
     <row r="37" spans="1:2">
-      <c r="A37" s="9">
+      <c r="A37" s="8">
         <v>34</v>
       </c>
       <c r="B37">
@@ -3712,7 +3763,7 @@
       </c>
     </row>
     <row r="38" spans="1:2">
-      <c r="A38" s="9">
+      <c r="A38" s="8">
         <v>35</v>
       </c>
       <c r="B38">
@@ -3729,16 +3780,16 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:O5"/>
+  <dimension ref="A1:O16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M30" sqref="M30"/>
+      <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="17.125" customWidth="1"/>
-    <col min="2" max="2" width="17.25" style="5" customWidth="1"/>
+    <col min="2" max="2" width="17.25" style="4" customWidth="1"/>
     <col min="3" max="3" width="18.25" customWidth="1"/>
     <col min="4" max="4" width="16" customWidth="1"/>
     <col min="5" max="5" width="11.5" customWidth="1"/>
@@ -3756,7 +3807,7 @@
       <c r="A1" t="s">
         <v>150</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="4" t="s">
         <v>151</v>
       </c>
       <c r="C1" t="s">
@@ -3803,10 +3854,10 @@
       <c r="A2" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="4" t="s">
         <v>165</v>
       </c>
       <c r="D2" t="s">
@@ -3847,144 +3898,661 @@
       </c>
     </row>
     <row r="3" ht="14.25" spans="1:15">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="6" t="s">
         <v>168</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="6" t="s">
         <v>169</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="5" t="s">
         <v>170</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="5" t="s">
         <v>171</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F3" s="5" t="s">
         <v>172</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="G3" s="5" t="s">
         <v>173</v>
       </c>
-      <c r="H3" s="6" t="s">
+      <c r="H3" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="I3" s="6" t="s">
+      <c r="I3" s="5" t="s">
         <v>175</v>
       </c>
-      <c r="J3" s="6" t="s">
+      <c r="J3" s="5" t="s">
         <v>176</v>
       </c>
-      <c r="K3" s="6" t="s">
+      <c r="K3" s="5" t="s">
         <v>177</v>
       </c>
-      <c r="L3" s="6" t="s">
+      <c r="L3" s="5" t="s">
         <v>178</v>
       </c>
-      <c r="M3" s="6" t="s">
+      <c r="M3" s="5" t="s">
         <v>179</v>
       </c>
-      <c r="N3" s="6" t="s">
+      <c r="N3" s="5" t="s">
         <v>180</v>
       </c>
-      <c r="O3" s="6" t="s">
+      <c r="O3" s="5" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="4" ht="14.25" spans="1:15">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="5" t="s">
         <v>182</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="6" t="s">
         <v>183</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="E4" s="18" t="s">
+        <v>186</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="G4" s="18" t="s">
+        <v>188</v>
+      </c>
+      <c r="H4" s="18" t="s">
+        <v>189</v>
+      </c>
+      <c r="I4" s="18" t="s">
+        <v>186</v>
+      </c>
+      <c r="J4" s="18" t="s">
+        <v>190</v>
+      </c>
+      <c r="K4" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="L4" s="18" t="s">
+        <v>192</v>
+      </c>
+      <c r="M4" s="18" t="s">
+        <v>193</v>
+      </c>
+      <c r="N4" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="O4" s="18" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="5" ht="14.25" spans="1:15">
+      <c r="A5" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="B5" s="6" t="s">
         <v>183</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="C5" s="6" t="s">
         <v>184</v>
       </c>
-      <c r="E4" s="19" t="s">
+      <c r="D5" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="E5" s="18" t="s">
+        <v>195</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="G5" s="18" t="s">
+        <v>188</v>
+      </c>
+      <c r="H5" s="18" t="s">
+        <v>189</v>
+      </c>
+      <c r="I5" s="18" t="s">
+        <v>186</v>
+      </c>
+      <c r="J5" s="18" t="s">
+        <v>190</v>
+      </c>
+      <c r="K5" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="L5" s="18" t="s">
+        <v>192</v>
+      </c>
+      <c r="M5" s="18" t="s">
+        <v>197</v>
+      </c>
+      <c r="N5" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="O5" s="18" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="6" ht="14.25" spans="1:15">
+      <c r="A6" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="D6" s="5" t="s">
         <v>185</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="E6" s="18" t="s">
+        <v>199</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="G6" s="18" t="s">
+        <v>188</v>
+      </c>
+      <c r="H6" s="18" t="s">
+        <v>189</v>
+      </c>
+      <c r="I6" s="18" t="s">
         <v>186</v>
       </c>
-      <c r="G4" s="19" t="s">
-        <v>187</v>
-      </c>
-      <c r="H4" s="19" t="s">
+      <c r="J6" s="18" t="s">
+        <v>190</v>
+      </c>
+      <c r="K6" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="L6" s="18" t="s">
+        <v>192</v>
+      </c>
+      <c r="M6" s="18" t="s">
+        <v>193</v>
+      </c>
+      <c r="N6" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="O6" s="18" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="7" ht="14.25" spans="1:15">
+      <c r="A7" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="D7" s="5" t="s">
         <v>188</v>
       </c>
-      <c r="I4" s="19" t="s">
+      <c r="E7" s="18" t="s">
+        <v>195</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="G7" s="18" t="s">
+        <v>188</v>
+      </c>
+      <c r="H7" s="18" t="s">
+        <v>189</v>
+      </c>
+      <c r="I7" s="18" t="s">
+        <v>186</v>
+      </c>
+      <c r="J7" s="18" t="s">
+        <v>190</v>
+      </c>
+      <c r="K7" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="L7" s="18" t="s">
+        <v>192</v>
+      </c>
+      <c r="M7" s="18" t="s">
+        <v>197</v>
+      </c>
+      <c r="N7" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="O7" s="18" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="8" ht="14.25" spans="1:15">
+      <c r="A8" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="D8" s="5" t="s">
         <v>185</v>
       </c>
-      <c r="J4" s="19" t="s">
+      <c r="E8" s="18" t="s">
+        <v>185</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="G8" s="18" t="s">
+        <v>188</v>
+      </c>
+      <c r="H8" s="18" t="s">
         <v>189</v>
       </c>
-      <c r="K4" s="6" t="s">
+      <c r="I8" s="18" t="s">
+        <v>186</v>
+      </c>
+      <c r="J8" s="18" t="s">
         <v>190</v>
       </c>
-      <c r="L4" s="19" t="s">
+      <c r="K8" s="5" t="s">
         <v>191</v>
       </c>
-      <c r="M4" s="19" t="s">
+      <c r="L8" s="18" t="s">
         <v>192</v>
       </c>
-      <c r="N4" s="6" t="s">
+      <c r="M8" s="18" t="s">
         <v>193</v>
       </c>
-      <c r="O4" s="19" t="s">
+      <c r="N8" s="5" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="5" ht="14.25" spans="1:15">
-      <c r="A5" s="6" t="s">
+      <c r="O8" s="18" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="9" ht="14.25" spans="1:15">
+      <c r="A9" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="E9" s="18" t="s">
         <v>195</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="F9" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="G9" s="18" t="s">
+        <v>188</v>
+      </c>
+      <c r="H9" s="18" t="s">
+        <v>189</v>
+      </c>
+      <c r="I9" s="18" t="s">
+        <v>186</v>
+      </c>
+      <c r="J9" s="18" t="s">
+        <v>190</v>
+      </c>
+      <c r="K9" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="L9" s="18" t="s">
+        <v>192</v>
+      </c>
+      <c r="M9" s="18" t="s">
+        <v>197</v>
+      </c>
+      <c r="N9" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="O9" s="18" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="10" ht="14.25" spans="1:15">
+      <c r="A10" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="H10" s="18" t="s">
+        <v>189</v>
+      </c>
+      <c r="I10" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="J10" s="18" t="s">
+        <v>190</v>
+      </c>
+      <c r="K10" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="L10" s="18" t="s">
+        <v>192</v>
+      </c>
+      <c r="M10" s="18" t="s">
+        <v>193</v>
+      </c>
+      <c r="N10" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="O10" s="18" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="11" ht="14.25" spans="1:15">
+      <c r="A11" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="F11" s="5" t="s">
         <v>196</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="G11" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="H11" s="18" t="s">
+        <v>189</v>
+      </c>
+      <c r="I11" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="J11" s="18" t="s">
+        <v>190</v>
+      </c>
+      <c r="K11" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="L11" s="18" t="s">
+        <v>192</v>
+      </c>
+      <c r="M11" s="18" t="s">
+        <v>197</v>
+      </c>
+      <c r="N11" s="5" t="s">
         <v>184</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="O11" s="18" t="s">
         <v>197</v>
       </c>
-      <c r="E5" s="6" t="s">
+    </row>
+    <row r="12" ht="14.25" spans="1:15">
+      <c r="A12" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="H12" s="18" t="s">
+        <v>189</v>
+      </c>
+      <c r="I12" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="J12" s="18" t="s">
+        <v>190</v>
+      </c>
+      <c r="K12" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="L12" s="18" t="s">
+        <v>192</v>
+      </c>
+      <c r="M12" s="18" t="s">
+        <v>193</v>
+      </c>
+      <c r="N12" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="O12" s="18" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="13" ht="14.25" spans="1:15">
+      <c r="A13" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="H13" s="18" t="s">
+        <v>189</v>
+      </c>
+      <c r="I13" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="J13" s="18" t="s">
+        <v>190</v>
+      </c>
+      <c r="K13" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="L13" s="18" t="s">
+        <v>192</v>
+      </c>
+      <c r="M13" s="18" t="s">
         <v>197</v>
       </c>
-      <c r="F5" s="6" t="s">
-        <v>198</v>
-      </c>
-      <c r="G5" s="19" t="s">
-        <v>187</v>
-      </c>
-      <c r="H5" s="19" t="s">
+      <c r="N13" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="O13" s="18" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="14" ht="14.25" spans="1:15">
+      <c r="A14" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="H14" s="18" t="s">
+        <v>189</v>
+      </c>
+      <c r="I14" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="J14" s="18" t="s">
+        <v>190</v>
+      </c>
+      <c r="K14" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="L14" s="18" t="s">
+        <v>192</v>
+      </c>
+      <c r="M14" s="18" t="s">
+        <v>193</v>
+      </c>
+      <c r="N14" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="O14" s="18" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="15" ht="14.25" spans="1:15">
+      <c r="A15" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="E15" s="5" t="s">
         <v>188</v>
       </c>
-      <c r="I5" s="19" t="s">
+      <c r="F15" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="H15" s="18" t="s">
+        <v>189</v>
+      </c>
+      <c r="I15" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="J15" s="18" t="s">
+        <v>190</v>
+      </c>
+      <c r="K15" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="L15" s="18" t="s">
+        <v>192</v>
+      </c>
+      <c r="M15" s="18" t="s">
+        <v>197</v>
+      </c>
+      <c r="N15" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="O15" s="18" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="16" ht="14.25" spans="1:15">
+      <c r="A16" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="C16" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="J5" s="19" t="s">
+      <c r="D16" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="G16" s="18" t="s">
+        <v>188</v>
+      </c>
+      <c r="H16" s="18" t="s">
         <v>189</v>
       </c>
-      <c r="K5" s="6" t="s">
+      <c r="I16" s="18" t="s">
+        <v>186</v>
+      </c>
+      <c r="J16" s="18" t="s">
         <v>190</v>
       </c>
-      <c r="L5" s="19" t="s">
+      <c r="K16" s="5" t="s">
         <v>191</v>
       </c>
-      <c r="M5" s="19" t="s">
-        <v>194</v>
-      </c>
-      <c r="N5" s="6" t="s">
-        <v>196</v>
-      </c>
-      <c r="O5" s="19" t="s">
-        <v>192</v>
+      <c r="L16" s="18" t="s">
+        <v>216</v>
+      </c>
+      <c r="M16" s="18" t="s">
+        <v>197</v>
+      </c>
+      <c r="N16" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="O16" s="18" t="s">
+        <v>193</v>
       </c>
     </row>
   </sheetData>
@@ -4012,28 +4580,28 @@
         <v>125</v>
       </c>
       <c r="B1" t="s">
-        <v>199</v>
+        <v>217</v>
       </c>
       <c r="C1" t="s">
-        <v>200</v>
+        <v>218</v>
       </c>
       <c r="D1" t="s">
-        <v>201</v>
+        <v>219</v>
       </c>
       <c r="E1" t="s">
-        <v>202</v>
+        <v>220</v>
       </c>
       <c r="F1" t="s">
-        <v>203</v>
+        <v>221</v>
       </c>
       <c r="G1" t="s">
-        <v>204</v>
+        <v>222</v>
       </c>
       <c r="H1" t="s">
-        <v>205</v>
+        <v>223</v>
       </c>
       <c r="I1" t="s">
-        <v>206</v>
+        <v>224</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -4067,31 +4635,31 @@
     </row>
     <row r="3" spans="1:9">
       <c r="A3" t="s">
-        <v>207</v>
+        <v>225</v>
       </c>
       <c r="B3" t="s">
-        <v>208</v>
+        <v>226</v>
       </c>
       <c r="C3" t="s">
-        <v>209</v>
+        <v>227</v>
       </c>
       <c r="D3" t="s">
-        <v>210</v>
+        <v>228</v>
       </c>
       <c r="E3" t="s">
-        <v>211</v>
+        <v>229</v>
       </c>
       <c r="F3" t="s">
-        <v>212</v>
+        <v>230</v>
       </c>
       <c r="G3" t="s">
-        <v>213</v>
+        <v>231</v>
       </c>
       <c r="H3" t="s">
-        <v>214</v>
+        <v>232</v>
       </c>
       <c r="I3" t="s">
-        <v>215</v>
+        <v>233</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -4190,13 +4758,13 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="S13" sqref="S13"/>
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="20.5" customWidth="1"/>
     <col min="2" max="2" width="16" customWidth="1"/>
@@ -4210,7 +4778,7 @@
         <v>3</v>
       </c>
       <c r="C1" t="s">
-        <v>216</v>
+        <v>234</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -4225,14 +4793,14 @@
       </c>
     </row>
     <row r="3" ht="54" spans="1:3">
-      <c r="A3" s="5" t="s">
-        <v>217</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>218</v>
+      <c r="A3" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>236</v>
       </c>
       <c r="C3" t="s">
-        <v>219</v>
+        <v>237</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -4243,7 +4811,7 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>30</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -4254,7 +4822,7 @@
         <v>1</v>
       </c>
       <c r="C5">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -4265,7 +4833,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>30</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -4276,7 +4844,271 @@
         <v>1</v>
       </c>
       <c r="C7">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8">
+        <v>3</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9">
+        <v>3</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10">
+        <v>4</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11">
+        <v>4</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12">
+        <v>5</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13">
+        <v>5</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14">
+        <v>6</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15">
+        <v>6</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16">
+        <v>7</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17">
+        <v>7</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18">
+        <v>8</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19">
+        <v>8</v>
+      </c>
+      <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="C19">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20">
+        <v>9</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="C20">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21">
+        <v>9</v>
+      </c>
+      <c r="B21">
+        <v>1</v>
+      </c>
+      <c r="C21">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22">
         <v>10</v>
+      </c>
+      <c r="B22">
+        <v>0</v>
+      </c>
+      <c r="C22">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23">
+        <v>10</v>
+      </c>
+      <c r="B23">
+        <v>1</v>
+      </c>
+      <c r="C23">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24">
+        <v>11</v>
+      </c>
+      <c r="B24">
+        <v>0</v>
+      </c>
+      <c r="C24">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25">
+        <v>11</v>
+      </c>
+      <c r="B25">
+        <v>1</v>
+      </c>
+      <c r="C25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26">
+        <v>12</v>
+      </c>
+      <c r="B26">
+        <v>0</v>
+      </c>
+      <c r="C26">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27">
+        <v>12</v>
+      </c>
+      <c r="B27">
+        <v>1</v>
+      </c>
+      <c r="C27">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28">
+        <v>13</v>
+      </c>
+      <c r="B28">
+        <v>0</v>
+      </c>
+      <c r="C28">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29">
+        <v>13</v>
+      </c>
+      <c r="B29">
+        <v>1</v>
+      </c>
+      <c r="C29">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30">
+        <v>14</v>
+      </c>
+      <c r="B30">
+        <v>0</v>
+      </c>
+      <c r="C30">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31">
+        <v>14</v>
+      </c>
+      <c r="B31">
+        <v>1</v>
+      </c>
+      <c r="C31">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -4303,16 +5135,16 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>220</v>
+        <v>238</v>
       </c>
       <c r="B1" t="s">
-        <v>221</v>
+        <v>239</v>
       </c>
       <c r="C1" t="s">
-        <v>222</v>
+        <v>240</v>
       </c>
       <c r="D1" t="s">
-        <v>223</v>
+        <v>241</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -4331,16 +5163,16 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>224</v>
+        <v>242</v>
       </c>
       <c r="B3" t="s">
-        <v>225</v>
+        <v>243</v>
       </c>
       <c r="C3" t="s">
-        <v>226</v>
+        <v>244</v>
       </c>
       <c r="D3" t="s">
-        <v>227</v>
+        <v>245</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -4348,13 +5180,13 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>228</v>
+        <v>246</v>
       </c>
       <c r="C4" t="s">
-        <v>229</v>
+        <v>247</v>
       </c>
       <c r="D4" t="s">
-        <v>230</v>
+        <v>248</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -4362,13 +5194,13 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>231</v>
+        <v>249</v>
       </c>
       <c r="C5" t="s">
-        <v>232</v>
+        <v>250</v>
       </c>
       <c r="D5" t="s">
-        <v>233</v>
+        <v>251</v>
       </c>
     </row>
   </sheetData>
@@ -4393,10 +5225,10 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="27" spans="2:8">
       <c r="B1" s="1" t="s">
-        <v>234</v>
+        <v>252</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>235</v>
+        <v>253</v>
       </c>
       <c r="D1" s="3">
         <v>7</v>
@@ -4413,10 +5245,10 @@
     </row>
     <row r="2" s="1" customFormat="1" ht="27" spans="2:8">
       <c r="B2" s="1" t="s">
-        <v>236</v>
+        <v>254</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>235</v>
+        <v>253</v>
       </c>
       <c r="D2" s="3">
         <v>7</v>
@@ -4433,10 +5265,10 @@
     </row>
     <row r="3" s="1" customFormat="1" ht="27" spans="2:8">
       <c r="B3" s="1" t="s">
-        <v>237</v>
+        <v>255</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>235</v>
+        <v>253</v>
       </c>
       <c r="D3" s="3">
         <v>7</v>
@@ -4448,7 +5280,7 @@
         <v>1</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>238</v>
+        <v>256</v>
       </c>
     </row>
     <row r="4" spans="8:8">

--- a/Assets/Editor/ItemData.xlsx
+++ b/Assets/Editor/ItemData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17775" activeTab="3"/>
+    <workbookView windowHeight="17775" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="道具" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="482" uniqueCount="257">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="640" uniqueCount="264">
   <si>
     <t>id</t>
   </si>
@@ -606,7 +606,7 @@
     <t>EnemyFollowMove</t>
   </si>
   <si>
-    <t>1,2,3,4,5</t>
+    <t>1,2,3,4</t>
   </si>
   <si>
     <t>-1</t>
@@ -624,10 +624,7 @@
     <t>10</t>
   </si>
   <si>
-    <t>0.6</t>
-  </si>
-  <si>
-    <t>0.2</t>
+    <t>0.8</t>
   </si>
   <si>
     <t>18,22</t>
@@ -651,7 +648,7 @@
     <t>FALSE</t>
   </si>
   <si>
-    <t>6,7,8,9</t>
+    <t>5,6,7</t>
   </si>
   <si>
     <t>2</t>
@@ -663,7 +660,7 @@
     <t>3,3</t>
   </si>
   <si>
-    <t>10,11,12,13,14</t>
+    <t>8,9,10</t>
   </si>
   <si>
     <t>7,8</t>
@@ -675,37 +672,61 @@
     <t>EnemyFollowMove_1</t>
   </si>
   <si>
+    <t>2,3,4</t>
+  </si>
+  <si>
+    <t>3,4</t>
+  </si>
+  <si>
+    <t>25,25</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>5,6,7,8</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>9,10</t>
+  </si>
+  <si>
+    <t>EnemyFarMove</t>
+  </si>
+  <si>
     <t>3,4,5</t>
   </si>
   <si>
-    <t>3,4</t>
-  </si>
-  <si>
-    <t>25,25</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>6,7,8,9,10</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>11,12,13,14</t>
-  </si>
-  <si>
-    <t>EnemyFarMove</t>
+    <t>6</t>
   </si>
   <si>
     <t>20,20</t>
   </si>
   <si>
-    <t>0.1</t>
+    <t>2,3</t>
+  </si>
+  <si>
+    <t>1,1</t>
+  </si>
+  <si>
+    <t>6,7,8</t>
+  </si>
+  <si>
+    <t>5,6</t>
+  </si>
+  <si>
+    <t>RandomMoveEnemy</t>
+  </si>
+  <si>
+    <t>15,15</t>
+  </si>
+  <si>
+    <t>1,2</t>
   </si>
   <si>
     <t>count2</t>
@@ -3137,10 +3158,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J9"/>
+  <dimension ref="A1:J23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="A4" sqref="A4:J23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3259,13 +3280,13 @@
         <v>1</v>
       </c>
       <c r="C4" s="9">
-        <v>999</v>
+        <v>995</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4" s="10">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F4">
         <v>50</v>
@@ -3291,13 +3312,13 @@
         <v>2</v>
       </c>
       <c r="C5" s="9">
-        <v>1</v>
+        <v>300</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5" s="10">
-        <v>999</v>
+        <v>699</v>
       </c>
       <c r="F5">
         <v>50</v>
@@ -3332,19 +3353,19 @@
         <v>5</v>
       </c>
       <c r="F6">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G6">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H6" s="10">
         <v>20</v>
       </c>
       <c r="I6">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="J6">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -3355,28 +3376,28 @@
         <v>2</v>
       </c>
       <c r="C7" s="9">
-        <v>995</v>
+        <v>300</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7" s="10">
-        <v>5</v>
+        <v>699</v>
       </c>
       <c r="F7">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G7">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H7" s="10">
         <v>20</v>
       </c>
       <c r="I7">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="J7">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -3387,28 +3408,28 @@
         <v>1</v>
       </c>
       <c r="C8" s="9">
-        <v>990</v>
+        <v>995</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8" s="10">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F8">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="G8">
         <v>30</v>
       </c>
       <c r="H8" s="10">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="I8">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="J8">
-        <v>30</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -3419,28 +3440,476 @@
         <v>2</v>
       </c>
       <c r="C9" s="9">
-        <v>990</v>
+        <v>300</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9" s="10">
-        <v>10</v>
+        <v>699</v>
       </c>
       <c r="F9">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="G9">
         <v>30</v>
       </c>
       <c r="H9" s="10">
+        <v>20</v>
+      </c>
+      <c r="I9">
+        <v>90</v>
+      </c>
+      <c r="J9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10">
+        <v>4</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10" s="9">
+        <v>995</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10" s="10">
+        <v>5</v>
+      </c>
+      <c r="F10">
         <v>50</v>
       </c>
-      <c r="I9">
-        <v>70</v>
-      </c>
-      <c r="J9">
+      <c r="G10">
         <v>30</v>
+      </c>
+      <c r="H10" s="10">
+        <v>20</v>
+      </c>
+      <c r="I10">
+        <v>90</v>
+      </c>
+      <c r="J10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11">
+        <v>4</v>
+      </c>
+      <c r="B11">
+        <v>2</v>
+      </c>
+      <c r="C11" s="9">
+        <v>300</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11" s="10">
+        <v>699</v>
+      </c>
+      <c r="F11">
+        <v>50</v>
+      </c>
+      <c r="G11">
+        <v>30</v>
+      </c>
+      <c r="H11" s="10">
+        <v>20</v>
+      </c>
+      <c r="I11">
+        <v>90</v>
+      </c>
+      <c r="J11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12">
+        <v>5</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12" s="9">
+        <v>995</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12" s="10">
+        <v>5</v>
+      </c>
+      <c r="F12">
+        <v>50</v>
+      </c>
+      <c r="G12">
+        <v>30</v>
+      </c>
+      <c r="H12" s="10">
+        <v>20</v>
+      </c>
+      <c r="I12">
+        <v>90</v>
+      </c>
+      <c r="J12">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13">
+        <v>5</v>
+      </c>
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13" s="9">
+        <v>300</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13" s="10">
+        <v>699</v>
+      </c>
+      <c r="F13">
+        <v>50</v>
+      </c>
+      <c r="G13">
+        <v>30</v>
+      </c>
+      <c r="H13" s="10">
+        <v>20</v>
+      </c>
+      <c r="I13">
+        <v>90</v>
+      </c>
+      <c r="J13">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14">
+        <v>6</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14" s="9">
+        <v>995</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14" s="10">
+        <v>5</v>
+      </c>
+      <c r="F14">
+        <v>50</v>
+      </c>
+      <c r="G14">
+        <v>30</v>
+      </c>
+      <c r="H14" s="10">
+        <v>20</v>
+      </c>
+      <c r="I14">
+        <v>90</v>
+      </c>
+      <c r="J14">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15">
+        <v>6</v>
+      </c>
+      <c r="B15">
+        <v>2</v>
+      </c>
+      <c r="C15" s="9">
+        <v>300</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15" s="10">
+        <v>699</v>
+      </c>
+      <c r="F15">
+        <v>50</v>
+      </c>
+      <c r="G15">
+        <v>30</v>
+      </c>
+      <c r="H15" s="10">
+        <v>20</v>
+      </c>
+      <c r="I15">
+        <v>90</v>
+      </c>
+      <c r="J15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16">
+        <v>7</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16" s="9">
+        <v>995</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16" s="10">
+        <v>5</v>
+      </c>
+      <c r="F16">
+        <v>50</v>
+      </c>
+      <c r="G16">
+        <v>30</v>
+      </c>
+      <c r="H16" s="10">
+        <v>20</v>
+      </c>
+      <c r="I16">
+        <v>90</v>
+      </c>
+      <c r="J16">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17">
+        <v>7</v>
+      </c>
+      <c r="B17">
+        <v>2</v>
+      </c>
+      <c r="C17" s="9">
+        <v>300</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17" s="10">
+        <v>699</v>
+      </c>
+      <c r="F17">
+        <v>50</v>
+      </c>
+      <c r="G17">
+        <v>30</v>
+      </c>
+      <c r="H17" s="10">
+        <v>20</v>
+      </c>
+      <c r="I17">
+        <v>90</v>
+      </c>
+      <c r="J17">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18">
+        <v>8</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18" s="9">
+        <v>995</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18" s="10">
+        <v>5</v>
+      </c>
+      <c r="F18">
+        <v>50</v>
+      </c>
+      <c r="G18">
+        <v>30</v>
+      </c>
+      <c r="H18" s="10">
+        <v>20</v>
+      </c>
+      <c r="I18">
+        <v>90</v>
+      </c>
+      <c r="J18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19">
+        <v>8</v>
+      </c>
+      <c r="B19">
+        <v>2</v>
+      </c>
+      <c r="C19" s="9">
+        <v>300</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19" s="10">
+        <v>699</v>
+      </c>
+      <c r="F19">
+        <v>50</v>
+      </c>
+      <c r="G19">
+        <v>30</v>
+      </c>
+      <c r="H19" s="10">
+        <v>20</v>
+      </c>
+      <c r="I19">
+        <v>90</v>
+      </c>
+      <c r="J19">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20">
+        <v>9</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20" s="9">
+        <v>995</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20" s="10">
+        <v>5</v>
+      </c>
+      <c r="F20">
+        <v>50</v>
+      </c>
+      <c r="G20">
+        <v>30</v>
+      </c>
+      <c r="H20" s="10">
+        <v>20</v>
+      </c>
+      <c r="I20">
+        <v>90</v>
+      </c>
+      <c r="J20">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21">
+        <v>9</v>
+      </c>
+      <c r="B21">
+        <v>2</v>
+      </c>
+      <c r="C21" s="9">
+        <v>300</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21" s="10">
+        <v>699</v>
+      </c>
+      <c r="F21">
+        <v>50</v>
+      </c>
+      <c r="G21">
+        <v>30</v>
+      </c>
+      <c r="H21" s="10">
+        <v>20</v>
+      </c>
+      <c r="I21">
+        <v>90</v>
+      </c>
+      <c r="J21">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="A22">
+        <v>10</v>
+      </c>
+      <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="C22" s="9">
+        <v>995</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22" s="10">
+        <v>5</v>
+      </c>
+      <c r="F22">
+        <v>50</v>
+      </c>
+      <c r="G22">
+        <v>30</v>
+      </c>
+      <c r="H22" s="10">
+        <v>20</v>
+      </c>
+      <c r="I22">
+        <v>90</v>
+      </c>
+      <c r="J22">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="A23">
+        <v>10</v>
+      </c>
+      <c r="B23">
+        <v>2</v>
+      </c>
+      <c r="C23" s="9">
+        <v>300</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23" s="10">
+        <v>699</v>
+      </c>
+      <c r="F23">
+        <v>50</v>
+      </c>
+      <c r="G23">
+        <v>30</v>
+      </c>
+      <c r="H23" s="10">
+        <v>20</v>
+      </c>
+      <c r="I23">
+        <v>90</v>
+      </c>
+      <c r="J23">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -3780,10 +4249,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:O16"/>
+  <dimension ref="A1:O27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:O27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3967,28 +4436,28 @@
         <v>188</v>
       </c>
       <c r="H4" s="18" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="I4" s="18" t="s">
         <v>186</v>
       </c>
       <c r="J4" s="18" t="s">
+        <v>189</v>
+      </c>
+      <c r="K4" s="5" t="s">
         <v>190</v>
       </c>
-      <c r="K4" s="5" t="s">
+      <c r="L4" s="18" t="s">
         <v>191</v>
       </c>
-      <c r="L4" s="18" t="s">
+      <c r="M4" s="18" t="s">
         <v>192</v>
       </c>
-      <c r="M4" s="18" t="s">
+      <c r="N4" s="5" t="s">
         <v>193</v>
       </c>
-      <c r="N4" s="5" t="s">
-        <v>194</v>
-      </c>
       <c r="O4" s="18" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="5" ht="14.25" spans="1:15">
@@ -4005,37 +4474,37 @@
         <v>188</v>
       </c>
       <c r="E5" s="18" t="s">
+        <v>194</v>
+      </c>
+      <c r="F5" s="5" t="s">
         <v>195</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>196</v>
       </c>
       <c r="G5" s="18" t="s">
         <v>188</v>
       </c>
       <c r="H5" s="18" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="I5" s="18" t="s">
         <v>186</v>
       </c>
       <c r="J5" s="18" t="s">
+        <v>189</v>
+      </c>
+      <c r="K5" s="5" t="s">
         <v>190</v>
       </c>
-      <c r="K5" s="5" t="s">
+      <c r="L5" s="18" t="s">
         <v>191</v>
       </c>
-      <c r="L5" s="18" t="s">
-        <v>192</v>
-      </c>
       <c r="M5" s="18" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="N5" s="5" t="s">
         <v>184</v>
       </c>
       <c r="O5" s="18" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="6" ht="14.25" spans="1:15">
@@ -4043,7 +4512,7 @@
         <v>182</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>184</v>
@@ -4052,37 +4521,37 @@
         <v>185</v>
       </c>
       <c r="E6" s="18" t="s">
+        <v>198</v>
+      </c>
+      <c r="F6" s="5" t="s">
         <v>199</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>200</v>
       </c>
       <c r="G6" s="18" t="s">
         <v>188</v>
       </c>
       <c r="H6" s="18" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="I6" s="18" t="s">
         <v>186</v>
       </c>
       <c r="J6" s="18" t="s">
+        <v>189</v>
+      </c>
+      <c r="K6" s="5" t="s">
         <v>190</v>
       </c>
-      <c r="K6" s="5" t="s">
+      <c r="L6" s="18" t="s">
         <v>191</v>
       </c>
-      <c r="L6" s="18" t="s">
+      <c r="M6" s="18" t="s">
         <v>192</v>
       </c>
-      <c r="M6" s="18" t="s">
+      <c r="N6" s="5" t="s">
         <v>193</v>
       </c>
-      <c r="N6" s="5" t="s">
-        <v>194</v>
-      </c>
       <c r="O6" s="18" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="7" ht="14.25" spans="1:15">
@@ -4090,7 +4559,7 @@
         <v>182</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>184</v>
@@ -4099,37 +4568,37 @@
         <v>188</v>
       </c>
       <c r="E7" s="18" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G7" s="18" t="s">
         <v>188</v>
       </c>
       <c r="H7" s="18" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="I7" s="18" t="s">
         <v>186</v>
       </c>
       <c r="J7" s="18" t="s">
+        <v>189</v>
+      </c>
+      <c r="K7" s="5" t="s">
         <v>190</v>
       </c>
-      <c r="K7" s="5" t="s">
+      <c r="L7" s="18" t="s">
         <v>191</v>
       </c>
-      <c r="L7" s="18" t="s">
-        <v>192</v>
-      </c>
       <c r="M7" s="18" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="N7" s="5" t="s">
         <v>184</v>
       </c>
       <c r="O7" s="18" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="8" ht="14.25" spans="1:15">
@@ -4137,7 +4606,7 @@
         <v>182</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C8" s="6" t="s">
         <v>184</v>
@@ -4149,34 +4618,34 @@
         <v>185</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="G8" s="18" t="s">
         <v>188</v>
       </c>
       <c r="H8" s="18" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="I8" s="18" t="s">
         <v>186</v>
       </c>
       <c r="J8" s="18" t="s">
+        <v>189</v>
+      </c>
+      <c r="K8" s="5" t="s">
         <v>190</v>
       </c>
-      <c r="K8" s="5" t="s">
+      <c r="L8" s="18" t="s">
         <v>191</v>
       </c>
-      <c r="L8" s="18" t="s">
+      <c r="M8" s="18" t="s">
         <v>192</v>
       </c>
-      <c r="M8" s="18" t="s">
+      <c r="N8" s="5" t="s">
         <v>193</v>
       </c>
-      <c r="N8" s="5" t="s">
-        <v>194</v>
-      </c>
       <c r="O8" s="18" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="9" ht="14.25" spans="1:15">
@@ -4184,7 +4653,7 @@
         <v>182</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C9" s="6" t="s">
         <v>184</v>
@@ -4193,139 +4662,139 @@
         <v>188</v>
       </c>
       <c r="E9" s="18" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G9" s="18" t="s">
         <v>188</v>
       </c>
       <c r="H9" s="18" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="I9" s="18" t="s">
         <v>186</v>
       </c>
       <c r="J9" s="18" t="s">
+        <v>189</v>
+      </c>
+      <c r="K9" s="5" t="s">
         <v>190</v>
       </c>
-      <c r="K9" s="5" t="s">
+      <c r="L9" s="18" t="s">
         <v>191</v>
       </c>
-      <c r="L9" s="18" t="s">
-        <v>192</v>
-      </c>
       <c r="M9" s="18" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="N9" s="5" t="s">
         <v>184</v>
       </c>
       <c r="O9" s="18" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="10" ht="14.25" spans="1:15">
       <c r="A10" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="B10" s="6" t="s">
         <v>205</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>206</v>
       </c>
       <c r="C10" s="6" t="s">
         <v>184</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F10" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="H10" s="18" t="s">
+        <v>185</v>
+      </c>
+      <c r="I10" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="J10" s="18" t="s">
+        <v>189</v>
+      </c>
+      <c r="K10" s="5" t="s">
         <v>207</v>
       </c>
-      <c r="G10" s="5" t="s">
-        <v>195</v>
-      </c>
-      <c r="H10" s="18" t="s">
-        <v>189</v>
-      </c>
-      <c r="I10" s="5" t="s">
-        <v>195</v>
-      </c>
-      <c r="J10" s="18" t="s">
-        <v>190</v>
-      </c>
-      <c r="K10" s="5" t="s">
-        <v>208</v>
-      </c>
       <c r="L10" s="18" t="s">
+        <v>191</v>
+      </c>
+      <c r="M10" s="18" t="s">
         <v>192</v>
       </c>
-      <c r="M10" s="18" t="s">
-        <v>193</v>
-      </c>
       <c r="N10" s="5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="O10" s="18" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="11" ht="14.25" spans="1:15">
       <c r="A11" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="B11" s="6" t="s">
         <v>205</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>206</v>
       </c>
       <c r="C11" s="6" t="s">
         <v>184</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E11" s="5" t="s">
         <v>188</v>
       </c>
       <c r="F11" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="H11" s="18" t="s">
+        <v>185</v>
+      </c>
+      <c r="I11" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="J11" s="18" t="s">
+        <v>189</v>
+      </c>
+      <c r="K11" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="L11" s="18" t="s">
+        <v>191</v>
+      </c>
+      <c r="M11" s="18" t="s">
         <v>196</v>
-      </c>
-      <c r="G11" s="5" t="s">
-        <v>195</v>
-      </c>
-      <c r="H11" s="18" t="s">
-        <v>189</v>
-      </c>
-      <c r="I11" s="5" t="s">
-        <v>195</v>
-      </c>
-      <c r="J11" s="18" t="s">
-        <v>190</v>
-      </c>
-      <c r="K11" s="5" t="s">
-        <v>208</v>
-      </c>
-      <c r="L11" s="18" t="s">
-        <v>192</v>
-      </c>
-      <c r="M11" s="18" t="s">
-        <v>197</v>
       </c>
       <c r="N11" s="5" t="s">
         <v>184</v>
       </c>
       <c r="O11" s="18" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="12" ht="14.25" spans="1:15">
       <c r="A12" s="5" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C12" s="6" t="s">
         <v>184</v>
@@ -4334,92 +4803,92 @@
         <v>186</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F12" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="G12" s="5" t="s">
         <v>194</v>
       </c>
-      <c r="G12" s="5" t="s">
-        <v>195</v>
-      </c>
       <c r="H12" s="18" t="s">
+        <v>185</v>
+      </c>
+      <c r="I12" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="J12" s="18" t="s">
         <v>189</v>
       </c>
-      <c r="I12" s="5" t="s">
-        <v>195</v>
-      </c>
-      <c r="J12" s="18" t="s">
-        <v>190</v>
-      </c>
       <c r="K12" s="5" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="L12" s="18" t="s">
+        <v>191</v>
+      </c>
+      <c r="M12" s="18" t="s">
         <v>192</v>
       </c>
-      <c r="M12" s="18" t="s">
-        <v>193</v>
-      </c>
       <c r="N12" s="5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="O12" s="18" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="13" ht="14.25" spans="1:15">
       <c r="A13" s="5" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C13" s="6" t="s">
         <v>184</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E13" s="5" t="s">
         <v>188</v>
       </c>
       <c r="F13" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="H13" s="18" t="s">
+        <v>185</v>
+      </c>
+      <c r="I13" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="J13" s="18" t="s">
+        <v>189</v>
+      </c>
+      <c r="K13" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="L13" s="18" t="s">
+        <v>191</v>
+      </c>
+      <c r="M13" s="18" t="s">
         <v>196</v>
-      </c>
-      <c r="G13" s="5" t="s">
-        <v>195</v>
-      </c>
-      <c r="H13" s="18" t="s">
-        <v>189</v>
-      </c>
-      <c r="I13" s="5" t="s">
-        <v>195</v>
-      </c>
-      <c r="J13" s="18" t="s">
-        <v>190</v>
-      </c>
-      <c r="K13" s="5" t="s">
-        <v>208</v>
-      </c>
-      <c r="L13" s="18" t="s">
-        <v>192</v>
-      </c>
-      <c r="M13" s="18" t="s">
-        <v>197</v>
       </c>
       <c r="N13" s="5" t="s">
         <v>184</v>
       </c>
       <c r="O13" s="18" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="14" ht="14.25" spans="1:15">
       <c r="A14" s="5" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C14" s="6" t="s">
         <v>184</v>
@@ -4428,131 +4897,648 @@
         <v>186</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F14" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="G14" s="5" t="s">
         <v>194</v>
       </c>
-      <c r="G14" s="5" t="s">
-        <v>195</v>
-      </c>
       <c r="H14" s="18" t="s">
+        <v>185</v>
+      </c>
+      <c r="I14" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="J14" s="18" t="s">
         <v>189</v>
       </c>
-      <c r="I14" s="5" t="s">
-        <v>195</v>
-      </c>
-      <c r="J14" s="18" t="s">
-        <v>190</v>
-      </c>
       <c r="K14" s="5" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="L14" s="18" t="s">
+        <v>191</v>
+      </c>
+      <c r="M14" s="18" t="s">
         <v>192</v>
       </c>
-      <c r="M14" s="18" t="s">
-        <v>193</v>
-      </c>
       <c r="N14" s="5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="O14" s="18" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="15" ht="14.25" spans="1:15">
       <c r="A15" s="5" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C15" s="6" t="s">
         <v>184</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E15" s="5" t="s">
         <v>188</v>
       </c>
       <c r="F15" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="H15" s="18" t="s">
+        <v>185</v>
+      </c>
+      <c r="I15" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="J15" s="18" t="s">
+        <v>189</v>
+      </c>
+      <c r="K15" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="L15" s="18" t="s">
+        <v>191</v>
+      </c>
+      <c r="M15" s="18" t="s">
         <v>196</v>
-      </c>
-      <c r="G15" s="5" t="s">
-        <v>195</v>
-      </c>
-      <c r="H15" s="18" t="s">
-        <v>189</v>
-      </c>
-      <c r="I15" s="5" t="s">
-        <v>195</v>
-      </c>
-      <c r="J15" s="18" t="s">
-        <v>190</v>
-      </c>
-      <c r="K15" s="5" t="s">
-        <v>208</v>
-      </c>
-      <c r="L15" s="18" t="s">
-        <v>192</v>
-      </c>
-      <c r="M15" s="18" t="s">
-        <v>197</v>
       </c>
       <c r="N15" s="5" t="s">
         <v>184</v>
       </c>
       <c r="O15" s="18" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="16" ht="14.25" spans="1:15">
       <c r="A16" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="B16" s="6" t="s">
         <v>214</v>
       </c>
-      <c r="B16" s="6" t="s">
+      <c r="C16" s="7" t="s">
         <v>184</v>
       </c>
-      <c r="C16" s="7" t="s">
-        <v>185</v>
-      </c>
       <c r="D16" s="5" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>192</v>
+        <v>215</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>215</v>
+        <v>206</v>
       </c>
       <c r="G16" s="18" t="s">
         <v>188</v>
       </c>
       <c r="H16" s="18" t="s">
+        <v>185</v>
+      </c>
+      <c r="I16" s="18" t="s">
+        <v>215</v>
+      </c>
+      <c r="J16" s="18" t="s">
         <v>189</v>
       </c>
-      <c r="I16" s="18" t="s">
+      <c r="K16" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="L16" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="M16" s="18" t="s">
+        <v>192</v>
+      </c>
+      <c r="N16" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="O16" s="18" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="17" ht="14.25" spans="1:15">
+      <c r="A17" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="G17" s="18" t="s">
+        <v>188</v>
+      </c>
+      <c r="H17" s="18" t="s">
+        <v>185</v>
+      </c>
+      <c r="I17" s="18" t="s">
+        <v>215</v>
+      </c>
+      <c r="J17" s="18" t="s">
+        <v>189</v>
+      </c>
+      <c r="K17" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="L17" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="M17" s="18" t="s">
+        <v>196</v>
+      </c>
+      <c r="N17" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="O17" s="18" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="18" ht="14.25" spans="1:15">
+      <c r="A18" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="G18" s="18" t="s">
+        <v>188</v>
+      </c>
+      <c r="H18" s="18" t="s">
+        <v>185</v>
+      </c>
+      <c r="I18" s="18" t="s">
+        <v>215</v>
+      </c>
+      <c r="J18" s="18" t="s">
+        <v>189</v>
+      </c>
+      <c r="K18" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="L18" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="M18" s="18" t="s">
+        <v>192</v>
+      </c>
+      <c r="N18" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="O18" s="18" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="19" ht="14.25" spans="1:15">
+      <c r="A19" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="G19" s="18" t="s">
+        <v>188</v>
+      </c>
+      <c r="H19" s="18" t="s">
+        <v>185</v>
+      </c>
+      <c r="I19" s="18" t="s">
+        <v>215</v>
+      </c>
+      <c r="J19" s="18" t="s">
+        <v>189</v>
+      </c>
+      <c r="K19" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="L19" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="M19" s="18" t="s">
+        <v>196</v>
+      </c>
+      <c r="N19" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="O19" s="18" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="20" ht="14.25" spans="1:15">
+      <c r="A20" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="G20" s="18" t="s">
+        <v>188</v>
+      </c>
+      <c r="H20" s="18" t="s">
+        <v>185</v>
+      </c>
+      <c r="I20" s="18" t="s">
+        <v>215</v>
+      </c>
+      <c r="J20" s="18" t="s">
+        <v>189</v>
+      </c>
+      <c r="K20" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="L20" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="M20" s="18" t="s">
+        <v>192</v>
+      </c>
+      <c r="N20" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="O20" s="18" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="21" ht="14.25" spans="1:15">
+      <c r="A21" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="E21" s="5" t="s">
         <v>186</v>
       </c>
-      <c r="J16" s="18" t="s">
-        <v>190</v>
-      </c>
-      <c r="K16" s="5" t="s">
+      <c r="F21" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="G21" s="18" t="s">
+        <v>188</v>
+      </c>
+      <c r="H21" s="18" t="s">
+        <v>185</v>
+      </c>
+      <c r="I21" s="18" t="s">
+        <v>215</v>
+      </c>
+      <c r="J21" s="18" t="s">
+        <v>189</v>
+      </c>
+      <c r="K21" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="L21" s="5" t="s">
         <v>191</v>
       </c>
-      <c r="L16" s="18" t="s">
-        <v>216</v>
-      </c>
-      <c r="M16" s="18" t="s">
-        <v>197</v>
-      </c>
-      <c r="N16" s="5" t="s">
+      <c r="M21" s="18" t="s">
+        <v>196</v>
+      </c>
+      <c r="N21" s="5" t="s">
         <v>184</v>
       </c>
-      <c r="O16" s="18" t="s">
+      <c r="O21" s="18" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="22" ht="14.25" spans="1:15">
+      <c r="A22" t="s">
+        <v>221</v>
+      </c>
+      <c r="B22" s="4" t="s">
         <v>193</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="D22" s="5">
+        <v>10</v>
+      </c>
+      <c r="E22" s="5">
+        <v>7</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="G22" s="18" t="s">
+        <v>208</v>
+      </c>
+      <c r="H22" s="18" t="s">
+        <v>185</v>
+      </c>
+      <c r="I22" s="18" t="s">
+        <v>188</v>
+      </c>
+      <c r="J22" s="18" t="s">
+        <v>189</v>
+      </c>
+      <c r="K22" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="L22" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="M22" s="18" t="s">
+        <v>196</v>
+      </c>
+      <c r="N22" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="O22" s="18" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="23" ht="14.25" spans="1:15">
+      <c r="A23" t="s">
+        <v>221</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="D23" s="5">
+        <v>10</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="G23" s="18" t="s">
+        <v>208</v>
+      </c>
+      <c r="H23" s="18" t="s">
+        <v>185</v>
+      </c>
+      <c r="I23" s="18" t="s">
+        <v>188</v>
+      </c>
+      <c r="J23" s="18" t="s">
+        <v>189</v>
+      </c>
+      <c r="K23" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="L23" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="M23" s="18" t="s">
+        <v>196</v>
+      </c>
+      <c r="N23" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="O23" s="18" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="24" ht="14.25" spans="1:15">
+      <c r="A24" t="s">
+        <v>221</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="D24" s="5">
+        <v>10</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="G24" s="18" t="s">
+        <v>208</v>
+      </c>
+      <c r="H24" s="18" t="s">
+        <v>185</v>
+      </c>
+      <c r="I24" s="18" t="s">
+        <v>188</v>
+      </c>
+      <c r="J24" s="18" t="s">
+        <v>189</v>
+      </c>
+      <c r="K24" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="L24" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="M24" s="18" t="s">
+        <v>196</v>
+      </c>
+      <c r="N24" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="O24" s="18" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="25" ht="14.25" spans="1:15">
+      <c r="A25" t="s">
+        <v>221</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="D25" s="5">
+        <v>10</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="G25" s="18" t="s">
+        <v>208</v>
+      </c>
+      <c r="H25" s="18" t="s">
+        <v>185</v>
+      </c>
+      <c r="I25" s="18" t="s">
+        <v>188</v>
+      </c>
+      <c r="J25" s="18" t="s">
+        <v>189</v>
+      </c>
+      <c r="K25" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="L25" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="M25" s="18" t="s">
+        <v>196</v>
+      </c>
+      <c r="N25" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="O25" s="18" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="26" ht="14.25" spans="1:15">
+      <c r="A26" t="s">
+        <v>221</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="D26" s="5">
+        <v>10</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="F26" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="G26" s="18" t="s">
+        <v>208</v>
+      </c>
+      <c r="H26" s="18" t="s">
+        <v>185</v>
+      </c>
+      <c r="I26" s="18" t="s">
+        <v>188</v>
+      </c>
+      <c r="J26" s="18" t="s">
+        <v>189</v>
+      </c>
+      <c r="K26" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="L26" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="M26" s="18" t="s">
+        <v>196</v>
+      </c>
+      <c r="N26" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="O26" s="18" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="27" ht="14.25" spans="1:15">
+      <c r="A27" t="s">
+        <v>221</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="D27" s="5">
+        <v>10</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="F27" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="G27" s="18" t="s">
+        <v>208</v>
+      </c>
+      <c r="H27" s="18" t="s">
+        <v>185</v>
+      </c>
+      <c r="I27" s="18" t="s">
+        <v>188</v>
+      </c>
+      <c r="J27" s="18" t="s">
+        <v>189</v>
+      </c>
+      <c r="K27" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="L27" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="M27" s="18" t="s">
+        <v>196</v>
+      </c>
+      <c r="N27" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="O27" s="18" t="s">
+        <v>196</v>
       </c>
     </row>
   </sheetData>
@@ -4580,28 +5566,28 @@
         <v>125</v>
       </c>
       <c r="B1" t="s">
-        <v>217</v>
+        <v>224</v>
       </c>
       <c r="C1" t="s">
-        <v>218</v>
+        <v>225</v>
       </c>
       <c r="D1" t="s">
-        <v>219</v>
+        <v>226</v>
       </c>
       <c r="E1" t="s">
-        <v>220</v>
+        <v>227</v>
       </c>
       <c r="F1" t="s">
-        <v>221</v>
+        <v>228</v>
       </c>
       <c r="G1" t="s">
-        <v>222</v>
+        <v>229</v>
       </c>
       <c r="H1" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="I1" t="s">
-        <v>224</v>
+        <v>231</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -4635,31 +5621,31 @@
     </row>
     <row r="3" spans="1:9">
       <c r="A3" t="s">
-        <v>225</v>
+        <v>232</v>
       </c>
       <c r="B3" t="s">
-        <v>226</v>
+        <v>233</v>
       </c>
       <c r="C3" t="s">
-        <v>227</v>
+        <v>234</v>
       </c>
       <c r="D3" t="s">
-        <v>228</v>
+        <v>235</v>
       </c>
       <c r="E3" t="s">
-        <v>229</v>
+        <v>236</v>
       </c>
       <c r="F3" t="s">
-        <v>230</v>
+        <v>237</v>
       </c>
       <c r="G3" t="s">
-        <v>231</v>
+        <v>238</v>
       </c>
       <c r="H3" t="s">
-        <v>232</v>
+        <v>239</v>
       </c>
       <c r="I3" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -4758,10 +5744,10 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C31"/>
+  <dimension ref="A1:C23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -4778,7 +5764,7 @@
         <v>3</v>
       </c>
       <c r="C1" t="s">
-        <v>234</v>
+        <v>241</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -4794,13 +5780,13 @@
     </row>
     <row r="3" ht="54" spans="1:3">
       <c r="A3" s="4" t="s">
-        <v>235</v>
+        <v>242</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="C3" t="s">
-        <v>237</v>
+        <v>244</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -4822,7 +5808,7 @@
         <v>1</v>
       </c>
       <c r="C5">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -4844,7 +5830,7 @@
         <v>1</v>
       </c>
       <c r="C7">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -4866,7 +5852,7 @@
         <v>1</v>
       </c>
       <c r="C9">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -4888,7 +5874,7 @@
         <v>1</v>
       </c>
       <c r="C11">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -4899,7 +5885,7 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>60</v>
+        <v>50</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -4910,7 +5896,7 @@
         <v>1</v>
       </c>
       <c r="C13">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -4921,7 +5907,7 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>60</v>
+        <v>50</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -4932,7 +5918,7 @@
         <v>1</v>
       </c>
       <c r="C15">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -4943,7 +5929,7 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>60</v>
+        <v>50</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -4954,7 +5940,7 @@
         <v>1</v>
       </c>
       <c r="C17">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -4965,7 +5951,7 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>60</v>
+        <v>50</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -4976,7 +5962,7 @@
         <v>1</v>
       </c>
       <c r="C19">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -4987,7 +5973,7 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>60</v>
+        <v>50</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -4998,7 +5984,7 @@
         <v>1</v>
       </c>
       <c r="C21">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -5009,7 +5995,7 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>70</v>
+        <v>50</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -5020,95 +6006,7 @@
         <v>1</v>
       </c>
       <c r="C23">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24">
-        <v>11</v>
-      </c>
-      <c r="B24">
-        <v>0</v>
-      </c>
-      <c r="C24">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25">
-        <v>11</v>
-      </c>
-      <c r="B25">
-        <v>1</v>
-      </c>
-      <c r="C25">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="A26">
-        <v>12</v>
-      </c>
-      <c r="B26">
-        <v>0</v>
-      </c>
-      <c r="C26">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="A27">
-        <v>12</v>
-      </c>
-      <c r="B27">
-        <v>1</v>
-      </c>
-      <c r="C27">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="A28">
-        <v>13</v>
-      </c>
-      <c r="B28">
-        <v>0</v>
-      </c>
-      <c r="C28">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
-      <c r="A29">
-        <v>13</v>
-      </c>
-      <c r="B29">
-        <v>1</v>
-      </c>
-      <c r="C29">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
-      <c r="A30">
-        <v>14</v>
-      </c>
-      <c r="B30">
-        <v>0</v>
-      </c>
-      <c r="C30">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
-      <c r="A31">
-        <v>14</v>
-      </c>
-      <c r="B31">
-        <v>1</v>
-      </c>
-      <c r="C31">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -5135,16 +6033,16 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>238</v>
+        <v>245</v>
       </c>
       <c r="B1" t="s">
-        <v>239</v>
+        <v>246</v>
       </c>
       <c r="C1" t="s">
-        <v>240</v>
+        <v>247</v>
       </c>
       <c r="D1" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -5163,16 +6061,16 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>242</v>
+        <v>249</v>
       </c>
       <c r="B3" t="s">
-        <v>243</v>
+        <v>250</v>
       </c>
       <c r="C3" t="s">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="D3" t="s">
-        <v>245</v>
+        <v>252</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -5180,13 +6078,13 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>246</v>
+        <v>253</v>
       </c>
       <c r="C4" t="s">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="D4" t="s">
-        <v>248</v>
+        <v>255</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -5194,13 +6092,13 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>249</v>
+        <v>256</v>
       </c>
       <c r="C5" t="s">
-        <v>250</v>
+        <v>257</v>
       </c>
       <c r="D5" t="s">
-        <v>251</v>
+        <v>258</v>
       </c>
     </row>
   </sheetData>
@@ -5225,10 +6123,10 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="27" spans="2:8">
       <c r="B1" s="1" t="s">
-        <v>252</v>
+        <v>259</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>253</v>
+        <v>260</v>
       </c>
       <c r="D1" s="3">
         <v>7</v>
@@ -5245,10 +6143,10 @@
     </row>
     <row r="2" s="1" customFormat="1" ht="27" spans="2:8">
       <c r="B2" s="1" t="s">
-        <v>254</v>
+        <v>261</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>253</v>
+        <v>260</v>
       </c>
       <c r="D2" s="3">
         <v>7</v>
@@ -5265,10 +6163,10 @@
     </row>
     <row r="3" s="1" customFormat="1" ht="27" spans="2:8">
       <c r="B3" s="1" t="s">
-        <v>255</v>
+        <v>262</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>253</v>
+        <v>260</v>
       </c>
       <c r="D3" s="3">
         <v>7</v>
@@ -5280,7 +6178,7 @@
         <v>1</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>256</v>
+        <v>263</v>
       </c>
     </row>
     <row r="4" spans="8:8">

--- a/Assets/Editor/ItemData.xlsx
+++ b/Assets/Editor/ItemData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17775" activeTab="5"/>
+    <workbookView windowHeight="17775" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="道具" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="640" uniqueCount="264">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="670" uniqueCount="283">
   <si>
     <t>id</t>
   </si>
@@ -45,15 +45,15 @@
     <t>desc</t>
   </si>
   <si>
+    <t>specialType</t>
+  </si>
+  <si>
     <t>type</t>
   </si>
   <si>
     <t>buff</t>
   </si>
   <si>
-    <t>specialType</t>
-  </si>
-  <si>
     <t>story</t>
   </si>
   <si>
@@ -66,6 +66,9 @@
     <t>string</t>
   </si>
   <si>
+    <t>int[]</t>
+  </si>
+  <si>
     <t>道具id</t>
   </si>
   <si>
@@ -73,19 +76,6 @@
   </si>
   <si>
     <t>道具描述</t>
-  </si>
-  <si>
-    <t>道具类型
-HP,1
-Speed,2
-Protect,3
-Energy,4
-HPSpeed,5
-ProtectSpeed,6
-EnergySpeed,7</t>
-  </si>
-  <si>
-    <t>道具数值</t>
   </si>
   <si>
     <t>道具类别
@@ -94,7 +84,66 @@
 2:法宝</t>
   </si>
   <si>
+    <t>加成属性
+HP,1
+Speed,2
+Protect,3
+HPSpeed,5
+ProtectSpeed,6
+雷电数量，7
+雷电频率，8
+雷电伤害，9</t>
+  </si>
+  <si>
+    <t>道具数值</t>
+  </si>
+  <si>
     <t>道具剧情</t>
+  </si>
+  <si>
+    <t>道具概率分类</t>
+  </si>
+  <si>
+    <t>1雕花酒葫芦</t>
+  </si>
+  <si>
+    <t>雷劫道数+1，生命值-5</t>
+  </si>
+  <si>
+    <t>7,1</t>
+  </si>
+  <si>
+    <t>1,-5</t>
+  </si>
+  <si>
+    <t>2雕花酒葫芦</t>
+  </si>
+  <si>
+    <t>雷劫频率-0.05，移动速度+3</t>
+  </si>
+  <si>
+    <t>8,2</t>
+  </si>
+  <si>
+    <t>0.05,3</t>
+  </si>
+  <si>
+    <t>3雕花酒葫芦</t>
+  </si>
+  <si>
+    <t>雷劫伤害+1，雷劫频率-0.1</t>
+  </si>
+  <si>
+    <t>9,8</t>
+  </si>
+  <si>
+    <t>1,0.1</t>
+  </si>
+  <si>
+    <t>雷劫道数+1，生命值+5</t>
+  </si>
+  <si>
+    <t>1,5</t>
   </si>
   <si>
     <t>翠微业力·小</t>
@@ -455,6 +504,12 @@
     <t>largeRank</t>
   </si>
   <si>
+    <t>littleBabyRank</t>
+  </si>
+  <si>
+    <t>bigBabyRank</t>
+  </si>
+  <si>
     <t>littleRank</t>
   </si>
   <si>
@@ -489,6 +544,12 @@
     <t>大碎片占比</t>
   </si>
   <si>
+    <t>小法宝占比</t>
+  </si>
+  <si>
+    <t>大法宝占比</t>
+  </si>
+  <si>
     <t>小神通占比</t>
   </si>
   <si>
@@ -550,9 +611,6 @@
   </si>
   <si>
     <t>isCircleSide</t>
-  </si>
-  <si>
-    <t>int[]</t>
   </si>
   <si>
     <t>bool</t>
@@ -1021,7 +1079,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="36">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1037,6 +1095,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1383,7 +1447,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1407,16 +1471,16 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -1425,89 +1489,89 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1541,6 +1605,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -1557,6 +1624,15 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -1911,18 +1987,18 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H49"/>
+  <dimension ref="A1:H55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K45" sqref="K45"/>
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
     <col min="2" max="2" width="23.375" customWidth="1"/>
     <col min="3" max="3" width="38.375" style="4" customWidth="1"/>
-    <col min="4" max="4" width="15.875" customWidth="1"/>
-    <col min="6" max="6" width="13.125" customWidth="1"/>
+    <col min="4" max="4" width="13.125" customWidth="1"/>
+    <col min="5" max="5" width="15.875" customWidth="1"/>
     <col min="7" max="7" width="75.25" customWidth="1"/>
     <col min="8" max="8" width="15.625" customWidth="1"/>
   </cols>
@@ -1967,10 +2043,10 @@
         <v>8</v>
       </c>
       <c r="E2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>9</v>
@@ -1979,287 +2055,274 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" ht="108" spans="1:8">
+    <row r="3" ht="121.5" spans="1:8">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="E3" s="4" t="s">
         <v>15</v>
       </c>
+      <c r="F3" t="s">
+        <v>16</v>
+      </c>
       <c r="G3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" ht="27" spans="1:8">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4">
-        <v>1</v>
+        <v>101</v>
       </c>
       <c r="B4" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4" s="8">
-        <v>1</v>
-      </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="G4" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="4">
+        <v>2</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" ht="14.25" spans="1:8">
+      <c r="A5">
+        <v>102</v>
+      </c>
+      <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" s="4">
+        <v>2</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" t="s">
+        <v>26</v>
+      </c>
+      <c r="G5"/>
+      <c r="H5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" ht="14.25" spans="1:8">
+      <c r="A6">
+        <v>103</v>
+      </c>
+      <c r="B6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" s="4">
+        <v>2</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F6" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6"/>
+      <c r="H6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7">
+        <v>104</v>
+      </c>
+      <c r="B7" t="s">
         <v>19</v>
       </c>
-      <c r="H4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" ht="40.5" spans="1:8">
-      <c r="A5">
+      <c r="C7" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7" s="4">
         <v>2</v>
       </c>
-      <c r="B5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" s="8">
-        <v>1</v>
-      </c>
-      <c r="E5">
+      <c r="E7" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G7"/>
+      <c r="H7">
         <v>2</v>
       </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="H5">
+    </row>
+    <row r="8" ht="14.25" spans="1:8">
+      <c r="A8">
+        <v>105</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" s="4">
         <v>2</v>
       </c>
-    </row>
-    <row r="6" ht="27" spans="1:8">
-      <c r="A6">
-        <v>3</v>
-      </c>
-      <c r="B6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" s="8">
-        <v>1</v>
-      </c>
-      <c r="E6">
-        <v>3</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="H6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" ht="27" spans="1:8">
-      <c r="A7">
-        <v>4</v>
-      </c>
-      <c r="B7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C7" s="4" t="s">
+      <c r="E8" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D7" s="8">
-        <v>2</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7" s="4" t="s">
+      <c r="F8" t="s">
         <v>26</v>
       </c>
-      <c r="H7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8">
-        <v>5</v>
-      </c>
-      <c r="B8" t="s">
-        <v>27</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D8" s="8">
-        <v>2</v>
-      </c>
-      <c r="E8">
-        <v>2</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>28</v>
-      </c>
+      <c r="G8"/>
       <c r="H8">
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" ht="14.25" spans="1:8">
       <c r="A9">
-        <v>6</v>
+        <v>106</v>
       </c>
       <c r="B9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" s="4">
+        <v>2</v>
+      </c>
+      <c r="E9" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C9" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D9" s="8">
+      <c r="F9" t="s">
+        <v>30</v>
+      </c>
+      <c r="G9"/>
+      <c r="H9">
         <v>2</v>
-      </c>
-      <c r="E9">
-        <v>3</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="H9">
-        <v>3</v>
       </c>
     </row>
     <row r="10" ht="27" spans="1:8">
       <c r="A10">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="B10" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="D10" s="8">
-        <v>3</v>
-      </c>
-      <c r="E10">
+        <v>34</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10" s="8">
         <v>1</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H10">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" ht="40.5" spans="1:8">
       <c r="A11">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="B11" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="C11" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="D11" s="8">
-        <v>3</v>
-      </c>
-      <c r="E11">
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11" s="8">
+        <v>1</v>
+      </c>
+      <c r="F11">
         <v>2</v>
       </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
       <c r="G11" s="4" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H11">
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" ht="27" spans="1:8">
       <c r="A12">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="B12" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="D12" s="8">
+        <v>34</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12" s="8">
+        <v>1</v>
+      </c>
+      <c r="F12">
         <v>3</v>
       </c>
-      <c r="E12">
-        <v>3</v>
-      </c>
-      <c r="F12">
-        <v>1</v>
-      </c>
       <c r="G12" s="4" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H12">
         <v>3</v>
       </c>
     </row>
-    <row r="13" ht="40.5" spans="1:8">
+    <row r="13" ht="27" spans="1:8">
       <c r="A13">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B13" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="D13" s="8">
-        <v>5</v>
-      </c>
-      <c r="E13">
-        <v>1</v>
+        <v>41</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13" s="8">
+        <v>2</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H13">
         <v>1</v>
@@ -2267,25 +2330,25 @@
     </row>
     <row r="14" spans="1:8">
       <c r="A14">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="B14" t="s">
+        <v>43</v>
+      </c>
+      <c r="C14" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="C14" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="D14" s="8">
-        <v>5</v>
-      </c>
-      <c r="E14">
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14" s="8">
         <v>2</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H14">
         <v>2</v>
@@ -2293,25 +2356,25 @@
     </row>
     <row r="15" spans="1:8">
       <c r="A15">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B15" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="D15" s="8">
-        <v>5</v>
-      </c>
-      <c r="E15">
+        <v>41</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15" s="8">
+        <v>2</v>
+      </c>
+      <c r="F15">
         <v>3</v>
       </c>
-      <c r="F15">
-        <v>1</v>
-      </c>
       <c r="G15" s="4" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H15">
         <v>3</v>
@@ -2319,25 +2382,25 @@
     </row>
     <row r="16" ht="27" spans="1:8">
       <c r="A16">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B16" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="D16" s="8">
-        <v>6</v>
-      </c>
-      <c r="E16">
-        <v>1</v>
+        <v>48</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16" s="8">
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="H16">
         <v>1</v>
@@ -2345,25 +2408,25 @@
     </row>
     <row r="17" spans="1:8">
       <c r="A17">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B17" t="s">
+        <v>50</v>
+      </c>
+      <c r="C17" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="C17" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="D17" s="8">
-        <v>6</v>
-      </c>
-      <c r="E17">
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17" s="8">
+        <v>3</v>
+      </c>
+      <c r="F17">
         <v>2</v>
       </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
       <c r="G17" s="4" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="H17">
         <v>2</v>
@@ -2371,25 +2434,25 @@
     </row>
     <row r="18" spans="1:8">
       <c r="A18">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="B18" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="D18" s="8">
-        <v>6</v>
-      </c>
-      <c r="E18">
+        <v>48</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18" s="8">
         <v>3</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="H18">
         <v>3</v>
@@ -2397,71 +2460,71 @@
     </row>
     <row r="19" ht="40.5" spans="1:8">
       <c r="A19">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B19" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="D19" s="8">
-        <v>201</v>
-      </c>
-      <c r="E19">
-        <v>-1</v>
+        <v>55</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="E19" s="8">
+        <v>5</v>
       </c>
       <c r="F19">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="H19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20">
+        <v>11</v>
+      </c>
+      <c r="B20" t="s">
+        <v>57</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="E20" s="8">
+        <v>5</v>
+      </c>
+      <c r="F20">
         <v>2</v>
       </c>
-    </row>
-    <row r="20" ht="27" spans="1:8">
-      <c r="A20">
-        <v>17</v>
-      </c>
-      <c r="B20" t="s">
+      <c r="G20" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="H20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21">
+        <v>12</v>
+      </c>
+      <c r="B21" t="s">
+        <v>59</v>
+      </c>
+      <c r="C21" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="C20" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="D20" s="8">
-        <v>202</v>
-      </c>
-      <c r="E20">
-        <v>-1</v>
-      </c>
-      <c r="F20">
-        <v>3</v>
-      </c>
-      <c r="G20" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="H20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" ht="40.5" spans="1:8">
-      <c r="A21">
-        <v>18</v>
-      </c>
-      <c r="B21" t="s">
-        <v>58</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="D21" s="8">
-        <v>203</v>
-      </c>
-      <c r="E21">
-        <v>-1</v>
+      <c r="D21">
+        <v>1</v>
+      </c>
+      <c r="E21" s="8">
+        <v>5</v>
       </c>
       <c r="F21">
         <v>3</v>
@@ -2470,12 +2533,12 @@
         <v>60</v>
       </c>
       <c r="H21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" ht="67.5" spans="1:8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" ht="27" spans="1:8">
       <c r="A22">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="B22" t="s">
         <v>61</v>
@@ -2483,73 +2546,77 @@
       <c r="C22" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="D22" s="8">
-        <v>204</v>
-      </c>
-      <c r="E22">
-        <v>-1</v>
+      <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="E22" s="8">
+        <v>6</v>
       </c>
       <c r="F22">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G22" s="4" t="s">
         <v>63</v>
       </c>
       <c r="H22">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:8">
       <c r="A23">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="B23" t="s">
         <v>64</v>
       </c>
       <c r="C23" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="D23">
+        <v>1</v>
+      </c>
+      <c r="E23" s="8">
+        <v>6</v>
+      </c>
+      <c r="F23">
+        <v>2</v>
+      </c>
+      <c r="G23" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="D23" s="8">
-        <v>301</v>
-      </c>
-      <c r="E23">
-        <v>-1</v>
-      </c>
-      <c r="F23">
-        <v>3</v>
-      </c>
-      <c r="G23" s="4"/>
       <c r="H23">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:8">
       <c r="A24">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B24" t="s">
         <v>66</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="D24" s="8">
-        <v>302</v>
-      </c>
-      <c r="E24">
-        <v>-1</v>
+        <v>62</v>
+      </c>
+      <c r="D24">
+        <v>1</v>
+      </c>
+      <c r="E24" s="8">
+        <v>6</v>
       </c>
       <c r="F24">
         <v>3</v>
       </c>
-      <c r="G24" s="4"/>
+      <c r="G24" s="4" t="s">
+        <v>67</v>
+      </c>
       <c r="H24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" ht="27" spans="1:8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" ht="40.5" spans="1:8">
       <c r="A25">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="B25" t="s">
         <v>68</v>
@@ -2557,14 +2624,14 @@
       <c r="C25" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="D25" s="8">
-        <v>303</v>
-      </c>
-      <c r="E25">
+      <c r="D25">
+        <v>3</v>
+      </c>
+      <c r="E25" s="8">
+        <v>201</v>
+      </c>
+      <c r="F25">
         <v>-1</v>
-      </c>
-      <c r="F25">
-        <v>3</v>
       </c>
       <c r="G25" s="4" t="s">
         <v>70</v>
@@ -2575,7 +2642,7 @@
     </row>
     <row r="26" ht="27" spans="1:8">
       <c r="A26">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B26" t="s">
         <v>71</v>
@@ -2583,14 +2650,14 @@
       <c r="C26" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="D26" s="8">
-        <v>304</v>
-      </c>
-      <c r="E26">
+      <c r="D26">
+        <v>3</v>
+      </c>
+      <c r="E26" s="8">
+        <v>202</v>
+      </c>
+      <c r="F26">
         <v>-1</v>
-      </c>
-      <c r="F26">
-        <v>3</v>
       </c>
       <c r="G26" s="4" t="s">
         <v>73</v>
@@ -2599,9 +2666,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" ht="27" spans="1:8">
+    <row r="27" ht="40.5" spans="1:8">
       <c r="A27">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B27" t="s">
         <v>74</v>
@@ -2609,14 +2676,14 @@
       <c r="C27" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="D27" s="8">
-        <v>305</v>
-      </c>
-      <c r="E27">
+      <c r="D27">
+        <v>3</v>
+      </c>
+      <c r="E27" s="8">
+        <v>203</v>
+      </c>
+      <c r="F27">
         <v>-1</v>
-      </c>
-      <c r="F27">
-        <v>3</v>
       </c>
       <c r="G27" s="4" t="s">
         <v>76</v>
@@ -2625,9 +2692,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" ht="40.5" spans="1:8">
+    <row r="28" ht="67.5" spans="1:8">
       <c r="A28">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B28" t="s">
         <v>77</v>
@@ -2636,515 +2703,667 @@
         <v>78</v>
       </c>
       <c r="D28">
-        <v>401</v>
-      </c>
-      <c r="E28">
+        <v>3</v>
+      </c>
+      <c r="E28" s="8">
+        <v>204</v>
+      </c>
+      <c r="F28">
         <v>-1</v>
       </c>
-      <c r="F28">
+      <c r="G28" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="H28">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29">
+        <v>20</v>
+      </c>
+      <c r="B29" t="s">
+        <v>80</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="D29">
         <v>3</v>
       </c>
-      <c r="H28">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" ht="54" spans="1:8">
-      <c r="A29">
-        <v>26</v>
-      </c>
-      <c r="B29" t="s">
-        <v>79</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="D29">
-        <v>402</v>
-      </c>
-      <c r="E29">
+      <c r="E29" s="8">
+        <v>301</v>
+      </c>
+      <c r="F29">
         <v>-1</v>
       </c>
-      <c r="F29">
+      <c r="G29" s="4"/>
+      <c r="H29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30">
+        <v>21</v>
+      </c>
+      <c r="B30" t="s">
+        <v>82</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="D30">
         <v>3</v>
       </c>
-      <c r="H29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" ht="40.5" spans="1:8">
-      <c r="A30">
-        <v>27</v>
-      </c>
-      <c r="B30" t="s">
-        <v>81</v>
-      </c>
-      <c r="C30" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="D30">
-        <v>403</v>
-      </c>
-      <c r="E30">
+      <c r="E30" s="8">
+        <v>302</v>
+      </c>
+      <c r="F30">
         <v>-1</v>
       </c>
-      <c r="F30">
+      <c r="G30" s="4"/>
+      <c r="H30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" ht="27" spans="1:8">
+      <c r="A31">
+        <v>22</v>
+      </c>
+      <c r="B31" t="s">
+        <v>84</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="D31">
         <v>3</v>
       </c>
-      <c r="H30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" ht="40.5" spans="1:8">
-      <c r="A31">
-        <v>28</v>
-      </c>
-      <c r="B31" t="s">
-        <v>83</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="D31">
-        <v>404</v>
-      </c>
-      <c r="E31">
+      <c r="E31" s="8">
+        <v>303</v>
+      </c>
+      <c r="F31">
         <v>-1</v>
       </c>
-      <c r="F31">
+      <c r="G31" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="H31">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" ht="27" spans="1:8">
+      <c r="A32">
+        <v>23</v>
+      </c>
+      <c r="B32" t="s">
+        <v>87</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="D32">
         <v>3</v>
       </c>
-      <c r="H31">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" ht="40.5" spans="1:8">
-      <c r="A32">
-        <v>29</v>
-      </c>
-      <c r="B32" t="s">
-        <v>85</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="D32">
-        <v>405</v>
-      </c>
-      <c r="E32">
+      <c r="E32" s="8">
+        <v>304</v>
+      </c>
+      <c r="F32">
         <v>-1</v>
       </c>
-      <c r="F32">
-        <v>3</v>
-      </c>
       <c r="G32" s="4" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H32">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" ht="27" spans="1:8">
       <c r="A33">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="B33" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D33">
-        <v>406</v>
-      </c>
-      <c r="E33">
+        <v>3</v>
+      </c>
+      <c r="E33" s="8">
+        <v>305</v>
+      </c>
+      <c r="F33">
         <v>-1</v>
       </c>
-      <c r="F33">
-        <v>3</v>
+      <c r="G33" s="4" t="s">
+        <v>92</v>
       </c>
       <c r="H33">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" ht="40.5" spans="1:8">
       <c r="A34">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="B34" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="D34">
-        <v>501</v>
+        <v>3</v>
       </c>
       <c r="E34">
+        <v>401</v>
+      </c>
+      <c r="F34">
         <v>-1</v>
       </c>
-      <c r="F34">
+      <c r="H34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" ht="54" spans="1:8">
+      <c r="A35">
+        <v>26</v>
+      </c>
+      <c r="B35" t="s">
+        <v>95</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="D35">
         <v>3</v>
       </c>
-      <c r="G34" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="H34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" ht="27" spans="1:8">
-      <c r="A35">
-        <v>32</v>
-      </c>
-      <c r="B35" t="s">
-        <v>93</v>
-      </c>
-      <c r="C35" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="D35">
-        <v>502</v>
-      </c>
       <c r="E35">
+        <v>402</v>
+      </c>
+      <c r="F35">
         <v>-1</v>
       </c>
-      <c r="F35">
+      <c r="H35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" ht="40.5" spans="1:8">
+      <c r="A36">
+        <v>27</v>
+      </c>
+      <c r="B36" t="s">
+        <v>97</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="D36">
         <v>3</v>
       </c>
-      <c r="H35">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" ht="27" spans="1:8">
-      <c r="A36">
-        <v>33</v>
-      </c>
-      <c r="B36" t="s">
-        <v>95</v>
-      </c>
-      <c r="C36" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="D36">
-        <v>503</v>
-      </c>
       <c r="E36">
+        <v>403</v>
+      </c>
+      <c r="F36">
         <v>-1</v>
       </c>
-      <c r="F36">
+      <c r="H36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" ht="40.5" spans="1:8">
+      <c r="A37">
+        <v>28</v>
+      </c>
+      <c r="B37" t="s">
+        <v>99</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="D37">
         <v>3</v>
       </c>
-      <c r="H36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" ht="27" spans="1:8">
-      <c r="A37">
-        <v>34</v>
-      </c>
-      <c r="B37" t="s">
-        <v>97</v>
-      </c>
-      <c r="C37" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="D37">
-        <v>504</v>
-      </c>
       <c r="E37">
+        <v>404</v>
+      </c>
+      <c r="F37">
         <v>-1</v>
       </c>
-      <c r="F37">
+      <c r="H37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" ht="40.5" spans="1:8">
+      <c r="A38">
+        <v>29</v>
+      </c>
+      <c r="B38" t="s">
+        <v>101</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="D38">
         <v>3</v>
       </c>
-      <c r="H37">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="38" ht="54" spans="1:8">
-      <c r="A38">
-        <v>35</v>
-      </c>
-      <c r="B38" t="s">
-        <v>98</v>
-      </c>
-      <c r="C38" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="D38">
-        <v>505</v>
-      </c>
       <c r="E38">
+        <v>405</v>
+      </c>
+      <c r="F38">
         <v>-1</v>
       </c>
-      <c r="F38">
-        <v>3</v>
-      </c>
       <c r="G38" s="4" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="H38">
         <v>2</v>
       </c>
     </row>
-    <row r="39" ht="40.5" spans="1:8">
+    <row r="39" ht="27" spans="1:8">
       <c r="A39">
+        <v>30</v>
+      </c>
+      <c r="B39" t="s">
+        <v>104</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="D39">
+        <v>3</v>
+      </c>
+      <c r="E39">
+        <v>406</v>
+      </c>
+      <c r="F39">
+        <v>-1</v>
+      </c>
+      <c r="H39">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" ht="40.5" spans="1:8">
+      <c r="A40">
+        <v>31</v>
+      </c>
+      <c r="B40" t="s">
+        <v>106</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="D40">
+        <v>3</v>
+      </c>
+      <c r="E40">
+        <v>501</v>
+      </c>
+      <c r="F40">
+        <v>-1</v>
+      </c>
+      <c r="G40" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="H40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" ht="27" spans="1:8">
+      <c r="A41">
+        <v>32</v>
+      </c>
+      <c r="B41" t="s">
+        <v>109</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="D41">
+        <v>3</v>
+      </c>
+      <c r="E41">
+        <v>502</v>
+      </c>
+      <c r="F41">
+        <v>-1</v>
+      </c>
+      <c r="H41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" ht="27" spans="1:8">
+      <c r="A42">
+        <v>33</v>
+      </c>
+      <c r="B42" t="s">
+        <v>111</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="D42">
+        <v>3</v>
+      </c>
+      <c r="E42">
+        <v>503</v>
+      </c>
+      <c r="F42">
+        <v>-1</v>
+      </c>
+      <c r="H42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" ht="27" spans="1:8">
+      <c r="A43">
+        <v>34</v>
+      </c>
+      <c r="B43" t="s">
+        <v>113</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="D43">
+        <v>3</v>
+      </c>
+      <c r="E43">
+        <v>504</v>
+      </c>
+      <c r="F43">
+        <v>-1</v>
+      </c>
+      <c r="H43">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" ht="54" spans="1:8">
+      <c r="A44">
+        <v>35</v>
+      </c>
+      <c r="B44" t="s">
+        <v>114</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="D44">
+        <v>3</v>
+      </c>
+      <c r="E44">
+        <v>505</v>
+      </c>
+      <c r="F44">
+        <v>-1</v>
+      </c>
+      <c r="G44" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="H44">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" ht="40.5" spans="1:8">
+      <c r="A45">
         <v>36</v>
       </c>
-      <c r="B39" t="s">
-        <v>101</v>
-      </c>
-      <c r="C39" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="D39">
+      <c r="B45" t="s">
+        <v>117</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="D45">
+        <v>3</v>
+      </c>
+      <c r="E45">
         <v>506</v>
       </c>
-      <c r="E39">
+      <c r="F45">
         <v>-1</v>
       </c>
-      <c r="F39">
+      <c r="G45" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="H45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" ht="27" spans="1:8">
+      <c r="A46">
+        <v>37</v>
+      </c>
+      <c r="B46" t="s">
+        <v>120</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="D46">
         <v>3</v>
       </c>
-      <c r="G39" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="H39">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" ht="27" spans="1:8">
-      <c r="A40">
-        <v>37</v>
-      </c>
-      <c r="B40" t="s">
-        <v>104</v>
-      </c>
-      <c r="C40" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="D40">
+      <c r="E46">
         <v>601</v>
       </c>
-      <c r="E40">
+      <c r="F46">
         <v>-1</v>
       </c>
-      <c r="F40">
+      <c r="H46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" ht="40.5" spans="1:8">
+      <c r="A47">
+        <v>38</v>
+      </c>
+      <c r="B47" t="s">
+        <v>122</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="D47">
         <v>3</v>
       </c>
-      <c r="H40">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" ht="40.5" spans="1:8">
-      <c r="A41">
-        <v>38</v>
-      </c>
-      <c r="B41" t="s">
-        <v>106</v>
-      </c>
-      <c r="C41" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="D41">
+      <c r="E47">
         <v>602</v>
       </c>
-      <c r="E41">
+      <c r="F47">
         <v>-1</v>
       </c>
-      <c r="F41">
-        <v>3</v>
-      </c>
-      <c r="G41" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="H41">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
-      <c r="A42">
-        <v>39</v>
-      </c>
-      <c r="B42" t="s">
-        <v>109</v>
-      </c>
-      <c r="C42" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="D42">
-        <v>603</v>
-      </c>
-      <c r="E42">
-        <v>-1</v>
-      </c>
-      <c r="F42">
-        <v>3</v>
-      </c>
-      <c r="G42" s="4"/>
-      <c r="H42">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8">
-      <c r="A43">
-        <v>40</v>
-      </c>
-      <c r="B43" t="s">
-        <v>111</v>
-      </c>
-      <c r="C43" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="D43">
-        <v>604</v>
-      </c>
-      <c r="E43">
-        <v>-1</v>
-      </c>
-      <c r="F43">
-        <v>3</v>
-      </c>
-      <c r="G43" s="4"/>
-      <c r="H43">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
-      <c r="A44">
-        <v>41</v>
-      </c>
-      <c r="B44" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="C44" s="17" t="s">
-        <v>114</v>
-      </c>
-      <c r="D44">
-        <v>1001</v>
-      </c>
-      <c r="E44">
-        <v>-1</v>
-      </c>
-      <c r="F44">
-        <v>4</v>
-      </c>
-      <c r="H44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
-      <c r="A45">
-        <v>42</v>
-      </c>
-      <c r="B45" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="C45" s="17" t="s">
-        <v>116</v>
-      </c>
-      <c r="D45">
-        <v>1002</v>
-      </c>
-      <c r="E45">
-        <v>-1</v>
-      </c>
-      <c r="F45">
-        <v>4</v>
-      </c>
-      <c r="H45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8">
-      <c r="A46">
-        <v>43</v>
-      </c>
-      <c r="B46" s="8" t="s">
-        <v>117</v>
-      </c>
-      <c r="C46" s="17" t="s">
-        <v>118</v>
-      </c>
-      <c r="D46">
-        <v>1003</v>
-      </c>
-      <c r="E46">
-        <v>-1</v>
-      </c>
-      <c r="F46">
-        <v>4</v>
-      </c>
-      <c r="H46">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
-      <c r="A47">
-        <v>44</v>
-      </c>
-      <c r="B47" s="8" t="s">
-        <v>119</v>
-      </c>
-      <c r="C47" s="17" t="s">
-        <v>120</v>
-      </c>
-      <c r="D47">
-        <v>1004</v>
-      </c>
-      <c r="E47">
-        <v>-1</v>
-      </c>
-      <c r="F47">
-        <v>4</v>
+      <c r="G47" s="4" t="s">
+        <v>124</v>
       </c>
       <c r="H47">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:8">
       <c r="A48">
-        <v>45</v>
-      </c>
-      <c r="B48" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="C48" s="17" t="s">
-        <v>122</v>
+        <v>39</v>
+      </c>
+      <c r="B48" t="s">
+        <v>125</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>126</v>
       </c>
       <c r="D48">
-        <v>1005</v>
+        <v>3</v>
       </c>
       <c r="E48">
+        <v>603</v>
+      </c>
+      <c r="F48">
         <v>-1</v>
       </c>
-      <c r="F48">
-        <v>4</v>
-      </c>
+      <c r="G48" s="4"/>
       <c r="H48">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:8">
       <c r="A49">
+        <v>40</v>
+      </c>
+      <c r="B49" t="s">
+        <v>127</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="D49">
+        <v>3</v>
+      </c>
+      <c r="E49">
+        <v>604</v>
+      </c>
+      <c r="F49">
+        <v>-1</v>
+      </c>
+      <c r="G49" s="4"/>
+      <c r="H49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
+      <c r="A50">
+        <v>41</v>
+      </c>
+      <c r="B50" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="C50" s="21" t="s">
+        <v>130</v>
+      </c>
+      <c r="D50">
+        <v>4</v>
+      </c>
+      <c r="E50">
+        <v>1001</v>
+      </c>
+      <c r="F50">
+        <v>-1</v>
+      </c>
+      <c r="H50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
+      <c r="A51">
+        <v>42</v>
+      </c>
+      <c r="B51" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="C51" s="21" t="s">
+        <v>132</v>
+      </c>
+      <c r="D51">
+        <v>4</v>
+      </c>
+      <c r="E51">
+        <v>1002</v>
+      </c>
+      <c r="F51">
+        <v>-1</v>
+      </c>
+      <c r="H51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
+      <c r="A52">
+        <v>43</v>
+      </c>
+      <c r="B52" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="C52" s="21" t="s">
+        <v>134</v>
+      </c>
+      <c r="D52">
+        <v>4</v>
+      </c>
+      <c r="E52">
+        <v>1003</v>
+      </c>
+      <c r="F52">
+        <v>-1</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
+      <c r="A53">
+        <v>44</v>
+      </c>
+      <c r="B53" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="C53" s="21" t="s">
+        <v>136</v>
+      </c>
+      <c r="D53">
+        <v>4</v>
+      </c>
+      <c r="E53">
+        <v>1004</v>
+      </c>
+      <c r="F53">
+        <v>-1</v>
+      </c>
+      <c r="H53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
+      <c r="A54">
+        <v>45</v>
+      </c>
+      <c r="B54" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="C54" s="21" t="s">
+        <v>138</v>
+      </c>
+      <c r="D54">
+        <v>4</v>
+      </c>
+      <c r="E54">
+        <v>1005</v>
+      </c>
+      <c r="F54">
+        <v>-1</v>
+      </c>
+      <c r="H54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
+      <c r="A55">
         <v>46</v>
       </c>
-      <c r="B49" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="C49" s="17" t="s">
-        <v>124</v>
-      </c>
-      <c r="D49">
+      <c r="B55" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="C55" s="21" t="s">
+        <v>140</v>
+      </c>
+      <c r="D55">
+        <v>4</v>
+      </c>
+      <c r="E55">
         <v>1006</v>
       </c>
-      <c r="E49">
+      <c r="F55">
         <v>-1</v>
       </c>
-      <c r="F49">
-        <v>4</v>
-      </c>
-      <c r="H49">
+      <c r="H55">
         <v>0</v>
       </c>
     </row>
@@ -3158,10 +3377,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J23"/>
+  <dimension ref="A1:L23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:J23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q27" sqref="Q27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3172,43 +3391,51 @@
     <col min="5" max="5" width="12.375" style="10" customWidth="1"/>
     <col min="6" max="7" width="10.375" customWidth="1"/>
     <col min="8" max="8" width="10.375" style="10" customWidth="1"/>
-    <col min="9" max="9" width="10.875" customWidth="1"/>
-    <col min="10" max="10" width="10" customWidth="1"/>
+    <col min="9" max="9" width="16" customWidth="1"/>
+    <col min="10" max="10" width="12.625" customWidth="1"/>
+    <col min="11" max="11" width="10.875" style="11" customWidth="1"/>
+    <col min="12" max="12" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:12">
       <c r="A1" t="s">
-        <v>125</v>
+        <v>141</v>
       </c>
       <c r="B1" t="s">
-        <v>126</v>
-      </c>
-      <c r="C1" s="11" t="s">
-        <v>127</v>
-      </c>
-      <c r="D1" s="12" t="s">
-        <v>128</v>
-      </c>
-      <c r="E1" s="13" t="s">
-        <v>129</v>
-      </c>
-      <c r="F1" s="14" t="s">
-        <v>130</v>
-      </c>
-      <c r="G1" s="14" t="s">
-        <v>131</v>
-      </c>
-      <c r="H1" s="15" t="s">
-        <v>132</v>
-      </c>
-      <c r="I1" s="16" t="s">
-        <v>133</v>
-      </c>
-      <c r="J1" s="16" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10">
+        <v>142</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>144</v>
+      </c>
+      <c r="E1" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="F1" s="15" t="s">
+        <v>146</v>
+      </c>
+      <c r="G1" s="15" t="s">
+        <v>147</v>
+      </c>
+      <c r="H1" s="16" t="s">
+        <v>148</v>
+      </c>
+      <c r="I1" s="17" t="s">
+        <v>149</v>
+      </c>
+      <c r="J1" s="17" t="s">
+        <v>150</v>
+      </c>
+      <c r="K1" s="18" t="s">
+        <v>151</v>
+      </c>
+      <c r="L1" s="19" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -3216,63 +3443,75 @@
         <v>8</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>135</v>
+        <v>153</v>
       </c>
       <c r="D2" t="s">
-        <v>135</v>
+        <v>153</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>135</v>
+        <v>153</v>
       </c>
       <c r="F2" t="s">
-        <v>135</v>
+        <v>153</v>
       </c>
       <c r="G2" t="s">
-        <v>135</v>
+        <v>153</v>
       </c>
       <c r="H2" s="10" t="s">
-        <v>135</v>
+        <v>153</v>
       </c>
       <c r="I2" t="s">
-        <v>135</v>
+        <v>153</v>
       </c>
       <c r="J2" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="3" ht="27" spans="1:10">
+        <v>153</v>
+      </c>
+      <c r="K2" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="L2" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="3" ht="27" spans="1:12">
       <c r="A3" t="s">
-        <v>136</v>
+        <v>154</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>137</v>
+        <v>155</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>138</v>
+        <v>156</v>
       </c>
       <c r="D3" t="s">
-        <v>139</v>
+        <v>157</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>140</v>
+        <v>158</v>
       </c>
       <c r="F3" t="s">
-        <v>141</v>
+        <v>159</v>
       </c>
       <c r="G3" t="s">
-        <v>142</v>
+        <v>160</v>
       </c>
       <c r="H3" s="10" t="s">
-        <v>143</v>
+        <v>161</v>
       </c>
       <c r="I3" t="s">
-        <v>144</v>
+        <v>162</v>
       </c>
       <c r="J3" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
+        <v>163</v>
+      </c>
+      <c r="K3" s="11" t="s">
+        <v>164</v>
+      </c>
+      <c r="L3" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
       <c r="A4">
         <v>1</v>
       </c>
@@ -3280,10 +3519,10 @@
         <v>1</v>
       </c>
       <c r="C4" s="9">
+        <v>0</v>
+      </c>
+      <c r="D4">
         <v>995</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
       </c>
       <c r="E4" s="10">
         <v>5</v>
@@ -3303,8 +3542,14 @@
       <c r="J4">
         <v>10</v>
       </c>
-    </row>
-    <row r="5" spans="1:10">
+      <c r="K4" s="11">
+        <v>90</v>
+      </c>
+      <c r="L4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
       <c r="A5">
         <v>1</v>
       </c>
@@ -3335,8 +3580,14 @@
       <c r="J5">
         <v>10</v>
       </c>
-    </row>
-    <row r="6" spans="1:10">
+      <c r="K5" s="11">
+        <v>90</v>
+      </c>
+      <c r="L5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
       <c r="A6">
         <v>2</v>
       </c>
@@ -3367,8 +3618,14 @@
       <c r="J6">
         <v>10</v>
       </c>
-    </row>
-    <row r="7" spans="1:10">
+      <c r="K6" s="11">
+        <v>90</v>
+      </c>
+      <c r="L6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
       <c r="A7">
         <v>2</v>
       </c>
@@ -3399,8 +3656,14 @@
       <c r="J7">
         <v>10</v>
       </c>
-    </row>
-    <row r="8" spans="1:10">
+      <c r="K7" s="11">
+        <v>90</v>
+      </c>
+      <c r="L7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
       <c r="A8">
         <v>3</v>
       </c>
@@ -3431,8 +3694,14 @@
       <c r="J8">
         <v>10</v>
       </c>
-    </row>
-    <row r="9" spans="1:10">
+      <c r="K8" s="11">
+        <v>90</v>
+      </c>
+      <c r="L8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
       <c r="A9">
         <v>3</v>
       </c>
@@ -3463,8 +3732,14 @@
       <c r="J9">
         <v>10</v>
       </c>
-    </row>
-    <row r="10" spans="1:10">
+      <c r="K9" s="11">
+        <v>90</v>
+      </c>
+      <c r="L9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
       <c r="A10">
         <v>4</v>
       </c>
@@ -3495,8 +3770,14 @@
       <c r="J10">
         <v>10</v>
       </c>
-    </row>
-    <row r="11" spans="1:10">
+      <c r="K10" s="11">
+        <v>90</v>
+      </c>
+      <c r="L10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
       <c r="A11">
         <v>4</v>
       </c>
@@ -3527,8 +3808,14 @@
       <c r="J11">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="1:10">
+      <c r="K11" s="11">
+        <v>90</v>
+      </c>
+      <c r="L11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
       <c r="A12">
         <v>5</v>
       </c>
@@ -3559,8 +3846,14 @@
       <c r="J12">
         <v>10</v>
       </c>
-    </row>
-    <row r="13" spans="1:10">
+      <c r="K12" s="11">
+        <v>90</v>
+      </c>
+      <c r="L12">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
       <c r="A13">
         <v>5</v>
       </c>
@@ -3591,8 +3884,14 @@
       <c r="J13">
         <v>10</v>
       </c>
-    </row>
-    <row r="14" spans="1:10">
+      <c r="K13" s="11">
+        <v>90</v>
+      </c>
+      <c r="L13">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
       <c r="A14">
         <v>6</v>
       </c>
@@ -3623,8 +3922,14 @@
       <c r="J14">
         <v>10</v>
       </c>
-    </row>
-    <row r="15" spans="1:10">
+      <c r="K14" s="11">
+        <v>90</v>
+      </c>
+      <c r="L14">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
       <c r="A15">
         <v>6</v>
       </c>
@@ -3655,8 +3960,14 @@
       <c r="J15">
         <v>10</v>
       </c>
-    </row>
-    <row r="16" spans="1:10">
+      <c r="K15" s="11">
+        <v>90</v>
+      </c>
+      <c r="L15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
       <c r="A16">
         <v>7</v>
       </c>
@@ -3687,8 +3998,14 @@
       <c r="J16">
         <v>10</v>
       </c>
-    </row>
-    <row r="17" spans="1:10">
+      <c r="K16" s="11">
+        <v>90</v>
+      </c>
+      <c r="L16">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
       <c r="A17">
         <v>7</v>
       </c>
@@ -3719,8 +4036,14 @@
       <c r="J17">
         <v>10</v>
       </c>
-    </row>
-    <row r="18" spans="1:10">
+      <c r="K17" s="11">
+        <v>90</v>
+      </c>
+      <c r="L17">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
       <c r="A18">
         <v>8</v>
       </c>
@@ -3751,8 +4074,14 @@
       <c r="J18">
         <v>10</v>
       </c>
-    </row>
-    <row r="19" spans="1:10">
+      <c r="K18" s="11">
+        <v>90</v>
+      </c>
+      <c r="L18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
       <c r="A19">
         <v>8</v>
       </c>
@@ -3783,8 +4112,14 @@
       <c r="J19">
         <v>10</v>
       </c>
-    </row>
-    <row r="20" spans="1:10">
+      <c r="K19" s="11">
+        <v>90</v>
+      </c>
+      <c r="L19">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
       <c r="A20">
         <v>9</v>
       </c>
@@ -3815,8 +4150,14 @@
       <c r="J20">
         <v>10</v>
       </c>
-    </row>
-    <row r="21" spans="1:10">
+      <c r="K20" s="11">
+        <v>90</v>
+      </c>
+      <c r="L20">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
       <c r="A21">
         <v>9</v>
       </c>
@@ -3847,8 +4188,14 @@
       <c r="J21">
         <v>10</v>
       </c>
-    </row>
-    <row r="22" spans="1:10">
+      <c r="K21" s="11">
+        <v>90</v>
+      </c>
+      <c r="L21">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12">
       <c r="A22">
         <v>10</v>
       </c>
@@ -3879,8 +4226,14 @@
       <c r="J22">
         <v>10</v>
       </c>
-    </row>
-    <row r="23" spans="1:10">
+      <c r="K22" s="11">
+        <v>90</v>
+      </c>
+      <c r="L22">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12">
       <c r="A23">
         <v>10</v>
       </c>
@@ -3909,6 +4262,12 @@
         <v>90</v>
       </c>
       <c r="J23">
+        <v>10</v>
+      </c>
+      <c r="K23" s="11">
+        <v>90</v>
+      </c>
+      <c r="L23">
         <v>10</v>
       </c>
     </row>
@@ -3937,10 +4296,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>146</v>
+        <v>166</v>
       </c>
       <c r="B1" t="s">
-        <v>147</v>
+        <v>167</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -3948,15 +4307,15 @@
         <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>135</v>
+        <v>153</v>
       </c>
     </row>
     <row r="3" ht="73.5" customHeight="1" spans="1:2">
       <c r="A3" t="s">
-        <v>148</v>
+        <v>168</v>
       </c>
       <c r="B3" t="s">
-        <v>149</v>
+        <v>169</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -4252,7 +4611,7 @@
   <dimension ref="A1:O27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:O27"/>
+      <selection activeCell="F40" sqref="F40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -4274,49 +4633,49 @@
   <sheetData>
     <row r="1" spans="1:15">
       <c r="A1" t="s">
-        <v>150</v>
+        <v>170</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>151</v>
+        <v>171</v>
       </c>
       <c r="C1" t="s">
-        <v>152</v>
+        <v>172</v>
       </c>
       <c r="D1" t="s">
-        <v>153</v>
+        <v>173</v>
       </c>
       <c r="E1" t="s">
-        <v>154</v>
+        <v>174</v>
       </c>
       <c r="F1" t="s">
-        <v>155</v>
+        <v>175</v>
       </c>
       <c r="G1" t="s">
-        <v>156</v>
+        <v>176</v>
       </c>
       <c r="H1" t="s">
-        <v>157</v>
+        <v>177</v>
       </c>
       <c r="I1" t="s">
-        <v>158</v>
+        <v>178</v>
       </c>
       <c r="J1" t="s">
-        <v>159</v>
+        <v>179</v>
       </c>
       <c r="K1" t="s">
-        <v>160</v>
+        <v>180</v>
       </c>
       <c r="L1" t="s">
-        <v>161</v>
+        <v>181</v>
       </c>
       <c r="M1" t="s">
-        <v>162</v>
+        <v>182</v>
       </c>
       <c r="N1" t="s">
-        <v>163</v>
+        <v>183</v>
       </c>
       <c r="O1" t="s">
-        <v>164</v>
+        <v>184</v>
       </c>
     </row>
     <row r="2" spans="1:15">
@@ -4324,950 +4683,950 @@
         <v>9</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>165</v>
+        <v>10</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>165</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>135</v>
+        <v>153</v>
       </c>
       <c r="E2" t="s">
-        <v>135</v>
+        <v>153</v>
       </c>
       <c r="F2" t="s">
-        <v>165</v>
+        <v>10</v>
       </c>
       <c r="G2" t="s">
-        <v>135</v>
+        <v>153</v>
       </c>
       <c r="H2" t="s">
-        <v>135</v>
+        <v>153</v>
       </c>
       <c r="I2" t="s">
-        <v>135</v>
+        <v>153</v>
       </c>
       <c r="J2" t="s">
-        <v>135</v>
+        <v>153</v>
       </c>
       <c r="K2" t="s">
-        <v>165</v>
+        <v>10</v>
       </c>
       <c r="L2" t="s">
-        <v>135</v>
+        <v>153</v>
       </c>
       <c r="M2" t="s">
-        <v>166</v>
+        <v>185</v>
       </c>
       <c r="N2" t="s">
-        <v>165</v>
+        <v>10</v>
       </c>
       <c r="O2" t="s">
-        <v>166</v>
+        <v>185</v>
       </c>
     </row>
     <row r="3" ht="14.25" spans="1:15">
       <c r="A3" s="5" t="s">
-        <v>167</v>
+        <v>186</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>168</v>
+        <v>187</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>169</v>
+        <v>188</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>170</v>
+        <v>189</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>171</v>
+        <v>190</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>172</v>
+        <v>191</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>173</v>
+        <v>192</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>174</v>
+        <v>193</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>175</v>
+        <v>194</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>176</v>
+        <v>195</v>
       </c>
       <c r="K3" s="5" t="s">
-        <v>177</v>
+        <v>196</v>
       </c>
       <c r="L3" s="5" t="s">
-        <v>178</v>
+        <v>197</v>
       </c>
       <c r="M3" s="5" t="s">
-        <v>179</v>
+        <v>198</v>
       </c>
       <c r="N3" s="5" t="s">
-        <v>180</v>
+        <v>199</v>
       </c>
       <c r="O3" s="5" t="s">
-        <v>181</v>
+        <v>200</v>
       </c>
     </row>
     <row r="4" ht="14.25" spans="1:15">
       <c r="A4" s="5" t="s">
-        <v>182</v>
+        <v>201</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>183</v>
+        <v>202</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>184</v>
+        <v>203</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>185</v>
-      </c>
-      <c r="E4" s="18" t="s">
-        <v>186</v>
+        <v>204</v>
+      </c>
+      <c r="E4" s="22" t="s">
+        <v>205</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>187</v>
-      </c>
-      <c r="G4" s="18" t="s">
-        <v>188</v>
-      </c>
-      <c r="H4" s="18" t="s">
-        <v>185</v>
-      </c>
-      <c r="I4" s="18" t="s">
-        <v>186</v>
-      </c>
-      <c r="J4" s="18" t="s">
-        <v>189</v>
+        <v>206</v>
+      </c>
+      <c r="G4" s="22" t="s">
+        <v>207</v>
+      </c>
+      <c r="H4" s="22" t="s">
+        <v>204</v>
+      </c>
+      <c r="I4" s="22" t="s">
+        <v>205</v>
+      </c>
+      <c r="J4" s="22" t="s">
+        <v>208</v>
       </c>
       <c r="K4" s="5" t="s">
-        <v>190</v>
-      </c>
-      <c r="L4" s="18" t="s">
-        <v>191</v>
-      </c>
-      <c r="M4" s="18" t="s">
-        <v>192</v>
+        <v>209</v>
+      </c>
+      <c r="L4" s="22" t="s">
+        <v>210</v>
+      </c>
+      <c r="M4" s="22" t="s">
+        <v>211</v>
       </c>
       <c r="N4" s="5" t="s">
-        <v>193</v>
-      </c>
-      <c r="O4" s="18" t="s">
-        <v>192</v>
+        <v>212</v>
+      </c>
+      <c r="O4" s="22" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="5" ht="14.25" spans="1:15">
       <c r="A5" s="5" t="s">
-        <v>182</v>
+        <v>201</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>183</v>
+        <v>202</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>184</v>
+        <v>203</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>188</v>
-      </c>
-      <c r="E5" s="18" t="s">
-        <v>194</v>
+        <v>207</v>
+      </c>
+      <c r="E5" s="22" t="s">
+        <v>213</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>195</v>
-      </c>
-      <c r="G5" s="18" t="s">
-        <v>188</v>
-      </c>
-      <c r="H5" s="18" t="s">
-        <v>185</v>
-      </c>
-      <c r="I5" s="18" t="s">
-        <v>186</v>
-      </c>
-      <c r="J5" s="18" t="s">
-        <v>189</v>
+        <v>214</v>
+      </c>
+      <c r="G5" s="22" t="s">
+        <v>207</v>
+      </c>
+      <c r="H5" s="22" t="s">
+        <v>204</v>
+      </c>
+      <c r="I5" s="22" t="s">
+        <v>205</v>
+      </c>
+      <c r="J5" s="22" t="s">
+        <v>208</v>
       </c>
       <c r="K5" s="5" t="s">
-        <v>190</v>
-      </c>
-      <c r="L5" s="18" t="s">
-        <v>191</v>
-      </c>
-      <c r="M5" s="18" t="s">
-        <v>196</v>
+        <v>209</v>
+      </c>
+      <c r="L5" s="22" t="s">
+        <v>210</v>
+      </c>
+      <c r="M5" s="22" t="s">
+        <v>215</v>
       </c>
       <c r="N5" s="5" t="s">
-        <v>184</v>
-      </c>
-      <c r="O5" s="18" t="s">
-        <v>196</v>
+        <v>203</v>
+      </c>
+      <c r="O5" s="22" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="6" ht="14.25" spans="1:15">
       <c r="A6" s="5" t="s">
-        <v>182</v>
+        <v>201</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>197</v>
+        <v>216</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>184</v>
+        <v>203</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>185</v>
-      </c>
-      <c r="E6" s="18" t="s">
-        <v>198</v>
+        <v>204</v>
+      </c>
+      <c r="E6" s="22" t="s">
+        <v>217</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>199</v>
-      </c>
-      <c r="G6" s="18" t="s">
-        <v>188</v>
-      </c>
-      <c r="H6" s="18" t="s">
-        <v>185</v>
-      </c>
-      <c r="I6" s="18" t="s">
-        <v>186</v>
-      </c>
-      <c r="J6" s="18" t="s">
-        <v>189</v>
+        <v>218</v>
+      </c>
+      <c r="G6" s="22" t="s">
+        <v>207</v>
+      </c>
+      <c r="H6" s="22" t="s">
+        <v>204</v>
+      </c>
+      <c r="I6" s="22" t="s">
+        <v>205</v>
+      </c>
+      <c r="J6" s="22" t="s">
+        <v>208</v>
       </c>
       <c r="K6" s="5" t="s">
-        <v>190</v>
-      </c>
-      <c r="L6" s="18" t="s">
-        <v>191</v>
-      </c>
-      <c r="M6" s="18" t="s">
-        <v>192</v>
+        <v>209</v>
+      </c>
+      <c r="L6" s="22" t="s">
+        <v>210</v>
+      </c>
+      <c r="M6" s="22" t="s">
+        <v>211</v>
       </c>
       <c r="N6" s="5" t="s">
-        <v>193</v>
-      </c>
-      <c r="O6" s="18" t="s">
-        <v>192</v>
+        <v>212</v>
+      </c>
+      <c r="O6" s="22" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="7" ht="14.25" spans="1:15">
       <c r="A7" s="5" t="s">
-        <v>182</v>
+        <v>201</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>197</v>
+        <v>216</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>184</v>
+        <v>203</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>188</v>
-      </c>
-      <c r="E7" s="18" t="s">
-        <v>194</v>
+        <v>207</v>
+      </c>
+      <c r="E7" s="22" t="s">
+        <v>213</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>200</v>
-      </c>
-      <c r="G7" s="18" t="s">
-        <v>188</v>
-      </c>
-      <c r="H7" s="18" t="s">
-        <v>185</v>
-      </c>
-      <c r="I7" s="18" t="s">
-        <v>186</v>
-      </c>
-      <c r="J7" s="18" t="s">
-        <v>189</v>
+        <v>219</v>
+      </c>
+      <c r="G7" s="22" t="s">
+        <v>207</v>
+      </c>
+      <c r="H7" s="22" t="s">
+        <v>204</v>
+      </c>
+      <c r="I7" s="22" t="s">
+        <v>205</v>
+      </c>
+      <c r="J7" s="22" t="s">
+        <v>208</v>
       </c>
       <c r="K7" s="5" t="s">
-        <v>190</v>
-      </c>
-      <c r="L7" s="18" t="s">
-        <v>191</v>
-      </c>
-      <c r="M7" s="18" t="s">
-        <v>196</v>
+        <v>209</v>
+      </c>
+      <c r="L7" s="22" t="s">
+        <v>210</v>
+      </c>
+      <c r="M7" s="22" t="s">
+        <v>215</v>
       </c>
       <c r="N7" s="5" t="s">
-        <v>184</v>
-      </c>
-      <c r="O7" s="18" t="s">
-        <v>196</v>
+        <v>203</v>
+      </c>
+      <c r="O7" s="22" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="8" ht="14.25" spans="1:15">
       <c r="A8" s="5" t="s">
-        <v>182</v>
+        <v>201</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>201</v>
+        <v>220</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>184</v>
+        <v>203</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>185</v>
-      </c>
-      <c r="E8" s="18" t="s">
-        <v>185</v>
+        <v>204</v>
+      </c>
+      <c r="E8" s="22" t="s">
+        <v>204</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>202</v>
-      </c>
-      <c r="G8" s="18" t="s">
-        <v>188</v>
-      </c>
-      <c r="H8" s="18" t="s">
-        <v>185</v>
-      </c>
-      <c r="I8" s="18" t="s">
-        <v>186</v>
-      </c>
-      <c r="J8" s="18" t="s">
-        <v>189</v>
+        <v>221</v>
+      </c>
+      <c r="G8" s="22" t="s">
+        <v>207</v>
+      </c>
+      <c r="H8" s="22" t="s">
+        <v>204</v>
+      </c>
+      <c r="I8" s="22" t="s">
+        <v>205</v>
+      </c>
+      <c r="J8" s="22" t="s">
+        <v>208</v>
       </c>
       <c r="K8" s="5" t="s">
-        <v>190</v>
-      </c>
-      <c r="L8" s="18" t="s">
-        <v>191</v>
-      </c>
-      <c r="M8" s="18" t="s">
-        <v>192</v>
+        <v>209</v>
+      </c>
+      <c r="L8" s="22" t="s">
+        <v>210</v>
+      </c>
+      <c r="M8" s="22" t="s">
+        <v>211</v>
       </c>
       <c r="N8" s="5" t="s">
-        <v>193</v>
-      </c>
-      <c r="O8" s="18" t="s">
-        <v>192</v>
+        <v>212</v>
+      </c>
+      <c r="O8" s="22" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="9" ht="14.25" spans="1:15">
       <c r="A9" s="5" t="s">
-        <v>182</v>
+        <v>201</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>201</v>
+        <v>220</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>184</v>
+        <v>203</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>188</v>
-      </c>
-      <c r="E9" s="18" t="s">
-        <v>194</v>
+        <v>207</v>
+      </c>
+      <c r="E9" s="22" t="s">
+        <v>213</v>
       </c>
       <c r="F9" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="G9" s="22" t="s">
+        <v>207</v>
+      </c>
+      <c r="H9" s="22" t="s">
+        <v>204</v>
+      </c>
+      <c r="I9" s="22" t="s">
+        <v>205</v>
+      </c>
+      <c r="J9" s="22" t="s">
+        <v>208</v>
+      </c>
+      <c r="K9" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="L9" s="22" t="s">
+        <v>210</v>
+      </c>
+      <c r="M9" s="22" t="s">
+        <v>215</v>
+      </c>
+      <c r="N9" s="5" t="s">
         <v>203</v>
       </c>
-      <c r="G9" s="18" t="s">
-        <v>188</v>
-      </c>
-      <c r="H9" s="18" t="s">
-        <v>185</v>
-      </c>
-      <c r="I9" s="18" t="s">
-        <v>186</v>
-      </c>
-      <c r="J9" s="18" t="s">
-        <v>189</v>
-      </c>
-      <c r="K9" s="5" t="s">
-        <v>190</v>
-      </c>
-      <c r="L9" s="18" t="s">
-        <v>191</v>
-      </c>
-      <c r="M9" s="18" t="s">
-        <v>196</v>
-      </c>
-      <c r="N9" s="5" t="s">
-        <v>184</v>
-      </c>
-      <c r="O9" s="18" t="s">
-        <v>196</v>
+      <c r="O9" s="22" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="10" ht="14.25" spans="1:15">
       <c r="A10" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="H10" s="22" t="s">
         <v>204</v>
       </c>
-      <c r="B10" s="6" t="s">
-        <v>205</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>184</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>194</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>194</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>206</v>
-      </c>
-      <c r="G10" s="5" t="s">
-        <v>194</v>
-      </c>
-      <c r="H10" s="18" t="s">
-        <v>185</v>
-      </c>
       <c r="I10" s="5" t="s">
-        <v>194</v>
-      </c>
-      <c r="J10" s="18" t="s">
-        <v>189</v>
+        <v>213</v>
+      </c>
+      <c r="J10" s="22" t="s">
+        <v>208</v>
       </c>
       <c r="K10" s="5" t="s">
-        <v>207</v>
-      </c>
-      <c r="L10" s="18" t="s">
-        <v>191</v>
-      </c>
-      <c r="M10" s="18" t="s">
-        <v>192</v>
+        <v>226</v>
+      </c>
+      <c r="L10" s="22" t="s">
+        <v>210</v>
+      </c>
+      <c r="M10" s="22" t="s">
+        <v>211</v>
       </c>
       <c r="N10" s="5" t="s">
-        <v>206</v>
-      </c>
-      <c r="O10" s="18" t="s">
-        <v>192</v>
+        <v>225</v>
+      </c>
+      <c r="O10" s="22" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="11" ht="14.25" spans="1:15">
       <c r="A11" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="H11" s="22" t="s">
         <v>204</v>
       </c>
-      <c r="B11" s="6" t="s">
-        <v>205</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>184</v>
-      </c>
-      <c r="D11" s="5" t="s">
+      <c r="I11" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="J11" s="22" t="s">
         <v>208</v>
       </c>
-      <c r="E11" s="5" t="s">
-        <v>188</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>195</v>
-      </c>
-      <c r="G11" s="5" t="s">
-        <v>194</v>
-      </c>
-      <c r="H11" s="18" t="s">
-        <v>185</v>
-      </c>
-      <c r="I11" s="5" t="s">
-        <v>194</v>
-      </c>
-      <c r="J11" s="18" t="s">
-        <v>189</v>
-      </c>
       <c r="K11" s="5" t="s">
-        <v>207</v>
-      </c>
-      <c r="L11" s="18" t="s">
-        <v>191</v>
-      </c>
-      <c r="M11" s="18" t="s">
-        <v>196</v>
+        <v>226</v>
+      </c>
+      <c r="L11" s="22" t="s">
+        <v>210</v>
+      </c>
+      <c r="M11" s="22" t="s">
+        <v>215</v>
       </c>
       <c r="N11" s="5" t="s">
-        <v>184</v>
-      </c>
-      <c r="O11" s="18" t="s">
-        <v>196</v>
+        <v>203</v>
+      </c>
+      <c r="O11" s="22" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="12" ht="14.25" spans="1:15">
       <c r="A12" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="H12" s="22" t="s">
         <v>204</v>
       </c>
-      <c r="B12" s="6" t="s">
-        <v>209</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>184</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>186</v>
-      </c>
-      <c r="E12" s="5" t="s">
+      <c r="I12" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="J12" s="22" t="s">
+        <v>208</v>
+      </c>
+      <c r="K12" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="L12" s="22" t="s">
         <v>210</v>
       </c>
-      <c r="F12" s="5" t="s">
-        <v>193</v>
-      </c>
-      <c r="G12" s="5" t="s">
-        <v>194</v>
-      </c>
-      <c r="H12" s="18" t="s">
-        <v>185</v>
-      </c>
-      <c r="I12" s="5" t="s">
-        <v>194</v>
-      </c>
-      <c r="J12" s="18" t="s">
-        <v>189</v>
-      </c>
-      <c r="K12" s="5" t="s">
-        <v>207</v>
-      </c>
-      <c r="L12" s="18" t="s">
-        <v>191</v>
-      </c>
-      <c r="M12" s="18" t="s">
-        <v>192</v>
+      <c r="M12" s="22" t="s">
+        <v>211</v>
       </c>
       <c r="N12" s="5" t="s">
-        <v>206</v>
-      </c>
-      <c r="O12" s="18" t="s">
-        <v>192</v>
+        <v>225</v>
+      </c>
+      <c r="O12" s="22" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="13" ht="14.25" spans="1:15">
       <c r="A13" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="H13" s="22" t="s">
         <v>204</v>
       </c>
-      <c r="B13" s="6" t="s">
-        <v>209</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>184</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>211</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>188</v>
-      </c>
-      <c r="F13" s="5" t="s">
-        <v>195</v>
-      </c>
-      <c r="G13" s="5" t="s">
-        <v>194</v>
-      </c>
-      <c r="H13" s="18" t="s">
-        <v>185</v>
-      </c>
       <c r="I13" s="5" t="s">
-        <v>194</v>
-      </c>
-      <c r="J13" s="18" t="s">
-        <v>189</v>
+        <v>213</v>
+      </c>
+      <c r="J13" s="22" t="s">
+        <v>208</v>
       </c>
       <c r="K13" s="5" t="s">
-        <v>207</v>
-      </c>
-      <c r="L13" s="18" t="s">
-        <v>191</v>
-      </c>
-      <c r="M13" s="18" t="s">
-        <v>196</v>
+        <v>226</v>
+      </c>
+      <c r="L13" s="22" t="s">
+        <v>210</v>
+      </c>
+      <c r="M13" s="22" t="s">
+        <v>215</v>
       </c>
       <c r="N13" s="5" t="s">
-        <v>184</v>
-      </c>
-      <c r="O13" s="18" t="s">
-        <v>196</v>
+        <v>203</v>
+      </c>
+      <c r="O13" s="22" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="14" ht="14.25" spans="1:15">
       <c r="A14" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>231</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="H14" s="22" t="s">
         <v>204</v>
       </c>
-      <c r="B14" s="6" t="s">
-        <v>212</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>184</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>186</v>
-      </c>
-      <c r="E14" s="5" t="s">
+      <c r="I14" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="J14" s="22" t="s">
+        <v>208</v>
+      </c>
+      <c r="K14" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="L14" s="22" t="s">
         <v>210</v>
       </c>
-      <c r="F14" s="5" t="s">
-        <v>193</v>
-      </c>
-      <c r="G14" s="5" t="s">
-        <v>194</v>
-      </c>
-      <c r="H14" s="18" t="s">
-        <v>185</v>
-      </c>
-      <c r="I14" s="5" t="s">
-        <v>194</v>
-      </c>
-      <c r="J14" s="18" t="s">
-        <v>189</v>
-      </c>
-      <c r="K14" s="5" t="s">
-        <v>207</v>
-      </c>
-      <c r="L14" s="18" t="s">
-        <v>191</v>
-      </c>
-      <c r="M14" s="18" t="s">
-        <v>192</v>
+      <c r="M14" s="22" t="s">
+        <v>211</v>
       </c>
       <c r="N14" s="5" t="s">
-        <v>206</v>
-      </c>
-      <c r="O14" s="18" t="s">
-        <v>192</v>
+        <v>225</v>
+      </c>
+      <c r="O14" s="22" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="15" ht="14.25" spans="1:15">
       <c r="A15" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>231</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="H15" s="22" t="s">
         <v>204</v>
       </c>
-      <c r="B15" s="6" t="s">
-        <v>212</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>184</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>211</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>188</v>
-      </c>
-      <c r="F15" s="5" t="s">
-        <v>195</v>
-      </c>
-      <c r="G15" s="5" t="s">
-        <v>194</v>
-      </c>
-      <c r="H15" s="18" t="s">
-        <v>185</v>
-      </c>
       <c r="I15" s="5" t="s">
-        <v>194</v>
-      </c>
-      <c r="J15" s="18" t="s">
-        <v>189</v>
+        <v>213</v>
+      </c>
+      <c r="J15" s="22" t="s">
+        <v>208</v>
       </c>
       <c r="K15" s="5" t="s">
-        <v>207</v>
-      </c>
-      <c r="L15" s="18" t="s">
-        <v>191</v>
-      </c>
-      <c r="M15" s="18" t="s">
-        <v>196</v>
+        <v>226</v>
+      </c>
+      <c r="L15" s="22" t="s">
+        <v>210</v>
+      </c>
+      <c r="M15" s="22" t="s">
+        <v>215</v>
       </c>
       <c r="N15" s="5" t="s">
-        <v>184</v>
-      </c>
-      <c r="O15" s="18" t="s">
-        <v>196</v>
+        <v>203</v>
+      </c>
+      <c r="O15" s="22" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="16" ht="14.25" spans="1:15">
       <c r="A16" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>233</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="D16" s="5" t="s">
         <v>213</v>
       </c>
-      <c r="B16" s="6" t="s">
-        <v>214</v>
-      </c>
-      <c r="C16" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>194</v>
-      </c>
       <c r="E16" s="5" t="s">
-        <v>215</v>
+        <v>234</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>206</v>
-      </c>
-      <c r="G16" s="18" t="s">
-        <v>188</v>
-      </c>
-      <c r="H16" s="18" t="s">
-        <v>185</v>
-      </c>
-      <c r="I16" s="18" t="s">
-        <v>215</v>
-      </c>
-      <c r="J16" s="18" t="s">
-        <v>189</v>
+        <v>225</v>
+      </c>
+      <c r="G16" s="22" t="s">
+        <v>207</v>
+      </c>
+      <c r="H16" s="22" t="s">
+        <v>204</v>
+      </c>
+      <c r="I16" s="22" t="s">
+        <v>234</v>
+      </c>
+      <c r="J16" s="22" t="s">
+        <v>208</v>
       </c>
       <c r="K16" s="5" t="s">
-        <v>216</v>
+        <v>235</v>
       </c>
       <c r="L16" s="5" t="s">
-        <v>191</v>
-      </c>
-      <c r="M16" s="18" t="s">
-        <v>192</v>
+        <v>210</v>
+      </c>
+      <c r="M16" s="22" t="s">
+        <v>211</v>
       </c>
       <c r="N16" s="5" t="s">
-        <v>217</v>
-      </c>
-      <c r="O16" s="18" t="s">
-        <v>192</v>
+        <v>236</v>
+      </c>
+      <c r="O16" s="22" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="17" ht="14.25" spans="1:15">
       <c r="A17" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>233</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="D17" s="5" t="s">
         <v>213</v>
       </c>
-      <c r="B17" s="6" t="s">
-        <v>214</v>
-      </c>
-      <c r="C17" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>194</v>
-      </c>
       <c r="E17" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="G17" s="22" t="s">
+        <v>207</v>
+      </c>
+      <c r="H17" s="22" t="s">
+        <v>204</v>
+      </c>
+      <c r="I17" s="22" t="s">
+        <v>234</v>
+      </c>
+      <c r="J17" s="22" t="s">
+        <v>208</v>
+      </c>
+      <c r="K17" s="5" t="s">
+        <v>235</v>
+      </c>
+      <c r="L17" s="5" t="s">
         <v>210</v>
       </c>
-      <c r="F17" s="5" t="s">
-        <v>218</v>
-      </c>
-      <c r="G17" s="18" t="s">
-        <v>188</v>
-      </c>
-      <c r="H17" s="18" t="s">
-        <v>185</v>
-      </c>
-      <c r="I17" s="18" t="s">
+      <c r="M17" s="22" t="s">
         <v>215</v>
       </c>
-      <c r="J17" s="18" t="s">
-        <v>189</v>
-      </c>
-      <c r="K17" s="5" t="s">
-        <v>216</v>
-      </c>
-      <c r="L17" s="5" t="s">
-        <v>191</v>
-      </c>
-      <c r="M17" s="18" t="s">
-        <v>196</v>
-      </c>
       <c r="N17" s="5" t="s">
-        <v>184</v>
-      </c>
-      <c r="O17" s="18" t="s">
-        <v>192</v>
+        <v>203</v>
+      </c>
+      <c r="O17" s="22" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="18" ht="14.25" spans="1:15">
       <c r="A18" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>238</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="D18" s="5" t="s">
         <v>213</v>
       </c>
-      <c r="B18" s="6" t="s">
-        <v>219</v>
-      </c>
-      <c r="C18" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>194</v>
-      </c>
       <c r="E18" s="5" t="s">
-        <v>194</v>
+        <v>213</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>193</v>
-      </c>
-      <c r="G18" s="18" t="s">
-        <v>188</v>
-      </c>
-      <c r="H18" s="18" t="s">
-        <v>185</v>
-      </c>
-      <c r="I18" s="18" t="s">
-        <v>215</v>
-      </c>
-      <c r="J18" s="18" t="s">
-        <v>189</v>
+        <v>212</v>
+      </c>
+      <c r="G18" s="22" t="s">
+        <v>207</v>
+      </c>
+      <c r="H18" s="22" t="s">
+        <v>204</v>
+      </c>
+      <c r="I18" s="22" t="s">
+        <v>234</v>
+      </c>
+      <c r="J18" s="22" t="s">
+        <v>208</v>
       </c>
       <c r="K18" s="5" t="s">
-        <v>216</v>
+        <v>235</v>
       </c>
       <c r="L18" s="5" t="s">
-        <v>191</v>
-      </c>
-      <c r="M18" s="18" t="s">
-        <v>192</v>
+        <v>210</v>
+      </c>
+      <c r="M18" s="22" t="s">
+        <v>211</v>
       </c>
       <c r="N18" s="5" t="s">
-        <v>217</v>
-      </c>
-      <c r="O18" s="18" t="s">
-        <v>192</v>
+        <v>236</v>
+      </c>
+      <c r="O18" s="22" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="19" ht="14.25" spans="1:15">
       <c r="A19" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>238</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="D19" s="5" t="s">
         <v>213</v>
       </c>
-      <c r="B19" s="6" t="s">
-        <v>219</v>
-      </c>
-      <c r="C19" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="D19" s="5" t="s">
-        <v>194</v>
-      </c>
       <c r="E19" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="G19" s="22" t="s">
+        <v>207</v>
+      </c>
+      <c r="H19" s="22" t="s">
+        <v>204</v>
+      </c>
+      <c r="I19" s="22" t="s">
+        <v>234</v>
+      </c>
+      <c r="J19" s="22" t="s">
+        <v>208</v>
+      </c>
+      <c r="K19" s="5" t="s">
+        <v>235</v>
+      </c>
+      <c r="L19" s="5" t="s">
         <v>210</v>
       </c>
-      <c r="F19" s="5" t="s">
-        <v>195</v>
-      </c>
-      <c r="G19" s="18" t="s">
-        <v>188</v>
-      </c>
-      <c r="H19" s="18" t="s">
-        <v>185</v>
-      </c>
-      <c r="I19" s="18" t="s">
+      <c r="M19" s="22" t="s">
         <v>215</v>
       </c>
-      <c r="J19" s="18" t="s">
-        <v>189</v>
-      </c>
-      <c r="K19" s="5" t="s">
-        <v>216</v>
-      </c>
-      <c r="L19" s="5" t="s">
-        <v>191</v>
-      </c>
-      <c r="M19" s="18" t="s">
-        <v>196</v>
-      </c>
       <c r="N19" s="5" t="s">
-        <v>184</v>
-      </c>
-      <c r="O19" s="18" t="s">
-        <v>192</v>
+        <v>203</v>
+      </c>
+      <c r="O19" s="22" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="20" ht="14.25" spans="1:15">
       <c r="A20" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>231</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="D20" s="5" t="s">
         <v>213</v>
       </c>
-      <c r="B20" s="6" t="s">
-        <v>212</v>
-      </c>
-      <c r="C20" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>194</v>
-      </c>
       <c r="E20" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="G20" s="22" t="s">
+        <v>207</v>
+      </c>
+      <c r="H20" s="22" t="s">
+        <v>204</v>
+      </c>
+      <c r="I20" s="22" t="s">
+        <v>234</v>
+      </c>
+      <c r="J20" s="22" t="s">
+        <v>208</v>
+      </c>
+      <c r="K20" s="5" t="s">
+        <v>235</v>
+      </c>
+      <c r="L20" s="5" t="s">
         <v>210</v>
       </c>
-      <c r="F20" s="5" t="s">
-        <v>220</v>
-      </c>
-      <c r="G20" s="18" t="s">
-        <v>188</v>
-      </c>
-      <c r="H20" s="18" t="s">
-        <v>185</v>
-      </c>
-      <c r="I20" s="18" t="s">
-        <v>215</v>
-      </c>
-      <c r="J20" s="18" t="s">
-        <v>189</v>
-      </c>
-      <c r="K20" s="5" t="s">
-        <v>216</v>
-      </c>
-      <c r="L20" s="5" t="s">
-        <v>191</v>
-      </c>
-      <c r="M20" s="18" t="s">
-        <v>192</v>
+      <c r="M20" s="22" t="s">
+        <v>211</v>
       </c>
       <c r="N20" s="5" t="s">
-        <v>217</v>
-      </c>
-      <c r="O20" s="18" t="s">
-        <v>192</v>
+        <v>236</v>
+      </c>
+      <c r="O20" s="22" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="21" ht="14.25" spans="1:15">
       <c r="A21" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>231</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="D21" s="5" t="s">
         <v>213</v>
       </c>
-      <c r="B21" s="6" t="s">
-        <v>212</v>
-      </c>
-      <c r="C21" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="D21" s="5" t="s">
-        <v>194</v>
-      </c>
       <c r="E21" s="5" t="s">
-        <v>186</v>
+        <v>205</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>195</v>
-      </c>
-      <c r="G21" s="18" t="s">
-        <v>188</v>
-      </c>
-      <c r="H21" s="18" t="s">
-        <v>185</v>
-      </c>
-      <c r="I21" s="18" t="s">
+        <v>214</v>
+      </c>
+      <c r="G21" s="22" t="s">
+        <v>207</v>
+      </c>
+      <c r="H21" s="22" t="s">
+        <v>204</v>
+      </c>
+      <c r="I21" s="22" t="s">
+        <v>234</v>
+      </c>
+      <c r="J21" s="22" t="s">
+        <v>208</v>
+      </c>
+      <c r="K21" s="5" t="s">
+        <v>235</v>
+      </c>
+      <c r="L21" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="M21" s="22" t="s">
         <v>215</v>
       </c>
-      <c r="J21" s="18" t="s">
-        <v>189</v>
-      </c>
-      <c r="K21" s="5" t="s">
-        <v>216</v>
-      </c>
-      <c r="L21" s="5" t="s">
-        <v>191</v>
-      </c>
-      <c r="M21" s="18" t="s">
-        <v>196</v>
-      </c>
       <c r="N21" s="5" t="s">
-        <v>184</v>
-      </c>
-      <c r="O21" s="18" t="s">
-        <v>192</v>
+        <v>203</v>
+      </c>
+      <c r="O21" s="22" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="22" ht="14.25" spans="1:15">
       <c r="A22" t="s">
-        <v>221</v>
+        <v>240</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>193</v>
+        <v>212</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>184</v>
+        <v>203</v>
       </c>
       <c r="D22" s="5">
         <v>10</v>
@@ -5276,269 +5635,269 @@
         <v>7</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>195</v>
-      </c>
-      <c r="G22" s="18" t="s">
+        <v>214</v>
+      </c>
+      <c r="G22" s="22" t="s">
+        <v>227</v>
+      </c>
+      <c r="H22" s="22" t="s">
+        <v>204</v>
+      </c>
+      <c r="I22" s="22" t="s">
+        <v>207</v>
+      </c>
+      <c r="J22" s="22" t="s">
         <v>208</v>
       </c>
-      <c r="H22" s="18" t="s">
-        <v>185</v>
-      </c>
-      <c r="I22" s="18" t="s">
-        <v>188</v>
-      </c>
-      <c r="J22" s="18" t="s">
-        <v>189</v>
-      </c>
       <c r="K22" s="5" t="s">
-        <v>222</v>
+        <v>241</v>
       </c>
       <c r="L22" s="5" t="s">
-        <v>191</v>
-      </c>
-      <c r="M22" s="18" t="s">
-        <v>196</v>
+        <v>210</v>
+      </c>
+      <c r="M22" s="22" t="s">
+        <v>215</v>
       </c>
       <c r="N22" s="5" t="s">
-        <v>184</v>
-      </c>
-      <c r="O22" s="18" t="s">
-        <v>196</v>
+        <v>203</v>
+      </c>
+      <c r="O22" s="22" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="23" ht="14.25" spans="1:15">
       <c r="A23" t="s">
-        <v>221</v>
+        <v>240</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>193</v>
+        <v>212</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>184</v>
+        <v>203</v>
       </c>
       <c r="D23" s="5">
         <v>10</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>188</v>
+        <v>207</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>223</v>
-      </c>
-      <c r="G23" s="18" t="s">
+        <v>242</v>
+      </c>
+      <c r="G23" s="22" t="s">
+        <v>227</v>
+      </c>
+      <c r="H23" s="22" t="s">
+        <v>204</v>
+      </c>
+      <c r="I23" s="22" t="s">
+        <v>207</v>
+      </c>
+      <c r="J23" s="22" t="s">
         <v>208</v>
       </c>
-      <c r="H23" s="18" t="s">
-        <v>185</v>
-      </c>
-      <c r="I23" s="18" t="s">
-        <v>188</v>
-      </c>
-      <c r="J23" s="18" t="s">
-        <v>189</v>
-      </c>
       <c r="K23" s="5" t="s">
-        <v>222</v>
+        <v>241</v>
       </c>
       <c r="L23" s="5" t="s">
-        <v>191</v>
-      </c>
-      <c r="M23" s="18" t="s">
-        <v>196</v>
+        <v>210</v>
+      </c>
+      <c r="M23" s="22" t="s">
+        <v>215</v>
       </c>
       <c r="N23" s="5" t="s">
-        <v>184</v>
-      </c>
-      <c r="O23" s="18" t="s">
-        <v>196</v>
+        <v>203</v>
+      </c>
+      <c r="O23" s="22" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="24" ht="14.25" spans="1:15">
       <c r="A24" t="s">
-        <v>221</v>
+        <v>240</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>219</v>
+        <v>238</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>184</v>
+        <v>203</v>
       </c>
       <c r="D24" s="5">
         <v>10</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>188</v>
+        <v>207</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>223</v>
-      </c>
-      <c r="G24" s="18" t="s">
+        <v>242</v>
+      </c>
+      <c r="G24" s="22" t="s">
+        <v>227</v>
+      </c>
+      <c r="H24" s="22" t="s">
+        <v>204</v>
+      </c>
+      <c r="I24" s="22" t="s">
+        <v>207</v>
+      </c>
+      <c r="J24" s="22" t="s">
         <v>208</v>
       </c>
-      <c r="H24" s="18" t="s">
-        <v>185</v>
-      </c>
-      <c r="I24" s="18" t="s">
-        <v>188</v>
-      </c>
-      <c r="J24" s="18" t="s">
-        <v>189</v>
-      </c>
       <c r="K24" s="5" t="s">
-        <v>222</v>
+        <v>241</v>
       </c>
       <c r="L24" s="5" t="s">
-        <v>191</v>
-      </c>
-      <c r="M24" s="18" t="s">
-        <v>196</v>
+        <v>210</v>
+      </c>
+      <c r="M24" s="22" t="s">
+        <v>215</v>
       </c>
       <c r="N24" s="5" t="s">
-        <v>184</v>
-      </c>
-      <c r="O24" s="18" t="s">
-        <v>196</v>
+        <v>203</v>
+      </c>
+      <c r="O24" s="22" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="25" ht="14.25" spans="1:15">
       <c r="A25" t="s">
-        <v>221</v>
+        <v>240</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>219</v>
+        <v>238</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>184</v>
+        <v>203</v>
       </c>
       <c r="D25" s="5">
         <v>10</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>188</v>
+        <v>207</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>223</v>
-      </c>
-      <c r="G25" s="18" t="s">
+        <v>242</v>
+      </c>
+      <c r="G25" s="22" t="s">
+        <v>227</v>
+      </c>
+      <c r="H25" s="22" t="s">
+        <v>204</v>
+      </c>
+      <c r="I25" s="22" t="s">
+        <v>207</v>
+      </c>
+      <c r="J25" s="22" t="s">
         <v>208</v>
       </c>
-      <c r="H25" s="18" t="s">
-        <v>185</v>
-      </c>
-      <c r="I25" s="18" t="s">
-        <v>188</v>
-      </c>
-      <c r="J25" s="18" t="s">
-        <v>189</v>
-      </c>
       <c r="K25" s="5" t="s">
-        <v>222</v>
+        <v>241</v>
       </c>
       <c r="L25" s="5" t="s">
-        <v>191</v>
-      </c>
-      <c r="M25" s="18" t="s">
-        <v>196</v>
+        <v>210</v>
+      </c>
+      <c r="M25" s="22" t="s">
+        <v>215</v>
       </c>
       <c r="N25" s="5" t="s">
-        <v>184</v>
-      </c>
-      <c r="O25" s="18" t="s">
-        <v>196</v>
+        <v>203</v>
+      </c>
+      <c r="O25" s="22" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="26" ht="14.25" spans="1:15">
       <c r="A26" t="s">
-        <v>221</v>
+        <v>240</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>212</v>
+        <v>231</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>184</v>
+        <v>203</v>
       </c>
       <c r="D26" s="5">
         <v>10</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>188</v>
+        <v>207</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>223</v>
-      </c>
-      <c r="G26" s="18" t="s">
+        <v>242</v>
+      </c>
+      <c r="G26" s="22" t="s">
+        <v>227</v>
+      </c>
+      <c r="H26" s="22" t="s">
+        <v>204</v>
+      </c>
+      <c r="I26" s="22" t="s">
+        <v>207</v>
+      </c>
+      <c r="J26" s="22" t="s">
         <v>208</v>
       </c>
-      <c r="H26" s="18" t="s">
-        <v>185</v>
-      </c>
-      <c r="I26" s="18" t="s">
-        <v>188</v>
-      </c>
-      <c r="J26" s="18" t="s">
-        <v>189</v>
-      </c>
       <c r="K26" s="5" t="s">
-        <v>222</v>
+        <v>241</v>
       </c>
       <c r="L26" s="5" t="s">
-        <v>191</v>
-      </c>
-      <c r="M26" s="18" t="s">
-        <v>196</v>
+        <v>210</v>
+      </c>
+      <c r="M26" s="22" t="s">
+        <v>215</v>
       </c>
       <c r="N26" s="5" t="s">
-        <v>184</v>
-      </c>
-      <c r="O26" s="18" t="s">
-        <v>196</v>
+        <v>203</v>
+      </c>
+      <c r="O26" s="22" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="27" ht="14.25" spans="1:15">
       <c r="A27" t="s">
-        <v>221</v>
+        <v>240</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>212</v>
+        <v>231</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>184</v>
+        <v>203</v>
       </c>
       <c r="D27" s="5">
         <v>10</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>188</v>
+        <v>207</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>223</v>
-      </c>
-      <c r="G27" s="18" t="s">
+        <v>242</v>
+      </c>
+      <c r="G27" s="22" t="s">
+        <v>227</v>
+      </c>
+      <c r="H27" s="22" t="s">
+        <v>204</v>
+      </c>
+      <c r="I27" s="22" t="s">
+        <v>207</v>
+      </c>
+      <c r="J27" s="22" t="s">
         <v>208</v>
       </c>
-      <c r="H27" s="18" t="s">
-        <v>185</v>
-      </c>
-      <c r="I27" s="18" t="s">
-        <v>188</v>
-      </c>
-      <c r="J27" s="18" t="s">
-        <v>189</v>
-      </c>
       <c r="K27" s="5" t="s">
-        <v>222</v>
+        <v>241</v>
       </c>
       <c r="L27" s="5" t="s">
-        <v>191</v>
-      </c>
-      <c r="M27" s="18" t="s">
-        <v>196</v>
+        <v>210</v>
+      </c>
+      <c r="M27" s="22" t="s">
+        <v>215</v>
       </c>
       <c r="N27" s="5" t="s">
-        <v>184</v>
-      </c>
-      <c r="O27" s="18" t="s">
-        <v>196</v>
+        <v>203</v>
+      </c>
+      <c r="O27" s="22" t="s">
+        <v>215</v>
       </c>
     </row>
   </sheetData>
@@ -5563,31 +5922,31 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" t="s">
-        <v>125</v>
+        <v>141</v>
       </c>
       <c r="B1" t="s">
-        <v>224</v>
+        <v>243</v>
       </c>
       <c r="C1" t="s">
-        <v>225</v>
+        <v>244</v>
       </c>
       <c r="D1" t="s">
-        <v>226</v>
+        <v>245</v>
       </c>
       <c r="E1" t="s">
-        <v>227</v>
+        <v>246</v>
       </c>
       <c r="F1" t="s">
-        <v>228</v>
+        <v>247</v>
       </c>
       <c r="G1" t="s">
-        <v>229</v>
+        <v>248</v>
       </c>
       <c r="H1" t="s">
-        <v>230</v>
+        <v>249</v>
       </c>
       <c r="I1" t="s">
-        <v>231</v>
+        <v>250</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -5621,31 +5980,31 @@
     </row>
     <row r="3" spans="1:9">
       <c r="A3" t="s">
-        <v>232</v>
+        <v>251</v>
       </c>
       <c r="B3" t="s">
-        <v>233</v>
+        <v>252</v>
       </c>
       <c r="C3" t="s">
-        <v>234</v>
+        <v>253</v>
       </c>
       <c r="D3" t="s">
-        <v>235</v>
+        <v>254</v>
       </c>
       <c r="E3" t="s">
-        <v>236</v>
+        <v>255</v>
       </c>
       <c r="F3" t="s">
-        <v>237</v>
+        <v>256</v>
       </c>
       <c r="G3" t="s">
-        <v>238</v>
+        <v>257</v>
       </c>
       <c r="H3" t="s">
-        <v>239</v>
+        <v>258</v>
       </c>
       <c r="I3" t="s">
-        <v>240</v>
+        <v>259</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -5746,8 +6105,8 @@
   <sheetPr/>
   <dimension ref="A1:C23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I26" sqref="I26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -5761,10 +6120,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C1" t="s">
-        <v>241</v>
+        <v>260</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -5780,13 +6139,13 @@
     </row>
     <row r="3" ht="54" spans="1:3">
       <c r="A3" s="4" t="s">
-        <v>242</v>
+        <v>261</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>243</v>
+        <v>262</v>
       </c>
       <c r="C3" t="s">
-        <v>244</v>
+        <v>263</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -6033,16 +6392,16 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>245</v>
+        <v>264</v>
       </c>
       <c r="B1" t="s">
-        <v>246</v>
+        <v>265</v>
       </c>
       <c r="C1" t="s">
-        <v>247</v>
+        <v>266</v>
       </c>
       <c r="D1" t="s">
-        <v>248</v>
+        <v>267</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -6061,16 +6420,16 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>249</v>
+        <v>268</v>
       </c>
       <c r="B3" t="s">
-        <v>250</v>
+        <v>269</v>
       </c>
       <c r="C3" t="s">
-        <v>251</v>
+        <v>270</v>
       </c>
       <c r="D3" t="s">
-        <v>252</v>
+        <v>271</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -6078,13 +6437,13 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>253</v>
+        <v>272</v>
       </c>
       <c r="C4" t="s">
-        <v>254</v>
+        <v>273</v>
       </c>
       <c r="D4" t="s">
-        <v>255</v>
+        <v>274</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -6092,13 +6451,13 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>256</v>
+        <v>275</v>
       </c>
       <c r="C5" t="s">
-        <v>257</v>
+        <v>276</v>
       </c>
       <c r="D5" t="s">
-        <v>258</v>
+        <v>277</v>
       </c>
     </row>
   </sheetData>
@@ -6123,10 +6482,10 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="27" spans="2:8">
       <c r="B1" s="1" t="s">
-        <v>259</v>
+        <v>278</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>260</v>
+        <v>279</v>
       </c>
       <c r="D1" s="3">
         <v>7</v>
@@ -6143,10 +6502,10 @@
     </row>
     <row r="2" s="1" customFormat="1" ht="27" spans="2:8">
       <c r="B2" s="1" t="s">
-        <v>261</v>
+        <v>280</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>260</v>
+        <v>279</v>
       </c>
       <c r="D2" s="3">
         <v>7</v>
@@ -6163,10 +6522,10 @@
     </row>
     <row r="3" s="1" customFormat="1" ht="27" spans="2:8">
       <c r="B3" s="1" t="s">
-        <v>262</v>
+        <v>281</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>260</v>
+        <v>279</v>
       </c>
       <c r="D3" s="3">
         <v>7</v>
@@ -6178,7 +6537,7 @@
         <v>1</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>263</v>
+        <v>282</v>
       </c>
     </row>
     <row r="4" spans="8:8">

--- a/Assets/Editor/ItemData.xlsx
+++ b/Assets/Editor/ItemData.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="670" uniqueCount="283">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="730" uniqueCount="343">
   <si>
     <t>id</t>
   </si>
@@ -104,19 +104,31 @@
     <t>道具概率分类</t>
   </si>
   <si>
-    <t>1雕花酒葫芦</t>
-  </si>
-  <si>
-    <t>雷劫道数+1，生命值-5</t>
+    <t>旧黄符</t>
+  </si>
+  <si>
+    <t>雷劫道数+1</t>
+  </si>
+  <si>
+    <t>桃木剑</t>
+  </si>
+  <si>
+    <t>雷劫伤害+3</t>
+  </si>
+  <si>
+    <t>雕花酒葫芦</t>
+  </si>
+  <si>
+    <t>雷劫道数+1，生命值+5</t>
   </si>
   <si>
     <t>7,1</t>
   </si>
   <si>
-    <t>1,-5</t>
-  </si>
-  <si>
-    <t>2雕花酒葫芦</t>
+    <t>1,5</t>
+  </si>
+  <si>
+    <t>桃花枝</t>
   </si>
   <si>
     <t>雷劫频率-0.05，移动速度+3</t>
@@ -128,7 +140,7 @@
     <t>0.05,3</t>
   </si>
   <si>
-    <t>3雕花酒葫芦</t>
+    <t>青玉剑</t>
   </si>
   <si>
     <t>雷劫伤害+1，雷劫频率-0.1</t>
@@ -140,10 +152,190 @@
     <t>1,0.1</t>
   </si>
   <si>
-    <t>雷劫道数+1，生命值+5</t>
-  </si>
-  <si>
-    <t>1,5</t>
+    <t>黑拂尘</t>
+  </si>
+  <si>
+    <t>雷劫伤害+10，生命值-10</t>
+  </si>
+  <si>
+    <t>9,1</t>
+  </si>
+  <si>
+    <t>10,-10</t>
+  </si>
+  <si>
+    <t>拂尘</t>
+  </si>
+  <si>
+    <t>雷劫伤害+5</t>
+  </si>
+  <si>
+    <t>红袍</t>
+  </si>
+  <si>
+    <t>生命值+5，护甲+5</t>
+  </si>
+  <si>
+    <t>1,3</t>
+  </si>
+  <si>
+    <t>5,5</t>
+  </si>
+  <si>
+    <t>袈裟</t>
+  </si>
+  <si>
+    <t>雷劫频率-0.05，雷电伤害+3</t>
+  </si>
+  <si>
+    <t>8,9</t>
+  </si>
+  <si>
+    <t>纸鸢</t>
+  </si>
+  <si>
+    <t>雷电道数+1</t>
+  </si>
+  <si>
+    <t>同心结</t>
+  </si>
+  <si>
+    <t>生命值+5，护甲+3，雷劫频率-0.05</t>
+  </si>
+  <si>
+    <t>1,3,8</t>
+  </si>
+  <si>
+    <t>5,3,0.05</t>
+  </si>
+  <si>
+    <t>竹简</t>
+  </si>
+  <si>
+    <t>雷劫伤害+4，雷劫道数+1，护甲-5</t>
+  </si>
+  <si>
+    <t>9,7,3</t>
+  </si>
+  <si>
+    <t>4,1,-5</t>
+  </si>
+  <si>
+    <t>无字碑</t>
+  </si>
+  <si>
+    <t>雷劫伤害+2</t>
+  </si>
+  <si>
+    <t>玉牌</t>
+  </si>
+  <si>
+    <t>玉龙</t>
+  </si>
+  <si>
+    <t>雷劫频率-0.05</t>
+  </si>
+  <si>
+    <t>玄冰</t>
+  </si>
+  <si>
+    <t>雷劫频率-0.05，雷劫伤害+2，护甲-3</t>
+  </si>
+  <si>
+    <t>8,7,3</t>
+  </si>
+  <si>
+    <t>0.05,2,-3</t>
+  </si>
+  <si>
+    <t>真火</t>
+  </si>
+  <si>
+    <t>雷电伤害+5，雷电道数+1，生命值-5</t>
+  </si>
+  <si>
+    <t>9,7,1</t>
+  </si>
+  <si>
+    <t>5,1,5</t>
+  </si>
+  <si>
+    <t>白玉膏</t>
+  </si>
+  <si>
+    <t>生命值+5，雷电伤害+3</t>
+  </si>
+  <si>
+    <t>1,9</t>
+  </si>
+  <si>
+    <t>5,3</t>
+  </si>
+  <si>
+    <t>白绸缎</t>
+  </si>
+  <si>
+    <t>雷劫道数-2，雷劫频率-0.3</t>
+  </si>
+  <si>
+    <t>7,8</t>
+  </si>
+  <si>
+    <t>-2,0.3</t>
+  </si>
+  <si>
+    <t>彼岸花</t>
+  </si>
+  <si>
+    <t>雷劫伤害+5，生命值-5</t>
+  </si>
+  <si>
+    <t>5,-5</t>
+  </si>
+  <si>
+    <t>异火莲花</t>
+  </si>
+  <si>
+    <t>祖符</t>
+  </si>
+  <si>
+    <t>雷劫道数+2</t>
+  </si>
+  <si>
+    <t>春秋蛊</t>
+  </si>
+  <si>
+    <t>雷劫频率-0.05，生命值+5</t>
+  </si>
+  <si>
+    <t>8,1</t>
+  </si>
+  <si>
+    <t>0.05,5</t>
+  </si>
+  <si>
+    <t>浮屠塔</t>
+  </si>
+  <si>
+    <t>护甲值+3，雷劫伤害+5</t>
+  </si>
+  <si>
+    <t>3,9</t>
+  </si>
+  <si>
+    <t>3,5</t>
+  </si>
+  <si>
+    <t>掌天瓶</t>
+  </si>
+  <si>
+    <t>生命恢复速度+5，雷劫道数+1</t>
+  </si>
+  <si>
+    <t>5,7</t>
+  </si>
+  <si>
+    <t>5,1</t>
   </si>
   <si>
     <t>翠微业力·小</t>
@@ -712,18 +904,12 @@
     <t>2</t>
   </si>
   <si>
-    <t>5,7</t>
-  </si>
-  <si>
     <t>3,3</t>
   </si>
   <si>
     <t>8,9,10</t>
   </si>
   <si>
-    <t>7,8</t>
-  </si>
-  <si>
     <t>4,4</t>
   </si>
   <si>
@@ -778,13 +964,16 @@
     <t>5,6</t>
   </si>
   <si>
-    <t>RandomMoveEnemy</t>
+    <t>EnemyRandomMove</t>
   </si>
   <si>
     <t>15,15</t>
   </si>
   <si>
     <t>1,2</t>
+  </si>
+  <si>
+    <t>BossWater</t>
   </si>
   <si>
     <t>count2</t>
@@ -885,15 +1074,6 @@
   </si>
   <si>
     <t>完美闪避：特定时间段进行闪避，可以形成折线雷</t>
-  </si>
-  <si>
-    <t>hero_img_2</t>
-  </si>
-  <si>
-    <t>姓名2</t>
-  </si>
-  <si>
-    <t>无</t>
   </si>
   <si>
     <t>炽金业力·小</t>
@@ -921,7 +1101,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -931,6 +1111,11 @@
     </font>
     <font>
       <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -1441,137 +1626,137 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1605,9 +1790,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -1632,13 +1814,31 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" quotePrefix="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1987,10 +2187,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H55"/>
+  <dimension ref="A1:H74"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+    <sheetView topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="F55" sqref="F55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -1999,6 +2199,7 @@
     <col min="3" max="3" width="38.375" style="4" customWidth="1"/>
     <col min="4" max="4" width="13.125" customWidth="1"/>
     <col min="5" max="5" width="15.875" customWidth="1"/>
+    <col min="6" max="6" width="10.375" customWidth="1"/>
     <col min="7" max="7" width="75.25" customWidth="1"/>
     <col min="8" max="8" width="15.625" customWidth="1"/>
   </cols>
@@ -2085,93 +2286,90 @@
       <c r="A4">
         <v>101</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="20" t="s">
         <v>20</v>
       </c>
       <c r="D4" s="4">
         <v>2</v>
       </c>
-      <c r="E4" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="F4" t="s">
-        <v>22</v>
+      <c r="E4" s="21">
+        <v>7</v>
+      </c>
+      <c r="F4" s="22">
+        <v>1</v>
       </c>
       <c r="H4">
         <v>1</v>
       </c>
     </row>
-    <row r="5" ht="14.25" spans="1:8">
+    <row r="5" spans="1:8">
       <c r="A5">
         <v>102</v>
       </c>
-      <c r="B5" t="s">
-        <v>23</v>
+      <c r="B5" s="19" t="s">
+        <v>21</v>
       </c>
       <c r="C5" s="20" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D5" s="4">
         <v>2</v>
       </c>
-      <c r="E5" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="F5" t="s">
-        <v>26</v>
-      </c>
-      <c r="G5"/>
+      <c r="E5" s="21">
+        <v>9</v>
+      </c>
+      <c r="F5" s="22">
+        <v>3</v>
+      </c>
       <c r="H5">
         <v>1</v>
       </c>
     </row>
-    <row r="6" ht="14.25" spans="1:8">
+    <row r="6" spans="1:8">
       <c r="A6">
         <v>103</v>
       </c>
-      <c r="B6" t="s">
-        <v>27</v>
+      <c r="B6" s="19" t="s">
+        <v>23</v>
       </c>
       <c r="C6" s="20" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D6" s="4">
         <v>2</v>
       </c>
-      <c r="E6" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="F6" t="s">
-        <v>30</v>
-      </c>
-      <c r="G6"/>
+      <c r="E6" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="F6" s="22" t="s">
+        <v>26</v>
+      </c>
       <c r="H6">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" ht="14.25" spans="1:8">
       <c r="A7">
         <v>104</v>
       </c>
-      <c r="B7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>31</v>
+      <c r="B7" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" s="23" t="s">
+        <v>28</v>
       </c>
       <c r="D7" s="4">
         <v>2</v>
       </c>
-      <c r="E7" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="F7" t="s">
-        <v>32</v>
-      </c>
-      <c r="G7"/>
+      <c r="E7" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="F7" s="22" t="s">
+        <v>30</v>
+      </c>
       <c r="H7">
         <v>2</v>
       </c>
@@ -2180,1022 +2378,994 @@
       <c r="A8">
         <v>105</v>
       </c>
-      <c r="B8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" s="20" t="s">
-        <v>24</v>
+      <c r="B8" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" s="23" t="s">
+        <v>32</v>
       </c>
       <c r="D8" s="4">
         <v>2</v>
       </c>
-      <c r="E8" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="F8" t="s">
-        <v>26</v>
-      </c>
-      <c r="G8"/>
+      <c r="E8" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="F8" s="22" t="s">
+        <v>34</v>
+      </c>
       <c r="H8">
         <v>2</v>
       </c>
     </row>
-    <row r="9" ht="14.25" spans="1:8">
+    <row r="9" ht="15" customHeight="1" spans="1:8">
       <c r="A9">
         <v>106</v>
       </c>
-      <c r="B9" t="s">
-        <v>27</v>
-      </c>
-      <c r="C9" s="20" t="s">
-        <v>28</v>
+      <c r="B9" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="C9" s="23" t="s">
+        <v>36</v>
       </c>
       <c r="D9" s="4">
         <v>2</v>
       </c>
-      <c r="E9" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="F9" t="s">
+      <c r="E9" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="F9" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="H9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" ht="14.25" spans="1:8">
+      <c r="A10">
+        <v>107</v>
+      </c>
+      <c r="B10" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="C10" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="D10" s="4">
+        <v>2</v>
+      </c>
+      <c r="E10" s="21">
+        <v>9</v>
+      </c>
+      <c r="F10" s="22">
+        <v>5</v>
+      </c>
+      <c r="H10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" ht="14.25" spans="1:8">
+      <c r="A11">
+        <v>108</v>
+      </c>
+      <c r="B11" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="C11" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="D11" s="4">
+        <v>2</v>
+      </c>
+      <c r="E11" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="F11" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="H11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" ht="14.25" spans="1:8">
+      <c r="A12">
+        <v>109</v>
+      </c>
+      <c r="B12" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="C12" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="D12" s="4">
+        <v>2</v>
+      </c>
+      <c r="E12" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="F12" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="G9"/>
-      <c r="H9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" ht="27" spans="1:8">
-      <c r="A10">
-        <v>1</v>
-      </c>
-      <c r="B10" t="s">
-        <v>33</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="D10">
-        <v>1</v>
-      </c>
-      <c r="E10" s="8">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="H10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" ht="40.5" spans="1:8">
-      <c r="A11">
-        <v>2</v>
-      </c>
-      <c r="B11" t="s">
-        <v>36</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="D11">
-        <v>1</v>
-      </c>
-      <c r="E11" s="8">
-        <v>1</v>
-      </c>
-      <c r="F11">
-        <v>2</v>
-      </c>
-      <c r="G11" s="4" t="s">
+      <c r="H12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" ht="14.25" spans="1:8">
+      <c r="A13">
+        <v>110</v>
+      </c>
+      <c r="B13" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="C13" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="D13" s="4">
+        <v>2</v>
+      </c>
+      <c r="E13" s="21">
+        <v>7</v>
+      </c>
+      <c r="F13" s="22">
+        <v>1</v>
+      </c>
+      <c r="H13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" ht="14.25" spans="1:8">
+      <c r="A14">
+        <v>111</v>
+      </c>
+      <c r="B14" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="C14" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="D14" s="4">
+        <v>2</v>
+      </c>
+      <c r="E14" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="F14" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="H14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" ht="14.25" spans="1:8">
+      <c r="A15">
+        <v>112</v>
+      </c>
+      <c r="B15" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="C15" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="D15" s="4">
+        <v>2</v>
+      </c>
+      <c r="E15" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="F15" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="H15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" ht="14.25" spans="1:8">
+      <c r="A16">
+        <v>113</v>
+      </c>
+      <c r="B16" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="C16" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="D16" s="4">
+        <v>2</v>
+      </c>
+      <c r="E16" s="21">
+        <v>9</v>
+      </c>
+      <c r="F16" s="22">
+        <v>2</v>
+      </c>
+      <c r="H16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" ht="14.25" spans="1:8">
+      <c r="A17">
+        <v>114</v>
+      </c>
+      <c r="B17" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="C17" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="D17" s="4">
+        <v>2</v>
+      </c>
+      <c r="E17" s="21">
+        <v>9</v>
+      </c>
+      <c r="F17" s="22">
+        <v>2</v>
+      </c>
+      <c r="H17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" ht="14.25" spans="1:8">
+      <c r="A18">
+        <v>115</v>
+      </c>
+      <c r="B18" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="C18" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="D18" s="4">
+        <v>2</v>
+      </c>
+      <c r="E18" s="21">
+        <v>8</v>
+      </c>
+      <c r="F18" s="22">
+        <v>0.05</v>
+      </c>
+      <c r="H18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" ht="14.25" spans="1:8">
+      <c r="A19">
+        <v>116</v>
+      </c>
+      <c r="B19" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="C19" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="D19" s="4">
+        <v>2</v>
+      </c>
+      <c r="E19" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="F19" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="H19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" ht="14.25" spans="1:8">
+      <c r="A20">
+        <v>117</v>
+      </c>
+      <c r="B20" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="C20" s="23" t="s">
+        <v>68</v>
+      </c>
+      <c r="D20" s="4">
+        <v>2</v>
+      </c>
+      <c r="E20" s="21" t="s">
+        <v>69</v>
+      </c>
+      <c r="F20" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="H20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" ht="14.25" spans="1:8">
+      <c r="A21">
+        <v>118</v>
+      </c>
+      <c r="B21" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="C21" s="23" t="s">
+        <v>72</v>
+      </c>
+      <c r="D21" s="4">
+        <v>2</v>
+      </c>
+      <c r="E21" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="F21" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="H21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" ht="14.25" spans="1:8">
+      <c r="A22">
+        <v>119</v>
+      </c>
+      <c r="B22" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="C22" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="D22" s="4">
+        <v>2</v>
+      </c>
+      <c r="E22" s="21" t="s">
+        <v>77</v>
+      </c>
+      <c r="F22" s="25" t="s">
+        <v>78</v>
+      </c>
+      <c r="H22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" ht="14.25" spans="1:8">
+      <c r="A23">
+        <v>120</v>
+      </c>
+      <c r="B23" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="C23" s="23" t="s">
+        <v>80</v>
+      </c>
+      <c r="D23" s="4">
+        <v>2</v>
+      </c>
+      <c r="E23" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="H11">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" ht="27" spans="1:8">
-      <c r="A12">
-        <v>3</v>
-      </c>
-      <c r="B12" t="s">
-        <v>38</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="D12">
-        <v>1</v>
-      </c>
-      <c r="E12" s="8">
-        <v>1</v>
-      </c>
-      <c r="F12">
-        <v>3</v>
-      </c>
-      <c r="G12" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="H12">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" ht="27" spans="1:8">
-      <c r="A13">
-        <v>4</v>
-      </c>
-      <c r="B13" t="s">
+      <c r="F23" s="22" t="s">
+        <v>81</v>
+      </c>
+      <c r="H23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" ht="14.25" spans="1:8">
+      <c r="A24">
+        <v>121</v>
+      </c>
+      <c r="B24" s="19" t="s">
+        <v>82</v>
+      </c>
+      <c r="C24" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="C13" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="D13">
-        <v>1</v>
-      </c>
-      <c r="E13" s="8">
-        <v>2</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="H13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="A14">
+      <c r="D24" s="4">
+        <v>2</v>
+      </c>
+      <c r="E24" s="21">
+        <v>9</v>
+      </c>
+      <c r="F24" s="22">
         <v>5</v>
       </c>
-      <c r="B14" t="s">
-        <v>43</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="D14">
-        <v>1</v>
-      </c>
-      <c r="E14" s="8">
-        <v>2</v>
-      </c>
-      <c r="F14">
-        <v>2</v>
-      </c>
-      <c r="G14" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="H14">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
-      <c r="A15">
-        <v>6</v>
-      </c>
-      <c r="B15" t="s">
-        <v>45</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="D15">
-        <v>1</v>
-      </c>
-      <c r="E15" s="8">
-        <v>2</v>
-      </c>
-      <c r="F15">
-        <v>3</v>
-      </c>
-      <c r="G15" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="H15">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" ht="27" spans="1:8">
-      <c r="A16">
+      <c r="H24">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" ht="14.25" spans="1:8">
+      <c r="A25">
+        <v>122</v>
+      </c>
+      <c r="B25" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="C25" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="D25" s="4">
+        <v>2</v>
+      </c>
+      <c r="E25" s="21">
         <v>7</v>
       </c>
-      <c r="B16" t="s">
-        <v>47</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="D16">
-        <v>1</v>
-      </c>
-      <c r="E16" s="8">
-        <v>3</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="H16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
-      <c r="A17">
-        <v>8</v>
-      </c>
-      <c r="B17" t="s">
-        <v>50</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="D17">
-        <v>1</v>
-      </c>
-      <c r="E17" s="8">
-        <v>3</v>
-      </c>
-      <c r="F17">
-        <v>2</v>
-      </c>
-      <c r="G17" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="H17">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
-      <c r="A18">
-        <v>9</v>
-      </c>
-      <c r="B18" t="s">
-        <v>52</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="D18">
-        <v>1</v>
-      </c>
-      <c r="E18" s="8">
-        <v>3</v>
-      </c>
-      <c r="F18">
-        <v>3</v>
-      </c>
-      <c r="G18" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="H18">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" ht="40.5" spans="1:8">
-      <c r="A19">
-        <v>10</v>
-      </c>
-      <c r="B19" t="s">
-        <v>54</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="D19">
-        <v>1</v>
-      </c>
-      <c r="E19" s="8">
-        <v>5</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-      <c r="G19" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="H19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
-      <c r="A20">
-        <v>11</v>
-      </c>
-      <c r="B20" t="s">
-        <v>57</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="D20">
-        <v>1</v>
-      </c>
-      <c r="E20" s="8">
-        <v>5</v>
-      </c>
-      <c r="F20">
-        <v>2</v>
-      </c>
-      <c r="G20" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="H20">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
-      <c r="A21">
-        <v>12</v>
-      </c>
-      <c r="B21" t="s">
-        <v>59</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="D21">
-        <v>1</v>
-      </c>
-      <c r="E21" s="8">
-        <v>5</v>
-      </c>
-      <c r="F21">
-        <v>3</v>
-      </c>
-      <c r="G21" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="H21">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" ht="27" spans="1:8">
-      <c r="A22">
-        <v>13</v>
-      </c>
-      <c r="B22" t="s">
-        <v>61</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="D22">
-        <v>1</v>
-      </c>
-      <c r="E22" s="8">
-        <v>6</v>
-      </c>
-      <c r="F22">
-        <v>1</v>
-      </c>
-      <c r="G22" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="H22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
-      <c r="A23">
-        <v>14</v>
-      </c>
-      <c r="B23" t="s">
-        <v>64</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="D23">
-        <v>1</v>
-      </c>
-      <c r="E23" s="8">
-        <v>6</v>
-      </c>
-      <c r="F23">
-        <v>2</v>
-      </c>
-      <c r="G23" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="H23">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
-      <c r="A24">
-        <v>15</v>
-      </c>
-      <c r="B24" t="s">
-        <v>66</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="D24">
-        <v>1</v>
-      </c>
-      <c r="E24" s="8">
-        <v>6</v>
-      </c>
-      <c r="F24">
-        <v>3</v>
-      </c>
-      <c r="G24" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="H24">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" ht="40.5" spans="1:8">
-      <c r="A25">
-        <v>16</v>
-      </c>
-      <c r="B25" t="s">
-        <v>68</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="D25">
-        <v>3</v>
-      </c>
-      <c r="E25" s="8">
-        <v>201</v>
-      </c>
-      <c r="F25">
-        <v>-1</v>
-      </c>
-      <c r="G25" s="4" t="s">
-        <v>70</v>
+      <c r="F25" s="22">
+        <v>2</v>
       </c>
       <c r="H25">
         <v>2</v>
       </c>
     </row>
-    <row r="26" ht="27" spans="1:8">
+    <row r="26" ht="14.25" spans="1:8">
       <c r="A26">
-        <v>17</v>
-      </c>
-      <c r="B26" t="s">
-        <v>71</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="D26">
-        <v>3</v>
-      </c>
-      <c r="E26" s="8">
-        <v>202</v>
-      </c>
-      <c r="F26">
-        <v>-1</v>
-      </c>
-      <c r="G26" s="4" t="s">
-        <v>73</v>
+        <v>123</v>
+      </c>
+      <c r="B26" s="19" t="s">
+        <v>85</v>
+      </c>
+      <c r="C26" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="D26" s="4">
+        <v>2</v>
+      </c>
+      <c r="E26" s="21" t="s">
+        <v>87</v>
+      </c>
+      <c r="F26" s="22" t="s">
+        <v>88</v>
       </c>
       <c r="H26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" ht="40.5" spans="1:8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" ht="14.25" spans="1:8">
       <c r="A27">
-        <v>18</v>
-      </c>
-      <c r="B27" t="s">
-        <v>74</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="D27">
-        <v>3</v>
-      </c>
-      <c r="E27" s="8">
-        <v>203</v>
-      </c>
-      <c r="F27">
-        <v>-1</v>
-      </c>
-      <c r="G27" s="4" t="s">
-        <v>76</v>
+        <v>124</v>
+      </c>
+      <c r="B27" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="C27" s="23" t="s">
+        <v>90</v>
+      </c>
+      <c r="D27" s="4">
+        <v>2</v>
+      </c>
+      <c r="E27" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="F27" s="22" t="s">
+        <v>92</v>
       </c>
       <c r="H27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" ht="67.5" spans="1:8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" ht="14.25" spans="1:8">
       <c r="A28">
-        <v>19</v>
-      </c>
-      <c r="B28" t="s">
-        <v>77</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="D28">
-        <v>3</v>
-      </c>
-      <c r="E28" s="8">
-        <v>204</v>
-      </c>
-      <c r="F28">
-        <v>-1</v>
-      </c>
-      <c r="G28" s="4" t="s">
-        <v>79</v>
+        <v>125</v>
+      </c>
+      <c r="B28" s="19" t="s">
+        <v>93</v>
+      </c>
+      <c r="C28" s="23" t="s">
+        <v>94</v>
+      </c>
+      <c r="D28" s="4">
+        <v>2</v>
+      </c>
+      <c r="E28" s="21" t="s">
+        <v>95</v>
+      </c>
+      <c r="F28" s="22" t="s">
+        <v>96</v>
       </c>
       <c r="H28">
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:8">
+    <row r="29" ht="27" spans="1:8">
       <c r="A29">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="B29" t="s">
-        <v>80</v>
+        <v>97</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>81</v>
+        <v>98</v>
       </c>
       <c r="D29">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E29" s="8">
-        <v>301</v>
+        <v>1</v>
       </c>
       <c r="F29">
-        <v>-1</v>
-      </c>
-      <c r="G29" s="4"/>
+        <v>1</v>
+      </c>
+      <c r="G29" s="4" t="s">
+        <v>99</v>
+      </c>
       <c r="H29">
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:8">
+    <row r="30" ht="40.5" spans="1:8">
       <c r="A30">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="B30" t="s">
-        <v>82</v>
+        <v>100</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>83</v>
+        <v>98</v>
       </c>
       <c r="D30">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E30" s="8">
-        <v>302</v>
+        <v>1</v>
       </c>
       <c r="F30">
-        <v>-1</v>
-      </c>
-      <c r="G30" s="4"/>
+        <v>2</v>
+      </c>
+      <c r="G30" s="4" t="s">
+        <v>101</v>
+      </c>
       <c r="H30">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" ht="27" spans="1:8">
       <c r="A31">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="B31" t="s">
-        <v>84</v>
+        <v>102</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>85</v>
+        <v>98</v>
       </c>
       <c r="D31">
+        <v>1</v>
+      </c>
+      <c r="E31" s="8">
+        <v>1</v>
+      </c>
+      <c r="F31">
         <v>3</v>
       </c>
-      <c r="E31" s="8">
-        <v>303</v>
-      </c>
-      <c r="F31">
-        <v>-1</v>
-      </c>
       <c r="G31" s="4" t="s">
-        <v>86</v>
+        <v>103</v>
       </c>
       <c r="H31">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="32" ht="27" spans="1:8">
       <c r="A32">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="B32" t="s">
-        <v>87</v>
+        <v>104</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>88</v>
+        <v>105</v>
       </c>
       <c r="D32">
+        <v>1</v>
+      </c>
+      <c r="E32" s="8">
+        <v>2</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="H32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33">
+        <v>5</v>
+      </c>
+      <c r="B33" t="s">
+        <v>107</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="D33">
+        <v>1</v>
+      </c>
+      <c r="E33" s="8">
+        <v>2</v>
+      </c>
+      <c r="F33">
+        <v>2</v>
+      </c>
+      <c r="G33" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="H33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="A34">
+        <v>6</v>
+      </c>
+      <c r="B34" t="s">
+        <v>109</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="D34">
+        <v>1</v>
+      </c>
+      <c r="E34" s="8">
+        <v>2</v>
+      </c>
+      <c r="F34">
         <v>3</v>
       </c>
-      <c r="E32" s="8">
-        <v>304</v>
-      </c>
-      <c r="F32">
-        <v>-1</v>
-      </c>
-      <c r="G32" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="H32">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" ht="27" spans="1:8">
-      <c r="A33">
-        <v>24</v>
-      </c>
-      <c r="B33" t="s">
-        <v>90</v>
-      </c>
-      <c r="C33" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="D33">
+      <c r="G34" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="H34">
         <v>3</v>
       </c>
-      <c r="E33" s="8">
-        <v>305</v>
-      </c>
-      <c r="F33">
-        <v>-1</v>
-      </c>
-      <c r="G33" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="H33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" ht="40.5" spans="1:8">
-      <c r="A34">
-        <v>25</v>
-      </c>
-      <c r="B34" t="s">
-        <v>93</v>
-      </c>
-      <c r="C34" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="D34">
+    </row>
+    <row r="35" ht="27" spans="1:8">
+      <c r="A35">
+        <v>7</v>
+      </c>
+      <c r="B35" t="s">
+        <v>111</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="D35">
+        <v>1</v>
+      </c>
+      <c r="E35" s="8">
         <v>3</v>
       </c>
-      <c r="E34">
-        <v>401</v>
-      </c>
-      <c r="F34">
-        <v>-1</v>
-      </c>
-      <c r="H34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" ht="54" spans="1:8">
-      <c r="A35">
-        <v>26</v>
-      </c>
-      <c r="B35" t="s">
-        <v>95</v>
-      </c>
-      <c r="C35" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="D35">
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="H35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
+      <c r="A36">
+        <v>8</v>
+      </c>
+      <c r="B36" t="s">
+        <v>114</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="D36">
+        <v>1</v>
+      </c>
+      <c r="E36" s="8">
         <v>3</v>
       </c>
-      <c r="E35">
-        <v>402</v>
-      </c>
-      <c r="F35">
-        <v>-1</v>
-      </c>
-      <c r="H35">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" ht="40.5" spans="1:8">
-      <c r="A36">
-        <v>27</v>
-      </c>
-      <c r="B36" t="s">
-        <v>97</v>
-      </c>
-      <c r="C36" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="D36">
+      <c r="F36">
+        <v>2</v>
+      </c>
+      <c r="G36" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="H36">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
+      <c r="A37">
+        <v>9</v>
+      </c>
+      <c r="B37" t="s">
+        <v>116</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="D37">
+        <v>1</v>
+      </c>
+      <c r="E37" s="8">
         <v>3</v>
       </c>
-      <c r="E36">
-        <v>403</v>
-      </c>
-      <c r="F36">
-        <v>-1</v>
-      </c>
-      <c r="H36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" ht="40.5" spans="1:8">
-      <c r="A37">
-        <v>28</v>
-      </c>
-      <c r="B37" t="s">
-        <v>99</v>
-      </c>
-      <c r="C37" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="D37">
+      <c r="F37">
         <v>3</v>
       </c>
-      <c r="E37">
-        <v>404</v>
-      </c>
-      <c r="F37">
-        <v>-1</v>
+      <c r="G37" s="4" t="s">
+        <v>117</v>
       </c>
       <c r="H37">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="38" ht="40.5" spans="1:8">
       <c r="A38">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="B38" t="s">
-        <v>101</v>
+        <v>118</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>102</v>
+        <v>119</v>
       </c>
       <c r="D38">
+        <v>1</v>
+      </c>
+      <c r="E38" s="8">
+        <v>5</v>
+      </c>
+      <c r="F38">
+        <v>1</v>
+      </c>
+      <c r="G38" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="H38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
+      <c r="A39">
+        <v>11</v>
+      </c>
+      <c r="B39" t="s">
+        <v>121</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="D39">
+        <v>1</v>
+      </c>
+      <c r="E39" s="8">
+        <v>5</v>
+      </c>
+      <c r="F39">
+        <v>2</v>
+      </c>
+      <c r="G39" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="H39">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
+      <c r="A40">
+        <v>12</v>
+      </c>
+      <c r="B40" t="s">
+        <v>123</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="D40">
+        <v>1</v>
+      </c>
+      <c r="E40" s="8">
+        <v>5</v>
+      </c>
+      <c r="F40">
         <v>3</v>
       </c>
-      <c r="E38">
-        <v>405</v>
-      </c>
-      <c r="F38">
-        <v>-1</v>
-      </c>
-      <c r="G38" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="H38">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="39" ht="27" spans="1:8">
-      <c r="A39">
-        <v>30</v>
-      </c>
-      <c r="B39" t="s">
-        <v>104</v>
-      </c>
-      <c r="C39" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="D39">
+      <c r="G40" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="H40">
         <v>3</v>
-      </c>
-      <c r="E39">
-        <v>406</v>
-      </c>
-      <c r="F39">
-        <v>-1</v>
-      </c>
-      <c r="H39">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="40" ht="40.5" spans="1:8">
-      <c r="A40">
-        <v>31</v>
-      </c>
-      <c r="B40" t="s">
-        <v>106</v>
-      </c>
-      <c r="C40" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="D40">
-        <v>3</v>
-      </c>
-      <c r="E40">
-        <v>501</v>
-      </c>
-      <c r="F40">
-        <v>-1</v>
-      </c>
-      <c r="G40" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="H40">
-        <v>1</v>
       </c>
     </row>
     <row r="41" ht="27" spans="1:8">
       <c r="A41">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="B41" t="s">
-        <v>109</v>
+        <v>125</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>110</v>
+        <v>126</v>
       </c>
       <c r="D41">
+        <v>1</v>
+      </c>
+      <c r="E41" s="8">
+        <v>6</v>
+      </c>
+      <c r="F41">
+        <v>1</v>
+      </c>
+      <c r="G41" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="H41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
+      <c r="A42">
+        <v>14</v>
+      </c>
+      <c r="B42" t="s">
+        <v>128</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="D42">
+        <v>1</v>
+      </c>
+      <c r="E42" s="8">
+        <v>6</v>
+      </c>
+      <c r="F42">
+        <v>2</v>
+      </c>
+      <c r="G42" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="H42">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
+      <c r="A43">
+        <v>15</v>
+      </c>
+      <c r="B43" t="s">
+        <v>130</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="D43">
+        <v>1</v>
+      </c>
+      <c r="E43" s="8">
+        <v>6</v>
+      </c>
+      <c r="F43">
         <v>3</v>
       </c>
-      <c r="E41">
-        <v>502</v>
-      </c>
-      <c r="F41">
-        <v>-1</v>
-      </c>
-      <c r="H41">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" ht="27" spans="1:8">
-      <c r="A42">
-        <v>33</v>
-      </c>
-      <c r="B42" t="s">
-        <v>111</v>
-      </c>
-      <c r="C42" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="D42">
+      <c r="G43" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="H43">
         <v>3</v>
       </c>
-      <c r="E42">
-        <v>503</v>
-      </c>
-      <c r="F42">
-        <v>-1</v>
-      </c>
-      <c r="H42">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" ht="27" spans="1:8">
-      <c r="A43">
-        <v>34</v>
-      </c>
-      <c r="B43" t="s">
-        <v>113</v>
-      </c>
-      <c r="C43" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="D43">
-        <v>3</v>
-      </c>
-      <c r="E43">
-        <v>504</v>
-      </c>
-      <c r="F43">
-        <v>-1</v>
-      </c>
-      <c r="H43">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="44" ht="54" spans="1:8">
+    </row>
+    <row r="44" ht="40.5" spans="1:8">
       <c r="A44">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="B44" t="s">
-        <v>114</v>
+        <v>132</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>115</v>
+        <v>133</v>
       </c>
       <c r="D44">
         <v>3</v>
       </c>
-      <c r="E44">
-        <v>505</v>
+      <c r="E44" s="8">
+        <v>201</v>
       </c>
       <c r="F44">
         <v>-1</v>
       </c>
       <c r="G44" s="4" t="s">
-        <v>116</v>
+        <v>134</v>
       </c>
       <c r="H44">
         <v>2</v>
       </c>
     </row>
-    <row r="45" ht="40.5" spans="1:8">
+    <row r="45" ht="27" spans="1:8">
       <c r="A45">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="B45" t="s">
-        <v>117</v>
+        <v>135</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>118</v>
+        <v>136</v>
       </c>
       <c r="D45">
         <v>3</v>
       </c>
-      <c r="E45">
-        <v>506</v>
+      <c r="E45" s="8">
+        <v>202</v>
       </c>
       <c r="F45">
         <v>-1</v>
       </c>
       <c r="G45" s="4" t="s">
-        <v>119</v>
+        <v>137</v>
       </c>
       <c r="H45">
         <v>1</v>
       </c>
     </row>
-    <row r="46" ht="27" spans="1:8">
+    <row r="46" ht="40.5" spans="1:8">
       <c r="A46">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="B46" t="s">
-        <v>120</v>
+        <v>138</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>121</v>
+        <v>139</v>
       </c>
       <c r="D46">
         <v>3</v>
       </c>
-      <c r="E46">
-        <v>601</v>
+      <c r="E46" s="8">
+        <v>203</v>
       </c>
       <c r="F46">
         <v>-1</v>
       </c>
+      <c r="G46" s="4" t="s">
+        <v>140</v>
+      </c>
       <c r="H46">
         <v>1</v>
       </c>
     </row>
-    <row r="47" ht="40.5" spans="1:8">
+    <row r="47" ht="67.5" spans="1:8">
       <c r="A47">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="B47" t="s">
-        <v>122</v>
+        <v>141</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>123</v>
+        <v>142</v>
       </c>
       <c r="D47">
         <v>3</v>
       </c>
-      <c r="E47">
-        <v>602</v>
+      <c r="E47" s="8">
+        <v>204</v>
       </c>
       <c r="F47">
         <v>-1</v>
       </c>
       <c r="G47" s="4" t="s">
-        <v>124</v>
+        <v>143</v>
       </c>
       <c r="H47">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:8">
       <c r="A48">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="B48" t="s">
-        <v>125</v>
+        <v>144</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>126</v>
+        <v>145</v>
       </c>
       <c r="D48">
         <v>3</v>
       </c>
-      <c r="E48">
-        <v>603</v>
+      <c r="E48" s="8">
+        <v>301</v>
       </c>
       <c r="F48">
         <v>-1</v>
@@ -3207,19 +3377,19 @@
     </row>
     <row r="49" spans="1:8">
       <c r="A49">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="B49" t="s">
-        <v>127</v>
+        <v>146</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>128</v>
+        <v>147</v>
       </c>
       <c r="D49">
         <v>3</v>
       </c>
-      <c r="E49">
-        <v>604</v>
+      <c r="E49" s="8">
+        <v>302</v>
       </c>
       <c r="F49">
         <v>-1</v>
@@ -3229,141 +3399,604 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:8">
+    <row r="50" ht="27" spans="1:8">
       <c r="A50">
-        <v>41</v>
-      </c>
-      <c r="B50" s="8" t="s">
-        <v>129</v>
-      </c>
-      <c r="C50" s="21" t="s">
-        <v>130</v>
+        <v>22</v>
+      </c>
+      <c r="B50" t="s">
+        <v>148</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>149</v>
       </c>
       <c r="D50">
-        <v>4</v>
-      </c>
-      <c r="E50">
-        <v>1001</v>
+        <v>3</v>
+      </c>
+      <c r="E50" s="8">
+        <v>303</v>
       </c>
       <c r="F50">
         <v>-1</v>
       </c>
+      <c r="G50" s="4" t="s">
+        <v>150</v>
+      </c>
       <c r="H50">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51" ht="27" spans="1:8">
       <c r="A51">
-        <v>42</v>
-      </c>
-      <c r="B51" s="8" t="s">
-        <v>131</v>
-      </c>
-      <c r="C51" s="21" t="s">
-        <v>132</v>
+        <v>23</v>
+      </c>
+      <c r="B51" t="s">
+        <v>151</v>
+      </c>
+      <c r="C51" s="4" t="s">
+        <v>152</v>
       </c>
       <c r="D51">
-        <v>4</v>
-      </c>
-      <c r="E51">
-        <v>1002</v>
+        <v>3</v>
+      </c>
+      <c r="E51" s="8">
+        <v>304</v>
       </c>
       <c r="F51">
         <v>-1</v>
       </c>
+      <c r="G51" s="4" t="s">
+        <v>153</v>
+      </c>
       <c r="H51">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" ht="27" spans="1:8">
       <c r="A52">
-        <v>43</v>
-      </c>
-      <c r="B52" s="8" t="s">
-        <v>133</v>
-      </c>
-      <c r="C52" s="21" t="s">
-        <v>134</v>
+        <v>24</v>
+      </c>
+      <c r="B52" t="s">
+        <v>154</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>155</v>
       </c>
       <c r="D52">
-        <v>4</v>
-      </c>
-      <c r="E52">
-        <v>1003</v>
+        <v>3</v>
+      </c>
+      <c r="E52" s="8">
+        <v>305</v>
       </c>
       <c r="F52">
         <v>-1</v>
       </c>
+      <c r="G52" s="4" t="s">
+        <v>156</v>
+      </c>
       <c r="H52">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" ht="40.5" spans="1:8">
       <c r="A53">
-        <v>44</v>
-      </c>
-      <c r="B53" s="8" t="s">
-        <v>135</v>
-      </c>
-      <c r="C53" s="21" t="s">
-        <v>136</v>
+        <v>25</v>
+      </c>
+      <c r="B53" t="s">
+        <v>157</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>158</v>
       </c>
       <c r="D53">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E53">
-        <v>1004</v>
+        <v>401</v>
       </c>
       <c r="F53">
         <v>-1</v>
       </c>
       <c r="H53">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" ht="54" spans="1:8">
       <c r="A54">
-        <v>45</v>
-      </c>
-      <c r="B54" s="8" t="s">
-        <v>137</v>
-      </c>
-      <c r="C54" s="21" t="s">
-        <v>138</v>
+        <v>26</v>
+      </c>
+      <c r="B54" t="s">
+        <v>159</v>
+      </c>
+      <c r="C54" s="4" t="s">
+        <v>160</v>
       </c>
       <c r="D54">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E54">
-        <v>1005</v>
+        <v>402</v>
       </c>
       <c r="F54">
         <v>-1</v>
       </c>
       <c r="H54">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" ht="40.5" spans="1:8">
       <c r="A55">
-        <v>46</v>
-      </c>
-      <c r="B55" s="8" t="s">
-        <v>139</v>
-      </c>
-      <c r="C55" s="21" t="s">
-        <v>140</v>
+        <v>27</v>
+      </c>
+      <c r="B55" t="s">
+        <v>161</v>
+      </c>
+      <c r="C55" s="4" t="s">
+        <v>162</v>
       </c>
       <c r="D55">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E55">
-        <v>1006</v>
+        <v>403</v>
       </c>
       <c r="F55">
         <v>-1</v>
       </c>
       <c r="H55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" ht="40.5" spans="1:8">
+      <c r="A56">
+        <v>28</v>
+      </c>
+      <c r="B56" t="s">
+        <v>163</v>
+      </c>
+      <c r="C56" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="D56">
+        <v>3</v>
+      </c>
+      <c r="E56">
+        <v>404</v>
+      </c>
+      <c r="F56">
+        <v>-1</v>
+      </c>
+      <c r="H56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" ht="40.5" spans="1:8">
+      <c r="A57">
+        <v>29</v>
+      </c>
+      <c r="B57" t="s">
+        <v>165</v>
+      </c>
+      <c r="C57" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="D57">
+        <v>3</v>
+      </c>
+      <c r="E57">
+        <v>405</v>
+      </c>
+      <c r="F57">
+        <v>-1</v>
+      </c>
+      <c r="G57" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="H57">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58" ht="27" spans="1:8">
+      <c r="A58">
+        <v>30</v>
+      </c>
+      <c r="B58" t="s">
+        <v>168</v>
+      </c>
+      <c r="C58" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="D58">
+        <v>3</v>
+      </c>
+      <c r="E58">
+        <v>406</v>
+      </c>
+      <c r="F58">
+        <v>-1</v>
+      </c>
+      <c r="H58">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59" ht="40.5" spans="1:8">
+      <c r="A59">
+        <v>31</v>
+      </c>
+      <c r="B59" t="s">
+        <v>170</v>
+      </c>
+      <c r="C59" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="D59">
+        <v>3</v>
+      </c>
+      <c r="E59">
+        <v>501</v>
+      </c>
+      <c r="F59">
+        <v>-1</v>
+      </c>
+      <c r="G59" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="H59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" ht="27" spans="1:8">
+      <c r="A60">
+        <v>32</v>
+      </c>
+      <c r="B60" t="s">
+        <v>173</v>
+      </c>
+      <c r="C60" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="D60">
+        <v>3</v>
+      </c>
+      <c r="E60">
+        <v>502</v>
+      </c>
+      <c r="F60">
+        <v>-1</v>
+      </c>
+      <c r="H60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" ht="27" spans="1:8">
+      <c r="A61">
+        <v>33</v>
+      </c>
+      <c r="B61" t="s">
+        <v>175</v>
+      </c>
+      <c r="C61" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="D61">
+        <v>3</v>
+      </c>
+      <c r="E61">
+        <v>503</v>
+      </c>
+      <c r="F61">
+        <v>-1</v>
+      </c>
+      <c r="H61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" ht="27" spans="1:8">
+      <c r="A62">
+        <v>34</v>
+      </c>
+      <c r="B62" t="s">
+        <v>177</v>
+      </c>
+      <c r="C62" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="D62">
+        <v>3</v>
+      </c>
+      <c r="E62">
+        <v>504</v>
+      </c>
+      <c r="F62">
+        <v>-1</v>
+      </c>
+      <c r="H62">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63" ht="54" spans="1:8">
+      <c r="A63">
+        <v>35</v>
+      </c>
+      <c r="B63" t="s">
+        <v>178</v>
+      </c>
+      <c r="C63" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="D63">
+        <v>3</v>
+      </c>
+      <c r="E63">
+        <v>505</v>
+      </c>
+      <c r="F63">
+        <v>-1</v>
+      </c>
+      <c r="G63" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="H63">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64" ht="40.5" spans="1:8">
+      <c r="A64">
+        <v>36</v>
+      </c>
+      <c r="B64" t="s">
+        <v>181</v>
+      </c>
+      <c r="C64" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="D64">
+        <v>3</v>
+      </c>
+      <c r="E64">
+        <v>506</v>
+      </c>
+      <c r="F64">
+        <v>-1</v>
+      </c>
+      <c r="G64" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="H64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" ht="27" spans="1:8">
+      <c r="A65">
+        <v>37</v>
+      </c>
+      <c r="B65" t="s">
+        <v>184</v>
+      </c>
+      <c r="C65" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="D65">
+        <v>3</v>
+      </c>
+      <c r="E65">
+        <v>601</v>
+      </c>
+      <c r="F65">
+        <v>-1</v>
+      </c>
+      <c r="H65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" ht="40.5" spans="1:8">
+      <c r="A66">
+        <v>38</v>
+      </c>
+      <c r="B66" t="s">
+        <v>186</v>
+      </c>
+      <c r="C66" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="D66">
+        <v>3</v>
+      </c>
+      <c r="E66">
+        <v>602</v>
+      </c>
+      <c r="F66">
+        <v>-1</v>
+      </c>
+      <c r="G66" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="H66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
+      <c r="A67">
+        <v>39</v>
+      </c>
+      <c r="B67" t="s">
+        <v>189</v>
+      </c>
+      <c r="C67" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="D67">
+        <v>3</v>
+      </c>
+      <c r="E67">
+        <v>603</v>
+      </c>
+      <c r="F67">
+        <v>-1</v>
+      </c>
+      <c r="G67" s="4"/>
+      <c r="H67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
+      <c r="A68">
+        <v>40</v>
+      </c>
+      <c r="B68" t="s">
+        <v>191</v>
+      </c>
+      <c r="C68" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="D68">
+        <v>3</v>
+      </c>
+      <c r="E68">
+        <v>604</v>
+      </c>
+      <c r="F68">
+        <v>-1</v>
+      </c>
+      <c r="G68" s="4"/>
+      <c r="H68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
+      <c r="A69">
+        <v>41</v>
+      </c>
+      <c r="B69" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="C69" s="24" t="s">
+        <v>194</v>
+      </c>
+      <c r="D69">
+        <v>4</v>
+      </c>
+      <c r="E69">
+        <v>1001</v>
+      </c>
+      <c r="F69">
+        <v>-1</v>
+      </c>
+      <c r="H69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
+      <c r="A70">
+        <v>42</v>
+      </c>
+      <c r="B70" s="8" t="s">
+        <v>195</v>
+      </c>
+      <c r="C70" s="24" t="s">
+        <v>196</v>
+      </c>
+      <c r="D70">
+        <v>4</v>
+      </c>
+      <c r="E70">
+        <v>1002</v>
+      </c>
+      <c r="F70">
+        <v>-1</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
+      <c r="A71">
+        <v>43</v>
+      </c>
+      <c r="B71" s="8" t="s">
+        <v>197</v>
+      </c>
+      <c r="C71" s="24" t="s">
+        <v>198</v>
+      </c>
+      <c r="D71">
+        <v>4</v>
+      </c>
+      <c r="E71">
+        <v>1003</v>
+      </c>
+      <c r="F71">
+        <v>-1</v>
+      </c>
+      <c r="H71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
+      <c r="A72">
+        <v>44</v>
+      </c>
+      <c r="B72" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="C72" s="24" t="s">
+        <v>200</v>
+      </c>
+      <c r="D72">
+        <v>4</v>
+      </c>
+      <c r="E72">
+        <v>1004</v>
+      </c>
+      <c r="F72">
+        <v>-1</v>
+      </c>
+      <c r="H72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
+      <c r="A73">
+        <v>45</v>
+      </c>
+      <c r="B73" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="C73" s="24" t="s">
+        <v>202</v>
+      </c>
+      <c r="D73">
+        <v>4</v>
+      </c>
+      <c r="E73">
+        <v>1005</v>
+      </c>
+      <c r="F73">
+        <v>-1</v>
+      </c>
+      <c r="H73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
+      <c r="A74">
+        <v>46</v>
+      </c>
+      <c r="B74" s="8" t="s">
+        <v>203</v>
+      </c>
+      <c r="C74" s="24" t="s">
+        <v>204</v>
+      </c>
+      <c r="D74">
+        <v>4</v>
+      </c>
+      <c r="E74">
+        <v>1006</v>
+      </c>
+      <c r="F74">
+        <v>-1</v>
+      </c>
+      <c r="H74">
         <v>0</v>
       </c>
     </row>
@@ -3377,10 +4010,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L23"/>
+  <dimension ref="A1:L25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q27" sqref="Q27"/>
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3393,46 +4026,46 @@
     <col min="8" max="8" width="10.375" style="10" customWidth="1"/>
     <col min="9" max="9" width="16" customWidth="1"/>
     <col min="10" max="10" width="12.625" customWidth="1"/>
-    <col min="11" max="11" width="10.875" style="11" customWidth="1"/>
+    <col min="11" max="11" width="10.875" style="9" customWidth="1"/>
     <col min="12" max="12" width="10" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" t="s">
-        <v>141</v>
+        <v>205</v>
       </c>
       <c r="B1" t="s">
-        <v>142</v>
-      </c>
-      <c r="C1" s="12" t="s">
-        <v>143</v>
-      </c>
-      <c r="D1" s="13" t="s">
-        <v>144</v>
-      </c>
-      <c r="E1" s="14" t="s">
-        <v>145</v>
-      </c>
-      <c r="F1" s="15" t="s">
-        <v>146</v>
-      </c>
-      <c r="G1" s="15" t="s">
-        <v>147</v>
-      </c>
-      <c r="H1" s="16" t="s">
-        <v>148</v>
-      </c>
-      <c r="I1" s="17" t="s">
-        <v>149</v>
-      </c>
-      <c r="J1" s="17" t="s">
-        <v>150</v>
-      </c>
-      <c r="K1" s="18" t="s">
-        <v>151</v>
-      </c>
-      <c r="L1" s="19" t="s">
-        <v>152</v>
+        <v>206</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>207</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>208</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>209</v>
+      </c>
+      <c r="F1" s="14" t="s">
+        <v>210</v>
+      </c>
+      <c r="G1" s="14" t="s">
+        <v>211</v>
+      </c>
+      <c r="H1" s="15" t="s">
+        <v>212</v>
+      </c>
+      <c r="I1" s="16" t="s">
+        <v>213</v>
+      </c>
+      <c r="J1" s="16" t="s">
+        <v>214</v>
+      </c>
+      <c r="K1" s="17" t="s">
+        <v>215</v>
+      </c>
+      <c r="L1" s="18" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="2" spans="1:12">
@@ -3443,72 +4076,72 @@
         <v>8</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>153</v>
+        <v>217</v>
       </c>
       <c r="D2" t="s">
-        <v>153</v>
+        <v>217</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>153</v>
+        <v>217</v>
       </c>
       <c r="F2" t="s">
-        <v>153</v>
+        <v>217</v>
       </c>
       <c r="G2" t="s">
-        <v>153</v>
+        <v>217</v>
       </c>
       <c r="H2" s="10" t="s">
-        <v>153</v>
+        <v>217</v>
       </c>
       <c r="I2" t="s">
-        <v>153</v>
+        <v>217</v>
       </c>
       <c r="J2" t="s">
-        <v>153</v>
-      </c>
-      <c r="K2" s="11" t="s">
-        <v>153</v>
+        <v>217</v>
+      </c>
+      <c r="K2" s="9" t="s">
+        <v>217</v>
       </c>
       <c r="L2" t="s">
-        <v>153</v>
+        <v>217</v>
       </c>
     </row>
     <row r="3" ht="27" spans="1:12">
       <c r="A3" t="s">
-        <v>154</v>
+        <v>218</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>155</v>
+        <v>219</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>156</v>
+        <v>220</v>
       </c>
       <c r="D3" t="s">
-        <v>157</v>
+        <v>221</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>158</v>
+        <v>222</v>
       </c>
       <c r="F3" t="s">
-        <v>159</v>
+        <v>223</v>
       </c>
       <c r="G3" t="s">
-        <v>160</v>
+        <v>224</v>
       </c>
       <c r="H3" s="10" t="s">
-        <v>161</v>
+        <v>225</v>
       </c>
       <c r="I3" t="s">
-        <v>162</v>
+        <v>226</v>
       </c>
       <c r="J3" t="s">
-        <v>163</v>
-      </c>
-      <c r="K3" s="11" t="s">
-        <v>164</v>
+        <v>227</v>
+      </c>
+      <c r="K3" s="9" t="s">
+        <v>228</v>
       </c>
       <c r="L3" t="s">
-        <v>165</v>
+        <v>229</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -3519,13 +4152,13 @@
         <v>1</v>
       </c>
       <c r="C4" s="9">
-        <v>0</v>
+        <v>880</v>
       </c>
       <c r="D4">
-        <v>995</v>
+        <v>100</v>
       </c>
       <c r="E4" s="10">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="F4">
         <v>50</v>
@@ -3542,7 +4175,7 @@
       <c r="J4">
         <v>10</v>
       </c>
-      <c r="K4" s="11">
+      <c r="K4" s="9">
         <v>90</v>
       </c>
       <c r="L4">
@@ -3557,13 +4190,13 @@
         <v>2</v>
       </c>
       <c r="C5" s="9">
+        <v>200</v>
+      </c>
+      <c r="D5">
         <v>300</v>
       </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
       <c r="E5" s="10">
-        <v>699</v>
+        <v>500</v>
       </c>
       <c r="F5">
         <v>50</v>
@@ -3580,7 +4213,7 @@
       <c r="J5">
         <v>10</v>
       </c>
-      <c r="K5" s="11">
+      <c r="K5" s="9">
         <v>90</v>
       </c>
       <c r="L5">
@@ -3595,13 +4228,13 @@
         <v>1</v>
       </c>
       <c r="C6" s="9">
-        <v>995</v>
+        <v>880</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E6" s="10">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="F6">
         <v>50</v>
@@ -3618,7 +4251,7 @@
       <c r="J6">
         <v>10</v>
       </c>
-      <c r="K6" s="11">
+      <c r="K6" s="9">
         <v>90</v>
       </c>
       <c r="L6">
@@ -3633,13 +4266,13 @@
         <v>2</v>
       </c>
       <c r="C7" s="9">
+        <v>200</v>
+      </c>
+      <c r="D7">
         <v>300</v>
       </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
       <c r="E7" s="10">
-        <v>699</v>
+        <v>500</v>
       </c>
       <c r="F7">
         <v>50</v>
@@ -3656,7 +4289,7 @@
       <c r="J7">
         <v>10</v>
       </c>
-      <c r="K7" s="11">
+      <c r="K7" s="9">
         <v>90</v>
       </c>
       <c r="L7">
@@ -3671,13 +4304,13 @@
         <v>1</v>
       </c>
       <c r="C8" s="9">
-        <v>995</v>
+        <v>880</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E8" s="10">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="F8">
         <v>50</v>
@@ -3694,7 +4327,7 @@
       <c r="J8">
         <v>10</v>
       </c>
-      <c r="K8" s="11">
+      <c r="K8" s="9">
         <v>90</v>
       </c>
       <c r="L8">
@@ -3709,13 +4342,13 @@
         <v>2</v>
       </c>
       <c r="C9" s="9">
+        <v>200</v>
+      </c>
+      <c r="D9">
         <v>300</v>
       </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
       <c r="E9" s="10">
-        <v>699</v>
+        <v>500</v>
       </c>
       <c r="F9">
         <v>50</v>
@@ -3732,7 +4365,7 @@
       <c r="J9">
         <v>10</v>
       </c>
-      <c r="K9" s="11">
+      <c r="K9" s="9">
         <v>90</v>
       </c>
       <c r="L9">
@@ -3747,13 +4380,13 @@
         <v>1</v>
       </c>
       <c r="C10" s="9">
-        <v>995</v>
+        <v>880</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E10" s="10">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="F10">
         <v>50</v>
@@ -3770,7 +4403,7 @@
       <c r="J10">
         <v>10</v>
       </c>
-      <c r="K10" s="11">
+      <c r="K10" s="9">
         <v>90</v>
       </c>
       <c r="L10">
@@ -3785,13 +4418,13 @@
         <v>2</v>
       </c>
       <c r="C11" s="9">
+        <v>200</v>
+      </c>
+      <c r="D11">
         <v>300</v>
       </c>
-      <c r="D11">
-        <v>0</v>
-      </c>
       <c r="E11" s="10">
-        <v>699</v>
+        <v>500</v>
       </c>
       <c r="F11">
         <v>50</v>
@@ -3808,7 +4441,7 @@
       <c r="J11">
         <v>10</v>
       </c>
-      <c r="K11" s="11">
+      <c r="K11" s="9">
         <v>90</v>
       </c>
       <c r="L11">
@@ -3823,13 +4456,13 @@
         <v>1</v>
       </c>
       <c r="C12" s="9">
-        <v>995</v>
+        <v>880</v>
       </c>
       <c r="D12">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E12" s="10">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="F12">
         <v>50</v>
@@ -3846,7 +4479,7 @@
       <c r="J12">
         <v>10</v>
       </c>
-      <c r="K12" s="11">
+      <c r="K12" s="9">
         <v>90</v>
       </c>
       <c r="L12">
@@ -3861,13 +4494,13 @@
         <v>2</v>
       </c>
       <c r="C13" s="9">
+        <v>200</v>
+      </c>
+      <c r="D13">
         <v>300</v>
       </c>
-      <c r="D13">
-        <v>0</v>
-      </c>
       <c r="E13" s="10">
-        <v>699</v>
+        <v>500</v>
       </c>
       <c r="F13">
         <v>50</v>
@@ -3884,7 +4517,7 @@
       <c r="J13">
         <v>10</v>
       </c>
-      <c r="K13" s="11">
+      <c r="K13" s="9">
         <v>90</v>
       </c>
       <c r="L13">
@@ -3899,13 +4532,13 @@
         <v>1</v>
       </c>
       <c r="C14" s="9">
-        <v>995</v>
+        <v>880</v>
       </c>
       <c r="D14">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E14" s="10">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="F14">
         <v>50</v>
@@ -3922,7 +4555,7 @@
       <c r="J14">
         <v>10</v>
       </c>
-      <c r="K14" s="11">
+      <c r="K14" s="9">
         <v>90</v>
       </c>
       <c r="L14">
@@ -3937,13 +4570,13 @@
         <v>2</v>
       </c>
       <c r="C15" s="9">
+        <v>200</v>
+      </c>
+      <c r="D15">
         <v>300</v>
       </c>
-      <c r="D15">
-        <v>0</v>
-      </c>
       <c r="E15" s="10">
-        <v>699</v>
+        <v>500</v>
       </c>
       <c r="F15">
         <v>50</v>
@@ -3960,7 +4593,7 @@
       <c r="J15">
         <v>10</v>
       </c>
-      <c r="K15" s="11">
+      <c r="K15" s="9">
         <v>90</v>
       </c>
       <c r="L15">
@@ -3975,13 +4608,13 @@
         <v>1</v>
       </c>
       <c r="C16" s="9">
-        <v>995</v>
+        <v>880</v>
       </c>
       <c r="D16">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E16" s="10">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="F16">
         <v>50</v>
@@ -3998,7 +4631,7 @@
       <c r="J16">
         <v>10</v>
       </c>
-      <c r="K16" s="11">
+      <c r="K16" s="9">
         <v>90</v>
       </c>
       <c r="L16">
@@ -4013,13 +4646,13 @@
         <v>2</v>
       </c>
       <c r="C17" s="9">
+        <v>200</v>
+      </c>
+      <c r="D17">
         <v>300</v>
       </c>
-      <c r="D17">
-        <v>0</v>
-      </c>
       <c r="E17" s="10">
-        <v>699</v>
+        <v>500</v>
       </c>
       <c r="F17">
         <v>50</v>
@@ -4036,7 +4669,7 @@
       <c r="J17">
         <v>10</v>
       </c>
-      <c r="K17" s="11">
+      <c r="K17" s="9">
         <v>90</v>
       </c>
       <c r="L17">
@@ -4051,13 +4684,13 @@
         <v>1</v>
       </c>
       <c r="C18" s="9">
-        <v>995</v>
+        <v>880</v>
       </c>
       <c r="D18">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E18" s="10">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="F18">
         <v>50</v>
@@ -4074,7 +4707,7 @@
       <c r="J18">
         <v>10</v>
       </c>
-      <c r="K18" s="11">
+      <c r="K18" s="9">
         <v>90</v>
       </c>
       <c r="L18">
@@ -4089,13 +4722,13 @@
         <v>2</v>
       </c>
       <c r="C19" s="9">
+        <v>200</v>
+      </c>
+      <c r="D19">
         <v>300</v>
       </c>
-      <c r="D19">
-        <v>0</v>
-      </c>
       <c r="E19" s="10">
-        <v>699</v>
+        <v>500</v>
       </c>
       <c r="F19">
         <v>50</v>
@@ -4112,7 +4745,7 @@
       <c r="J19">
         <v>10</v>
       </c>
-      <c r="K19" s="11">
+      <c r="K19" s="9">
         <v>90</v>
       </c>
       <c r="L19">
@@ -4127,13 +4760,13 @@
         <v>1</v>
       </c>
       <c r="C20" s="9">
-        <v>995</v>
+        <v>880</v>
       </c>
       <c r="D20">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E20" s="10">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="F20">
         <v>50</v>
@@ -4150,7 +4783,7 @@
       <c r="J20">
         <v>10</v>
       </c>
-      <c r="K20" s="11">
+      <c r="K20" s="9">
         <v>90</v>
       </c>
       <c r="L20">
@@ -4165,13 +4798,13 @@
         <v>2</v>
       </c>
       <c r="C21" s="9">
+        <v>200</v>
+      </c>
+      <c r="D21">
         <v>300</v>
       </c>
-      <c r="D21">
-        <v>0</v>
-      </c>
       <c r="E21" s="10">
-        <v>699</v>
+        <v>500</v>
       </c>
       <c r="F21">
         <v>50</v>
@@ -4188,7 +4821,7 @@
       <c r="J21">
         <v>10</v>
       </c>
-      <c r="K21" s="11">
+      <c r="K21" s="9">
         <v>90</v>
       </c>
       <c r="L21">
@@ -4203,13 +4836,13 @@
         <v>1</v>
       </c>
       <c r="C22" s="9">
-        <v>995</v>
+        <v>880</v>
       </c>
       <c r="D22">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E22" s="10">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="F22">
         <v>50</v>
@@ -4226,7 +4859,7 @@
       <c r="J22">
         <v>10</v>
       </c>
-      <c r="K22" s="11">
+      <c r="K22" s="9">
         <v>90</v>
       </c>
       <c r="L22">
@@ -4241,13 +4874,13 @@
         <v>2</v>
       </c>
       <c r="C23" s="9">
+        <v>200</v>
+      </c>
+      <c r="D23">
         <v>300</v>
       </c>
-      <c r="D23">
-        <v>0</v>
-      </c>
       <c r="E23" s="10">
-        <v>699</v>
+        <v>500</v>
       </c>
       <c r="F23">
         <v>50</v>
@@ -4264,10 +4897,86 @@
       <c r="J23">
         <v>10</v>
       </c>
-      <c r="K23" s="11">
+      <c r="K23" s="9">
         <v>90</v>
       </c>
       <c r="L23">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12">
+      <c r="A24">
+        <v>11</v>
+      </c>
+      <c r="B24">
+        <v>1</v>
+      </c>
+      <c r="C24" s="9">
+        <v>880</v>
+      </c>
+      <c r="D24">
+        <v>100</v>
+      </c>
+      <c r="E24" s="10">
+        <v>20</v>
+      </c>
+      <c r="F24">
+        <v>50</v>
+      </c>
+      <c r="G24">
+        <v>30</v>
+      </c>
+      <c r="H24" s="10">
+        <v>20</v>
+      </c>
+      <c r="I24">
+        <v>90</v>
+      </c>
+      <c r="J24">
+        <v>10</v>
+      </c>
+      <c r="K24" s="9">
+        <v>90</v>
+      </c>
+      <c r="L24">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12">
+      <c r="A25">
+        <v>11</v>
+      </c>
+      <c r="B25">
+        <v>2</v>
+      </c>
+      <c r="C25" s="9">
+        <v>200</v>
+      </c>
+      <c r="D25">
+        <v>300</v>
+      </c>
+      <c r="E25" s="10">
+        <v>500</v>
+      </c>
+      <c r="F25">
+        <v>50</v>
+      </c>
+      <c r="G25">
+        <v>30</v>
+      </c>
+      <c r="H25" s="10">
+        <v>20</v>
+      </c>
+      <c r="I25">
+        <v>90</v>
+      </c>
+      <c r="J25">
+        <v>10</v>
+      </c>
+      <c r="K25" s="9">
+        <v>90</v>
+      </c>
+      <c r="L25">
         <v>10</v>
       </c>
     </row>
@@ -4283,7 +4992,7 @@
   <dimension ref="A1:B38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="B36" sqref="B35:B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
@@ -4296,10 +5005,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>166</v>
+        <v>230</v>
       </c>
       <c r="B1" t="s">
-        <v>167</v>
+        <v>231</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -4307,15 +5016,15 @@
         <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>153</v>
+        <v>217</v>
       </c>
     </row>
     <row r="3" ht="73.5" customHeight="1" spans="1:2">
       <c r="A3" t="s">
-        <v>168</v>
+        <v>232</v>
       </c>
       <c r="B3" t="s">
-        <v>169</v>
+        <v>233</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -4608,10 +5317,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:O27"/>
+  <dimension ref="A1:O28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F40" sqref="F40"/>
+      <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -4633,49 +5342,49 @@
   <sheetData>
     <row r="1" spans="1:15">
       <c r="A1" t="s">
-        <v>170</v>
+        <v>234</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>171</v>
+        <v>235</v>
       </c>
       <c r="C1" t="s">
-        <v>172</v>
+        <v>236</v>
       </c>
       <c r="D1" t="s">
-        <v>173</v>
+        <v>237</v>
       </c>
       <c r="E1" t="s">
-        <v>174</v>
+        <v>238</v>
       </c>
       <c r="F1" t="s">
-        <v>175</v>
+        <v>239</v>
       </c>
       <c r="G1" t="s">
-        <v>176</v>
+        <v>240</v>
       </c>
       <c r="H1" t="s">
-        <v>177</v>
+        <v>241</v>
       </c>
       <c r="I1" t="s">
-        <v>178</v>
+        <v>242</v>
       </c>
       <c r="J1" t="s">
-        <v>179</v>
+        <v>243</v>
       </c>
       <c r="K1" t="s">
-        <v>180</v>
+        <v>244</v>
       </c>
       <c r="L1" t="s">
-        <v>181</v>
+        <v>245</v>
       </c>
       <c r="M1" t="s">
-        <v>182</v>
+        <v>246</v>
       </c>
       <c r="N1" t="s">
-        <v>183</v>
+        <v>247</v>
       </c>
       <c r="O1" t="s">
-        <v>184</v>
+        <v>248</v>
       </c>
     </row>
     <row r="2" spans="1:15">
@@ -4689,944 +5398,944 @@
         <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>153</v>
+        <v>217</v>
       </c>
       <c r="E2" t="s">
-        <v>153</v>
+        <v>217</v>
       </c>
       <c r="F2" t="s">
         <v>10</v>
       </c>
       <c r="G2" t="s">
-        <v>153</v>
+        <v>217</v>
       </c>
       <c r="H2" t="s">
-        <v>153</v>
+        <v>217</v>
       </c>
       <c r="I2" t="s">
-        <v>153</v>
+        <v>217</v>
       </c>
       <c r="J2" t="s">
-        <v>153</v>
+        <v>217</v>
       </c>
       <c r="K2" t="s">
         <v>10</v>
       </c>
       <c r="L2" t="s">
-        <v>153</v>
+        <v>217</v>
       </c>
       <c r="M2" t="s">
-        <v>185</v>
+        <v>249</v>
       </c>
       <c r="N2" t="s">
         <v>10</v>
       </c>
       <c r="O2" t="s">
-        <v>185</v>
+        <v>249</v>
       </c>
     </row>
     <row r="3" ht="14.25" spans="1:15">
       <c r="A3" s="5" t="s">
-        <v>186</v>
+        <v>250</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>187</v>
+        <v>251</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>188</v>
+        <v>252</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>189</v>
+        <v>253</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>190</v>
+        <v>254</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>191</v>
+        <v>255</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>192</v>
+        <v>256</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>193</v>
+        <v>257</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>194</v>
+        <v>258</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>195</v>
+        <v>259</v>
       </c>
       <c r="K3" s="5" t="s">
-        <v>196</v>
+        <v>260</v>
       </c>
       <c r="L3" s="5" t="s">
-        <v>197</v>
+        <v>261</v>
       </c>
       <c r="M3" s="5" t="s">
-        <v>198</v>
+        <v>262</v>
       </c>
       <c r="N3" s="5" t="s">
-        <v>199</v>
+        <v>263</v>
       </c>
       <c r="O3" s="5" t="s">
-        <v>200</v>
+        <v>264</v>
       </c>
     </row>
     <row r="4" ht="14.25" spans="1:15">
       <c r="A4" s="5" t="s">
-        <v>201</v>
+        <v>265</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>202</v>
+        <v>266</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>203</v>
+        <v>267</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>204</v>
-      </c>
-      <c r="E4" s="22" t="s">
-        <v>205</v>
+        <v>268</v>
+      </c>
+      <c r="E4" s="26" t="s">
+        <v>269</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>206</v>
-      </c>
-      <c r="G4" s="22" t="s">
-        <v>207</v>
-      </c>
-      <c r="H4" s="22" t="s">
-        <v>204</v>
-      </c>
-      <c r="I4" s="22" t="s">
-        <v>205</v>
-      </c>
-      <c r="J4" s="22" t="s">
-        <v>208</v>
+        <v>270</v>
+      </c>
+      <c r="G4" s="26" t="s">
+        <v>271</v>
+      </c>
+      <c r="H4" s="26" t="s">
+        <v>268</v>
+      </c>
+      <c r="I4" s="26" t="s">
+        <v>269</v>
+      </c>
+      <c r="J4" s="26" t="s">
+        <v>272</v>
       </c>
       <c r="K4" s="5" t="s">
-        <v>209</v>
-      </c>
-      <c r="L4" s="22" t="s">
-        <v>210</v>
-      </c>
-      <c r="M4" s="22" t="s">
-        <v>211</v>
+        <v>273</v>
+      </c>
+      <c r="L4" s="26" t="s">
+        <v>274</v>
+      </c>
+      <c r="M4" s="26" t="s">
+        <v>275</v>
       </c>
       <c r="N4" s="5" t="s">
-        <v>212</v>
-      </c>
-      <c r="O4" s="22" t="s">
-        <v>211</v>
+        <v>276</v>
+      </c>
+      <c r="O4" s="26" t="s">
+        <v>275</v>
       </c>
     </row>
     <row r="5" ht="14.25" spans="1:15">
       <c r="A5" s="5" t="s">
-        <v>201</v>
+        <v>265</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>202</v>
+        <v>266</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>203</v>
+        <v>267</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>207</v>
-      </c>
-      <c r="E5" s="22" t="s">
-        <v>213</v>
+        <v>271</v>
+      </c>
+      <c r="E5" s="26" t="s">
+        <v>277</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>214</v>
-      </c>
-      <c r="G5" s="22" t="s">
-        <v>207</v>
-      </c>
-      <c r="H5" s="22" t="s">
-        <v>204</v>
-      </c>
-      <c r="I5" s="22" t="s">
-        <v>205</v>
-      </c>
-      <c r="J5" s="22" t="s">
-        <v>208</v>
+        <v>278</v>
+      </c>
+      <c r="G5" s="26" t="s">
+        <v>271</v>
+      </c>
+      <c r="H5" s="26" t="s">
+        <v>268</v>
+      </c>
+      <c r="I5" s="26" t="s">
+        <v>269</v>
+      </c>
+      <c r="J5" s="26" t="s">
+        <v>272</v>
       </c>
       <c r="K5" s="5" t="s">
-        <v>209</v>
-      </c>
-      <c r="L5" s="22" t="s">
-        <v>210</v>
-      </c>
-      <c r="M5" s="22" t="s">
-        <v>215</v>
+        <v>273</v>
+      </c>
+      <c r="L5" s="26" t="s">
+        <v>274</v>
+      </c>
+      <c r="M5" s="26" t="s">
+        <v>279</v>
       </c>
       <c r="N5" s="5" t="s">
-        <v>203</v>
-      </c>
-      <c r="O5" s="22" t="s">
-        <v>215</v>
+        <v>267</v>
+      </c>
+      <c r="O5" s="26" t="s">
+        <v>279</v>
       </c>
     </row>
     <row r="6" ht="14.25" spans="1:15">
       <c r="A6" s="5" t="s">
-        <v>201</v>
+        <v>265</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>216</v>
+        <v>280</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>203</v>
+        <v>267</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>204</v>
-      </c>
-      <c r="E6" s="22" t="s">
-        <v>217</v>
+        <v>268</v>
+      </c>
+      <c r="E6" s="26" t="s">
+        <v>281</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>218</v>
-      </c>
-      <c r="G6" s="22" t="s">
-        <v>207</v>
-      </c>
-      <c r="H6" s="22" t="s">
-        <v>204</v>
-      </c>
-      <c r="I6" s="22" t="s">
-        <v>205</v>
-      </c>
-      <c r="J6" s="22" t="s">
-        <v>208</v>
+        <v>95</v>
+      </c>
+      <c r="G6" s="26" t="s">
+        <v>271</v>
+      </c>
+      <c r="H6" s="26" t="s">
+        <v>268</v>
+      </c>
+      <c r="I6" s="26" t="s">
+        <v>269</v>
+      </c>
+      <c r="J6" s="26" t="s">
+        <v>272</v>
       </c>
       <c r="K6" s="5" t="s">
-        <v>209</v>
-      </c>
-      <c r="L6" s="22" t="s">
-        <v>210</v>
-      </c>
-      <c r="M6" s="22" t="s">
-        <v>211</v>
+        <v>273</v>
+      </c>
+      <c r="L6" s="26" t="s">
+        <v>274</v>
+      </c>
+      <c r="M6" s="26" t="s">
+        <v>275</v>
       </c>
       <c r="N6" s="5" t="s">
-        <v>212</v>
-      </c>
-      <c r="O6" s="22" t="s">
-        <v>211</v>
+        <v>276</v>
+      </c>
+      <c r="O6" s="26" t="s">
+        <v>275</v>
       </c>
     </row>
     <row r="7" ht="14.25" spans="1:15">
       <c r="A7" s="5" t="s">
-        <v>201</v>
+        <v>265</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>216</v>
+        <v>280</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>203</v>
+        <v>267</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>207</v>
-      </c>
-      <c r="E7" s="22" t="s">
-        <v>213</v>
+        <v>271</v>
+      </c>
+      <c r="E7" s="26" t="s">
+        <v>277</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>219</v>
-      </c>
-      <c r="G7" s="22" t="s">
-        <v>207</v>
-      </c>
-      <c r="H7" s="22" t="s">
-        <v>204</v>
-      </c>
-      <c r="I7" s="22" t="s">
-        <v>205</v>
-      </c>
-      <c r="J7" s="22" t="s">
-        <v>208</v>
+        <v>282</v>
+      </c>
+      <c r="G7" s="26" t="s">
+        <v>271</v>
+      </c>
+      <c r="H7" s="26" t="s">
+        <v>268</v>
+      </c>
+      <c r="I7" s="26" t="s">
+        <v>269</v>
+      </c>
+      <c r="J7" s="26" t="s">
+        <v>272</v>
       </c>
       <c r="K7" s="5" t="s">
-        <v>209</v>
-      </c>
-      <c r="L7" s="22" t="s">
-        <v>210</v>
-      </c>
-      <c r="M7" s="22" t="s">
-        <v>215</v>
+        <v>273</v>
+      </c>
+      <c r="L7" s="26" t="s">
+        <v>274</v>
+      </c>
+      <c r="M7" s="26" t="s">
+        <v>279</v>
       </c>
       <c r="N7" s="5" t="s">
-        <v>203</v>
-      </c>
-      <c r="O7" s="22" t="s">
-        <v>215</v>
+        <v>267</v>
+      </c>
+      <c r="O7" s="26" t="s">
+        <v>279</v>
       </c>
     </row>
     <row r="8" ht="14.25" spans="1:15">
       <c r="A8" s="5" t="s">
-        <v>201</v>
+        <v>265</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>220</v>
+        <v>283</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>203</v>
+        <v>267</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>204</v>
-      </c>
-      <c r="E8" s="22" t="s">
-        <v>204</v>
+        <v>268</v>
+      </c>
+      <c r="E8" s="26" t="s">
+        <v>268</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>221</v>
-      </c>
-      <c r="G8" s="22" t="s">
-        <v>207</v>
-      </c>
-      <c r="H8" s="22" t="s">
-        <v>204</v>
-      </c>
-      <c r="I8" s="22" t="s">
-        <v>205</v>
-      </c>
-      <c r="J8" s="22" t="s">
-        <v>208</v>
+        <v>77</v>
+      </c>
+      <c r="G8" s="26" t="s">
+        <v>271</v>
+      </c>
+      <c r="H8" s="26" t="s">
+        <v>268</v>
+      </c>
+      <c r="I8" s="26" t="s">
+        <v>269</v>
+      </c>
+      <c r="J8" s="26" t="s">
+        <v>272</v>
       </c>
       <c r="K8" s="5" t="s">
-        <v>209</v>
-      </c>
-      <c r="L8" s="22" t="s">
-        <v>210</v>
-      </c>
-      <c r="M8" s="22" t="s">
-        <v>211</v>
+        <v>273</v>
+      </c>
+      <c r="L8" s="26" t="s">
+        <v>274</v>
+      </c>
+      <c r="M8" s="26" t="s">
+        <v>275</v>
       </c>
       <c r="N8" s="5" t="s">
-        <v>212</v>
-      </c>
-      <c r="O8" s="22" t="s">
-        <v>211</v>
+        <v>276</v>
+      </c>
+      <c r="O8" s="26" t="s">
+        <v>275</v>
       </c>
     </row>
     <row r="9" ht="14.25" spans="1:15">
       <c r="A9" s="5" t="s">
-        <v>201</v>
+        <v>265</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>220</v>
+        <v>283</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>203</v>
+        <v>267</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>207</v>
-      </c>
-      <c r="E9" s="22" t="s">
-        <v>213</v>
+        <v>271</v>
+      </c>
+      <c r="E9" s="26" t="s">
+        <v>277</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>222</v>
-      </c>
-      <c r="G9" s="22" t="s">
-        <v>207</v>
-      </c>
-      <c r="H9" s="22" t="s">
-        <v>204</v>
-      </c>
-      <c r="I9" s="22" t="s">
-        <v>205</v>
-      </c>
-      <c r="J9" s="22" t="s">
-        <v>208</v>
+        <v>284</v>
+      </c>
+      <c r="G9" s="26" t="s">
+        <v>271</v>
+      </c>
+      <c r="H9" s="26" t="s">
+        <v>268</v>
+      </c>
+      <c r="I9" s="26" t="s">
+        <v>269</v>
+      </c>
+      <c r="J9" s="26" t="s">
+        <v>272</v>
       </c>
       <c r="K9" s="5" t="s">
-        <v>209</v>
-      </c>
-      <c r="L9" s="22" t="s">
-        <v>210</v>
-      </c>
-      <c r="M9" s="22" t="s">
-        <v>215</v>
+        <v>273</v>
+      </c>
+      <c r="L9" s="26" t="s">
+        <v>274</v>
+      </c>
+      <c r="M9" s="26" t="s">
+        <v>279</v>
       </c>
       <c r="N9" s="5" t="s">
-        <v>203</v>
-      </c>
-      <c r="O9" s="22" t="s">
-        <v>215</v>
+        <v>267</v>
+      </c>
+      <c r="O9" s="26" t="s">
+        <v>279</v>
       </c>
     </row>
     <row r="10" ht="14.25" spans="1:15">
       <c r="A10" s="5" t="s">
-        <v>223</v>
+        <v>285</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>224</v>
+        <v>286</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>203</v>
+        <v>267</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>213</v>
+        <v>277</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>213</v>
+        <v>277</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>225</v>
+        <v>287</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>213</v>
-      </c>
-      <c r="H10" s="22" t="s">
-        <v>204</v>
+        <v>277</v>
+      </c>
+      <c r="H10" s="26" t="s">
+        <v>268</v>
       </c>
       <c r="I10" s="5" t="s">
-        <v>213</v>
-      </c>
-      <c r="J10" s="22" t="s">
-        <v>208</v>
+        <v>277</v>
+      </c>
+      <c r="J10" s="26" t="s">
+        <v>272</v>
       </c>
       <c r="K10" s="5" t="s">
-        <v>226</v>
-      </c>
-      <c r="L10" s="22" t="s">
-        <v>210</v>
-      </c>
-      <c r="M10" s="22" t="s">
-        <v>211</v>
+        <v>288</v>
+      </c>
+      <c r="L10" s="26" t="s">
+        <v>274</v>
+      </c>
+      <c r="M10" s="26" t="s">
+        <v>275</v>
       </c>
       <c r="N10" s="5" t="s">
-        <v>225</v>
-      </c>
-      <c r="O10" s="22" t="s">
-        <v>211</v>
+        <v>287</v>
+      </c>
+      <c r="O10" s="26" t="s">
+        <v>275</v>
       </c>
     </row>
     <row r="11" ht="14.25" spans="1:15">
       <c r="A11" s="5" t="s">
-        <v>223</v>
+        <v>285</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>224</v>
+        <v>286</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>203</v>
+        <v>267</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>227</v>
+        <v>289</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>207</v>
+        <v>271</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>214</v>
+        <v>278</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>213</v>
-      </c>
-      <c r="H11" s="22" t="s">
-        <v>204</v>
+        <v>277</v>
+      </c>
+      <c r="H11" s="26" t="s">
+        <v>268</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>213</v>
-      </c>
-      <c r="J11" s="22" t="s">
-        <v>208</v>
+        <v>277</v>
+      </c>
+      <c r="J11" s="26" t="s">
+        <v>272</v>
       </c>
       <c r="K11" s="5" t="s">
-        <v>226</v>
-      </c>
-      <c r="L11" s="22" t="s">
-        <v>210</v>
-      </c>
-      <c r="M11" s="22" t="s">
-        <v>215</v>
+        <v>288</v>
+      </c>
+      <c r="L11" s="26" t="s">
+        <v>274</v>
+      </c>
+      <c r="M11" s="26" t="s">
+        <v>279</v>
       </c>
       <c r="N11" s="5" t="s">
-        <v>203</v>
-      </c>
-      <c r="O11" s="22" t="s">
-        <v>215</v>
+        <v>267</v>
+      </c>
+      <c r="O11" s="26" t="s">
+        <v>279</v>
       </c>
     </row>
     <row r="12" ht="14.25" spans="1:15">
       <c r="A12" s="5" t="s">
-        <v>223</v>
+        <v>285</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>228</v>
+        <v>290</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>203</v>
+        <v>267</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>205</v>
+        <v>269</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>229</v>
+        <v>291</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>212</v>
+        <v>276</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>213</v>
-      </c>
-      <c r="H12" s="22" t="s">
-        <v>204</v>
+        <v>277</v>
+      </c>
+      <c r="H12" s="26" t="s">
+        <v>268</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>213</v>
-      </c>
-      <c r="J12" s="22" t="s">
-        <v>208</v>
+        <v>277</v>
+      </c>
+      <c r="J12" s="26" t="s">
+        <v>272</v>
       </c>
       <c r="K12" s="5" t="s">
-        <v>226</v>
-      </c>
-      <c r="L12" s="22" t="s">
-        <v>210</v>
-      </c>
-      <c r="M12" s="22" t="s">
-        <v>211</v>
+        <v>288</v>
+      </c>
+      <c r="L12" s="26" t="s">
+        <v>274</v>
+      </c>
+      <c r="M12" s="26" t="s">
+        <v>275</v>
       </c>
       <c r="N12" s="5" t="s">
-        <v>225</v>
-      </c>
-      <c r="O12" s="22" t="s">
-        <v>211</v>
+        <v>287</v>
+      </c>
+      <c r="O12" s="26" t="s">
+        <v>275</v>
       </c>
     </row>
     <row r="13" ht="14.25" spans="1:15">
       <c r="A13" s="5" t="s">
-        <v>223</v>
+        <v>285</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>228</v>
+        <v>290</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>203</v>
+        <v>267</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>230</v>
+        <v>292</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>207</v>
+        <v>271</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>214</v>
+        <v>278</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>213</v>
-      </c>
-      <c r="H13" s="22" t="s">
-        <v>204</v>
+        <v>277</v>
+      </c>
+      <c r="H13" s="26" t="s">
+        <v>268</v>
       </c>
       <c r="I13" s="5" t="s">
-        <v>213</v>
-      </c>
-      <c r="J13" s="22" t="s">
-        <v>208</v>
+        <v>277</v>
+      </c>
+      <c r="J13" s="26" t="s">
+        <v>272</v>
       </c>
       <c r="K13" s="5" t="s">
-        <v>226</v>
-      </c>
-      <c r="L13" s="22" t="s">
-        <v>210</v>
-      </c>
-      <c r="M13" s="22" t="s">
-        <v>215</v>
+        <v>288</v>
+      </c>
+      <c r="L13" s="26" t="s">
+        <v>274</v>
+      </c>
+      <c r="M13" s="26" t="s">
+        <v>279</v>
       </c>
       <c r="N13" s="5" t="s">
-        <v>203</v>
-      </c>
-      <c r="O13" s="22" t="s">
-        <v>215</v>
+        <v>267</v>
+      </c>
+      <c r="O13" s="26" t="s">
+        <v>279</v>
       </c>
     </row>
     <row r="14" ht="14.25" spans="1:15">
       <c r="A14" s="5" t="s">
-        <v>223</v>
+        <v>285</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>231</v>
+        <v>293</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>203</v>
+        <v>267</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>205</v>
+        <v>269</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>229</v>
+        <v>291</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>212</v>
+        <v>276</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>213</v>
-      </c>
-      <c r="H14" s="22" t="s">
-        <v>204</v>
+        <v>277</v>
+      </c>
+      <c r="H14" s="26" t="s">
+        <v>268</v>
       </c>
       <c r="I14" s="5" t="s">
-        <v>213</v>
-      </c>
-      <c r="J14" s="22" t="s">
-        <v>208</v>
+        <v>277</v>
+      </c>
+      <c r="J14" s="26" t="s">
+        <v>272</v>
       </c>
       <c r="K14" s="5" t="s">
-        <v>226</v>
-      </c>
-      <c r="L14" s="22" t="s">
-        <v>210</v>
-      </c>
-      <c r="M14" s="22" t="s">
-        <v>211</v>
+        <v>288</v>
+      </c>
+      <c r="L14" s="26" t="s">
+        <v>274</v>
+      </c>
+      <c r="M14" s="26" t="s">
+        <v>275</v>
       </c>
       <c r="N14" s="5" t="s">
-        <v>225</v>
-      </c>
-      <c r="O14" s="22" t="s">
-        <v>211</v>
+        <v>287</v>
+      </c>
+      <c r="O14" s="26" t="s">
+        <v>275</v>
       </c>
     </row>
     <row r="15" ht="14.25" spans="1:15">
       <c r="A15" s="5" t="s">
-        <v>223</v>
+        <v>285</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>231</v>
+        <v>293</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>203</v>
+        <v>267</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>230</v>
+        <v>292</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>207</v>
+        <v>271</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>214</v>
+        <v>278</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>213</v>
-      </c>
-      <c r="H15" s="22" t="s">
-        <v>204</v>
+        <v>277</v>
+      </c>
+      <c r="H15" s="26" t="s">
+        <v>268</v>
       </c>
       <c r="I15" s="5" t="s">
-        <v>213</v>
-      </c>
-      <c r="J15" s="22" t="s">
-        <v>208</v>
+        <v>277</v>
+      </c>
+      <c r="J15" s="26" t="s">
+        <v>272</v>
       </c>
       <c r="K15" s="5" t="s">
-        <v>226</v>
-      </c>
-      <c r="L15" s="22" t="s">
-        <v>210</v>
-      </c>
-      <c r="M15" s="22" t="s">
-        <v>215</v>
+        <v>288</v>
+      </c>
+      <c r="L15" s="26" t="s">
+        <v>274</v>
+      </c>
+      <c r="M15" s="26" t="s">
+        <v>279</v>
       </c>
       <c r="N15" s="5" t="s">
-        <v>203</v>
-      </c>
-      <c r="O15" s="22" t="s">
-        <v>215</v>
+        <v>267</v>
+      </c>
+      <c r="O15" s="26" t="s">
+        <v>279</v>
       </c>
     </row>
     <row r="16" ht="14.25" spans="1:15">
       <c r="A16" s="5" t="s">
-        <v>232</v>
+        <v>294</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>233</v>
+        <v>295</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>203</v>
+        <v>267</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>213</v>
+        <v>277</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>234</v>
+        <v>296</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>225</v>
-      </c>
-      <c r="G16" s="22" t="s">
-        <v>207</v>
-      </c>
-      <c r="H16" s="22" t="s">
-        <v>204</v>
-      </c>
-      <c r="I16" s="22" t="s">
-        <v>234</v>
-      </c>
-      <c r="J16" s="22" t="s">
-        <v>208</v>
+        <v>287</v>
+      </c>
+      <c r="G16" s="26" t="s">
+        <v>271</v>
+      </c>
+      <c r="H16" s="26" t="s">
+        <v>268</v>
+      </c>
+      <c r="I16" s="26" t="s">
+        <v>296</v>
+      </c>
+      <c r="J16" s="26" t="s">
+        <v>272</v>
       </c>
       <c r="K16" s="5" t="s">
-        <v>235</v>
+        <v>297</v>
       </c>
       <c r="L16" s="5" t="s">
-        <v>210</v>
-      </c>
-      <c r="M16" s="22" t="s">
-        <v>211</v>
+        <v>274</v>
+      </c>
+      <c r="M16" s="26" t="s">
+        <v>275</v>
       </c>
       <c r="N16" s="5" t="s">
-        <v>236</v>
-      </c>
-      <c r="O16" s="22" t="s">
-        <v>211</v>
+        <v>298</v>
+      </c>
+      <c r="O16" s="26" t="s">
+        <v>275</v>
       </c>
     </row>
     <row r="17" ht="14.25" spans="1:15">
       <c r="A17" s="5" t="s">
-        <v>232</v>
+        <v>294</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>233</v>
+        <v>295</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>203</v>
+        <v>267</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>213</v>
+        <v>277</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>229</v>
+        <v>291</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>237</v>
-      </c>
-      <c r="G17" s="22" t="s">
-        <v>207</v>
-      </c>
-      <c r="H17" s="22" t="s">
-        <v>204</v>
-      </c>
-      <c r="I17" s="22" t="s">
-        <v>234</v>
-      </c>
-      <c r="J17" s="22" t="s">
-        <v>208</v>
+        <v>299</v>
+      </c>
+      <c r="G17" s="26" t="s">
+        <v>271</v>
+      </c>
+      <c r="H17" s="26" t="s">
+        <v>268</v>
+      </c>
+      <c r="I17" s="26" t="s">
+        <v>296</v>
+      </c>
+      <c r="J17" s="26" t="s">
+        <v>272</v>
       </c>
       <c r="K17" s="5" t="s">
-        <v>235</v>
+        <v>297</v>
       </c>
       <c r="L17" s="5" t="s">
-        <v>210</v>
-      </c>
-      <c r="M17" s="22" t="s">
-        <v>215</v>
+        <v>274</v>
+      </c>
+      <c r="M17" s="26" t="s">
+        <v>279</v>
       </c>
       <c r="N17" s="5" t="s">
-        <v>203</v>
-      </c>
-      <c r="O17" s="22" t="s">
-        <v>211</v>
+        <v>267</v>
+      </c>
+      <c r="O17" s="26" t="s">
+        <v>275</v>
       </c>
     </row>
     <row r="18" ht="14.25" spans="1:15">
       <c r="A18" s="5" t="s">
-        <v>232</v>
+        <v>294</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>238</v>
+        <v>300</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>203</v>
+        <v>267</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>213</v>
+        <v>277</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>213</v>
+        <v>277</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>212</v>
-      </c>
-      <c r="G18" s="22" t="s">
-        <v>207</v>
-      </c>
-      <c r="H18" s="22" t="s">
-        <v>204</v>
-      </c>
-      <c r="I18" s="22" t="s">
-        <v>234</v>
-      </c>
-      <c r="J18" s="22" t="s">
-        <v>208</v>
+        <v>276</v>
+      </c>
+      <c r="G18" s="26" t="s">
+        <v>271</v>
+      </c>
+      <c r="H18" s="26" t="s">
+        <v>268</v>
+      </c>
+      <c r="I18" s="26" t="s">
+        <v>296</v>
+      </c>
+      <c r="J18" s="26" t="s">
+        <v>272</v>
       </c>
       <c r="K18" s="5" t="s">
-        <v>235</v>
+        <v>297</v>
       </c>
       <c r="L18" s="5" t="s">
-        <v>210</v>
-      </c>
-      <c r="M18" s="22" t="s">
-        <v>211</v>
+        <v>274</v>
+      </c>
+      <c r="M18" s="26" t="s">
+        <v>275</v>
       </c>
       <c r="N18" s="5" t="s">
-        <v>236</v>
-      </c>
-      <c r="O18" s="22" t="s">
-        <v>211</v>
+        <v>298</v>
+      </c>
+      <c r="O18" s="26" t="s">
+        <v>275</v>
       </c>
     </row>
     <row r="19" ht="14.25" spans="1:15">
       <c r="A19" s="5" t="s">
-        <v>232</v>
+        <v>294</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>238</v>
+        <v>300</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>203</v>
+        <v>267</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>213</v>
+        <v>277</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>229</v>
+        <v>291</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>214</v>
-      </c>
-      <c r="G19" s="22" t="s">
-        <v>207</v>
-      </c>
-      <c r="H19" s="22" t="s">
-        <v>204</v>
-      </c>
-      <c r="I19" s="22" t="s">
-        <v>234</v>
-      </c>
-      <c r="J19" s="22" t="s">
-        <v>208</v>
+        <v>278</v>
+      </c>
+      <c r="G19" s="26" t="s">
+        <v>271</v>
+      </c>
+      <c r="H19" s="26" t="s">
+        <v>268</v>
+      </c>
+      <c r="I19" s="26" t="s">
+        <v>296</v>
+      </c>
+      <c r="J19" s="26" t="s">
+        <v>272</v>
       </c>
       <c r="K19" s="5" t="s">
-        <v>235</v>
+        <v>297</v>
       </c>
       <c r="L19" s="5" t="s">
-        <v>210</v>
-      </c>
-      <c r="M19" s="22" t="s">
-        <v>215</v>
+        <v>274</v>
+      </c>
+      <c r="M19" s="26" t="s">
+        <v>279</v>
       </c>
       <c r="N19" s="5" t="s">
-        <v>203</v>
-      </c>
-      <c r="O19" s="22" t="s">
-        <v>211</v>
+        <v>267</v>
+      </c>
+      <c r="O19" s="26" t="s">
+        <v>275</v>
       </c>
     </row>
     <row r="20" ht="14.25" spans="1:15">
       <c r="A20" s="5" t="s">
-        <v>232</v>
+        <v>294</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>231</v>
+        <v>293</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>203</v>
+        <v>267</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>213</v>
+        <v>277</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>229</v>
+        <v>291</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>239</v>
-      </c>
-      <c r="G20" s="22" t="s">
-        <v>207</v>
-      </c>
-      <c r="H20" s="22" t="s">
-        <v>204</v>
-      </c>
-      <c r="I20" s="22" t="s">
-        <v>234</v>
-      </c>
-      <c r="J20" s="22" t="s">
-        <v>208</v>
+        <v>301</v>
+      </c>
+      <c r="G20" s="26" t="s">
+        <v>271</v>
+      </c>
+      <c r="H20" s="26" t="s">
+        <v>268</v>
+      </c>
+      <c r="I20" s="26" t="s">
+        <v>296</v>
+      </c>
+      <c r="J20" s="26" t="s">
+        <v>272</v>
       </c>
       <c r="K20" s="5" t="s">
-        <v>235</v>
+        <v>297</v>
       </c>
       <c r="L20" s="5" t="s">
-        <v>210</v>
-      </c>
-      <c r="M20" s="22" t="s">
-        <v>211</v>
+        <v>274</v>
+      </c>
+      <c r="M20" s="26" t="s">
+        <v>275</v>
       </c>
       <c r="N20" s="5" t="s">
-        <v>236</v>
-      </c>
-      <c r="O20" s="22" t="s">
-        <v>211</v>
+        <v>298</v>
+      </c>
+      <c r="O20" s="26" t="s">
+        <v>275</v>
       </c>
     </row>
     <row r="21" ht="14.25" spans="1:15">
       <c r="A21" s="5" t="s">
-        <v>232</v>
+        <v>294</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>231</v>
+        <v>293</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>203</v>
+        <v>267</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>213</v>
+        <v>277</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>205</v>
+        <v>269</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>214</v>
-      </c>
-      <c r="G21" s="22" t="s">
-        <v>207</v>
-      </c>
-      <c r="H21" s="22" t="s">
-        <v>204</v>
-      </c>
-      <c r="I21" s="22" t="s">
-        <v>234</v>
-      </c>
-      <c r="J21" s="22" t="s">
-        <v>208</v>
+        <v>278</v>
+      </c>
+      <c r="G21" s="26" t="s">
+        <v>271</v>
+      </c>
+      <c r="H21" s="26" t="s">
+        <v>268</v>
+      </c>
+      <c r="I21" s="26" t="s">
+        <v>296</v>
+      </c>
+      <c r="J21" s="26" t="s">
+        <v>272</v>
       </c>
       <c r="K21" s="5" t="s">
-        <v>235</v>
+        <v>297</v>
       </c>
       <c r="L21" s="5" t="s">
-        <v>210</v>
-      </c>
-      <c r="M21" s="22" t="s">
-        <v>215</v>
+        <v>274</v>
+      </c>
+      <c r="M21" s="26" t="s">
+        <v>279</v>
       </c>
       <c r="N21" s="5" t="s">
-        <v>203</v>
-      </c>
-      <c r="O21" s="22" t="s">
-        <v>211</v>
+        <v>267</v>
+      </c>
+      <c r="O21" s="26" t="s">
+        <v>275</v>
       </c>
     </row>
     <row r="22" ht="14.25" spans="1:15">
       <c r="A22" t="s">
-        <v>240</v>
+        <v>302</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>212</v>
+        <v>276</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>203</v>
+        <v>267</v>
       </c>
       <c r="D22" s="5">
         <v>10</v>
@@ -5635,269 +6344,316 @@
         <v>7</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>214</v>
-      </c>
-      <c r="G22" s="22" t="s">
-        <v>227</v>
-      </c>
-      <c r="H22" s="22" t="s">
-        <v>204</v>
-      </c>
-      <c r="I22" s="22" t="s">
-        <v>207</v>
-      </c>
-      <c r="J22" s="22" t="s">
-        <v>208</v>
+        <v>278</v>
+      </c>
+      <c r="G22" s="26" t="s">
+        <v>289</v>
+      </c>
+      <c r="H22" s="26" t="s">
+        <v>268</v>
+      </c>
+      <c r="I22" s="26" t="s">
+        <v>271</v>
+      </c>
+      <c r="J22" s="26" t="s">
+        <v>272</v>
       </c>
       <c r="K22" s="5" t="s">
-        <v>241</v>
+        <v>303</v>
       </c>
       <c r="L22" s="5" t="s">
-        <v>210</v>
-      </c>
-      <c r="M22" s="22" t="s">
-        <v>215</v>
+        <v>274</v>
+      </c>
+      <c r="M22" s="26" t="s">
+        <v>279</v>
       </c>
       <c r="N22" s="5" t="s">
-        <v>203</v>
-      </c>
-      <c r="O22" s="22" t="s">
-        <v>215</v>
+        <v>267</v>
+      </c>
+      <c r="O22" s="26" t="s">
+        <v>279</v>
       </c>
     </row>
     <row r="23" ht="14.25" spans="1:15">
       <c r="A23" t="s">
-        <v>240</v>
+        <v>302</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>212</v>
+        <v>276</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>203</v>
+        <v>267</v>
       </c>
       <c r="D23" s="5">
         <v>10</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>207</v>
+        <v>271</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>242</v>
-      </c>
-      <c r="G23" s="22" t="s">
-        <v>227</v>
-      </c>
-      <c r="H23" s="22" t="s">
-        <v>204</v>
-      </c>
-      <c r="I23" s="22" t="s">
-        <v>207</v>
-      </c>
-      <c r="J23" s="22" t="s">
-        <v>208</v>
+        <v>304</v>
+      </c>
+      <c r="G23" s="26" t="s">
+        <v>289</v>
+      </c>
+      <c r="H23" s="26" t="s">
+        <v>268</v>
+      </c>
+      <c r="I23" s="26" t="s">
+        <v>271</v>
+      </c>
+      <c r="J23" s="26" t="s">
+        <v>272</v>
       </c>
       <c r="K23" s="5" t="s">
-        <v>241</v>
+        <v>303</v>
       </c>
       <c r="L23" s="5" t="s">
-        <v>210</v>
-      </c>
-      <c r="M23" s="22" t="s">
-        <v>215</v>
+        <v>274</v>
+      </c>
+      <c r="M23" s="26" t="s">
+        <v>279</v>
       </c>
       <c r="N23" s="5" t="s">
-        <v>203</v>
-      </c>
-      <c r="O23" s="22" t="s">
-        <v>215</v>
+        <v>267</v>
+      </c>
+      <c r="O23" s="26" t="s">
+        <v>279</v>
       </c>
     </row>
     <row r="24" ht="14.25" spans="1:15">
       <c r="A24" t="s">
-        <v>240</v>
+        <v>302</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>238</v>
+        <v>300</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>203</v>
+        <v>267</v>
       </c>
       <c r="D24" s="5">
         <v>10</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>207</v>
+        <v>271</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>242</v>
-      </c>
-      <c r="G24" s="22" t="s">
-        <v>227</v>
-      </c>
-      <c r="H24" s="22" t="s">
-        <v>204</v>
-      </c>
-      <c r="I24" s="22" t="s">
-        <v>207</v>
-      </c>
-      <c r="J24" s="22" t="s">
-        <v>208</v>
+        <v>304</v>
+      </c>
+      <c r="G24" s="26" t="s">
+        <v>289</v>
+      </c>
+      <c r="H24" s="26" t="s">
+        <v>268</v>
+      </c>
+      <c r="I24" s="26" t="s">
+        <v>271</v>
+      </c>
+      <c r="J24" s="26" t="s">
+        <v>272</v>
       </c>
       <c r="K24" s="5" t="s">
-        <v>241</v>
+        <v>303</v>
       </c>
       <c r="L24" s="5" t="s">
-        <v>210</v>
-      </c>
-      <c r="M24" s="22" t="s">
-        <v>215</v>
+        <v>274</v>
+      </c>
+      <c r="M24" s="26" t="s">
+        <v>279</v>
       </c>
       <c r="N24" s="5" t="s">
-        <v>203</v>
-      </c>
-      <c r="O24" s="22" t="s">
-        <v>215</v>
+        <v>267</v>
+      </c>
+      <c r="O24" s="26" t="s">
+        <v>279</v>
       </c>
     </row>
     <row r="25" ht="14.25" spans="1:15">
       <c r="A25" t="s">
-        <v>240</v>
+        <v>302</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>238</v>
+        <v>300</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>203</v>
+        <v>267</v>
       </c>
       <c r="D25" s="5">
         <v>10</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>207</v>
+        <v>271</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>242</v>
-      </c>
-      <c r="G25" s="22" t="s">
-        <v>227</v>
-      </c>
-      <c r="H25" s="22" t="s">
-        <v>204</v>
-      </c>
-      <c r="I25" s="22" t="s">
-        <v>207</v>
-      </c>
-      <c r="J25" s="22" t="s">
-        <v>208</v>
+        <v>304</v>
+      </c>
+      <c r="G25" s="26" t="s">
+        <v>289</v>
+      </c>
+      <c r="H25" s="26" t="s">
+        <v>268</v>
+      </c>
+      <c r="I25" s="26" t="s">
+        <v>271</v>
+      </c>
+      <c r="J25" s="26" t="s">
+        <v>272</v>
       </c>
       <c r="K25" s="5" t="s">
-        <v>241</v>
+        <v>303</v>
       </c>
       <c r="L25" s="5" t="s">
-        <v>210</v>
-      </c>
-      <c r="M25" s="22" t="s">
-        <v>215</v>
+        <v>274</v>
+      </c>
+      <c r="M25" s="26" t="s">
+        <v>279</v>
       </c>
       <c r="N25" s="5" t="s">
-        <v>203</v>
-      </c>
-      <c r="O25" s="22" t="s">
-        <v>215</v>
+        <v>267</v>
+      </c>
+      <c r="O25" s="26" t="s">
+        <v>279</v>
       </c>
     </row>
     <row r="26" ht="14.25" spans="1:15">
       <c r="A26" t="s">
-        <v>240</v>
+        <v>302</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>231</v>
+        <v>293</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>203</v>
+        <v>267</v>
       </c>
       <c r="D26" s="5">
         <v>10</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>207</v>
+        <v>271</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>242</v>
-      </c>
-      <c r="G26" s="22" t="s">
-        <v>227</v>
-      </c>
-      <c r="H26" s="22" t="s">
-        <v>204</v>
-      </c>
-      <c r="I26" s="22" t="s">
-        <v>207</v>
-      </c>
-      <c r="J26" s="22" t="s">
-        <v>208</v>
+        <v>304</v>
+      </c>
+      <c r="G26" s="26" t="s">
+        <v>289</v>
+      </c>
+      <c r="H26" s="26" t="s">
+        <v>268</v>
+      </c>
+      <c r="I26" s="26" t="s">
+        <v>271</v>
+      </c>
+      <c r="J26" s="26" t="s">
+        <v>272</v>
       </c>
       <c r="K26" s="5" t="s">
-        <v>241</v>
+        <v>303</v>
       </c>
       <c r="L26" s="5" t="s">
-        <v>210</v>
-      </c>
-      <c r="M26" s="22" t="s">
-        <v>215</v>
+        <v>274</v>
+      </c>
+      <c r="M26" s="26" t="s">
+        <v>279</v>
       </c>
       <c r="N26" s="5" t="s">
-        <v>203</v>
-      </c>
-      <c r="O26" s="22" t="s">
-        <v>215</v>
+        <v>267</v>
+      </c>
+      <c r="O26" s="26" t="s">
+        <v>279</v>
       </c>
     </row>
     <row r="27" ht="14.25" spans="1:15">
       <c r="A27" t="s">
-        <v>240</v>
+        <v>302</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>231</v>
+        <v>293</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>203</v>
+        <v>267</v>
       </c>
       <c r="D27" s="5">
         <v>10</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>207</v>
+        <v>271</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>242</v>
-      </c>
-      <c r="G27" s="22" t="s">
-        <v>227</v>
-      </c>
-      <c r="H27" s="22" t="s">
-        <v>204</v>
-      </c>
-      <c r="I27" s="22" t="s">
-        <v>207</v>
-      </c>
-      <c r="J27" s="22" t="s">
-        <v>208</v>
+        <v>304</v>
+      </c>
+      <c r="G27" s="26" t="s">
+        <v>289</v>
+      </c>
+      <c r="H27" s="26" t="s">
+        <v>268</v>
+      </c>
+      <c r="I27" s="26" t="s">
+        <v>271</v>
+      </c>
+      <c r="J27" s="26" t="s">
+        <v>272</v>
       </c>
       <c r="K27" s="5" t="s">
-        <v>241</v>
+        <v>303</v>
       </c>
       <c r="L27" s="5" t="s">
-        <v>210</v>
-      </c>
-      <c r="M27" s="22" t="s">
-        <v>215</v>
+        <v>274</v>
+      </c>
+      <c r="M27" s="26" t="s">
+        <v>279</v>
       </c>
       <c r="N27" s="5" t="s">
-        <v>203</v>
-      </c>
-      <c r="O27" s="22" t="s">
-        <v>215</v>
+        <v>267</v>
+      </c>
+      <c r="O27" s="26" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15">
+      <c r="A28" t="s">
+        <v>305</v>
+      </c>
+      <c r="B28" s="4">
+        <v>11</v>
+      </c>
+      <c r="C28">
+        <v>-1</v>
+      </c>
+      <c r="D28">
+        <v>3</v>
+      </c>
+      <c r="E28">
+        <v>-1</v>
+      </c>
+      <c r="F28" t="s">
+        <v>299</v>
+      </c>
+      <c r="G28">
+        <v>1000</v>
+      </c>
+      <c r="H28">
+        <v>0</v>
+      </c>
+      <c r="I28">
+        <v>10</v>
+      </c>
+      <c r="J28">
+        <v>0</v>
+      </c>
+      <c r="K28" t="s">
+        <v>44</v>
+      </c>
+      <c r="L28">
+        <v>0</v>
+      </c>
+      <c r="M28" s="27" t="s">
+        <v>279</v>
+      </c>
+      <c r="N28">
+        <v>-1</v>
+      </c>
+      <c r="O28" s="27" t="s">
+        <v>279</v>
       </c>
     </row>
   </sheetData>
@@ -5922,31 +6678,31 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" t="s">
-        <v>141</v>
+        <v>205</v>
       </c>
       <c r="B1" t="s">
-        <v>243</v>
+        <v>306</v>
       </c>
       <c r="C1" t="s">
-        <v>244</v>
+        <v>307</v>
       </c>
       <c r="D1" t="s">
-        <v>245</v>
+        <v>308</v>
       </c>
       <c r="E1" t="s">
-        <v>246</v>
+        <v>309</v>
       </c>
       <c r="F1" t="s">
-        <v>247</v>
+        <v>310</v>
       </c>
       <c r="G1" t="s">
-        <v>248</v>
+        <v>311</v>
       </c>
       <c r="H1" t="s">
-        <v>249</v>
+        <v>312</v>
       </c>
       <c r="I1" t="s">
-        <v>250</v>
+        <v>313</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -5980,31 +6736,31 @@
     </row>
     <row r="3" spans="1:9">
       <c r="A3" t="s">
-        <v>251</v>
+        <v>314</v>
       </c>
       <c r="B3" t="s">
-        <v>252</v>
+        <v>315</v>
       </c>
       <c r="C3" t="s">
-        <v>253</v>
+        <v>316</v>
       </c>
       <c r="D3" t="s">
-        <v>254</v>
+        <v>317</v>
       </c>
       <c r="E3" t="s">
-        <v>255</v>
+        <v>318</v>
       </c>
       <c r="F3" t="s">
-        <v>256</v>
+        <v>319</v>
       </c>
       <c r="G3" t="s">
-        <v>257</v>
+        <v>320</v>
       </c>
       <c r="H3" t="s">
-        <v>258</v>
+        <v>321</v>
       </c>
       <c r="I3" t="s">
-        <v>259</v>
+        <v>322</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -6103,10 +6859,10 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:C25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G29" sqref="G29"/>
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -6123,7 +6879,7 @@
         <v>4</v>
       </c>
       <c r="C1" t="s">
-        <v>260</v>
+        <v>323</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -6139,13 +6895,13 @@
     </row>
     <row r="3" ht="54" spans="1:3">
       <c r="A3" s="4" t="s">
-        <v>261</v>
+        <v>324</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>262</v>
+        <v>325</v>
       </c>
       <c r="C3" t="s">
-        <v>263</v>
+        <v>326</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -6156,7 +6912,7 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>50</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -6178,7 +6934,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>50</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -6366,6 +7122,28 @@
       </c>
       <c r="C23">
         <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24">
+        <v>11</v>
+      </c>
+      <c r="B24">
+        <v>2</v>
+      </c>
+      <c r="C24">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25">
+        <v>11</v>
+      </c>
+      <c r="B25">
+        <v>2</v>
+      </c>
+      <c r="C25">
+        <v>500</v>
       </c>
     </row>
   </sheetData>
@@ -6377,13 +7155,13 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="A1:D3"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="3"/>
   <cols>
     <col min="2" max="2" width="14.875" customWidth="1"/>
     <col min="3" max="3" width="18.875" customWidth="1"/>
@@ -6392,16 +7170,16 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>264</v>
+        <v>327</v>
       </c>
       <c r="B1" t="s">
-        <v>265</v>
+        <v>328</v>
       </c>
       <c r="C1" t="s">
-        <v>266</v>
+        <v>329</v>
       </c>
       <c r="D1" t="s">
-        <v>267</v>
+        <v>330</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -6420,16 +7198,16 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>268</v>
+        <v>331</v>
       </c>
       <c r="B3" t="s">
-        <v>269</v>
+        <v>332</v>
       </c>
       <c r="C3" t="s">
-        <v>270</v>
+        <v>333</v>
       </c>
       <c r="D3" t="s">
-        <v>271</v>
+        <v>334</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -6437,27 +7215,13 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>272</v>
+        <v>335</v>
       </c>
       <c r="C4" t="s">
-        <v>273</v>
+        <v>336</v>
       </c>
       <c r="D4" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5">
-        <v>2</v>
-      </c>
-      <c r="B5" t="s">
-        <v>275</v>
-      </c>
-      <c r="C5" t="s">
-        <v>276</v>
-      </c>
-      <c r="D5" t="s">
-        <v>277</v>
+        <v>337</v>
       </c>
     </row>
   </sheetData>
@@ -6482,10 +7246,10 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="27" spans="2:8">
       <c r="B1" s="1" t="s">
-        <v>278</v>
+        <v>338</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>279</v>
+        <v>339</v>
       </c>
       <c r="D1" s="3">
         <v>7</v>
@@ -6502,10 +7266,10 @@
     </row>
     <row r="2" s="1" customFormat="1" ht="27" spans="2:8">
       <c r="B2" s="1" t="s">
-        <v>280</v>
+        <v>340</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>279</v>
+        <v>339</v>
       </c>
       <c r="D2" s="3">
         <v>7</v>
@@ -6522,10 +7286,10 @@
     </row>
     <row r="3" s="1" customFormat="1" ht="27" spans="2:8">
       <c r="B3" s="1" t="s">
-        <v>281</v>
+        <v>341</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>279</v>
+        <v>339</v>
       </c>
       <c r="D3" s="3">
         <v>7</v>
@@ -6537,7 +7301,7 @@
         <v>1</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>282</v>
+        <v>342</v>
       </c>
     </row>
     <row r="4" spans="8:8">

--- a/Assets/Editor/ItemData.xlsx
+++ b/Assets/Editor/ItemData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17775" activeTab="1"/>
+    <workbookView windowWidth="27945" windowHeight="12960" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="道具" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="730" uniqueCount="343">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="774" uniqueCount="385">
   <si>
     <t>id</t>
   </si>
@@ -110,12 +110,18 @@
     <t>雷劫道数+1</t>
   </si>
   <si>
+    <t>陆兰砂来到宗门后炼制的第一张法符。</t>
+  </si>
+  <si>
     <t>桃木剑</t>
   </si>
   <si>
     <t>雷劫伤害+3</t>
   </si>
   <si>
+    <t>大师兄姜持明在成为“御剑通绝”前，一直带在身上的木剑。</t>
+  </si>
+  <si>
     <t>雕花酒葫芦</t>
   </si>
   <si>
@@ -128,6 +134,9 @@
     <t>1,5</t>
   </si>
   <si>
+    <t>“文墨通绝”李双红腰间的葫芦，有时候里面是墨水，有时候里面是酒，对他而言没什么区别。</t>
+  </si>
+  <si>
     <t>桃花枝</t>
   </si>
   <si>
@@ -140,6 +149,9 @@
     <t>0.05,3</t>
   </si>
   <si>
+    <t>山门下面桃花林里的一支桃花，里面的桃子很甜。</t>
+  </si>
+  <si>
     <t>青玉剑</t>
   </si>
   <si>
@@ -152,6 +164,9 @@
     <t>1,0.1</t>
   </si>
   <si>
+    <t>三师兄李双红自己亲手雕刻的玉剑。</t>
+  </si>
+  <si>
     <t>黑拂尘</t>
   </si>
   <si>
@@ -164,12 +179,18 @@
     <t>10,-10</t>
   </si>
   <si>
+    <t>同天真人齐渊的两个拂尘之一，上面的黑色是他自己染的。</t>
+  </si>
+  <si>
     <t>拂尘</t>
   </si>
   <si>
     <t>雷劫伤害+5</t>
   </si>
   <si>
+    <t>同天真人齐渊的两个拂尘之一，由山上白鹿的尾毛制成。</t>
+  </si>
+  <si>
     <t>红袍</t>
   </si>
   <si>
@@ -182,6 +203,9 @@
     <t>5,5</t>
   </si>
   <si>
+    <t>“符法通绝”陆兰砂常年穿在身上的红袍。</t>
+  </si>
+  <si>
     <t>袈裟</t>
   </si>
   <si>
@@ -191,12 +215,18 @@
     <t>8,9</t>
   </si>
   <si>
+    <t>一个奇怪的袈裟，似乎是齐渊过去的物件。</t>
+  </si>
+  <si>
     <t>纸鸢</t>
   </si>
   <si>
     <t>雷电道数+1</t>
   </si>
   <si>
+    <t>老旧的纸鸢，上面歪歪扭扭的写下了好几个人的名字。</t>
+  </si>
+  <si>
     <t>同心结</t>
   </si>
   <si>
@@ -209,6 +239,9 @@
     <t>5,3,0.05</t>
   </si>
   <si>
+    <t>一个残破的同心结，应该是从手绳上掉下来的。</t>
+  </si>
+  <si>
     <t>竹简</t>
   </si>
   <si>
@@ -221,21 +254,34 @@
     <t>4,1,-5</t>
   </si>
   <si>
+    <t>一卷竹简上面充斥着不同年代以及地域的文字。</t>
+  </si>
+  <si>
     <t>无字碑</t>
   </si>
   <si>
     <t>雷劫伤害+2</t>
   </si>
   <si>
+    <t>在后山隐秘处的一座无字碑，更像是一座墓碑。</t>
+  </si>
+  <si>
     <t>玉牌</t>
   </si>
   <si>
+    <t>齐渊送给李双红和姜持明的一对玉牌。
+一个刻着天行健，另一个刻着地势坤。</t>
+  </si>
+  <si>
     <t>玉龙</t>
   </si>
   <si>
     <t>雷劫频率-0.05</t>
   </si>
   <si>
+    <t>龙形状的玉佩，李双红在拜山修道之前曾是皇室。</t>
+  </si>
+  <si>
     <t>玄冰</t>
   </si>
   <si>
@@ -248,6 +294,9 @@
     <t>0.05,2,-3</t>
   </si>
   <si>
+    <t>夏天时从师父冰室里偷偷带出来的千年不化的玄冰碎片。</t>
+  </si>
+  <si>
     <t>真火</t>
   </si>
   <si>
@@ -260,6 +309,9 @@
     <t>5,1,5</t>
   </si>
   <si>
+    <t>镇守山门的灵火，在齐渊死后逐渐开始衰弱。</t>
+  </si>
+  <si>
     <t>白玉膏</t>
   </si>
   <si>
@@ -272,6 +324,9 @@
     <t>5,3</t>
   </si>
   <si>
+    <t>姜持明在入山前，家中是医药世家。</t>
+  </si>
+  <si>
     <t>白绸缎</t>
   </si>
   <si>
@@ -284,6 +339,9 @@
     <t>-2,0.3</t>
   </si>
   <si>
+    <t>绑在梨花树上，远远开过去就像是梨花开了。</t>
+  </si>
+  <si>
     <t>彼岸花</t>
   </si>
   <si>
@@ -293,15 +351,24 @@
     <t>5,-5</t>
   </si>
   <si>
+    <t>用红纸剪成的纸花。</t>
+  </si>
+  <si>
     <t>异火莲花</t>
   </si>
   <si>
+    <t>画在话本中的宝物，旁边写着一句“三十年河东，三十年河西……”</t>
+  </si>
+  <si>
     <t>祖符</t>
   </si>
   <si>
     <t>雷劫道数+2</t>
   </si>
   <si>
+    <t>画在话本中的宝物</t>
+  </si>
+  <si>
     <t>春秋蛊</t>
   </si>
   <si>
@@ -336,6 +403,9 @@
   </si>
   <si>
     <t>5,1</t>
+  </si>
+  <si>
+    <t>画在话本中的宝物，绿色瓶子里藏着秘密。</t>
   </si>
   <si>
     <t>翠微业力·小</t>
@@ -460,19 +530,19 @@
     <t>每被雷击中三次召唤一个一次性分身</t>
   </si>
   <si>
-    <t>“一真三绝”死后，曾经同辈中最被忽视的陈师弟成了三绝一代最后的掌门，没人会想到他却成为了守护山门最久的掌门。</t>
-  </si>
-  <si>
-    <t>小神通·三刻换生法</t>
-  </si>
-  <si>
-    <t>每隔一段时间会在自己所在位置召唤一个一次性分身</t>
-  </si>
-  <si>
     <t>百相道人陈修泽少年时最早学会的法术，仅能够支撑一段时间的分身，帮助其逃过了许许多多功课。
 因此在少年时时常被师父责骂其好吃懒做。</t>
   </si>
   <si>
+    <t>小神通·三刻换生法</t>
+  </si>
+  <si>
+    <t>每隔一段时间会在自己所在位置召唤一个一次性分身</t>
+  </si>
+  <si>
+    <t>“一真三绝”死后，曾经同辈中最被忽视的陈师弟成了三绝一代最后的掌门，没人会想到他却成为了守护山门最久的掌门。</t>
+  </si>
+  <si>
     <t>大神通·将身比身</t>
   </si>
   <si>
@@ -480,7 +550,6 @@
   </si>
   <si>
     <t>在无人知晓的山洞中，男子早已透支的身体开始逐渐破碎，在生命的最后，几个飘忽的分身幻化成了那些已故之人的模样陪在男子身旁。
-“还是怀念从前的日子啊……”
 男子停止了呼吸，身边的分身逐渐消失，只剩下一个分身来到他的面前，轻轻合上其双眼。</t>
   </si>
   <si>
@@ -490,12 +559,18 @@
     <t>角色被雷击后，雷电将随机角度反射</t>
   </si>
   <si>
+    <t>齐渊经常教导自己的弟子：面对雷劫的唯一办法，就是在自己的灵台之上建起一面镜子。</t>
+  </si>
+  <si>
     <t>小神通·不渡经</t>
   </si>
   <si>
     <t>当雷电攻击怪物后会发生爆炸伤害</t>
   </si>
   <si>
+    <t>“一真三绝”里的一真指的是同天真人——齐渊，没人知道他究竟是在何处寻到了九净法门的机缘，将这个消失了几百年的古老宗门又一次带到世间。</t>
+  </si>
+  <si>
     <t>大神通·日月同潮引</t>
   </si>
   <si>
@@ -529,38 +604,62 @@
     <t>召唤一个火焰符箓，每8轮雷劫再次召唤，对一定范围内敌人每秒喷射一个火球。过载状态：攻速加倍，持续3秒</t>
   </si>
   <si>
+    <t>可以操控火焰的简单法符。
+在极北之地有一个制作法符的部落，部落里饲养着一群专门制作法符的奴隶，被称作符奴。
+符奴们不会接受教育，但为了让他们更好地制符，部落首领们会把符纹刺在符奴的身体上，那些奇异的纹样便是奴隶的印记。</t>
+  </si>
+  <si>
     <t>小神通·冰川横剑符</t>
   </si>
   <si>
     <t>召唤一个寒冰剑气符箓，每10轮雷劫再次召唤，剑气围绕符箓旋转，对扫过的敌人造成伤害并减少20%移动速度。过载状态：剑气增长，速度加倍，持续3秒。</t>
   </si>
   <si>
+    <t>北方部落民族常见护身法符。
+陆兰砂曾用此符法制成数万把冰刃，冰刃坚固无比，她将其散发给孔雀州一小国的奴隶们，奴隶们以此冰刃作为武器，推翻了那个国家的皇帝。</t>
+  </si>
+  <si>
     <t>小神通·清风化煞印</t>
   </si>
   <si>
     <t>召唤一个草木符箓，每8轮雷劫再次召唤，每4秒生成一个治疗法球恢复。过载状态:生出速度翻倍，持续4秒</t>
   </si>
   <si>
+    <t>能够治疗疾病的符法。
+陆兰砂据说是九净法门第六代掌门从北方寻来的法符好苗子，但自从加入宗门以来，无论春夏秋冬，陆兰砂总是将自己裹得严严实实的，性子也冷得像块玄冰，从未有人见过她脱去身上那件红色的大袍子。</t>
+  </si>
+  <si>
     <t>小神通·搬山遁甲符</t>
   </si>
   <si>
     <t>召唤一个盾牌符箓，每8轮雷劫再次召唤，每5秒生成一个护甲恢复法球。过载状态：每秒攻击一个敌人，持续3秒。</t>
   </si>
   <si>
+    <t>能够为周身凝结护体罡气的符法。
+陆兰砂在离开孔雀州后，前往了北方。
+当她再回到宗门时，曾经那件朝夕相伴的大红袍，被改成了一条披肩，朱红色的符纹刺满了胸脯与后背。
+不久传来消息：北方的一个部落国消失了，取而代之的是一个巨大的深坑。</t>
+  </si>
+  <si>
     <t>大神通·幻界囚真世</t>
   </si>
   <si>
     <t>召唤一个虚空符箓，每12轮雷劫再次召唤，形成黑洞不断将敌人吸引上限8个。过载状态：引爆黑洞，造成大量伤害并击退。</t>
   </si>
   <si>
-    <t>“一真三绝”之一“符法通绝”陆修兰所使用的大神通。
-她在观摩了某种远古传说中的凶咒后，突破了空间方寸之限后领悟的神通，曾经使用此神通将一个国家顷刻间化为齑粉。</t>
+    <t>“一真三绝”之一“符法通绝”陆兰砂所使用的大神通。
+陆兰砂在南方的孔雀州观摩了某种远古传说中的凶咒后，突破了空间方寸之限后领悟的神通，曾经使用此神通将一个国家顷刻间化为齑粉。</t>
   </si>
   <si>
     <t>大神通·穿念化阴雷</t>
   </si>
   <si>
     <t>每轮雷劫只会生成一道雷击，雷击道数会转化成为雷电伤害，并将自动串联所有符箓。</t>
+  </si>
+  <si>
+    <t>“符法通绝”陆兰砂在孔雀州领悟的第二个大神通。
+那黑色不祥的雷电如同一个与陆兰砂神识相通的活物，这是九净法门从未有过的雷电。
+与其说是施展法术，更像是在跟某种存在交流。</t>
   </si>
   <si>
     <t>小神通·报春蛊</t>
@@ -579,13 +678,25 @@
     <t>需要10道闪电充能，在自身周围形成一个环形造成伤害持续10秒</t>
   </si>
   <si>
+    <t>在南方孔雀州的密林中，有一个崇尚炼蛊的国家隐匿其中，名叫夜邑国。
+这种喜食血肉的蜂虫，便是其在密林中的第一道防线，贸然来此的旅人，都会变成密林中一具白骨。</t>
+  </si>
+  <si>
     <t>小神通·金蚕蛊</t>
   </si>
   <si>
     <t>需要6道闪电充能，在身体后方召唤一道墙壁阻挡怪物和子弹，持续5秒</t>
   </si>
   <si>
+    <t>能在顷刻间织出坚硬丝墙的蛊虫。
+据说是代表着幸运的蛊虫，这是一个少年送给陆兰砂的礼物。</t>
+  </si>
+  <si>
     <t>大神通·三鬼追魂蛊</t>
+  </si>
+  <si>
+    <t>只有高阶的蛊祭才能掌握的凶狠蛊虫，它以鲜血为记，会追杀目标到天涯海角。
+过去的夜邑国一切都为大蛊祭掌控，直到天空中张开了黑色的眼眸后，最后的一位大蛊祭相信自己听到了蛊神的神谕，要将夜邑国的一切都献给祂。</t>
   </si>
   <si>
     <t>大神通·脏腑养宫蛊</t>
@@ -614,6 +725,9 @@
     <t>移动路径上留下一个可以降低怪物速度的减速区域</t>
   </si>
   <si>
+    <t>九净法门的身法之一，周身泛起迷雾，身姿如同女子舞动的倩影一般。</t>
+  </si>
+  <si>
     <t>小神通·金雷颤魂法</t>
   </si>
   <si>
@@ -630,46 +744,71 @@
     <t>角色定时进入一段无敌状态</t>
   </si>
   <si>
+    <t>九净法门的身法之一，如露亦如电,如梦幻泡影,应作如是观。</t>
+  </si>
+  <si>
     <t>小神通·身前三尺三寸诀</t>
   </si>
   <si>
     <t>角色每隔一段时间会朝面向方向瞬移一段距离</t>
   </si>
   <si>
+    <t>九净法门的身法之一，曾经一位九净法门的掌门认为这个世界并不是连续的，而是被某种力量推动着一段一段的向前，感官始终比真实慢一段距离，大概是三尺三寸。</t>
+  </si>
+  <si>
     <t>神行·阴</t>
   </si>
   <si>
     <t>将自身速度按一定比例转化为雷劫频率</t>
   </si>
   <si>
+    <t>金雷劈开天地，化成神龙。
+神龙的龙鳞变成一个个小世界，依靠神龙的力量运转。</t>
+  </si>
+  <si>
     <t>神行·阳</t>
   </si>
   <si>
     <t>将自身速度按一定比例转化为雷劫道数</t>
   </si>
   <si>
+    <t>神龙即将死去，维持小世界运转的力量越来越弱，许多龙鳞世界开始脱落。</t>
+  </si>
+  <si>
     <t>修命·阴</t>
   </si>
   <si>
     <t>将自身生命值按一定比例转化为雷劫道数</t>
   </si>
   <si>
+    <t>天地之中的浊气诞生出了寄生虫，寄生在神龙身上，而寄生虫却成了可以打通不同龙鳞世界之间的隧道。</t>
+  </si>
+  <si>
     <t>修命·阳</t>
   </si>
   <si>
     <t>将自身生命值按一定比例转化为雷劫伤害</t>
   </si>
   <si>
+    <t>不断有死去世界的生物通过浊气之虫来到仍未死去的世界，一般弱小的生物以及个体无法穿越浊气之虫，唯有那些强大的个体才能穿过浊气来到别的龙鳞世界。</t>
+  </si>
+  <si>
     <t>天罡·阴</t>
   </si>
   <si>
     <t>将自身护甲值按一定比例转化为雷劫伤害</t>
   </si>
   <si>
+    <t>那些从死去世界穿越而来的强大个体往往带着极其强烈的欲望。</t>
+  </si>
+  <si>
     <t>天罡·阳</t>
   </si>
   <si>
     <t>将自身护甲值按一定比例转化为雷劫频率</t>
+  </si>
+  <si>
+    <t>当天空睁开黑色眼睛，衰败的龙鳞世界中无数诡异之物便会与无尽的浊气一起从天而降，而其中的最强者被称之为厄主。</t>
   </si>
   <si>
     <t>levelId</t>
@@ -1756,7 +1895,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1825,6 +1964,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2189,8 +2331,8 @@
   <sheetPr/>
   <dimension ref="A1:H74"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="F55" sqref="F55"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G53" sqref="G53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -2200,7 +2342,7 @@
     <col min="4" max="4" width="13.125" customWidth="1"/>
     <col min="5" max="5" width="15.875" customWidth="1"/>
     <col min="6" max="6" width="10.375" customWidth="1"/>
-    <col min="7" max="7" width="75.25" customWidth="1"/>
+    <col min="7" max="7" width="77.375" customWidth="1"/>
     <col min="8" max="8" width="15.625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2301,6 +2443,9 @@
       <c r="F4" s="22">
         <v>1</v>
       </c>
+      <c r="G4" s="23" t="s">
+        <v>21</v>
+      </c>
       <c r="H4">
         <v>1</v>
       </c>
@@ -2310,10 +2455,10 @@
         <v>102</v>
       </c>
       <c r="B5" s="19" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C5" s="20" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D5" s="4">
         <v>2</v>
@@ -2324,28 +2469,34 @@
       <c r="F5" s="22">
         <v>3</v>
       </c>
+      <c r="G5" s="23" t="s">
+        <v>24</v>
+      </c>
       <c r="H5">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" ht="27" spans="1:8">
       <c r="A6">
         <v>103</v>
       </c>
       <c r="B6" s="19" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C6" s="20" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D6" s="4">
         <v>2</v>
       </c>
       <c r="E6" s="21" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F6" s="22" t="s">
-        <v>26</v>
+        <v>28</v>
+      </c>
+      <c r="G6" s="23" t="s">
+        <v>29</v>
       </c>
       <c r="H6">
         <v>1</v>
@@ -2356,19 +2507,22 @@
         <v>104</v>
       </c>
       <c r="B7" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="C7" s="23" t="s">
-        <v>28</v>
+        <v>30</v>
+      </c>
+      <c r="C7" s="24" t="s">
+        <v>31</v>
       </c>
       <c r="D7" s="4">
         <v>2</v>
       </c>
       <c r="E7" s="21" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F7" s="22" t="s">
-        <v>30</v>
+        <v>33</v>
+      </c>
+      <c r="G7" s="23" t="s">
+        <v>34</v>
       </c>
       <c r="H7">
         <v>2</v>
@@ -2379,19 +2533,22 @@
         <v>105</v>
       </c>
       <c r="B8" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="C8" s="23" t="s">
-        <v>32</v>
+        <v>35</v>
+      </c>
+      <c r="C8" s="24" t="s">
+        <v>36</v>
       </c>
       <c r="D8" s="4">
         <v>2</v>
       </c>
       <c r="E8" s="21" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="F8" s="22" t="s">
-        <v>34</v>
+        <v>38</v>
+      </c>
+      <c r="G8" s="23" t="s">
+        <v>39</v>
       </c>
       <c r="H8">
         <v>2</v>
@@ -2402,19 +2559,22 @@
         <v>106</v>
       </c>
       <c r="B9" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="C9" s="23" t="s">
-        <v>36</v>
+        <v>40</v>
+      </c>
+      <c r="C9" s="24" t="s">
+        <v>41</v>
       </c>
       <c r="D9" s="4">
         <v>2</v>
       </c>
       <c r="E9" s="21" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="F9" s="22" t="s">
-        <v>38</v>
+        <v>43</v>
+      </c>
+      <c r="G9" s="23" t="s">
+        <v>44</v>
       </c>
       <c r="H9">
         <v>2</v>
@@ -2425,10 +2585,10 @@
         <v>107</v>
       </c>
       <c r="B10" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="C10" s="23" t="s">
-        <v>40</v>
+        <v>45</v>
+      </c>
+      <c r="C10" s="24" t="s">
+        <v>46</v>
       </c>
       <c r="D10" s="4">
         <v>2</v>
@@ -2438,6 +2598,9 @@
       </c>
       <c r="F10" s="22">
         <v>5</v>
+      </c>
+      <c r="G10" s="23" t="s">
+        <v>47</v>
       </c>
       <c r="H10">
         <v>1</v>
@@ -2448,19 +2611,22 @@
         <v>108</v>
       </c>
       <c r="B11" s="19" t="s">
-        <v>41</v>
-      </c>
-      <c r="C11" s="23" t="s">
-        <v>42</v>
+        <v>48</v>
+      </c>
+      <c r="C11" s="24" t="s">
+        <v>49</v>
       </c>
       <c r="D11" s="4">
         <v>2</v>
       </c>
       <c r="E11" s="21" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="F11" s="22" t="s">
-        <v>44</v>
+        <v>51</v>
+      </c>
+      <c r="G11" s="23" t="s">
+        <v>52</v>
       </c>
       <c r="H11">
         <v>2</v>
@@ -2471,19 +2637,22 @@
         <v>109</v>
       </c>
       <c r="B12" s="19" t="s">
-        <v>45</v>
-      </c>
-      <c r="C12" s="23" t="s">
-        <v>46</v>
+        <v>53</v>
+      </c>
+      <c r="C12" s="24" t="s">
+        <v>54</v>
       </c>
       <c r="D12" s="4">
         <v>2</v>
       </c>
       <c r="E12" s="21" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="F12" s="22" t="s">
-        <v>30</v>
+        <v>33</v>
+      </c>
+      <c r="G12" s="23" t="s">
+        <v>56</v>
       </c>
       <c r="H12">
         <v>2</v>
@@ -2494,10 +2663,10 @@
         <v>110</v>
       </c>
       <c r="B13" s="19" t="s">
-        <v>48</v>
-      </c>
-      <c r="C13" s="23" t="s">
-        <v>49</v>
+        <v>57</v>
+      </c>
+      <c r="C13" s="24" t="s">
+        <v>58</v>
       </c>
       <c r="D13" s="4">
         <v>2</v>
@@ -2507,6 +2676,9 @@
       </c>
       <c r="F13" s="22">
         <v>1</v>
+      </c>
+      <c r="G13" s="23" t="s">
+        <v>59</v>
       </c>
       <c r="H13">
         <v>1</v>
@@ -2517,19 +2689,22 @@
         <v>111</v>
       </c>
       <c r="B14" s="19" t="s">
-        <v>50</v>
-      </c>
-      <c r="C14" s="23" t="s">
-        <v>51</v>
+        <v>60</v>
+      </c>
+      <c r="C14" s="24" t="s">
+        <v>61</v>
       </c>
       <c r="D14" s="4">
         <v>2</v>
       </c>
       <c r="E14" s="21" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="F14" s="22" t="s">
-        <v>53</v>
+        <v>63</v>
+      </c>
+      <c r="G14" s="23" t="s">
+        <v>64</v>
       </c>
       <c r="H14">
         <v>2</v>
@@ -2540,19 +2715,22 @@
         <v>112</v>
       </c>
       <c r="B15" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="C15" s="23" t="s">
-        <v>55</v>
+        <v>65</v>
+      </c>
+      <c r="C15" s="24" t="s">
+        <v>66</v>
       </c>
       <c r="D15" s="4">
         <v>2</v>
       </c>
       <c r="E15" s="21" t="s">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="F15" s="22" t="s">
-        <v>57</v>
+        <v>68</v>
+      </c>
+      <c r="G15" s="23" t="s">
+        <v>69</v>
       </c>
       <c r="H15">
         <v>2</v>
@@ -2563,10 +2741,10 @@
         <v>113</v>
       </c>
       <c r="B16" s="19" t="s">
-        <v>58</v>
-      </c>
-      <c r="C16" s="23" t="s">
-        <v>59</v>
+        <v>70</v>
+      </c>
+      <c r="C16" s="24" t="s">
+        <v>71</v>
       </c>
       <c r="D16" s="4">
         <v>2</v>
@@ -2577,19 +2755,22 @@
       <c r="F16" s="22">
         <v>2</v>
       </c>
+      <c r="G16" s="23" t="s">
+        <v>72</v>
+      </c>
       <c r="H16">
         <v>1</v>
       </c>
     </row>
-    <row r="17" ht="14.25" spans="1:8">
+    <row r="17" ht="27" spans="1:8">
       <c r="A17">
         <v>114</v>
       </c>
       <c r="B17" s="19" t="s">
-        <v>60</v>
-      </c>
-      <c r="C17" s="23" t="s">
-        <v>22</v>
+        <v>73</v>
+      </c>
+      <c r="C17" s="24" t="s">
+        <v>23</v>
       </c>
       <c r="D17" s="4">
         <v>2</v>
@@ -2599,6 +2780,9 @@
       </c>
       <c r="F17" s="22">
         <v>2</v>
+      </c>
+      <c r="G17" s="23" t="s">
+        <v>74</v>
       </c>
       <c r="H17">
         <v>1</v>
@@ -2609,10 +2793,10 @@
         <v>115</v>
       </c>
       <c r="B18" s="19" t="s">
-        <v>61</v>
-      </c>
-      <c r="C18" s="23" t="s">
-        <v>62</v>
+        <v>75</v>
+      </c>
+      <c r="C18" s="24" t="s">
+        <v>76</v>
       </c>
       <c r="D18" s="4">
         <v>2</v>
@@ -2622,6 +2806,9 @@
       </c>
       <c r="F18" s="22">
         <v>0.05</v>
+      </c>
+      <c r="G18" s="23" t="s">
+        <v>77</v>
       </c>
       <c r="H18">
         <v>1</v>
@@ -2632,19 +2819,22 @@
         <v>116</v>
       </c>
       <c r="B19" s="19" t="s">
-        <v>63</v>
-      </c>
-      <c r="C19" s="23" t="s">
-        <v>64</v>
+        <v>78</v>
+      </c>
+      <c r="C19" s="24" t="s">
+        <v>79</v>
       </c>
       <c r="D19" s="4">
         <v>2</v>
       </c>
       <c r="E19" s="21" t="s">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="F19" s="22" t="s">
-        <v>66</v>
+        <v>81</v>
+      </c>
+      <c r="G19" s="23" t="s">
+        <v>82</v>
       </c>
       <c r="H19">
         <v>1</v>
@@ -2655,19 +2845,22 @@
         <v>117</v>
       </c>
       <c r="B20" s="19" t="s">
-        <v>67</v>
-      </c>
-      <c r="C20" s="23" t="s">
-        <v>68</v>
+        <v>83</v>
+      </c>
+      <c r="C20" s="24" t="s">
+        <v>84</v>
       </c>
       <c r="D20" s="4">
         <v>2</v>
       </c>
       <c r="E20" s="21" t="s">
-        <v>69</v>
+        <v>85</v>
       </c>
       <c r="F20" s="22" t="s">
-        <v>70</v>
+        <v>86</v>
+      </c>
+      <c r="G20" s="23" t="s">
+        <v>87</v>
       </c>
       <c r="H20">
         <v>2</v>
@@ -2678,19 +2871,22 @@
         <v>118</v>
       </c>
       <c r="B21" s="19" t="s">
-        <v>71</v>
-      </c>
-      <c r="C21" s="23" t="s">
-        <v>72</v>
+        <v>88</v>
+      </c>
+      <c r="C21" s="24" t="s">
+        <v>89</v>
       </c>
       <c r="D21" s="4">
         <v>2</v>
       </c>
       <c r="E21" s="21" t="s">
-        <v>73</v>
+        <v>90</v>
       </c>
       <c r="F21" s="22" t="s">
-        <v>74</v>
+        <v>91</v>
+      </c>
+      <c r="G21" s="23" t="s">
+        <v>92</v>
       </c>
       <c r="H21">
         <v>1</v>
@@ -2701,19 +2897,22 @@
         <v>119</v>
       </c>
       <c r="B22" s="19" t="s">
-        <v>75</v>
-      </c>
-      <c r="C22" s="23" t="s">
-        <v>76</v>
+        <v>93</v>
+      </c>
+      <c r="C22" s="24" t="s">
+        <v>94</v>
       </c>
       <c r="D22" s="4">
         <v>2</v>
       </c>
       <c r="E22" s="21" t="s">
-        <v>77</v>
-      </c>
-      <c r="F22" s="25" t="s">
-        <v>78</v>
+        <v>95</v>
+      </c>
+      <c r="F22" s="26" t="s">
+        <v>96</v>
+      </c>
+      <c r="G22" s="23" t="s">
+        <v>97</v>
       </c>
       <c r="H22">
         <v>2</v>
@@ -2724,19 +2923,22 @@
         <v>120</v>
       </c>
       <c r="B23" s="19" t="s">
-        <v>79</v>
-      </c>
-      <c r="C23" s="23" t="s">
-        <v>80</v>
+        <v>98</v>
+      </c>
+      <c r="C23" s="24" t="s">
+        <v>99</v>
       </c>
       <c r="D23" s="4">
         <v>2</v>
       </c>
       <c r="E23" s="21" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="F23" s="22" t="s">
-        <v>81</v>
+        <v>100</v>
+      </c>
+      <c r="G23" s="23" t="s">
+        <v>101</v>
       </c>
       <c r="H23">
         <v>1</v>
@@ -2747,10 +2949,10 @@
         <v>121</v>
       </c>
       <c r="B24" s="19" t="s">
-        <v>82</v>
-      </c>
-      <c r="C24" s="23" t="s">
-        <v>40</v>
+        <v>102</v>
+      </c>
+      <c r="C24" s="24" t="s">
+        <v>46</v>
       </c>
       <c r="D24" s="4">
         <v>2</v>
@@ -2760,6 +2962,9 @@
       </c>
       <c r="F24" s="22">
         <v>5</v>
+      </c>
+      <c r="G24" s="23" t="s">
+        <v>103</v>
       </c>
       <c r="H24">
         <v>2</v>
@@ -2770,10 +2975,10 @@
         <v>122</v>
       </c>
       <c r="B25" s="19" t="s">
-        <v>83</v>
-      </c>
-      <c r="C25" s="23" t="s">
-        <v>84</v>
+        <v>104</v>
+      </c>
+      <c r="C25" s="24" t="s">
+        <v>105</v>
       </c>
       <c r="D25" s="4">
         <v>2</v>
@@ -2783,6 +2988,9 @@
       </c>
       <c r="F25" s="22">
         <v>2</v>
+      </c>
+      <c r="G25" s="23" t="s">
+        <v>106</v>
       </c>
       <c r="H25">
         <v>2</v>
@@ -2793,19 +3001,22 @@
         <v>123</v>
       </c>
       <c r="B26" s="19" t="s">
-        <v>85</v>
-      </c>
-      <c r="C26" s="23" t="s">
-        <v>86</v>
+        <v>107</v>
+      </c>
+      <c r="C26" s="24" t="s">
+        <v>108</v>
       </c>
       <c r="D26" s="4">
         <v>2</v>
       </c>
       <c r="E26" s="21" t="s">
-        <v>87</v>
+        <v>109</v>
       </c>
       <c r="F26" s="22" t="s">
-        <v>88</v>
+        <v>110</v>
+      </c>
+      <c r="G26" s="23" t="s">
+        <v>106</v>
       </c>
       <c r="H26">
         <v>2</v>
@@ -2816,19 +3027,22 @@
         <v>124</v>
       </c>
       <c r="B27" s="19" t="s">
-        <v>89</v>
-      </c>
-      <c r="C27" s="23" t="s">
-        <v>90</v>
+        <v>111</v>
+      </c>
+      <c r="C27" s="24" t="s">
+        <v>112</v>
       </c>
       <c r="D27" s="4">
         <v>2</v>
       </c>
       <c r="E27" s="21" t="s">
-        <v>91</v>
+        <v>113</v>
       </c>
       <c r="F27" s="22" t="s">
-        <v>92</v>
+        <v>114</v>
+      </c>
+      <c r="G27" s="23" t="s">
+        <v>106</v>
       </c>
       <c r="H27">
         <v>2</v>
@@ -2839,19 +3053,22 @@
         <v>125</v>
       </c>
       <c r="B28" s="19" t="s">
-        <v>93</v>
-      </c>
-      <c r="C28" s="23" t="s">
-        <v>94</v>
+        <v>115</v>
+      </c>
+      <c r="C28" s="24" t="s">
+        <v>116</v>
       </c>
       <c r="D28" s="4">
         <v>2</v>
       </c>
       <c r="E28" s="21" t="s">
-        <v>95</v>
+        <v>117</v>
       </c>
       <c r="F28" s="22" t="s">
-        <v>96</v>
+        <v>118</v>
+      </c>
+      <c r="G28" s="23" t="s">
+        <v>119</v>
       </c>
       <c r="H28">
         <v>2</v>
@@ -2862,10 +3079,10 @@
         <v>1</v>
       </c>
       <c r="B29" t="s">
-        <v>97</v>
+        <v>120</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>98</v>
+        <v>121</v>
       </c>
       <c r="D29">
         <v>1</v>
@@ -2877,7 +3094,7 @@
         <v>1</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>99</v>
+        <v>122</v>
       </c>
       <c r="H29">
         <v>1</v>
@@ -2888,10 +3105,10 @@
         <v>2</v>
       </c>
       <c r="B30" t="s">
-        <v>100</v>
+        <v>123</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>98</v>
+        <v>121</v>
       </c>
       <c r="D30">
         <v>1</v>
@@ -2903,7 +3120,7 @@
         <v>2</v>
       </c>
       <c r="G30" s="4" t="s">
-        <v>101</v>
+        <v>124</v>
       </c>
       <c r="H30">
         <v>2</v>
@@ -2914,10 +3131,10 @@
         <v>3</v>
       </c>
       <c r="B31" t="s">
-        <v>102</v>
+        <v>125</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>98</v>
+        <v>121</v>
       </c>
       <c r="D31">
         <v>1</v>
@@ -2929,7 +3146,7 @@
         <v>3</v>
       </c>
       <c r="G31" s="4" t="s">
-        <v>103</v>
+        <v>126</v>
       </c>
       <c r="H31">
         <v>3</v>
@@ -2940,10 +3157,10 @@
         <v>4</v>
       </c>
       <c r="B32" t="s">
-        <v>104</v>
+        <v>127</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>105</v>
+        <v>128</v>
       </c>
       <c r="D32">
         <v>1</v>
@@ -2955,7 +3172,7 @@
         <v>1</v>
       </c>
       <c r="G32" s="4" t="s">
-        <v>106</v>
+        <v>129</v>
       </c>
       <c r="H32">
         <v>1</v>
@@ -2966,10 +3183,10 @@
         <v>5</v>
       </c>
       <c r="B33" t="s">
-        <v>107</v>
+        <v>130</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>105</v>
+        <v>128</v>
       </c>
       <c r="D33">
         <v>1</v>
@@ -2981,7 +3198,7 @@
         <v>2</v>
       </c>
       <c r="G33" s="4" t="s">
-        <v>108</v>
+        <v>131</v>
       </c>
       <c r="H33">
         <v>2</v>
@@ -2992,10 +3209,10 @@
         <v>6</v>
       </c>
       <c r="B34" t="s">
-        <v>109</v>
+        <v>132</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>105</v>
+        <v>128</v>
       </c>
       <c r="D34">
         <v>1</v>
@@ -3007,7 +3224,7 @@
         <v>3</v>
       </c>
       <c r="G34" s="4" t="s">
-        <v>110</v>
+        <v>133</v>
       </c>
       <c r="H34">
         <v>3</v>
@@ -3018,10 +3235,10 @@
         <v>7</v>
       </c>
       <c r="B35" t="s">
-        <v>111</v>
+        <v>134</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>112</v>
+        <v>135</v>
       </c>
       <c r="D35">
         <v>1</v>
@@ -3033,7 +3250,7 @@
         <v>1</v>
       </c>
       <c r="G35" s="4" t="s">
-        <v>113</v>
+        <v>136</v>
       </c>
       <c r="H35">
         <v>1</v>
@@ -3044,10 +3261,10 @@
         <v>8</v>
       </c>
       <c r="B36" t="s">
-        <v>114</v>
+        <v>137</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>112</v>
+        <v>135</v>
       </c>
       <c r="D36">
         <v>1</v>
@@ -3059,7 +3276,7 @@
         <v>2</v>
       </c>
       <c r="G36" s="4" t="s">
-        <v>115</v>
+        <v>138</v>
       </c>
       <c r="H36">
         <v>2</v>
@@ -3070,10 +3287,10 @@
         <v>9</v>
       </c>
       <c r="B37" t="s">
-        <v>116</v>
+        <v>139</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>112</v>
+        <v>135</v>
       </c>
       <c r="D37">
         <v>1</v>
@@ -3085,7 +3302,7 @@
         <v>3</v>
       </c>
       <c r="G37" s="4" t="s">
-        <v>117</v>
+        <v>140</v>
       </c>
       <c r="H37">
         <v>3</v>
@@ -3096,10 +3313,10 @@
         <v>10</v>
       </c>
       <c r="B38" t="s">
-        <v>118</v>
+        <v>141</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>119</v>
+        <v>142</v>
       </c>
       <c r="D38">
         <v>1</v>
@@ -3111,7 +3328,7 @@
         <v>1</v>
       </c>
       <c r="G38" s="4" t="s">
-        <v>120</v>
+        <v>143</v>
       </c>
       <c r="H38">
         <v>1</v>
@@ -3122,10 +3339,10 @@
         <v>11</v>
       </c>
       <c r="B39" t="s">
-        <v>121</v>
+        <v>144</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>119</v>
+        <v>142</v>
       </c>
       <c r="D39">
         <v>1</v>
@@ -3137,7 +3354,7 @@
         <v>2</v>
       </c>
       <c r="G39" s="4" t="s">
-        <v>122</v>
+        <v>145</v>
       </c>
       <c r="H39">
         <v>2</v>
@@ -3148,10 +3365,10 @@
         <v>12</v>
       </c>
       <c r="B40" t="s">
-        <v>123</v>
+        <v>146</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>119</v>
+        <v>142</v>
       </c>
       <c r="D40">
         <v>1</v>
@@ -3163,7 +3380,7 @@
         <v>3</v>
       </c>
       <c r="G40" s="4" t="s">
-        <v>124</v>
+        <v>147</v>
       </c>
       <c r="H40">
         <v>3</v>
@@ -3174,10 +3391,10 @@
         <v>13</v>
       </c>
       <c r="B41" t="s">
-        <v>125</v>
+        <v>148</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>126</v>
+        <v>149</v>
       </c>
       <c r="D41">
         <v>1</v>
@@ -3189,7 +3406,7 @@
         <v>1</v>
       </c>
       <c r="G41" s="4" t="s">
-        <v>127</v>
+        <v>150</v>
       </c>
       <c r="H41">
         <v>1</v>
@@ -3200,10 +3417,10 @@
         <v>14</v>
       </c>
       <c r="B42" t="s">
-        <v>128</v>
+        <v>151</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>126</v>
+        <v>149</v>
       </c>
       <c r="D42">
         <v>1</v>
@@ -3215,7 +3432,7 @@
         <v>2</v>
       </c>
       <c r="G42" s="4" t="s">
-        <v>129</v>
+        <v>152</v>
       </c>
       <c r="H42">
         <v>2</v>
@@ -3226,10 +3443,10 @@
         <v>15</v>
       </c>
       <c r="B43" t="s">
-        <v>130</v>
+        <v>153</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>126</v>
+        <v>149</v>
       </c>
       <c r="D43">
         <v>1</v>
@@ -3241,7 +3458,7 @@
         <v>3</v>
       </c>
       <c r="G43" s="4" t="s">
-        <v>131</v>
+        <v>154</v>
       </c>
       <c r="H43">
         <v>3</v>
@@ -3252,10 +3469,10 @@
         <v>16</v>
       </c>
       <c r="B44" t="s">
-        <v>132</v>
+        <v>155</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>133</v>
+        <v>156</v>
       </c>
       <c r="D44">
         <v>3</v>
@@ -3267,21 +3484,21 @@
         <v>-1</v>
       </c>
       <c r="G44" s="4" t="s">
-        <v>134</v>
+        <v>157</v>
       </c>
       <c r="H44">
         <v>2</v>
       </c>
     </row>
-    <row r="45" ht="27" spans="1:8">
+    <row r="45" ht="40.5" spans="1:8">
       <c r="A45">
         <v>17</v>
       </c>
       <c r="B45" t="s">
-        <v>135</v>
+        <v>158</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>136</v>
+        <v>159</v>
       </c>
       <c r="D45">
         <v>3</v>
@@ -3293,21 +3510,21 @@
         <v>-1</v>
       </c>
       <c r="G45" s="4" t="s">
-        <v>137</v>
+        <v>160</v>
       </c>
       <c r="H45">
         <v>1</v>
       </c>
     </row>
-    <row r="46" ht="40.5" spans="1:8">
+    <row r="46" ht="27" spans="1:8">
       <c r="A46">
         <v>18</v>
       </c>
       <c r="B46" t="s">
-        <v>138</v>
+        <v>161</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>139</v>
+        <v>162</v>
       </c>
       <c r="D46">
         <v>3</v>
@@ -3319,21 +3536,21 @@
         <v>-1</v>
       </c>
       <c r="G46" s="4" t="s">
-        <v>140</v>
+        <v>163</v>
       </c>
       <c r="H46">
         <v>1</v>
       </c>
     </row>
-    <row r="47" ht="67.5" spans="1:8">
+    <row r="47" ht="40.5" spans="1:8">
       <c r="A47">
         <v>19</v>
       </c>
       <c r="B47" t="s">
-        <v>141</v>
+        <v>164</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>142</v>
+        <v>165</v>
       </c>
       <c r="D47">
         <v>3</v>
@@ -3345,7 +3562,7 @@
         <v>-1</v>
       </c>
       <c r="G47" s="4" t="s">
-        <v>143</v>
+        <v>166</v>
       </c>
       <c r="H47">
         <v>2</v>
@@ -3356,10 +3573,10 @@
         <v>20</v>
       </c>
       <c r="B48" t="s">
-        <v>144</v>
+        <v>167</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>145</v>
+        <v>168</v>
       </c>
       <c r="D48">
         <v>3</v>
@@ -3370,20 +3587,22 @@
       <c r="F48">
         <v>-1</v>
       </c>
-      <c r="G48" s="4"/>
+      <c r="G48" s="23" t="s">
+        <v>169</v>
+      </c>
       <c r="H48">
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:8">
+    <row r="49" ht="27" spans="1:8">
       <c r="A49">
         <v>21</v>
       </c>
       <c r="B49" t="s">
-        <v>146</v>
+        <v>170</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>147</v>
+        <v>171</v>
       </c>
       <c r="D49">
         <v>3</v>
@@ -3394,7 +3613,9 @@
       <c r="F49">
         <v>-1</v>
       </c>
-      <c r="G49" s="4"/>
+      <c r="G49" s="23" t="s">
+        <v>172</v>
+      </c>
       <c r="H49">
         <v>1</v>
       </c>
@@ -3404,10 +3625,10 @@
         <v>22</v>
       </c>
       <c r="B50" t="s">
-        <v>148</v>
+        <v>173</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>149</v>
+        <v>174</v>
       </c>
       <c r="D50">
         <v>3</v>
@@ -3419,7 +3640,7 @@
         <v>-1</v>
       </c>
       <c r="G50" s="4" t="s">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="H50">
         <v>2</v>
@@ -3430,10 +3651,10 @@
         <v>23</v>
       </c>
       <c r="B51" t="s">
-        <v>151</v>
+        <v>176</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>152</v>
+        <v>177</v>
       </c>
       <c r="D51">
         <v>3</v>
@@ -3445,7 +3666,7 @@
         <v>-1</v>
       </c>
       <c r="G51" s="4" t="s">
-        <v>153</v>
+        <v>178</v>
       </c>
       <c r="H51">
         <v>1</v>
@@ -3456,10 +3677,10 @@
         <v>24</v>
       </c>
       <c r="B52" t="s">
-        <v>154</v>
+        <v>179</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>155</v>
+        <v>180</v>
       </c>
       <c r="D52">
         <v>3</v>
@@ -3471,21 +3692,21 @@
         <v>-1</v>
       </c>
       <c r="G52" s="4" t="s">
-        <v>156</v>
+        <v>181</v>
       </c>
       <c r="H52">
         <v>1</v>
       </c>
     </row>
-    <row r="53" ht="40.5" spans="1:8">
+    <row r="53" ht="67.5" spans="1:8">
       <c r="A53">
         <v>25</v>
       </c>
       <c r="B53" t="s">
-        <v>157</v>
+        <v>182</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>158</v>
+        <v>183</v>
       </c>
       <c r="D53">
         <v>3</v>
@@ -3495,6 +3716,9 @@
       </c>
       <c r="F53">
         <v>-1</v>
+      </c>
+      <c r="G53" s="23" t="s">
+        <v>184</v>
       </c>
       <c r="H53">
         <v>1</v>
@@ -3505,10 +3729,10 @@
         <v>26</v>
       </c>
       <c r="B54" t="s">
-        <v>159</v>
+        <v>185</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>160</v>
+        <v>186</v>
       </c>
       <c r="D54">
         <v>3</v>
@@ -3519,19 +3743,22 @@
       <c r="F54">
         <v>-1</v>
       </c>
+      <c r="G54" s="23" t="s">
+        <v>187</v>
+      </c>
       <c r="H54">
         <v>1</v>
       </c>
     </row>
-    <row r="55" ht="40.5" spans="1:8">
+    <row r="55" ht="54" spans="1:8">
       <c r="A55">
         <v>27</v>
       </c>
       <c r="B55" t="s">
-        <v>161</v>
+        <v>188</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>162</v>
+        <v>189</v>
       </c>
       <c r="D55">
         <v>3</v>
@@ -3542,19 +3769,22 @@
       <c r="F55">
         <v>-1</v>
       </c>
+      <c r="G55" s="23" t="s">
+        <v>190</v>
+      </c>
       <c r="H55">
         <v>1</v>
       </c>
     </row>
-    <row r="56" ht="40.5" spans="1:8">
+    <row r="56" ht="67.5" spans="1:8">
       <c r="A56">
         <v>28</v>
       </c>
       <c r="B56" t="s">
-        <v>163</v>
+        <v>191</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>164</v>
+        <v>192</v>
       </c>
       <c r="D56">
         <v>3</v>
@@ -3564,6 +3794,9 @@
       </c>
       <c r="F56">
         <v>-1</v>
+      </c>
+      <c r="G56" s="23" t="s">
+        <v>193</v>
       </c>
       <c r="H56">
         <v>1</v>
@@ -3574,10 +3807,10 @@
         <v>29</v>
       </c>
       <c r="B57" t="s">
-        <v>165</v>
+        <v>194</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>166</v>
+        <v>195</v>
       </c>
       <c r="D57">
         <v>3</v>
@@ -3589,21 +3822,21 @@
         <v>-1</v>
       </c>
       <c r="G57" s="4" t="s">
-        <v>167</v>
+        <v>196</v>
       </c>
       <c r="H57">
         <v>2</v>
       </c>
     </row>
-    <row r="58" ht="27" spans="1:8">
+    <row r="58" ht="40.5" spans="1:8">
       <c r="A58">
         <v>30</v>
       </c>
       <c r="B58" t="s">
-        <v>168</v>
+        <v>197</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>169</v>
+        <v>198</v>
       </c>
       <c r="D58">
         <v>3</v>
@@ -3613,6 +3846,9 @@
       </c>
       <c r="F58">
         <v>-1</v>
+      </c>
+      <c r="G58" s="23" t="s">
+        <v>199</v>
       </c>
       <c r="H58">
         <v>2</v>
@@ -3623,10 +3859,10 @@
         <v>31</v>
       </c>
       <c r="B59" t="s">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>171</v>
+        <v>201</v>
       </c>
       <c r="D59">
         <v>3</v>
@@ -3638,21 +3874,21 @@
         <v>-1</v>
       </c>
       <c r="G59" s="4" t="s">
-        <v>172</v>
+        <v>202</v>
       </c>
       <c r="H59">
         <v>1</v>
       </c>
     </row>
-    <row r="60" ht="27" spans="1:8">
+    <row r="60" ht="40.5" spans="1:8">
       <c r="A60">
         <v>32</v>
       </c>
       <c r="B60" t="s">
-        <v>173</v>
+        <v>203</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>174</v>
+        <v>204</v>
       </c>
       <c r="D60">
         <v>3</v>
@@ -3662,6 +3898,9 @@
       </c>
       <c r="F60">
         <v>-1</v>
+      </c>
+      <c r="G60" s="23" t="s">
+        <v>205</v>
       </c>
       <c r="H60">
         <v>1</v>
@@ -3672,10 +3911,10 @@
         <v>33</v>
       </c>
       <c r="B61" t="s">
-        <v>175</v>
+        <v>206</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>176</v>
+        <v>207</v>
       </c>
       <c r="D61">
         <v>3</v>
@@ -3686,19 +3925,22 @@
       <c r="F61">
         <v>-1</v>
       </c>
+      <c r="G61" s="23" t="s">
+        <v>208</v>
+      </c>
       <c r="H61">
         <v>1</v>
       </c>
     </row>
-    <row r="62" ht="27" spans="1:8">
+    <row r="62" ht="40.5" spans="1:8">
       <c r="A62">
         <v>34</v>
       </c>
       <c r="B62" t="s">
-        <v>177</v>
+        <v>209</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>174</v>
+        <v>204</v>
       </c>
       <c r="D62">
         <v>3</v>
@@ -3708,6 +3950,9 @@
       </c>
       <c r="F62">
         <v>-1</v>
+      </c>
+      <c r="G62" s="23" t="s">
+        <v>210</v>
       </c>
       <c r="H62">
         <v>2</v>
@@ -3718,10 +3963,10 @@
         <v>35</v>
       </c>
       <c r="B63" t="s">
-        <v>178</v>
+        <v>211</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>179</v>
+        <v>212</v>
       </c>
       <c r="D63">
         <v>3</v>
@@ -3733,7 +3978,7 @@
         <v>-1</v>
       </c>
       <c r="G63" s="4" t="s">
-        <v>180</v>
+        <v>213</v>
       </c>
       <c r="H63">
         <v>2</v>
@@ -3744,10 +3989,10 @@
         <v>36</v>
       </c>
       <c r="B64" t="s">
-        <v>181</v>
+        <v>214</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>182</v>
+        <v>215</v>
       </c>
       <c r="D64">
         <v>3</v>
@@ -3759,7 +4004,7 @@
         <v>-1</v>
       </c>
       <c r="G64" s="4" t="s">
-        <v>183</v>
+        <v>216</v>
       </c>
       <c r="H64">
         <v>1</v>
@@ -3770,10 +4015,10 @@
         <v>37</v>
       </c>
       <c r="B65" t="s">
-        <v>184</v>
+        <v>217</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>185</v>
+        <v>218</v>
       </c>
       <c r="D65">
         <v>3</v>
@@ -3783,6 +4028,9 @@
       </c>
       <c r="F65">
         <v>-1</v>
+      </c>
+      <c r="G65" s="23" t="s">
+        <v>219</v>
       </c>
       <c r="H65">
         <v>1</v>
@@ -3793,10 +4041,10 @@
         <v>38</v>
       </c>
       <c r="B66" t="s">
-        <v>186</v>
+        <v>220</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>187</v>
+        <v>221</v>
       </c>
       <c r="D66">
         <v>3</v>
@@ -3808,7 +4056,7 @@
         <v>-1</v>
       </c>
       <c r="G66" s="4" t="s">
-        <v>188</v>
+        <v>222</v>
       </c>
       <c r="H66">
         <v>1</v>
@@ -3819,10 +4067,10 @@
         <v>39</v>
       </c>
       <c r="B67" t="s">
-        <v>189</v>
+        <v>223</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>190</v>
+        <v>224</v>
       </c>
       <c r="D67">
         <v>3</v>
@@ -3833,20 +4081,22 @@
       <c r="F67">
         <v>-1</v>
       </c>
-      <c r="G67" s="4"/>
+      <c r="G67" s="23" t="s">
+        <v>225</v>
+      </c>
       <c r="H67">
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:8">
+    <row r="68" ht="27" spans="1:8">
       <c r="A68">
         <v>40</v>
       </c>
       <c r="B68" t="s">
-        <v>191</v>
+        <v>226</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>192</v>
+        <v>227</v>
       </c>
       <c r="D68">
         <v>3</v>
@@ -3857,20 +4107,22 @@
       <c r="F68">
         <v>-1</v>
       </c>
-      <c r="G68" s="4"/>
+      <c r="G68" s="23" t="s">
+        <v>228</v>
+      </c>
       <c r="H68">
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:8">
+    <row r="69" ht="27" spans="1:8">
       <c r="A69">
         <v>41</v>
       </c>
       <c r="B69" s="8" t="s">
-        <v>193</v>
-      </c>
-      <c r="C69" s="24" t="s">
-        <v>194</v>
+        <v>229</v>
+      </c>
+      <c r="C69" s="25" t="s">
+        <v>230</v>
       </c>
       <c r="D69">
         <v>4</v>
@@ -3880,6 +4132,9 @@
       </c>
       <c r="F69">
         <v>-1</v>
+      </c>
+      <c r="G69" s="23" t="s">
+        <v>231</v>
       </c>
       <c r="H69">
         <v>0</v>
@@ -3890,10 +4145,10 @@
         <v>42</v>
       </c>
       <c r="B70" s="8" t="s">
-        <v>195</v>
-      </c>
-      <c r="C70" s="24" t="s">
-        <v>196</v>
+        <v>232</v>
+      </c>
+      <c r="C70" s="25" t="s">
+        <v>233</v>
       </c>
       <c r="D70">
         <v>4</v>
@@ -3904,19 +4159,22 @@
       <c r="F70">
         <v>-1</v>
       </c>
+      <c r="G70" s="23" t="s">
+        <v>234</v>
+      </c>
       <c r="H70">
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:8">
+    <row r="71" ht="27" spans="1:8">
       <c r="A71">
         <v>43</v>
       </c>
       <c r="B71" s="8" t="s">
-        <v>197</v>
-      </c>
-      <c r="C71" s="24" t="s">
-        <v>198</v>
+        <v>235</v>
+      </c>
+      <c r="C71" s="25" t="s">
+        <v>236</v>
       </c>
       <c r="D71">
         <v>4</v>
@@ -3927,19 +4185,22 @@
       <c r="F71">
         <v>-1</v>
       </c>
+      <c r="G71" s="23" t="s">
+        <v>237</v>
+      </c>
       <c r="H71">
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:8">
+    <row r="72" ht="27" spans="1:8">
       <c r="A72">
         <v>44</v>
       </c>
       <c r="B72" s="8" t="s">
-        <v>199</v>
-      </c>
-      <c r="C72" s="24" t="s">
-        <v>200</v>
+        <v>238</v>
+      </c>
+      <c r="C72" s="25" t="s">
+        <v>239</v>
       </c>
       <c r="D72">
         <v>4</v>
@@ -3949,6 +4210,9 @@
       </c>
       <c r="F72">
         <v>-1</v>
+      </c>
+      <c r="G72" s="23" t="s">
+        <v>240</v>
       </c>
       <c r="H72">
         <v>0</v>
@@ -3959,10 +4223,10 @@
         <v>45</v>
       </c>
       <c r="B73" s="8" t="s">
-        <v>201</v>
-      </c>
-      <c r="C73" s="24" t="s">
-        <v>202</v>
+        <v>241</v>
+      </c>
+      <c r="C73" s="25" t="s">
+        <v>242</v>
       </c>
       <c r="D73">
         <v>4</v>
@@ -3973,19 +4237,22 @@
       <c r="F73">
         <v>-1</v>
       </c>
+      <c r="G73" s="23" t="s">
+        <v>243</v>
+      </c>
       <c r="H73">
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:8">
+    <row r="74" ht="27" spans="1:8">
       <c r="A74">
         <v>46</v>
       </c>
       <c r="B74" s="8" t="s">
-        <v>203</v>
-      </c>
-      <c r="C74" s="24" t="s">
-        <v>204</v>
+        <v>244</v>
+      </c>
+      <c r="C74" s="25" t="s">
+        <v>245</v>
       </c>
       <c r="D74">
         <v>4</v>
@@ -3995,6 +4262,9 @@
       </c>
       <c r="F74">
         <v>-1</v>
+      </c>
+      <c r="G74" s="23" t="s">
+        <v>246</v>
       </c>
       <c r="H74">
         <v>0</v>
@@ -4013,7 +4283,7 @@
   <dimension ref="A1:L25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -4032,40 +4302,40 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" t="s">
-        <v>205</v>
+        <v>247</v>
       </c>
       <c r="B1" t="s">
-        <v>206</v>
+        <v>248</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>207</v>
+        <v>249</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>208</v>
+        <v>250</v>
       </c>
       <c r="E1" s="13" t="s">
-        <v>209</v>
+        <v>251</v>
       </c>
       <c r="F1" s="14" t="s">
-        <v>210</v>
+        <v>252</v>
       </c>
       <c r="G1" s="14" t="s">
-        <v>211</v>
+        <v>253</v>
       </c>
       <c r="H1" s="15" t="s">
-        <v>212</v>
+        <v>254</v>
       </c>
       <c r="I1" s="16" t="s">
-        <v>213</v>
+        <v>255</v>
       </c>
       <c r="J1" s="16" t="s">
-        <v>214</v>
+        <v>256</v>
       </c>
       <c r="K1" s="17" t="s">
-        <v>215</v>
+        <v>257</v>
       </c>
       <c r="L1" s="18" t="s">
-        <v>216</v>
+        <v>258</v>
       </c>
     </row>
     <row r="2" spans="1:12">
@@ -4076,72 +4346,72 @@
         <v>8</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>217</v>
+        <v>259</v>
       </c>
       <c r="D2" t="s">
-        <v>217</v>
+        <v>259</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>217</v>
+        <v>259</v>
       </c>
       <c r="F2" t="s">
-        <v>217</v>
+        <v>259</v>
       </c>
       <c r="G2" t="s">
-        <v>217</v>
+        <v>259</v>
       </c>
       <c r="H2" s="10" t="s">
-        <v>217</v>
+        <v>259</v>
       </c>
       <c r="I2" t="s">
-        <v>217</v>
+        <v>259</v>
       </c>
       <c r="J2" t="s">
-        <v>217</v>
+        <v>259</v>
       </c>
       <c r="K2" s="9" t="s">
-        <v>217</v>
+        <v>259</v>
       </c>
       <c r="L2" t="s">
-        <v>217</v>
+        <v>259</v>
       </c>
     </row>
     <row r="3" ht="27" spans="1:12">
       <c r="A3" t="s">
-        <v>218</v>
+        <v>260</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>219</v>
+        <v>261</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>220</v>
+        <v>262</v>
       </c>
       <c r="D3" t="s">
-        <v>221</v>
+        <v>263</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>222</v>
+        <v>264</v>
       </c>
       <c r="F3" t="s">
-        <v>223</v>
+        <v>265</v>
       </c>
       <c r="G3" t="s">
-        <v>224</v>
+        <v>266</v>
       </c>
       <c r="H3" s="10" t="s">
-        <v>225</v>
+        <v>267</v>
       </c>
       <c r="I3" t="s">
-        <v>226</v>
+        <v>268</v>
       </c>
       <c r="J3" t="s">
-        <v>227</v>
+        <v>269</v>
       </c>
       <c r="K3" s="9" t="s">
-        <v>228</v>
+        <v>270</v>
       </c>
       <c r="L3" t="s">
-        <v>229</v>
+        <v>271</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -4152,13 +4422,13 @@
         <v>1</v>
       </c>
       <c r="C4" s="9">
-        <v>880</v>
+        <v>750</v>
       </c>
       <c r="D4">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E4" s="10">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="F4">
         <v>50</v>
@@ -4190,13 +4460,13 @@
         <v>2</v>
       </c>
       <c r="C5" s="9">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="D5">
         <v>300</v>
       </c>
       <c r="E5" s="10">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="F5">
         <v>50</v>
@@ -4228,10 +4498,10 @@
         <v>1</v>
       </c>
       <c r="C6" s="9">
-        <v>880</v>
+        <v>750</v>
       </c>
       <c r="D6">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E6" s="10">
         <v>20</v>
@@ -4266,13 +4536,13 @@
         <v>2</v>
       </c>
       <c r="C7" s="9">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="D7">
         <v>300</v>
       </c>
       <c r="E7" s="10">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="F7">
         <v>50</v>
@@ -4304,13 +4574,13 @@
         <v>1</v>
       </c>
       <c r="C8" s="9">
-        <v>880</v>
+        <v>750</v>
       </c>
       <c r="D8">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E8" s="10">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="F8">
         <v>50</v>
@@ -4342,13 +4612,13 @@
         <v>2</v>
       </c>
       <c r="C9" s="9">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="D9">
         <v>300</v>
       </c>
       <c r="E9" s="10">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="F9">
         <v>50</v>
@@ -4380,13 +4650,13 @@
         <v>1</v>
       </c>
       <c r="C10" s="9">
-        <v>880</v>
+        <v>750</v>
       </c>
       <c r="D10">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E10" s="10">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="F10">
         <v>50</v>
@@ -4418,13 +4688,13 @@
         <v>2</v>
       </c>
       <c r="C11" s="9">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="D11">
         <v>300</v>
       </c>
       <c r="E11" s="10">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="F11">
         <v>50</v>
@@ -4456,13 +4726,13 @@
         <v>1</v>
       </c>
       <c r="C12" s="9">
-        <v>880</v>
+        <v>750</v>
       </c>
       <c r="D12">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E12" s="10">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="F12">
         <v>50</v>
@@ -4494,13 +4764,13 @@
         <v>2</v>
       </c>
       <c r="C13" s="9">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="D13">
         <v>300</v>
       </c>
       <c r="E13" s="10">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="F13">
         <v>50</v>
@@ -4532,13 +4802,13 @@
         <v>1</v>
       </c>
       <c r="C14" s="9">
-        <v>880</v>
+        <v>750</v>
       </c>
       <c r="D14">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E14" s="10">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="F14">
         <v>50</v>
@@ -4570,13 +4840,13 @@
         <v>2</v>
       </c>
       <c r="C15" s="9">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="D15">
         <v>300</v>
       </c>
       <c r="E15" s="10">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="F15">
         <v>50</v>
@@ -4608,13 +4878,13 @@
         <v>1</v>
       </c>
       <c r="C16" s="9">
-        <v>880</v>
+        <v>750</v>
       </c>
       <c r="D16">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E16" s="10">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="F16">
         <v>50</v>
@@ -4646,13 +4916,13 @@
         <v>2</v>
       </c>
       <c r="C17" s="9">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="D17">
         <v>300</v>
       </c>
       <c r="E17" s="10">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="F17">
         <v>50</v>
@@ -4684,13 +4954,13 @@
         <v>1</v>
       </c>
       <c r="C18" s="9">
-        <v>880</v>
+        <v>750</v>
       </c>
       <c r="D18">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E18" s="10">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="F18">
         <v>50</v>
@@ -4722,13 +4992,13 @@
         <v>2</v>
       </c>
       <c r="C19" s="9">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="D19">
         <v>300</v>
       </c>
       <c r="E19" s="10">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="F19">
         <v>50</v>
@@ -4760,13 +5030,13 @@
         <v>1</v>
       </c>
       <c r="C20" s="9">
-        <v>880</v>
+        <v>750</v>
       </c>
       <c r="D20">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E20" s="10">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="F20">
         <v>50</v>
@@ -4798,13 +5068,13 @@
         <v>2</v>
       </c>
       <c r="C21" s="9">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="D21">
         <v>300</v>
       </c>
       <c r="E21" s="10">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="F21">
         <v>50</v>
@@ -4836,13 +5106,13 @@
         <v>1</v>
       </c>
       <c r="C22" s="9">
-        <v>880</v>
+        <v>750</v>
       </c>
       <c r="D22">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E22" s="10">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="F22">
         <v>50</v>
@@ -4874,13 +5144,13 @@
         <v>2</v>
       </c>
       <c r="C23" s="9">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="D23">
         <v>300</v>
       </c>
       <c r="E23" s="10">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="F23">
         <v>50</v>
@@ -4912,13 +5182,13 @@
         <v>1</v>
       </c>
       <c r="C24" s="9">
-        <v>880</v>
+        <v>750</v>
       </c>
       <c r="D24">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E24" s="10">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="F24">
         <v>50</v>
@@ -4950,13 +5220,13 @@
         <v>2</v>
       </c>
       <c r="C25" s="9">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="D25">
         <v>300</v>
       </c>
       <c r="E25" s="10">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="F25">
         <v>50</v>
@@ -5005,10 +5275,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>230</v>
+        <v>272</v>
       </c>
       <c r="B1" t="s">
-        <v>231</v>
+        <v>273</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -5016,15 +5286,15 @@
         <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>217</v>
+        <v>259</v>
       </c>
     </row>
     <row r="3" ht="73.5" customHeight="1" spans="1:2">
       <c r="A3" t="s">
-        <v>232</v>
+        <v>274</v>
       </c>
       <c r="B3" t="s">
-        <v>233</v>
+        <v>275</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -5342,49 +5612,49 @@
   <sheetData>
     <row r="1" spans="1:15">
       <c r="A1" t="s">
-        <v>234</v>
+        <v>276</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>235</v>
+        <v>277</v>
       </c>
       <c r="C1" t="s">
-        <v>236</v>
+        <v>278</v>
       </c>
       <c r="D1" t="s">
-        <v>237</v>
+        <v>279</v>
       </c>
       <c r="E1" t="s">
-        <v>238</v>
+        <v>280</v>
       </c>
       <c r="F1" t="s">
-        <v>239</v>
+        <v>281</v>
       </c>
       <c r="G1" t="s">
-        <v>240</v>
+        <v>282</v>
       </c>
       <c r="H1" t="s">
-        <v>241</v>
+        <v>283</v>
       </c>
       <c r="I1" t="s">
-        <v>242</v>
+        <v>284</v>
       </c>
       <c r="J1" t="s">
-        <v>243</v>
+        <v>285</v>
       </c>
       <c r="K1" t="s">
-        <v>244</v>
+        <v>286</v>
       </c>
       <c r="L1" t="s">
-        <v>245</v>
+        <v>287</v>
       </c>
       <c r="M1" t="s">
-        <v>246</v>
+        <v>288</v>
       </c>
       <c r="N1" t="s">
-        <v>247</v>
+        <v>289</v>
       </c>
       <c r="O1" t="s">
-        <v>248</v>
+        <v>290</v>
       </c>
     </row>
     <row r="2" spans="1:15">
@@ -5398,944 +5668,944 @@
         <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>217</v>
+        <v>259</v>
       </c>
       <c r="E2" t="s">
-        <v>217</v>
+        <v>259</v>
       </c>
       <c r="F2" t="s">
         <v>10</v>
       </c>
       <c r="G2" t="s">
-        <v>217</v>
+        <v>259</v>
       </c>
       <c r="H2" t="s">
-        <v>217</v>
+        <v>259</v>
       </c>
       <c r="I2" t="s">
-        <v>217</v>
+        <v>259</v>
       </c>
       <c r="J2" t="s">
-        <v>217</v>
+        <v>259</v>
       </c>
       <c r="K2" t="s">
         <v>10</v>
       </c>
       <c r="L2" t="s">
-        <v>217</v>
+        <v>259</v>
       </c>
       <c r="M2" t="s">
-        <v>249</v>
+        <v>291</v>
       </c>
       <c r="N2" t="s">
         <v>10</v>
       </c>
       <c r="O2" t="s">
-        <v>249</v>
+        <v>291</v>
       </c>
     </row>
     <row r="3" ht="14.25" spans="1:15">
       <c r="A3" s="5" t="s">
-        <v>250</v>
+        <v>292</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>251</v>
+        <v>293</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>252</v>
+        <v>294</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>253</v>
+        <v>295</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>254</v>
+        <v>296</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>255</v>
+        <v>297</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>256</v>
+        <v>298</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>257</v>
+        <v>299</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>258</v>
+        <v>300</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>259</v>
+        <v>301</v>
       </c>
       <c r="K3" s="5" t="s">
-        <v>260</v>
+        <v>302</v>
       </c>
       <c r="L3" s="5" t="s">
-        <v>261</v>
+        <v>303</v>
       </c>
       <c r="M3" s="5" t="s">
-        <v>262</v>
+        <v>304</v>
       </c>
       <c r="N3" s="5" t="s">
-        <v>263</v>
+        <v>305</v>
       </c>
       <c r="O3" s="5" t="s">
-        <v>264</v>
+        <v>306</v>
       </c>
     </row>
     <row r="4" ht="14.25" spans="1:15">
       <c r="A4" s="5" t="s">
-        <v>265</v>
+        <v>307</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>266</v>
+        <v>308</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>267</v>
+        <v>309</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>268</v>
-      </c>
-      <c r="E4" s="26" t="s">
-        <v>269</v>
+        <v>310</v>
+      </c>
+      <c r="E4" s="27" t="s">
+        <v>311</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>270</v>
-      </c>
-      <c r="G4" s="26" t="s">
-        <v>271</v>
-      </c>
-      <c r="H4" s="26" t="s">
-        <v>268</v>
-      </c>
-      <c r="I4" s="26" t="s">
-        <v>269</v>
-      </c>
-      <c r="J4" s="26" t="s">
-        <v>272</v>
+        <v>312</v>
+      </c>
+      <c r="G4" s="27" t="s">
+        <v>313</v>
+      </c>
+      <c r="H4" s="27" t="s">
+        <v>310</v>
+      </c>
+      <c r="I4" s="27" t="s">
+        <v>311</v>
+      </c>
+      <c r="J4" s="27" t="s">
+        <v>314</v>
       </c>
       <c r="K4" s="5" t="s">
-        <v>273</v>
-      </c>
-      <c r="L4" s="26" t="s">
-        <v>274</v>
-      </c>
-      <c r="M4" s="26" t="s">
-        <v>275</v>
+        <v>315</v>
+      </c>
+      <c r="L4" s="27" t="s">
+        <v>316</v>
+      </c>
+      <c r="M4" s="27" t="s">
+        <v>317</v>
       </c>
       <c r="N4" s="5" t="s">
-        <v>276</v>
-      </c>
-      <c r="O4" s="26" t="s">
-        <v>275</v>
+        <v>318</v>
+      </c>
+      <c r="O4" s="27" t="s">
+        <v>317</v>
       </c>
     </row>
     <row r="5" ht="14.25" spans="1:15">
       <c r="A5" s="5" t="s">
-        <v>265</v>
+        <v>307</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>266</v>
+        <v>308</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>267</v>
+        <v>309</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>271</v>
-      </c>
-      <c r="E5" s="26" t="s">
-        <v>277</v>
+        <v>313</v>
+      </c>
+      <c r="E5" s="27" t="s">
+        <v>319</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>278</v>
-      </c>
-      <c r="G5" s="26" t="s">
-        <v>271</v>
-      </c>
-      <c r="H5" s="26" t="s">
-        <v>268</v>
-      </c>
-      <c r="I5" s="26" t="s">
-        <v>269</v>
-      </c>
-      <c r="J5" s="26" t="s">
-        <v>272</v>
+        <v>320</v>
+      </c>
+      <c r="G5" s="27" t="s">
+        <v>313</v>
+      </c>
+      <c r="H5" s="27" t="s">
+        <v>310</v>
+      </c>
+      <c r="I5" s="27" t="s">
+        <v>311</v>
+      </c>
+      <c r="J5" s="27" t="s">
+        <v>314</v>
       </c>
       <c r="K5" s="5" t="s">
-        <v>273</v>
-      </c>
-      <c r="L5" s="26" t="s">
-        <v>274</v>
-      </c>
-      <c r="M5" s="26" t="s">
-        <v>279</v>
+        <v>315</v>
+      </c>
+      <c r="L5" s="27" t="s">
+        <v>316</v>
+      </c>
+      <c r="M5" s="27" t="s">
+        <v>321</v>
       </c>
       <c r="N5" s="5" t="s">
-        <v>267</v>
-      </c>
-      <c r="O5" s="26" t="s">
-        <v>279</v>
+        <v>309</v>
+      </c>
+      <c r="O5" s="27" t="s">
+        <v>321</v>
       </c>
     </row>
     <row r="6" ht="14.25" spans="1:15">
       <c r="A6" s="5" t="s">
-        <v>265</v>
+        <v>307</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>280</v>
+        <v>322</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>267</v>
+        <v>309</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>268</v>
-      </c>
-      <c r="E6" s="26" t="s">
-        <v>281</v>
+        <v>310</v>
+      </c>
+      <c r="E6" s="27" t="s">
+        <v>323</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="G6" s="26" t="s">
-        <v>271</v>
-      </c>
-      <c r="H6" s="26" t="s">
-        <v>268</v>
-      </c>
-      <c r="I6" s="26" t="s">
-        <v>269</v>
-      </c>
-      <c r="J6" s="26" t="s">
-        <v>272</v>
+        <v>117</v>
+      </c>
+      <c r="G6" s="27" t="s">
+        <v>313</v>
+      </c>
+      <c r="H6" s="27" t="s">
+        <v>310</v>
+      </c>
+      <c r="I6" s="27" t="s">
+        <v>311</v>
+      </c>
+      <c r="J6" s="27" t="s">
+        <v>314</v>
       </c>
       <c r="K6" s="5" t="s">
-        <v>273</v>
-      </c>
-      <c r="L6" s="26" t="s">
-        <v>274</v>
-      </c>
-      <c r="M6" s="26" t="s">
-        <v>275</v>
+        <v>315</v>
+      </c>
+      <c r="L6" s="27" t="s">
+        <v>316</v>
+      </c>
+      <c r="M6" s="27" t="s">
+        <v>317</v>
       </c>
       <c r="N6" s="5" t="s">
-        <v>276</v>
-      </c>
-      <c r="O6" s="26" t="s">
-        <v>275</v>
+        <v>318</v>
+      </c>
+      <c r="O6" s="27" t="s">
+        <v>317</v>
       </c>
     </row>
     <row r="7" ht="14.25" spans="1:15">
       <c r="A7" s="5" t="s">
-        <v>265</v>
+        <v>307</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>280</v>
+        <v>322</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>267</v>
+        <v>309</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>271</v>
-      </c>
-      <c r="E7" s="26" t="s">
-        <v>277</v>
+        <v>313</v>
+      </c>
+      <c r="E7" s="27" t="s">
+        <v>319</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>282</v>
-      </c>
-      <c r="G7" s="26" t="s">
-        <v>271</v>
-      </c>
-      <c r="H7" s="26" t="s">
-        <v>268</v>
-      </c>
-      <c r="I7" s="26" t="s">
-        <v>269</v>
-      </c>
-      <c r="J7" s="26" t="s">
-        <v>272</v>
+        <v>324</v>
+      </c>
+      <c r="G7" s="27" t="s">
+        <v>313</v>
+      </c>
+      <c r="H7" s="27" t="s">
+        <v>310</v>
+      </c>
+      <c r="I7" s="27" t="s">
+        <v>311</v>
+      </c>
+      <c r="J7" s="27" t="s">
+        <v>314</v>
       </c>
       <c r="K7" s="5" t="s">
-        <v>273</v>
-      </c>
-      <c r="L7" s="26" t="s">
-        <v>274</v>
-      </c>
-      <c r="M7" s="26" t="s">
-        <v>279</v>
+        <v>315</v>
+      </c>
+      <c r="L7" s="27" t="s">
+        <v>316</v>
+      </c>
+      <c r="M7" s="27" t="s">
+        <v>321</v>
       </c>
       <c r="N7" s="5" t="s">
-        <v>267</v>
-      </c>
-      <c r="O7" s="26" t="s">
-        <v>279</v>
+        <v>309</v>
+      </c>
+      <c r="O7" s="27" t="s">
+        <v>321</v>
       </c>
     </row>
     <row r="8" ht="14.25" spans="1:15">
       <c r="A8" s="5" t="s">
-        <v>265</v>
+        <v>307</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>283</v>
+        <v>325</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>267</v>
+        <v>309</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>268</v>
-      </c>
-      <c r="E8" s="26" t="s">
-        <v>268</v>
+        <v>310</v>
+      </c>
+      <c r="E8" s="27" t="s">
+        <v>310</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="G8" s="26" t="s">
-        <v>271</v>
-      </c>
-      <c r="H8" s="26" t="s">
-        <v>268</v>
-      </c>
-      <c r="I8" s="26" t="s">
-        <v>269</v>
-      </c>
-      <c r="J8" s="26" t="s">
-        <v>272</v>
+        <v>95</v>
+      </c>
+      <c r="G8" s="27" t="s">
+        <v>313</v>
+      </c>
+      <c r="H8" s="27" t="s">
+        <v>310</v>
+      </c>
+      <c r="I8" s="27" t="s">
+        <v>311</v>
+      </c>
+      <c r="J8" s="27" t="s">
+        <v>314</v>
       </c>
       <c r="K8" s="5" t="s">
-        <v>273</v>
-      </c>
-      <c r="L8" s="26" t="s">
-        <v>274</v>
-      </c>
-      <c r="M8" s="26" t="s">
-        <v>275</v>
+        <v>315</v>
+      </c>
+      <c r="L8" s="27" t="s">
+        <v>316</v>
+      </c>
+      <c r="M8" s="27" t="s">
+        <v>317</v>
       </c>
       <c r="N8" s="5" t="s">
-        <v>276</v>
-      </c>
-      <c r="O8" s="26" t="s">
-        <v>275</v>
+        <v>318</v>
+      </c>
+      <c r="O8" s="27" t="s">
+        <v>317</v>
       </c>
     </row>
     <row r="9" ht="14.25" spans="1:15">
       <c r="A9" s="5" t="s">
-        <v>265</v>
+        <v>307</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>283</v>
+        <v>325</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>267</v>
+        <v>309</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>271</v>
-      </c>
-      <c r="E9" s="26" t="s">
-        <v>277</v>
+        <v>313</v>
+      </c>
+      <c r="E9" s="27" t="s">
+        <v>319</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>284</v>
-      </c>
-      <c r="G9" s="26" t="s">
-        <v>271</v>
-      </c>
-      <c r="H9" s="26" t="s">
-        <v>268</v>
-      </c>
-      <c r="I9" s="26" t="s">
-        <v>269</v>
-      </c>
-      <c r="J9" s="26" t="s">
-        <v>272</v>
+        <v>326</v>
+      </c>
+      <c r="G9" s="27" t="s">
+        <v>313</v>
+      </c>
+      <c r="H9" s="27" t="s">
+        <v>310</v>
+      </c>
+      <c r="I9" s="27" t="s">
+        <v>311</v>
+      </c>
+      <c r="J9" s="27" t="s">
+        <v>314</v>
       </c>
       <c r="K9" s="5" t="s">
-        <v>273</v>
-      </c>
-      <c r="L9" s="26" t="s">
-        <v>274</v>
-      </c>
-      <c r="M9" s="26" t="s">
-        <v>279</v>
+        <v>315</v>
+      </c>
+      <c r="L9" s="27" t="s">
+        <v>316</v>
+      </c>
+      <c r="M9" s="27" t="s">
+        <v>321</v>
       </c>
       <c r="N9" s="5" t="s">
-        <v>267</v>
-      </c>
-      <c r="O9" s="26" t="s">
-        <v>279</v>
+        <v>309</v>
+      </c>
+      <c r="O9" s="27" t="s">
+        <v>321</v>
       </c>
     </row>
     <row r="10" ht="14.25" spans="1:15">
       <c r="A10" s="5" t="s">
-        <v>285</v>
+        <v>327</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>286</v>
+        <v>328</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>267</v>
+        <v>309</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>277</v>
+        <v>319</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>277</v>
+        <v>319</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>287</v>
+        <v>329</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>277</v>
-      </c>
-      <c r="H10" s="26" t="s">
-        <v>268</v>
+        <v>319</v>
+      </c>
+      <c r="H10" s="27" t="s">
+        <v>310</v>
       </c>
       <c r="I10" s="5" t="s">
-        <v>277</v>
-      </c>
-      <c r="J10" s="26" t="s">
-        <v>272</v>
+        <v>319</v>
+      </c>
+      <c r="J10" s="27" t="s">
+        <v>314</v>
       </c>
       <c r="K10" s="5" t="s">
-        <v>288</v>
-      </c>
-      <c r="L10" s="26" t="s">
-        <v>274</v>
-      </c>
-      <c r="M10" s="26" t="s">
-        <v>275</v>
+        <v>330</v>
+      </c>
+      <c r="L10" s="27" t="s">
+        <v>316</v>
+      </c>
+      <c r="M10" s="27" t="s">
+        <v>317</v>
       </c>
       <c r="N10" s="5" t="s">
-        <v>287</v>
-      </c>
-      <c r="O10" s="26" t="s">
-        <v>275</v>
+        <v>329</v>
+      </c>
+      <c r="O10" s="27" t="s">
+        <v>317</v>
       </c>
     </row>
     <row r="11" ht="14.25" spans="1:15">
       <c r="A11" s="5" t="s">
-        <v>285</v>
+        <v>327</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>286</v>
+        <v>328</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>267</v>
+        <v>309</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>289</v>
+        <v>331</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>271</v>
+        <v>313</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>278</v>
+        <v>320</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>277</v>
-      </c>
-      <c r="H11" s="26" t="s">
-        <v>268</v>
+        <v>319</v>
+      </c>
+      <c r="H11" s="27" t="s">
+        <v>310</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>277</v>
-      </c>
-      <c r="J11" s="26" t="s">
-        <v>272</v>
+        <v>319</v>
+      </c>
+      <c r="J11" s="27" t="s">
+        <v>314</v>
       </c>
       <c r="K11" s="5" t="s">
-        <v>288</v>
-      </c>
-      <c r="L11" s="26" t="s">
-        <v>274</v>
-      </c>
-      <c r="M11" s="26" t="s">
-        <v>279</v>
+        <v>330</v>
+      </c>
+      <c r="L11" s="27" t="s">
+        <v>316</v>
+      </c>
+      <c r="M11" s="27" t="s">
+        <v>321</v>
       </c>
       <c r="N11" s="5" t="s">
-        <v>267</v>
-      </c>
-      <c r="O11" s="26" t="s">
-        <v>279</v>
+        <v>309</v>
+      </c>
+      <c r="O11" s="27" t="s">
+        <v>321</v>
       </c>
     </row>
     <row r="12" ht="14.25" spans="1:15">
       <c r="A12" s="5" t="s">
-        <v>285</v>
+        <v>327</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>290</v>
+        <v>332</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>267</v>
+        <v>309</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>269</v>
+        <v>311</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>291</v>
+        <v>333</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>276</v>
+        <v>318</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>277</v>
-      </c>
-      <c r="H12" s="26" t="s">
-        <v>268</v>
+        <v>319</v>
+      </c>
+      <c r="H12" s="27" t="s">
+        <v>310</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>277</v>
-      </c>
-      <c r="J12" s="26" t="s">
-        <v>272</v>
+        <v>319</v>
+      </c>
+      <c r="J12" s="27" t="s">
+        <v>314</v>
       </c>
       <c r="K12" s="5" t="s">
-        <v>288</v>
-      </c>
-      <c r="L12" s="26" t="s">
-        <v>274</v>
-      </c>
-      <c r="M12" s="26" t="s">
-        <v>275</v>
+        <v>330</v>
+      </c>
+      <c r="L12" s="27" t="s">
+        <v>316</v>
+      </c>
+      <c r="M12" s="27" t="s">
+        <v>317</v>
       </c>
       <c r="N12" s="5" t="s">
-        <v>287</v>
-      </c>
-      <c r="O12" s="26" t="s">
-        <v>275</v>
+        <v>329</v>
+      </c>
+      <c r="O12" s="27" t="s">
+        <v>317</v>
       </c>
     </row>
     <row r="13" ht="14.25" spans="1:15">
       <c r="A13" s="5" t="s">
-        <v>285</v>
+        <v>327</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>290</v>
+        <v>332</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>267</v>
+        <v>309</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>292</v>
+        <v>334</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>271</v>
+        <v>313</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>278</v>
+        <v>320</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>277</v>
-      </c>
-      <c r="H13" s="26" t="s">
-        <v>268</v>
+        <v>319</v>
+      </c>
+      <c r="H13" s="27" t="s">
+        <v>310</v>
       </c>
       <c r="I13" s="5" t="s">
-        <v>277</v>
-      </c>
-      <c r="J13" s="26" t="s">
-        <v>272</v>
+        <v>319</v>
+      </c>
+      <c r="J13" s="27" t="s">
+        <v>314</v>
       </c>
       <c r="K13" s="5" t="s">
-        <v>288</v>
-      </c>
-      <c r="L13" s="26" t="s">
-        <v>274</v>
-      </c>
-      <c r="M13" s="26" t="s">
-        <v>279</v>
+        <v>330</v>
+      </c>
+      <c r="L13" s="27" t="s">
+        <v>316</v>
+      </c>
+      <c r="M13" s="27" t="s">
+        <v>321</v>
       </c>
       <c r="N13" s="5" t="s">
-        <v>267</v>
-      </c>
-      <c r="O13" s="26" t="s">
-        <v>279</v>
+        <v>309</v>
+      </c>
+      <c r="O13" s="27" t="s">
+        <v>321</v>
       </c>
     </row>
     <row r="14" ht="14.25" spans="1:15">
       <c r="A14" s="5" t="s">
-        <v>285</v>
+        <v>327</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>293</v>
+        <v>335</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>267</v>
+        <v>309</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>269</v>
+        <v>311</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>291</v>
+        <v>333</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>276</v>
+        <v>318</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>277</v>
-      </c>
-      <c r="H14" s="26" t="s">
-        <v>268</v>
+        <v>319</v>
+      </c>
+      <c r="H14" s="27" t="s">
+        <v>310</v>
       </c>
       <c r="I14" s="5" t="s">
-        <v>277</v>
-      </c>
-      <c r="J14" s="26" t="s">
-        <v>272</v>
+        <v>319</v>
+      </c>
+      <c r="J14" s="27" t="s">
+        <v>314</v>
       </c>
       <c r="K14" s="5" t="s">
-        <v>288</v>
-      </c>
-      <c r="L14" s="26" t="s">
-        <v>274</v>
-      </c>
-      <c r="M14" s="26" t="s">
-        <v>275</v>
+        <v>330</v>
+      </c>
+      <c r="L14" s="27" t="s">
+        <v>316</v>
+      </c>
+      <c r="M14" s="27" t="s">
+        <v>317</v>
       </c>
       <c r="N14" s="5" t="s">
-        <v>287</v>
-      </c>
-      <c r="O14" s="26" t="s">
-        <v>275</v>
+        <v>329</v>
+      </c>
+      <c r="O14" s="27" t="s">
+        <v>317</v>
       </c>
     </row>
     <row r="15" ht="14.25" spans="1:15">
       <c r="A15" s="5" t="s">
-        <v>285</v>
+        <v>327</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>293</v>
+        <v>335</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>267</v>
+        <v>309</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>292</v>
+        <v>334</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>271</v>
+        <v>313</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>278</v>
+        <v>320</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>277</v>
-      </c>
-      <c r="H15" s="26" t="s">
-        <v>268</v>
+        <v>319</v>
+      </c>
+      <c r="H15" s="27" t="s">
+        <v>310</v>
       </c>
       <c r="I15" s="5" t="s">
-        <v>277</v>
-      </c>
-      <c r="J15" s="26" t="s">
-        <v>272</v>
+        <v>319</v>
+      </c>
+      <c r="J15" s="27" t="s">
+        <v>314</v>
       </c>
       <c r="K15" s="5" t="s">
-        <v>288</v>
-      </c>
-      <c r="L15" s="26" t="s">
-        <v>274</v>
-      </c>
-      <c r="M15" s="26" t="s">
-        <v>279</v>
+        <v>330</v>
+      </c>
+      <c r="L15" s="27" t="s">
+        <v>316</v>
+      </c>
+      <c r="M15" s="27" t="s">
+        <v>321</v>
       </c>
       <c r="N15" s="5" t="s">
-        <v>267</v>
-      </c>
-      <c r="O15" s="26" t="s">
-        <v>279</v>
+        <v>309</v>
+      </c>
+      <c r="O15" s="27" t="s">
+        <v>321</v>
       </c>
     </row>
     <row r="16" ht="14.25" spans="1:15">
       <c r="A16" s="5" t="s">
-        <v>294</v>
+        <v>336</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>295</v>
+        <v>337</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>267</v>
+        <v>309</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>277</v>
+        <v>319</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>296</v>
+        <v>338</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>287</v>
-      </c>
-      <c r="G16" s="26" t="s">
-        <v>271</v>
-      </c>
-      <c r="H16" s="26" t="s">
-        <v>268</v>
-      </c>
-      <c r="I16" s="26" t="s">
-        <v>296</v>
-      </c>
-      <c r="J16" s="26" t="s">
-        <v>272</v>
+        <v>329</v>
+      </c>
+      <c r="G16" s="27" t="s">
+        <v>313</v>
+      </c>
+      <c r="H16" s="27" t="s">
+        <v>310</v>
+      </c>
+      <c r="I16" s="27" t="s">
+        <v>338</v>
+      </c>
+      <c r="J16" s="27" t="s">
+        <v>314</v>
       </c>
       <c r="K16" s="5" t="s">
-        <v>297</v>
+        <v>339</v>
       </c>
       <c r="L16" s="5" t="s">
-        <v>274</v>
-      </c>
-      <c r="M16" s="26" t="s">
-        <v>275</v>
+        <v>316</v>
+      </c>
+      <c r="M16" s="27" t="s">
+        <v>317</v>
       </c>
       <c r="N16" s="5" t="s">
-        <v>298</v>
-      </c>
-      <c r="O16" s="26" t="s">
-        <v>275</v>
+        <v>340</v>
+      </c>
+      <c r="O16" s="27" t="s">
+        <v>317</v>
       </c>
     </row>
     <row r="17" ht="14.25" spans="1:15">
       <c r="A17" s="5" t="s">
-        <v>294</v>
+        <v>336</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>295</v>
+        <v>337</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>267</v>
+        <v>309</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>277</v>
+        <v>319</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>291</v>
+        <v>333</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>299</v>
-      </c>
-      <c r="G17" s="26" t="s">
-        <v>271</v>
-      </c>
-      <c r="H17" s="26" t="s">
-        <v>268</v>
-      </c>
-      <c r="I17" s="26" t="s">
-        <v>296</v>
-      </c>
-      <c r="J17" s="26" t="s">
-        <v>272</v>
+        <v>341</v>
+      </c>
+      <c r="G17" s="27" t="s">
+        <v>313</v>
+      </c>
+      <c r="H17" s="27" t="s">
+        <v>310</v>
+      </c>
+      <c r="I17" s="27" t="s">
+        <v>338</v>
+      </c>
+      <c r="J17" s="27" t="s">
+        <v>314</v>
       </c>
       <c r="K17" s="5" t="s">
-        <v>297</v>
+        <v>339</v>
       </c>
       <c r="L17" s="5" t="s">
-        <v>274</v>
-      </c>
-      <c r="M17" s="26" t="s">
-        <v>279</v>
+        <v>316</v>
+      </c>
+      <c r="M17" s="27" t="s">
+        <v>321</v>
       </c>
       <c r="N17" s="5" t="s">
-        <v>267</v>
-      </c>
-      <c r="O17" s="26" t="s">
-        <v>275</v>
+        <v>309</v>
+      </c>
+      <c r="O17" s="27" t="s">
+        <v>317</v>
       </c>
     </row>
     <row r="18" ht="14.25" spans="1:15">
       <c r="A18" s="5" t="s">
-        <v>294</v>
+        <v>336</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>300</v>
+        <v>342</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>267</v>
+        <v>309</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>277</v>
+        <v>319</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>277</v>
+        <v>319</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>276</v>
-      </c>
-      <c r="G18" s="26" t="s">
-        <v>271</v>
-      </c>
-      <c r="H18" s="26" t="s">
-        <v>268</v>
-      </c>
-      <c r="I18" s="26" t="s">
-        <v>296</v>
-      </c>
-      <c r="J18" s="26" t="s">
-        <v>272</v>
+        <v>318</v>
+      </c>
+      <c r="G18" s="27" t="s">
+        <v>313</v>
+      </c>
+      <c r="H18" s="27" t="s">
+        <v>310</v>
+      </c>
+      <c r="I18" s="27" t="s">
+        <v>338</v>
+      </c>
+      <c r="J18" s="27" t="s">
+        <v>314</v>
       </c>
       <c r="K18" s="5" t="s">
-        <v>297</v>
+        <v>339</v>
       </c>
       <c r="L18" s="5" t="s">
-        <v>274</v>
-      </c>
-      <c r="M18" s="26" t="s">
-        <v>275</v>
+        <v>316</v>
+      </c>
+      <c r="M18" s="27" t="s">
+        <v>317</v>
       </c>
       <c r="N18" s="5" t="s">
-        <v>298</v>
-      </c>
-      <c r="O18" s="26" t="s">
-        <v>275</v>
+        <v>340</v>
+      </c>
+      <c r="O18" s="27" t="s">
+        <v>317</v>
       </c>
     </row>
     <row r="19" ht="14.25" spans="1:15">
       <c r="A19" s="5" t="s">
-        <v>294</v>
+        <v>336</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>300</v>
+        <v>342</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>267</v>
+        <v>309</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>277</v>
+        <v>319</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>291</v>
+        <v>333</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>278</v>
-      </c>
-      <c r="G19" s="26" t="s">
-        <v>271</v>
-      </c>
-      <c r="H19" s="26" t="s">
-        <v>268</v>
-      </c>
-      <c r="I19" s="26" t="s">
-        <v>296</v>
-      </c>
-      <c r="J19" s="26" t="s">
-        <v>272</v>
+        <v>320</v>
+      </c>
+      <c r="G19" s="27" t="s">
+        <v>313</v>
+      </c>
+      <c r="H19" s="27" t="s">
+        <v>310</v>
+      </c>
+      <c r="I19" s="27" t="s">
+        <v>338</v>
+      </c>
+      <c r="J19" s="27" t="s">
+        <v>314</v>
       </c>
       <c r="K19" s="5" t="s">
-        <v>297</v>
+        <v>339</v>
       </c>
       <c r="L19" s="5" t="s">
-        <v>274</v>
-      </c>
-      <c r="M19" s="26" t="s">
-        <v>279</v>
+        <v>316</v>
+      </c>
+      <c r="M19" s="27" t="s">
+        <v>321</v>
       </c>
       <c r="N19" s="5" t="s">
-        <v>267</v>
-      </c>
-      <c r="O19" s="26" t="s">
-        <v>275</v>
+        <v>309</v>
+      </c>
+      <c r="O19" s="27" t="s">
+        <v>317</v>
       </c>
     </row>
     <row r="20" ht="14.25" spans="1:15">
       <c r="A20" s="5" t="s">
-        <v>294</v>
+        <v>336</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>293</v>
+        <v>335</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>267</v>
+        <v>309</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>277</v>
+        <v>319</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>291</v>
+        <v>333</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>301</v>
-      </c>
-      <c r="G20" s="26" t="s">
-        <v>271</v>
-      </c>
-      <c r="H20" s="26" t="s">
-        <v>268</v>
-      </c>
-      <c r="I20" s="26" t="s">
-        <v>296</v>
-      </c>
-      <c r="J20" s="26" t="s">
-        <v>272</v>
+        <v>343</v>
+      </c>
+      <c r="G20" s="27" t="s">
+        <v>313</v>
+      </c>
+      <c r="H20" s="27" t="s">
+        <v>310</v>
+      </c>
+      <c r="I20" s="27" t="s">
+        <v>338</v>
+      </c>
+      <c r="J20" s="27" t="s">
+        <v>314</v>
       </c>
       <c r="K20" s="5" t="s">
-        <v>297</v>
+        <v>339</v>
       </c>
       <c r="L20" s="5" t="s">
-        <v>274</v>
-      </c>
-      <c r="M20" s="26" t="s">
-        <v>275</v>
+        <v>316</v>
+      </c>
+      <c r="M20" s="27" t="s">
+        <v>317</v>
       </c>
       <c r="N20" s="5" t="s">
-        <v>298</v>
-      </c>
-      <c r="O20" s="26" t="s">
-        <v>275</v>
+        <v>340</v>
+      </c>
+      <c r="O20" s="27" t="s">
+        <v>317</v>
       </c>
     </row>
     <row r="21" ht="14.25" spans="1:15">
       <c r="A21" s="5" t="s">
-        <v>294</v>
+        <v>336</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>293</v>
+        <v>335</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>267</v>
+        <v>309</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>277</v>
+        <v>319</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>269</v>
+        <v>311</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>278</v>
-      </c>
-      <c r="G21" s="26" t="s">
-        <v>271</v>
-      </c>
-      <c r="H21" s="26" t="s">
-        <v>268</v>
-      </c>
-      <c r="I21" s="26" t="s">
-        <v>296</v>
-      </c>
-      <c r="J21" s="26" t="s">
-        <v>272</v>
+        <v>320</v>
+      </c>
+      <c r="G21" s="27" t="s">
+        <v>313</v>
+      </c>
+      <c r="H21" s="27" t="s">
+        <v>310</v>
+      </c>
+      <c r="I21" s="27" t="s">
+        <v>338</v>
+      </c>
+      <c r="J21" s="27" t="s">
+        <v>314</v>
       </c>
       <c r="K21" s="5" t="s">
-        <v>297</v>
+        <v>339</v>
       </c>
       <c r="L21" s="5" t="s">
-        <v>274</v>
-      </c>
-      <c r="M21" s="26" t="s">
-        <v>279</v>
+        <v>316</v>
+      </c>
+      <c r="M21" s="27" t="s">
+        <v>321</v>
       </c>
       <c r="N21" s="5" t="s">
-        <v>267</v>
-      </c>
-      <c r="O21" s="26" t="s">
-        <v>275</v>
+        <v>309</v>
+      </c>
+      <c r="O21" s="27" t="s">
+        <v>317</v>
       </c>
     </row>
     <row r="22" ht="14.25" spans="1:15">
       <c r="A22" t="s">
-        <v>302</v>
+        <v>344</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>276</v>
+        <v>318</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>267</v>
+        <v>309</v>
       </c>
       <c r="D22" s="5">
         <v>10</v>
@@ -6344,274 +6614,274 @@
         <v>7</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>278</v>
-      </c>
-      <c r="G22" s="26" t="s">
-        <v>289</v>
-      </c>
-      <c r="H22" s="26" t="s">
-        <v>268</v>
-      </c>
-      <c r="I22" s="26" t="s">
-        <v>271</v>
-      </c>
-      <c r="J22" s="26" t="s">
-        <v>272</v>
+        <v>320</v>
+      </c>
+      <c r="G22" s="27" t="s">
+        <v>331</v>
+      </c>
+      <c r="H22" s="27" t="s">
+        <v>310</v>
+      </c>
+      <c r="I22" s="27" t="s">
+        <v>313</v>
+      </c>
+      <c r="J22" s="27" t="s">
+        <v>314</v>
       </c>
       <c r="K22" s="5" t="s">
-        <v>303</v>
+        <v>345</v>
       </c>
       <c r="L22" s="5" t="s">
-        <v>274</v>
-      </c>
-      <c r="M22" s="26" t="s">
-        <v>279</v>
+        <v>316</v>
+      </c>
+      <c r="M22" s="27" t="s">
+        <v>321</v>
       </c>
       <c r="N22" s="5" t="s">
-        <v>267</v>
-      </c>
-      <c r="O22" s="26" t="s">
-        <v>279</v>
+        <v>309</v>
+      </c>
+      <c r="O22" s="27" t="s">
+        <v>321</v>
       </c>
     </row>
     <row r="23" ht="14.25" spans="1:15">
       <c r="A23" t="s">
-        <v>302</v>
+        <v>344</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>276</v>
+        <v>318</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>267</v>
+        <v>309</v>
       </c>
       <c r="D23" s="5">
         <v>10</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>271</v>
+        <v>313</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>304</v>
-      </c>
-      <c r="G23" s="26" t="s">
-        <v>289</v>
-      </c>
-      <c r="H23" s="26" t="s">
-        <v>268</v>
-      </c>
-      <c r="I23" s="26" t="s">
-        <v>271</v>
-      </c>
-      <c r="J23" s="26" t="s">
-        <v>272</v>
+        <v>346</v>
+      </c>
+      <c r="G23" s="27" t="s">
+        <v>331</v>
+      </c>
+      <c r="H23" s="27" t="s">
+        <v>310</v>
+      </c>
+      <c r="I23" s="27" t="s">
+        <v>313</v>
+      </c>
+      <c r="J23" s="27" t="s">
+        <v>314</v>
       </c>
       <c r="K23" s="5" t="s">
-        <v>303</v>
+        <v>345</v>
       </c>
       <c r="L23" s="5" t="s">
-        <v>274</v>
-      </c>
-      <c r="M23" s="26" t="s">
-        <v>279</v>
+        <v>316</v>
+      </c>
+      <c r="M23" s="27" t="s">
+        <v>321</v>
       </c>
       <c r="N23" s="5" t="s">
-        <v>267</v>
-      </c>
-      <c r="O23" s="26" t="s">
-        <v>279</v>
+        <v>309</v>
+      </c>
+      <c r="O23" s="27" t="s">
+        <v>321</v>
       </c>
     </row>
     <row r="24" ht="14.25" spans="1:15">
       <c r="A24" t="s">
-        <v>302</v>
+        <v>344</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>300</v>
+        <v>342</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>267</v>
+        <v>309</v>
       </c>
       <c r="D24" s="5">
         <v>10</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>271</v>
+        <v>313</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>304</v>
-      </c>
-      <c r="G24" s="26" t="s">
-        <v>289</v>
-      </c>
-      <c r="H24" s="26" t="s">
-        <v>268</v>
-      </c>
-      <c r="I24" s="26" t="s">
-        <v>271</v>
-      </c>
-      <c r="J24" s="26" t="s">
-        <v>272</v>
+        <v>346</v>
+      </c>
+      <c r="G24" s="27" t="s">
+        <v>331</v>
+      </c>
+      <c r="H24" s="27" t="s">
+        <v>310</v>
+      </c>
+      <c r="I24" s="27" t="s">
+        <v>313</v>
+      </c>
+      <c r="J24" s="27" t="s">
+        <v>314</v>
       </c>
       <c r="K24" s="5" t="s">
-        <v>303</v>
+        <v>345</v>
       </c>
       <c r="L24" s="5" t="s">
-        <v>274</v>
-      </c>
-      <c r="M24" s="26" t="s">
-        <v>279</v>
+        <v>316</v>
+      </c>
+      <c r="M24" s="27" t="s">
+        <v>321</v>
       </c>
       <c r="N24" s="5" t="s">
-        <v>267</v>
-      </c>
-      <c r="O24" s="26" t="s">
-        <v>279</v>
+        <v>309</v>
+      </c>
+      <c r="O24" s="27" t="s">
+        <v>321</v>
       </c>
     </row>
     <row r="25" ht="14.25" spans="1:15">
       <c r="A25" t="s">
-        <v>302</v>
+        <v>344</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>300</v>
+        <v>342</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>267</v>
+        <v>309</v>
       </c>
       <c r="D25" s="5">
         <v>10</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>271</v>
+        <v>313</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>304</v>
-      </c>
-      <c r="G25" s="26" t="s">
-        <v>289</v>
-      </c>
-      <c r="H25" s="26" t="s">
-        <v>268</v>
-      </c>
-      <c r="I25" s="26" t="s">
-        <v>271</v>
-      </c>
-      <c r="J25" s="26" t="s">
-        <v>272</v>
+        <v>346</v>
+      </c>
+      <c r="G25" s="27" t="s">
+        <v>331</v>
+      </c>
+      <c r="H25" s="27" t="s">
+        <v>310</v>
+      </c>
+      <c r="I25" s="27" t="s">
+        <v>313</v>
+      </c>
+      <c r="J25" s="27" t="s">
+        <v>314</v>
       </c>
       <c r="K25" s="5" t="s">
-        <v>303</v>
+        <v>345</v>
       </c>
       <c r="L25" s="5" t="s">
-        <v>274</v>
-      </c>
-      <c r="M25" s="26" t="s">
-        <v>279</v>
+        <v>316</v>
+      </c>
+      <c r="M25" s="27" t="s">
+        <v>321</v>
       </c>
       <c r="N25" s="5" t="s">
-        <v>267</v>
-      </c>
-      <c r="O25" s="26" t="s">
-        <v>279</v>
+        <v>309</v>
+      </c>
+      <c r="O25" s="27" t="s">
+        <v>321</v>
       </c>
     </row>
     <row r="26" ht="14.25" spans="1:15">
       <c r="A26" t="s">
-        <v>302</v>
+        <v>344</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>293</v>
+        <v>335</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>267</v>
+        <v>309</v>
       </c>
       <c r="D26" s="5">
         <v>10</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>271</v>
+        <v>313</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>304</v>
-      </c>
-      <c r="G26" s="26" t="s">
-        <v>289</v>
-      </c>
-      <c r="H26" s="26" t="s">
-        <v>268</v>
-      </c>
-      <c r="I26" s="26" t="s">
-        <v>271</v>
-      </c>
-      <c r="J26" s="26" t="s">
-        <v>272</v>
+        <v>346</v>
+      </c>
+      <c r="G26" s="27" t="s">
+        <v>331</v>
+      </c>
+      <c r="H26" s="27" t="s">
+        <v>310</v>
+      </c>
+      <c r="I26" s="27" t="s">
+        <v>313</v>
+      </c>
+      <c r="J26" s="27" t="s">
+        <v>314</v>
       </c>
       <c r="K26" s="5" t="s">
-        <v>303</v>
+        <v>345</v>
       </c>
       <c r="L26" s="5" t="s">
-        <v>274</v>
-      </c>
-      <c r="M26" s="26" t="s">
-        <v>279</v>
+        <v>316</v>
+      </c>
+      <c r="M26" s="27" t="s">
+        <v>321</v>
       </c>
       <c r="N26" s="5" t="s">
-        <v>267</v>
-      </c>
-      <c r="O26" s="26" t="s">
-        <v>279</v>
+        <v>309</v>
+      </c>
+      <c r="O26" s="27" t="s">
+        <v>321</v>
       </c>
     </row>
     <row r="27" ht="14.25" spans="1:15">
       <c r="A27" t="s">
-        <v>302</v>
+        <v>344</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>293</v>
+        <v>335</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>267</v>
+        <v>309</v>
       </c>
       <c r="D27" s="5">
         <v>10</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>271</v>
+        <v>313</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>304</v>
-      </c>
-      <c r="G27" s="26" t="s">
-        <v>289</v>
-      </c>
-      <c r="H27" s="26" t="s">
-        <v>268</v>
-      </c>
-      <c r="I27" s="26" t="s">
-        <v>271</v>
-      </c>
-      <c r="J27" s="26" t="s">
-        <v>272</v>
+        <v>346</v>
+      </c>
+      <c r="G27" s="27" t="s">
+        <v>331</v>
+      </c>
+      <c r="H27" s="27" t="s">
+        <v>310</v>
+      </c>
+      <c r="I27" s="27" t="s">
+        <v>313</v>
+      </c>
+      <c r="J27" s="27" t="s">
+        <v>314</v>
       </c>
       <c r="K27" s="5" t="s">
-        <v>303</v>
+        <v>345</v>
       </c>
       <c r="L27" s="5" t="s">
-        <v>274</v>
-      </c>
-      <c r="M27" s="26" t="s">
-        <v>279</v>
+        <v>316</v>
+      </c>
+      <c r="M27" s="27" t="s">
+        <v>321</v>
       </c>
       <c r="N27" s="5" t="s">
-        <v>267</v>
-      </c>
-      <c r="O27" s="26" t="s">
-        <v>279</v>
+        <v>309</v>
+      </c>
+      <c r="O27" s="27" t="s">
+        <v>321</v>
       </c>
     </row>
     <row r="28" spans="1:15">
       <c r="A28" t="s">
-        <v>305</v>
+        <v>347</v>
       </c>
       <c r="B28" s="4">
         <v>11</v>
@@ -6626,7 +6896,7 @@
         <v>-1</v>
       </c>
       <c r="F28" t="s">
-        <v>299</v>
+        <v>341</v>
       </c>
       <c r="G28">
         <v>1000</v>
@@ -6641,19 +6911,19 @@
         <v>0</v>
       </c>
       <c r="K28" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="L28">
         <v>0</v>
       </c>
-      <c r="M28" s="27" t="s">
-        <v>279</v>
+      <c r="M28" s="28" t="s">
+        <v>321</v>
       </c>
       <c r="N28">
         <v>-1</v>
       </c>
-      <c r="O28" s="27" t="s">
-        <v>279</v>
+      <c r="O28" s="28" t="s">
+        <v>321</v>
       </c>
     </row>
   </sheetData>
@@ -6678,31 +6948,31 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" t="s">
-        <v>205</v>
+        <v>247</v>
       </c>
       <c r="B1" t="s">
-        <v>306</v>
+        <v>348</v>
       </c>
       <c r="C1" t="s">
-        <v>307</v>
+        <v>349</v>
       </c>
       <c r="D1" t="s">
-        <v>308</v>
+        <v>350</v>
       </c>
       <c r="E1" t="s">
-        <v>309</v>
+        <v>351</v>
       </c>
       <c r="F1" t="s">
-        <v>310</v>
+        <v>352</v>
       </c>
       <c r="G1" t="s">
-        <v>311</v>
+        <v>353</v>
       </c>
       <c r="H1" t="s">
-        <v>312</v>
+        <v>354</v>
       </c>
       <c r="I1" t="s">
-        <v>313</v>
+        <v>355</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -6736,31 +7006,31 @@
     </row>
     <row r="3" spans="1:9">
       <c r="A3" t="s">
-        <v>314</v>
+        <v>356</v>
       </c>
       <c r="B3" t="s">
-        <v>315</v>
+        <v>357</v>
       </c>
       <c r="C3" t="s">
-        <v>316</v>
+        <v>358</v>
       </c>
       <c r="D3" t="s">
-        <v>317</v>
+        <v>359</v>
       </c>
       <c r="E3" t="s">
-        <v>318</v>
+        <v>360</v>
       </c>
       <c r="F3" t="s">
-        <v>319</v>
+        <v>361</v>
       </c>
       <c r="G3" t="s">
-        <v>320</v>
+        <v>362</v>
       </c>
       <c r="H3" t="s">
-        <v>321</v>
+        <v>363</v>
       </c>
       <c r="I3" t="s">
-        <v>322</v>
+        <v>364</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -6879,7 +7149,7 @@
         <v>4</v>
       </c>
       <c r="C1" t="s">
-        <v>323</v>
+        <v>365</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -6895,13 +7165,13 @@
     </row>
     <row r="3" ht="54" spans="1:3">
       <c r="A3" s="4" t="s">
-        <v>324</v>
+        <v>366</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>325</v>
+        <v>367</v>
       </c>
       <c r="C3" t="s">
-        <v>326</v>
+        <v>368</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -7170,16 +7440,16 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>327</v>
+        <v>369</v>
       </c>
       <c r="B1" t="s">
-        <v>328</v>
+        <v>370</v>
       </c>
       <c r="C1" t="s">
-        <v>329</v>
+        <v>371</v>
       </c>
       <c r="D1" t="s">
-        <v>330</v>
+        <v>372</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -7198,16 +7468,16 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>331</v>
+        <v>373</v>
       </c>
       <c r="B3" t="s">
-        <v>332</v>
+        <v>374</v>
       </c>
       <c r="C3" t="s">
-        <v>333</v>
+        <v>375</v>
       </c>
       <c r="D3" t="s">
-        <v>334</v>
+        <v>376</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -7215,13 +7485,13 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>335</v>
+        <v>377</v>
       </c>
       <c r="C4" t="s">
-        <v>336</v>
+        <v>378</v>
       </c>
       <c r="D4" t="s">
-        <v>337</v>
+        <v>379</v>
       </c>
     </row>
   </sheetData>
@@ -7246,10 +7516,10 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="27" spans="2:8">
       <c r="B1" s="1" t="s">
-        <v>338</v>
+        <v>380</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>339</v>
+        <v>381</v>
       </c>
       <c r="D1" s="3">
         <v>7</v>
@@ -7266,10 +7536,10 @@
     </row>
     <row r="2" s="1" customFormat="1" ht="27" spans="2:8">
       <c r="B2" s="1" t="s">
-        <v>340</v>
+        <v>382</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>339</v>
+        <v>381</v>
       </c>
       <c r="D2" s="3">
         <v>7</v>
@@ -7286,10 +7556,10 @@
     </row>
     <row r="3" s="1" customFormat="1" ht="27" spans="2:8">
       <c r="B3" s="1" t="s">
-        <v>341</v>
+        <v>383</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>339</v>
+        <v>381</v>
       </c>
       <c r="D3" s="3">
         <v>7</v>
@@ -7301,7 +7571,7 @@
         <v>1</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>342</v>
+        <v>384</v>
       </c>
     </row>
     <row r="4" spans="8:8">

--- a/Assets/Editor/ItemData.xlsx
+++ b/Assets/Editor/ItemData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12960" activeTab="1"/>
+    <workbookView windowWidth="27945" windowHeight="12960"/>
   </bookViews>
   <sheets>
     <sheet name="道具" sheetId="1" r:id="rId1"/>
@@ -515,7 +515,7 @@
     <t>藏于中部高山中景州的大型业力碎片。</t>
   </si>
   <si>
-    <t>大神通·灵台小我相</t>
+    <t>台小我相·大神通灵</t>
   </si>
   <si>
     <t>围绕圆心生成角色分身，角色以及分身同时吸引雷劫</t>
@@ -524,7 +524,7 @@
     <t>九净法门第九代掌门——百相道人陈修泽使用的大神通，此神通召唤出来的分身几乎与本体无异，能够无所拘束的行动，据说哪怕施术者本人已经死去，分身仍然可以在世间行动……</t>
   </si>
   <si>
-    <t>小神通·三雷照影踪</t>
+    <t>三雷照影踪·小神通</t>
   </si>
   <si>
     <t>每被雷击中三次召唤一个一次性分身</t>
@@ -534,7 +534,7 @@
 因此在少年时时常被师父责骂其好吃懒做。</t>
   </si>
   <si>
-    <t>小神通·三刻换生法</t>
+    <t>三刻换生法·小神通</t>
   </si>
   <si>
     <t>每隔一段时间会在自己所在位置召唤一个一次性分身</t>
@@ -543,7 +543,7 @@
     <t>“一真三绝”死后，曾经同辈中最被忽视的陈师弟成了三绝一代最后的掌门，没人会想到他却成为了守护山门最久的掌门。</t>
   </si>
   <si>
-    <t>大神通·将身比身</t>
+    <t>将身比身·大神通</t>
   </si>
   <si>
     <t>可以让分身召唤的雷电带有额外效果</t>
@@ -553,7 +553,7 @@
 男子停止了呼吸，身边的分身逐渐消失，只剩下一个分身来到他的面前，轻轻合上其双眼。</t>
   </si>
   <si>
-    <t>小神通·五蕴照空转厄鉴</t>
+    <t>五蕴照空转厄鉴·小神通</t>
   </si>
   <si>
     <t>角色被雷击后，雷电将随机角度反射</t>
@@ -562,7 +562,7 @@
     <t>齐渊经常教导自己的弟子：面对雷劫的唯一办法，就是在自己的灵台之上建起一面镜子。</t>
   </si>
   <si>
-    <t>小神通·不渡经</t>
+    <t>不渡经·小神通</t>
   </si>
   <si>
     <t>当雷电攻击怪物后会发生爆炸伤害</t>
@@ -571,7 +571,7 @@
     <t>“一真三绝”里的一真指的是同天真人——齐渊，没人知道他究竟是在何处寻到了九净法门的机缘，将这个消失了几百年的古老宗门又一次带到世间。</t>
   </si>
   <si>
-    <t>大神通·日月同潮引</t>
+    <t>日月同潮引·大神通</t>
   </si>
   <si>
     <t>雷电会将周围的怪物吸附牵引</t>
@@ -580,7 +580,7 @@
     <t>九净法门因为其与众不同的修行目的，在其宗门历史上多次发生失传断代。但每当九净法门在历史中消失一段时间后，就会诞生出一位宛若命定之人将九净法门带回到世间。</t>
   </si>
   <si>
-    <t>小神通·三阳冲斗诀</t>
+    <t>三阳冲斗诀·小神通</t>
   </si>
   <si>
     <t>当雷电击杀怪物后，溢出的伤害将会自动弹射到周围的怪物身上。</t>
@@ -589,7 +589,7 @@
     <t>伴随着雷劫的出现，金色的雷电成为了修炼者们恐惧的存在，绝大多数宗门不得不开始想尽办法去逃避金色的雷劫，但也少部分古老的宗门对于雷劫有着不同的看法……</t>
   </si>
   <si>
-    <t>小神通·泰山金咒</t>
+    <t>泰山金咒·小神通</t>
   </si>
   <si>
     <t>角色被雷击时，会对周围产生爆炸伤害。</t>
@@ -598,7 +598,7 @@
     <t>九净法门是世上最古老的门派之一，相较于那些逃避雷劫的宗门，他们追求着直面雷劫的那个瞬间，只有如此才能得窥那天地间最本源的道法。</t>
   </si>
   <si>
-    <t>小神通·流火飞星印</t>
+    <t>流火飞星印·小神通</t>
   </si>
   <si>
     <t>召唤一个火焰符箓，每8轮雷劫再次召唤，对一定范围内敌人每秒喷射一个火球。过载状态：攻速加倍，持续3秒</t>
@@ -609,7 +609,7 @@
 符奴们不会接受教育，但为了让他们更好地制符，部落首领们会把符纹刺在符奴的身体上，那些奇异的纹样便是奴隶的印记。</t>
   </si>
   <si>
-    <t>小神通·冰川横剑符</t>
+    <t>冰川横剑符·小神通</t>
   </si>
   <si>
     <t>召唤一个寒冰剑气符箓，每10轮雷劫再次召唤，剑气围绕符箓旋转，对扫过的敌人造成伤害并减少20%移动速度。过载状态：剑气增长，速度加倍，持续3秒。</t>
@@ -619,7 +619,7 @@
 陆兰砂曾用此符法制成数万把冰刃，冰刃坚固无比，她将其散发给孔雀州一小国的奴隶们，奴隶们以此冰刃作为武器，推翻了那个国家的皇帝。</t>
   </si>
   <si>
-    <t>小神通·清风化煞印</t>
+    <t>清风化煞印·小神通</t>
   </si>
   <si>
     <t>召唤一个草木符箓，每8轮雷劫再次召唤，每4秒生成一个治疗法球恢复。过载状态:生出速度翻倍，持续4秒</t>
@@ -629,7 +629,7 @@
 陆兰砂据说是九净法门第六代掌门从北方寻来的法符好苗子，但自从加入宗门以来，无论春夏秋冬，陆兰砂总是将自己裹得严严实实的，性子也冷得像块玄冰，从未有人见过她脱去身上那件红色的大袍子。</t>
   </si>
   <si>
-    <t>小神通·搬山遁甲符</t>
+    <t>搬山遁甲符·小神通</t>
   </si>
   <si>
     <t>召唤一个盾牌符箓，每8轮雷劫再次召唤，每5秒生成一个护甲恢复法球。过载状态：每秒攻击一个敌人，持续3秒。</t>
@@ -641,7 +641,7 @@
 不久传来消息：北方的一个部落国消失了，取而代之的是一个巨大的深坑。</t>
   </si>
   <si>
-    <t>大神通·幻界囚真世</t>
+    <t>幻界囚真世·大神通</t>
   </si>
   <si>
     <t>召唤一个虚空符箓，每12轮雷劫再次召唤，形成黑洞不断将敌人吸引上限8个。过载状态：引爆黑洞，造成大量伤害并击退。</t>
@@ -651,7 +651,7 @@
 陆兰砂在南方的孔雀州观摩了某种远古传说中的凶咒后，突破了空间方寸之限后领悟的神通，曾经使用此神通将一个国家顷刻间化为齑粉。</t>
   </si>
   <si>
-    <t>大神通·穿念化阴雷</t>
+    <t>穿念化阴雷·大神通</t>
   </si>
   <si>
     <t>每轮雷劫只会生成一道雷击，雷击道数会转化成为雷电伤害，并将自动串联所有符箓。</t>
@@ -662,7 +662,7 @@
 与其说是施展法术，更像是在跟某种存在交流。</t>
   </si>
   <si>
-    <t>小神通·报春蛊</t>
+    <t>报春蛊·小神通</t>
   </si>
   <si>
     <t>需要5道闪电充能，持续2秒回复生命值，每秒给角色回复10%已损失生命值。</t>
@@ -672,7 +672,7 @@
 只有在春天才有如同花朵般美好温暖的蛊虫。</t>
   </si>
   <si>
-    <t>小神通·环身赤玉蛊</t>
+    <t>环身赤玉蛊·小神通</t>
   </si>
   <si>
     <t>需要10道闪电充能，在自身周围形成一个环形造成伤害持续10秒</t>
@@ -682,7 +682,7 @@
 这种喜食血肉的蜂虫，便是其在密林中的第一道防线，贸然来此的旅人，都会变成密林中一具白骨。</t>
   </si>
   <si>
-    <t>小神通·金蚕蛊</t>
+    <t>金蚕蛊·小神通</t>
   </si>
   <si>
     <t>需要6道闪电充能，在身体后方召唤一道墙壁阻挡怪物和子弹，持续5秒</t>
@@ -692,14 +692,14 @@
 据说是代表着幸运的蛊虫，这是一个少年送给陆兰砂的礼物。</t>
   </si>
   <si>
-    <t>大神通·三鬼追魂蛊</t>
+    <t>三鬼追魂蛊·大神通</t>
   </si>
   <si>
     <t>只有高阶的蛊祭才能掌握的凶狠蛊虫，它以鲜血为记，会追杀目标到天涯海角。
 过去的夜邑国一切都为大蛊祭掌控，直到天空中张开了黑色的眼眸后，最后的一位大蛊祭相信自己听到了蛊神的神谕，要将夜邑国的一切都献给祂。</t>
   </si>
   <si>
-    <t>大神通·脏腑养宫蛊</t>
+    <t>脏腑养宫蛊·大神通</t>
   </si>
   <si>
     <t>角色同时存在4只以上蛊虫时，每隔2秒会自动为一只处于充能状态的蛊虫完全充能</t>
@@ -709,7 +709,7 @@
 近百年唯一成功的是一位奴隶少年，掌握此法的诀窍究竟是对生的渴望，还是对死的漠视……</t>
   </si>
   <si>
-    <t>小神通·小蝇蛊</t>
+    <t>小蝇蛊·小神通</t>
   </si>
   <si>
     <t>需要3道闪电充能，自动攻击距离最近的怪物一次</t>
@@ -719,7 +719,7 @@
 蛊咒是西南边陲无名之林中居民所使用的法术，他们将血肉供奉给蛊虫，来与某种神明建立联系。</t>
   </si>
   <si>
-    <t>小神通·倩身凝魄步</t>
+    <t>倩身凝魄步·小神通</t>
   </si>
   <si>
     <t>移动路径上留下一个可以降低怪物速度的减速区域</t>
@@ -728,7 +728,7 @@
     <t>九净法门的身法之一，周身泛起迷雾，身姿如同女子舞动的倩影一般。</t>
   </si>
   <si>
-    <t>小神通·金雷颤魂法</t>
+    <t>金雷颤魂法·小神通</t>
   </si>
   <si>
     <t>雷击会让怪物有几率麻痹</t>
@@ -738,7 +738,7 @@
 随着修行者不断突破自身的极限，就在他们即将触摸到某种极限之时，金色的雷电便会降下雷劫，少有修炼者可以从雷劫中存活下来。</t>
   </si>
   <si>
-    <t>小神通·周公游梦身</t>
+    <t>周公游梦身·小神通</t>
   </si>
   <si>
     <t>角色定时进入一段无敌状态</t>
@@ -747,7 +747,7 @@
     <t>九净法门的身法之一，如露亦如电,如梦幻泡影,应作如是观。</t>
   </si>
   <si>
-    <t>小神通·身前三尺三寸诀</t>
+    <t>身前三尺三寸诀·小神通</t>
   </si>
   <si>
     <t>角色每隔一段时间会朝面向方向瞬移一段距离</t>
@@ -1895,7 +1895,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1964,9 +1964,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2331,8 +2328,8 @@
   <sheetPr/>
   <dimension ref="A1:H74"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G53" sqref="G53"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="C68" sqref="C68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -2443,7 +2440,7 @@
       <c r="F4" s="22">
         <v>1</v>
       </c>
-      <c r="G4" s="23" t="s">
+      <c r="G4" s="4" t="s">
         <v>21</v>
       </c>
       <c r="H4">
@@ -2469,7 +2466,7 @@
       <c r="F5" s="22">
         <v>3</v>
       </c>
-      <c r="G5" s="23" t="s">
+      <c r="G5" s="4" t="s">
         <v>24</v>
       </c>
       <c r="H5">
@@ -2495,7 +2492,7 @@
       <c r="F6" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="G6" s="23" t="s">
+      <c r="G6" s="4" t="s">
         <v>29</v>
       </c>
       <c r="H6">
@@ -2509,7 +2506,7 @@
       <c r="B7" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="C7" s="24" t="s">
+      <c r="C7" s="23" t="s">
         <v>31</v>
       </c>
       <c r="D7" s="4">
@@ -2521,7 +2518,7 @@
       <c r="F7" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="G7" s="23" t="s">
+      <c r="G7" s="4" t="s">
         <v>34</v>
       </c>
       <c r="H7">
@@ -2535,7 +2532,7 @@
       <c r="B8" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="C8" s="24" t="s">
+      <c r="C8" s="23" t="s">
         <v>36</v>
       </c>
       <c r="D8" s="4">
@@ -2547,7 +2544,7 @@
       <c r="F8" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="G8" s="23" t="s">
+      <c r="G8" s="4" t="s">
         <v>39</v>
       </c>
       <c r="H8">
@@ -2561,7 +2558,7 @@
       <c r="B9" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="C9" s="24" t="s">
+      <c r="C9" s="23" t="s">
         <v>41</v>
       </c>
       <c r="D9" s="4">
@@ -2573,7 +2570,7 @@
       <c r="F9" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="G9" s="23" t="s">
+      <c r="G9" s="4" t="s">
         <v>44</v>
       </c>
       <c r="H9">
@@ -2587,7 +2584,7 @@
       <c r="B10" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="C10" s="24" t="s">
+      <c r="C10" s="23" t="s">
         <v>46</v>
       </c>
       <c r="D10" s="4">
@@ -2599,7 +2596,7 @@
       <c r="F10" s="22">
         <v>5</v>
       </c>
-      <c r="G10" s="23" t="s">
+      <c r="G10" s="4" t="s">
         <v>47</v>
       </c>
       <c r="H10">
@@ -2613,7 +2610,7 @@
       <c r="B11" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="C11" s="24" t="s">
+      <c r="C11" s="23" t="s">
         <v>49</v>
       </c>
       <c r="D11" s="4">
@@ -2625,7 +2622,7 @@
       <c r="F11" s="22" t="s">
         <v>51</v>
       </c>
-      <c r="G11" s="23" t="s">
+      <c r="G11" s="4" t="s">
         <v>52</v>
       </c>
       <c r="H11">
@@ -2639,7 +2636,7 @@
       <c r="B12" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="C12" s="24" t="s">
+      <c r="C12" s="23" t="s">
         <v>54</v>
       </c>
       <c r="D12" s="4">
@@ -2651,7 +2648,7 @@
       <c r="F12" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="G12" s="23" t="s">
+      <c r="G12" s="4" t="s">
         <v>56</v>
       </c>
       <c r="H12">
@@ -2665,7 +2662,7 @@
       <c r="B13" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="C13" s="24" t="s">
+      <c r="C13" s="23" t="s">
         <v>58</v>
       </c>
       <c r="D13" s="4">
@@ -2677,7 +2674,7 @@
       <c r="F13" s="22">
         <v>1</v>
       </c>
-      <c r="G13" s="23" t="s">
+      <c r="G13" s="4" t="s">
         <v>59</v>
       </c>
       <c r="H13">
@@ -2691,7 +2688,7 @@
       <c r="B14" s="19" t="s">
         <v>60</v>
       </c>
-      <c r="C14" s="24" t="s">
+      <c r="C14" s="23" t="s">
         <v>61</v>
       </c>
       <c r="D14" s="4">
@@ -2703,7 +2700,7 @@
       <c r="F14" s="22" t="s">
         <v>63</v>
       </c>
-      <c r="G14" s="23" t="s">
+      <c r="G14" s="4" t="s">
         <v>64</v>
       </c>
       <c r="H14">
@@ -2717,7 +2714,7 @@
       <c r="B15" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="C15" s="24" t="s">
+      <c r="C15" s="23" t="s">
         <v>66</v>
       </c>
       <c r="D15" s="4">
@@ -2729,7 +2726,7 @@
       <c r="F15" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="G15" s="23" t="s">
+      <c r="G15" s="4" t="s">
         <v>69</v>
       </c>
       <c r="H15">
@@ -2743,7 +2740,7 @@
       <c r="B16" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="C16" s="24" t="s">
+      <c r="C16" s="23" t="s">
         <v>71</v>
       </c>
       <c r="D16" s="4">
@@ -2755,7 +2752,7 @@
       <c r="F16" s="22">
         <v>2</v>
       </c>
-      <c r="G16" s="23" t="s">
+      <c r="G16" s="4" t="s">
         <v>72</v>
       </c>
       <c r="H16">
@@ -2769,7 +2766,7 @@
       <c r="B17" s="19" t="s">
         <v>73</v>
       </c>
-      <c r="C17" s="24" t="s">
+      <c r="C17" s="23" t="s">
         <v>23</v>
       </c>
       <c r="D17" s="4">
@@ -2781,7 +2778,7 @@
       <c r="F17" s="22">
         <v>2</v>
       </c>
-      <c r="G17" s="23" t="s">
+      <c r="G17" s="4" t="s">
         <v>74</v>
       </c>
       <c r="H17">
@@ -2795,7 +2792,7 @@
       <c r="B18" s="19" t="s">
         <v>75</v>
       </c>
-      <c r="C18" s="24" t="s">
+      <c r="C18" s="23" t="s">
         <v>76</v>
       </c>
       <c r="D18" s="4">
@@ -2807,7 +2804,7 @@
       <c r="F18" s="22">
         <v>0.05</v>
       </c>
-      <c r="G18" s="23" t="s">
+      <c r="G18" s="4" t="s">
         <v>77</v>
       </c>
       <c r="H18">
@@ -2821,7 +2818,7 @@
       <c r="B19" s="19" t="s">
         <v>78</v>
       </c>
-      <c r="C19" s="24" t="s">
+      <c r="C19" s="23" t="s">
         <v>79</v>
       </c>
       <c r="D19" s="4">
@@ -2833,7 +2830,7 @@
       <c r="F19" s="22" t="s">
         <v>81</v>
       </c>
-      <c r="G19" s="23" t="s">
+      <c r="G19" s="4" t="s">
         <v>82</v>
       </c>
       <c r="H19">
@@ -2847,7 +2844,7 @@
       <c r="B20" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="C20" s="24" t="s">
+      <c r="C20" s="23" t="s">
         <v>84</v>
       </c>
       <c r="D20" s="4">
@@ -2859,7 +2856,7 @@
       <c r="F20" s="22" t="s">
         <v>86</v>
       </c>
-      <c r="G20" s="23" t="s">
+      <c r="G20" s="4" t="s">
         <v>87</v>
       </c>
       <c r="H20">
@@ -2873,7 +2870,7 @@
       <c r="B21" s="19" t="s">
         <v>88</v>
       </c>
-      <c r="C21" s="24" t="s">
+      <c r="C21" s="23" t="s">
         <v>89</v>
       </c>
       <c r="D21" s="4">
@@ -2885,7 +2882,7 @@
       <c r="F21" s="22" t="s">
         <v>91</v>
       </c>
-      <c r="G21" s="23" t="s">
+      <c r="G21" s="4" t="s">
         <v>92</v>
       </c>
       <c r="H21">
@@ -2899,7 +2896,7 @@
       <c r="B22" s="19" t="s">
         <v>93</v>
       </c>
-      <c r="C22" s="24" t="s">
+      <c r="C22" s="23" t="s">
         <v>94</v>
       </c>
       <c r="D22" s="4">
@@ -2908,10 +2905,10 @@
       <c r="E22" s="21" t="s">
         <v>95</v>
       </c>
-      <c r="F22" s="26" t="s">
+      <c r="F22" s="25" t="s">
         <v>96</v>
       </c>
-      <c r="G22" s="23" t="s">
+      <c r="G22" s="4" t="s">
         <v>97</v>
       </c>
       <c r="H22">
@@ -2925,7 +2922,7 @@
       <c r="B23" s="19" t="s">
         <v>98</v>
       </c>
-      <c r="C23" s="24" t="s">
+      <c r="C23" s="23" t="s">
         <v>99</v>
       </c>
       <c r="D23" s="4">
@@ -2937,7 +2934,7 @@
       <c r="F23" s="22" t="s">
         <v>100</v>
       </c>
-      <c r="G23" s="23" t="s">
+      <c r="G23" s="4" t="s">
         <v>101</v>
       </c>
       <c r="H23">
@@ -2951,7 +2948,7 @@
       <c r="B24" s="19" t="s">
         <v>102</v>
       </c>
-      <c r="C24" s="24" t="s">
+      <c r="C24" s="23" t="s">
         <v>46</v>
       </c>
       <c r="D24" s="4">
@@ -2963,7 +2960,7 @@
       <c r="F24" s="22">
         <v>5</v>
       </c>
-      <c r="G24" s="23" t="s">
+      <c r="G24" s="4" t="s">
         <v>103</v>
       </c>
       <c r="H24">
@@ -2977,7 +2974,7 @@
       <c r="B25" s="19" t="s">
         <v>104</v>
       </c>
-      <c r="C25" s="24" t="s">
+      <c r="C25" s="23" t="s">
         <v>105</v>
       </c>
       <c r="D25" s="4">
@@ -2989,7 +2986,7 @@
       <c r="F25" s="22">
         <v>2</v>
       </c>
-      <c r="G25" s="23" t="s">
+      <c r="G25" s="4" t="s">
         <v>106</v>
       </c>
       <c r="H25">
@@ -3003,7 +3000,7 @@
       <c r="B26" s="19" t="s">
         <v>107</v>
       </c>
-      <c r="C26" s="24" t="s">
+      <c r="C26" s="23" t="s">
         <v>108</v>
       </c>
       <c r="D26" s="4">
@@ -3015,7 +3012,7 @@
       <c r="F26" s="22" t="s">
         <v>110</v>
       </c>
-      <c r="G26" s="23" t="s">
+      <c r="G26" s="4" t="s">
         <v>106</v>
       </c>
       <c r="H26">
@@ -3029,7 +3026,7 @@
       <c r="B27" s="19" t="s">
         <v>111</v>
       </c>
-      <c r="C27" s="24" t="s">
+      <c r="C27" s="23" t="s">
         <v>112</v>
       </c>
       <c r="D27" s="4">
@@ -3041,7 +3038,7 @@
       <c r="F27" s="22" t="s">
         <v>114</v>
       </c>
-      <c r="G27" s="23" t="s">
+      <c r="G27" s="4" t="s">
         <v>106</v>
       </c>
       <c r="H27">
@@ -3055,7 +3052,7 @@
       <c r="B28" s="19" t="s">
         <v>115</v>
       </c>
-      <c r="C28" s="24" t="s">
+      <c r="C28" s="23" t="s">
         <v>116</v>
       </c>
       <c r="D28" s="4">
@@ -3067,7 +3064,7 @@
       <c r="F28" s="22" t="s">
         <v>118</v>
       </c>
-      <c r="G28" s="23" t="s">
+      <c r="G28" s="4" t="s">
         <v>119</v>
       </c>
       <c r="H28">
@@ -3308,7 +3305,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="38" ht="40.5" spans="1:8">
+    <row r="38" ht="27" spans="1:8">
       <c r="A38">
         <v>10</v>
       </c>
@@ -3464,7 +3461,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="44" ht="40.5" spans="1:8">
+    <row r="44" ht="27" spans="1:8">
       <c r="A44">
         <v>16</v>
       </c>
@@ -3587,7 +3584,7 @@
       <c r="F48">
         <v>-1</v>
       </c>
-      <c r="G48" s="23" t="s">
+      <c r="G48" s="4" t="s">
         <v>169</v>
       </c>
       <c r="H48">
@@ -3613,7 +3610,7 @@
       <c r="F49">
         <v>-1</v>
       </c>
-      <c r="G49" s="23" t="s">
+      <c r="G49" s="4" t="s">
         <v>172</v>
       </c>
       <c r="H49">
@@ -3698,7 +3695,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" ht="67.5" spans="1:8">
+    <row r="53" ht="54" spans="1:8">
       <c r="A53">
         <v>25</v>
       </c>
@@ -3717,7 +3714,7 @@
       <c r="F53">
         <v>-1</v>
       </c>
-      <c r="G53" s="23" t="s">
+      <c r="G53" s="4" t="s">
         <v>184</v>
       </c>
       <c r="H53">
@@ -3743,7 +3740,7 @@
       <c r="F54">
         <v>-1</v>
       </c>
-      <c r="G54" s="23" t="s">
+      <c r="G54" s="4" t="s">
         <v>187</v>
       </c>
       <c r="H54">
@@ -3769,7 +3766,7 @@
       <c r="F55">
         <v>-1</v>
       </c>
-      <c r="G55" s="23" t="s">
+      <c r="G55" s="4" t="s">
         <v>190</v>
       </c>
       <c r="H55">
@@ -3795,7 +3792,7 @@
       <c r="F56">
         <v>-1</v>
       </c>
-      <c r="G56" s="23" t="s">
+      <c r="G56" s="4" t="s">
         <v>193</v>
       </c>
       <c r="H56">
@@ -3847,7 +3844,7 @@
       <c r="F58">
         <v>-1</v>
       </c>
-      <c r="G58" s="23" t="s">
+      <c r="G58" s="4" t="s">
         <v>199</v>
       </c>
       <c r="H58">
@@ -3899,7 +3896,7 @@
       <c r="F60">
         <v>-1</v>
       </c>
-      <c r="G60" s="23" t="s">
+      <c r="G60" s="4" t="s">
         <v>205</v>
       </c>
       <c r="H60">
@@ -3925,7 +3922,7 @@
       <c r="F61">
         <v>-1</v>
       </c>
-      <c r="G61" s="23" t="s">
+      <c r="G61" s="4" t="s">
         <v>208</v>
       </c>
       <c r="H61">
@@ -3951,7 +3948,7 @@
       <c r="F62">
         <v>-1</v>
       </c>
-      <c r="G62" s="23" t="s">
+      <c r="G62" s="4" t="s">
         <v>210</v>
       </c>
       <c r="H62">
@@ -4029,7 +4026,7 @@
       <c r="F65">
         <v>-1</v>
       </c>
-      <c r="G65" s="23" t="s">
+      <c r="G65" s="4" t="s">
         <v>219</v>
       </c>
       <c r="H65">
@@ -4081,7 +4078,7 @@
       <c r="F67">
         <v>-1</v>
       </c>
-      <c r="G67" s="23" t="s">
+      <c r="G67" s="4" t="s">
         <v>225</v>
       </c>
       <c r="H67">
@@ -4107,7 +4104,7 @@
       <c r="F68">
         <v>-1</v>
       </c>
-      <c r="G68" s="23" t="s">
+      <c r="G68" s="4" t="s">
         <v>228</v>
       </c>
       <c r="H68">
@@ -4121,7 +4118,7 @@
       <c r="B69" s="8" t="s">
         <v>229</v>
       </c>
-      <c r="C69" s="25" t="s">
+      <c r="C69" s="24" t="s">
         <v>230</v>
       </c>
       <c r="D69">
@@ -4133,7 +4130,7 @@
       <c r="F69">
         <v>-1</v>
       </c>
-      <c r="G69" s="23" t="s">
+      <c r="G69" s="4" t="s">
         <v>231</v>
       </c>
       <c r="H69">
@@ -4147,7 +4144,7 @@
       <c r="B70" s="8" t="s">
         <v>232</v>
       </c>
-      <c r="C70" s="25" t="s">
+      <c r="C70" s="24" t="s">
         <v>233</v>
       </c>
       <c r="D70">
@@ -4159,7 +4156,7 @@
       <c r="F70">
         <v>-1</v>
       </c>
-      <c r="G70" s="23" t="s">
+      <c r="G70" s="4" t="s">
         <v>234</v>
       </c>
       <c r="H70">
@@ -4173,7 +4170,7 @@
       <c r="B71" s="8" t="s">
         <v>235</v>
       </c>
-      <c r="C71" s="25" t="s">
+      <c r="C71" s="24" t="s">
         <v>236</v>
       </c>
       <c r="D71">
@@ -4185,7 +4182,7 @@
       <c r="F71">
         <v>-1</v>
       </c>
-      <c r="G71" s="23" t="s">
+      <c r="G71" s="4" t="s">
         <v>237</v>
       </c>
       <c r="H71">
@@ -4199,7 +4196,7 @@
       <c r="B72" s="8" t="s">
         <v>238</v>
       </c>
-      <c r="C72" s="25" t="s">
+      <c r="C72" s="24" t="s">
         <v>239</v>
       </c>
       <c r="D72">
@@ -4211,7 +4208,7 @@
       <c r="F72">
         <v>-1</v>
       </c>
-      <c r="G72" s="23" t="s">
+      <c r="G72" s="4" t="s">
         <v>240</v>
       </c>
       <c r="H72">
@@ -4225,7 +4222,7 @@
       <c r="B73" s="8" t="s">
         <v>241</v>
       </c>
-      <c r="C73" s="25" t="s">
+      <c r="C73" s="24" t="s">
         <v>242</v>
       </c>
       <c r="D73">
@@ -4237,7 +4234,7 @@
       <c r="F73">
         <v>-1</v>
       </c>
-      <c r="G73" s="23" t="s">
+      <c r="G73" s="4" t="s">
         <v>243</v>
       </c>
       <c r="H73">
@@ -4251,7 +4248,7 @@
       <c r="B74" s="8" t="s">
         <v>244</v>
       </c>
-      <c r="C74" s="25" t="s">
+      <c r="C74" s="24" t="s">
         <v>245</v>
       </c>
       <c r="D74">
@@ -4263,7 +4260,7 @@
       <c r="F74">
         <v>-1</v>
       </c>
-      <c r="G74" s="23" t="s">
+      <c r="G74" s="4" t="s">
         <v>246</v>
       </c>
       <c r="H74">
@@ -4282,7 +4279,7 @@
   <sheetPr/>
   <dimension ref="A1:L25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
@@ -5764,37 +5761,37 @@
       <c r="D4" s="5" t="s">
         <v>310</v>
       </c>
-      <c r="E4" s="27" t="s">
+      <c r="E4" s="26" t="s">
         <v>311</v>
       </c>
       <c r="F4" s="5" t="s">
         <v>312</v>
       </c>
-      <c r="G4" s="27" t="s">
+      <c r="G4" s="26" t="s">
         <v>313</v>
       </c>
-      <c r="H4" s="27" t="s">
+      <c r="H4" s="26" t="s">
         <v>310</v>
       </c>
-      <c r="I4" s="27" t="s">
+      <c r="I4" s="26" t="s">
         <v>311</v>
       </c>
-      <c r="J4" s="27" t="s">
+      <c r="J4" s="26" t="s">
         <v>314</v>
       </c>
       <c r="K4" s="5" t="s">
         <v>315</v>
       </c>
-      <c r="L4" s="27" t="s">
+      <c r="L4" s="26" t="s">
         <v>316</v>
       </c>
-      <c r="M4" s="27" t="s">
+      <c r="M4" s="26" t="s">
         <v>317</v>
       </c>
       <c r="N4" s="5" t="s">
         <v>318</v>
       </c>
-      <c r="O4" s="27" t="s">
+      <c r="O4" s="26" t="s">
         <v>317</v>
       </c>
     </row>
@@ -5811,37 +5808,37 @@
       <c r="D5" s="5" t="s">
         <v>313</v>
       </c>
-      <c r="E5" s="27" t="s">
+      <c r="E5" s="26" t="s">
         <v>319</v>
       </c>
       <c r="F5" s="5" t="s">
         <v>320</v>
       </c>
-      <c r="G5" s="27" t="s">
+      <c r="G5" s="26" t="s">
         <v>313</v>
       </c>
-      <c r="H5" s="27" t="s">
+      <c r="H5" s="26" t="s">
         <v>310</v>
       </c>
-      <c r="I5" s="27" t="s">
+      <c r="I5" s="26" t="s">
         <v>311</v>
       </c>
-      <c r="J5" s="27" t="s">
+      <c r="J5" s="26" t="s">
         <v>314</v>
       </c>
       <c r="K5" s="5" t="s">
         <v>315</v>
       </c>
-      <c r="L5" s="27" t="s">
+      <c r="L5" s="26" t="s">
         <v>316</v>
       </c>
-      <c r="M5" s="27" t="s">
+      <c r="M5" s="26" t="s">
         <v>321</v>
       </c>
       <c r="N5" s="5" t="s">
         <v>309</v>
       </c>
-      <c r="O5" s="27" t="s">
+      <c r="O5" s="26" t="s">
         <v>321</v>
       </c>
     </row>
@@ -5858,37 +5855,37 @@
       <c r="D6" s="5" t="s">
         <v>310</v>
       </c>
-      <c r="E6" s="27" t="s">
+      <c r="E6" s="26" t="s">
         <v>323</v>
       </c>
       <c r="F6" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="G6" s="27" t="s">
+      <c r="G6" s="26" t="s">
         <v>313</v>
       </c>
-      <c r="H6" s="27" t="s">
+      <c r="H6" s="26" t="s">
         <v>310</v>
       </c>
-      <c r="I6" s="27" t="s">
+      <c r="I6" s="26" t="s">
         <v>311</v>
       </c>
-      <c r="J6" s="27" t="s">
+      <c r="J6" s="26" t="s">
         <v>314</v>
       </c>
       <c r="K6" s="5" t="s">
         <v>315</v>
       </c>
-      <c r="L6" s="27" t="s">
+      <c r="L6" s="26" t="s">
         <v>316</v>
       </c>
-      <c r="M6" s="27" t="s">
+      <c r="M6" s="26" t="s">
         <v>317</v>
       </c>
       <c r="N6" s="5" t="s">
         <v>318</v>
       </c>
-      <c r="O6" s="27" t="s">
+      <c r="O6" s="26" t="s">
         <v>317</v>
       </c>
     </row>
@@ -5905,37 +5902,37 @@
       <c r="D7" s="5" t="s">
         <v>313</v>
       </c>
-      <c r="E7" s="27" t="s">
+      <c r="E7" s="26" t="s">
         <v>319</v>
       </c>
       <c r="F7" s="5" t="s">
         <v>324</v>
       </c>
-      <c r="G7" s="27" t="s">
+      <c r="G7" s="26" t="s">
         <v>313</v>
       </c>
-      <c r="H7" s="27" t="s">
+      <c r="H7" s="26" t="s">
         <v>310</v>
       </c>
-      <c r="I7" s="27" t="s">
+      <c r="I7" s="26" t="s">
         <v>311</v>
       </c>
-      <c r="J7" s="27" t="s">
+      <c r="J7" s="26" t="s">
         <v>314</v>
       </c>
       <c r="K7" s="5" t="s">
         <v>315</v>
       </c>
-      <c r="L7" s="27" t="s">
+      <c r="L7" s="26" t="s">
         <v>316</v>
       </c>
-      <c r="M7" s="27" t="s">
+      <c r="M7" s="26" t="s">
         <v>321</v>
       </c>
       <c r="N7" s="5" t="s">
         <v>309</v>
       </c>
-      <c r="O7" s="27" t="s">
+      <c r="O7" s="26" t="s">
         <v>321</v>
       </c>
     </row>
@@ -5952,37 +5949,37 @@
       <c r="D8" s="5" t="s">
         <v>310</v>
       </c>
-      <c r="E8" s="27" t="s">
+      <c r="E8" s="26" t="s">
         <v>310</v>
       </c>
       <c r="F8" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="G8" s="27" t="s">
+      <c r="G8" s="26" t="s">
         <v>313</v>
       </c>
-      <c r="H8" s="27" t="s">
+      <c r="H8" s="26" t="s">
         <v>310</v>
       </c>
-      <c r="I8" s="27" t="s">
+      <c r="I8" s="26" t="s">
         <v>311</v>
       </c>
-      <c r="J8" s="27" t="s">
+      <c r="J8" s="26" t="s">
         <v>314</v>
       </c>
       <c r="K8" s="5" t="s">
         <v>315</v>
       </c>
-      <c r="L8" s="27" t="s">
+      <c r="L8" s="26" t="s">
         <v>316</v>
       </c>
-      <c r="M8" s="27" t="s">
+      <c r="M8" s="26" t="s">
         <v>317</v>
       </c>
       <c r="N8" s="5" t="s">
         <v>318</v>
       </c>
-      <c r="O8" s="27" t="s">
+      <c r="O8" s="26" t="s">
         <v>317</v>
       </c>
     </row>
@@ -5999,37 +5996,37 @@
       <c r="D9" s="5" t="s">
         <v>313</v>
       </c>
-      <c r="E9" s="27" t="s">
+      <c r="E9" s="26" t="s">
         <v>319</v>
       </c>
       <c r="F9" s="5" t="s">
         <v>326</v>
       </c>
-      <c r="G9" s="27" t="s">
+      <c r="G9" s="26" t="s">
         <v>313</v>
       </c>
-      <c r="H9" s="27" t="s">
+      <c r="H9" s="26" t="s">
         <v>310</v>
       </c>
-      <c r="I9" s="27" t="s">
+      <c r="I9" s="26" t="s">
         <v>311</v>
       </c>
-      <c r="J9" s="27" t="s">
+      <c r="J9" s="26" t="s">
         <v>314</v>
       </c>
       <c r="K9" s="5" t="s">
         <v>315</v>
       </c>
-      <c r="L9" s="27" t="s">
+      <c r="L9" s="26" t="s">
         <v>316</v>
       </c>
-      <c r="M9" s="27" t="s">
+      <c r="M9" s="26" t="s">
         <v>321</v>
       </c>
       <c r="N9" s="5" t="s">
         <v>309</v>
       </c>
-      <c r="O9" s="27" t="s">
+      <c r="O9" s="26" t="s">
         <v>321</v>
       </c>
     </row>
@@ -6055,28 +6052,28 @@
       <c r="G10" s="5" t="s">
         <v>319</v>
       </c>
-      <c r="H10" s="27" t="s">
+      <c r="H10" s="26" t="s">
         <v>310</v>
       </c>
       <c r="I10" s="5" t="s">
         <v>319</v>
       </c>
-      <c r="J10" s="27" t="s">
+      <c r="J10" s="26" t="s">
         <v>314</v>
       </c>
       <c r="K10" s="5" t="s">
         <v>330</v>
       </c>
-      <c r="L10" s="27" t="s">
+      <c r="L10" s="26" t="s">
         <v>316</v>
       </c>
-      <c r="M10" s="27" t="s">
+      <c r="M10" s="26" t="s">
         <v>317</v>
       </c>
       <c r="N10" s="5" t="s">
         <v>329</v>
       </c>
-      <c r="O10" s="27" t="s">
+      <c r="O10" s="26" t="s">
         <v>317</v>
       </c>
     </row>
@@ -6102,28 +6099,28 @@
       <c r="G11" s="5" t="s">
         <v>319</v>
       </c>
-      <c r="H11" s="27" t="s">
+      <c r="H11" s="26" t="s">
         <v>310</v>
       </c>
       <c r="I11" s="5" t="s">
         <v>319</v>
       </c>
-      <c r="J11" s="27" t="s">
+      <c r="J11" s="26" t="s">
         <v>314</v>
       </c>
       <c r="K11" s="5" t="s">
         <v>330</v>
       </c>
-      <c r="L11" s="27" t="s">
+      <c r="L11" s="26" t="s">
         <v>316</v>
       </c>
-      <c r="M11" s="27" t="s">
+      <c r="M11" s="26" t="s">
         <v>321</v>
       </c>
       <c r="N11" s="5" t="s">
         <v>309</v>
       </c>
-      <c r="O11" s="27" t="s">
+      <c r="O11" s="26" t="s">
         <v>321</v>
       </c>
     </row>
@@ -6149,28 +6146,28 @@
       <c r="G12" s="5" t="s">
         <v>319</v>
       </c>
-      <c r="H12" s="27" t="s">
+      <c r="H12" s="26" t="s">
         <v>310</v>
       </c>
       <c r="I12" s="5" t="s">
         <v>319</v>
       </c>
-      <c r="J12" s="27" t="s">
+      <c r="J12" s="26" t="s">
         <v>314</v>
       </c>
       <c r="K12" s="5" t="s">
         <v>330</v>
       </c>
-      <c r="L12" s="27" t="s">
+      <c r="L12" s="26" t="s">
         <v>316</v>
       </c>
-      <c r="M12" s="27" t="s">
+      <c r="M12" s="26" t="s">
         <v>317</v>
       </c>
       <c r="N12" s="5" t="s">
         <v>329</v>
       </c>
-      <c r="O12" s="27" t="s">
+      <c r="O12" s="26" t="s">
         <v>317</v>
       </c>
     </row>
@@ -6196,28 +6193,28 @@
       <c r="G13" s="5" t="s">
         <v>319</v>
       </c>
-      <c r="H13" s="27" t="s">
+      <c r="H13" s="26" t="s">
         <v>310</v>
       </c>
       <c r="I13" s="5" t="s">
         <v>319</v>
       </c>
-      <c r="J13" s="27" t="s">
+      <c r="J13" s="26" t="s">
         <v>314</v>
       </c>
       <c r="K13" s="5" t="s">
         <v>330</v>
       </c>
-      <c r="L13" s="27" t="s">
+      <c r="L13" s="26" t="s">
         <v>316</v>
       </c>
-      <c r="M13" s="27" t="s">
+      <c r="M13" s="26" t="s">
         <v>321</v>
       </c>
       <c r="N13" s="5" t="s">
         <v>309</v>
       </c>
-      <c r="O13" s="27" t="s">
+      <c r="O13" s="26" t="s">
         <v>321</v>
       </c>
     </row>
@@ -6243,28 +6240,28 @@
       <c r="G14" s="5" t="s">
         <v>319</v>
       </c>
-      <c r="H14" s="27" t="s">
+      <c r="H14" s="26" t="s">
         <v>310</v>
       </c>
       <c r="I14" s="5" t="s">
         <v>319</v>
       </c>
-      <c r="J14" s="27" t="s">
+      <c r="J14" s="26" t="s">
         <v>314</v>
       </c>
       <c r="K14" s="5" t="s">
         <v>330</v>
       </c>
-      <c r="L14" s="27" t="s">
+      <c r="L14" s="26" t="s">
         <v>316</v>
       </c>
-      <c r="M14" s="27" t="s">
+      <c r="M14" s="26" t="s">
         <v>317</v>
       </c>
       <c r="N14" s="5" t="s">
         <v>329</v>
       </c>
-      <c r="O14" s="27" t="s">
+      <c r="O14" s="26" t="s">
         <v>317</v>
       </c>
     </row>
@@ -6290,28 +6287,28 @@
       <c r="G15" s="5" t="s">
         <v>319</v>
       </c>
-      <c r="H15" s="27" t="s">
+      <c r="H15" s="26" t="s">
         <v>310</v>
       </c>
       <c r="I15" s="5" t="s">
         <v>319</v>
       </c>
-      <c r="J15" s="27" t="s">
+      <c r="J15" s="26" t="s">
         <v>314</v>
       </c>
       <c r="K15" s="5" t="s">
         <v>330</v>
       </c>
-      <c r="L15" s="27" t="s">
+      <c r="L15" s="26" t="s">
         <v>316</v>
       </c>
-      <c r="M15" s="27" t="s">
+      <c r="M15" s="26" t="s">
         <v>321</v>
       </c>
       <c r="N15" s="5" t="s">
         <v>309</v>
       </c>
-      <c r="O15" s="27" t="s">
+      <c r="O15" s="26" t="s">
         <v>321</v>
       </c>
     </row>
@@ -6334,16 +6331,16 @@
       <c r="F16" s="5" t="s">
         <v>329</v>
       </c>
-      <c r="G16" s="27" t="s">
+      <c r="G16" s="26" t="s">
         <v>313</v>
       </c>
-      <c r="H16" s="27" t="s">
+      <c r="H16" s="26" t="s">
         <v>310</v>
       </c>
-      <c r="I16" s="27" t="s">
+      <c r="I16" s="26" t="s">
         <v>338</v>
       </c>
-      <c r="J16" s="27" t="s">
+      <c r="J16" s="26" t="s">
         <v>314</v>
       </c>
       <c r="K16" s="5" t="s">
@@ -6352,13 +6349,13 @@
       <c r="L16" s="5" t="s">
         <v>316</v>
       </c>
-      <c r="M16" s="27" t="s">
+      <c r="M16" s="26" t="s">
         <v>317</v>
       </c>
       <c r="N16" s="5" t="s">
         <v>340</v>
       </c>
-      <c r="O16" s="27" t="s">
+      <c r="O16" s="26" t="s">
         <v>317</v>
       </c>
     </row>
@@ -6381,16 +6378,16 @@
       <c r="F17" s="5" t="s">
         <v>341</v>
       </c>
-      <c r="G17" s="27" t="s">
+      <c r="G17" s="26" t="s">
         <v>313</v>
       </c>
-      <c r="H17" s="27" t="s">
+      <c r="H17" s="26" t="s">
         <v>310</v>
       </c>
-      <c r="I17" s="27" t="s">
+      <c r="I17" s="26" t="s">
         <v>338</v>
       </c>
-      <c r="J17" s="27" t="s">
+      <c r="J17" s="26" t="s">
         <v>314</v>
       </c>
       <c r="K17" s="5" t="s">
@@ -6399,13 +6396,13 @@
       <c r="L17" s="5" t="s">
         <v>316</v>
       </c>
-      <c r="M17" s="27" t="s">
+      <c r="M17" s="26" t="s">
         <v>321</v>
       </c>
       <c r="N17" s="5" t="s">
         <v>309</v>
       </c>
-      <c r="O17" s="27" t="s">
+      <c r="O17" s="26" t="s">
         <v>317</v>
       </c>
     </row>
@@ -6428,16 +6425,16 @@
       <c r="F18" s="5" t="s">
         <v>318</v>
       </c>
-      <c r="G18" s="27" t="s">
+      <c r="G18" s="26" t="s">
         <v>313</v>
       </c>
-      <c r="H18" s="27" t="s">
+      <c r="H18" s="26" t="s">
         <v>310</v>
       </c>
-      <c r="I18" s="27" t="s">
+      <c r="I18" s="26" t="s">
         <v>338</v>
       </c>
-      <c r="J18" s="27" t="s">
+      <c r="J18" s="26" t="s">
         <v>314</v>
       </c>
       <c r="K18" s="5" t="s">
@@ -6446,13 +6443,13 @@
       <c r="L18" s="5" t="s">
         <v>316</v>
       </c>
-      <c r="M18" s="27" t="s">
+      <c r="M18" s="26" t="s">
         <v>317</v>
       </c>
       <c r="N18" s="5" t="s">
         <v>340</v>
       </c>
-      <c r="O18" s="27" t="s">
+      <c r="O18" s="26" t="s">
         <v>317</v>
       </c>
     </row>
@@ -6475,16 +6472,16 @@
       <c r="F19" s="5" t="s">
         <v>320</v>
       </c>
-      <c r="G19" s="27" t="s">
+      <c r="G19" s="26" t="s">
         <v>313</v>
       </c>
-      <c r="H19" s="27" t="s">
+      <c r="H19" s="26" t="s">
         <v>310</v>
       </c>
-      <c r="I19" s="27" t="s">
+      <c r="I19" s="26" t="s">
         <v>338</v>
       </c>
-      <c r="J19" s="27" t="s">
+      <c r="J19" s="26" t="s">
         <v>314</v>
       </c>
       <c r="K19" s="5" t="s">
@@ -6493,13 +6490,13 @@
       <c r="L19" s="5" t="s">
         <v>316</v>
       </c>
-      <c r="M19" s="27" t="s">
+      <c r="M19" s="26" t="s">
         <v>321</v>
       </c>
       <c r="N19" s="5" t="s">
         <v>309</v>
       </c>
-      <c r="O19" s="27" t="s">
+      <c r="O19" s="26" t="s">
         <v>317</v>
       </c>
     </row>
@@ -6522,16 +6519,16 @@
       <c r="F20" s="5" t="s">
         <v>343</v>
       </c>
-      <c r="G20" s="27" t="s">
+      <c r="G20" s="26" t="s">
         <v>313</v>
       </c>
-      <c r="H20" s="27" t="s">
+      <c r="H20" s="26" t="s">
         <v>310</v>
       </c>
-      <c r="I20" s="27" t="s">
+      <c r="I20" s="26" t="s">
         <v>338</v>
       </c>
-      <c r="J20" s="27" t="s">
+      <c r="J20" s="26" t="s">
         <v>314</v>
       </c>
       <c r="K20" s="5" t="s">
@@ -6540,13 +6537,13 @@
       <c r="L20" s="5" t="s">
         <v>316</v>
       </c>
-      <c r="M20" s="27" t="s">
+      <c r="M20" s="26" t="s">
         <v>317</v>
       </c>
       <c r="N20" s="5" t="s">
         <v>340</v>
       </c>
-      <c r="O20" s="27" t="s">
+      <c r="O20" s="26" t="s">
         <v>317</v>
       </c>
     </row>
@@ -6569,16 +6566,16 @@
       <c r="F21" s="5" t="s">
         <v>320</v>
       </c>
-      <c r="G21" s="27" t="s">
+      <c r="G21" s="26" t="s">
         <v>313</v>
       </c>
-      <c r="H21" s="27" t="s">
+      <c r="H21" s="26" t="s">
         <v>310</v>
       </c>
-      <c r="I21" s="27" t="s">
+      <c r="I21" s="26" t="s">
         <v>338</v>
       </c>
-      <c r="J21" s="27" t="s">
+      <c r="J21" s="26" t="s">
         <v>314</v>
       </c>
       <c r="K21" s="5" t="s">
@@ -6587,13 +6584,13 @@
       <c r="L21" s="5" t="s">
         <v>316</v>
       </c>
-      <c r="M21" s="27" t="s">
+      <c r="M21" s="26" t="s">
         <v>321</v>
       </c>
       <c r="N21" s="5" t="s">
         <v>309</v>
       </c>
-      <c r="O21" s="27" t="s">
+      <c r="O21" s="26" t="s">
         <v>317</v>
       </c>
     </row>
@@ -6616,16 +6613,16 @@
       <c r="F22" s="5" t="s">
         <v>320</v>
       </c>
-      <c r="G22" s="27" t="s">
+      <c r="G22" s="26" t="s">
         <v>331</v>
       </c>
-      <c r="H22" s="27" t="s">
+      <c r="H22" s="26" t="s">
         <v>310</v>
       </c>
-      <c r="I22" s="27" t="s">
+      <c r="I22" s="26" t="s">
         <v>313</v>
       </c>
-      <c r="J22" s="27" t="s">
+      <c r="J22" s="26" t="s">
         <v>314</v>
       </c>
       <c r="K22" s="5" t="s">
@@ -6634,13 +6631,13 @@
       <c r="L22" s="5" t="s">
         <v>316</v>
       </c>
-      <c r="M22" s="27" t="s">
+      <c r="M22" s="26" t="s">
         <v>321</v>
       </c>
       <c r="N22" s="5" t="s">
         <v>309</v>
       </c>
-      <c r="O22" s="27" t="s">
+      <c r="O22" s="26" t="s">
         <v>321</v>
       </c>
     </row>
@@ -6663,16 +6660,16 @@
       <c r="F23" s="5" t="s">
         <v>346</v>
       </c>
-      <c r="G23" s="27" t="s">
+      <c r="G23" s="26" t="s">
         <v>331</v>
       </c>
-      <c r="H23" s="27" t="s">
+      <c r="H23" s="26" t="s">
         <v>310</v>
       </c>
-      <c r="I23" s="27" t="s">
+      <c r="I23" s="26" t="s">
         <v>313</v>
       </c>
-      <c r="J23" s="27" t="s">
+      <c r="J23" s="26" t="s">
         <v>314</v>
       </c>
       <c r="K23" s="5" t="s">
@@ -6681,13 +6678,13 @@
       <c r="L23" s="5" t="s">
         <v>316</v>
       </c>
-      <c r="M23" s="27" t="s">
+      <c r="M23" s="26" t="s">
         <v>321</v>
       </c>
       <c r="N23" s="5" t="s">
         <v>309</v>
       </c>
-      <c r="O23" s="27" t="s">
+      <c r="O23" s="26" t="s">
         <v>321</v>
       </c>
     </row>
@@ -6710,16 +6707,16 @@
       <c r="F24" s="5" t="s">
         <v>346</v>
       </c>
-      <c r="G24" s="27" t="s">
+      <c r="G24" s="26" t="s">
         <v>331</v>
       </c>
-      <c r="H24" s="27" t="s">
+      <c r="H24" s="26" t="s">
         <v>310</v>
       </c>
-      <c r="I24" s="27" t="s">
+      <c r="I24" s="26" t="s">
         <v>313</v>
       </c>
-      <c r="J24" s="27" t="s">
+      <c r="J24" s="26" t="s">
         <v>314</v>
       </c>
       <c r="K24" s="5" t="s">
@@ -6728,13 +6725,13 @@
       <c r="L24" s="5" t="s">
         <v>316</v>
       </c>
-      <c r="M24" s="27" t="s">
+      <c r="M24" s="26" t="s">
         <v>321</v>
       </c>
       <c r="N24" s="5" t="s">
         <v>309</v>
       </c>
-      <c r="O24" s="27" t="s">
+      <c r="O24" s="26" t="s">
         <v>321</v>
       </c>
     </row>
@@ -6757,16 +6754,16 @@
       <c r="F25" s="5" t="s">
         <v>346</v>
       </c>
-      <c r="G25" s="27" t="s">
+      <c r="G25" s="26" t="s">
         <v>331</v>
       </c>
-      <c r="H25" s="27" t="s">
+      <c r="H25" s="26" t="s">
         <v>310</v>
       </c>
-      <c r="I25" s="27" t="s">
+      <c r="I25" s="26" t="s">
         <v>313</v>
       </c>
-      <c r="J25" s="27" t="s">
+      <c r="J25" s="26" t="s">
         <v>314</v>
       </c>
       <c r="K25" s="5" t="s">
@@ -6775,13 +6772,13 @@
       <c r="L25" s="5" t="s">
         <v>316</v>
       </c>
-      <c r="M25" s="27" t="s">
+      <c r="M25" s="26" t="s">
         <v>321</v>
       </c>
       <c r="N25" s="5" t="s">
         <v>309</v>
       </c>
-      <c r="O25" s="27" t="s">
+      <c r="O25" s="26" t="s">
         <v>321</v>
       </c>
     </row>
@@ -6804,16 +6801,16 @@
       <c r="F26" s="5" t="s">
         <v>346</v>
       </c>
-      <c r="G26" s="27" t="s">
+      <c r="G26" s="26" t="s">
         <v>331</v>
       </c>
-      <c r="H26" s="27" t="s">
+      <c r="H26" s="26" t="s">
         <v>310</v>
       </c>
-      <c r="I26" s="27" t="s">
+      <c r="I26" s="26" t="s">
         <v>313</v>
       </c>
-      <c r="J26" s="27" t="s">
+      <c r="J26" s="26" t="s">
         <v>314</v>
       </c>
       <c r="K26" s="5" t="s">
@@ -6822,13 +6819,13 @@
       <c r="L26" s="5" t="s">
         <v>316</v>
       </c>
-      <c r="M26" s="27" t="s">
+      <c r="M26" s="26" t="s">
         <v>321</v>
       </c>
       <c r="N26" s="5" t="s">
         <v>309</v>
       </c>
-      <c r="O26" s="27" t="s">
+      <c r="O26" s="26" t="s">
         <v>321</v>
       </c>
     </row>
@@ -6851,16 +6848,16 @@
       <c r="F27" s="5" t="s">
         <v>346</v>
       </c>
-      <c r="G27" s="27" t="s">
+      <c r="G27" s="26" t="s">
         <v>331</v>
       </c>
-      <c r="H27" s="27" t="s">
+      <c r="H27" s="26" t="s">
         <v>310</v>
       </c>
-      <c r="I27" s="27" t="s">
+      <c r="I27" s="26" t="s">
         <v>313</v>
       </c>
-      <c r="J27" s="27" t="s">
+      <c r="J27" s="26" t="s">
         <v>314</v>
       </c>
       <c r="K27" s="5" t="s">
@@ -6869,13 +6866,13 @@
       <c r="L27" s="5" t="s">
         <v>316</v>
       </c>
-      <c r="M27" s="27" t="s">
+      <c r="M27" s="26" t="s">
         <v>321</v>
       </c>
       <c r="N27" s="5" t="s">
         <v>309</v>
       </c>
-      <c r="O27" s="27" t="s">
+      <c r="O27" s="26" t="s">
         <v>321</v>
       </c>
     </row>
@@ -6916,13 +6913,13 @@
       <c r="L28">
         <v>0</v>
       </c>
-      <c r="M28" s="28" t="s">
+      <c r="M28" s="27" t="s">
         <v>321</v>
       </c>
       <c r="N28">
         <v>-1</v>
       </c>
-      <c r="O28" s="28" t="s">
+      <c r="O28" s="27" t="s">
         <v>321</v>
       </c>
     </row>

--- a/Assets/Editor/ItemData.xlsx
+++ b/Assets/Editor/ItemData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12960"/>
+    <workbookView windowHeight="17775"/>
   </bookViews>
   <sheets>
     <sheet name="道具" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="774" uniqueCount="385">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="780" uniqueCount="389">
   <si>
     <t>id</t>
   </si>
@@ -60,6 +60,12 @@
     <t>detailType</t>
   </si>
   <si>
+    <t>cost</t>
+  </si>
+  <si>
+    <t>costGrow</t>
+  </si>
+  <si>
     <t>int</t>
   </si>
   <si>
@@ -67,6 +73,9 @@
   </si>
   <si>
     <t>int[]</t>
+  </si>
+  <si>
+    <t>float</t>
   </si>
   <si>
     <t>道具id</t>
@@ -104,6 +113,12 @@
     <t>道具概率分类</t>
   </si>
   <si>
+    <t>价值</t>
+  </si>
+  <si>
+    <t>价值成长</t>
+  </si>
+  <si>
     <t>旧黄符</t>
   </si>
   <si>
@@ -845,9 +860,6 @@
   </si>
   <si>
     <t>bigRank</t>
-  </si>
-  <si>
-    <t>float</t>
   </si>
   <si>
     <t>关卡id</t>
@@ -2326,13 +2338,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H74"/>
+  <dimension ref="A1:J74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="C68" sqref="C68"/>
+    <sheetView tabSelected="1" topLeftCell="A56" workbookViewId="0">
+      <selection activeCell="L70" sqref="L70"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="23.375" customWidth="1"/>
     <col min="3" max="3" width="38.375" style="4" customWidth="1"/>
@@ -2343,7 +2355,7 @@
     <col min="8" max="8" width="15.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:10">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2368,68 +2380,86 @@
       <c r="H1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="H2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" ht="121.5" spans="1:8">
+        <v>10</v>
+      </c>
+      <c r="I2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" ht="121.5" spans="1:10">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F3" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="G3" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="H3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="I3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4">
         <v>101</v>
       </c>
       <c r="B4" s="19" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C4" s="20" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D4" s="4">
         <v>2</v>
@@ -2441,21 +2471,27 @@
         <v>1</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="H4">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:8">
+      <c r="I4">
+        <v>20</v>
+      </c>
+      <c r="J4">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5">
         <v>102</v>
       </c>
       <c r="B5" s="19" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C5" s="20" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="D5" s="4">
         <v>2</v>
@@ -2467,125 +2503,155 @@
         <v>3</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="H5">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" ht="27" spans="1:8">
+      <c r="I5">
+        <v>20</v>
+      </c>
+      <c r="J5">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="6" ht="27" spans="1:10">
       <c r="A6">
         <v>103</v>
       </c>
       <c r="B6" s="19" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C6" s="20" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="D6" s="4">
         <v>2</v>
       </c>
       <c r="E6" s="21" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="F6" s="22" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H6">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" ht="14.25" spans="1:8">
+      <c r="I6">
+        <v>20</v>
+      </c>
+      <c r="J6">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="7" ht="14.25" spans="1:10">
       <c r="A7">
         <v>104</v>
       </c>
       <c r="B7" s="19" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C7" s="23" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="D7" s="4">
         <v>2</v>
       </c>
       <c r="E7" s="21" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="F7" s="22" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="H7">
         <v>2</v>
       </c>
-    </row>
-    <row r="8" ht="14.25" spans="1:8">
+      <c r="I7">
+        <v>20</v>
+      </c>
+      <c r="J7">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="8" ht="14.25" spans="1:10">
       <c r="A8">
         <v>105</v>
       </c>
       <c r="B8" s="19" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C8" s="23" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="D8" s="4">
         <v>2</v>
       </c>
       <c r="E8" s="21" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="F8" s="22" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="H8">
         <v>2</v>
       </c>
-    </row>
-    <row r="9" ht="15" customHeight="1" spans="1:8">
+      <c r="I8">
+        <v>20</v>
+      </c>
+      <c r="J8">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="9" ht="15" customHeight="1" spans="1:10">
       <c r="A9">
         <v>106</v>
       </c>
       <c r="B9" s="19" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="C9" s="23" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="D9" s="4">
         <v>2</v>
       </c>
       <c r="E9" s="21" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="F9" s="22" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="H9">
         <v>2</v>
       </c>
-    </row>
-    <row r="10" ht="14.25" spans="1:8">
+      <c r="I9">
+        <v>20</v>
+      </c>
+      <c r="J9">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="10" ht="14.25" spans="1:10">
       <c r="A10">
         <v>107</v>
       </c>
       <c r="B10" s="19" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="C10" s="23" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="D10" s="4">
         <v>2</v>
@@ -2597,73 +2663,91 @@
         <v>5</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="H10">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" ht="14.25" spans="1:8">
+      <c r="I10">
+        <v>20</v>
+      </c>
+      <c r="J10">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="11" ht="14.25" spans="1:10">
       <c r="A11">
         <v>108</v>
       </c>
       <c r="B11" s="19" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="C11" s="23" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="D11" s="4">
         <v>2</v>
       </c>
       <c r="E11" s="21" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="F11" s="22" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="H11">
         <v>2</v>
       </c>
-    </row>
-    <row r="12" ht="14.25" spans="1:8">
+      <c r="I11">
+        <v>20</v>
+      </c>
+      <c r="J11">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="12" ht="14.25" spans="1:10">
       <c r="A12">
         <v>109</v>
       </c>
       <c r="B12" s="19" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="C12" s="23" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="D12" s="4">
         <v>2</v>
       </c>
       <c r="E12" s="21" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="F12" s="22" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="H12">
         <v>2</v>
       </c>
-    </row>
-    <row r="13" ht="14.25" spans="1:8">
+      <c r="I12">
+        <v>20</v>
+      </c>
+      <c r="J12">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="13" ht="14.25" spans="1:10">
       <c r="A13">
         <v>110</v>
       </c>
       <c r="B13" s="19" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="C13" s="23" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="D13" s="4">
         <v>2</v>
@@ -2675,73 +2759,91 @@
         <v>1</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="H13">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" ht="14.25" spans="1:8">
+      <c r="I13">
+        <v>20</v>
+      </c>
+      <c r="J13">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="14" ht="14.25" spans="1:10">
       <c r="A14">
         <v>111</v>
       </c>
       <c r="B14" s="19" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="C14" s="23" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="D14" s="4">
         <v>2</v>
       </c>
       <c r="E14" s="21" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="F14" s="22" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="H14">
         <v>2</v>
       </c>
-    </row>
-    <row r="15" ht="14.25" spans="1:8">
+      <c r="I14">
+        <v>20</v>
+      </c>
+      <c r="J14">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="15" ht="14.25" spans="1:10">
       <c r="A15">
         <v>112</v>
       </c>
       <c r="B15" s="19" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="C15" s="23" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="D15" s="4">
         <v>2</v>
       </c>
       <c r="E15" s="21" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="F15" s="22" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="H15">
         <v>2</v>
       </c>
-    </row>
-    <row r="16" ht="14.25" spans="1:8">
+      <c r="I15">
+        <v>20</v>
+      </c>
+      <c r="J15">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="16" ht="14.25" spans="1:10">
       <c r="A16">
         <v>113</v>
       </c>
       <c r="B16" s="19" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="C16" s="23" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="D16" s="4">
         <v>2</v>
@@ -2753,21 +2855,27 @@
         <v>2</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="H16">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" ht="27" spans="1:8">
+      <c r="I16">
+        <v>20</v>
+      </c>
+      <c r="J16">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="17" ht="27" spans="1:10">
       <c r="A17">
         <v>114</v>
       </c>
       <c r="B17" s="19" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="C17" s="23" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="D17" s="4">
         <v>2</v>
@@ -2779,21 +2887,27 @@
         <v>2</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="H17">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" ht="14.25" spans="1:8">
+      <c r="I17">
+        <v>20</v>
+      </c>
+      <c r="J17">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="18" ht="14.25" spans="1:10">
       <c r="A18">
         <v>115</v>
       </c>
       <c r="B18" s="19" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="C18" s="23" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="D18" s="4">
         <v>2</v>
@@ -2805,151 +2919,187 @@
         <v>0.05</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="H18">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" ht="14.25" spans="1:8">
+      <c r="I18">
+        <v>20</v>
+      </c>
+      <c r="J18">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="19" ht="14.25" spans="1:10">
       <c r="A19">
         <v>116</v>
       </c>
       <c r="B19" s="19" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="C19" s="23" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="D19" s="4">
         <v>2</v>
       </c>
       <c r="E19" s="21" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="F19" s="22" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="H19">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" ht="14.25" spans="1:8">
+      <c r="I19">
+        <v>20</v>
+      </c>
+      <c r="J19">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="20" ht="14.25" spans="1:10">
       <c r="A20">
         <v>117</v>
       </c>
       <c r="B20" s="19" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="C20" s="23" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="D20" s="4">
         <v>2</v>
       </c>
       <c r="E20" s="21" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="F20" s="22" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="H20">
         <v>2</v>
       </c>
-    </row>
-    <row r="21" ht="14.25" spans="1:8">
+      <c r="I20">
+        <v>20</v>
+      </c>
+      <c r="J20">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="21" ht="14.25" spans="1:10">
       <c r="A21">
         <v>118</v>
       </c>
       <c r="B21" s="19" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="C21" s="23" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="D21" s="4">
         <v>2</v>
       </c>
       <c r="E21" s="21" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="F21" s="22" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="H21">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" ht="14.25" spans="1:8">
+      <c r="I21">
+        <v>20</v>
+      </c>
+      <c r="J21">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="22" ht="14.25" spans="1:10">
       <c r="A22">
         <v>119</v>
       </c>
       <c r="B22" s="19" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="C22" s="23" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="D22" s="4">
         <v>2</v>
       </c>
       <c r="E22" s="21" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="F22" s="25" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="H22">
         <v>2</v>
       </c>
-    </row>
-    <row r="23" ht="14.25" spans="1:8">
+      <c r="I22">
+        <v>20</v>
+      </c>
+      <c r="J22">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="23" ht="14.25" spans="1:10">
       <c r="A23">
         <v>120</v>
       </c>
       <c r="B23" s="19" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="C23" s="23" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="D23" s="4">
         <v>2</v>
       </c>
       <c r="E23" s="21" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="F23" s="22" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="H23">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" ht="14.25" spans="1:8">
+      <c r="I23">
+        <v>20</v>
+      </c>
+      <c r="J23">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="24" ht="14.25" spans="1:10">
       <c r="A24">
         <v>121</v>
       </c>
       <c r="B24" s="19" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="C24" s="23" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="D24" s="4">
         <v>2</v>
@@ -2961,21 +3111,27 @@
         <v>5</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="H24">
         <v>2</v>
       </c>
-    </row>
-    <row r="25" ht="14.25" spans="1:8">
+      <c r="I24">
+        <v>20</v>
+      </c>
+      <c r="J24">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="25" ht="14.25" spans="1:10">
       <c r="A25">
         <v>122</v>
       </c>
       <c r="B25" s="19" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="C25" s="23" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="D25" s="4">
         <v>2</v>
@@ -2987,99 +3143,123 @@
         <v>2</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="H25">
         <v>2</v>
       </c>
-    </row>
-    <row r="26" ht="14.25" spans="1:8">
+      <c r="I25">
+        <v>20</v>
+      </c>
+      <c r="J25">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="26" ht="14.25" spans="1:10">
       <c r="A26">
         <v>123</v>
       </c>
       <c r="B26" s="19" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="C26" s="23" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="D26" s="4">
         <v>2</v>
       </c>
       <c r="E26" s="21" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="F26" s="22" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="H26">
         <v>2</v>
       </c>
-    </row>
-    <row r="27" ht="14.25" spans="1:8">
+      <c r="I26">
+        <v>20</v>
+      </c>
+      <c r="J26">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="27" ht="14.25" spans="1:10">
       <c r="A27">
         <v>124</v>
       </c>
       <c r="B27" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="C27" s="23" t="s">
+        <v>117</v>
+      </c>
+      <c r="D27" s="4">
+        <v>2</v>
+      </c>
+      <c r="E27" s="21" t="s">
+        <v>118</v>
+      </c>
+      <c r="F27" s="22" t="s">
+        <v>119</v>
+      </c>
+      <c r="G27" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="C27" s="23" t="s">
-        <v>112</v>
-      </c>
-      <c r="D27" s="4">
-        <v>2</v>
-      </c>
-      <c r="E27" s="21" t="s">
-        <v>113</v>
-      </c>
-      <c r="F27" s="22" t="s">
-        <v>114</v>
-      </c>
-      <c r="G27" s="4" t="s">
-        <v>106</v>
-      </c>
       <c r="H27">
         <v>2</v>
       </c>
-    </row>
-    <row r="28" ht="14.25" spans="1:8">
+      <c r="I27">
+        <v>20</v>
+      </c>
+      <c r="J27">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="28" ht="14.25" spans="1:10">
       <c r="A28">
         <v>125</v>
       </c>
       <c r="B28" s="19" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="C28" s="23" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="D28" s="4">
         <v>2</v>
       </c>
       <c r="E28" s="21" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="F28" s="22" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="G28" s="4" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="H28">
         <v>2</v>
       </c>
-    </row>
-    <row r="29" ht="27" spans="1:8">
+      <c r="I28">
+        <v>20</v>
+      </c>
+      <c r="J28">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="29" ht="27" spans="1:10">
       <c r="A29">
         <v>1</v>
       </c>
       <c r="B29" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="D29">
         <v>1</v>
@@ -3091,21 +3271,27 @@
         <v>1</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="H29">
         <v>1</v>
       </c>
-    </row>
-    <row r="30" ht="40.5" spans="1:8">
+      <c r="I29">
+        <v>20</v>
+      </c>
+      <c r="J29">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="30" ht="40.5" spans="1:10">
       <c r="A30">
         <v>2</v>
       </c>
       <c r="B30" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="D30">
         <v>1</v>
@@ -3117,21 +3303,27 @@
         <v>2</v>
       </c>
       <c r="G30" s="4" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="H30">
         <v>2</v>
       </c>
-    </row>
-    <row r="31" ht="27" spans="1:8">
+      <c r="I30">
+        <v>20</v>
+      </c>
+      <c r="J30">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="31" ht="27" spans="1:10">
       <c r="A31">
         <v>3</v>
       </c>
       <c r="B31" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="D31">
         <v>1</v>
@@ -3143,21 +3335,27 @@
         <v>3</v>
       </c>
       <c r="G31" s="4" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="H31">
         <v>3</v>
       </c>
-    </row>
-    <row r="32" ht="27" spans="1:8">
+      <c r="I31">
+        <v>20</v>
+      </c>
+      <c r="J31">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="32" ht="27" spans="1:10">
       <c r="A32">
         <v>4</v>
       </c>
       <c r="B32" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="D32">
         <v>1</v>
@@ -3169,21 +3367,27 @@
         <v>1</v>
       </c>
       <c r="G32" s="4" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="H32">
         <v>1</v>
       </c>
-    </row>
-    <row r="33" spans="1:8">
+      <c r="I32">
+        <v>20</v>
+      </c>
+      <c r="J32">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33">
         <v>5</v>
       </c>
       <c r="B33" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="D33">
         <v>1</v>
@@ -3195,21 +3399,27 @@
         <v>2</v>
       </c>
       <c r="G33" s="4" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="H33">
         <v>2</v>
       </c>
-    </row>
-    <row r="34" spans="1:8">
+      <c r="I33">
+        <v>20</v>
+      </c>
+      <c r="J33">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
       <c r="A34">
         <v>6</v>
       </c>
       <c r="B34" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="D34">
         <v>1</v>
@@ -3221,21 +3431,27 @@
         <v>3</v>
       </c>
       <c r="G34" s="4" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="H34">
         <v>3</v>
       </c>
-    </row>
-    <row r="35" ht="27" spans="1:8">
+      <c r="I34">
+        <v>20</v>
+      </c>
+      <c r="J34">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="35" ht="27" spans="1:10">
       <c r="A35">
         <v>7</v>
       </c>
       <c r="B35" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="D35">
         <v>1</v>
@@ -3247,21 +3463,27 @@
         <v>1</v>
       </c>
       <c r="G35" s="4" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="H35">
         <v>1</v>
       </c>
-    </row>
-    <row r="36" spans="1:8">
+      <c r="I35">
+        <v>20</v>
+      </c>
+      <c r="J35">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
       <c r="A36">
         <v>8</v>
       </c>
       <c r="B36" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="D36">
         <v>1</v>
@@ -3273,21 +3495,27 @@
         <v>2</v>
       </c>
       <c r="G36" s="4" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="H36">
         <v>2</v>
       </c>
-    </row>
-    <row r="37" spans="1:8">
+      <c r="I36">
+        <v>20</v>
+      </c>
+      <c r="J36">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
       <c r="A37">
         <v>9</v>
       </c>
       <c r="B37" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="D37">
         <v>1</v>
@@ -3299,21 +3527,27 @@
         <v>3</v>
       </c>
       <c r="G37" s="4" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="H37">
         <v>3</v>
       </c>
-    </row>
-    <row r="38" ht="27" spans="1:8">
+      <c r="I37">
+        <v>20</v>
+      </c>
+      <c r="J37">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="38" ht="27" spans="1:10">
       <c r="A38">
         <v>10</v>
       </c>
       <c r="B38" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="D38">
         <v>1</v>
@@ -3325,21 +3559,27 @@
         <v>1</v>
       </c>
       <c r="G38" s="4" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="H38">
         <v>1</v>
       </c>
-    </row>
-    <row r="39" spans="1:8">
+      <c r="I38">
+        <v>20</v>
+      </c>
+      <c r="J38">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
       <c r="A39">
         <v>11</v>
       </c>
       <c r="B39" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="D39">
         <v>1</v>
@@ -3351,21 +3591,27 @@
         <v>2</v>
       </c>
       <c r="G39" s="4" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="H39">
         <v>2</v>
       </c>
-    </row>
-    <row r="40" spans="1:8">
+      <c r="I39">
+        <v>20</v>
+      </c>
+      <c r="J39">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
       <c r="A40">
         <v>12</v>
       </c>
       <c r="B40" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="D40">
         <v>1</v>
@@ -3377,21 +3623,27 @@
         <v>3</v>
       </c>
       <c r="G40" s="4" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="H40">
         <v>3</v>
       </c>
-    </row>
-    <row r="41" ht="27" spans="1:8">
+      <c r="I40">
+        <v>20</v>
+      </c>
+      <c r="J40">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="41" ht="27" spans="1:10">
       <c r="A41">
         <v>13</v>
       </c>
       <c r="B41" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="D41">
         <v>1</v>
@@ -3403,21 +3655,27 @@
         <v>1</v>
       </c>
       <c r="G41" s="4" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="H41">
         <v>1</v>
       </c>
-    </row>
-    <row r="42" spans="1:8">
+      <c r="I41">
+        <v>20</v>
+      </c>
+      <c r="J41">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
       <c r="A42">
         <v>14</v>
       </c>
       <c r="B42" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="D42">
         <v>1</v>
@@ -3429,21 +3687,27 @@
         <v>2</v>
       </c>
       <c r="G42" s="4" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="H42">
         <v>2</v>
       </c>
-    </row>
-    <row r="43" spans="1:8">
+      <c r="I42">
+        <v>20</v>
+      </c>
+      <c r="J42">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
       <c r="A43">
         <v>15</v>
       </c>
       <c r="B43" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="D43">
         <v>1</v>
@@ -3455,21 +3719,27 @@
         <v>3</v>
       </c>
       <c r="G43" s="4" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="H43">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" ht="27" spans="1:8">
+      <c r="I43">
+        <v>20</v>
+      </c>
+      <c r="J43">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="44" ht="27" spans="1:10">
       <c r="A44">
         <v>16</v>
       </c>
       <c r="B44" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="D44">
         <v>3</v>
@@ -3481,21 +3751,27 @@
         <v>-1</v>
       </c>
       <c r="G44" s="4" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="H44">
         <v>2</v>
       </c>
-    </row>
-    <row r="45" ht="40.5" spans="1:8">
+      <c r="I44">
+        <v>20</v>
+      </c>
+      <c r="J44">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="45" ht="40.5" spans="1:10">
       <c r="A45">
         <v>17</v>
       </c>
       <c r="B45" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="D45">
         <v>3</v>
@@ -3507,21 +3783,27 @@
         <v>-1</v>
       </c>
       <c r="G45" s="4" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="H45">
         <v>1</v>
       </c>
-    </row>
-    <row r="46" ht="27" spans="1:8">
+      <c r="I45">
+        <v>20</v>
+      </c>
+      <c r="J45">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="46" ht="27" spans="1:10">
       <c r="A46">
         <v>18</v>
       </c>
       <c r="B46" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="D46">
         <v>3</v>
@@ -3533,21 +3815,27 @@
         <v>-1</v>
       </c>
       <c r="G46" s="4" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="H46">
         <v>1</v>
       </c>
-    </row>
-    <row r="47" ht="40.5" spans="1:8">
+      <c r="I46">
+        <v>20</v>
+      </c>
+      <c r="J46">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="47" ht="40.5" spans="1:10">
       <c r="A47">
         <v>19</v>
       </c>
       <c r="B47" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="D47">
         <v>3</v>
@@ -3559,21 +3847,27 @@
         <v>-1</v>
       </c>
       <c r="G47" s="4" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="H47">
         <v>2</v>
       </c>
-    </row>
-    <row r="48" spans="1:8">
+      <c r="I47">
+        <v>20</v>
+      </c>
+      <c r="J47">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
       <c r="A48">
         <v>20</v>
       </c>
       <c r="B48" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="D48">
         <v>3</v>
@@ -3585,21 +3879,27 @@
         <v>-1</v>
       </c>
       <c r="G48" s="4" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="H48">
         <v>1</v>
       </c>
-    </row>
-    <row r="49" ht="27" spans="1:8">
+      <c r="I48">
+        <v>20</v>
+      </c>
+      <c r="J48">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="49" ht="27" spans="1:10">
       <c r="A49">
         <v>21</v>
       </c>
       <c r="B49" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="D49">
         <v>3</v>
@@ -3611,21 +3911,27 @@
         <v>-1</v>
       </c>
       <c r="G49" s="4" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="H49">
         <v>1</v>
       </c>
-    </row>
-    <row r="50" ht="27" spans="1:8">
+      <c r="I49">
+        <v>20</v>
+      </c>
+      <c r="J49">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="50" ht="27" spans="1:10">
       <c r="A50">
         <v>22</v>
       </c>
       <c r="B50" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="D50">
         <v>3</v>
@@ -3637,21 +3943,27 @@
         <v>-1</v>
       </c>
       <c r="G50" s="4" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="H50">
         <v>2</v>
       </c>
-    </row>
-    <row r="51" ht="27" spans="1:8">
+      <c r="I50">
+        <v>20</v>
+      </c>
+      <c r="J50">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="51" ht="27" spans="1:10">
       <c r="A51">
         <v>23</v>
       </c>
       <c r="B51" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="D51">
         <v>3</v>
@@ -3663,21 +3975,27 @@
         <v>-1</v>
       </c>
       <c r="G51" s="4" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="H51">
         <v>1</v>
       </c>
-    </row>
-    <row r="52" ht="27" spans="1:8">
+      <c r="I51">
+        <v>20</v>
+      </c>
+      <c r="J51">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="52" ht="27" spans="1:10">
       <c r="A52">
         <v>24</v>
       </c>
       <c r="B52" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="D52">
         <v>3</v>
@@ -3689,21 +4007,27 @@
         <v>-1</v>
       </c>
       <c r="G52" s="4" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="H52">
         <v>1</v>
       </c>
-    </row>
-    <row r="53" ht="54" spans="1:8">
+      <c r="I52">
+        <v>20</v>
+      </c>
+      <c r="J52">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="53" ht="54" spans="1:10">
       <c r="A53">
         <v>25</v>
       </c>
       <c r="B53" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="D53">
         <v>3</v>
@@ -3715,21 +4039,27 @@
         <v>-1</v>
       </c>
       <c r="G53" s="4" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="H53">
         <v>1</v>
       </c>
-    </row>
-    <row r="54" ht="54" spans="1:8">
+      <c r="I53">
+        <v>20</v>
+      </c>
+      <c r="J53">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="54" ht="54" spans="1:10">
       <c r="A54">
         <v>26</v>
       </c>
       <c r="B54" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="D54">
         <v>3</v>
@@ -3741,21 +4071,27 @@
         <v>-1</v>
       </c>
       <c r="G54" s="4" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="H54">
         <v>1</v>
       </c>
-    </row>
-    <row r="55" ht="54" spans="1:8">
+      <c r="I54">
+        <v>20</v>
+      </c>
+      <c r="J54">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="55" ht="54" spans="1:10">
       <c r="A55">
         <v>27</v>
       </c>
       <c r="B55" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="D55">
         <v>3</v>
@@ -3767,21 +4103,27 @@
         <v>-1</v>
       </c>
       <c r="G55" s="4" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="H55">
         <v>1</v>
       </c>
-    </row>
-    <row r="56" ht="67.5" spans="1:8">
+      <c r="I55">
+        <v>20</v>
+      </c>
+      <c r="J55">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="56" ht="67.5" spans="1:10">
       <c r="A56">
         <v>28</v>
       </c>
       <c r="B56" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="D56">
         <v>3</v>
@@ -3793,21 +4135,27 @@
         <v>-1</v>
       </c>
       <c r="G56" s="4" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="H56">
         <v>1</v>
       </c>
-    </row>
-    <row r="57" ht="40.5" spans="1:8">
+      <c r="I56">
+        <v>20</v>
+      </c>
+      <c r="J56">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="57" ht="40.5" spans="1:10">
       <c r="A57">
         <v>29</v>
       </c>
       <c r="B57" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="D57">
         <v>3</v>
@@ -3819,21 +4167,27 @@
         <v>-1</v>
       </c>
       <c r="G57" s="4" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="H57">
         <v>2</v>
       </c>
-    </row>
-    <row r="58" ht="40.5" spans="1:8">
+      <c r="I57">
+        <v>20</v>
+      </c>
+      <c r="J57">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="58" ht="40.5" spans="1:10">
       <c r="A58">
         <v>30</v>
       </c>
       <c r="B58" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="D58">
         <v>3</v>
@@ -3845,21 +4199,27 @@
         <v>-1</v>
       </c>
       <c r="G58" s="4" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="H58">
         <v>2</v>
       </c>
-    </row>
-    <row r="59" ht="40.5" spans="1:8">
+      <c r="I58">
+        <v>20</v>
+      </c>
+      <c r="J58">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="59" ht="40.5" spans="1:10">
       <c r="A59">
         <v>31</v>
       </c>
       <c r="B59" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="D59">
         <v>3</v>
@@ -3871,21 +4231,27 @@
         <v>-1</v>
       </c>
       <c r="G59" s="4" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="H59">
         <v>1</v>
       </c>
-    </row>
-    <row r="60" ht="40.5" spans="1:8">
+      <c r="I59">
+        <v>20</v>
+      </c>
+      <c r="J59">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="60" ht="40.5" spans="1:10">
       <c r="A60">
         <v>32</v>
       </c>
       <c r="B60" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="D60">
         <v>3</v>
@@ -3897,21 +4263,27 @@
         <v>-1</v>
       </c>
       <c r="G60" s="4" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="H60">
         <v>1</v>
       </c>
-    </row>
-    <row r="61" ht="27" spans="1:8">
+      <c r="I60">
+        <v>20</v>
+      </c>
+      <c r="J60">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="61" ht="27" spans="1:10">
       <c r="A61">
         <v>33</v>
       </c>
       <c r="B61" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="D61">
         <v>3</v>
@@ -3923,21 +4295,27 @@
         <v>-1</v>
       </c>
       <c r="G61" s="4" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="H61">
         <v>1</v>
       </c>
-    </row>
-    <row r="62" ht="40.5" spans="1:8">
+      <c r="I61">
+        <v>20</v>
+      </c>
+      <c r="J61">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="62" ht="40.5" spans="1:10">
       <c r="A62">
         <v>34</v>
       </c>
       <c r="B62" t="s">
+        <v>214</v>
+      </c>
+      <c r="C62" s="4" t="s">
         <v>209</v>
-      </c>
-      <c r="C62" s="4" t="s">
-        <v>204</v>
       </c>
       <c r="D62">
         <v>3</v>
@@ -3949,21 +4327,27 @@
         <v>-1</v>
       </c>
       <c r="G62" s="4" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="H62">
         <v>2</v>
       </c>
-    </row>
-    <row r="63" ht="54" spans="1:8">
+      <c r="I62">
+        <v>20</v>
+      </c>
+      <c r="J62">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="63" ht="54" spans="1:10">
       <c r="A63">
         <v>35</v>
       </c>
       <c r="B63" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="D63">
         <v>3</v>
@@ -3975,21 +4359,27 @@
         <v>-1</v>
       </c>
       <c r="G63" s="4" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="H63">
         <v>2</v>
       </c>
-    </row>
-    <row r="64" ht="40.5" spans="1:8">
+      <c r="I63">
+        <v>20</v>
+      </c>
+      <c r="J63">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="64" ht="40.5" spans="1:10">
       <c r="A64">
         <v>36</v>
       </c>
       <c r="B64" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="D64">
         <v>3</v>
@@ -4001,21 +4391,27 @@
         <v>-1</v>
       </c>
       <c r="G64" s="4" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="H64">
         <v>1</v>
       </c>
-    </row>
-    <row r="65" ht="27" spans="1:8">
+      <c r="I64">
+        <v>20</v>
+      </c>
+      <c r="J64">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="65" ht="27" spans="1:10">
       <c r="A65">
         <v>37</v>
       </c>
       <c r="B65" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="D65">
         <v>3</v>
@@ -4027,21 +4423,27 @@
         <v>-1</v>
       </c>
       <c r="G65" s="4" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="H65">
         <v>1</v>
       </c>
-    </row>
-    <row r="66" ht="40.5" spans="1:8">
+      <c r="I65">
+        <v>20</v>
+      </c>
+      <c r="J65">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="66" ht="40.5" spans="1:10">
       <c r="A66">
         <v>38</v>
       </c>
       <c r="B66" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="D66">
         <v>3</v>
@@ -4053,21 +4455,27 @@
         <v>-1</v>
       </c>
       <c r="G66" s="4" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="H66">
         <v>1</v>
       </c>
-    </row>
-    <row r="67" spans="1:8">
+      <c r="I66">
+        <v>20</v>
+      </c>
+      <c r="J66">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10">
       <c r="A67">
         <v>39</v>
       </c>
       <c r="B67" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="D67">
         <v>3</v>
@@ -4079,21 +4487,27 @@
         <v>-1</v>
       </c>
       <c r="G67" s="4" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="H67">
         <v>1</v>
       </c>
-    </row>
-    <row r="68" ht="27" spans="1:8">
+      <c r="I67">
+        <v>20</v>
+      </c>
+      <c r="J67">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="68" ht="27" spans="1:10">
       <c r="A68">
         <v>40</v>
       </c>
       <c r="B68" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="D68">
         <v>3</v>
@@ -4105,21 +4519,27 @@
         <v>-1</v>
       </c>
       <c r="G68" s="4" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="H68">
         <v>1</v>
       </c>
-    </row>
-    <row r="69" ht="27" spans="1:8">
+      <c r="I68">
+        <v>20</v>
+      </c>
+      <c r="J68">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="69" ht="27" spans="1:10">
       <c r="A69">
         <v>41</v>
       </c>
       <c r="B69" s="8" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="C69" s="24" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="D69">
         <v>4</v>
@@ -4131,21 +4551,27 @@
         <v>-1</v>
       </c>
       <c r="G69" s="4" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="H69">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="1:8">
+      <c r="I69">
+        <v>0</v>
+      </c>
+      <c r="J69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10">
       <c r="A70">
         <v>42</v>
       </c>
       <c r="B70" s="8" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="C70" s="24" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="D70">
         <v>4</v>
@@ -4157,21 +4583,27 @@
         <v>-1</v>
       </c>
       <c r="G70" s="4" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="H70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" ht="27" spans="1:8">
+      <c r="I70">
+        <v>0</v>
+      </c>
+      <c r="J70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" ht="27" spans="1:10">
       <c r="A71">
         <v>43</v>
       </c>
       <c r="B71" s="8" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="C71" s="24" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="D71">
         <v>4</v>
@@ -4183,21 +4615,27 @@
         <v>-1</v>
       </c>
       <c r="G71" s="4" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="H71">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" ht="27" spans="1:8">
+      <c r="I71">
+        <v>0</v>
+      </c>
+      <c r="J71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" ht="27" spans="1:10">
       <c r="A72">
         <v>44</v>
       </c>
       <c r="B72" s="8" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="C72" s="24" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="D72">
         <v>4</v>
@@ -4209,21 +4647,27 @@
         <v>-1</v>
       </c>
       <c r="G72" s="4" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="H72">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="1:8">
+      <c r="I72">
+        <v>0</v>
+      </c>
+      <c r="J72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10">
       <c r="A73">
         <v>45</v>
       </c>
       <c r="B73" s="8" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="C73" s="24" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="D73">
         <v>4</v>
@@ -4235,21 +4679,27 @@
         <v>-1</v>
       </c>
       <c r="G73" s="4" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="H73">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" ht="27" spans="1:8">
+      <c r="I73">
+        <v>0</v>
+      </c>
+      <c r="J73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" ht="27" spans="1:10">
       <c r="A74">
         <v>46</v>
       </c>
       <c r="B74" s="8" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="C74" s="24" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="D74">
         <v>4</v>
@@ -4261,9 +4711,15 @@
         <v>-1</v>
       </c>
       <c r="G74" s="4" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="H74">
+        <v>0</v>
+      </c>
+      <c r="I74">
+        <v>0</v>
+      </c>
+      <c r="J74">
         <v>0</v>
       </c>
     </row>
@@ -4299,116 +4755,116 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="B1" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="E1" s="13" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="F1" s="14" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="G1" s="14" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="H1" s="15" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="I1" s="16" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="J1" s="16" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="K1" s="17" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="L1" s="18" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
     </row>
     <row r="2" spans="1:12">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>259</v>
+        <v>13</v>
       </c>
       <c r="D2" t="s">
-        <v>259</v>
+        <v>13</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>259</v>
+        <v>13</v>
       </c>
       <c r="F2" t="s">
-        <v>259</v>
+        <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>259</v>
+        <v>13</v>
       </c>
       <c r="H2" s="10" t="s">
-        <v>259</v>
+        <v>13</v>
       </c>
       <c r="I2" t="s">
-        <v>259</v>
+        <v>13</v>
       </c>
       <c r="J2" t="s">
-        <v>259</v>
+        <v>13</v>
       </c>
       <c r="K2" s="9" t="s">
-        <v>259</v>
+        <v>13</v>
       </c>
       <c r="L2" t="s">
-        <v>259</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" ht="27" spans="1:12">
       <c r="A3" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="D3" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="F3" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="G3" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="H3" s="10" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="I3" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="J3" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="K3" s="9" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="L3" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -5272,26 +5728,26 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="B1" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>259</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" ht="73.5" customHeight="1" spans="1:2">
       <c r="A3" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="B3" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -5587,7 +6043,7 @@
   <dimension ref="A1:O28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
+      <selection activeCell="J1" sqref="J1:J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -5609,1000 +6065,1000 @@
   <sheetData>
     <row r="1" spans="1:15">
       <c r="A1" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="C1" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="D1" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="E1" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="F1" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="G1" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="H1" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="I1" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="J1" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="K1" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="L1" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="M1" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="N1" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="O1" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
     </row>
     <row r="2" spans="1:15">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D2" t="s">
-        <v>259</v>
+        <v>13</v>
       </c>
       <c r="E2" t="s">
-        <v>259</v>
+        <v>13</v>
       </c>
       <c r="F2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G2" t="s">
-        <v>259</v>
+        <v>13</v>
       </c>
       <c r="H2" t="s">
-        <v>259</v>
+        <v>13</v>
       </c>
       <c r="I2" t="s">
-        <v>259</v>
+        <v>13</v>
       </c>
       <c r="J2" t="s">
-        <v>259</v>
+        <v>13</v>
       </c>
       <c r="K2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="L2" t="s">
-        <v>259</v>
+        <v>13</v>
       </c>
       <c r="M2" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="N2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="O2" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
     </row>
     <row r="3" ht="14.25" spans="1:15">
       <c r="A3" s="5" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="K3" s="5" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="L3" s="5" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="M3" s="5" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="N3" s="5" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="O3" s="5" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
     </row>
     <row r="4" ht="14.25" spans="1:15">
       <c r="A4" s="5" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="E4" s="26" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="G4" s="26" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="H4" s="26" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="I4" s="26" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="J4" s="26" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="K4" s="5" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="L4" s="26" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="M4" s="26" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="N4" s="5" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="O4" s="26" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
     </row>
     <row r="5" ht="14.25" spans="1:15">
       <c r="A5" s="5" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="D5" s="5" t="s">
+        <v>317</v>
+      </c>
+      <c r="E5" s="26" t="s">
+        <v>323</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>324</v>
+      </c>
+      <c r="G5" s="26" t="s">
+        <v>317</v>
+      </c>
+      <c r="H5" s="26" t="s">
+        <v>314</v>
+      </c>
+      <c r="I5" s="26" t="s">
+        <v>315</v>
+      </c>
+      <c r="J5" s="26" t="s">
+        <v>318</v>
+      </c>
+      <c r="K5" s="5" t="s">
+        <v>319</v>
+      </c>
+      <c r="L5" s="26" t="s">
+        <v>320</v>
+      </c>
+      <c r="M5" s="26" t="s">
+        <v>325</v>
+      </c>
+      <c r="N5" s="5" t="s">
         <v>313</v>
       </c>
-      <c r="E5" s="26" t="s">
-        <v>319</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>320</v>
-      </c>
-      <c r="G5" s="26" t="s">
-        <v>313</v>
-      </c>
-      <c r="H5" s="26" t="s">
-        <v>310</v>
-      </c>
-      <c r="I5" s="26" t="s">
-        <v>311</v>
-      </c>
-      <c r="J5" s="26" t="s">
-        <v>314</v>
-      </c>
-      <c r="K5" s="5" t="s">
-        <v>315</v>
-      </c>
-      <c r="L5" s="26" t="s">
-        <v>316</v>
-      </c>
-      <c r="M5" s="26" t="s">
-        <v>321</v>
-      </c>
-      <c r="N5" s="5" t="s">
-        <v>309</v>
-      </c>
       <c r="O5" s="26" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
     </row>
     <row r="6" ht="14.25" spans="1:15">
       <c r="A6" s="5" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="B6" s="6" t="s">
+        <v>326</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>313</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>314</v>
+      </c>
+      <c r="E6" s="26" t="s">
+        <v>327</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="G6" s="26" t="s">
+        <v>317</v>
+      </c>
+      <c r="H6" s="26" t="s">
+        <v>314</v>
+      </c>
+      <c r="I6" s="26" t="s">
+        <v>315</v>
+      </c>
+      <c r="J6" s="26" t="s">
+        <v>318</v>
+      </c>
+      <c r="K6" s="5" t="s">
+        <v>319</v>
+      </c>
+      <c r="L6" s="26" t="s">
+        <v>320</v>
+      </c>
+      <c r="M6" s="26" t="s">
+        <v>321</v>
+      </c>
+      <c r="N6" s="5" t="s">
         <v>322</v>
       </c>
-      <c r="C6" s="6" t="s">
-        <v>309</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>310</v>
-      </c>
-      <c r="E6" s="26" t="s">
-        <v>323</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="G6" s="26" t="s">
-        <v>313</v>
-      </c>
-      <c r="H6" s="26" t="s">
-        <v>310</v>
-      </c>
-      <c r="I6" s="26" t="s">
-        <v>311</v>
-      </c>
-      <c r="J6" s="26" t="s">
-        <v>314</v>
-      </c>
-      <c r="K6" s="5" t="s">
-        <v>315</v>
-      </c>
-      <c r="L6" s="26" t="s">
-        <v>316</v>
-      </c>
-      <c r="M6" s="26" t="s">
-        <v>317</v>
-      </c>
-      <c r="N6" s="5" t="s">
-        <v>318</v>
-      </c>
       <c r="O6" s="26" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
     </row>
     <row r="7" ht="14.25" spans="1:15">
       <c r="A7" s="5" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="D7" s="5" t="s">
+        <v>317</v>
+      </c>
+      <c r="E7" s="26" t="s">
+        <v>323</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>328</v>
+      </c>
+      <c r="G7" s="26" t="s">
+        <v>317</v>
+      </c>
+      <c r="H7" s="26" t="s">
+        <v>314</v>
+      </c>
+      <c r="I7" s="26" t="s">
+        <v>315</v>
+      </c>
+      <c r="J7" s="26" t="s">
+        <v>318</v>
+      </c>
+      <c r="K7" s="5" t="s">
+        <v>319</v>
+      </c>
+      <c r="L7" s="26" t="s">
+        <v>320</v>
+      </c>
+      <c r="M7" s="26" t="s">
+        <v>325</v>
+      </c>
+      <c r="N7" s="5" t="s">
         <v>313</v>
       </c>
-      <c r="E7" s="26" t="s">
-        <v>319</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>324</v>
-      </c>
-      <c r="G7" s="26" t="s">
-        <v>313</v>
-      </c>
-      <c r="H7" s="26" t="s">
-        <v>310</v>
-      </c>
-      <c r="I7" s="26" t="s">
-        <v>311</v>
-      </c>
-      <c r="J7" s="26" t="s">
-        <v>314</v>
-      </c>
-      <c r="K7" s="5" t="s">
-        <v>315</v>
-      </c>
-      <c r="L7" s="26" t="s">
-        <v>316</v>
-      </c>
-      <c r="M7" s="26" t="s">
-        <v>321</v>
-      </c>
-      <c r="N7" s="5" t="s">
-        <v>309</v>
-      </c>
       <c r="O7" s="26" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
     </row>
     <row r="8" ht="14.25" spans="1:15">
       <c r="A8" s="5" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="E8" s="26" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="G8" s="26" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="H8" s="26" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="I8" s="26" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="J8" s="26" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="K8" s="5" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="L8" s="26" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="M8" s="26" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="N8" s="5" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="O8" s="26" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
     </row>
     <row r="9" ht="14.25" spans="1:15">
       <c r="A9" s="5" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="B9" s="6" t="s">
+        <v>329</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>313</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>317</v>
+      </c>
+      <c r="E9" s="26" t="s">
+        <v>323</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>330</v>
+      </c>
+      <c r="G9" s="26" t="s">
+        <v>317</v>
+      </c>
+      <c r="H9" s="26" t="s">
+        <v>314</v>
+      </c>
+      <c r="I9" s="26" t="s">
+        <v>315</v>
+      </c>
+      <c r="J9" s="26" t="s">
+        <v>318</v>
+      </c>
+      <c r="K9" s="5" t="s">
+        <v>319</v>
+      </c>
+      <c r="L9" s="26" t="s">
+        <v>320</v>
+      </c>
+      <c r="M9" s="26" t="s">
         <v>325</v>
       </c>
-      <c r="C9" s="6" t="s">
-        <v>309</v>
-      </c>
-      <c r="D9" s="5" t="s">
+      <c r="N9" s="5" t="s">
         <v>313</v>
       </c>
-      <c r="E9" s="26" t="s">
-        <v>319</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>326</v>
-      </c>
-      <c r="G9" s="26" t="s">
-        <v>313</v>
-      </c>
-      <c r="H9" s="26" t="s">
-        <v>310</v>
-      </c>
-      <c r="I9" s="26" t="s">
-        <v>311</v>
-      </c>
-      <c r="J9" s="26" t="s">
-        <v>314</v>
-      </c>
-      <c r="K9" s="5" t="s">
-        <v>315</v>
-      </c>
-      <c r="L9" s="26" t="s">
-        <v>316</v>
-      </c>
-      <c r="M9" s="26" t="s">
-        <v>321</v>
-      </c>
-      <c r="N9" s="5" t="s">
-        <v>309</v>
-      </c>
       <c r="O9" s="26" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
     </row>
     <row r="10" ht="14.25" spans="1:15">
       <c r="A10" s="5" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="H10" s="26" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="I10" s="5" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="J10" s="26" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="K10" s="5" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="L10" s="26" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="M10" s="26" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="N10" s="5" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="O10" s="26" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
     </row>
     <row r="11" ht="14.25" spans="1:15">
       <c r="A11" s="5" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="E11" s="5" t="s">
+        <v>317</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>324</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>323</v>
+      </c>
+      <c r="H11" s="26" t="s">
+        <v>314</v>
+      </c>
+      <c r="I11" s="5" t="s">
+        <v>323</v>
+      </c>
+      <c r="J11" s="26" t="s">
+        <v>318</v>
+      </c>
+      <c r="K11" s="5" t="s">
+        <v>334</v>
+      </c>
+      <c r="L11" s="26" t="s">
+        <v>320</v>
+      </c>
+      <c r="M11" s="26" t="s">
+        <v>325</v>
+      </c>
+      <c r="N11" s="5" t="s">
         <v>313</v>
       </c>
-      <c r="F11" s="5" t="s">
-        <v>320</v>
-      </c>
-      <c r="G11" s="5" t="s">
-        <v>319</v>
-      </c>
-      <c r="H11" s="26" t="s">
-        <v>310</v>
-      </c>
-      <c r="I11" s="5" t="s">
-        <v>319</v>
-      </c>
-      <c r="J11" s="26" t="s">
-        <v>314</v>
-      </c>
-      <c r="K11" s="5" t="s">
-        <v>330</v>
-      </c>
-      <c r="L11" s="26" t="s">
-        <v>316</v>
-      </c>
-      <c r="M11" s="26" t="s">
-        <v>321</v>
-      </c>
-      <c r="N11" s="5" t="s">
-        <v>309</v>
-      </c>
       <c r="O11" s="26" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
     </row>
     <row r="12" ht="14.25" spans="1:15">
       <c r="A12" s="5" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="E12" s="5" t="s">
+        <v>337</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>322</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>323</v>
+      </c>
+      <c r="H12" s="26" t="s">
+        <v>314</v>
+      </c>
+      <c r="I12" s="5" t="s">
+        <v>323</v>
+      </c>
+      <c r="J12" s="26" t="s">
+        <v>318</v>
+      </c>
+      <c r="K12" s="5" t="s">
+        <v>334</v>
+      </c>
+      <c r="L12" s="26" t="s">
+        <v>320</v>
+      </c>
+      <c r="M12" s="26" t="s">
+        <v>321</v>
+      </c>
+      <c r="N12" s="5" t="s">
         <v>333</v>
       </c>
-      <c r="F12" s="5" t="s">
-        <v>318</v>
-      </c>
-      <c r="G12" s="5" t="s">
-        <v>319</v>
-      </c>
-      <c r="H12" s="26" t="s">
-        <v>310</v>
-      </c>
-      <c r="I12" s="5" t="s">
-        <v>319</v>
-      </c>
-      <c r="J12" s="26" t="s">
-        <v>314</v>
-      </c>
-      <c r="K12" s="5" t="s">
-        <v>330</v>
-      </c>
-      <c r="L12" s="26" t="s">
-        <v>316</v>
-      </c>
-      <c r="M12" s="26" t="s">
-        <v>317</v>
-      </c>
-      <c r="N12" s="5" t="s">
-        <v>329</v>
-      </c>
       <c r="O12" s="26" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
     </row>
     <row r="13" ht="14.25" spans="1:15">
       <c r="A13" s="5" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="D13" s="5" t="s">
+        <v>338</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>317</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>324</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>323</v>
+      </c>
+      <c r="H13" s="26" t="s">
+        <v>314</v>
+      </c>
+      <c r="I13" s="5" t="s">
+        <v>323</v>
+      </c>
+      <c r="J13" s="26" t="s">
+        <v>318</v>
+      </c>
+      <c r="K13" s="5" t="s">
         <v>334</v>
       </c>
-      <c r="E13" s="5" t="s">
+      <c r="L13" s="26" t="s">
+        <v>320</v>
+      </c>
+      <c r="M13" s="26" t="s">
+        <v>325</v>
+      </c>
+      <c r="N13" s="5" t="s">
         <v>313</v>
       </c>
-      <c r="F13" s="5" t="s">
-        <v>320</v>
-      </c>
-      <c r="G13" s="5" t="s">
-        <v>319</v>
-      </c>
-      <c r="H13" s="26" t="s">
-        <v>310</v>
-      </c>
-      <c r="I13" s="5" t="s">
-        <v>319</v>
-      </c>
-      <c r="J13" s="26" t="s">
-        <v>314</v>
-      </c>
-      <c r="K13" s="5" t="s">
-        <v>330</v>
-      </c>
-      <c r="L13" s="26" t="s">
-        <v>316</v>
-      </c>
-      <c r="M13" s="26" t="s">
-        <v>321</v>
-      </c>
-      <c r="N13" s="5" t="s">
-        <v>309</v>
-      </c>
       <c r="O13" s="26" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
     </row>
     <row r="14" ht="14.25" spans="1:15">
       <c r="A14" s="5" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="E14" s="5" t="s">
+        <v>337</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>322</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>323</v>
+      </c>
+      <c r="H14" s="26" t="s">
+        <v>314</v>
+      </c>
+      <c r="I14" s="5" t="s">
+        <v>323</v>
+      </c>
+      <c r="J14" s="26" t="s">
+        <v>318</v>
+      </c>
+      <c r="K14" s="5" t="s">
+        <v>334</v>
+      </c>
+      <c r="L14" s="26" t="s">
+        <v>320</v>
+      </c>
+      <c r="M14" s="26" t="s">
+        <v>321</v>
+      </c>
+      <c r="N14" s="5" t="s">
         <v>333</v>
       </c>
-      <c r="F14" s="5" t="s">
-        <v>318</v>
-      </c>
-      <c r="G14" s="5" t="s">
-        <v>319</v>
-      </c>
-      <c r="H14" s="26" t="s">
-        <v>310</v>
-      </c>
-      <c r="I14" s="5" t="s">
-        <v>319</v>
-      </c>
-      <c r="J14" s="26" t="s">
-        <v>314</v>
-      </c>
-      <c r="K14" s="5" t="s">
-        <v>330</v>
-      </c>
-      <c r="L14" s="26" t="s">
-        <v>316</v>
-      </c>
-      <c r="M14" s="26" t="s">
-        <v>317</v>
-      </c>
-      <c r="N14" s="5" t="s">
-        <v>329</v>
-      </c>
       <c r="O14" s="26" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
     </row>
     <row r="15" ht="14.25" spans="1:15">
       <c r="A15" s="5" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="D15" s="5" t="s">
+        <v>338</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>317</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>324</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>323</v>
+      </c>
+      <c r="H15" s="26" t="s">
+        <v>314</v>
+      </c>
+      <c r="I15" s="5" t="s">
+        <v>323</v>
+      </c>
+      <c r="J15" s="26" t="s">
+        <v>318</v>
+      </c>
+      <c r="K15" s="5" t="s">
         <v>334</v>
       </c>
-      <c r="E15" s="5" t="s">
+      <c r="L15" s="26" t="s">
+        <v>320</v>
+      </c>
+      <c r="M15" s="26" t="s">
+        <v>325</v>
+      </c>
+      <c r="N15" s="5" t="s">
         <v>313</v>
       </c>
-      <c r="F15" s="5" t="s">
-        <v>320</v>
-      </c>
-      <c r="G15" s="5" t="s">
-        <v>319</v>
-      </c>
-      <c r="H15" s="26" t="s">
-        <v>310</v>
-      </c>
-      <c r="I15" s="5" t="s">
-        <v>319</v>
-      </c>
-      <c r="J15" s="26" t="s">
-        <v>314</v>
-      </c>
-      <c r="K15" s="5" t="s">
-        <v>330</v>
-      </c>
-      <c r="L15" s="26" t="s">
-        <v>316</v>
-      </c>
-      <c r="M15" s="26" t="s">
-        <v>321</v>
-      </c>
-      <c r="N15" s="5" t="s">
-        <v>309</v>
-      </c>
       <c r="O15" s="26" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
     </row>
     <row r="16" ht="14.25" spans="1:15">
       <c r="A16" s="5" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="G16" s="26" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="H16" s="26" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="I16" s="26" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="J16" s="26" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="K16" s="5" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="L16" s="5" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="M16" s="26" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="N16" s="5" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="O16" s="26" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
     </row>
     <row r="17" ht="14.25" spans="1:15">
       <c r="A17" s="5" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="B17" s="6" t="s">
+        <v>341</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>323</v>
+      </c>
+      <c r="E17" s="5" t="s">
         <v>337</v>
       </c>
-      <c r="C17" s="7" t="s">
-        <v>309</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>319</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>333</v>
-      </c>
       <c r="F17" s="5" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="G17" s="26" t="s">
+        <v>317</v>
+      </c>
+      <c r="H17" s="26" t="s">
+        <v>314</v>
+      </c>
+      <c r="I17" s="26" t="s">
+        <v>342</v>
+      </c>
+      <c r="J17" s="26" t="s">
+        <v>318</v>
+      </c>
+      <c r="K17" s="5" t="s">
+        <v>343</v>
+      </c>
+      <c r="L17" s="5" t="s">
+        <v>320</v>
+      </c>
+      <c r="M17" s="26" t="s">
+        <v>325</v>
+      </c>
+      <c r="N17" s="5" t="s">
         <v>313</v>
       </c>
-      <c r="H17" s="26" t="s">
-        <v>310</v>
-      </c>
-      <c r="I17" s="26" t="s">
-        <v>338</v>
-      </c>
-      <c r="J17" s="26" t="s">
-        <v>314</v>
-      </c>
-      <c r="K17" s="5" t="s">
-        <v>339</v>
-      </c>
-      <c r="L17" s="5" t="s">
-        <v>316</v>
-      </c>
-      <c r="M17" s="26" t="s">
+      <c r="O17" s="26" t="s">
         <v>321</v>
-      </c>
-      <c r="N17" s="5" t="s">
-        <v>309</v>
-      </c>
-      <c r="O17" s="26" t="s">
-        <v>317</v>
       </c>
     </row>
     <row r="18" ht="14.25" spans="1:15">
       <c r="A18" s="5" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="B18" s="6" t="s">
+        <v>346</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>323</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>323</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>322</v>
+      </c>
+      <c r="G18" s="26" t="s">
+        <v>317</v>
+      </c>
+      <c r="H18" s="26" t="s">
+        <v>314</v>
+      </c>
+      <c r="I18" s="26" t="s">
         <v>342</v>
       </c>
-      <c r="C18" s="7" t="s">
-        <v>309</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>319</v>
-      </c>
-      <c r="E18" s="5" t="s">
-        <v>319</v>
-      </c>
-      <c r="F18" s="5" t="s">
+      <c r="J18" s="26" t="s">
         <v>318</v>
       </c>
-      <c r="G18" s="26" t="s">
-        <v>313</v>
-      </c>
-      <c r="H18" s="26" t="s">
-        <v>310</v>
-      </c>
-      <c r="I18" s="26" t="s">
-        <v>338</v>
-      </c>
-      <c r="J18" s="26" t="s">
-        <v>314</v>
-      </c>
       <c r="K18" s="5" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="L18" s="5" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="M18" s="26" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="N18" s="5" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="O18" s="26" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
     </row>
     <row r="19" ht="14.25" spans="1:15">
       <c r="A19" s="5" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="B19" s="6" t="s">
+        <v>346</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>323</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>337</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>324</v>
+      </c>
+      <c r="G19" s="26" t="s">
+        <v>317</v>
+      </c>
+      <c r="H19" s="26" t="s">
+        <v>314</v>
+      </c>
+      <c r="I19" s="26" t="s">
         <v>342</v>
       </c>
-      <c r="C19" s="7" t="s">
-        <v>309</v>
-      </c>
-      <c r="D19" s="5" t="s">
-        <v>319</v>
-      </c>
-      <c r="E19" s="5" t="s">
-        <v>333</v>
-      </c>
-      <c r="F19" s="5" t="s">
+      <c r="J19" s="26" t="s">
+        <v>318</v>
+      </c>
+      <c r="K19" s="5" t="s">
+        <v>343</v>
+      </c>
+      <c r="L19" s="5" t="s">
         <v>320</v>
       </c>
-      <c r="G19" s="26" t="s">
+      <c r="M19" s="26" t="s">
+        <v>325</v>
+      </c>
+      <c r="N19" s="5" t="s">
         <v>313</v>
       </c>
-      <c r="H19" s="26" t="s">
-        <v>310</v>
-      </c>
-      <c r="I19" s="26" t="s">
-        <v>338</v>
-      </c>
-      <c r="J19" s="26" t="s">
-        <v>314</v>
-      </c>
-      <c r="K19" s="5" t="s">
-        <v>339</v>
-      </c>
-      <c r="L19" s="5" t="s">
-        <v>316</v>
-      </c>
-      <c r="M19" s="26" t="s">
+      <c r="O19" s="26" t="s">
         <v>321</v>
-      </c>
-      <c r="N19" s="5" t="s">
-        <v>309</v>
-      </c>
-      <c r="O19" s="26" t="s">
-        <v>317</v>
       </c>
     </row>
     <row r="20" ht="14.25" spans="1:15">
       <c r="A20" s="5" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="F20" s="5" t="s">
+        <v>347</v>
+      </c>
+      <c r="G20" s="26" t="s">
+        <v>317</v>
+      </c>
+      <c r="H20" s="26" t="s">
+        <v>314</v>
+      </c>
+      <c r="I20" s="26" t="s">
+        <v>342</v>
+      </c>
+      <c r="J20" s="26" t="s">
+        <v>318</v>
+      </c>
+      <c r="K20" s="5" t="s">
         <v>343</v>
       </c>
-      <c r="G20" s="26" t="s">
-        <v>313</v>
-      </c>
-      <c r="H20" s="26" t="s">
-        <v>310</v>
-      </c>
-      <c r="I20" s="26" t="s">
-        <v>338</v>
-      </c>
-      <c r="J20" s="26" t="s">
-        <v>314</v>
-      </c>
-      <c r="K20" s="5" t="s">
-        <v>339</v>
-      </c>
       <c r="L20" s="5" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="M20" s="26" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="N20" s="5" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="O20" s="26" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
     </row>
     <row r="21" ht="14.25" spans="1:15">
       <c r="A21" s="5" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="F21" s="5" t="s">
+        <v>324</v>
+      </c>
+      <c r="G21" s="26" t="s">
+        <v>317</v>
+      </c>
+      <c r="H21" s="26" t="s">
+        <v>314</v>
+      </c>
+      <c r="I21" s="26" t="s">
+        <v>342</v>
+      </c>
+      <c r="J21" s="26" t="s">
+        <v>318</v>
+      </c>
+      <c r="K21" s="5" t="s">
+        <v>343</v>
+      </c>
+      <c r="L21" s="5" t="s">
         <v>320</v>
       </c>
-      <c r="G21" s="26" t="s">
+      <c r="M21" s="26" t="s">
+        <v>325</v>
+      </c>
+      <c r="N21" s="5" t="s">
         <v>313</v>
       </c>
-      <c r="H21" s="26" t="s">
-        <v>310</v>
-      </c>
-      <c r="I21" s="26" t="s">
-        <v>338</v>
-      </c>
-      <c r="J21" s="26" t="s">
-        <v>314</v>
-      </c>
-      <c r="K21" s="5" t="s">
-        <v>339</v>
-      </c>
-      <c r="L21" s="5" t="s">
-        <v>316</v>
-      </c>
-      <c r="M21" s="26" t="s">
+      <c r="O21" s="26" t="s">
         <v>321</v>
-      </c>
-      <c r="N21" s="5" t="s">
-        <v>309</v>
-      </c>
-      <c r="O21" s="26" t="s">
-        <v>317</v>
       </c>
     </row>
     <row r="22" ht="14.25" spans="1:15">
       <c r="A22" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="D22" s="5">
         <v>10</v>
@@ -6611,274 +7067,274 @@
         <v>7</v>
       </c>
       <c r="F22" s="5" t="s">
+        <v>324</v>
+      </c>
+      <c r="G22" s="26" t="s">
+        <v>335</v>
+      </c>
+      <c r="H22" s="26" t="s">
+        <v>314</v>
+      </c>
+      <c r="I22" s="26" t="s">
+        <v>317</v>
+      </c>
+      <c r="J22" s="26" t="s">
+        <v>318</v>
+      </c>
+      <c r="K22" s="5" t="s">
+        <v>349</v>
+      </c>
+      <c r="L22" s="5" t="s">
         <v>320</v>
       </c>
-      <c r="G22" s="26" t="s">
-        <v>331</v>
-      </c>
-      <c r="H22" s="26" t="s">
-        <v>310</v>
-      </c>
-      <c r="I22" s="26" t="s">
+      <c r="M22" s="26" t="s">
+        <v>325</v>
+      </c>
+      <c r="N22" s="5" t="s">
         <v>313</v>
       </c>
-      <c r="J22" s="26" t="s">
-        <v>314</v>
-      </c>
-      <c r="K22" s="5" t="s">
-        <v>345</v>
-      </c>
-      <c r="L22" s="5" t="s">
-        <v>316</v>
-      </c>
-      <c r="M22" s="26" t="s">
-        <v>321</v>
-      </c>
-      <c r="N22" s="5" t="s">
-        <v>309</v>
-      </c>
       <c r="O22" s="26" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
     </row>
     <row r="23" ht="14.25" spans="1:15">
       <c r="A23" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="B23" s="4" t="s">
+        <v>322</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="D23" s="5">
+        <v>10</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>317</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>350</v>
+      </c>
+      <c r="G23" s="26" t="s">
+        <v>335</v>
+      </c>
+      <c r="H23" s="26" t="s">
+        <v>314</v>
+      </c>
+      <c r="I23" s="26" t="s">
+        <v>317</v>
+      </c>
+      <c r="J23" s="26" t="s">
         <v>318</v>
       </c>
-      <c r="C23" s="7" t="s">
-        <v>309</v>
-      </c>
-      <c r="D23" s="5">
-        <v>10</v>
-      </c>
-      <c r="E23" s="5" t="s">
+      <c r="K23" s="5" t="s">
+        <v>349</v>
+      </c>
+      <c r="L23" s="5" t="s">
+        <v>320</v>
+      </c>
+      <c r="M23" s="26" t="s">
+        <v>325</v>
+      </c>
+      <c r="N23" s="5" t="s">
         <v>313</v>
       </c>
-      <c r="F23" s="5" t="s">
-        <v>346</v>
-      </c>
-      <c r="G23" s="26" t="s">
-        <v>331</v>
-      </c>
-      <c r="H23" s="26" t="s">
-        <v>310</v>
-      </c>
-      <c r="I23" s="26" t="s">
-        <v>313</v>
-      </c>
-      <c r="J23" s="26" t="s">
-        <v>314</v>
-      </c>
-      <c r="K23" s="5" t="s">
-        <v>345</v>
-      </c>
-      <c r="L23" s="5" t="s">
-        <v>316</v>
-      </c>
-      <c r="M23" s="26" t="s">
-        <v>321</v>
-      </c>
-      <c r="N23" s="5" t="s">
-        <v>309</v>
-      </c>
       <c r="O23" s="26" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
     </row>
     <row r="24" ht="14.25" spans="1:15">
       <c r="A24" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="D24" s="5">
         <v>10</v>
       </c>
       <c r="E24" s="5" t="s">
+        <v>317</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>350</v>
+      </c>
+      <c r="G24" s="26" t="s">
+        <v>335</v>
+      </c>
+      <c r="H24" s="26" t="s">
+        <v>314</v>
+      </c>
+      <c r="I24" s="26" t="s">
+        <v>317</v>
+      </c>
+      <c r="J24" s="26" t="s">
+        <v>318</v>
+      </c>
+      <c r="K24" s="5" t="s">
+        <v>349</v>
+      </c>
+      <c r="L24" s="5" t="s">
+        <v>320</v>
+      </c>
+      <c r="M24" s="26" t="s">
+        <v>325</v>
+      </c>
+      <c r="N24" s="5" t="s">
         <v>313</v>
       </c>
-      <c r="F24" s="5" t="s">
-        <v>346</v>
-      </c>
-      <c r="G24" s="26" t="s">
-        <v>331</v>
-      </c>
-      <c r="H24" s="26" t="s">
-        <v>310</v>
-      </c>
-      <c r="I24" s="26" t="s">
-        <v>313</v>
-      </c>
-      <c r="J24" s="26" t="s">
-        <v>314</v>
-      </c>
-      <c r="K24" s="5" t="s">
-        <v>345</v>
-      </c>
-      <c r="L24" s="5" t="s">
-        <v>316</v>
-      </c>
-      <c r="M24" s="26" t="s">
-        <v>321</v>
-      </c>
-      <c r="N24" s="5" t="s">
-        <v>309</v>
-      </c>
       <c r="O24" s="26" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
     </row>
     <row r="25" ht="14.25" spans="1:15">
       <c r="A25" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="D25" s="5">
         <v>10</v>
       </c>
       <c r="E25" s="5" t="s">
+        <v>317</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>350</v>
+      </c>
+      <c r="G25" s="26" t="s">
+        <v>335</v>
+      </c>
+      <c r="H25" s="26" t="s">
+        <v>314</v>
+      </c>
+      <c r="I25" s="26" t="s">
+        <v>317</v>
+      </c>
+      <c r="J25" s="26" t="s">
+        <v>318</v>
+      </c>
+      <c r="K25" s="5" t="s">
+        <v>349</v>
+      </c>
+      <c r="L25" s="5" t="s">
+        <v>320</v>
+      </c>
+      <c r="M25" s="26" t="s">
+        <v>325</v>
+      </c>
+      <c r="N25" s="5" t="s">
         <v>313</v>
       </c>
-      <c r="F25" s="5" t="s">
-        <v>346</v>
-      </c>
-      <c r="G25" s="26" t="s">
-        <v>331</v>
-      </c>
-      <c r="H25" s="26" t="s">
-        <v>310</v>
-      </c>
-      <c r="I25" s="26" t="s">
-        <v>313</v>
-      </c>
-      <c r="J25" s="26" t="s">
-        <v>314</v>
-      </c>
-      <c r="K25" s="5" t="s">
-        <v>345</v>
-      </c>
-      <c r="L25" s="5" t="s">
-        <v>316</v>
-      </c>
-      <c r="M25" s="26" t="s">
-        <v>321</v>
-      </c>
-      <c r="N25" s="5" t="s">
-        <v>309</v>
-      </c>
       <c r="O25" s="26" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
     </row>
     <row r="26" ht="14.25" spans="1:15">
       <c r="A26" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="B26" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="D26" s="5">
+        <v>10</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>317</v>
+      </c>
+      <c r="F26" s="5" t="s">
+        <v>350</v>
+      </c>
+      <c r="G26" s="26" t="s">
         <v>335</v>
       </c>
-      <c r="C26" s="7" t="s">
-        <v>309</v>
-      </c>
-      <c r="D26" s="5">
-        <v>10</v>
-      </c>
-      <c r="E26" s="5" t="s">
+      <c r="H26" s="26" t="s">
+        <v>314</v>
+      </c>
+      <c r="I26" s="26" t="s">
+        <v>317</v>
+      </c>
+      <c r="J26" s="26" t="s">
+        <v>318</v>
+      </c>
+      <c r="K26" s="5" t="s">
+        <v>349</v>
+      </c>
+      <c r="L26" s="5" t="s">
+        <v>320</v>
+      </c>
+      <c r="M26" s="26" t="s">
+        <v>325</v>
+      </c>
+      <c r="N26" s="5" t="s">
         <v>313</v>
       </c>
-      <c r="F26" s="5" t="s">
-        <v>346</v>
-      </c>
-      <c r="G26" s="26" t="s">
-        <v>331</v>
-      </c>
-      <c r="H26" s="26" t="s">
-        <v>310</v>
-      </c>
-      <c r="I26" s="26" t="s">
-        <v>313</v>
-      </c>
-      <c r="J26" s="26" t="s">
-        <v>314</v>
-      </c>
-      <c r="K26" s="5" t="s">
-        <v>345</v>
-      </c>
-      <c r="L26" s="5" t="s">
-        <v>316</v>
-      </c>
-      <c r="M26" s="26" t="s">
-        <v>321</v>
-      </c>
-      <c r="N26" s="5" t="s">
-        <v>309</v>
-      </c>
       <c r="O26" s="26" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
     </row>
     <row r="27" ht="14.25" spans="1:15">
       <c r="A27" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="B27" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="D27" s="5">
+        <v>10</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>317</v>
+      </c>
+      <c r="F27" s="5" t="s">
+        <v>350</v>
+      </c>
+      <c r="G27" s="26" t="s">
         <v>335</v>
       </c>
-      <c r="C27" s="7" t="s">
-        <v>309</v>
-      </c>
-      <c r="D27" s="5">
-        <v>10</v>
-      </c>
-      <c r="E27" s="5" t="s">
+      <c r="H27" s="26" t="s">
+        <v>314</v>
+      </c>
+      <c r="I27" s="26" t="s">
+        <v>317</v>
+      </c>
+      <c r="J27" s="26" t="s">
+        <v>318</v>
+      </c>
+      <c r="K27" s="5" t="s">
+        <v>349</v>
+      </c>
+      <c r="L27" s="5" t="s">
+        <v>320</v>
+      </c>
+      <c r="M27" s="26" t="s">
+        <v>325</v>
+      </c>
+      <c r="N27" s="5" t="s">
         <v>313</v>
       </c>
-      <c r="F27" s="5" t="s">
-        <v>346</v>
-      </c>
-      <c r="G27" s="26" t="s">
-        <v>331</v>
-      </c>
-      <c r="H27" s="26" t="s">
-        <v>310</v>
-      </c>
-      <c r="I27" s="26" t="s">
-        <v>313</v>
-      </c>
-      <c r="J27" s="26" t="s">
-        <v>314</v>
-      </c>
-      <c r="K27" s="5" t="s">
-        <v>345</v>
-      </c>
-      <c r="L27" s="5" t="s">
-        <v>316</v>
-      </c>
-      <c r="M27" s="26" t="s">
-        <v>321</v>
-      </c>
-      <c r="N27" s="5" t="s">
-        <v>309</v>
-      </c>
       <c r="O27" s="26" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
     </row>
     <row r="28" spans="1:15">
       <c r="A28" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="B28" s="4">
         <v>11</v>
@@ -6893,7 +7349,7 @@
         <v>-1</v>
       </c>
       <c r="F28" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="G28">
         <v>1000</v>
@@ -6908,19 +7364,19 @@
         <v>0</v>
       </c>
       <c r="K28" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="L28">
         <v>0</v>
       </c>
       <c r="M28" s="27" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="N28">
         <v>-1</v>
       </c>
       <c r="O28" s="27" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
     </row>
   </sheetData>
@@ -6945,89 +7401,89 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="B1" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="C1" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="D1" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="E1" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="F1" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="G1" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="H1" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="I1" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="I2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="B3" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="C3" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="D3" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="E3" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="F3" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="G3" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="H3" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="I3" t="s">
-        <v>364</v>
+        <v>368</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -7146,29 +7602,29 @@
         <v>4</v>
       </c>
       <c r="C1" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" ht="54" spans="1:3">
       <c r="A3" s="4" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="C3" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -7437,44 +7893,44 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="B1" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="C1" t="s">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="D1" t="s">
-        <v>372</v>
+        <v>376</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="B3" t="s">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="C3" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="D3" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -7482,13 +7938,13 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="C4" t="s">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c r="D4" t="s">
-        <v>379</v>
+        <v>383</v>
       </c>
     </row>
   </sheetData>
@@ -7513,10 +7969,10 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="27" spans="2:8">
       <c r="B1" s="1" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c r="D1" s="3">
         <v>7</v>
@@ -7533,10 +7989,10 @@
     </row>
     <row r="2" s="1" customFormat="1" ht="27" spans="2:8">
       <c r="B2" s="1" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c r="D2" s="3">
         <v>7</v>
@@ -7548,15 +8004,15 @@
         <v>1</v>
       </c>
       <c r="H2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" ht="27" spans="2:8">
       <c r="B3" s="1" t="s">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c r="D3" s="3">
         <v>7</v>
@@ -7568,7 +8024,7 @@
         <v>1</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
     </row>
     <row r="4" spans="8:8">

--- a/Assets/Editor/ItemData.xlsx
+++ b/Assets/Editor/ItemData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17775"/>
+    <workbookView windowWidth="19200" windowHeight="17775" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="道具" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="780" uniqueCount="389">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="792" uniqueCount="397">
   <si>
     <t>id</t>
   </si>
@@ -1221,10 +1221,34 @@
     <t>hero_img_1</t>
   </si>
   <si>
-    <t>姓名1</t>
-  </si>
-  <si>
-    <t>完美闪避：特定时间段进行闪避，可以形成折线雷</t>
+    <t>完美闪避</t>
+  </si>
+  <si>
+    <t>特定时间段进行闪避，可以形成折线雷。</t>
+  </si>
+  <si>
+    <t>朱砂黄符</t>
+  </si>
+  <si>
+    <t>生成一个围绕角色旋转符箓，每秒向最靠近角色的怪物发射子弹，符箓伤害5点，每二十轮雷击之后在地图上结界内随机生成一个定点符箓。</t>
+  </si>
+  <si>
+    <t>白茧</t>
+  </si>
+  <si>
+    <t>生成一个跟随角色移动的蛊虫，角色自身受到三次雷击后激活5秒，攻击距离角色最近的敌人，伤害间隔0.5S，每秒伤害5点。</t>
+  </si>
+  <si>
+    <t>木剑匣</t>
+  </si>
+  <si>
+    <t>生成一个跟随角色移动的剑匣，每当怪物被雷电击中时，射出一道剑气攻击怪物</t>
+  </si>
+  <si>
+    <t>八卦盘</t>
+  </si>
+  <si>
+    <t>初始生命值翻倍，并且在地图中开启奇门的圆心太极两仪。</t>
   </si>
   <si>
     <t>炽金业力·小</t>
@@ -1907,7 +1931,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1919,6 +1943,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -2340,7 +2367,7 @@
   <sheetPr/>
   <dimension ref="A1:J74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A56" workbookViewId="0">
+    <sheetView topLeftCell="A56" workbookViewId="0">
       <selection activeCell="L70" sqref="L70"/>
     </sheetView>
   </sheetViews>
@@ -2455,19 +2482,19 @@
       <c r="A4">
         <v>101</v>
       </c>
-      <c r="B4" s="19" t="s">
+      <c r="B4" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="20" t="s">
+      <c r="C4" s="21" t="s">
         <v>25</v>
       </c>
       <c r="D4" s="4">
         <v>2</v>
       </c>
-      <c r="E4" s="21">
+      <c r="E4" s="22">
         <v>7</v>
       </c>
-      <c r="F4" s="22">
+      <c r="F4" s="23">
         <v>1</v>
       </c>
       <c r="G4" s="4" t="s">
@@ -2487,19 +2514,19 @@
       <c r="A5">
         <v>102</v>
       </c>
-      <c r="B5" s="19" t="s">
+      <c r="B5" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="C5" s="20" t="s">
+      <c r="C5" s="21" t="s">
         <v>28</v>
       </c>
       <c r="D5" s="4">
         <v>2</v>
       </c>
-      <c r="E5" s="21">
+      <c r="E5" s="22">
         <v>9</v>
       </c>
-      <c r="F5" s="22">
+      <c r="F5" s="23">
         <v>3</v>
       </c>
       <c r="G5" s="4" t="s">
@@ -2519,19 +2546,19 @@
       <c r="A6">
         <v>103</v>
       </c>
-      <c r="B6" s="19" t="s">
+      <c r="B6" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="C6" s="20" t="s">
+      <c r="C6" s="21" t="s">
         <v>31</v>
       </c>
       <c r="D6" s="4">
         <v>2</v>
       </c>
-      <c r="E6" s="21" t="s">
+      <c r="E6" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="F6" s="22" t="s">
+      <c r="F6" s="23" t="s">
         <v>33</v>
       </c>
       <c r="G6" s="4" t="s">
@@ -2551,19 +2578,19 @@
       <c r="A7">
         <v>104</v>
       </c>
-      <c r="B7" s="19" t="s">
+      <c r="B7" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="C7" s="23" t="s">
+      <c r="C7" s="24" t="s">
         <v>36</v>
       </c>
       <c r="D7" s="4">
         <v>2</v>
       </c>
-      <c r="E7" s="21" t="s">
+      <c r="E7" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="F7" s="22" t="s">
+      <c r="F7" s="23" t="s">
         <v>38</v>
       </c>
       <c r="G7" s="4" t="s">
@@ -2583,19 +2610,19 @@
       <c r="A8">
         <v>105</v>
       </c>
-      <c r="B8" s="19" t="s">
+      <c r="B8" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="C8" s="23" t="s">
+      <c r="C8" s="24" t="s">
         <v>41</v>
       </c>
       <c r="D8" s="4">
         <v>2</v>
       </c>
-      <c r="E8" s="21" t="s">
+      <c r="E8" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="F8" s="22" t="s">
+      <c r="F8" s="23" t="s">
         <v>43</v>
       </c>
       <c r="G8" s="4" t="s">
@@ -2615,19 +2642,19 @@
       <c r="A9">
         <v>106</v>
       </c>
-      <c r="B9" s="19" t="s">
+      <c r="B9" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="C9" s="23" t="s">
+      <c r="C9" s="24" t="s">
         <v>46</v>
       </c>
       <c r="D9" s="4">
         <v>2</v>
       </c>
-      <c r="E9" s="21" t="s">
+      <c r="E9" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="F9" s="22" t="s">
+      <c r="F9" s="23" t="s">
         <v>48</v>
       </c>
       <c r="G9" s="4" t="s">
@@ -2647,19 +2674,19 @@
       <c r="A10">
         <v>107</v>
       </c>
-      <c r="B10" s="19" t="s">
+      <c r="B10" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="C10" s="23" t="s">
+      <c r="C10" s="24" t="s">
         <v>51</v>
       </c>
       <c r="D10" s="4">
         <v>2</v>
       </c>
-      <c r="E10" s="21">
+      <c r="E10" s="22">
         <v>9</v>
       </c>
-      <c r="F10" s="22">
+      <c r="F10" s="23">
         <v>5</v>
       </c>
       <c r="G10" s="4" t="s">
@@ -2679,19 +2706,19 @@
       <c r="A11">
         <v>108</v>
       </c>
-      <c r="B11" s="19" t="s">
+      <c r="B11" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="C11" s="23" t="s">
+      <c r="C11" s="24" t="s">
         <v>54</v>
       </c>
       <c r="D11" s="4">
         <v>2</v>
       </c>
-      <c r="E11" s="21" t="s">
+      <c r="E11" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="F11" s="22" t="s">
+      <c r="F11" s="23" t="s">
         <v>56</v>
       </c>
       <c r="G11" s="4" t="s">
@@ -2711,19 +2738,19 @@
       <c r="A12">
         <v>109</v>
       </c>
-      <c r="B12" s="19" t="s">
+      <c r="B12" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="C12" s="23" t="s">
+      <c r="C12" s="24" t="s">
         <v>59</v>
       </c>
       <c r="D12" s="4">
         <v>2</v>
       </c>
-      <c r="E12" s="21" t="s">
+      <c r="E12" s="22" t="s">
         <v>60</v>
       </c>
-      <c r="F12" s="22" t="s">
+      <c r="F12" s="23" t="s">
         <v>38</v>
       </c>
       <c r="G12" s="4" t="s">
@@ -2743,19 +2770,19 @@
       <c r="A13">
         <v>110</v>
       </c>
-      <c r="B13" s="19" t="s">
+      <c r="B13" s="20" t="s">
         <v>62</v>
       </c>
-      <c r="C13" s="23" t="s">
+      <c r="C13" s="24" t="s">
         <v>63</v>
       </c>
       <c r="D13" s="4">
         <v>2</v>
       </c>
-      <c r="E13" s="21">
+      <c r="E13" s="22">
         <v>7</v>
       </c>
-      <c r="F13" s="22">
+      <c r="F13" s="23">
         <v>1</v>
       </c>
       <c r="G13" s="4" t="s">
@@ -2775,19 +2802,19 @@
       <c r="A14">
         <v>111</v>
       </c>
-      <c r="B14" s="19" t="s">
+      <c r="B14" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="C14" s="23" t="s">
+      <c r="C14" s="24" t="s">
         <v>66</v>
       </c>
       <c r="D14" s="4">
         <v>2</v>
       </c>
-      <c r="E14" s="21" t="s">
+      <c r="E14" s="22" t="s">
         <v>67</v>
       </c>
-      <c r="F14" s="22" t="s">
+      <c r="F14" s="23" t="s">
         <v>68</v>
       </c>
       <c r="G14" s="4" t="s">
@@ -2807,19 +2834,19 @@
       <c r="A15">
         <v>112</v>
       </c>
-      <c r="B15" s="19" t="s">
+      <c r="B15" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="C15" s="23" t="s">
+      <c r="C15" s="24" t="s">
         <v>71</v>
       </c>
       <c r="D15" s="4">
         <v>2</v>
       </c>
-      <c r="E15" s="21" t="s">
+      <c r="E15" s="22" t="s">
         <v>72</v>
       </c>
-      <c r="F15" s="22" t="s">
+      <c r="F15" s="23" t="s">
         <v>73</v>
       </c>
       <c r="G15" s="4" t="s">
@@ -2839,19 +2866,19 @@
       <c r="A16">
         <v>113</v>
       </c>
-      <c r="B16" s="19" t="s">
+      <c r="B16" s="20" t="s">
         <v>75</v>
       </c>
-      <c r="C16" s="23" t="s">
+      <c r="C16" s="24" t="s">
         <v>76</v>
       </c>
       <c r="D16" s="4">
         <v>2</v>
       </c>
-      <c r="E16" s="21">
+      <c r="E16" s="22">
         <v>9</v>
       </c>
-      <c r="F16" s="22">
+      <c r="F16" s="23">
         <v>2</v>
       </c>
       <c r="G16" s="4" t="s">
@@ -2871,19 +2898,19 @@
       <c r="A17">
         <v>114</v>
       </c>
-      <c r="B17" s="19" t="s">
+      <c r="B17" s="20" t="s">
         <v>78</v>
       </c>
-      <c r="C17" s="23" t="s">
+      <c r="C17" s="24" t="s">
         <v>28</v>
       </c>
       <c r="D17" s="4">
         <v>2</v>
       </c>
-      <c r="E17" s="21">
+      <c r="E17" s="22">
         <v>9</v>
       </c>
-      <c r="F17" s="22">
+      <c r="F17" s="23">
         <v>2</v>
       </c>
       <c r="G17" s="4" t="s">
@@ -2903,19 +2930,19 @@
       <c r="A18">
         <v>115</v>
       </c>
-      <c r="B18" s="19" t="s">
+      <c r="B18" s="20" t="s">
         <v>80</v>
       </c>
-      <c r="C18" s="23" t="s">
+      <c r="C18" s="24" t="s">
         <v>81</v>
       </c>
       <c r="D18" s="4">
         <v>2</v>
       </c>
-      <c r="E18" s="21">
+      <c r="E18" s="22">
         <v>8</v>
       </c>
-      <c r="F18" s="22">
+      <c r="F18" s="23">
         <v>0.05</v>
       </c>
       <c r="G18" s="4" t="s">
@@ -2935,19 +2962,19 @@
       <c r="A19">
         <v>116</v>
       </c>
-      <c r="B19" s="19" t="s">
+      <c r="B19" s="20" t="s">
         <v>83</v>
       </c>
-      <c r="C19" s="23" t="s">
+      <c r="C19" s="24" t="s">
         <v>84</v>
       </c>
       <c r="D19" s="4">
         <v>2</v>
       </c>
-      <c r="E19" s="21" t="s">
+      <c r="E19" s="22" t="s">
         <v>85</v>
       </c>
-      <c r="F19" s="22" t="s">
+      <c r="F19" s="23" t="s">
         <v>86</v>
       </c>
       <c r="G19" s="4" t="s">
@@ -2967,19 +2994,19 @@
       <c r="A20">
         <v>117</v>
       </c>
-      <c r="B20" s="19" t="s">
+      <c r="B20" s="20" t="s">
         <v>88</v>
       </c>
-      <c r="C20" s="23" t="s">
+      <c r="C20" s="24" t="s">
         <v>89</v>
       </c>
       <c r="D20" s="4">
         <v>2</v>
       </c>
-      <c r="E20" s="21" t="s">
+      <c r="E20" s="22" t="s">
         <v>90</v>
       </c>
-      <c r="F20" s="22" t="s">
+      <c r="F20" s="23" t="s">
         <v>91</v>
       </c>
       <c r="G20" s="4" t="s">
@@ -2999,19 +3026,19 @@
       <c r="A21">
         <v>118</v>
       </c>
-      <c r="B21" s="19" t="s">
+      <c r="B21" s="20" t="s">
         <v>93</v>
       </c>
-      <c r="C21" s="23" t="s">
+      <c r="C21" s="24" t="s">
         <v>94</v>
       </c>
       <c r="D21" s="4">
         <v>2</v>
       </c>
-      <c r="E21" s="21" t="s">
+      <c r="E21" s="22" t="s">
         <v>95</v>
       </c>
-      <c r="F21" s="22" t="s">
+      <c r="F21" s="23" t="s">
         <v>96</v>
       </c>
       <c r="G21" s="4" t="s">
@@ -3031,19 +3058,19 @@
       <c r="A22">
         <v>119</v>
       </c>
-      <c r="B22" s="19" t="s">
+      <c r="B22" s="20" t="s">
         <v>98</v>
       </c>
-      <c r="C22" s="23" t="s">
+      <c r="C22" s="24" t="s">
         <v>99</v>
       </c>
       <c r="D22" s="4">
         <v>2</v>
       </c>
-      <c r="E22" s="21" t="s">
+      <c r="E22" s="22" t="s">
         <v>100</v>
       </c>
-      <c r="F22" s="25" t="s">
+      <c r="F22" s="26" t="s">
         <v>101</v>
       </c>
       <c r="G22" s="4" t="s">
@@ -3063,19 +3090,19 @@
       <c r="A23">
         <v>120</v>
       </c>
-      <c r="B23" s="19" t="s">
+      <c r="B23" s="20" t="s">
         <v>103</v>
       </c>
-      <c r="C23" s="23" t="s">
+      <c r="C23" s="24" t="s">
         <v>104</v>
       </c>
       <c r="D23" s="4">
         <v>2</v>
       </c>
-      <c r="E23" s="21" t="s">
+      <c r="E23" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="F23" s="22" t="s">
+      <c r="F23" s="23" t="s">
         <v>105</v>
       </c>
       <c r="G23" s="4" t="s">
@@ -3095,19 +3122,19 @@
       <c r="A24">
         <v>121</v>
       </c>
-      <c r="B24" s="19" t="s">
+      <c r="B24" s="20" t="s">
         <v>107</v>
       </c>
-      <c r="C24" s="23" t="s">
+      <c r="C24" s="24" t="s">
         <v>51</v>
       </c>
       <c r="D24" s="4">
         <v>2</v>
       </c>
-      <c r="E24" s="21">
+      <c r="E24" s="22">
         <v>9</v>
       </c>
-      <c r="F24" s="22">
+      <c r="F24" s="23">
         <v>5</v>
       </c>
       <c r="G24" s="4" t="s">
@@ -3127,19 +3154,19 @@
       <c r="A25">
         <v>122</v>
       </c>
-      <c r="B25" s="19" t="s">
+      <c r="B25" s="20" t="s">
         <v>109</v>
       </c>
-      <c r="C25" s="23" t="s">
+      <c r="C25" s="24" t="s">
         <v>110</v>
       </c>
       <c r="D25" s="4">
         <v>2</v>
       </c>
-      <c r="E25" s="21">
+      <c r="E25" s="22">
         <v>7</v>
       </c>
-      <c r="F25" s="22">
+      <c r="F25" s="23">
         <v>2</v>
       </c>
       <c r="G25" s="4" t="s">
@@ -3159,19 +3186,19 @@
       <c r="A26">
         <v>123</v>
       </c>
-      <c r="B26" s="19" t="s">
+      <c r="B26" s="20" t="s">
         <v>112</v>
       </c>
-      <c r="C26" s="23" t="s">
+      <c r="C26" s="24" t="s">
         <v>113</v>
       </c>
       <c r="D26" s="4">
         <v>2</v>
       </c>
-      <c r="E26" s="21" t="s">
+      <c r="E26" s="22" t="s">
         <v>114</v>
       </c>
-      <c r="F26" s="22" t="s">
+      <c r="F26" s="23" t="s">
         <v>115</v>
       </c>
       <c r="G26" s="4" t="s">
@@ -3191,19 +3218,19 @@
       <c r="A27">
         <v>124</v>
       </c>
-      <c r="B27" s="19" t="s">
+      <c r="B27" s="20" t="s">
         <v>116</v>
       </c>
-      <c r="C27" s="23" t="s">
+      <c r="C27" s="24" t="s">
         <v>117</v>
       </c>
       <c r="D27" s="4">
         <v>2</v>
       </c>
-      <c r="E27" s="21" t="s">
+      <c r="E27" s="22" t="s">
         <v>118</v>
       </c>
-      <c r="F27" s="22" t="s">
+      <c r="F27" s="23" t="s">
         <v>119</v>
       </c>
       <c r="G27" s="4" t="s">
@@ -3223,19 +3250,19 @@
       <c r="A28">
         <v>125</v>
       </c>
-      <c r="B28" s="19" t="s">
+      <c r="B28" s="20" t="s">
         <v>120</v>
       </c>
-      <c r="C28" s="23" t="s">
+      <c r="C28" s="24" t="s">
         <v>121</v>
       </c>
       <c r="D28" s="4">
         <v>2</v>
       </c>
-      <c r="E28" s="21" t="s">
+      <c r="E28" s="22" t="s">
         <v>122</v>
       </c>
-      <c r="F28" s="22" t="s">
+      <c r="F28" s="23" t="s">
         <v>123</v>
       </c>
       <c r="G28" s="4" t="s">
@@ -3264,7 +3291,7 @@
       <c r="D29">
         <v>1</v>
       </c>
-      <c r="E29" s="8">
+      <c r="E29" s="9">
         <v>1</v>
       </c>
       <c r="F29">
@@ -3296,7 +3323,7 @@
       <c r="D30">
         <v>1</v>
       </c>
-      <c r="E30" s="8">
+      <c r="E30" s="9">
         <v>1</v>
       </c>
       <c r="F30">
@@ -3328,7 +3355,7 @@
       <c r="D31">
         <v>1</v>
       </c>
-      <c r="E31" s="8">
+      <c r="E31" s="9">
         <v>1</v>
       </c>
       <c r="F31">
@@ -3360,7 +3387,7 @@
       <c r="D32">
         <v>1</v>
       </c>
-      <c r="E32" s="8">
+      <c r="E32" s="9">
         <v>2</v>
       </c>
       <c r="F32">
@@ -3392,7 +3419,7 @@
       <c r="D33">
         <v>1</v>
       </c>
-      <c r="E33" s="8">
+      <c r="E33" s="9">
         <v>2</v>
       </c>
       <c r="F33">
@@ -3424,7 +3451,7 @@
       <c r="D34">
         <v>1</v>
       </c>
-      <c r="E34" s="8">
+      <c r="E34" s="9">
         <v>2</v>
       </c>
       <c r="F34">
@@ -3456,7 +3483,7 @@
       <c r="D35">
         <v>1</v>
       </c>
-      <c r="E35" s="8">
+      <c r="E35" s="9">
         <v>3</v>
       </c>
       <c r="F35">
@@ -3488,7 +3515,7 @@
       <c r="D36">
         <v>1</v>
       </c>
-      <c r="E36" s="8">
+      <c r="E36" s="9">
         <v>3</v>
       </c>
       <c r="F36">
@@ -3520,7 +3547,7 @@
       <c r="D37">
         <v>1</v>
       </c>
-      <c r="E37" s="8">
+      <c r="E37" s="9">
         <v>3</v>
       </c>
       <c r="F37">
@@ -3552,7 +3579,7 @@
       <c r="D38">
         <v>1</v>
       </c>
-      <c r="E38" s="8">
+      <c r="E38" s="9">
         <v>5</v>
       </c>
       <c r="F38">
@@ -3584,7 +3611,7 @@
       <c r="D39">
         <v>1</v>
       </c>
-      <c r="E39" s="8">
+      <c r="E39" s="9">
         <v>5</v>
       </c>
       <c r="F39">
@@ -3616,7 +3643,7 @@
       <c r="D40">
         <v>1</v>
       </c>
-      <c r="E40" s="8">
+      <c r="E40" s="9">
         <v>5</v>
       </c>
       <c r="F40">
@@ -3648,7 +3675,7 @@
       <c r="D41">
         <v>1</v>
       </c>
-      <c r="E41" s="8">
+      <c r="E41" s="9">
         <v>6</v>
       </c>
       <c r="F41">
@@ -3680,7 +3707,7 @@
       <c r="D42">
         <v>1</v>
       </c>
-      <c r="E42" s="8">
+      <c r="E42" s="9">
         <v>6</v>
       </c>
       <c r="F42">
@@ -3712,7 +3739,7 @@
       <c r="D43">
         <v>1</v>
       </c>
-      <c r="E43" s="8">
+      <c r="E43" s="9">
         <v>6</v>
       </c>
       <c r="F43">
@@ -3744,7 +3771,7 @@
       <c r="D44">
         <v>3</v>
       </c>
-      <c r="E44" s="8">
+      <c r="E44" s="9">
         <v>201</v>
       </c>
       <c r="F44">
@@ -3776,7 +3803,7 @@
       <c r="D45">
         <v>3</v>
       </c>
-      <c r="E45" s="8">
+      <c r="E45" s="9">
         <v>202</v>
       </c>
       <c r="F45">
@@ -3808,7 +3835,7 @@
       <c r="D46">
         <v>3</v>
       </c>
-      <c r="E46" s="8">
+      <c r="E46" s="9">
         <v>203</v>
       </c>
       <c r="F46">
@@ -3840,7 +3867,7 @@
       <c r="D47">
         <v>3</v>
       </c>
-      <c r="E47" s="8">
+      <c r="E47" s="9">
         <v>204</v>
       </c>
       <c r="F47">
@@ -3872,7 +3899,7 @@
       <c r="D48">
         <v>3</v>
       </c>
-      <c r="E48" s="8">
+      <c r="E48" s="9">
         <v>301</v>
       </c>
       <c r="F48">
@@ -3904,7 +3931,7 @@
       <c r="D49">
         <v>3</v>
       </c>
-      <c r="E49" s="8">
+      <c r="E49" s="9">
         <v>302</v>
       </c>
       <c r="F49">
@@ -3936,7 +3963,7 @@
       <c r="D50">
         <v>3</v>
       </c>
-      <c r="E50" s="8">
+      <c r="E50" s="9">
         <v>303</v>
       </c>
       <c r="F50">
@@ -3968,7 +3995,7 @@
       <c r="D51">
         <v>3</v>
       </c>
-      <c r="E51" s="8">
+      <c r="E51" s="9">
         <v>304</v>
       </c>
       <c r="F51">
@@ -4000,7 +4027,7 @@
       <c r="D52">
         <v>3</v>
       </c>
-      <c r="E52" s="8">
+      <c r="E52" s="9">
         <v>305</v>
       </c>
       <c r="F52">
@@ -4535,10 +4562,10 @@
       <c r="A69">
         <v>41</v>
       </c>
-      <c r="B69" s="8" t="s">
+      <c r="B69" s="9" t="s">
         <v>234</v>
       </c>
-      <c r="C69" s="24" t="s">
+      <c r="C69" s="25" t="s">
         <v>235</v>
       </c>
       <c r="D69">
@@ -4567,10 +4594,10 @@
       <c r="A70">
         <v>42</v>
       </c>
-      <c r="B70" s="8" t="s">
+      <c r="B70" s="9" t="s">
         <v>237</v>
       </c>
-      <c r="C70" s="24" t="s">
+      <c r="C70" s="25" t="s">
         <v>238</v>
       </c>
       <c r="D70">
@@ -4599,10 +4626,10 @@
       <c r="A71">
         <v>43</v>
       </c>
-      <c r="B71" s="8" t="s">
+      <c r="B71" s="9" t="s">
         <v>240</v>
       </c>
-      <c r="C71" s="24" t="s">
+      <c r="C71" s="25" t="s">
         <v>241</v>
       </c>
       <c r="D71">
@@ -4631,10 +4658,10 @@
       <c r="A72">
         <v>44</v>
       </c>
-      <c r="B72" s="8" t="s">
+      <c r="B72" s="9" t="s">
         <v>243</v>
       </c>
-      <c r="C72" s="24" t="s">
+      <c r="C72" s="25" t="s">
         <v>244</v>
       </c>
       <c r="D72">
@@ -4663,10 +4690,10 @@
       <c r="A73">
         <v>45</v>
       </c>
-      <c r="B73" s="8" t="s">
+      <c r="B73" s="9" t="s">
         <v>246</v>
       </c>
-      <c r="C73" s="24" t="s">
+      <c r="C73" s="25" t="s">
         <v>247</v>
       </c>
       <c r="D73">
@@ -4695,10 +4722,10 @@
       <c r="A74">
         <v>46</v>
       </c>
-      <c r="B74" s="8" t="s">
+      <c r="B74" s="9" t="s">
         <v>249</v>
       </c>
-      <c r="C74" s="24" t="s">
+      <c r="C74" s="25" t="s">
         <v>250</v>
       </c>
       <c r="D74">
@@ -4742,14 +4769,14 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="16.75" customWidth="1"/>
-    <col min="3" max="3" width="12" style="9" customWidth="1"/>
+    <col min="3" max="3" width="12" style="10" customWidth="1"/>
     <col min="4" max="4" width="10.375" customWidth="1"/>
-    <col min="5" max="5" width="12.375" style="10" customWidth="1"/>
+    <col min="5" max="5" width="12.375" style="11" customWidth="1"/>
     <col min="6" max="7" width="10.375" customWidth="1"/>
-    <col min="8" max="8" width="10.375" style="10" customWidth="1"/>
+    <col min="8" max="8" width="10.375" style="11" customWidth="1"/>
     <col min="9" max="9" width="16" customWidth="1"/>
     <col min="10" max="10" width="12.625" customWidth="1"/>
-    <col min="11" max="11" width="10.875" style="9" customWidth="1"/>
+    <col min="11" max="11" width="10.875" style="10" customWidth="1"/>
     <col min="12" max="12" width="10" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4760,34 +4787,34 @@
       <c r="B1" t="s">
         <v>253</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="12" t="s">
         <v>254</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="13" t="s">
         <v>255</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="E1" s="14" t="s">
         <v>256</v>
       </c>
-      <c r="F1" s="14" t="s">
+      <c r="F1" s="15" t="s">
         <v>257</v>
       </c>
-      <c r="G1" s="14" t="s">
+      <c r="G1" s="15" t="s">
         <v>258</v>
       </c>
-      <c r="H1" s="15" t="s">
+      <c r="H1" s="16" t="s">
         <v>259</v>
       </c>
-      <c r="I1" s="16" t="s">
+      <c r="I1" s="17" t="s">
         <v>260</v>
       </c>
-      <c r="J1" s="16" t="s">
+      <c r="J1" s="17" t="s">
         <v>261</v>
       </c>
-      <c r="K1" s="17" t="s">
+      <c r="K1" s="18" t="s">
         <v>262</v>
       </c>
-      <c r="L1" s="18" t="s">
+      <c r="L1" s="19" t="s">
         <v>263</v>
       </c>
     </row>
@@ -4798,13 +4825,13 @@
       <c r="B2" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="10" t="s">
         <v>13</v>
       </c>
       <c r="D2" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="E2" s="11" t="s">
         <v>13</v>
       </c>
       <c r="F2" t="s">
@@ -4813,7 +4840,7 @@
       <c r="G2" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="10" t="s">
+      <c r="H2" s="11" t="s">
         <v>13</v>
       </c>
       <c r="I2" t="s">
@@ -4822,7 +4849,7 @@
       <c r="J2" t="s">
         <v>13</v>
       </c>
-      <c r="K2" s="9" t="s">
+      <c r="K2" s="10" t="s">
         <v>13</v>
       </c>
       <c r="L2" t="s">
@@ -4836,13 +4863,13 @@
       <c r="B3" s="4" t="s">
         <v>265</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="10" t="s">
         <v>266</v>
       </c>
       <c r="D3" t="s">
         <v>267</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="E3" s="11" t="s">
         <v>268</v>
       </c>
       <c r="F3" t="s">
@@ -4851,7 +4878,7 @@
       <c r="G3" t="s">
         <v>270</v>
       </c>
-      <c r="H3" s="10" t="s">
+      <c r="H3" s="11" t="s">
         <v>271</v>
       </c>
       <c r="I3" t="s">
@@ -4860,7 +4887,7 @@
       <c r="J3" t="s">
         <v>273</v>
       </c>
-      <c r="K3" s="9" t="s">
+      <c r="K3" s="10" t="s">
         <v>274</v>
       </c>
       <c r="L3" t="s">
@@ -4874,13 +4901,13 @@
       <c r="B4">
         <v>1</v>
       </c>
-      <c r="C4" s="9">
+      <c r="C4" s="10">
         <v>750</v>
       </c>
       <c r="D4">
         <v>200</v>
       </c>
-      <c r="E4" s="10">
+      <c r="E4" s="11">
         <v>50</v>
       </c>
       <c r="F4">
@@ -4889,7 +4916,7 @@
       <c r="G4">
         <v>30</v>
       </c>
-      <c r="H4" s="10">
+      <c r="H4" s="11">
         <v>20</v>
       </c>
       <c r="I4">
@@ -4898,7 +4925,7 @@
       <c r="J4">
         <v>10</v>
       </c>
-      <c r="K4" s="9">
+      <c r="K4" s="10">
         <v>90</v>
       </c>
       <c r="L4">
@@ -4912,13 +4939,13 @@
       <c r="B5">
         <v>2</v>
       </c>
-      <c r="C5" s="9">
+      <c r="C5" s="10">
         <v>100</v>
       </c>
       <c r="D5">
         <v>300</v>
       </c>
-      <c r="E5" s="10">
+      <c r="E5" s="11">
         <v>600</v>
       </c>
       <c r="F5">
@@ -4927,7 +4954,7 @@
       <c r="G5">
         <v>30</v>
       </c>
-      <c r="H5" s="10">
+      <c r="H5" s="11">
         <v>20</v>
       </c>
       <c r="I5">
@@ -4936,7 +4963,7 @@
       <c r="J5">
         <v>10</v>
       </c>
-      <c r="K5" s="9">
+      <c r="K5" s="10">
         <v>90</v>
       </c>
       <c r="L5">
@@ -4950,13 +4977,13 @@
       <c r="B6">
         <v>1</v>
       </c>
-      <c r="C6" s="9">
+      <c r="C6" s="10">
         <v>750</v>
       </c>
       <c r="D6">
         <v>200</v>
       </c>
-      <c r="E6" s="10">
+      <c r="E6" s="11">
         <v>20</v>
       </c>
       <c r="F6">
@@ -4965,7 +4992,7 @@
       <c r="G6">
         <v>30</v>
       </c>
-      <c r="H6" s="10">
+      <c r="H6" s="11">
         <v>20</v>
       </c>
       <c r="I6">
@@ -4974,7 +5001,7 @@
       <c r="J6">
         <v>10</v>
       </c>
-      <c r="K6" s="9">
+      <c r="K6" s="10">
         <v>90</v>
       </c>
       <c r="L6">
@@ -4988,13 +5015,13 @@
       <c r="B7">
         <v>2</v>
       </c>
-      <c r="C7" s="9">
+      <c r="C7" s="10">
         <v>100</v>
       </c>
       <c r="D7">
         <v>300</v>
       </c>
-      <c r="E7" s="10">
+      <c r="E7" s="11">
         <v>600</v>
       </c>
       <c r="F7">
@@ -5003,7 +5030,7 @@
       <c r="G7">
         <v>30</v>
       </c>
-      <c r="H7" s="10">
+      <c r="H7" s="11">
         <v>20</v>
       </c>
       <c r="I7">
@@ -5012,7 +5039,7 @@
       <c r="J7">
         <v>10</v>
       </c>
-      <c r="K7" s="9">
+      <c r="K7" s="10">
         <v>90</v>
       </c>
       <c r="L7">
@@ -5026,13 +5053,13 @@
       <c r="B8">
         <v>1</v>
       </c>
-      <c r="C8" s="9">
+      <c r="C8" s="10">
         <v>750</v>
       </c>
       <c r="D8">
         <v>200</v>
       </c>
-      <c r="E8" s="10">
+      <c r="E8" s="11">
         <v>50</v>
       </c>
       <c r="F8">
@@ -5041,7 +5068,7 @@
       <c r="G8">
         <v>30</v>
       </c>
-      <c r="H8" s="10">
+      <c r="H8" s="11">
         <v>20</v>
       </c>
       <c r="I8">
@@ -5050,7 +5077,7 @@
       <c r="J8">
         <v>10</v>
       </c>
-      <c r="K8" s="9">
+      <c r="K8" s="10">
         <v>90</v>
       </c>
       <c r="L8">
@@ -5064,13 +5091,13 @@
       <c r="B9">
         <v>2</v>
       </c>
-      <c r="C9" s="9">
+      <c r="C9" s="10">
         <v>100</v>
       </c>
       <c r="D9">
         <v>300</v>
       </c>
-      <c r="E9" s="10">
+      <c r="E9" s="11">
         <v>600</v>
       </c>
       <c r="F9">
@@ -5079,7 +5106,7 @@
       <c r="G9">
         <v>30</v>
       </c>
-      <c r="H9" s="10">
+      <c r="H9" s="11">
         <v>20</v>
       </c>
       <c r="I9">
@@ -5088,7 +5115,7 @@
       <c r="J9">
         <v>10</v>
       </c>
-      <c r="K9" s="9">
+      <c r="K9" s="10">
         <v>90</v>
       </c>
       <c r="L9">
@@ -5102,13 +5129,13 @@
       <c r="B10">
         <v>1</v>
       </c>
-      <c r="C10" s="9">
+      <c r="C10" s="10">
         <v>750</v>
       </c>
       <c r="D10">
         <v>200</v>
       </c>
-      <c r="E10" s="10">
+      <c r="E10" s="11">
         <v>50</v>
       </c>
       <c r="F10">
@@ -5117,7 +5144,7 @@
       <c r="G10">
         <v>30</v>
       </c>
-      <c r="H10" s="10">
+      <c r="H10" s="11">
         <v>20</v>
       </c>
       <c r="I10">
@@ -5126,7 +5153,7 @@
       <c r="J10">
         <v>10</v>
       </c>
-      <c r="K10" s="9">
+      <c r="K10" s="10">
         <v>90</v>
       </c>
       <c r="L10">
@@ -5140,13 +5167,13 @@
       <c r="B11">
         <v>2</v>
       </c>
-      <c r="C11" s="9">
+      <c r="C11" s="10">
         <v>100</v>
       </c>
       <c r="D11">
         <v>300</v>
       </c>
-      <c r="E11" s="10">
+      <c r="E11" s="11">
         <v>600</v>
       </c>
       <c r="F11">
@@ -5155,7 +5182,7 @@
       <c r="G11">
         <v>30</v>
       </c>
-      <c r="H11" s="10">
+      <c r="H11" s="11">
         <v>20</v>
       </c>
       <c r="I11">
@@ -5164,7 +5191,7 @@
       <c r="J11">
         <v>10</v>
       </c>
-      <c r="K11" s="9">
+      <c r="K11" s="10">
         <v>90</v>
       </c>
       <c r="L11">
@@ -5178,13 +5205,13 @@
       <c r="B12">
         <v>1</v>
       </c>
-      <c r="C12" s="9">
+      <c r="C12" s="10">
         <v>750</v>
       </c>
       <c r="D12">
         <v>200</v>
       </c>
-      <c r="E12" s="10">
+      <c r="E12" s="11">
         <v>50</v>
       </c>
       <c r="F12">
@@ -5193,7 +5220,7 @@
       <c r="G12">
         <v>30</v>
       </c>
-      <c r="H12" s="10">
+      <c r="H12" s="11">
         <v>20</v>
       </c>
       <c r="I12">
@@ -5202,7 +5229,7 @@
       <c r="J12">
         <v>10</v>
       </c>
-      <c r="K12" s="9">
+      <c r="K12" s="10">
         <v>90</v>
       </c>
       <c r="L12">
@@ -5216,13 +5243,13 @@
       <c r="B13">
         <v>2</v>
       </c>
-      <c r="C13" s="9">
+      <c r="C13" s="10">
         <v>100</v>
       </c>
       <c r="D13">
         <v>300</v>
       </c>
-      <c r="E13" s="10">
+      <c r="E13" s="11">
         <v>600</v>
       </c>
       <c r="F13">
@@ -5231,7 +5258,7 @@
       <c r="G13">
         <v>30</v>
       </c>
-      <c r="H13" s="10">
+      <c r="H13" s="11">
         <v>20</v>
       </c>
       <c r="I13">
@@ -5240,7 +5267,7 @@
       <c r="J13">
         <v>10</v>
       </c>
-      <c r="K13" s="9">
+      <c r="K13" s="10">
         <v>90</v>
       </c>
       <c r="L13">
@@ -5254,13 +5281,13 @@
       <c r="B14">
         <v>1</v>
       </c>
-      <c r="C14" s="9">
+      <c r="C14" s="10">
         <v>750</v>
       </c>
       <c r="D14">
         <v>200</v>
       </c>
-      <c r="E14" s="10">
+      <c r="E14" s="11">
         <v>50</v>
       </c>
       <c r="F14">
@@ -5269,7 +5296,7 @@
       <c r="G14">
         <v>30</v>
       </c>
-      <c r="H14" s="10">
+      <c r="H14" s="11">
         <v>20</v>
       </c>
       <c r="I14">
@@ -5278,7 +5305,7 @@
       <c r="J14">
         <v>10</v>
       </c>
-      <c r="K14" s="9">
+      <c r="K14" s="10">
         <v>90</v>
       </c>
       <c r="L14">
@@ -5292,13 +5319,13 @@
       <c r="B15">
         <v>2</v>
       </c>
-      <c r="C15" s="9">
+      <c r="C15" s="10">
         <v>100</v>
       </c>
       <c r="D15">
         <v>300</v>
       </c>
-      <c r="E15" s="10">
+      <c r="E15" s="11">
         <v>600</v>
       </c>
       <c r="F15">
@@ -5307,7 +5334,7 @@
       <c r="G15">
         <v>30</v>
       </c>
-      <c r="H15" s="10">
+      <c r="H15" s="11">
         <v>20</v>
       </c>
       <c r="I15">
@@ -5316,7 +5343,7 @@
       <c r="J15">
         <v>10</v>
       </c>
-      <c r="K15" s="9">
+      <c r="K15" s="10">
         <v>90</v>
       </c>
       <c r="L15">
@@ -5330,13 +5357,13 @@
       <c r="B16">
         <v>1</v>
       </c>
-      <c r="C16" s="9">
+      <c r="C16" s="10">
         <v>750</v>
       </c>
       <c r="D16">
         <v>200</v>
       </c>
-      <c r="E16" s="10">
+      <c r="E16" s="11">
         <v>50</v>
       </c>
       <c r="F16">
@@ -5345,7 +5372,7 @@
       <c r="G16">
         <v>30</v>
       </c>
-      <c r="H16" s="10">
+      <c r="H16" s="11">
         <v>20</v>
       </c>
       <c r="I16">
@@ -5354,7 +5381,7 @@
       <c r="J16">
         <v>10</v>
       </c>
-      <c r="K16" s="9">
+      <c r="K16" s="10">
         <v>90</v>
       </c>
       <c r="L16">
@@ -5368,13 +5395,13 @@
       <c r="B17">
         <v>2</v>
       </c>
-      <c r="C17" s="9">
+      <c r="C17" s="10">
         <v>100</v>
       </c>
       <c r="D17">
         <v>300</v>
       </c>
-      <c r="E17" s="10">
+      <c r="E17" s="11">
         <v>600</v>
       </c>
       <c r="F17">
@@ -5383,7 +5410,7 @@
       <c r="G17">
         <v>30</v>
       </c>
-      <c r="H17" s="10">
+      <c r="H17" s="11">
         <v>20</v>
       </c>
       <c r="I17">
@@ -5392,7 +5419,7 @@
       <c r="J17">
         <v>10</v>
       </c>
-      <c r="K17" s="9">
+      <c r="K17" s="10">
         <v>90</v>
       </c>
       <c r="L17">
@@ -5406,13 +5433,13 @@
       <c r="B18">
         <v>1</v>
       </c>
-      <c r="C18" s="9">
+      <c r="C18" s="10">
         <v>750</v>
       </c>
       <c r="D18">
         <v>200</v>
       </c>
-      <c r="E18" s="10">
+      <c r="E18" s="11">
         <v>50</v>
       </c>
       <c r="F18">
@@ -5421,7 +5448,7 @@
       <c r="G18">
         <v>30</v>
       </c>
-      <c r="H18" s="10">
+      <c r="H18" s="11">
         <v>20</v>
       </c>
       <c r="I18">
@@ -5430,7 +5457,7 @@
       <c r="J18">
         <v>10</v>
       </c>
-      <c r="K18" s="9">
+      <c r="K18" s="10">
         <v>90</v>
       </c>
       <c r="L18">
@@ -5444,13 +5471,13 @@
       <c r="B19">
         <v>2</v>
       </c>
-      <c r="C19" s="9">
+      <c r="C19" s="10">
         <v>100</v>
       </c>
       <c r="D19">
         <v>300</v>
       </c>
-      <c r="E19" s="10">
+      <c r="E19" s="11">
         <v>600</v>
       </c>
       <c r="F19">
@@ -5459,7 +5486,7 @@
       <c r="G19">
         <v>30</v>
       </c>
-      <c r="H19" s="10">
+      <c r="H19" s="11">
         <v>20</v>
       </c>
       <c r="I19">
@@ -5468,7 +5495,7 @@
       <c r="J19">
         <v>10</v>
       </c>
-      <c r="K19" s="9">
+      <c r="K19" s="10">
         <v>90</v>
       </c>
       <c r="L19">
@@ -5482,13 +5509,13 @@
       <c r="B20">
         <v>1</v>
       </c>
-      <c r="C20" s="9">
+      <c r="C20" s="10">
         <v>750</v>
       </c>
       <c r="D20">
         <v>200</v>
       </c>
-      <c r="E20" s="10">
+      <c r="E20" s="11">
         <v>50</v>
       </c>
       <c r="F20">
@@ -5497,7 +5524,7 @@
       <c r="G20">
         <v>30</v>
       </c>
-      <c r="H20" s="10">
+      <c r="H20" s="11">
         <v>20</v>
       </c>
       <c r="I20">
@@ -5506,7 +5533,7 @@
       <c r="J20">
         <v>10</v>
       </c>
-      <c r="K20" s="9">
+      <c r="K20" s="10">
         <v>90</v>
       </c>
       <c r="L20">
@@ -5520,13 +5547,13 @@
       <c r="B21">
         <v>2</v>
       </c>
-      <c r="C21" s="9">
+      <c r="C21" s="10">
         <v>100</v>
       </c>
       <c r="D21">
         <v>300</v>
       </c>
-      <c r="E21" s="10">
+      <c r="E21" s="11">
         <v>600</v>
       </c>
       <c r="F21">
@@ -5535,7 +5562,7 @@
       <c r="G21">
         <v>30</v>
       </c>
-      <c r="H21" s="10">
+      <c r="H21" s="11">
         <v>20</v>
       </c>
       <c r="I21">
@@ -5544,7 +5571,7 @@
       <c r="J21">
         <v>10</v>
       </c>
-      <c r="K21" s="9">
+      <c r="K21" s="10">
         <v>90</v>
       </c>
       <c r="L21">
@@ -5558,13 +5585,13 @@
       <c r="B22">
         <v>1</v>
       </c>
-      <c r="C22" s="9">
+      <c r="C22" s="10">
         <v>750</v>
       </c>
       <c r="D22">
         <v>200</v>
       </c>
-      <c r="E22" s="10">
+      <c r="E22" s="11">
         <v>50</v>
       </c>
       <c r="F22">
@@ -5573,7 +5600,7 @@
       <c r="G22">
         <v>30</v>
       </c>
-      <c r="H22" s="10">
+      <c r="H22" s="11">
         <v>20</v>
       </c>
       <c r="I22">
@@ -5582,7 +5609,7 @@
       <c r="J22">
         <v>10</v>
       </c>
-      <c r="K22" s="9">
+      <c r="K22" s="10">
         <v>90</v>
       </c>
       <c r="L22">
@@ -5596,13 +5623,13 @@
       <c r="B23">
         <v>2</v>
       </c>
-      <c r="C23" s="9">
+      <c r="C23" s="10">
         <v>100</v>
       </c>
       <c r="D23">
         <v>300</v>
       </c>
-      <c r="E23" s="10">
+      <c r="E23" s="11">
         <v>600</v>
       </c>
       <c r="F23">
@@ -5611,7 +5638,7 @@
       <c r="G23">
         <v>30</v>
       </c>
-      <c r="H23" s="10">
+      <c r="H23" s="11">
         <v>20</v>
       </c>
       <c r="I23">
@@ -5620,7 +5647,7 @@
       <c r="J23">
         <v>10</v>
       </c>
-      <c r="K23" s="9">
+      <c r="K23" s="10">
         <v>90</v>
       </c>
       <c r="L23">
@@ -5634,13 +5661,13 @@
       <c r="B24">
         <v>1</v>
       </c>
-      <c r="C24" s="9">
+      <c r="C24" s="10">
         <v>750</v>
       </c>
       <c r="D24">
         <v>200</v>
       </c>
-      <c r="E24" s="10">
+      <c r="E24" s="11">
         <v>50</v>
       </c>
       <c r="F24">
@@ -5649,7 +5676,7 @@
       <c r="G24">
         <v>30</v>
       </c>
-      <c r="H24" s="10">
+      <c r="H24" s="11">
         <v>20</v>
       </c>
       <c r="I24">
@@ -5658,7 +5685,7 @@
       <c r="J24">
         <v>10</v>
       </c>
-      <c r="K24" s="9">
+      <c r="K24" s="10">
         <v>90</v>
       </c>
       <c r="L24">
@@ -5672,13 +5699,13 @@
       <c r="B25">
         <v>2</v>
       </c>
-      <c r="C25" s="9">
+      <c r="C25" s="10">
         <v>100</v>
       </c>
       <c r="D25">
         <v>300</v>
       </c>
-      <c r="E25" s="10">
+      <c r="E25" s="11">
         <v>600</v>
       </c>
       <c r="F25">
@@ -5687,7 +5714,7 @@
       <c r="G25">
         <v>30</v>
       </c>
-      <c r="H25" s="10">
+      <c r="H25" s="11">
         <v>20</v>
       </c>
       <c r="I25">
@@ -5696,7 +5723,7 @@
       <c r="J25">
         <v>10</v>
       </c>
-      <c r="K25" s="9">
+      <c r="K25" s="10">
         <v>90</v>
       </c>
       <c r="L25">
@@ -5751,7 +5778,7 @@
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="8">
+      <c r="A4" s="9">
         <v>1</v>
       </c>
       <c r="B4">
@@ -5759,7 +5786,7 @@
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="8">
+      <c r="A5" s="9">
         <v>2</v>
       </c>
       <c r="B5">
@@ -5767,7 +5794,7 @@
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="8">
+      <c r="A6" s="9">
         <v>3</v>
       </c>
       <c r="B6">
@@ -5775,7 +5802,7 @@
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="8">
+      <c r="A7" s="9">
         <v>4</v>
       </c>
       <c r="B7">
@@ -5783,7 +5810,7 @@
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="8">
+      <c r="A8" s="9">
         <v>5</v>
       </c>
       <c r="B8">
@@ -5791,7 +5818,7 @@
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="8">
+      <c r="A9" s="9">
         <v>6</v>
       </c>
       <c r="B9">
@@ -5799,7 +5826,7 @@
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="8">
+      <c r="A10" s="9">
         <v>7</v>
       </c>
       <c r="B10">
@@ -5807,7 +5834,7 @@
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="8">
+      <c r="A11" s="9">
         <v>8</v>
       </c>
       <c r="B11">
@@ -5815,7 +5842,7 @@
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="8">
+      <c r="A12" s="9">
         <v>9</v>
       </c>
       <c r="B12">
@@ -5823,7 +5850,7 @@
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="8">
+      <c r="A13" s="9">
         <v>10</v>
       </c>
       <c r="B13">
@@ -5831,7 +5858,7 @@
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="8">
+      <c r="A14" s="9">
         <v>11</v>
       </c>
       <c r="B14">
@@ -5839,7 +5866,7 @@
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="8">
+      <c r="A15" s="9">
         <v>12</v>
       </c>
       <c r="B15">
@@ -5847,7 +5874,7 @@
       </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="8">
+      <c r="A16" s="9">
         <v>13</v>
       </c>
       <c r="B16">
@@ -5855,7 +5882,7 @@
       </c>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="8">
+      <c r="A17" s="9">
         <v>14</v>
       </c>
       <c r="B17">
@@ -5863,7 +5890,7 @@
       </c>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" s="8">
+      <c r="A18" s="9">
         <v>15</v>
       </c>
       <c r="B18">
@@ -5871,7 +5898,7 @@
       </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="8">
+      <c r="A19" s="9">
         <v>16</v>
       </c>
       <c r="B19">
@@ -5879,7 +5906,7 @@
       </c>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="8">
+      <c r="A20" s="9">
         <v>17</v>
       </c>
       <c r="B20">
@@ -5887,7 +5914,7 @@
       </c>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" s="8">
+      <c r="A21" s="9">
         <v>18</v>
       </c>
       <c r="B21">
@@ -5895,7 +5922,7 @@
       </c>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" s="8">
+      <c r="A22" s="9">
         <v>19</v>
       </c>
       <c r="B22">
@@ -5903,7 +5930,7 @@
       </c>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="8">
+      <c r="A23" s="9">
         <v>20</v>
       </c>
       <c r="B23">
@@ -5911,7 +5938,7 @@
       </c>
     </row>
     <row r="24" spans="1:2">
-      <c r="A24" s="8">
+      <c r="A24" s="9">
         <v>21</v>
       </c>
       <c r="B24">
@@ -5919,7 +5946,7 @@
       </c>
     </row>
     <row r="25" spans="1:2">
-      <c r="A25" s="8">
+      <c r="A25" s="9">
         <v>22</v>
       </c>
       <c r="B25">
@@ -5927,7 +5954,7 @@
       </c>
     </row>
     <row r="26" spans="1:2">
-      <c r="A26" s="8">
+      <c r="A26" s="9">
         <v>23</v>
       </c>
       <c r="B26">
@@ -5935,7 +5962,7 @@
       </c>
     </row>
     <row r="27" spans="1:2">
-      <c r="A27" s="8">
+      <c r="A27" s="9">
         <v>24</v>
       </c>
       <c r="B27">
@@ -5943,7 +5970,7 @@
       </c>
     </row>
     <row r="28" spans="1:2">
-      <c r="A28" s="8">
+      <c r="A28" s="9">
         <v>25</v>
       </c>
       <c r="B28">
@@ -5951,7 +5978,7 @@
       </c>
     </row>
     <row r="29" spans="1:2">
-      <c r="A29" s="8">
+      <c r="A29" s="9">
         <v>26</v>
       </c>
       <c r="B29">
@@ -5959,7 +5986,7 @@
       </c>
     </row>
     <row r="30" spans="1:2">
-      <c r="A30" s="8">
+      <c r="A30" s="9">
         <v>27</v>
       </c>
       <c r="B30">
@@ -5967,7 +5994,7 @@
       </c>
     </row>
     <row r="31" spans="1:2">
-      <c r="A31" s="8">
+      <c r="A31" s="9">
         <v>28</v>
       </c>
       <c r="B31">
@@ -5975,7 +6002,7 @@
       </c>
     </row>
     <row r="32" spans="1:2">
-      <c r="A32" s="8">
+      <c r="A32" s="9">
         <v>29</v>
       </c>
       <c r="B32">
@@ -5983,7 +6010,7 @@
       </c>
     </row>
     <row r="33" spans="1:2">
-      <c r="A33" s="8">
+      <c r="A33" s="9">
         <v>30</v>
       </c>
       <c r="B33">
@@ -5991,7 +6018,7 @@
       </c>
     </row>
     <row r="34" spans="1:2">
-      <c r="A34" s="8">
+      <c r="A34" s="9">
         <v>31</v>
       </c>
       <c r="B34">
@@ -5999,7 +6026,7 @@
       </c>
     </row>
     <row r="35" spans="1:2">
-      <c r="A35" s="8">
+      <c r="A35" s="9">
         <v>32</v>
       </c>
       <c r="B35">
@@ -6007,7 +6034,7 @@
       </c>
     </row>
     <row r="36" spans="1:2">
-      <c r="A36" s="8">
+      <c r="A36" s="9">
         <v>33</v>
       </c>
       <c r="B36">
@@ -6015,7 +6042,7 @@
       </c>
     </row>
     <row r="37" spans="1:2">
-      <c r="A37" s="8">
+      <c r="A37" s="9">
         <v>34</v>
       </c>
       <c r="B37">
@@ -6023,7 +6050,7 @@
       </c>
     </row>
     <row r="38" spans="1:2">
-      <c r="A38" s="8">
+      <c r="A38" s="9">
         <v>35</v>
       </c>
       <c r="B38">
@@ -6158,895 +6185,895 @@
       </c>
     </row>
     <row r="3" ht="14.25" spans="1:15">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="6" t="s">
         <v>296</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="7" t="s">
         <v>297</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="7" t="s">
         <v>298</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="6" t="s">
         <v>299</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="6" t="s">
         <v>300</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="6" t="s">
         <v>301</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="G3" s="6" t="s">
         <v>302</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="H3" s="6" t="s">
         <v>303</v>
       </c>
-      <c r="I3" s="5" t="s">
+      <c r="I3" s="6" t="s">
         <v>304</v>
       </c>
-      <c r="J3" s="5" t="s">
+      <c r="J3" s="6" t="s">
         <v>305</v>
       </c>
-      <c r="K3" s="5" t="s">
+      <c r="K3" s="6" t="s">
         <v>306</v>
       </c>
-      <c r="L3" s="5" t="s">
+      <c r="L3" s="6" t="s">
         <v>307</v>
       </c>
-      <c r="M3" s="5" t="s">
+      <c r="M3" s="6" t="s">
         <v>308</v>
       </c>
-      <c r="N3" s="5" t="s">
+      <c r="N3" s="6" t="s">
         <v>309</v>
       </c>
-      <c r="O3" s="5" t="s">
+      <c r="O3" s="6" t="s">
         <v>310</v>
       </c>
     </row>
     <row r="4" ht="14.25" spans="1:15">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="6" t="s">
         <v>311</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="7" t="s">
         <v>312</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="7" t="s">
         <v>313</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="6" t="s">
         <v>314</v>
       </c>
-      <c r="E4" s="26" t="s">
+      <c r="E4" s="27" t="s">
         <v>315</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="F4" s="6" t="s">
         <v>316</v>
       </c>
-      <c r="G4" s="26" t="s">
+      <c r="G4" s="27" t="s">
         <v>317</v>
       </c>
-      <c r="H4" s="26" t="s">
+      <c r="H4" s="27" t="s">
         <v>314</v>
       </c>
-      <c r="I4" s="26" t="s">
+      <c r="I4" s="27" t="s">
         <v>315</v>
       </c>
-      <c r="J4" s="26" t="s">
+      <c r="J4" s="27" t="s">
         <v>318</v>
       </c>
-      <c r="K4" s="5" t="s">
+      <c r="K4" s="6" t="s">
         <v>319</v>
       </c>
-      <c r="L4" s="26" t="s">
+      <c r="L4" s="27" t="s">
         <v>320</v>
       </c>
-      <c r="M4" s="26" t="s">
+      <c r="M4" s="27" t="s">
         <v>321</v>
       </c>
-      <c r="N4" s="5" t="s">
+      <c r="N4" s="6" t="s">
         <v>322</v>
       </c>
-      <c r="O4" s="26" t="s">
+      <c r="O4" s="27" t="s">
         <v>321</v>
       </c>
     </row>
     <row r="5" ht="14.25" spans="1:15">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="6" t="s">
         <v>311</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="7" t="s">
         <v>312</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="7" t="s">
         <v>313</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="6" t="s">
         <v>317</v>
       </c>
-      <c r="E5" s="26" t="s">
+      <c r="E5" s="27" t="s">
         <v>323</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="F5" s="6" t="s">
         <v>324</v>
       </c>
-      <c r="G5" s="26" t="s">
+      <c r="G5" s="27" t="s">
         <v>317</v>
       </c>
-      <c r="H5" s="26" t="s">
+      <c r="H5" s="27" t="s">
         <v>314</v>
       </c>
-      <c r="I5" s="26" t="s">
+      <c r="I5" s="27" t="s">
         <v>315</v>
       </c>
-      <c r="J5" s="26" t="s">
+      <c r="J5" s="27" t="s">
         <v>318</v>
       </c>
-      <c r="K5" s="5" t="s">
+      <c r="K5" s="6" t="s">
         <v>319</v>
       </c>
-      <c r="L5" s="26" t="s">
+      <c r="L5" s="27" t="s">
         <v>320</v>
       </c>
-      <c r="M5" s="26" t="s">
+      <c r="M5" s="27" t="s">
         <v>325</v>
       </c>
-      <c r="N5" s="5" t="s">
+      <c r="N5" s="6" t="s">
         <v>313</v>
       </c>
-      <c r="O5" s="26" t="s">
+      <c r="O5" s="27" t="s">
         <v>325</v>
       </c>
     </row>
     <row r="6" ht="14.25" spans="1:15">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="6" t="s">
         <v>311</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="7" t="s">
         <v>326</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="7" t="s">
         <v>313</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="6" t="s">
         <v>314</v>
       </c>
-      <c r="E6" s="26" t="s">
+      <c r="E6" s="27" t="s">
         <v>327</v>
       </c>
-      <c r="F6" s="5" t="s">
+      <c r="F6" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="G6" s="26" t="s">
+      <c r="G6" s="27" t="s">
         <v>317</v>
       </c>
-      <c r="H6" s="26" t="s">
+      <c r="H6" s="27" t="s">
         <v>314</v>
       </c>
-      <c r="I6" s="26" t="s">
+      <c r="I6" s="27" t="s">
         <v>315</v>
       </c>
-      <c r="J6" s="26" t="s">
+      <c r="J6" s="27" t="s">
         <v>318</v>
       </c>
-      <c r="K6" s="5" t="s">
+      <c r="K6" s="6" t="s">
         <v>319</v>
       </c>
-      <c r="L6" s="26" t="s">
+      <c r="L6" s="27" t="s">
         <v>320</v>
       </c>
-      <c r="M6" s="26" t="s">
+      <c r="M6" s="27" t="s">
         <v>321</v>
       </c>
-      <c r="N6" s="5" t="s">
+      <c r="N6" s="6" t="s">
         <v>322</v>
       </c>
-      <c r="O6" s="26" t="s">
+      <c r="O6" s="27" t="s">
         <v>321</v>
       </c>
     </row>
     <row r="7" ht="14.25" spans="1:15">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="6" t="s">
         <v>311</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="7" t="s">
         <v>326</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="7" t="s">
         <v>313</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="6" t="s">
         <v>317</v>
       </c>
-      <c r="E7" s="26" t="s">
+      <c r="E7" s="27" t="s">
         <v>323</v>
       </c>
-      <c r="F7" s="5" t="s">
+      <c r="F7" s="6" t="s">
         <v>328</v>
       </c>
-      <c r="G7" s="26" t="s">
+      <c r="G7" s="27" t="s">
         <v>317</v>
       </c>
-      <c r="H7" s="26" t="s">
+      <c r="H7" s="27" t="s">
         <v>314</v>
       </c>
-      <c r="I7" s="26" t="s">
+      <c r="I7" s="27" t="s">
         <v>315</v>
       </c>
-      <c r="J7" s="26" t="s">
+      <c r="J7" s="27" t="s">
         <v>318</v>
       </c>
-      <c r="K7" s="5" t="s">
+      <c r="K7" s="6" t="s">
         <v>319</v>
       </c>
-      <c r="L7" s="26" t="s">
+      <c r="L7" s="27" t="s">
         <v>320</v>
       </c>
-      <c r="M7" s="26" t="s">
+      <c r="M7" s="27" t="s">
         <v>325</v>
       </c>
-      <c r="N7" s="5" t="s">
+      <c r="N7" s="6" t="s">
         <v>313</v>
       </c>
-      <c r="O7" s="26" t="s">
+      <c r="O7" s="27" t="s">
         <v>325</v>
       </c>
     </row>
     <row r="8" ht="14.25" spans="1:15">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="6" t="s">
         <v>311</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="7" t="s">
         <v>329</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="7" t="s">
         <v>313</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D8" s="6" t="s">
         <v>314</v>
       </c>
-      <c r="E8" s="26" t="s">
+      <c r="E8" s="27" t="s">
         <v>314</v>
       </c>
-      <c r="F8" s="5" t="s">
+      <c r="F8" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="G8" s="26" t="s">
+      <c r="G8" s="27" t="s">
         <v>317</v>
       </c>
-      <c r="H8" s="26" t="s">
+      <c r="H8" s="27" t="s">
         <v>314</v>
       </c>
-      <c r="I8" s="26" t="s">
+      <c r="I8" s="27" t="s">
         <v>315</v>
       </c>
-      <c r="J8" s="26" t="s">
+      <c r="J8" s="27" t="s">
         <v>318</v>
       </c>
-      <c r="K8" s="5" t="s">
+      <c r="K8" s="6" t="s">
         <v>319</v>
       </c>
-      <c r="L8" s="26" t="s">
+      <c r="L8" s="27" t="s">
         <v>320</v>
       </c>
-      <c r="M8" s="26" t="s">
+      <c r="M8" s="27" t="s">
         <v>321</v>
       </c>
-      <c r="N8" s="5" t="s">
+      <c r="N8" s="6" t="s">
         <v>322</v>
       </c>
-      <c r="O8" s="26" t="s">
+      <c r="O8" s="27" t="s">
         <v>321</v>
       </c>
     </row>
     <row r="9" ht="14.25" spans="1:15">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="6" t="s">
         <v>311</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="7" t="s">
         <v>329</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="7" t="s">
         <v>313</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="D9" s="6" t="s">
         <v>317</v>
       </c>
-      <c r="E9" s="26" t="s">
+      <c r="E9" s="27" t="s">
         <v>323</v>
       </c>
-      <c r="F9" s="5" t="s">
+      <c r="F9" s="6" t="s">
         <v>330</v>
       </c>
-      <c r="G9" s="26" t="s">
+      <c r="G9" s="27" t="s">
         <v>317</v>
       </c>
-      <c r="H9" s="26" t="s">
+      <c r="H9" s="27" t="s">
         <v>314</v>
       </c>
-      <c r="I9" s="26" t="s">
+      <c r="I9" s="27" t="s">
         <v>315</v>
       </c>
-      <c r="J9" s="26" t="s">
+      <c r="J9" s="27" t="s">
         <v>318</v>
       </c>
-      <c r="K9" s="5" t="s">
+      <c r="K9" s="6" t="s">
         <v>319</v>
       </c>
-      <c r="L9" s="26" t="s">
+      <c r="L9" s="27" t="s">
         <v>320</v>
       </c>
-      <c r="M9" s="26" t="s">
+      <c r="M9" s="27" t="s">
         <v>325</v>
       </c>
-      <c r="N9" s="5" t="s">
+      <c r="N9" s="6" t="s">
         <v>313</v>
       </c>
-      <c r="O9" s="26" t="s">
+      <c r="O9" s="27" t="s">
         <v>325</v>
       </c>
     </row>
     <row r="10" ht="14.25" spans="1:15">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="6" t="s">
         <v>331</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="7" t="s">
         <v>332</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="7" t="s">
         <v>313</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="D10" s="6" t="s">
         <v>323</v>
       </c>
-      <c r="E10" s="5" t="s">
+      <c r="E10" s="6" t="s">
         <v>323</v>
       </c>
-      <c r="F10" s="5" t="s">
+      <c r="F10" s="6" t="s">
         <v>333</v>
       </c>
-      <c r="G10" s="5" t="s">
+      <c r="G10" s="6" t="s">
         <v>323</v>
       </c>
-      <c r="H10" s="26" t="s">
+      <c r="H10" s="27" t="s">
         <v>314</v>
       </c>
-      <c r="I10" s="5" t="s">
+      <c r="I10" s="6" t="s">
         <v>323</v>
       </c>
-      <c r="J10" s="26" t="s">
+      <c r="J10" s="27" t="s">
         <v>318</v>
       </c>
-      <c r="K10" s="5" t="s">
+      <c r="K10" s="6" t="s">
         <v>334</v>
       </c>
-      <c r="L10" s="26" t="s">
+      <c r="L10" s="27" t="s">
         <v>320</v>
       </c>
-      <c r="M10" s="26" t="s">
+      <c r="M10" s="27" t="s">
         <v>321</v>
       </c>
-      <c r="N10" s="5" t="s">
+      <c r="N10" s="6" t="s">
         <v>333</v>
       </c>
-      <c r="O10" s="26" t="s">
+      <c r="O10" s="27" t="s">
         <v>321</v>
       </c>
     </row>
     <row r="11" ht="14.25" spans="1:15">
-      <c r="A11" s="5" t="s">
+      <c r="A11" s="6" t="s">
         <v>331</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="7" t="s">
         <v>332</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="7" t="s">
         <v>313</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="D11" s="6" t="s">
         <v>335</v>
       </c>
-      <c r="E11" s="5" t="s">
+      <c r="E11" s="6" t="s">
         <v>317</v>
       </c>
-      <c r="F11" s="5" t="s">
+      <c r="F11" s="6" t="s">
         <v>324</v>
       </c>
-      <c r="G11" s="5" t="s">
+      <c r="G11" s="6" t="s">
         <v>323</v>
       </c>
-      <c r="H11" s="26" t="s">
+      <c r="H11" s="27" t="s">
         <v>314</v>
       </c>
-      <c r="I11" s="5" t="s">
+      <c r="I11" s="6" t="s">
         <v>323</v>
       </c>
-      <c r="J11" s="26" t="s">
+      <c r="J11" s="27" t="s">
         <v>318</v>
       </c>
-      <c r="K11" s="5" t="s">
+      <c r="K11" s="6" t="s">
         <v>334</v>
       </c>
-      <c r="L11" s="26" t="s">
+      <c r="L11" s="27" t="s">
         <v>320</v>
       </c>
-      <c r="M11" s="26" t="s">
+      <c r="M11" s="27" t="s">
         <v>325</v>
       </c>
-      <c r="N11" s="5" t="s">
+      <c r="N11" s="6" t="s">
         <v>313</v>
       </c>
-      <c r="O11" s="26" t="s">
+      <c r="O11" s="27" t="s">
         <v>325</v>
       </c>
     </row>
     <row r="12" ht="14.25" spans="1:15">
-      <c r="A12" s="5" t="s">
+      <c r="A12" s="6" t="s">
         <v>331</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="7" t="s">
         <v>336</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="C12" s="7" t="s">
         <v>313</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="D12" s="6" t="s">
         <v>315</v>
       </c>
-      <c r="E12" s="5" t="s">
+      <c r="E12" s="6" t="s">
         <v>337</v>
       </c>
-      <c r="F12" s="5" t="s">
+      <c r="F12" s="6" t="s">
         <v>322</v>
       </c>
-      <c r="G12" s="5" t="s">
+      <c r="G12" s="6" t="s">
         <v>323</v>
       </c>
-      <c r="H12" s="26" t="s">
+      <c r="H12" s="27" t="s">
         <v>314</v>
       </c>
-      <c r="I12" s="5" t="s">
+      <c r="I12" s="6" t="s">
         <v>323</v>
       </c>
-      <c r="J12" s="26" t="s">
+      <c r="J12" s="27" t="s">
         <v>318</v>
       </c>
-      <c r="K12" s="5" t="s">
+      <c r="K12" s="6" t="s">
         <v>334</v>
       </c>
-      <c r="L12" s="26" t="s">
+      <c r="L12" s="27" t="s">
         <v>320</v>
       </c>
-      <c r="M12" s="26" t="s">
+      <c r="M12" s="27" t="s">
         <v>321</v>
       </c>
-      <c r="N12" s="5" t="s">
+      <c r="N12" s="6" t="s">
         <v>333</v>
       </c>
-      <c r="O12" s="26" t="s">
+      <c r="O12" s="27" t="s">
         <v>321</v>
       </c>
     </row>
     <row r="13" ht="14.25" spans="1:15">
-      <c r="A13" s="5" t="s">
+      <c r="A13" s="6" t="s">
         <v>331</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="7" t="s">
         <v>336</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C13" s="7" t="s">
         <v>313</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="D13" s="6" t="s">
         <v>338</v>
       </c>
-      <c r="E13" s="5" t="s">
+      <c r="E13" s="6" t="s">
         <v>317</v>
       </c>
-      <c r="F13" s="5" t="s">
+      <c r="F13" s="6" t="s">
         <v>324</v>
       </c>
-      <c r="G13" s="5" t="s">
+      <c r="G13" s="6" t="s">
         <v>323</v>
       </c>
-      <c r="H13" s="26" t="s">
+      <c r="H13" s="27" t="s">
         <v>314</v>
       </c>
-      <c r="I13" s="5" t="s">
+      <c r="I13" s="6" t="s">
         <v>323</v>
       </c>
-      <c r="J13" s="26" t="s">
+      <c r="J13" s="27" t="s">
         <v>318</v>
       </c>
-      <c r="K13" s="5" t="s">
+      <c r="K13" s="6" t="s">
         <v>334</v>
       </c>
-      <c r="L13" s="26" t="s">
+      <c r="L13" s="27" t="s">
         <v>320</v>
       </c>
-      <c r="M13" s="26" t="s">
+      <c r="M13" s="27" t="s">
         <v>325</v>
       </c>
-      <c r="N13" s="5" t="s">
+      <c r="N13" s="6" t="s">
         <v>313</v>
       </c>
-      <c r="O13" s="26" t="s">
+      <c r="O13" s="27" t="s">
         <v>325</v>
       </c>
     </row>
     <row r="14" ht="14.25" spans="1:15">
-      <c r="A14" s="5" t="s">
+      <c r="A14" s="6" t="s">
         <v>331</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="7" t="s">
         <v>339</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="C14" s="7" t="s">
         <v>313</v>
       </c>
-      <c r="D14" s="5" t="s">
+      <c r="D14" s="6" t="s">
         <v>315</v>
       </c>
-      <c r="E14" s="5" t="s">
+      <c r="E14" s="6" t="s">
         <v>337</v>
       </c>
-      <c r="F14" s="5" t="s">
+      <c r="F14" s="6" t="s">
         <v>322</v>
       </c>
-      <c r="G14" s="5" t="s">
+      <c r="G14" s="6" t="s">
         <v>323</v>
       </c>
-      <c r="H14" s="26" t="s">
+      <c r="H14" s="27" t="s">
         <v>314</v>
       </c>
-      <c r="I14" s="5" t="s">
+      <c r="I14" s="6" t="s">
         <v>323</v>
       </c>
-      <c r="J14" s="26" t="s">
+      <c r="J14" s="27" t="s">
         <v>318</v>
       </c>
-      <c r="K14" s="5" t="s">
+      <c r="K14" s="6" t="s">
         <v>334</v>
       </c>
-      <c r="L14" s="26" t="s">
+      <c r="L14" s="27" t="s">
         <v>320</v>
       </c>
-      <c r="M14" s="26" t="s">
+      <c r="M14" s="27" t="s">
         <v>321</v>
       </c>
-      <c r="N14" s="5" t="s">
+      <c r="N14" s="6" t="s">
         <v>333</v>
       </c>
-      <c r="O14" s="26" t="s">
+      <c r="O14" s="27" t="s">
         <v>321</v>
       </c>
     </row>
     <row r="15" ht="14.25" spans="1:15">
-      <c r="A15" s="5" t="s">
+      <c r="A15" s="6" t="s">
         <v>331</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="B15" s="7" t="s">
         <v>339</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="C15" s="7" t="s">
         <v>313</v>
       </c>
-      <c r="D15" s="5" t="s">
+      <c r="D15" s="6" t="s">
         <v>338</v>
       </c>
-      <c r="E15" s="5" t="s">
+      <c r="E15" s="6" t="s">
         <v>317</v>
       </c>
-      <c r="F15" s="5" t="s">
+      <c r="F15" s="6" t="s">
         <v>324</v>
       </c>
-      <c r="G15" s="5" t="s">
+      <c r="G15" s="6" t="s">
         <v>323</v>
       </c>
-      <c r="H15" s="26" t="s">
+      <c r="H15" s="27" t="s">
         <v>314</v>
       </c>
-      <c r="I15" s="5" t="s">
+      <c r="I15" s="6" t="s">
         <v>323</v>
       </c>
-      <c r="J15" s="26" t="s">
+      <c r="J15" s="27" t="s">
         <v>318</v>
       </c>
-      <c r="K15" s="5" t="s">
+      <c r="K15" s="6" t="s">
         <v>334</v>
       </c>
-      <c r="L15" s="26" t="s">
+      <c r="L15" s="27" t="s">
         <v>320</v>
       </c>
-      <c r="M15" s="26" t="s">
+      <c r="M15" s="27" t="s">
         <v>325</v>
       </c>
-      <c r="N15" s="5" t="s">
+      <c r="N15" s="6" t="s">
         <v>313</v>
       </c>
-      <c r="O15" s="26" t="s">
+      <c r="O15" s="27" t="s">
         <v>325</v>
       </c>
     </row>
     <row r="16" ht="14.25" spans="1:15">
-      <c r="A16" s="5" t="s">
+      <c r="A16" s="6" t="s">
         <v>340</v>
       </c>
-      <c r="B16" s="6" t="s">
+      <c r="B16" s="7" t="s">
         <v>341</v>
       </c>
-      <c r="C16" s="7" t="s">
+      <c r="C16" s="8" t="s">
         <v>313</v>
       </c>
-      <c r="D16" s="5" t="s">
+      <c r="D16" s="6" t="s">
         <v>323</v>
       </c>
-      <c r="E16" s="5" t="s">
+      <c r="E16" s="6" t="s">
         <v>342</v>
       </c>
-      <c r="F16" s="5" t="s">
+      <c r="F16" s="6" t="s">
         <v>333</v>
       </c>
-      <c r="G16" s="26" t="s">
+      <c r="G16" s="27" t="s">
         <v>317</v>
       </c>
-      <c r="H16" s="26" t="s">
+      <c r="H16" s="27" t="s">
         <v>314</v>
       </c>
-      <c r="I16" s="26" t="s">
+      <c r="I16" s="27" t="s">
         <v>342</v>
       </c>
-      <c r="J16" s="26" t="s">
+      <c r="J16" s="27" t="s">
         <v>318</v>
       </c>
-      <c r="K16" s="5" t="s">
+      <c r="K16" s="6" t="s">
         <v>343</v>
       </c>
-      <c r="L16" s="5" t="s">
+      <c r="L16" s="6" t="s">
         <v>320</v>
       </c>
-      <c r="M16" s="26" t="s">
+      <c r="M16" s="27" t="s">
         <v>321</v>
       </c>
-      <c r="N16" s="5" t="s">
+      <c r="N16" s="6" t="s">
         <v>344</v>
       </c>
-      <c r="O16" s="26" t="s">
+      <c r="O16" s="27" t="s">
         <v>321</v>
       </c>
     </row>
     <row r="17" ht="14.25" spans="1:15">
-      <c r="A17" s="5" t="s">
+      <c r="A17" s="6" t="s">
         <v>340</v>
       </c>
-      <c r="B17" s="6" t="s">
+      <c r="B17" s="7" t="s">
         <v>341</v>
       </c>
-      <c r="C17" s="7" t="s">
+      <c r="C17" s="8" t="s">
         <v>313</v>
       </c>
-      <c r="D17" s="5" t="s">
+      <c r="D17" s="6" t="s">
         <v>323</v>
       </c>
-      <c r="E17" s="5" t="s">
+      <c r="E17" s="6" t="s">
         <v>337</v>
       </c>
-      <c r="F17" s="5" t="s">
+      <c r="F17" s="6" t="s">
         <v>345</v>
       </c>
-      <c r="G17" s="26" t="s">
+      <c r="G17" s="27" t="s">
         <v>317</v>
       </c>
-      <c r="H17" s="26" t="s">
+      <c r="H17" s="27" t="s">
         <v>314</v>
       </c>
-      <c r="I17" s="26" t="s">
+      <c r="I17" s="27" t="s">
         <v>342</v>
       </c>
-      <c r="J17" s="26" t="s">
+      <c r="J17" s="27" t="s">
         <v>318</v>
       </c>
-      <c r="K17" s="5" t="s">
+      <c r="K17" s="6" t="s">
         <v>343</v>
       </c>
-      <c r="L17" s="5" t="s">
+      <c r="L17" s="6" t="s">
         <v>320</v>
       </c>
-      <c r="M17" s="26" t="s">
+      <c r="M17" s="27" t="s">
         <v>325</v>
       </c>
-      <c r="N17" s="5" t="s">
+      <c r="N17" s="6" t="s">
         <v>313</v>
       </c>
-      <c r="O17" s="26" t="s">
+      <c r="O17" s="27" t="s">
         <v>321</v>
       </c>
     </row>
     <row r="18" ht="14.25" spans="1:15">
-      <c r="A18" s="5" t="s">
+      <c r="A18" s="6" t="s">
         <v>340</v>
       </c>
-      <c r="B18" s="6" t="s">
+      <c r="B18" s="7" t="s">
         <v>346</v>
       </c>
-      <c r="C18" s="7" t="s">
+      <c r="C18" s="8" t="s">
         <v>313</v>
       </c>
-      <c r="D18" s="5" t="s">
+      <c r="D18" s="6" t="s">
         <v>323</v>
       </c>
-      <c r="E18" s="5" t="s">
+      <c r="E18" s="6" t="s">
         <v>323</v>
       </c>
-      <c r="F18" s="5" t="s">
+      <c r="F18" s="6" t="s">
         <v>322</v>
       </c>
-      <c r="G18" s="26" t="s">
+      <c r="G18" s="27" t="s">
         <v>317</v>
       </c>
-      <c r="H18" s="26" t="s">
+      <c r="H18" s="27" t="s">
         <v>314</v>
       </c>
-      <c r="I18" s="26" t="s">
+      <c r="I18" s="27" t="s">
         <v>342</v>
       </c>
-      <c r="J18" s="26" t="s">
+      <c r="J18" s="27" t="s">
         <v>318</v>
       </c>
-      <c r="K18" s="5" t="s">
+      <c r="K18" s="6" t="s">
         <v>343</v>
       </c>
-      <c r="L18" s="5" t="s">
+      <c r="L18" s="6" t="s">
         <v>320</v>
       </c>
-      <c r="M18" s="26" t="s">
+      <c r="M18" s="27" t="s">
         <v>321</v>
       </c>
-      <c r="N18" s="5" t="s">
+      <c r="N18" s="6" t="s">
         <v>344</v>
       </c>
-      <c r="O18" s="26" t="s">
+      <c r="O18" s="27" t="s">
         <v>321</v>
       </c>
     </row>
     <row r="19" ht="14.25" spans="1:15">
-      <c r="A19" s="5" t="s">
+      <c r="A19" s="6" t="s">
         <v>340</v>
       </c>
-      <c r="B19" s="6" t="s">
+      <c r="B19" s="7" t="s">
         <v>346</v>
       </c>
-      <c r="C19" s="7" t="s">
+      <c r="C19" s="8" t="s">
         <v>313</v>
       </c>
-      <c r="D19" s="5" t="s">
+      <c r="D19" s="6" t="s">
         <v>323</v>
       </c>
-      <c r="E19" s="5" t="s">
+      <c r="E19" s="6" t="s">
         <v>337</v>
       </c>
-      <c r="F19" s="5" t="s">
+      <c r="F19" s="6" t="s">
         <v>324</v>
       </c>
-      <c r="G19" s="26" t="s">
+      <c r="G19" s="27" t="s">
         <v>317</v>
       </c>
-      <c r="H19" s="26" t="s">
+      <c r="H19" s="27" t="s">
         <v>314</v>
       </c>
-      <c r="I19" s="26" t="s">
+      <c r="I19" s="27" t="s">
         <v>342</v>
       </c>
-      <c r="J19" s="26" t="s">
+      <c r="J19" s="27" t="s">
         <v>318</v>
       </c>
-      <c r="K19" s="5" t="s">
+      <c r="K19" s="6" t="s">
         <v>343</v>
       </c>
-      <c r="L19" s="5" t="s">
+      <c r="L19" s="6" t="s">
         <v>320</v>
       </c>
-      <c r="M19" s="26" t="s">
+      <c r="M19" s="27" t="s">
         <v>325</v>
       </c>
-      <c r="N19" s="5" t="s">
+      <c r="N19" s="6" t="s">
         <v>313</v>
       </c>
-      <c r="O19" s="26" t="s">
+      <c r="O19" s="27" t="s">
         <v>321</v>
       </c>
     </row>
     <row r="20" ht="14.25" spans="1:15">
-      <c r="A20" s="5" t="s">
+      <c r="A20" s="6" t="s">
         <v>340</v>
       </c>
-      <c r="B20" s="6" t="s">
+      <c r="B20" s="7" t="s">
         <v>339</v>
       </c>
-      <c r="C20" s="7" t="s">
+      <c r="C20" s="8" t="s">
         <v>313</v>
       </c>
-      <c r="D20" s="5" t="s">
+      <c r="D20" s="6" t="s">
         <v>323</v>
       </c>
-      <c r="E20" s="5" t="s">
+      <c r="E20" s="6" t="s">
         <v>337</v>
       </c>
-      <c r="F20" s="5" t="s">
+      <c r="F20" s="6" t="s">
         <v>347</v>
       </c>
-      <c r="G20" s="26" t="s">
+      <c r="G20" s="27" t="s">
         <v>317</v>
       </c>
-      <c r="H20" s="26" t="s">
+      <c r="H20" s="27" t="s">
         <v>314</v>
       </c>
-      <c r="I20" s="26" t="s">
+      <c r="I20" s="27" t="s">
         <v>342</v>
       </c>
-      <c r="J20" s="26" t="s">
+      <c r="J20" s="27" t="s">
         <v>318</v>
       </c>
-      <c r="K20" s="5" t="s">
+      <c r="K20" s="6" t="s">
         <v>343</v>
       </c>
-      <c r="L20" s="5" t="s">
+      <c r="L20" s="6" t="s">
         <v>320</v>
       </c>
-      <c r="M20" s="26" t="s">
+      <c r="M20" s="27" t="s">
         <v>321</v>
       </c>
-      <c r="N20" s="5" t="s">
+      <c r="N20" s="6" t="s">
         <v>344</v>
       </c>
-      <c r="O20" s="26" t="s">
+      <c r="O20" s="27" t="s">
         <v>321</v>
       </c>
     </row>
     <row r="21" ht="14.25" spans="1:15">
-      <c r="A21" s="5" t="s">
+      <c r="A21" s="6" t="s">
         <v>340</v>
       </c>
-      <c r="B21" s="6" t="s">
+      <c r="B21" s="7" t="s">
         <v>339</v>
       </c>
-      <c r="C21" s="7" t="s">
+      <c r="C21" s="8" t="s">
         <v>313</v>
       </c>
-      <c r="D21" s="5" t="s">
+      <c r="D21" s="6" t="s">
         <v>323</v>
       </c>
-      <c r="E21" s="5" t="s">
+      <c r="E21" s="6" t="s">
         <v>315</v>
       </c>
-      <c r="F21" s="5" t="s">
+      <c r="F21" s="6" t="s">
         <v>324</v>
       </c>
-      <c r="G21" s="26" t="s">
+      <c r="G21" s="27" t="s">
         <v>317</v>
       </c>
-      <c r="H21" s="26" t="s">
+      <c r="H21" s="27" t="s">
         <v>314</v>
       </c>
-      <c r="I21" s="26" t="s">
+      <c r="I21" s="27" t="s">
         <v>342</v>
       </c>
-      <c r="J21" s="26" t="s">
+      <c r="J21" s="27" t="s">
         <v>318</v>
       </c>
-      <c r="K21" s="5" t="s">
+      <c r="K21" s="6" t="s">
         <v>343</v>
       </c>
-      <c r="L21" s="5" t="s">
+      <c r="L21" s="6" t="s">
         <v>320</v>
       </c>
-      <c r="M21" s="26" t="s">
+      <c r="M21" s="27" t="s">
         <v>325</v>
       </c>
-      <c r="N21" s="5" t="s">
+      <c r="N21" s="6" t="s">
         <v>313</v>
       </c>
-      <c r="O21" s="26" t="s">
+      <c r="O21" s="27" t="s">
         <v>321</v>
       </c>
     </row>
@@ -7057,43 +7084,43 @@
       <c r="B22" s="4" t="s">
         <v>322</v>
       </c>
-      <c r="C22" s="7" t="s">
+      <c r="C22" s="8" t="s">
         <v>313</v>
       </c>
-      <c r="D22" s="5">
-        <v>10</v>
-      </c>
-      <c r="E22" s="5">
+      <c r="D22" s="6">
+        <v>10</v>
+      </c>
+      <c r="E22" s="6">
         <v>7</v>
       </c>
-      <c r="F22" s="5" t="s">
+      <c r="F22" s="6" t="s">
         <v>324</v>
       </c>
-      <c r="G22" s="26" t="s">
+      <c r="G22" s="27" t="s">
         <v>335</v>
       </c>
-      <c r="H22" s="26" t="s">
+      <c r="H22" s="27" t="s">
         <v>314</v>
       </c>
-      <c r="I22" s="26" t="s">
+      <c r="I22" s="27" t="s">
         <v>317</v>
       </c>
-      <c r="J22" s="26" t="s">
+      <c r="J22" s="27" t="s">
         <v>318</v>
       </c>
-      <c r="K22" s="5" t="s">
+      <c r="K22" s="6" t="s">
         <v>349</v>
       </c>
-      <c r="L22" s="5" t="s">
+      <c r="L22" s="6" t="s">
         <v>320</v>
       </c>
-      <c r="M22" s="26" t="s">
+      <c r="M22" s="27" t="s">
         <v>325</v>
       </c>
-      <c r="N22" s="5" t="s">
+      <c r="N22" s="6" t="s">
         <v>313</v>
       </c>
-      <c r="O22" s="26" t="s">
+      <c r="O22" s="27" t="s">
         <v>325</v>
       </c>
     </row>
@@ -7104,43 +7131,43 @@
       <c r="B23" s="4" t="s">
         <v>322</v>
       </c>
-      <c r="C23" s="7" t="s">
+      <c r="C23" s="8" t="s">
         <v>313</v>
       </c>
-      <c r="D23" s="5">
-        <v>10</v>
-      </c>
-      <c r="E23" s="5" t="s">
+      <c r="D23" s="6">
+        <v>10</v>
+      </c>
+      <c r="E23" s="6" t="s">
         <v>317</v>
       </c>
-      <c r="F23" s="5" t="s">
+      <c r="F23" s="6" t="s">
         <v>350</v>
       </c>
-      <c r="G23" s="26" t="s">
+      <c r="G23" s="27" t="s">
         <v>335</v>
       </c>
-      <c r="H23" s="26" t="s">
+      <c r="H23" s="27" t="s">
         <v>314</v>
       </c>
-      <c r="I23" s="26" t="s">
+      <c r="I23" s="27" t="s">
         <v>317</v>
       </c>
-      <c r="J23" s="26" t="s">
+      <c r="J23" s="27" t="s">
         <v>318</v>
       </c>
-      <c r="K23" s="5" t="s">
+      <c r="K23" s="6" t="s">
         <v>349</v>
       </c>
-      <c r="L23" s="5" t="s">
+      <c r="L23" s="6" t="s">
         <v>320</v>
       </c>
-      <c r="M23" s="26" t="s">
+      <c r="M23" s="27" t="s">
         <v>325</v>
       </c>
-      <c r="N23" s="5" t="s">
+      <c r="N23" s="6" t="s">
         <v>313</v>
       </c>
-      <c r="O23" s="26" t="s">
+      <c r="O23" s="27" t="s">
         <v>325</v>
       </c>
     </row>
@@ -7151,43 +7178,43 @@
       <c r="B24" s="4" t="s">
         <v>346</v>
       </c>
-      <c r="C24" s="7" t="s">
+      <c r="C24" s="8" t="s">
         <v>313</v>
       </c>
-      <c r="D24" s="5">
-        <v>10</v>
-      </c>
-      <c r="E24" s="5" t="s">
+      <c r="D24" s="6">
+        <v>10</v>
+      </c>
+      <c r="E24" s="6" t="s">
         <v>317</v>
       </c>
-      <c r="F24" s="5" t="s">
+      <c r="F24" s="6" t="s">
         <v>350</v>
       </c>
-      <c r="G24" s="26" t="s">
+      <c r="G24" s="27" t="s">
         <v>335</v>
       </c>
-      <c r="H24" s="26" t="s">
+      <c r="H24" s="27" t="s">
         <v>314</v>
       </c>
-      <c r="I24" s="26" t="s">
+      <c r="I24" s="27" t="s">
         <v>317</v>
       </c>
-      <c r="J24" s="26" t="s">
+      <c r="J24" s="27" t="s">
         <v>318</v>
       </c>
-      <c r="K24" s="5" t="s">
+      <c r="K24" s="6" t="s">
         <v>349</v>
       </c>
-      <c r="L24" s="5" t="s">
+      <c r="L24" s="6" t="s">
         <v>320</v>
       </c>
-      <c r="M24" s="26" t="s">
+      <c r="M24" s="27" t="s">
         <v>325</v>
       </c>
-      <c r="N24" s="5" t="s">
+      <c r="N24" s="6" t="s">
         <v>313</v>
       </c>
-      <c r="O24" s="26" t="s">
+      <c r="O24" s="27" t="s">
         <v>325</v>
       </c>
     </row>
@@ -7198,43 +7225,43 @@
       <c r="B25" s="4" t="s">
         <v>346</v>
       </c>
-      <c r="C25" s="7" t="s">
+      <c r="C25" s="8" t="s">
         <v>313</v>
       </c>
-      <c r="D25" s="5">
-        <v>10</v>
-      </c>
-      <c r="E25" s="5" t="s">
+      <c r="D25" s="6">
+        <v>10</v>
+      </c>
+      <c r="E25" s="6" t="s">
         <v>317</v>
       </c>
-      <c r="F25" s="5" t="s">
+      <c r="F25" s="6" t="s">
         <v>350</v>
       </c>
-      <c r="G25" s="26" t="s">
+      <c r="G25" s="27" t="s">
         <v>335</v>
       </c>
-      <c r="H25" s="26" t="s">
+      <c r="H25" s="27" t="s">
         <v>314</v>
       </c>
-      <c r="I25" s="26" t="s">
+      <c r="I25" s="27" t="s">
         <v>317</v>
       </c>
-      <c r="J25" s="26" t="s">
+      <c r="J25" s="27" t="s">
         <v>318</v>
       </c>
-      <c r="K25" s="5" t="s">
+      <c r="K25" s="6" t="s">
         <v>349</v>
       </c>
-      <c r="L25" s="5" t="s">
+      <c r="L25" s="6" t="s">
         <v>320</v>
       </c>
-      <c r="M25" s="26" t="s">
+      <c r="M25" s="27" t="s">
         <v>325</v>
       </c>
-      <c r="N25" s="5" t="s">
+      <c r="N25" s="6" t="s">
         <v>313</v>
       </c>
-      <c r="O25" s="26" t="s">
+      <c r="O25" s="27" t="s">
         <v>325</v>
       </c>
     </row>
@@ -7245,43 +7272,43 @@
       <c r="B26" s="4" t="s">
         <v>339</v>
       </c>
-      <c r="C26" s="7" t="s">
+      <c r="C26" s="8" t="s">
         <v>313</v>
       </c>
-      <c r="D26" s="5">
-        <v>10</v>
-      </c>
-      <c r="E26" s="5" t="s">
+      <c r="D26" s="6">
+        <v>10</v>
+      </c>
+      <c r="E26" s="6" t="s">
         <v>317</v>
       </c>
-      <c r="F26" s="5" t="s">
+      <c r="F26" s="6" t="s">
         <v>350</v>
       </c>
-      <c r="G26" s="26" t="s">
+      <c r="G26" s="27" t="s">
         <v>335</v>
       </c>
-      <c r="H26" s="26" t="s">
+      <c r="H26" s="27" t="s">
         <v>314</v>
       </c>
-      <c r="I26" s="26" t="s">
+      <c r="I26" s="27" t="s">
         <v>317</v>
       </c>
-      <c r="J26" s="26" t="s">
+      <c r="J26" s="27" t="s">
         <v>318</v>
       </c>
-      <c r="K26" s="5" t="s">
+      <c r="K26" s="6" t="s">
         <v>349</v>
       </c>
-      <c r="L26" s="5" t="s">
+      <c r="L26" s="6" t="s">
         <v>320</v>
       </c>
-      <c r="M26" s="26" t="s">
+      <c r="M26" s="27" t="s">
         <v>325</v>
       </c>
-      <c r="N26" s="5" t="s">
+      <c r="N26" s="6" t="s">
         <v>313</v>
       </c>
-      <c r="O26" s="26" t="s">
+      <c r="O26" s="27" t="s">
         <v>325</v>
       </c>
     </row>
@@ -7292,43 +7319,43 @@
       <c r="B27" s="4" t="s">
         <v>339</v>
       </c>
-      <c r="C27" s="7" t="s">
+      <c r="C27" s="8" t="s">
         <v>313</v>
       </c>
-      <c r="D27" s="5">
-        <v>10</v>
-      </c>
-      <c r="E27" s="5" t="s">
+      <c r="D27" s="6">
+        <v>10</v>
+      </c>
+      <c r="E27" s="6" t="s">
         <v>317</v>
       </c>
-      <c r="F27" s="5" t="s">
+      <c r="F27" s="6" t="s">
         <v>350</v>
       </c>
-      <c r="G27" s="26" t="s">
+      <c r="G27" s="27" t="s">
         <v>335</v>
       </c>
-      <c r="H27" s="26" t="s">
+      <c r="H27" s="27" t="s">
         <v>314</v>
       </c>
-      <c r="I27" s="26" t="s">
+      <c r="I27" s="27" t="s">
         <v>317</v>
       </c>
-      <c r="J27" s="26" t="s">
+      <c r="J27" s="27" t="s">
         <v>318</v>
       </c>
-      <c r="K27" s="5" t="s">
+      <c r="K27" s="6" t="s">
         <v>349</v>
       </c>
-      <c r="L27" s="5" t="s">
+      <c r="L27" s="6" t="s">
         <v>320</v>
       </c>
-      <c r="M27" s="26" t="s">
+      <c r="M27" s="27" t="s">
         <v>325</v>
       </c>
-      <c r="N27" s="5" t="s">
+      <c r="N27" s="6" t="s">
         <v>313</v>
       </c>
-      <c r="O27" s="26" t="s">
+      <c r="O27" s="27" t="s">
         <v>325</v>
       </c>
     </row>
@@ -7369,13 +7396,13 @@
       <c r="L28">
         <v>0</v>
       </c>
-      <c r="M28" s="27" t="s">
+      <c r="M28" s="28" t="s">
         <v>325</v>
       </c>
       <c r="N28">
         <v>-1</v>
       </c>
-      <c r="O28" s="27" t="s">
+      <c r="O28" s="28" t="s">
         <v>325</v>
       </c>
     </row>
@@ -7878,17 +7905,17 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7" outlineLevelCol="3"/>
   <cols>
     <col min="2" max="2" width="14.875" customWidth="1"/>
     <col min="3" max="3" width="18.875" customWidth="1"/>
-    <col min="4" max="4" width="25.875" customWidth="1"/>
+    <col min="4" max="4" width="50" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -7943,8 +7970,64 @@
       <c r="C4" t="s">
         <v>382</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="5" t="s">
         <v>383</v>
+      </c>
+    </row>
+    <row r="5" ht="40.5" spans="1:4">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>381</v>
+      </c>
+      <c r="C5" t="s">
+        <v>384</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="6" ht="40.5" spans="1:4">
+      <c r="A6">
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
+        <v>381</v>
+      </c>
+      <c r="C6" t="s">
+        <v>386</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="7" ht="27" spans="1:4">
+      <c r="A7">
+        <v>4</v>
+      </c>
+      <c r="B7" t="s">
+        <v>381</v>
+      </c>
+      <c r="C7" t="s">
+        <v>388</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8">
+        <v>5</v>
+      </c>
+      <c r="B8" t="s">
+        <v>381</v>
+      </c>
+      <c r="C8" t="s">
+        <v>390</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>391</v>
       </c>
     </row>
   </sheetData>
@@ -7969,10 +8052,10 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="27" spans="2:8">
       <c r="B1" s="1" t="s">
-        <v>384</v>
+        <v>392</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>385</v>
+        <v>393</v>
       </c>
       <c r="D1" s="3">
         <v>7</v>
@@ -7989,10 +8072,10 @@
     </row>
     <row r="2" s="1" customFormat="1" ht="27" spans="2:8">
       <c r="B2" s="1" t="s">
-        <v>386</v>
+        <v>394</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>385</v>
+        <v>393</v>
       </c>
       <c r="D2" s="3">
         <v>7</v>
@@ -8009,10 +8092,10 @@
     </row>
     <row r="3" s="1" customFormat="1" ht="27" spans="2:8">
       <c r="B3" s="1" t="s">
-        <v>387</v>
+        <v>395</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>385</v>
+        <v>393</v>
       </c>
       <c r="D3" s="3">
         <v>7</v>
@@ -8024,7 +8107,7 @@
         <v>1</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>388</v>
+        <v>396</v>
       </c>
     </row>
     <row r="4" spans="8:8">

--- a/Assets/Editor/ItemData.xlsx
+++ b/Assets/Editor/ItemData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="17775" activeTab="6"/>
+    <workbookView windowHeight="17775" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="道具" sheetId="1" r:id="rId1"/>
@@ -866,7 +866,7 @@
   </si>
   <si>
     <t>类型
-（1关内，2关底）</t>
+（1常规，2特殊）</t>
   </si>
   <si>
     <t>碎片占比</t>
@@ -1931,7 +1931,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1943,9 +1943,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -2367,8 +2364,8 @@
   <sheetPr/>
   <dimension ref="A1:J74"/>
   <sheetViews>
-    <sheetView topLeftCell="A56" workbookViewId="0">
-      <selection activeCell="L70" sqref="L70"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2482,19 +2479,19 @@
       <c r="A4">
         <v>101</v>
       </c>
-      <c r="B4" s="20" t="s">
+      <c r="B4" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="21" t="s">
+      <c r="C4" s="20" t="s">
         <v>25</v>
       </c>
       <c r="D4" s="4">
         <v>2</v>
       </c>
-      <c r="E4" s="22">
+      <c r="E4" s="21">
         <v>7</v>
       </c>
-      <c r="F4" s="23">
+      <c r="F4" s="22">
         <v>1</v>
       </c>
       <c r="G4" s="4" t="s">
@@ -2514,19 +2511,19 @@
       <c r="A5">
         <v>102</v>
       </c>
-      <c r="B5" s="20" t="s">
+      <c r="B5" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="C5" s="21" t="s">
+      <c r="C5" s="20" t="s">
         <v>28</v>
       </c>
       <c r="D5" s="4">
         <v>2</v>
       </c>
-      <c r="E5" s="22">
+      <c r="E5" s="21">
         <v>9</v>
       </c>
-      <c r="F5" s="23">
+      <c r="F5" s="22">
         <v>3</v>
       </c>
       <c r="G5" s="4" t="s">
@@ -2546,19 +2543,19 @@
       <c r="A6">
         <v>103</v>
       </c>
-      <c r="B6" s="20" t="s">
+      <c r="B6" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="C6" s="21" t="s">
+      <c r="C6" s="20" t="s">
         <v>31</v>
       </c>
       <c r="D6" s="4">
         <v>2</v>
       </c>
-      <c r="E6" s="22" t="s">
+      <c r="E6" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="F6" s="23" t="s">
+      <c r="F6" s="22" t="s">
         <v>33</v>
       </c>
       <c r="G6" s="4" t="s">
@@ -2578,19 +2575,19 @@
       <c r="A7">
         <v>104</v>
       </c>
-      <c r="B7" s="20" t="s">
+      <c r="B7" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="C7" s="24" t="s">
+      <c r="C7" s="23" t="s">
         <v>36</v>
       </c>
       <c r="D7" s="4">
         <v>2</v>
       </c>
-      <c r="E7" s="22" t="s">
+      <c r="E7" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="F7" s="23" t="s">
+      <c r="F7" s="22" t="s">
         <v>38</v>
       </c>
       <c r="G7" s="4" t="s">
@@ -2610,19 +2607,19 @@
       <c r="A8">
         <v>105</v>
       </c>
-      <c r="B8" s="20" t="s">
+      <c r="B8" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="C8" s="24" t="s">
+      <c r="C8" s="23" t="s">
         <v>41</v>
       </c>
       <c r="D8" s="4">
         <v>2</v>
       </c>
-      <c r="E8" s="22" t="s">
+      <c r="E8" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="F8" s="23" t="s">
+      <c r="F8" s="22" t="s">
         <v>43</v>
       </c>
       <c r="G8" s="4" t="s">
@@ -2642,19 +2639,19 @@
       <c r="A9">
         <v>106</v>
       </c>
-      <c r="B9" s="20" t="s">
+      <c r="B9" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="C9" s="24" t="s">
+      <c r="C9" s="23" t="s">
         <v>46</v>
       </c>
       <c r="D9" s="4">
         <v>2</v>
       </c>
-      <c r="E9" s="22" t="s">
+      <c r="E9" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="F9" s="23" t="s">
+      <c r="F9" s="22" t="s">
         <v>48</v>
       </c>
       <c r="G9" s="4" t="s">
@@ -2674,19 +2671,19 @@
       <c r="A10">
         <v>107</v>
       </c>
-      <c r="B10" s="20" t="s">
+      <c r="B10" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="C10" s="24" t="s">
+      <c r="C10" s="23" t="s">
         <v>51</v>
       </c>
       <c r="D10" s="4">
         <v>2</v>
       </c>
-      <c r="E10" s="22">
+      <c r="E10" s="21">
         <v>9</v>
       </c>
-      <c r="F10" s="23">
+      <c r="F10" s="22">
         <v>5</v>
       </c>
       <c r="G10" s="4" t="s">
@@ -2706,19 +2703,19 @@
       <c r="A11">
         <v>108</v>
       </c>
-      <c r="B11" s="20" t="s">
+      <c r="B11" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="C11" s="24" t="s">
+      <c r="C11" s="23" t="s">
         <v>54</v>
       </c>
       <c r="D11" s="4">
         <v>2</v>
       </c>
-      <c r="E11" s="22" t="s">
+      <c r="E11" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="F11" s="23" t="s">
+      <c r="F11" s="22" t="s">
         <v>56</v>
       </c>
       <c r="G11" s="4" t="s">
@@ -2738,19 +2735,19 @@
       <c r="A12">
         <v>109</v>
       </c>
-      <c r="B12" s="20" t="s">
+      <c r="B12" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="C12" s="24" t="s">
+      <c r="C12" s="23" t="s">
         <v>59</v>
       </c>
       <c r="D12" s="4">
         <v>2</v>
       </c>
-      <c r="E12" s="22" t="s">
+      <c r="E12" s="21" t="s">
         <v>60</v>
       </c>
-      <c r="F12" s="23" t="s">
+      <c r="F12" s="22" t="s">
         <v>38</v>
       </c>
       <c r="G12" s="4" t="s">
@@ -2770,19 +2767,19 @@
       <c r="A13">
         <v>110</v>
       </c>
-      <c r="B13" s="20" t="s">
+      <c r="B13" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="C13" s="24" t="s">
+      <c r="C13" s="23" t="s">
         <v>63</v>
       </c>
       <c r="D13" s="4">
         <v>2</v>
       </c>
-      <c r="E13" s="22">
+      <c r="E13" s="21">
         <v>7</v>
       </c>
-      <c r="F13" s="23">
+      <c r="F13" s="22">
         <v>1</v>
       </c>
       <c r="G13" s="4" t="s">
@@ -2802,19 +2799,19 @@
       <c r="A14">
         <v>111</v>
       </c>
-      <c r="B14" s="20" t="s">
+      <c r="B14" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="C14" s="24" t="s">
+      <c r="C14" s="23" t="s">
         <v>66</v>
       </c>
       <c r="D14" s="4">
         <v>2</v>
       </c>
-      <c r="E14" s="22" t="s">
+      <c r="E14" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="F14" s="23" t="s">
+      <c r="F14" s="22" t="s">
         <v>68</v>
       </c>
       <c r="G14" s="4" t="s">
@@ -2834,19 +2831,19 @@
       <c r="A15">
         <v>112</v>
       </c>
-      <c r="B15" s="20" t="s">
+      <c r="B15" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="C15" s="24" t="s">
+      <c r="C15" s="23" t="s">
         <v>71</v>
       </c>
       <c r="D15" s="4">
         <v>2</v>
       </c>
-      <c r="E15" s="22" t="s">
+      <c r="E15" s="21" t="s">
         <v>72</v>
       </c>
-      <c r="F15" s="23" t="s">
+      <c r="F15" s="22" t="s">
         <v>73</v>
       </c>
       <c r="G15" s="4" t="s">
@@ -2866,19 +2863,19 @@
       <c r="A16">
         <v>113</v>
       </c>
-      <c r="B16" s="20" t="s">
+      <c r="B16" s="19" t="s">
         <v>75</v>
       </c>
-      <c r="C16" s="24" t="s">
+      <c r="C16" s="23" t="s">
         <v>76</v>
       </c>
       <c r="D16" s="4">
         <v>2</v>
       </c>
-      <c r="E16" s="22">
+      <c r="E16" s="21">
         <v>9</v>
       </c>
-      <c r="F16" s="23">
+      <c r="F16" s="22">
         <v>2</v>
       </c>
       <c r="G16" s="4" t="s">
@@ -2898,19 +2895,19 @@
       <c r="A17">
         <v>114</v>
       </c>
-      <c r="B17" s="20" t="s">
+      <c r="B17" s="19" t="s">
         <v>78</v>
       </c>
-      <c r="C17" s="24" t="s">
+      <c r="C17" s="23" t="s">
         <v>28</v>
       </c>
       <c r="D17" s="4">
         <v>2</v>
       </c>
-      <c r="E17" s="22">
+      <c r="E17" s="21">
         <v>9</v>
       </c>
-      <c r="F17" s="23">
+      <c r="F17" s="22">
         <v>2</v>
       </c>
       <c r="G17" s="4" t="s">
@@ -2930,19 +2927,19 @@
       <c r="A18">
         <v>115</v>
       </c>
-      <c r="B18" s="20" t="s">
+      <c r="B18" s="19" t="s">
         <v>80</v>
       </c>
-      <c r="C18" s="24" t="s">
+      <c r="C18" s="23" t="s">
         <v>81</v>
       </c>
       <c r="D18" s="4">
         <v>2</v>
       </c>
-      <c r="E18" s="22">
+      <c r="E18" s="21">
         <v>8</v>
       </c>
-      <c r="F18" s="23">
+      <c r="F18" s="22">
         <v>0.05</v>
       </c>
       <c r="G18" s="4" t="s">
@@ -2962,19 +2959,19 @@
       <c r="A19">
         <v>116</v>
       </c>
-      <c r="B19" s="20" t="s">
+      <c r="B19" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="C19" s="24" t="s">
+      <c r="C19" s="23" t="s">
         <v>84</v>
       </c>
       <c r="D19" s="4">
         <v>2</v>
       </c>
-      <c r="E19" s="22" t="s">
+      <c r="E19" s="21" t="s">
         <v>85</v>
       </c>
-      <c r="F19" s="23" t="s">
+      <c r="F19" s="22" t="s">
         <v>86</v>
       </c>
       <c r="G19" s="4" t="s">
@@ -2994,19 +2991,19 @@
       <c r="A20">
         <v>117</v>
       </c>
-      <c r="B20" s="20" t="s">
+      <c r="B20" s="19" t="s">
         <v>88</v>
       </c>
-      <c r="C20" s="24" t="s">
+      <c r="C20" s="23" t="s">
         <v>89</v>
       </c>
       <c r="D20" s="4">
         <v>2</v>
       </c>
-      <c r="E20" s="22" t="s">
+      <c r="E20" s="21" t="s">
         <v>90</v>
       </c>
-      <c r="F20" s="23" t="s">
+      <c r="F20" s="22" t="s">
         <v>91</v>
       </c>
       <c r="G20" s="4" t="s">
@@ -3026,19 +3023,19 @@
       <c r="A21">
         <v>118</v>
       </c>
-      <c r="B21" s="20" t="s">
+      <c r="B21" s="19" t="s">
         <v>93</v>
       </c>
-      <c r="C21" s="24" t="s">
+      <c r="C21" s="23" t="s">
         <v>94</v>
       </c>
       <c r="D21" s="4">
         <v>2</v>
       </c>
-      <c r="E21" s="22" t="s">
+      <c r="E21" s="21" t="s">
         <v>95</v>
       </c>
-      <c r="F21" s="23" t="s">
+      <c r="F21" s="22" t="s">
         <v>96</v>
       </c>
       <c r="G21" s="4" t="s">
@@ -3058,19 +3055,19 @@
       <c r="A22">
         <v>119</v>
       </c>
-      <c r="B22" s="20" t="s">
+      <c r="B22" s="19" t="s">
         <v>98</v>
       </c>
-      <c r="C22" s="24" t="s">
+      <c r="C22" s="23" t="s">
         <v>99</v>
       </c>
       <c r="D22" s="4">
         <v>2</v>
       </c>
-      <c r="E22" s="22" t="s">
+      <c r="E22" s="21" t="s">
         <v>100</v>
       </c>
-      <c r="F22" s="26" t="s">
+      <c r="F22" s="25" t="s">
         <v>101</v>
       </c>
       <c r="G22" s="4" t="s">
@@ -3090,19 +3087,19 @@
       <c r="A23">
         <v>120</v>
       </c>
-      <c r="B23" s="20" t="s">
+      <c r="B23" s="19" t="s">
         <v>103</v>
       </c>
-      <c r="C23" s="24" t="s">
+      <c r="C23" s="23" t="s">
         <v>104</v>
       </c>
       <c r="D23" s="4">
         <v>2</v>
       </c>
-      <c r="E23" s="22" t="s">
+      <c r="E23" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="F23" s="23" t="s">
+      <c r="F23" s="22" t="s">
         <v>105</v>
       </c>
       <c r="G23" s="4" t="s">
@@ -3122,19 +3119,19 @@
       <c r="A24">
         <v>121</v>
       </c>
-      <c r="B24" s="20" t="s">
+      <c r="B24" s="19" t="s">
         <v>107</v>
       </c>
-      <c r="C24" s="24" t="s">
+      <c r="C24" s="23" t="s">
         <v>51</v>
       </c>
       <c r="D24" s="4">
         <v>2</v>
       </c>
-      <c r="E24" s="22">
+      <c r="E24" s="21">
         <v>9</v>
       </c>
-      <c r="F24" s="23">
+      <c r="F24" s="22">
         <v>5</v>
       </c>
       <c r="G24" s="4" t="s">
@@ -3154,19 +3151,19 @@
       <c r="A25">
         <v>122</v>
       </c>
-      <c r="B25" s="20" t="s">
+      <c r="B25" s="19" t="s">
         <v>109</v>
       </c>
-      <c r="C25" s="24" t="s">
+      <c r="C25" s="23" t="s">
         <v>110</v>
       </c>
       <c r="D25" s="4">
         <v>2</v>
       </c>
-      <c r="E25" s="22">
+      <c r="E25" s="21">
         <v>7</v>
       </c>
-      <c r="F25" s="23">
+      <c r="F25" s="22">
         <v>2</v>
       </c>
       <c r="G25" s="4" t="s">
@@ -3186,19 +3183,19 @@
       <c r="A26">
         <v>123</v>
       </c>
-      <c r="B26" s="20" t="s">
+      <c r="B26" s="19" t="s">
         <v>112</v>
       </c>
-      <c r="C26" s="24" t="s">
+      <c r="C26" s="23" t="s">
         <v>113</v>
       </c>
       <c r="D26" s="4">
         <v>2</v>
       </c>
-      <c r="E26" s="22" t="s">
+      <c r="E26" s="21" t="s">
         <v>114</v>
       </c>
-      <c r="F26" s="23" t="s">
+      <c r="F26" s="22" t="s">
         <v>115</v>
       </c>
       <c r="G26" s="4" t="s">
@@ -3218,19 +3215,19 @@
       <c r="A27">
         <v>124</v>
       </c>
-      <c r="B27" s="20" t="s">
+      <c r="B27" s="19" t="s">
         <v>116</v>
       </c>
-      <c r="C27" s="24" t="s">
+      <c r="C27" s="23" t="s">
         <v>117</v>
       </c>
       <c r="D27" s="4">
         <v>2</v>
       </c>
-      <c r="E27" s="22" t="s">
+      <c r="E27" s="21" t="s">
         <v>118</v>
       </c>
-      <c r="F27" s="23" t="s">
+      <c r="F27" s="22" t="s">
         <v>119</v>
       </c>
       <c r="G27" s="4" t="s">
@@ -3250,19 +3247,19 @@
       <c r="A28">
         <v>125</v>
       </c>
-      <c r="B28" s="20" t="s">
+      <c r="B28" s="19" t="s">
         <v>120</v>
       </c>
-      <c r="C28" s="24" t="s">
+      <c r="C28" s="23" t="s">
         <v>121</v>
       </c>
       <c r="D28" s="4">
         <v>2</v>
       </c>
-      <c r="E28" s="22" t="s">
+      <c r="E28" s="21" t="s">
         <v>122</v>
       </c>
-      <c r="F28" s="23" t="s">
+      <c r="F28" s="22" t="s">
         <v>123</v>
       </c>
       <c r="G28" s="4" t="s">
@@ -3291,7 +3288,7 @@
       <c r="D29">
         <v>1</v>
       </c>
-      <c r="E29" s="9">
+      <c r="E29" s="8">
         <v>1</v>
       </c>
       <c r="F29">
@@ -3323,7 +3320,7 @@
       <c r="D30">
         <v>1</v>
       </c>
-      <c r="E30" s="9">
+      <c r="E30" s="8">
         <v>1</v>
       </c>
       <c r="F30">
@@ -3355,7 +3352,7 @@
       <c r="D31">
         <v>1</v>
       </c>
-      <c r="E31" s="9">
+      <c r="E31" s="8">
         <v>1</v>
       </c>
       <c r="F31">
@@ -3387,7 +3384,7 @@
       <c r="D32">
         <v>1</v>
       </c>
-      <c r="E32" s="9">
+      <c r="E32" s="8">
         <v>2</v>
       </c>
       <c r="F32">
@@ -3419,7 +3416,7 @@
       <c r="D33">
         <v>1</v>
       </c>
-      <c r="E33" s="9">
+      <c r="E33" s="8">
         <v>2</v>
       </c>
       <c r="F33">
@@ -3451,7 +3448,7 @@
       <c r="D34">
         <v>1</v>
       </c>
-      <c r="E34" s="9">
+      <c r="E34" s="8">
         <v>2</v>
       </c>
       <c r="F34">
@@ -3483,7 +3480,7 @@
       <c r="D35">
         <v>1</v>
       </c>
-      <c r="E35" s="9">
+      <c r="E35" s="8">
         <v>3</v>
       </c>
       <c r="F35">
@@ -3515,7 +3512,7 @@
       <c r="D36">
         <v>1</v>
       </c>
-      <c r="E36" s="9">
+      <c r="E36" s="8">
         <v>3</v>
       </c>
       <c r="F36">
@@ -3547,7 +3544,7 @@
       <c r="D37">
         <v>1</v>
       </c>
-      <c r="E37" s="9">
+      <c r="E37" s="8">
         <v>3</v>
       </c>
       <c r="F37">
@@ -3579,7 +3576,7 @@
       <c r="D38">
         <v>1</v>
       </c>
-      <c r="E38" s="9">
+      <c r="E38" s="8">
         <v>5</v>
       </c>
       <c r="F38">
@@ -3611,7 +3608,7 @@
       <c r="D39">
         <v>1</v>
       </c>
-      <c r="E39" s="9">
+      <c r="E39" s="8">
         <v>5</v>
       </c>
       <c r="F39">
@@ -3643,7 +3640,7 @@
       <c r="D40">
         <v>1</v>
       </c>
-      <c r="E40" s="9">
+      <c r="E40" s="8">
         <v>5</v>
       </c>
       <c r="F40">
@@ -3675,7 +3672,7 @@
       <c r="D41">
         <v>1</v>
       </c>
-      <c r="E41" s="9">
+      <c r="E41" s="8">
         <v>6</v>
       </c>
       <c r="F41">
@@ -3707,7 +3704,7 @@
       <c r="D42">
         <v>1</v>
       </c>
-      <c r="E42" s="9">
+      <c r="E42" s="8">
         <v>6</v>
       </c>
       <c r="F42">
@@ -3739,7 +3736,7 @@
       <c r="D43">
         <v>1</v>
       </c>
-      <c r="E43" s="9">
+      <c r="E43" s="8">
         <v>6</v>
       </c>
       <c r="F43">
@@ -3771,7 +3768,7 @@
       <c r="D44">
         <v>3</v>
       </c>
-      <c r="E44" s="9">
+      <c r="E44" s="8">
         <v>201</v>
       </c>
       <c r="F44">
@@ -3803,7 +3800,7 @@
       <c r="D45">
         <v>3</v>
       </c>
-      <c r="E45" s="9">
+      <c r="E45" s="8">
         <v>202</v>
       </c>
       <c r="F45">
@@ -3835,7 +3832,7 @@
       <c r="D46">
         <v>3</v>
       </c>
-      <c r="E46" s="9">
+      <c r="E46" s="8">
         <v>203</v>
       </c>
       <c r="F46">
@@ -3867,7 +3864,7 @@
       <c r="D47">
         <v>3</v>
       </c>
-      <c r="E47" s="9">
+      <c r="E47" s="8">
         <v>204</v>
       </c>
       <c r="F47">
@@ -3899,7 +3896,7 @@
       <c r="D48">
         <v>3</v>
       </c>
-      <c r="E48" s="9">
+      <c r="E48" s="8">
         <v>301</v>
       </c>
       <c r="F48">
@@ -3931,7 +3928,7 @@
       <c r="D49">
         <v>3</v>
       </c>
-      <c r="E49" s="9">
+      <c r="E49" s="8">
         <v>302</v>
       </c>
       <c r="F49">
@@ -3963,7 +3960,7 @@
       <c r="D50">
         <v>3</v>
       </c>
-      <c r="E50" s="9">
+      <c r="E50" s="8">
         <v>303</v>
       </c>
       <c r="F50">
@@ -3995,7 +3992,7 @@
       <c r="D51">
         <v>3</v>
       </c>
-      <c r="E51" s="9">
+      <c r="E51" s="8">
         <v>304</v>
       </c>
       <c r="F51">
@@ -4027,7 +4024,7 @@
       <c r="D52">
         <v>3</v>
       </c>
-      <c r="E52" s="9">
+      <c r="E52" s="8">
         <v>305</v>
       </c>
       <c r="F52">
@@ -4562,10 +4559,10 @@
       <c r="A69">
         <v>41</v>
       </c>
-      <c r="B69" s="9" t="s">
+      <c r="B69" s="8" t="s">
         <v>234</v>
       </c>
-      <c r="C69" s="25" t="s">
+      <c r="C69" s="24" t="s">
         <v>235</v>
       </c>
       <c r="D69">
@@ -4594,10 +4591,10 @@
       <c r="A70">
         <v>42</v>
       </c>
-      <c r="B70" s="9" t="s">
+      <c r="B70" s="8" t="s">
         <v>237</v>
       </c>
-      <c r="C70" s="25" t="s">
+      <c r="C70" s="24" t="s">
         <v>238</v>
       </c>
       <c r="D70">
@@ -4626,10 +4623,10 @@
       <c r="A71">
         <v>43</v>
       </c>
-      <c r="B71" s="9" t="s">
+      <c r="B71" s="8" t="s">
         <v>240</v>
       </c>
-      <c r="C71" s="25" t="s">
+      <c r="C71" s="24" t="s">
         <v>241</v>
       </c>
       <c r="D71">
@@ -4658,10 +4655,10 @@
       <c r="A72">
         <v>44</v>
       </c>
-      <c r="B72" s="9" t="s">
+      <c r="B72" s="8" t="s">
         <v>243</v>
       </c>
-      <c r="C72" s="25" t="s">
+      <c r="C72" s="24" t="s">
         <v>244</v>
       </c>
       <c r="D72">
@@ -4690,10 +4687,10 @@
       <c r="A73">
         <v>45</v>
       </c>
-      <c r="B73" s="9" t="s">
+      <c r="B73" s="8" t="s">
         <v>246</v>
       </c>
-      <c r="C73" s="25" t="s">
+      <c r="C73" s="24" t="s">
         <v>247</v>
       </c>
       <c r="D73">
@@ -4722,10 +4719,10 @@
       <c r="A74">
         <v>46</v>
       </c>
-      <c r="B74" s="9" t="s">
+      <c r="B74" s="8" t="s">
         <v>249</v>
       </c>
-      <c r="C74" s="25" t="s">
+      <c r="C74" s="24" t="s">
         <v>250</v>
       </c>
       <c r="D74">
@@ -4762,21 +4759,21 @@
   <sheetPr/>
   <dimension ref="A1:L25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="16.75" customWidth="1"/>
-    <col min="3" max="3" width="12" style="10" customWidth="1"/>
+    <col min="3" max="3" width="12" style="9" customWidth="1"/>
     <col min="4" max="4" width="10.375" customWidth="1"/>
-    <col min="5" max="5" width="12.375" style="11" customWidth="1"/>
+    <col min="5" max="5" width="12.375" style="10" customWidth="1"/>
     <col min="6" max="7" width="10.375" customWidth="1"/>
-    <col min="8" max="8" width="10.375" style="11" customWidth="1"/>
+    <col min="8" max="8" width="10.375" style="10" customWidth="1"/>
     <col min="9" max="9" width="16" customWidth="1"/>
     <col min="10" max="10" width="12.625" customWidth="1"/>
-    <col min="11" max="11" width="10.875" style="10" customWidth="1"/>
+    <col min="11" max="11" width="10.875" style="9" customWidth="1"/>
     <col min="12" max="12" width="10" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4787,34 +4784,34 @@
       <c r="B1" t="s">
         <v>253</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="11" t="s">
         <v>254</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="D1" s="12" t="s">
         <v>255</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="E1" s="13" t="s">
         <v>256</v>
       </c>
-      <c r="F1" s="15" t="s">
+      <c r="F1" s="14" t="s">
         <v>257</v>
       </c>
-      <c r="G1" s="15" t="s">
+      <c r="G1" s="14" t="s">
         <v>258</v>
       </c>
-      <c r="H1" s="16" t="s">
+      <c r="H1" s="15" t="s">
         <v>259</v>
       </c>
-      <c r="I1" s="17" t="s">
+      <c r="I1" s="16" t="s">
         <v>260</v>
       </c>
-      <c r="J1" s="17" t="s">
+      <c r="J1" s="16" t="s">
         <v>261</v>
       </c>
-      <c r="K1" s="18" t="s">
+      <c r="K1" s="17" t="s">
         <v>262</v>
       </c>
-      <c r="L1" s="19" t="s">
+      <c r="L1" s="18" t="s">
         <v>263</v>
       </c>
     </row>
@@ -4825,13 +4822,13 @@
       <c r="B2" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="9" t="s">
         <v>13</v>
       </c>
       <c r="D2" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="E2" s="10" t="s">
         <v>13</v>
       </c>
       <c r="F2" t="s">
@@ -4840,7 +4837,7 @@
       <c r="G2" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="11" t="s">
+      <c r="H2" s="10" t="s">
         <v>13</v>
       </c>
       <c r="I2" t="s">
@@ -4849,7 +4846,7 @@
       <c r="J2" t="s">
         <v>13</v>
       </c>
-      <c r="K2" s="10" t="s">
+      <c r="K2" s="9" t="s">
         <v>13</v>
       </c>
       <c r="L2" t="s">
@@ -4863,13 +4860,13 @@
       <c r="B3" s="4" t="s">
         <v>265</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="9" t="s">
         <v>266</v>
       </c>
       <c r="D3" t="s">
         <v>267</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="E3" s="10" t="s">
         <v>268</v>
       </c>
       <c r="F3" t="s">
@@ -4878,7 +4875,7 @@
       <c r="G3" t="s">
         <v>270</v>
       </c>
-      <c r="H3" s="11" t="s">
+      <c r="H3" s="10" t="s">
         <v>271</v>
       </c>
       <c r="I3" t="s">
@@ -4887,7 +4884,7 @@
       <c r="J3" t="s">
         <v>273</v>
       </c>
-      <c r="K3" s="10" t="s">
+      <c r="K3" s="9" t="s">
         <v>274</v>
       </c>
       <c r="L3" t="s">
@@ -4901,13 +4898,13 @@
       <c r="B4">
         <v>1</v>
       </c>
-      <c r="C4" s="10">
+      <c r="C4" s="9">
         <v>750</v>
       </c>
       <c r="D4">
         <v>200</v>
       </c>
-      <c r="E4" s="11">
+      <c r="E4" s="10">
         <v>50</v>
       </c>
       <c r="F4">
@@ -4916,7 +4913,7 @@
       <c r="G4">
         <v>30</v>
       </c>
-      <c r="H4" s="11">
+      <c r="H4" s="10">
         <v>20</v>
       </c>
       <c r="I4">
@@ -4925,7 +4922,7 @@
       <c r="J4">
         <v>10</v>
       </c>
-      <c r="K4" s="10">
+      <c r="K4" s="9">
         <v>90</v>
       </c>
       <c r="L4">
@@ -4939,13 +4936,13 @@
       <c r="B5">
         <v>2</v>
       </c>
-      <c r="C5" s="10">
+      <c r="C5" s="9">
         <v>100</v>
       </c>
       <c r="D5">
         <v>300</v>
       </c>
-      <c r="E5" s="11">
+      <c r="E5" s="10">
         <v>600</v>
       </c>
       <c r="F5">
@@ -4954,7 +4951,7 @@
       <c r="G5">
         <v>30</v>
       </c>
-      <c r="H5" s="11">
+      <c r="H5" s="10">
         <v>20</v>
       </c>
       <c r="I5">
@@ -4963,7 +4960,7 @@
       <c r="J5">
         <v>10</v>
       </c>
-      <c r="K5" s="10">
+      <c r="K5" s="9">
         <v>90</v>
       </c>
       <c r="L5">
@@ -4977,13 +4974,13 @@
       <c r="B6">
         <v>1</v>
       </c>
-      <c r="C6" s="10">
+      <c r="C6" s="9">
         <v>750</v>
       </c>
       <c r="D6">
         <v>200</v>
       </c>
-      <c r="E6" s="11">
+      <c r="E6" s="10">
         <v>20</v>
       </c>
       <c r="F6">
@@ -4992,7 +4989,7 @@
       <c r="G6">
         <v>30</v>
       </c>
-      <c r="H6" s="11">
+      <c r="H6" s="10">
         <v>20</v>
       </c>
       <c r="I6">
@@ -5001,7 +4998,7 @@
       <c r="J6">
         <v>10</v>
       </c>
-      <c r="K6" s="10">
+      <c r="K6" s="9">
         <v>90</v>
       </c>
       <c r="L6">
@@ -5015,13 +5012,13 @@
       <c r="B7">
         <v>2</v>
       </c>
-      <c r="C7" s="10">
+      <c r="C7" s="9">
         <v>100</v>
       </c>
       <c r="D7">
         <v>300</v>
       </c>
-      <c r="E7" s="11">
+      <c r="E7" s="10">
         <v>600</v>
       </c>
       <c r="F7">
@@ -5030,7 +5027,7 @@
       <c r="G7">
         <v>30</v>
       </c>
-      <c r="H7" s="11">
+      <c r="H7" s="10">
         <v>20</v>
       </c>
       <c r="I7">
@@ -5039,7 +5036,7 @@
       <c r="J7">
         <v>10</v>
       </c>
-      <c r="K7" s="10">
+      <c r="K7" s="9">
         <v>90</v>
       </c>
       <c r="L7">
@@ -5053,13 +5050,13 @@
       <c r="B8">
         <v>1</v>
       </c>
-      <c r="C8" s="10">
+      <c r="C8" s="9">
         <v>750</v>
       </c>
       <c r="D8">
         <v>200</v>
       </c>
-      <c r="E8" s="11">
+      <c r="E8" s="10">
         <v>50</v>
       </c>
       <c r="F8">
@@ -5068,7 +5065,7 @@
       <c r="G8">
         <v>30</v>
       </c>
-      <c r="H8" s="11">
+      <c r="H8" s="10">
         <v>20</v>
       </c>
       <c r="I8">
@@ -5077,7 +5074,7 @@
       <c r="J8">
         <v>10</v>
       </c>
-      <c r="K8" s="10">
+      <c r="K8" s="9">
         <v>90</v>
       </c>
       <c r="L8">
@@ -5091,13 +5088,13 @@
       <c r="B9">
         <v>2</v>
       </c>
-      <c r="C9" s="10">
+      <c r="C9" s="9">
         <v>100</v>
       </c>
       <c r="D9">
         <v>300</v>
       </c>
-      <c r="E9" s="11">
+      <c r="E9" s="10">
         <v>600</v>
       </c>
       <c r="F9">
@@ -5106,7 +5103,7 @@
       <c r="G9">
         <v>30</v>
       </c>
-      <c r="H9" s="11">
+      <c r="H9" s="10">
         <v>20</v>
       </c>
       <c r="I9">
@@ -5115,7 +5112,7 @@
       <c r="J9">
         <v>10</v>
       </c>
-      <c r="K9" s="10">
+      <c r="K9" s="9">
         <v>90</v>
       </c>
       <c r="L9">
@@ -5129,13 +5126,13 @@
       <c r="B10">
         <v>1</v>
       </c>
-      <c r="C10" s="10">
+      <c r="C10" s="9">
         <v>750</v>
       </c>
       <c r="D10">
         <v>200</v>
       </c>
-      <c r="E10" s="11">
+      <c r="E10" s="10">
         <v>50</v>
       </c>
       <c r="F10">
@@ -5144,7 +5141,7 @@
       <c r="G10">
         <v>30</v>
       </c>
-      <c r="H10" s="11">
+      <c r="H10" s="10">
         <v>20</v>
       </c>
       <c r="I10">
@@ -5153,7 +5150,7 @@
       <c r="J10">
         <v>10</v>
       </c>
-      <c r="K10" s="10">
+      <c r="K10" s="9">
         <v>90</v>
       </c>
       <c r="L10">
@@ -5167,13 +5164,13 @@
       <c r="B11">
         <v>2</v>
       </c>
-      <c r="C11" s="10">
+      <c r="C11" s="9">
         <v>100</v>
       </c>
       <c r="D11">
         <v>300</v>
       </c>
-      <c r="E11" s="11">
+      <c r="E11" s="10">
         <v>600</v>
       </c>
       <c r="F11">
@@ -5182,7 +5179,7 @@
       <c r="G11">
         <v>30</v>
       </c>
-      <c r="H11" s="11">
+      <c r="H11" s="10">
         <v>20</v>
       </c>
       <c r="I11">
@@ -5191,7 +5188,7 @@
       <c r="J11">
         <v>10</v>
       </c>
-      <c r="K11" s="10">
+      <c r="K11" s="9">
         <v>90</v>
       </c>
       <c r="L11">
@@ -5205,13 +5202,13 @@
       <c r="B12">
         <v>1</v>
       </c>
-      <c r="C12" s="10">
+      <c r="C12" s="9">
         <v>750</v>
       </c>
       <c r="D12">
         <v>200</v>
       </c>
-      <c r="E12" s="11">
+      <c r="E12" s="10">
         <v>50</v>
       </c>
       <c r="F12">
@@ -5220,7 +5217,7 @@
       <c r="G12">
         <v>30</v>
       </c>
-      <c r="H12" s="11">
+      <c r="H12" s="10">
         <v>20</v>
       </c>
       <c r="I12">
@@ -5229,7 +5226,7 @@
       <c r="J12">
         <v>10</v>
       </c>
-      <c r="K12" s="10">
+      <c r="K12" s="9">
         <v>90</v>
       </c>
       <c r="L12">
@@ -5243,13 +5240,13 @@
       <c r="B13">
         <v>2</v>
       </c>
-      <c r="C13" s="10">
+      <c r="C13" s="9">
         <v>100</v>
       </c>
       <c r="D13">
         <v>300</v>
       </c>
-      <c r="E13" s="11">
+      <c r="E13" s="10">
         <v>600</v>
       </c>
       <c r="F13">
@@ -5258,7 +5255,7 @@
       <c r="G13">
         <v>30</v>
       </c>
-      <c r="H13" s="11">
+      <c r="H13" s="10">
         <v>20</v>
       </c>
       <c r="I13">
@@ -5267,7 +5264,7 @@
       <c r="J13">
         <v>10</v>
       </c>
-      <c r="K13" s="10">
+      <c r="K13" s="9">
         <v>90</v>
       </c>
       <c r="L13">
@@ -5281,13 +5278,13 @@
       <c r="B14">
         <v>1</v>
       </c>
-      <c r="C14" s="10">
+      <c r="C14" s="9">
         <v>750</v>
       </c>
       <c r="D14">
         <v>200</v>
       </c>
-      <c r="E14" s="11">
+      <c r="E14" s="10">
         <v>50</v>
       </c>
       <c r="F14">
@@ -5296,7 +5293,7 @@
       <c r="G14">
         <v>30</v>
       </c>
-      <c r="H14" s="11">
+      <c r="H14" s="10">
         <v>20</v>
       </c>
       <c r="I14">
@@ -5305,7 +5302,7 @@
       <c r="J14">
         <v>10</v>
       </c>
-      <c r="K14" s="10">
+      <c r="K14" s="9">
         <v>90</v>
       </c>
       <c r="L14">
@@ -5319,13 +5316,13 @@
       <c r="B15">
         <v>2</v>
       </c>
-      <c r="C15" s="10">
+      <c r="C15" s="9">
         <v>100</v>
       </c>
       <c r="D15">
         <v>300</v>
       </c>
-      <c r="E15" s="11">
+      <c r="E15" s="10">
         <v>600</v>
       </c>
       <c r="F15">
@@ -5334,7 +5331,7 @@
       <c r="G15">
         <v>30</v>
       </c>
-      <c r="H15" s="11">
+      <c r="H15" s="10">
         <v>20</v>
       </c>
       <c r="I15">
@@ -5343,7 +5340,7 @@
       <c r="J15">
         <v>10</v>
       </c>
-      <c r="K15" s="10">
+      <c r="K15" s="9">
         <v>90</v>
       </c>
       <c r="L15">
@@ -5357,13 +5354,13 @@
       <c r="B16">
         <v>1</v>
       </c>
-      <c r="C16" s="10">
+      <c r="C16" s="9">
         <v>750</v>
       </c>
       <c r="D16">
         <v>200</v>
       </c>
-      <c r="E16" s="11">
+      <c r="E16" s="10">
         <v>50</v>
       </c>
       <c r="F16">
@@ -5372,7 +5369,7 @@
       <c r="G16">
         <v>30</v>
       </c>
-      <c r="H16" s="11">
+      <c r="H16" s="10">
         <v>20</v>
       </c>
       <c r="I16">
@@ -5381,7 +5378,7 @@
       <c r="J16">
         <v>10</v>
       </c>
-      <c r="K16" s="10">
+      <c r="K16" s="9">
         <v>90</v>
       </c>
       <c r="L16">
@@ -5395,13 +5392,13 @@
       <c r="B17">
         <v>2</v>
       </c>
-      <c r="C17" s="10">
+      <c r="C17" s="9">
         <v>100</v>
       </c>
       <c r="D17">
         <v>300</v>
       </c>
-      <c r="E17" s="11">
+      <c r="E17" s="10">
         <v>600</v>
       </c>
       <c r="F17">
@@ -5410,7 +5407,7 @@
       <c r="G17">
         <v>30</v>
       </c>
-      <c r="H17" s="11">
+      <c r="H17" s="10">
         <v>20</v>
       </c>
       <c r="I17">
@@ -5419,7 +5416,7 @@
       <c r="J17">
         <v>10</v>
       </c>
-      <c r="K17" s="10">
+      <c r="K17" s="9">
         <v>90</v>
       </c>
       <c r="L17">
@@ -5433,13 +5430,13 @@
       <c r="B18">
         <v>1</v>
       </c>
-      <c r="C18" s="10">
+      <c r="C18" s="9">
         <v>750</v>
       </c>
       <c r="D18">
         <v>200</v>
       </c>
-      <c r="E18" s="11">
+      <c r="E18" s="10">
         <v>50</v>
       </c>
       <c r="F18">
@@ -5448,7 +5445,7 @@
       <c r="G18">
         <v>30</v>
       </c>
-      <c r="H18" s="11">
+      <c r="H18" s="10">
         <v>20</v>
       </c>
       <c r="I18">
@@ -5457,7 +5454,7 @@
       <c r="J18">
         <v>10</v>
       </c>
-      <c r="K18" s="10">
+      <c r="K18" s="9">
         <v>90</v>
       </c>
       <c r="L18">
@@ -5471,13 +5468,13 @@
       <c r="B19">
         <v>2</v>
       </c>
-      <c r="C19" s="10">
+      <c r="C19" s="9">
         <v>100</v>
       </c>
       <c r="D19">
         <v>300</v>
       </c>
-      <c r="E19" s="11">
+      <c r="E19" s="10">
         <v>600</v>
       </c>
       <c r="F19">
@@ -5486,7 +5483,7 @@
       <c r="G19">
         <v>30</v>
       </c>
-      <c r="H19" s="11">
+      <c r="H19" s="10">
         <v>20</v>
       </c>
       <c r="I19">
@@ -5495,7 +5492,7 @@
       <c r="J19">
         <v>10</v>
       </c>
-      <c r="K19" s="10">
+      <c r="K19" s="9">
         <v>90</v>
       </c>
       <c r="L19">
@@ -5509,13 +5506,13 @@
       <c r="B20">
         <v>1</v>
       </c>
-      <c r="C20" s="10">
+      <c r="C20" s="9">
         <v>750</v>
       </c>
       <c r="D20">
         <v>200</v>
       </c>
-      <c r="E20" s="11">
+      <c r="E20" s="10">
         <v>50</v>
       </c>
       <c r="F20">
@@ -5524,7 +5521,7 @@
       <c r="G20">
         <v>30</v>
       </c>
-      <c r="H20" s="11">
+      <c r="H20" s="10">
         <v>20</v>
       </c>
       <c r="I20">
@@ -5533,7 +5530,7 @@
       <c r="J20">
         <v>10</v>
       </c>
-      <c r="K20" s="10">
+      <c r="K20" s="9">
         <v>90</v>
       </c>
       <c r="L20">
@@ -5547,13 +5544,13 @@
       <c r="B21">
         <v>2</v>
       </c>
-      <c r="C21" s="10">
+      <c r="C21" s="9">
         <v>100</v>
       </c>
       <c r="D21">
         <v>300</v>
       </c>
-      <c r="E21" s="11">
+      <c r="E21" s="10">
         <v>600</v>
       </c>
       <c r="F21">
@@ -5562,7 +5559,7 @@
       <c r="G21">
         <v>30</v>
       </c>
-      <c r="H21" s="11">
+      <c r="H21" s="10">
         <v>20</v>
       </c>
       <c r="I21">
@@ -5571,7 +5568,7 @@
       <c r="J21">
         <v>10</v>
       </c>
-      <c r="K21" s="10">
+      <c r="K21" s="9">
         <v>90</v>
       </c>
       <c r="L21">
@@ -5585,13 +5582,13 @@
       <c r="B22">
         <v>1</v>
       </c>
-      <c r="C22" s="10">
+      <c r="C22" s="9">
         <v>750</v>
       </c>
       <c r="D22">
         <v>200</v>
       </c>
-      <c r="E22" s="11">
+      <c r="E22" s="10">
         <v>50</v>
       </c>
       <c r="F22">
@@ -5600,7 +5597,7 @@
       <c r="G22">
         <v>30</v>
       </c>
-      <c r="H22" s="11">
+      <c r="H22" s="10">
         <v>20</v>
       </c>
       <c r="I22">
@@ -5609,7 +5606,7 @@
       <c r="J22">
         <v>10</v>
       </c>
-      <c r="K22" s="10">
+      <c r="K22" s="9">
         <v>90</v>
       </c>
       <c r="L22">
@@ -5623,13 +5620,13 @@
       <c r="B23">
         <v>2</v>
       </c>
-      <c r="C23" s="10">
+      <c r="C23" s="9">
         <v>100</v>
       </c>
       <c r="D23">
         <v>300</v>
       </c>
-      <c r="E23" s="11">
+      <c r="E23" s="10">
         <v>600</v>
       </c>
       <c r="F23">
@@ -5638,7 +5635,7 @@
       <c r="G23">
         <v>30</v>
       </c>
-      <c r="H23" s="11">
+      <c r="H23" s="10">
         <v>20</v>
       </c>
       <c r="I23">
@@ -5647,7 +5644,7 @@
       <c r="J23">
         <v>10</v>
       </c>
-      <c r="K23" s="10">
+      <c r="K23" s="9">
         <v>90</v>
       </c>
       <c r="L23">
@@ -5661,13 +5658,13 @@
       <c r="B24">
         <v>1</v>
       </c>
-      <c r="C24" s="10">
+      <c r="C24" s="9">
         <v>750</v>
       </c>
       <c r="D24">
         <v>200</v>
       </c>
-      <c r="E24" s="11">
+      <c r="E24" s="10">
         <v>50</v>
       </c>
       <c r="F24">
@@ -5676,7 +5673,7 @@
       <c r="G24">
         <v>30</v>
       </c>
-      <c r="H24" s="11">
+      <c r="H24" s="10">
         <v>20</v>
       </c>
       <c r="I24">
@@ -5685,7 +5682,7 @@
       <c r="J24">
         <v>10</v>
       </c>
-      <c r="K24" s="10">
+      <c r="K24" s="9">
         <v>90</v>
       </c>
       <c r="L24">
@@ -5699,13 +5696,13 @@
       <c r="B25">
         <v>2</v>
       </c>
-      <c r="C25" s="10">
+      <c r="C25" s="9">
         <v>100</v>
       </c>
       <c r="D25">
         <v>300</v>
       </c>
-      <c r="E25" s="11">
+      <c r="E25" s="10">
         <v>600</v>
       </c>
       <c r="F25">
@@ -5714,7 +5711,7 @@
       <c r="G25">
         <v>30</v>
       </c>
-      <c r="H25" s="11">
+      <c r="H25" s="10">
         <v>20</v>
       </c>
       <c r="I25">
@@ -5723,7 +5720,7 @@
       <c r="J25">
         <v>10</v>
       </c>
-      <c r="K25" s="10">
+      <c r="K25" s="9">
         <v>90</v>
       </c>
       <c r="L25">
@@ -5778,7 +5775,7 @@
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="9">
+      <c r="A4" s="8">
         <v>1</v>
       </c>
       <c r="B4">
@@ -5786,7 +5783,7 @@
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="9">
+      <c r="A5" s="8">
         <v>2</v>
       </c>
       <c r="B5">
@@ -5794,7 +5791,7 @@
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="9">
+      <c r="A6" s="8">
         <v>3</v>
       </c>
       <c r="B6">
@@ -5802,7 +5799,7 @@
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="9">
+      <c r="A7" s="8">
         <v>4</v>
       </c>
       <c r="B7">
@@ -5810,7 +5807,7 @@
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="9">
+      <c r="A8" s="8">
         <v>5</v>
       </c>
       <c r="B8">
@@ -5818,7 +5815,7 @@
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="9">
+      <c r="A9" s="8">
         <v>6</v>
       </c>
       <c r="B9">
@@ -5826,7 +5823,7 @@
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="9">
+      <c r="A10" s="8">
         <v>7</v>
       </c>
       <c r="B10">
@@ -5834,7 +5831,7 @@
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="9">
+      <c r="A11" s="8">
         <v>8</v>
       </c>
       <c r="B11">
@@ -5842,7 +5839,7 @@
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="9">
+      <c r="A12" s="8">
         <v>9</v>
       </c>
       <c r="B12">
@@ -5850,7 +5847,7 @@
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="9">
+      <c r="A13" s="8">
         <v>10</v>
       </c>
       <c r="B13">
@@ -5858,7 +5855,7 @@
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="9">
+      <c r="A14" s="8">
         <v>11</v>
       </c>
       <c r="B14">
@@ -5866,7 +5863,7 @@
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="9">
+      <c r="A15" s="8">
         <v>12</v>
       </c>
       <c r="B15">
@@ -5874,7 +5871,7 @@
       </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="9">
+      <c r="A16" s="8">
         <v>13</v>
       </c>
       <c r="B16">
@@ -5882,7 +5879,7 @@
       </c>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="9">
+      <c r="A17" s="8">
         <v>14</v>
       </c>
       <c r="B17">
@@ -5890,7 +5887,7 @@
       </c>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" s="9">
+      <c r="A18" s="8">
         <v>15</v>
       </c>
       <c r="B18">
@@ -5898,7 +5895,7 @@
       </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="9">
+      <c r="A19" s="8">
         <v>16</v>
       </c>
       <c r="B19">
@@ -5906,7 +5903,7 @@
       </c>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="9">
+      <c r="A20" s="8">
         <v>17</v>
       </c>
       <c r="B20">
@@ -5914,7 +5911,7 @@
       </c>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" s="9">
+      <c r="A21" s="8">
         <v>18</v>
       </c>
       <c r="B21">
@@ -5922,7 +5919,7 @@
       </c>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" s="9">
+      <c r="A22" s="8">
         <v>19</v>
       </c>
       <c r="B22">
@@ -5930,7 +5927,7 @@
       </c>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="9">
+      <c r="A23" s="8">
         <v>20</v>
       </c>
       <c r="B23">
@@ -5938,7 +5935,7 @@
       </c>
     </row>
     <row r="24" spans="1:2">
-      <c r="A24" s="9">
+      <c r="A24" s="8">
         <v>21</v>
       </c>
       <c r="B24">
@@ -5946,7 +5943,7 @@
       </c>
     </row>
     <row r="25" spans="1:2">
-      <c r="A25" s="9">
+      <c r="A25" s="8">
         <v>22</v>
       </c>
       <c r="B25">
@@ -5954,7 +5951,7 @@
       </c>
     </row>
     <row r="26" spans="1:2">
-      <c r="A26" s="9">
+      <c r="A26" s="8">
         <v>23</v>
       </c>
       <c r="B26">
@@ -5962,7 +5959,7 @@
       </c>
     </row>
     <row r="27" spans="1:2">
-      <c r="A27" s="9">
+      <c r="A27" s="8">
         <v>24</v>
       </c>
       <c r="B27">
@@ -5970,7 +5967,7 @@
       </c>
     </row>
     <row r="28" spans="1:2">
-      <c r="A28" s="9">
+      <c r="A28" s="8">
         <v>25</v>
       </c>
       <c r="B28">
@@ -5978,7 +5975,7 @@
       </c>
     </row>
     <row r="29" spans="1:2">
-      <c r="A29" s="9">
+      <c r="A29" s="8">
         <v>26</v>
       </c>
       <c r="B29">
@@ -5986,7 +5983,7 @@
       </c>
     </row>
     <row r="30" spans="1:2">
-      <c r="A30" s="9">
+      <c r="A30" s="8">
         <v>27</v>
       </c>
       <c r="B30">
@@ -5994,7 +5991,7 @@
       </c>
     </row>
     <row r="31" spans="1:2">
-      <c r="A31" s="9">
+      <c r="A31" s="8">
         <v>28</v>
       </c>
       <c r="B31">
@@ -6002,7 +5999,7 @@
       </c>
     </row>
     <row r="32" spans="1:2">
-      <c r="A32" s="9">
+      <c r="A32" s="8">
         <v>29</v>
       </c>
       <c r="B32">
@@ -6010,7 +6007,7 @@
       </c>
     </row>
     <row r="33" spans="1:2">
-      <c r="A33" s="9">
+      <c r="A33" s="8">
         <v>30</v>
       </c>
       <c r="B33">
@@ -6018,7 +6015,7 @@
       </c>
     </row>
     <row r="34" spans="1:2">
-      <c r="A34" s="9">
+      <c r="A34" s="8">
         <v>31</v>
       </c>
       <c r="B34">
@@ -6026,7 +6023,7 @@
       </c>
     </row>
     <row r="35" spans="1:2">
-      <c r="A35" s="9">
+      <c r="A35" s="8">
         <v>32</v>
       </c>
       <c r="B35">
@@ -6034,7 +6031,7 @@
       </c>
     </row>
     <row r="36" spans="1:2">
-      <c r="A36" s="9">
+      <c r="A36" s="8">
         <v>33</v>
       </c>
       <c r="B36">
@@ -6042,7 +6039,7 @@
       </c>
     </row>
     <row r="37" spans="1:2">
-      <c r="A37" s="9">
+      <c r="A37" s="8">
         <v>34</v>
       </c>
       <c r="B37">
@@ -6050,7 +6047,7 @@
       </c>
     </row>
     <row r="38" spans="1:2">
-      <c r="A38" s="9">
+      <c r="A38" s="8">
         <v>35</v>
       </c>
       <c r="B38">
@@ -6185,895 +6182,895 @@
       </c>
     </row>
     <row r="3" ht="14.25" spans="1:15">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="5" t="s">
         <v>296</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="6" t="s">
         <v>297</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="6" t="s">
         <v>298</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="5" t="s">
         <v>299</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="5" t="s">
         <v>300</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F3" s="5" t="s">
         <v>301</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="G3" s="5" t="s">
         <v>302</v>
       </c>
-      <c r="H3" s="6" t="s">
+      <c r="H3" s="5" t="s">
         <v>303</v>
       </c>
-      <c r="I3" s="6" t="s">
+      <c r="I3" s="5" t="s">
         <v>304</v>
       </c>
-      <c r="J3" s="6" t="s">
+      <c r="J3" s="5" t="s">
         <v>305</v>
       </c>
-      <c r="K3" s="6" t="s">
+      <c r="K3" s="5" t="s">
         <v>306</v>
       </c>
-      <c r="L3" s="6" t="s">
+      <c r="L3" s="5" t="s">
         <v>307</v>
       </c>
-      <c r="M3" s="6" t="s">
+      <c r="M3" s="5" t="s">
         <v>308</v>
       </c>
-      <c r="N3" s="6" t="s">
+      <c r="N3" s="5" t="s">
         <v>309</v>
       </c>
-      <c r="O3" s="6" t="s">
+      <c r="O3" s="5" t="s">
         <v>310</v>
       </c>
     </row>
     <row r="4" ht="14.25" spans="1:15">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="5" t="s">
         <v>311</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="6" t="s">
         <v>312</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="6" t="s">
         <v>313</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="5" t="s">
         <v>314</v>
       </c>
-      <c r="E4" s="27" t="s">
+      <c r="E4" s="26" t="s">
         <v>315</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="F4" s="5" t="s">
         <v>316</v>
       </c>
-      <c r="G4" s="27" t="s">
+      <c r="G4" s="26" t="s">
         <v>317</v>
       </c>
-      <c r="H4" s="27" t="s">
+      <c r="H4" s="26" t="s">
         <v>314</v>
       </c>
-      <c r="I4" s="27" t="s">
+      <c r="I4" s="26" t="s">
         <v>315</v>
       </c>
-      <c r="J4" s="27" t="s">
+      <c r="J4" s="26" t="s">
         <v>318</v>
       </c>
-      <c r="K4" s="6" t="s">
+      <c r="K4" s="5" t="s">
         <v>319</v>
       </c>
-      <c r="L4" s="27" t="s">
+      <c r="L4" s="26" t="s">
         <v>320</v>
       </c>
-      <c r="M4" s="27" t="s">
+      <c r="M4" s="26" t="s">
         <v>321</v>
       </c>
-      <c r="N4" s="6" t="s">
+      <c r="N4" s="5" t="s">
         <v>322</v>
       </c>
-      <c r="O4" s="27" t="s">
+      <c r="O4" s="26" t="s">
         <v>321</v>
       </c>
     </row>
     <row r="5" ht="14.25" spans="1:15">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="5" t="s">
         <v>311</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="6" t="s">
         <v>312</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="6" t="s">
         <v>313</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="5" t="s">
         <v>317</v>
       </c>
-      <c r="E5" s="27" t="s">
+      <c r="E5" s="26" t="s">
         <v>323</v>
       </c>
-      <c r="F5" s="6" t="s">
+      <c r="F5" s="5" t="s">
         <v>324</v>
       </c>
-      <c r="G5" s="27" t="s">
+      <c r="G5" s="26" t="s">
         <v>317</v>
       </c>
-      <c r="H5" s="27" t="s">
+      <c r="H5" s="26" t="s">
         <v>314</v>
       </c>
-      <c r="I5" s="27" t="s">
+      <c r="I5" s="26" t="s">
         <v>315</v>
       </c>
-      <c r="J5" s="27" t="s">
+      <c r="J5" s="26" t="s">
         <v>318</v>
       </c>
-      <c r="K5" s="6" t="s">
+      <c r="K5" s="5" t="s">
         <v>319</v>
       </c>
-      <c r="L5" s="27" t="s">
+      <c r="L5" s="26" t="s">
         <v>320</v>
       </c>
-      <c r="M5" s="27" t="s">
+      <c r="M5" s="26" t="s">
         <v>325</v>
       </c>
-      <c r="N5" s="6" t="s">
+      <c r="N5" s="5" t="s">
         <v>313</v>
       </c>
-      <c r="O5" s="27" t="s">
+      <c r="O5" s="26" t="s">
         <v>325</v>
       </c>
     </row>
     <row r="6" ht="14.25" spans="1:15">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="5" t="s">
         <v>311</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="6" t="s">
         <v>326</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="6" t="s">
         <v>313</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="5" t="s">
         <v>314</v>
       </c>
-      <c r="E6" s="27" t="s">
+      <c r="E6" s="26" t="s">
         <v>327</v>
       </c>
-      <c r="F6" s="6" t="s">
+      <c r="F6" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="G6" s="27" t="s">
+      <c r="G6" s="26" t="s">
         <v>317</v>
       </c>
-      <c r="H6" s="27" t="s">
+      <c r="H6" s="26" t="s">
         <v>314</v>
       </c>
-      <c r="I6" s="27" t="s">
+      <c r="I6" s="26" t="s">
         <v>315</v>
       </c>
-      <c r="J6" s="27" t="s">
+      <c r="J6" s="26" t="s">
         <v>318</v>
       </c>
-      <c r="K6" s="6" t="s">
+      <c r="K6" s="5" t="s">
         <v>319</v>
       </c>
-      <c r="L6" s="27" t="s">
+      <c r="L6" s="26" t="s">
         <v>320</v>
       </c>
-      <c r="M6" s="27" t="s">
+      <c r="M6" s="26" t="s">
         <v>321</v>
       </c>
-      <c r="N6" s="6" t="s">
+      <c r="N6" s="5" t="s">
         <v>322</v>
       </c>
-      <c r="O6" s="27" t="s">
+      <c r="O6" s="26" t="s">
         <v>321</v>
       </c>
     </row>
     <row r="7" ht="14.25" spans="1:15">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="5" t="s">
         <v>311</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="6" t="s">
         <v>326</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="6" t="s">
         <v>313</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="D7" s="5" t="s">
         <v>317</v>
       </c>
-      <c r="E7" s="27" t="s">
+      <c r="E7" s="26" t="s">
         <v>323</v>
       </c>
-      <c r="F7" s="6" t="s">
+      <c r="F7" s="5" t="s">
         <v>328</v>
       </c>
-      <c r="G7" s="27" t="s">
+      <c r="G7" s="26" t="s">
         <v>317</v>
       </c>
-      <c r="H7" s="27" t="s">
+      <c r="H7" s="26" t="s">
         <v>314</v>
       </c>
-      <c r="I7" s="27" t="s">
+      <c r="I7" s="26" t="s">
         <v>315</v>
       </c>
-      <c r="J7" s="27" t="s">
+      <c r="J7" s="26" t="s">
         <v>318</v>
       </c>
-      <c r="K7" s="6" t="s">
+      <c r="K7" s="5" t="s">
         <v>319</v>
       </c>
-      <c r="L7" s="27" t="s">
+      <c r="L7" s="26" t="s">
         <v>320</v>
       </c>
-      <c r="M7" s="27" t="s">
+      <c r="M7" s="26" t="s">
         <v>325</v>
       </c>
-      <c r="N7" s="6" t="s">
+      <c r="N7" s="5" t="s">
         <v>313</v>
       </c>
-      <c r="O7" s="27" t="s">
+      <c r="O7" s="26" t="s">
         <v>325</v>
       </c>
     </row>
     <row r="8" ht="14.25" spans="1:15">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="5" t="s">
         <v>311</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="6" t="s">
         <v>329</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="6" t="s">
         <v>313</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="D8" s="5" t="s">
         <v>314</v>
       </c>
-      <c r="E8" s="27" t="s">
+      <c r="E8" s="26" t="s">
         <v>314</v>
       </c>
-      <c r="F8" s="6" t="s">
+      <c r="F8" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="G8" s="27" t="s">
+      <c r="G8" s="26" t="s">
         <v>317</v>
       </c>
-      <c r="H8" s="27" t="s">
+      <c r="H8" s="26" t="s">
         <v>314</v>
       </c>
-      <c r="I8" s="27" t="s">
+      <c r="I8" s="26" t="s">
         <v>315</v>
       </c>
-      <c r="J8" s="27" t="s">
+      <c r="J8" s="26" t="s">
         <v>318</v>
       </c>
-      <c r="K8" s="6" t="s">
+      <c r="K8" s="5" t="s">
         <v>319</v>
       </c>
-      <c r="L8" s="27" t="s">
+      <c r="L8" s="26" t="s">
         <v>320</v>
       </c>
-      <c r="M8" s="27" t="s">
+      <c r="M8" s="26" t="s">
         <v>321</v>
       </c>
-      <c r="N8" s="6" t="s">
+      <c r="N8" s="5" t="s">
         <v>322</v>
       </c>
-      <c r="O8" s="27" t="s">
+      <c r="O8" s="26" t="s">
         <v>321</v>
       </c>
     </row>
     <row r="9" ht="14.25" spans="1:15">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="5" t="s">
         <v>311</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="6" t="s">
         <v>329</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="6" t="s">
         <v>313</v>
       </c>
-      <c r="D9" s="6" t="s">
+      <c r="D9" s="5" t="s">
         <v>317</v>
       </c>
-      <c r="E9" s="27" t="s">
+      <c r="E9" s="26" t="s">
         <v>323</v>
       </c>
-      <c r="F9" s="6" t="s">
+      <c r="F9" s="5" t="s">
         <v>330</v>
       </c>
-      <c r="G9" s="27" t="s">
+      <c r="G9" s="26" t="s">
         <v>317</v>
       </c>
-      <c r="H9" s="27" t="s">
+      <c r="H9" s="26" t="s">
         <v>314</v>
       </c>
-      <c r="I9" s="27" t="s">
+      <c r="I9" s="26" t="s">
         <v>315</v>
       </c>
-      <c r="J9" s="27" t="s">
+      <c r="J9" s="26" t="s">
         <v>318</v>
       </c>
-      <c r="K9" s="6" t="s">
+      <c r="K9" s="5" t="s">
         <v>319</v>
       </c>
-      <c r="L9" s="27" t="s">
+      <c r="L9" s="26" t="s">
         <v>320</v>
       </c>
-      <c r="M9" s="27" t="s">
+      <c r="M9" s="26" t="s">
         <v>325</v>
       </c>
-      <c r="N9" s="6" t="s">
+      <c r="N9" s="5" t="s">
         <v>313</v>
       </c>
-      <c r="O9" s="27" t="s">
+      <c r="O9" s="26" t="s">
         <v>325</v>
       </c>
     </row>
     <row r="10" ht="14.25" spans="1:15">
-      <c r="A10" s="6" t="s">
+      <c r="A10" s="5" t="s">
         <v>331</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="6" t="s">
         <v>332</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="C10" s="6" t="s">
         <v>313</v>
       </c>
-      <c r="D10" s="6" t="s">
+      <c r="D10" s="5" t="s">
         <v>323</v>
       </c>
-      <c r="E10" s="6" t="s">
+      <c r="E10" s="5" t="s">
         <v>323</v>
       </c>
-      <c r="F10" s="6" t="s">
+      <c r="F10" s="5" t="s">
         <v>333</v>
       </c>
-      <c r="G10" s="6" t="s">
+      <c r="G10" s="5" t="s">
         <v>323</v>
       </c>
-      <c r="H10" s="27" t="s">
+      <c r="H10" s="26" t="s">
         <v>314</v>
       </c>
-      <c r="I10" s="6" t="s">
+      <c r="I10" s="5" t="s">
         <v>323</v>
       </c>
-      <c r="J10" s="27" t="s">
+      <c r="J10" s="26" t="s">
         <v>318</v>
       </c>
-      <c r="K10" s="6" t="s">
+      <c r="K10" s="5" t="s">
         <v>334</v>
       </c>
-      <c r="L10" s="27" t="s">
+      <c r="L10" s="26" t="s">
         <v>320</v>
       </c>
-      <c r="M10" s="27" t="s">
+      <c r="M10" s="26" t="s">
         <v>321</v>
       </c>
-      <c r="N10" s="6" t="s">
+      <c r="N10" s="5" t="s">
         <v>333</v>
       </c>
-      <c r="O10" s="27" t="s">
+      <c r="O10" s="26" t="s">
         <v>321</v>
       </c>
     </row>
     <row r="11" ht="14.25" spans="1:15">
-      <c r="A11" s="6" t="s">
+      <c r="A11" s="5" t="s">
         <v>331</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="6" t="s">
         <v>332</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="C11" s="6" t="s">
         <v>313</v>
       </c>
-      <c r="D11" s="6" t="s">
+      <c r="D11" s="5" t="s">
         <v>335</v>
       </c>
-      <c r="E11" s="6" t="s">
+      <c r="E11" s="5" t="s">
         <v>317</v>
       </c>
-      <c r="F11" s="6" t="s">
+      <c r="F11" s="5" t="s">
         <v>324</v>
       </c>
-      <c r="G11" s="6" t="s">
+      <c r="G11" s="5" t="s">
         <v>323</v>
       </c>
-      <c r="H11" s="27" t="s">
+      <c r="H11" s="26" t="s">
         <v>314</v>
       </c>
-      <c r="I11" s="6" t="s">
+      <c r="I11" s="5" t="s">
         <v>323</v>
       </c>
-      <c r="J11" s="27" t="s">
+      <c r="J11" s="26" t="s">
         <v>318</v>
       </c>
-      <c r="K11" s="6" t="s">
+      <c r="K11" s="5" t="s">
         <v>334</v>
       </c>
-      <c r="L11" s="27" t="s">
+      <c r="L11" s="26" t="s">
         <v>320</v>
       </c>
-      <c r="M11" s="27" t="s">
+      <c r="M11" s="26" t="s">
         <v>325</v>
       </c>
-      <c r="N11" s="6" t="s">
+      <c r="N11" s="5" t="s">
         <v>313</v>
       </c>
-      <c r="O11" s="27" t="s">
+      <c r="O11" s="26" t="s">
         <v>325</v>
       </c>
     </row>
     <row r="12" ht="14.25" spans="1:15">
-      <c r="A12" s="6" t="s">
+      <c r="A12" s="5" t="s">
         <v>331</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="6" t="s">
         <v>336</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="C12" s="6" t="s">
         <v>313</v>
       </c>
-      <c r="D12" s="6" t="s">
+      <c r="D12" s="5" t="s">
         <v>315</v>
       </c>
-      <c r="E12" s="6" t="s">
+      <c r="E12" s="5" t="s">
         <v>337</v>
       </c>
-      <c r="F12" s="6" t="s">
+      <c r="F12" s="5" t="s">
         <v>322</v>
       </c>
-      <c r="G12" s="6" t="s">
+      <c r="G12" s="5" t="s">
         <v>323</v>
       </c>
-      <c r="H12" s="27" t="s">
+      <c r="H12" s="26" t="s">
         <v>314</v>
       </c>
-      <c r="I12" s="6" t="s">
+      <c r="I12" s="5" t="s">
         <v>323</v>
       </c>
-      <c r="J12" s="27" t="s">
+      <c r="J12" s="26" t="s">
         <v>318</v>
       </c>
-      <c r="K12" s="6" t="s">
+      <c r="K12" s="5" t="s">
         <v>334</v>
       </c>
-      <c r="L12" s="27" t="s">
+      <c r="L12" s="26" t="s">
         <v>320</v>
       </c>
-      <c r="M12" s="27" t="s">
+      <c r="M12" s="26" t="s">
         <v>321</v>
       </c>
-      <c r="N12" s="6" t="s">
+      <c r="N12" s="5" t="s">
         <v>333</v>
       </c>
-      <c r="O12" s="27" t="s">
+      <c r="O12" s="26" t="s">
         <v>321</v>
       </c>
     </row>
     <row r="13" ht="14.25" spans="1:15">
-      <c r="A13" s="6" t="s">
+      <c r="A13" s="5" t="s">
         <v>331</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="6" t="s">
         <v>336</v>
       </c>
-      <c r="C13" s="7" t="s">
+      <c r="C13" s="6" t="s">
         <v>313</v>
       </c>
-      <c r="D13" s="6" t="s">
+      <c r="D13" s="5" t="s">
         <v>338</v>
       </c>
-      <c r="E13" s="6" t="s">
+      <c r="E13" s="5" t="s">
         <v>317</v>
       </c>
-      <c r="F13" s="6" t="s">
+      <c r="F13" s="5" t="s">
         <v>324</v>
       </c>
-      <c r="G13" s="6" t="s">
+      <c r="G13" s="5" t="s">
         <v>323</v>
       </c>
-      <c r="H13" s="27" t="s">
+      <c r="H13" s="26" t="s">
         <v>314</v>
       </c>
-      <c r="I13" s="6" t="s">
+      <c r="I13" s="5" t="s">
         <v>323</v>
       </c>
-      <c r="J13" s="27" t="s">
+      <c r="J13" s="26" t="s">
         <v>318</v>
       </c>
-      <c r="K13" s="6" t="s">
+      <c r="K13" s="5" t="s">
         <v>334</v>
       </c>
-      <c r="L13" s="27" t="s">
+      <c r="L13" s="26" t="s">
         <v>320</v>
       </c>
-      <c r="M13" s="27" t="s">
+      <c r="M13" s="26" t="s">
         <v>325</v>
       </c>
-      <c r="N13" s="6" t="s">
+      <c r="N13" s="5" t="s">
         <v>313</v>
       </c>
-      <c r="O13" s="27" t="s">
+      <c r="O13" s="26" t="s">
         <v>325</v>
       </c>
     </row>
     <row r="14" ht="14.25" spans="1:15">
-      <c r="A14" s="6" t="s">
+      <c r="A14" s="5" t="s">
         <v>331</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="B14" s="6" t="s">
         <v>339</v>
       </c>
-      <c r="C14" s="7" t="s">
+      <c r="C14" s="6" t="s">
         <v>313</v>
       </c>
-      <c r="D14" s="6" t="s">
+      <c r="D14" s="5" t="s">
         <v>315</v>
       </c>
-      <c r="E14" s="6" t="s">
+      <c r="E14" s="5" t="s">
         <v>337</v>
       </c>
-      <c r="F14" s="6" t="s">
+      <c r="F14" s="5" t="s">
         <v>322</v>
       </c>
-      <c r="G14" s="6" t="s">
+      <c r="G14" s="5" t="s">
         <v>323</v>
       </c>
-      <c r="H14" s="27" t="s">
+      <c r="H14" s="26" t="s">
         <v>314</v>
       </c>
-      <c r="I14" s="6" t="s">
+      <c r="I14" s="5" t="s">
         <v>323</v>
       </c>
-      <c r="J14" s="27" t="s">
+      <c r="J14" s="26" t="s">
         <v>318</v>
       </c>
-      <c r="K14" s="6" t="s">
+      <c r="K14" s="5" t="s">
         <v>334</v>
       </c>
-      <c r="L14" s="27" t="s">
+      <c r="L14" s="26" t="s">
         <v>320</v>
       </c>
-      <c r="M14" s="27" t="s">
+      <c r="M14" s="26" t="s">
         <v>321</v>
       </c>
-      <c r="N14" s="6" t="s">
+      <c r="N14" s="5" t="s">
         <v>333</v>
       </c>
-      <c r="O14" s="27" t="s">
+      <c r="O14" s="26" t="s">
         <v>321</v>
       </c>
     </row>
     <row r="15" ht="14.25" spans="1:15">
-      <c r="A15" s="6" t="s">
+      <c r="A15" s="5" t="s">
         <v>331</v>
       </c>
-      <c r="B15" s="7" t="s">
+      <c r="B15" s="6" t="s">
         <v>339</v>
       </c>
-      <c r="C15" s="7" t="s">
+      <c r="C15" s="6" t="s">
         <v>313</v>
       </c>
-      <c r="D15" s="6" t="s">
+      <c r="D15" s="5" t="s">
         <v>338</v>
       </c>
-      <c r="E15" s="6" t="s">
+      <c r="E15" s="5" t="s">
         <v>317</v>
       </c>
-      <c r="F15" s="6" t="s">
+      <c r="F15" s="5" t="s">
         <v>324</v>
       </c>
-      <c r="G15" s="6" t="s">
+      <c r="G15" s="5" t="s">
         <v>323</v>
       </c>
-      <c r="H15" s="27" t="s">
+      <c r="H15" s="26" t="s">
         <v>314</v>
       </c>
-      <c r="I15" s="6" t="s">
+      <c r="I15" s="5" t="s">
         <v>323</v>
       </c>
-      <c r="J15" s="27" t="s">
+      <c r="J15" s="26" t="s">
         <v>318</v>
       </c>
-      <c r="K15" s="6" t="s">
+      <c r="K15" s="5" t="s">
         <v>334</v>
       </c>
-      <c r="L15" s="27" t="s">
+      <c r="L15" s="26" t="s">
         <v>320</v>
       </c>
-      <c r="M15" s="27" t="s">
+      <c r="M15" s="26" t="s">
         <v>325</v>
       </c>
-      <c r="N15" s="6" t="s">
+      <c r="N15" s="5" t="s">
         <v>313</v>
       </c>
-      <c r="O15" s="27" t="s">
+      <c r="O15" s="26" t="s">
         <v>325</v>
       </c>
     </row>
     <row r="16" ht="14.25" spans="1:15">
-      <c r="A16" s="6" t="s">
+      <c r="A16" s="5" t="s">
         <v>340</v>
       </c>
-      <c r="B16" s="7" t="s">
+      <c r="B16" s="6" t="s">
         <v>341</v>
       </c>
-      <c r="C16" s="8" t="s">
+      <c r="C16" s="7" t="s">
         <v>313</v>
       </c>
-      <c r="D16" s="6" t="s">
+      <c r="D16" s="5" t="s">
         <v>323</v>
       </c>
-      <c r="E16" s="6" t="s">
+      <c r="E16" s="5" t="s">
         <v>342</v>
       </c>
-      <c r="F16" s="6" t="s">
+      <c r="F16" s="5" t="s">
         <v>333</v>
       </c>
-      <c r="G16" s="27" t="s">
+      <c r="G16" s="26" t="s">
         <v>317</v>
       </c>
-      <c r="H16" s="27" t="s">
+      <c r="H16" s="26" t="s">
         <v>314</v>
       </c>
-      <c r="I16" s="27" t="s">
+      <c r="I16" s="26" t="s">
         <v>342</v>
       </c>
-      <c r="J16" s="27" t="s">
+      <c r="J16" s="26" t="s">
         <v>318</v>
       </c>
-      <c r="K16" s="6" t="s">
+      <c r="K16" s="5" t="s">
         <v>343</v>
       </c>
-      <c r="L16" s="6" t="s">
+      <c r="L16" s="5" t="s">
         <v>320</v>
       </c>
-      <c r="M16" s="27" t="s">
+      <c r="M16" s="26" t="s">
         <v>321</v>
       </c>
-      <c r="N16" s="6" t="s">
+      <c r="N16" s="5" t="s">
         <v>344</v>
       </c>
-      <c r="O16" s="27" t="s">
+      <c r="O16" s="26" t="s">
         <v>321</v>
       </c>
     </row>
     <row r="17" ht="14.25" spans="1:15">
-      <c r="A17" s="6" t="s">
+      <c r="A17" s="5" t="s">
         <v>340</v>
       </c>
-      <c r="B17" s="7" t="s">
+      <c r="B17" s="6" t="s">
         <v>341</v>
       </c>
-      <c r="C17" s="8" t="s">
+      <c r="C17" s="7" t="s">
         <v>313</v>
       </c>
-      <c r="D17" s="6" t="s">
+      <c r="D17" s="5" t="s">
         <v>323</v>
       </c>
-      <c r="E17" s="6" t="s">
+      <c r="E17" s="5" t="s">
         <v>337</v>
       </c>
-      <c r="F17" s="6" t="s">
+      <c r="F17" s="5" t="s">
         <v>345</v>
       </c>
-      <c r="G17" s="27" t="s">
+      <c r="G17" s="26" t="s">
         <v>317</v>
       </c>
-      <c r="H17" s="27" t="s">
+      <c r="H17" s="26" t="s">
         <v>314</v>
       </c>
-      <c r="I17" s="27" t="s">
+      <c r="I17" s="26" t="s">
         <v>342</v>
       </c>
-      <c r="J17" s="27" t="s">
+      <c r="J17" s="26" t="s">
         <v>318</v>
       </c>
-      <c r="K17" s="6" t="s">
+      <c r="K17" s="5" t="s">
         <v>343</v>
       </c>
-      <c r="L17" s="6" t="s">
+      <c r="L17" s="5" t="s">
         <v>320</v>
       </c>
-      <c r="M17" s="27" t="s">
+      <c r="M17" s="26" t="s">
         <v>325</v>
       </c>
-      <c r="N17" s="6" t="s">
+      <c r="N17" s="5" t="s">
         <v>313</v>
       </c>
-      <c r="O17" s="27" t="s">
+      <c r="O17" s="26" t="s">
         <v>321</v>
       </c>
     </row>
     <row r="18" ht="14.25" spans="1:15">
-      <c r="A18" s="6" t="s">
+      <c r="A18" s="5" t="s">
         <v>340</v>
       </c>
-      <c r="B18" s="7" t="s">
+      <c r="B18" s="6" t="s">
         <v>346</v>
       </c>
-      <c r="C18" s="8" t="s">
+      <c r="C18" s="7" t="s">
         <v>313</v>
       </c>
-      <c r="D18" s="6" t="s">
+      <c r="D18" s="5" t="s">
         <v>323</v>
       </c>
-      <c r="E18" s="6" t="s">
+      <c r="E18" s="5" t="s">
         <v>323</v>
       </c>
-      <c r="F18" s="6" t="s">
+      <c r="F18" s="5" t="s">
         <v>322</v>
       </c>
-      <c r="G18" s="27" t="s">
+      <c r="G18" s="26" t="s">
         <v>317</v>
       </c>
-      <c r="H18" s="27" t="s">
+      <c r="H18" s="26" t="s">
         <v>314</v>
       </c>
-      <c r="I18" s="27" t="s">
+      <c r="I18" s="26" t="s">
         <v>342</v>
       </c>
-      <c r="J18" s="27" t="s">
+      <c r="J18" s="26" t="s">
         <v>318</v>
       </c>
-      <c r="K18" s="6" t="s">
+      <c r="K18" s="5" t="s">
         <v>343</v>
       </c>
-      <c r="L18" s="6" t="s">
+      <c r="L18" s="5" t="s">
         <v>320</v>
       </c>
-      <c r="M18" s="27" t="s">
+      <c r="M18" s="26" t="s">
         <v>321</v>
       </c>
-      <c r="N18" s="6" t="s">
+      <c r="N18" s="5" t="s">
         <v>344</v>
       </c>
-      <c r="O18" s="27" t="s">
+      <c r="O18" s="26" t="s">
         <v>321</v>
       </c>
     </row>
     <row r="19" ht="14.25" spans="1:15">
-      <c r="A19" s="6" t="s">
+      <c r="A19" s="5" t="s">
         <v>340</v>
       </c>
-      <c r="B19" s="7" t="s">
+      <c r="B19" s="6" t="s">
         <v>346</v>
       </c>
-      <c r="C19" s="8" t="s">
+      <c r="C19" s="7" t="s">
         <v>313</v>
       </c>
-      <c r="D19" s="6" t="s">
+      <c r="D19" s="5" t="s">
         <v>323</v>
       </c>
-      <c r="E19" s="6" t="s">
+      <c r="E19" s="5" t="s">
         <v>337</v>
       </c>
-      <c r="F19" s="6" t="s">
+      <c r="F19" s="5" t="s">
         <v>324</v>
       </c>
-      <c r="G19" s="27" t="s">
+      <c r="G19" s="26" t="s">
         <v>317</v>
       </c>
-      <c r="H19" s="27" t="s">
+      <c r="H19" s="26" t="s">
         <v>314</v>
       </c>
-      <c r="I19" s="27" t="s">
+      <c r="I19" s="26" t="s">
         <v>342</v>
       </c>
-      <c r="J19" s="27" t="s">
+      <c r="J19" s="26" t="s">
         <v>318</v>
       </c>
-      <c r="K19" s="6" t="s">
+      <c r="K19" s="5" t="s">
         <v>343</v>
       </c>
-      <c r="L19" s="6" t="s">
+      <c r="L19" s="5" t="s">
         <v>320</v>
       </c>
-      <c r="M19" s="27" t="s">
+      <c r="M19" s="26" t="s">
         <v>325</v>
       </c>
-      <c r="N19" s="6" t="s">
+      <c r="N19" s="5" t="s">
         <v>313</v>
       </c>
-      <c r="O19" s="27" t="s">
+      <c r="O19" s="26" t="s">
         <v>321</v>
       </c>
     </row>
     <row r="20" ht="14.25" spans="1:15">
-      <c r="A20" s="6" t="s">
+      <c r="A20" s="5" t="s">
         <v>340</v>
       </c>
-      <c r="B20" s="7" t="s">
+      <c r="B20" s="6" t="s">
         <v>339</v>
       </c>
-      <c r="C20" s="8" t="s">
+      <c r="C20" s="7" t="s">
         <v>313</v>
       </c>
-      <c r="D20" s="6" t="s">
+      <c r="D20" s="5" t="s">
         <v>323</v>
       </c>
-      <c r="E20" s="6" t="s">
+      <c r="E20" s="5" t="s">
         <v>337</v>
       </c>
-      <c r="F20" s="6" t="s">
+      <c r="F20" s="5" t="s">
         <v>347</v>
       </c>
-      <c r="G20" s="27" t="s">
+      <c r="G20" s="26" t="s">
         <v>317</v>
       </c>
-      <c r="H20" s="27" t="s">
+      <c r="H20" s="26" t="s">
         <v>314</v>
       </c>
-      <c r="I20" s="27" t="s">
+      <c r="I20" s="26" t="s">
         <v>342</v>
       </c>
-      <c r="J20" s="27" t="s">
+      <c r="J20" s="26" t="s">
         <v>318</v>
       </c>
-      <c r="K20" s="6" t="s">
+      <c r="K20" s="5" t="s">
         <v>343</v>
       </c>
-      <c r="L20" s="6" t="s">
+      <c r="L20" s="5" t="s">
         <v>320</v>
       </c>
-      <c r="M20" s="27" t="s">
+      <c r="M20" s="26" t="s">
         <v>321</v>
       </c>
-      <c r="N20" s="6" t="s">
+      <c r="N20" s="5" t="s">
         <v>344</v>
       </c>
-      <c r="O20" s="27" t="s">
+      <c r="O20" s="26" t="s">
         <v>321</v>
       </c>
     </row>
     <row r="21" ht="14.25" spans="1:15">
-      <c r="A21" s="6" t="s">
+      <c r="A21" s="5" t="s">
         <v>340</v>
       </c>
-      <c r="B21" s="7" t="s">
+      <c r="B21" s="6" t="s">
         <v>339</v>
       </c>
-      <c r="C21" s="8" t="s">
+      <c r="C21" s="7" t="s">
         <v>313</v>
       </c>
-      <c r="D21" s="6" t="s">
+      <c r="D21" s="5" t="s">
         <v>323</v>
       </c>
-      <c r="E21" s="6" t="s">
+      <c r="E21" s="5" t="s">
         <v>315</v>
       </c>
-      <c r="F21" s="6" t="s">
+      <c r="F21" s="5" t="s">
         <v>324</v>
       </c>
-      <c r="G21" s="27" t="s">
+      <c r="G21" s="26" t="s">
         <v>317</v>
       </c>
-      <c r="H21" s="27" t="s">
+      <c r="H21" s="26" t="s">
         <v>314</v>
       </c>
-      <c r="I21" s="27" t="s">
+      <c r="I21" s="26" t="s">
         <v>342</v>
       </c>
-      <c r="J21" s="27" t="s">
+      <c r="J21" s="26" t="s">
         <v>318</v>
       </c>
-      <c r="K21" s="6" t="s">
+      <c r="K21" s="5" t="s">
         <v>343</v>
       </c>
-      <c r="L21" s="6" t="s">
+      <c r="L21" s="5" t="s">
         <v>320</v>
       </c>
-      <c r="M21" s="27" t="s">
+      <c r="M21" s="26" t="s">
         <v>325</v>
       </c>
-      <c r="N21" s="6" t="s">
+      <c r="N21" s="5" t="s">
         <v>313</v>
       </c>
-      <c r="O21" s="27" t="s">
+      <c r="O21" s="26" t="s">
         <v>321</v>
       </c>
     </row>
@@ -7084,43 +7081,43 @@
       <c r="B22" s="4" t="s">
         <v>322</v>
       </c>
-      <c r="C22" s="8" t="s">
+      <c r="C22" s="7" t="s">
         <v>313</v>
       </c>
-      <c r="D22" s="6">
-        <v>10</v>
-      </c>
-      <c r="E22" s="6">
+      <c r="D22" s="5">
+        <v>10</v>
+      </c>
+      <c r="E22" s="5">
         <v>7</v>
       </c>
-      <c r="F22" s="6" t="s">
+      <c r="F22" s="5" t="s">
         <v>324</v>
       </c>
-      <c r="G22" s="27" t="s">
+      <c r="G22" s="26" t="s">
         <v>335</v>
       </c>
-      <c r="H22" s="27" t="s">
+      <c r="H22" s="26" t="s">
         <v>314</v>
       </c>
-      <c r="I22" s="27" t="s">
+      <c r="I22" s="26" t="s">
         <v>317</v>
       </c>
-      <c r="J22" s="27" t="s">
+      <c r="J22" s="26" t="s">
         <v>318</v>
       </c>
-      <c r="K22" s="6" t="s">
+      <c r="K22" s="5" t="s">
         <v>349</v>
       </c>
-      <c r="L22" s="6" t="s">
+      <c r="L22" s="5" t="s">
         <v>320</v>
       </c>
-      <c r="M22" s="27" t="s">
+      <c r="M22" s="26" t="s">
         <v>325</v>
       </c>
-      <c r="N22" s="6" t="s">
+      <c r="N22" s="5" t="s">
         <v>313</v>
       </c>
-      <c r="O22" s="27" t="s">
+      <c r="O22" s="26" t="s">
         <v>325</v>
       </c>
     </row>
@@ -7131,43 +7128,43 @@
       <c r="B23" s="4" t="s">
         <v>322</v>
       </c>
-      <c r="C23" s="8" t="s">
+      <c r="C23" s="7" t="s">
         <v>313</v>
       </c>
-      <c r="D23" s="6">
-        <v>10</v>
-      </c>
-      <c r="E23" s="6" t="s">
+      <c r="D23" s="5">
+        <v>10</v>
+      </c>
+      <c r="E23" s="5" t="s">
         <v>317</v>
       </c>
-      <c r="F23" s="6" t="s">
+      <c r="F23" s="5" t="s">
         <v>350</v>
       </c>
-      <c r="G23" s="27" t="s">
+      <c r="G23" s="26" t="s">
         <v>335</v>
       </c>
-      <c r="H23" s="27" t="s">
+      <c r="H23" s="26" t="s">
         <v>314</v>
       </c>
-      <c r="I23" s="27" t="s">
+      <c r="I23" s="26" t="s">
         <v>317</v>
       </c>
-      <c r="J23" s="27" t="s">
+      <c r="J23" s="26" t="s">
         <v>318</v>
       </c>
-      <c r="K23" s="6" t="s">
+      <c r="K23" s="5" t="s">
         <v>349</v>
       </c>
-      <c r="L23" s="6" t="s">
+      <c r="L23" s="5" t="s">
         <v>320</v>
       </c>
-      <c r="M23" s="27" t="s">
+      <c r="M23" s="26" t="s">
         <v>325</v>
       </c>
-      <c r="N23" s="6" t="s">
+      <c r="N23" s="5" t="s">
         <v>313</v>
       </c>
-      <c r="O23" s="27" t="s">
+      <c r="O23" s="26" t="s">
         <v>325</v>
       </c>
     </row>
@@ -7178,43 +7175,43 @@
       <c r="B24" s="4" t="s">
         <v>346</v>
       </c>
-      <c r="C24" s="8" t="s">
+      <c r="C24" s="7" t="s">
         <v>313</v>
       </c>
-      <c r="D24" s="6">
-        <v>10</v>
-      </c>
-      <c r="E24" s="6" t="s">
+      <c r="D24" s="5">
+        <v>10</v>
+      </c>
+      <c r="E24" s="5" t="s">
         <v>317</v>
       </c>
-      <c r="F24" s="6" t="s">
+      <c r="F24" s="5" t="s">
         <v>350</v>
       </c>
-      <c r="G24" s="27" t="s">
+      <c r="G24" s="26" t="s">
         <v>335</v>
       </c>
-      <c r="H24" s="27" t="s">
+      <c r="H24" s="26" t="s">
         <v>314</v>
       </c>
-      <c r="I24" s="27" t="s">
+      <c r="I24" s="26" t="s">
         <v>317</v>
       </c>
-      <c r="J24" s="27" t="s">
+      <c r="J24" s="26" t="s">
         <v>318</v>
       </c>
-      <c r="K24" s="6" t="s">
+      <c r="K24" s="5" t="s">
         <v>349</v>
       </c>
-      <c r="L24" s="6" t="s">
+      <c r="L24" s="5" t="s">
         <v>320</v>
       </c>
-      <c r="M24" s="27" t="s">
+      <c r="M24" s="26" t="s">
         <v>325</v>
       </c>
-      <c r="N24" s="6" t="s">
+      <c r="N24" s="5" t="s">
         <v>313</v>
       </c>
-      <c r="O24" s="27" t="s">
+      <c r="O24" s="26" t="s">
         <v>325</v>
       </c>
     </row>
@@ -7225,43 +7222,43 @@
       <c r="B25" s="4" t="s">
         <v>346</v>
       </c>
-      <c r="C25" s="8" t="s">
+      <c r="C25" s="7" t="s">
         <v>313</v>
       </c>
-      <c r="D25" s="6">
-        <v>10</v>
-      </c>
-      <c r="E25" s="6" t="s">
+      <c r="D25" s="5">
+        <v>10</v>
+      </c>
+      <c r="E25" s="5" t="s">
         <v>317</v>
       </c>
-      <c r="F25" s="6" t="s">
+      <c r="F25" s="5" t="s">
         <v>350</v>
       </c>
-      <c r="G25" s="27" t="s">
+      <c r="G25" s="26" t="s">
         <v>335</v>
       </c>
-      <c r="H25" s="27" t="s">
+      <c r="H25" s="26" t="s">
         <v>314</v>
       </c>
-      <c r="I25" s="27" t="s">
+      <c r="I25" s="26" t="s">
         <v>317</v>
       </c>
-      <c r="J25" s="27" t="s">
+      <c r="J25" s="26" t="s">
         <v>318</v>
       </c>
-      <c r="K25" s="6" t="s">
+      <c r="K25" s="5" t="s">
         <v>349</v>
       </c>
-      <c r="L25" s="6" t="s">
+      <c r="L25" s="5" t="s">
         <v>320</v>
       </c>
-      <c r="M25" s="27" t="s">
+      <c r="M25" s="26" t="s">
         <v>325</v>
       </c>
-      <c r="N25" s="6" t="s">
+      <c r="N25" s="5" t="s">
         <v>313</v>
       </c>
-      <c r="O25" s="27" t="s">
+      <c r="O25" s="26" t="s">
         <v>325</v>
       </c>
     </row>
@@ -7272,43 +7269,43 @@
       <c r="B26" s="4" t="s">
         <v>339</v>
       </c>
-      <c r="C26" s="8" t="s">
+      <c r="C26" s="7" t="s">
         <v>313</v>
       </c>
-      <c r="D26" s="6">
-        <v>10</v>
-      </c>
-      <c r="E26" s="6" t="s">
+      <c r="D26" s="5">
+        <v>10</v>
+      </c>
+      <c r="E26" s="5" t="s">
         <v>317</v>
       </c>
-      <c r="F26" s="6" t="s">
+      <c r="F26" s="5" t="s">
         <v>350</v>
       </c>
-      <c r="G26" s="27" t="s">
+      <c r="G26" s="26" t="s">
         <v>335</v>
       </c>
-      <c r="H26" s="27" t="s">
+      <c r="H26" s="26" t="s">
         <v>314</v>
       </c>
-      <c r="I26" s="27" t="s">
+      <c r="I26" s="26" t="s">
         <v>317</v>
       </c>
-      <c r="J26" s="27" t="s">
+      <c r="J26" s="26" t="s">
         <v>318</v>
       </c>
-      <c r="K26" s="6" t="s">
+      <c r="K26" s="5" t="s">
         <v>349</v>
       </c>
-      <c r="L26" s="6" t="s">
+      <c r="L26" s="5" t="s">
         <v>320</v>
       </c>
-      <c r="M26" s="27" t="s">
+      <c r="M26" s="26" t="s">
         <v>325</v>
       </c>
-      <c r="N26" s="6" t="s">
+      <c r="N26" s="5" t="s">
         <v>313</v>
       </c>
-      <c r="O26" s="27" t="s">
+      <c r="O26" s="26" t="s">
         <v>325</v>
       </c>
     </row>
@@ -7319,43 +7316,43 @@
       <c r="B27" s="4" t="s">
         <v>339</v>
       </c>
-      <c r="C27" s="8" t="s">
+      <c r="C27" s="7" t="s">
         <v>313</v>
       </c>
-      <c r="D27" s="6">
-        <v>10</v>
-      </c>
-      <c r="E27" s="6" t="s">
+      <c r="D27" s="5">
+        <v>10</v>
+      </c>
+      <c r="E27" s="5" t="s">
         <v>317</v>
       </c>
-      <c r="F27" s="6" t="s">
+      <c r="F27" s="5" t="s">
         <v>350</v>
       </c>
-      <c r="G27" s="27" t="s">
+      <c r="G27" s="26" t="s">
         <v>335</v>
       </c>
-      <c r="H27" s="27" t="s">
+      <c r="H27" s="26" t="s">
         <v>314</v>
       </c>
-      <c r="I27" s="27" t="s">
+      <c r="I27" s="26" t="s">
         <v>317</v>
       </c>
-      <c r="J27" s="27" t="s">
+      <c r="J27" s="26" t="s">
         <v>318</v>
       </c>
-      <c r="K27" s="6" t="s">
+      <c r="K27" s="5" t="s">
         <v>349</v>
       </c>
-      <c r="L27" s="6" t="s">
+      <c r="L27" s="5" t="s">
         <v>320</v>
       </c>
-      <c r="M27" s="27" t="s">
+      <c r="M27" s="26" t="s">
         <v>325</v>
       </c>
-      <c r="N27" s="6" t="s">
+      <c r="N27" s="5" t="s">
         <v>313</v>
       </c>
-      <c r="O27" s="27" t="s">
+      <c r="O27" s="26" t="s">
         <v>325</v>
       </c>
     </row>
@@ -7396,13 +7393,13 @@
       <c r="L28">
         <v>0</v>
       </c>
-      <c r="M28" s="28" t="s">
+      <c r="M28" s="27" t="s">
         <v>325</v>
       </c>
       <c r="N28">
         <v>-1</v>
       </c>
-      <c r="O28" s="28" t="s">
+      <c r="O28" s="27" t="s">
         <v>325</v>
       </c>
     </row>
@@ -7907,7 +7904,7 @@
   <sheetPr/>
   <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
@@ -7970,7 +7967,7 @@
       <c r="C4" t="s">
         <v>382</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="4" t="s">
         <v>383</v>
       </c>
     </row>
